--- a/app/data/base_export.xlsx
+++ b/app/data/base_export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="488">
   <si>
     <t>Fecha de la visita</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Reporte de Accidentes</t>
   </si>
   <si>
-    <t>Médic@</t>
-  </si>
-  <si>
     <t>Glicemia</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
     <t>Tipo de Sangre</t>
   </si>
   <si>
+    <t>Doctor</t>
+  </si>
+  <si>
     <t>Antecedentes de Desnutrición</t>
   </si>
   <si>
@@ -232,6 +232,9 @@
     <t>Tratamiento</t>
   </si>
   <si>
+    <t xml:space="preserve">Médic@ </t>
+  </si>
+  <si>
     <t>Visita a la Comunidad</t>
   </si>
   <si>
@@ -322,6 +325,9 @@
     <t>Desnutricion</t>
   </si>
   <si>
+    <t>Diabetica</t>
+  </si>
+  <si>
     <t>Dolor cuerpo y/o cabeza inc. migraña</t>
   </si>
   <si>
@@ -836,9 +842,6 @@
   </si>
   <si>
     <t>Citológico - Frotis adecuado pero limitado - Fijacion deficiente</t>
-  </si>
-  <si>
-    <t>Citológico - Frotis adecuado pero limitado - Hemorragia</t>
   </si>
   <si>
     <t>Citológico - Frotis adecuado pero limitado - Presencia de exudado inflamatorio</t>
@@ -1504,24 +1507,22 @@
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="12.0"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
+      <sz val="12.0"/>
+      <color rgb="FF222222"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -1552,12 +1553,18 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1582,104 +1589,116 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1913,35 +1932,33 @@
     <col customWidth="1" min="21" max="21" width="12.44"/>
     <col customWidth="1" min="22" max="22" width="11.89"/>
     <col customWidth="1" min="23" max="23" width="12.0"/>
-    <col customWidth="1" min="24" max="26" width="10.56"/>
-    <col customWidth="1" min="27" max="28" width="13.33"/>
-    <col customWidth="1" min="29" max="34" width="10.56"/>
-    <col customWidth="1" min="35" max="35" width="13.11"/>
-    <col customWidth="1" min="36" max="36" width="10.56"/>
-    <col customWidth="1" min="37" max="38" width="13.44"/>
-    <col customWidth="1" min="39" max="40" width="10.56"/>
-    <col customWidth="1" min="41" max="41" width="12.44"/>
-    <col customWidth="1" min="42" max="42" width="12.11"/>
-    <col customWidth="1" min="43" max="44" width="10.56"/>
-    <col customWidth="1" min="45" max="45" width="13.78"/>
-    <col customWidth="1" min="46" max="48" width="10.56"/>
-    <col customWidth="1" min="49" max="49" width="15.89"/>
-    <col customWidth="1" min="50" max="50" width="14.44"/>
-    <col customWidth="1" min="51" max="51" width="10.56"/>
-    <col customWidth="1" min="52" max="52" width="12.0"/>
-    <col customWidth="1" min="53" max="53" width="12.11"/>
+    <col customWidth="1" min="24" max="25" width="10.56"/>
+    <col customWidth="1" min="26" max="27" width="13.33"/>
+    <col customWidth="1" min="28" max="33" width="10.56"/>
+    <col customWidth="1" min="34" max="34" width="13.11"/>
+    <col customWidth="1" min="35" max="35" width="10.56"/>
+    <col customWidth="1" min="36" max="37" width="13.44"/>
+    <col customWidth="1" min="38" max="39" width="10.56"/>
+    <col customWidth="1" min="40" max="40" width="12.44"/>
+    <col customWidth="1" min="41" max="41" width="12.11"/>
+    <col customWidth="1" min="42" max="43" width="10.56"/>
+    <col customWidth="1" min="44" max="44" width="13.78"/>
+    <col customWidth="1" min="45" max="47" width="10.56"/>
+    <col customWidth="1" min="48" max="48" width="15.89"/>
+    <col customWidth="1" min="49" max="49" width="14.44"/>
+    <col customWidth="1" min="50" max="51" width="10.56"/>
+    <col customWidth="1" min="52" max="52" width="12.11"/>
+    <col customWidth="1" min="53" max="53" width="13.33"/>
     <col customWidth="1" min="54" max="54" width="13.0"/>
-    <col customWidth="1" min="55" max="273" width="10.56"/>
-    <col customWidth="1" min="274" max="274" width="14.11"/>
-    <col customWidth="1" min="275" max="494" width="10.56"/>
-    <col customWidth="1" min="495" max="495" width="12.11"/>
-    <col customWidth="1" min="496" max="497" width="10.56"/>
-    <col customWidth="1" min="498" max="498" width="12.44"/>
-    <col customWidth="1" min="499" max="499" width="11.56"/>
-    <col customWidth="1" min="500" max="500" width="10.56"/>
+    <col customWidth="1" min="55" max="475" width="10.56"/>
+    <col customWidth="1" min="476" max="476" width="12.11"/>
+    <col customWidth="1" min="477" max="478" width="10.56"/>
+    <col customWidth="1" min="479" max="479" width="12.44"/>
+    <col customWidth="1" min="480" max="480" width="11.56"/>
+    <col customWidth="1" min="481" max="481" width="10.56"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51.0" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1975,1564 +1992,1507 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="AI1" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="AJ1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="ER1" s="4" t="s">
+      <c r="EO1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="FO1" s="5" t="s">
+      <c r="FK1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="FX1" s="5" t="s">
+      <c r="FS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="GL1" s="4" t="s">
+      <c r="GF1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="IL1" s="4" t="s">
+      <c r="IE1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="JJ1" s="5" t="s">
+      <c r="JB1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="KW1" s="5" t="s">
+      <c r="KM1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="ML1" s="5" t="s">
+      <c r="MA1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="NC1" s="5" t="s">
+      <c r="MQ1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="NZ1" s="5" t="s">
+      <c r="NM1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="OY1" s="5" t="s">
+      <c r="OK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="PQ1" s="5" t="s">
+      <c r="PB1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="QS1" s="5" t="s">
+      <c r="QC1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="RG1" s="5" t="s">
+      <c r="QP1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="RY1" s="5" t="s">
+      <c r="RG1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" ht="114.0" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="9" t="s">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL2" s="13" t="s">
+      <c r="AK2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM2" s="13" t="s">
+      <c r="AL2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AN2" s="13" t="s">
+      <c r="AM2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AO2" s="13" t="s">
+      <c r="AN2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="13" t="s">
+      <c r="AO2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AQ2" s="13" t="s">
+      <c r="AP2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AR2" s="13" t="s">
+      <c r="AQ2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AS2" s="13" t="s">
+      <c r="AR2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AT2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU2" s="13" t="s">
+      <c r="AS2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AV2" s="13" t="s">
+      <c r="AU2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AW2" s="13" t="s">
+      <c r="AV2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="AX2" s="13" t="s">
+      <c r="AW2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AX2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AZ2" s="13" t="s">
+      <c r="AY2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="BA2" s="13" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BA2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BB2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BC2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="BE2" s="13" t="s">
+      <c r="BD2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="BF2" s="13" t="s">
+      <c r="BE2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="BG2" s="14" t="s">
-        <v>46</v>
+      <c r="BF2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG2" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BI2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="BJ2" s="15" t="s">
+      <c r="BL2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="BK2" s="15" t="s">
+      <c r="BM2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="BL2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="BM2" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="BN2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="BO2" s="15" t="s">
+      <c r="BP2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="BP2" s="15" t="s">
+      <c r="BQ2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="BQ2" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="BR2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT2" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="BU2" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="BS2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU2" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="BV2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="BW2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="BX2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CB2" s="3" t="s">
+      <c r="BW2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="CC2" s="3" t="s">
+      <c r="BX2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="CD2" s="3" t="s">
+      <c r="BY2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="CE2" s="3" t="s">
+      <c r="BZ2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="CF2" s="3" t="s">
+      <c r="CA2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="CG2" s="3" t="s">
+      <c r="CB2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="CH2" s="3" t="s">
+      <c r="CC2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="CI2" s="3" t="s">
+      <c r="CD2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="CE2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="CK2" s="13" t="s">
+      <c r="CF2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="CL2" s="3" t="s">
+      <c r="CG2" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="CH2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="CI2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="CO2" s="3" t="s">
+      <c r="CJ2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="CP2" s="3" t="s">
+      <c r="CK2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="CQ2" s="3" t="s">
+      <c r="CL2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="CR2" s="3" t="s">
+      <c r="CM2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="CS2" s="3" t="s">
+      <c r="CN2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="CT2" s="3" t="s">
+      <c r="CO2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="CU2" s="3" t="s">
+      <c r="CP2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="CV2" s="3" t="s">
+      <c r="CQ2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="CW2" s="13" t="s">
+      <c r="CR2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="CX2" s="3" t="s">
+      <c r="CS2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="CY2" s="3" t="s">
+      <c r="CT2" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="CZ2" s="3" t="s">
+      <c r="CU2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="DA2" s="3" t="s">
+      <c r="CV2" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="DB2" s="3" t="s">
+      <c r="CW2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="DC2" s="3" t="s">
+      <c r="CX2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="DD2" s="3" t="s">
+      <c r="CY2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="DE2" s="3" t="s">
+      <c r="CZ2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="DF2" s="13" t="s">
+      <c r="DA2" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="DG2" s="3" t="s">
+      <c r="DB2" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="DH2" s="13" t="s">
+      <c r="DC2" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="DI2" s="3" t="s">
+      <c r="DD2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="DJ2" s="3" t="s">
+      <c r="DE2" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="DK2" s="3" t="s">
+      <c r="DF2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="DL2" s="3" t="s">
+      <c r="DG2" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="DM2" s="3" t="s">
+      <c r="DH2" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="DN2" s="3" t="s">
+      <c r="DI2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="DO2" s="3" t="s">
+      <c r="DJ2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="DP2" s="3" t="s">
+      <c r="DK2" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="DQ2" s="3" t="s">
+      <c r="DL2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="DR2" s="3" t="s">
+      <c r="DM2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="DS2" s="3" t="s">
+      <c r="DN2" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="DT2" s="3" t="s">
+      <c r="DO2" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="DU2" s="3" t="s">
+      <c r="DP2" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="DV2" s="3" t="s">
+      <c r="DQ2" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="DW2" s="3" t="s">
+      <c r="DR2" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="DX2" s="3" t="s">
+      <c r="DS2" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="DY2" s="3" t="s">
+      <c r="DT2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="DZ2" s="3" t="s">
+      <c r="DU2" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="EA2" s="3" t="s">
+      <c r="DV2" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="EB2" s="3" t="s">
+      <c r="DW2" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="EC2" s="3" t="s">
+      <c r="DX2" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="ED2" s="3" t="s">
+      <c r="DY2" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="EE2" s="3" t="s">
+      <c r="DZ2" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="EF2" s="3" t="s">
+      <c r="EA2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="EG2" s="3" t="s">
+      <c r="EB2" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="EH2" s="3" t="s">
+      <c r="EC2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="EI2" s="3" t="s">
+      <c r="ED2" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="EJ2" s="3" t="s">
+      <c r="EE2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="EK2" s="3" t="s">
+      <c r="EF2" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="EL2" s="3" t="s">
+      <c r="EG2" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="EM2" s="3" t="s">
+      <c r="EH2" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="EN2" s="13" t="s">
+      <c r="EI2" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="EO2" s="3" t="s">
+      <c r="EJ2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="EP2" s="3" t="s">
+      <c r="EK2" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="EQ2" s="3" t="s">
+      <c r="EL2" s="14" t="s">
         <v>154</v>
       </c>
+      <c r="EM2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="EN2" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="EO2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="EP2" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="EQ2" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="ER2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="ES2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="ET2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="EU2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="EV2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="EW2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="EX2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="EY2" s="3" t="s">
+      <c r="ES2" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="EZ2" s="3" t="s">
+      <c r="ET2" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="FA2" s="3" t="s">
+      <c r="EU2" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="FB2" s="3" t="s">
+      <c r="EV2" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="FC2" s="3" t="s">
+      <c r="EW2" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="FD2" s="3" t="s">
+      <c r="EX2" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="FE2" s="3" t="s">
+      <c r="EY2" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="FF2" s="3" t="s">
+      <c r="EZ2" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="FG2" s="3" t="s">
+      <c r="FA2" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="FH2" s="3" t="s">
+      <c r="FB2" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="FI2" s="3" t="s">
+      <c r="FC2" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="FJ2" s="3" t="s">
+      <c r="FD2" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="FK2" s="3" t="s">
+      <c r="FE2" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="FL2" s="3" t="s">
+      <c r="FF2" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="FM2" s="3" t="s">
+      <c r="FG2" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="FN2" s="3" t="s">
+      <c r="FH2" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="FO2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="FP2" s="13" t="s">
+      <c r="FI2" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="FQ2" s="13" t="s">
+      <c r="FJ2" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="FR2" s="13" t="s">
+      <c r="FK2" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="FS2" s="13" t="s">
+      <c r="FL2" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="FT2" s="13" t="s">
+      <c r="FM2" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="FU2" s="13" t="s">
+      <c r="FN2" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="FV2" s="13" t="s">
+      <c r="FO2" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="FW2" s="13" t="s">
+      <c r="FP2" s="17" t="s">
         <v>184</v>
       </c>
+      <c r="FQ2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="FR2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="FS2" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="FT2" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="FU2" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="FV2" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="FW2" s="14" t="s">
+        <v>191</v>
+      </c>
       <c r="FX2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="FY2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="FZ2" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="GA2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="GB2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="GC2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="GD2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="GE2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="GF2" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="GG2" s="3" t="s">
+      <c r="FY2" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="GH2" s="3" t="s">
+      <c r="FZ2" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="GI2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="GJ2" s="3" t="s">
+      <c r="GA2" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="GK2" s="3" t="s">
+      <c r="GB2" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="GL2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="GM2" s="16" t="s">
+      <c r="GC2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="GD2" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="GN2" s="16" t="s">
+      <c r="GE2" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="GO2" s="16" t="s">
+      <c r="GF2" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="GP2" s="17" t="s">
+      <c r="GG2" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="GQ2" s="17" t="s">
+      <c r="GH2" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="GR2" s="17" t="s">
+      <c r="GI2" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="GS2" s="16" t="s">
+      <c r="GJ2" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="GT2" s="17" t="s">
+      <c r="GK2" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="GU2" s="17" t="s">
+      <c r="GL2" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="GV2" s="17" t="s">
+      <c r="GM2" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="GW2" s="17" t="s">
+      <c r="GN2" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="GX2" s="16" t="s">
+      <c r="GO2" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="GY2" s="16" t="s">
+      <c r="GP2" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="GZ2" s="16" t="s">
+      <c r="GQ2" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="HA2" s="16" t="s">
+      <c r="GR2" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="HB2" s="3" t="s">
+      <c r="GS2" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="HC2" s="3" t="s">
+      <c r="GT2" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="HD2" s="3" t="s">
+      <c r="GU2" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="HE2" s="3" t="s">
+      <c r="GV2" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="HF2" s="3" t="s">
+      <c r="GW2" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="HG2" s="3" t="s">
+      <c r="GX2" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="HH2" s="3" t="s">
+      <c r="GY2" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="HI2" s="3" t="s">
+      <c r="GZ2" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="HJ2" s="3" t="s">
+      <c r="HA2" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="HK2" s="3" t="s">
+      <c r="HB2" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="HL2" s="3" t="s">
+      <c r="HC2" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="HM2" s="3" t="s">
+      <c r="HD2" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="HN2" s="3" t="s">
+      <c r="HE2" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="HO2" s="3" t="s">
+      <c r="HF2" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="HP2" s="3" t="s">
+      <c r="HG2" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="HQ2" s="3" t="s">
+      <c r="HH2" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="HR2" s="3" t="s">
+      <c r="HI2" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="HS2" s="3" t="s">
+      <c r="HJ2" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="HT2" s="3" t="s">
+      <c r="HK2" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="HU2" s="3" t="s">
+      <c r="HL2" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="HV2" s="3" t="s">
+      <c r="HM2" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="HW2" s="3" t="s">
+      <c r="HN2" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="HX2" s="3" t="s">
+      <c r="HO2" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="HY2" s="3" t="s">
+      <c r="HP2" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="HZ2" s="3" t="s">
+      <c r="HQ2" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="IA2" s="3" t="s">
+      <c r="HR2" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="IB2" s="3" t="s">
+      <c r="HS2" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="IC2" s="3" t="s">
+      <c r="HT2" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="ID2" s="3" t="s">
+      <c r="HU2" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="IE2" s="3" t="s">
+      <c r="HV2" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="IF2" s="3" t="s">
+      <c r="HW2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="IG2" s="3" t="s">
+      <c r="HX2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="IH2" s="3" t="s">
+      <c r="HY2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="II2" s="3" t="s">
+      <c r="HZ2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="IJ2" s="3" t="s">
+      <c r="IA2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="IK2" s="18" t="s">
+      <c r="IB2" s="14" t="s">
         <v>247</v>
       </c>
+      <c r="IC2" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="ID2" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="IE2" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="IF2" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="IG2" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="IH2" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="II2" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="IJ2" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="IK2" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="IL2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="IM2" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="IN2" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="IO2" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="IP2" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="IQ2" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="IR2" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="IS2" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="IT2" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="IU2" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="IV2" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="IW2" s="3" t="s">
+      <c r="IM2" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="IX2" s="3" t="s">
+      <c r="IN2" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="IY2" s="3" t="s">
+      <c r="IO2" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="IZ2" s="3" t="s">
+      <c r="IP2" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="JA2" s="3" t="s">
+      <c r="IQ2" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="JB2" s="3" t="s">
+      <c r="IR2" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="JC2" s="3" t="s">
+      <c r="IS2" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="JD2" s="3" t="s">
+      <c r="IT2" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="JE2" s="3" t="s">
+      <c r="IU2" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="JF2" s="3" t="s">
+      <c r="IV2" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="JG2" s="3" t="s">
+      <c r="IW2" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="JH2" s="3" t="s">
+      <c r="IX2" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="JI2" s="3" t="s">
+      <c r="IY2" s="14" t="s">
         <v>270</v>
       </c>
+      <c r="IZ2" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="JA2" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="JB2" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="JC2" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="JD2" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="JE2" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="JF2" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="JG2" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="JH2" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="JI2" s="14" t="s">
+        <v>280</v>
+      </c>
       <c r="JJ2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="JK2" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="JL2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="JM2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="JN2" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="JO2" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="JP2" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="JQ2" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="JR2" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="JS2" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="JT2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="JU2" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="JV2" s="3" t="s">
+      <c r="JK2" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="JW2" s="3" t="s">
+      <c r="JL2" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="JX2" s="3" t="s">
+      <c r="JM2" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="JY2" s="3" t="s">
+      <c r="JN2" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="JZ2" s="3" t="s">
+      <c r="JO2" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="KA2" s="3" t="s">
+      <c r="JP2" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="KB2" s="3" t="s">
+      <c r="JQ2" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="KC2" s="3" t="s">
+      <c r="JR2" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="KD2" s="3" t="s">
+      <c r="JS2" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="KE2" s="3" t="s">
+      <c r="JT2" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="KF2" s="18" t="s">
+      <c r="JU2" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="KG2" s="18" t="s">
+      <c r="JV2" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="KH2" s="3" t="s">
+      <c r="JW2" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="KI2" s="18" t="s">
+      <c r="JX2" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="KJ2" s="18" t="s">
+      <c r="JY2" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="KK2" s="18" t="s">
+      <c r="JZ2" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="KL2" s="3" t="s">
+      <c r="KA2" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="KM2" s="3" t="s">
+      <c r="KB2" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="KN2" s="3" t="s">
+      <c r="KC2" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="KO2" s="3" t="s">
+      <c r="KD2" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="KP2" s="3" t="s">
+      <c r="KE2" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="KQ2" s="3" t="s">
+      <c r="KF2" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="KR2" s="3" t="s">
+      <c r="KG2" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="KS2" s="3" t="s">
+      <c r="KH2" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="KT2" s="3" t="s">
+      <c r="KI2" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="KU2" s="3" t="s">
+      <c r="KJ2" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="KV2" s="3" t="s">
+      <c r="KK2" s="14" t="s">
         <v>308</v>
       </c>
+      <c r="KL2" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="KM2" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="KN2" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="KO2" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="KP2" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="KQ2" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="KR2" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="KS2" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="KT2" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="KU2" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="KV2" s="14" t="s">
+        <v>319</v>
+      </c>
       <c r="KW2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="KX2" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="KY2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="KZ2" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="LA2" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="LB2" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="LC2" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="LD2" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="LE2" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="LF2" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="LG2" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="LH2" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="LI2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="LJ2" s="3" t="s">
+      <c r="KX2" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="LK2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="LL2" s="13" t="s">
+      <c r="KY2" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="LM2" s="3" t="s">
+      <c r="KZ2" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="LA2" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="LN2" s="13" t="s">
+      <c r="LB2" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="LO2" s="3" t="s">
+      <c r="LC2" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="LP2" s="3" t="s">
+      <c r="LD2" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="LQ2" s="3" t="s">
+      <c r="LE2" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="LR2" s="3" t="s">
+      <c r="LF2" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="LS2" s="3" t="s">
+      <c r="LG2" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="LT2" s="3" t="s">
+      <c r="LH2" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="LU2" s="3" t="s">
+      <c r="LI2" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="LV2" s="3" t="s">
+      <c r="LJ2" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="LW2" s="3" t="s">
+      <c r="LK2" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="LX2" s="3" t="s">
+      <c r="LL2" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="LY2" s="3" t="s">
+      <c r="LM2" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="LZ2" s="3" t="s">
+      <c r="LN2" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="MA2" s="3" t="s">
+      <c r="LO2" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="MB2" s="3" t="s">
+      <c r="LP2" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="MC2" s="3" t="s">
+      <c r="LQ2" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="MD2" s="3" t="s">
+      <c r="LR2" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="ME2" s="3" t="s">
+      <c r="LS2" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="MF2" s="3" t="s">
+      <c r="LT2" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="MG2" s="3" t="s">
+      <c r="LU2" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="MH2" s="3" t="s">
+      <c r="LV2" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="MI2" s="3" t="s">
+      <c r="LW2" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="MJ2" s="3" t="s">
+      <c r="LX2" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="MK2" s="3" t="s">
+      <c r="LY2" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="ML2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="MM2" s="3" t="s">
+      <c r="LZ2" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="MN2" s="13" t="s">
+      <c r="MA2" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="MO2" s="13" t="s">
+      <c r="MB2" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="MP2" s="13" t="s">
+      <c r="MC2" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="MQ2" s="13" t="s">
+      <c r="MD2" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="MR2" s="13" t="s">
+      <c r="ME2" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="MS2" s="13" t="s">
+      <c r="MF2" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="MT2" s="13" t="s">
+      <c r="MG2" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="MU2" s="13" t="s">
+      <c r="MH2" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="MV2" s="13" t="s">
+      <c r="MI2" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="MW2" s="13" t="s">
+      <c r="MJ2" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="MX2" s="13" t="s">
+      <c r="MK2" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="MY2" s="13" t="s">
+      <c r="ML2" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="MZ2" s="3" t="s">
+      <c r="MM2" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="NA2" s="3" t="s">
+      <c r="MN2" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="NB2" s="13" t="s">
+      <c r="MO2" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="MP2" s="17" t="s">
         <v>19</v>
       </c>
+      <c r="MQ2" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="MR2" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="MS2" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="MT2" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="MU2" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="MV2" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="MW2" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="MX2" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="MY2" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="MZ2" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="NA2" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="NB2" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="NC2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="ND2" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="NE2" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="NF2" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="NG2" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="NH2" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="NI2" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="NJ2" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="NK2" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="NL2" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="NM2" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="NN2" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="NO2" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="NP2" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="NQ2" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="NR2" s="3" t="s">
+      <c r="ND2" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="NS2" s="3" t="s">
+      <c r="NE2" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="NT2" s="3" t="s">
+      <c r="NF2" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="NU2" s="3" t="s">
+      <c r="NG2" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="NV2" s="3" t="s">
+      <c r="NH2" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="NW2" s="3" t="s">
+      <c r="NI2" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="NX2" s="3" t="s">
+      <c r="NJ2" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="NY2" s="3" t="s">
+      <c r="NK2" s="14" t="s">
         <v>384</v>
       </c>
+      <c r="NL2" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="NM2" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="NN2" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="NO2" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="NP2" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="NQ2" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="NR2" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="NS2" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="NT2" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="NU2" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="NV2" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="NW2" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="NX2" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="NY2" s="14" t="s">
+        <v>398</v>
+      </c>
       <c r="NZ2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="OA2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="OB2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="OC2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="OD2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="OE2" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="OF2" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="OG2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="OH2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="OI2" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="OJ2" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="OK2" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="OL2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="OM2" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="ON2" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="OO2" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="OP2" s="3" t="s">
+      <c r="OA2" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="OQ2" s="3" t="s">
+      <c r="OB2" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="OR2" s="3" t="s">
+      <c r="OC2" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="OS2" s="3" t="s">
+      <c r="OD2" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="OT2" s="3" t="s">
+      <c r="OE2" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="OU2" s="3" t="s">
+      <c r="OF2" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="OV2" s="3" t="s">
+      <c r="OG2" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="OW2" s="3" t="s">
+      <c r="OH2" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="OX2" s="3" t="s">
+      <c r="OI2" s="14" t="s">
         <v>408</v>
       </c>
+      <c r="OJ2" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="OK2" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="OL2" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="OM2" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="ON2" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="OO2" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="OP2" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="OQ2" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="OR2" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="OS2" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="OT2" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="OU2" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="OV2" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="OW2" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="OX2" s="14" t="s">
+        <v>423</v>
+      </c>
       <c r="OY2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="OZ2" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="PA2" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="PB2" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="PC2" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="PD2" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="PE2" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="PF2" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="PG2" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="PH2" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="PI2" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="PJ2" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="PK2" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="PL2" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="PM2" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="PN2" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="PO2" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="PP2" s="11" t="s">
+      <c r="OZ2" s="14" t="s">
         <v>425</v>
       </c>
+      <c r="PA2" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="PB2" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="PC2" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="PD2" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="PE2" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="PF2" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="PG2" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="PH2" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="PI2" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="PJ2" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="PK2" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="PL2" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="PM2" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="PN2" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="PO2" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="PP2" s="14" t="s">
+        <v>441</v>
+      </c>
       <c r="PQ2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="PR2" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="PS2" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="PT2" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="PU2" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="PV2" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="PW2" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="PX2" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="PY2" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="PZ2" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="QA2" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="QB2" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="QC2" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="QD2" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="QE2" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="QF2" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="QG2" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="QH2" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="QI2" s="11" t="s">
+      <c r="PR2" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="QJ2" s="11" t="s">
+      <c r="PS2" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="QK2" s="11" t="s">
+      <c r="PT2" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="QL2" s="11" t="s">
+      <c r="PU2" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="QM2" s="11" t="s">
+      <c r="PV2" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="QN2" s="11" t="s">
+      <c r="PW2" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="QO2" s="11" t="s">
+      <c r="PX2" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="QP2" s="11" t="s">
+      <c r="PY2" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="QQ2" s="11" t="s">
+      <c r="PZ2" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="QR2" s="11" t="s">
+      <c r="QA2" s="14" t="s">
         <v>452</v>
       </c>
+      <c r="QB2" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="QC2" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="QD2" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="QE2" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="QF2" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="QG2" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="QH2" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="QI2" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="QJ2" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="QK2" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="QL2" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="QM2" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="QN2" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="QO2" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="QP2" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="QQ2" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="QR2" s="14" t="s">
+        <v>468</v>
+      </c>
       <c r="QS2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="QT2" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="QU2" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="QV2" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="QW2" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="QX2" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="QY2" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="QZ2" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="RA2" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="RB2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="RC2" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="RD2" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="RE2" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="RF2" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="RG2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="RH2" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="RI2" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="RJ2" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="RK2" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="RL2" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="RM2" s="21" t="s">
+      <c r="QT2" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="RN2" s="21" t="s">
+      <c r="QU2" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="RO2" s="21" t="s">
+      <c r="QV2" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="RP2" s="21" t="s">
+      <c r="QW2" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="RQ2" s="21" t="s">
+      <c r="QX2" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="RR2" s="21" t="s">
+      <c r="QY2" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="RS2" s="21" t="s">
+      <c r="QZ2" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="RT2" s="11" t="s">
+      <c r="RA2" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="RU2" s="11" t="s">
+      <c r="RB2" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="RV2" s="11" t="s">
+      <c r="RC2" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="RW2" s="11" t="s">
+      <c r="RD2" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="RX2" s="11" t="s">
+      <c r="RE2" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="RY2" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="RZ2" s="21" t="s">
+      <c r="RF2" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="SA2" s="11" t="s">
+      <c r="RG2" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="SB2" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="SC2" s="11" t="s">
+      <c r="RH2" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="SD2" s="11" t="s">
+      <c r="RI2" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="RJ2" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="SE2" s="11" t="s">
+      <c r="RK2" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="SF2" s="11" t="s">
-        <v>175</v>
+      <c r="RL2" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="RM2" s="14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -3833,7 +3793,7 @@
       <c r="KJ3" s="24"/>
       <c r="KK3" s="24"/>
       <c r="KL3" s="24"/>
-      <c r="KM3" s="24"/>
+      <c r="KM3" s="25"/>
       <c r="KN3" s="24"/>
       <c r="KO3" s="24"/>
       <c r="KP3" s="24"/>
@@ -3843,8 +3803,8 @@
       <c r="KT3" s="24"/>
       <c r="KU3" s="24"/>
       <c r="KV3" s="24"/>
-      <c r="KW3" s="25"/>
-      <c r="KX3" s="25"/>
+      <c r="KW3" s="24"/>
+      <c r="KX3" s="24"/>
       <c r="KY3" s="24"/>
       <c r="KZ3" s="24"/>
       <c r="LA3" s="24"/>
@@ -3911,7 +3871,7 @@
       <c r="NJ3" s="24"/>
       <c r="NK3" s="24"/>
       <c r="NL3" s="24"/>
-      <c r="NM3" s="24"/>
+      <c r="NM3" s="25"/>
       <c r="NN3" s="24"/>
       <c r="NO3" s="24"/>
       <c r="NP3" s="24"/>
@@ -3924,8 +3884,8 @@
       <c r="NW3" s="24"/>
       <c r="NX3" s="24"/>
       <c r="NY3" s="24"/>
-      <c r="NZ3" s="25"/>
-      <c r="OA3" s="25"/>
+      <c r="NZ3" s="24"/>
+      <c r="OA3" s="24"/>
       <c r="OB3" s="24"/>
       <c r="OC3" s="24"/>
       <c r="OD3" s="24"/>
@@ -3952,7 +3912,7 @@
       <c r="OY3" s="24"/>
       <c r="OZ3" s="24"/>
       <c r="PA3" s="24"/>
-      <c r="PB3" s="24"/>
+      <c r="PB3" s="26"/>
       <c r="PC3" s="24"/>
       <c r="PD3" s="24"/>
       <c r="PE3" s="24"/>
@@ -3967,8 +3927,8 @@
       <c r="PN3" s="24"/>
       <c r="PO3" s="24"/>
       <c r="PP3" s="24"/>
-      <c r="PQ3" s="26"/>
-      <c r="PR3" s="26"/>
+      <c r="PQ3" s="24"/>
+      <c r="PR3" s="24"/>
       <c r="PS3" s="24"/>
       <c r="PT3" s="24"/>
       <c r="PU3" s="24"/>
@@ -3979,7 +3939,7 @@
       <c r="PZ3" s="24"/>
       <c r="QA3" s="24"/>
       <c r="QB3" s="24"/>
-      <c r="QC3" s="24"/>
+      <c r="QC3" s="26"/>
       <c r="QD3" s="24"/>
       <c r="QE3" s="24"/>
       <c r="QF3" s="24"/>
@@ -3992,11 +3952,11 @@
       <c r="QM3" s="24"/>
       <c r="QN3" s="24"/>
       <c r="QO3" s="24"/>
-      <c r="QP3" s="24"/>
+      <c r="QP3" s="27"/>
       <c r="QQ3" s="24"/>
       <c r="QR3" s="24"/>
-      <c r="QS3" s="26"/>
-      <c r="QT3" s="26"/>
+      <c r="QS3" s="24"/>
+      <c r="QT3" s="24"/>
       <c r="QU3" s="24"/>
       <c r="QV3" s="24"/>
       <c r="QW3" s="24"/>
@@ -4009,32 +3969,13 @@
       <c r="RD3" s="24"/>
       <c r="RE3" s="24"/>
       <c r="RF3" s="24"/>
-      <c r="RG3" s="27"/>
-      <c r="RH3" s="27"/>
-      <c r="RI3" s="24"/>
-      <c r="RJ3" s="24"/>
-      <c r="RK3" s="24"/>
-      <c r="RL3" s="24"/>
-      <c r="RM3" s="24"/>
-      <c r="RN3" s="24"/>
-      <c r="RO3" s="24"/>
-      <c r="RP3" s="24"/>
-      <c r="RQ3" s="24"/>
-      <c r="RR3" s="24"/>
-      <c r="RS3" s="24"/>
-      <c r="RT3" s="24"/>
-      <c r="RU3" s="24"/>
-      <c r="RV3" s="24"/>
-      <c r="RW3" s="24"/>
-      <c r="RX3" s="24"/>
-      <c r="RY3" s="28"/>
-      <c r="RZ3" s="28"/>
-      <c r="SA3" s="28"/>
-      <c r="SB3" s="28"/>
-      <c r="SC3" s="28"/>
-      <c r="SD3" s="28"/>
-      <c r="SE3" s="28"/>
-      <c r="SF3" s="28"/>
+      <c r="RG3" s="28"/>
+      <c r="RH3" s="28"/>
+      <c r="RI3" s="28"/>
+      <c r="RJ3" s="28"/>
+      <c r="RK3" s="28"/>
+      <c r="RL3" s="28"/>
+      <c r="RM3" s="28"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="23"/>
@@ -4060,7 +4001,7 @@
       <c r="V4" s="24"/>
       <c r="W4" s="24"/>
       <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
+      <c r="Y4" s="24"/>
       <c r="Z4" s="24"/>
       <c r="AA4" s="24"/>
       <c r="AB4" s="24"/>
@@ -4072,8 +4013,8 @@
       <c r="AH4" s="24"/>
       <c r="AI4" s="24"/>
       <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="24"/>
       <c r="AM4" s="24"/>
       <c r="AN4" s="24"/>
       <c r="AO4" s="24"/>
@@ -4081,8 +4022,8 @@
       <c r="AQ4" s="24"/>
       <c r="AR4" s="24"/>
       <c r="AS4" s="24"/>
-      <c r="AT4" s="24"/>
-      <c r="AU4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="24"/>
       <c r="AV4" s="24"/>
       <c r="AW4" s="24"/>
       <c r="AX4" s="24"/>
@@ -4106,11 +4047,11 @@
       <c r="BP4" s="24"/>
       <c r="BQ4" s="24"/>
       <c r="BR4" s="24"/>
-      <c r="BS4" s="24"/>
+      <c r="BS4" s="28"/>
       <c r="BT4" s="24"/>
       <c r="BU4" s="24"/>
-      <c r="BV4" s="28"/>
-      <c r="BW4" s="28"/>
+      <c r="BV4" s="24"/>
+      <c r="BW4" s="24"/>
       <c r="BX4" s="24"/>
       <c r="BY4" s="24"/>
       <c r="BZ4" s="24"/>
@@ -4202,35 +4143,35 @@
       <c r="FH4" s="24"/>
       <c r="FI4" s="24"/>
       <c r="FJ4" s="24"/>
-      <c r="FK4" s="24"/>
+      <c r="FK4" s="28"/>
       <c r="FL4" s="24"/>
       <c r="FM4" s="24"/>
       <c r="FN4" s="24"/>
-      <c r="FO4" s="28"/>
-      <c r="FP4" s="28"/>
+      <c r="FO4" s="24"/>
+      <c r="FP4" s="24"/>
       <c r="FQ4" s="24"/>
       <c r="FR4" s="24"/>
-      <c r="FS4" s="24"/>
+      <c r="FS4" s="25"/>
       <c r="FT4" s="24"/>
       <c r="FU4" s="24"/>
       <c r="FV4" s="24"/>
       <c r="FW4" s="24"/>
-      <c r="FX4" s="25"/>
-      <c r="FY4" s="25"/>
+      <c r="FX4" s="24"/>
+      <c r="FY4" s="24"/>
       <c r="FZ4" s="24"/>
       <c r="GA4" s="24"/>
       <c r="GB4" s="24"/>
       <c r="GC4" s="24"/>
       <c r="GD4" s="24"/>
       <c r="GE4" s="24"/>
-      <c r="GF4" s="24"/>
+      <c r="GF4" s="29"/>
       <c r="GG4" s="24"/>
       <c r="GH4" s="24"/>
       <c r="GI4" s="24"/>
       <c r="GJ4" s="24"/>
       <c r="GK4" s="24"/>
-      <c r="GL4" s="29"/>
-      <c r="GM4" s="29"/>
+      <c r="GL4" s="24"/>
+      <c r="GM4" s="24"/>
       <c r="GN4" s="24"/>
       <c r="GO4" s="24"/>
       <c r="GP4" s="24"/>
@@ -4274,15 +4215,15 @@
       <c r="IB4" s="24"/>
       <c r="IC4" s="24"/>
       <c r="ID4" s="24"/>
-      <c r="IE4" s="24"/>
+      <c r="IE4" s="25"/>
       <c r="IF4" s="24"/>
       <c r="IG4" s="24"/>
       <c r="IH4" s="24"/>
       <c r="II4" s="24"/>
       <c r="IJ4" s="24"/>
       <c r="IK4" s="24"/>
-      <c r="IL4" s="25"/>
-      <c r="IM4" s="25"/>
+      <c r="IL4" s="24"/>
+      <c r="IM4" s="24"/>
       <c r="IN4" s="24"/>
       <c r="IO4" s="24"/>
       <c r="IP4" s="24"/>
@@ -4297,7 +4238,7 @@
       <c r="IY4" s="24"/>
       <c r="IZ4" s="24"/>
       <c r="JA4" s="24"/>
-      <c r="JB4" s="24"/>
+      <c r="JB4" s="28"/>
       <c r="JC4" s="24"/>
       <c r="JD4" s="24"/>
       <c r="JE4" s="24"/>
@@ -4305,8 +4246,8 @@
       <c r="JG4" s="24"/>
       <c r="JH4" s="24"/>
       <c r="JI4" s="24"/>
-      <c r="JJ4" s="28"/>
-      <c r="JK4" s="28"/>
+      <c r="JJ4" s="24"/>
+      <c r="JK4" s="24"/>
       <c r="JL4" s="24"/>
       <c r="JM4" s="24"/>
       <c r="JN4" s="24"/>
@@ -4334,7 +4275,7 @@
       <c r="KJ4" s="24"/>
       <c r="KK4" s="24"/>
       <c r="KL4" s="24"/>
-      <c r="KM4" s="24"/>
+      <c r="KM4" s="25"/>
       <c r="KN4" s="24"/>
       <c r="KO4" s="24"/>
       <c r="KP4" s="24"/>
@@ -4344,8 +4285,8 @@
       <c r="KT4" s="24"/>
       <c r="KU4" s="24"/>
       <c r="KV4" s="24"/>
-      <c r="KW4" s="25"/>
-      <c r="KX4" s="25"/>
+      <c r="KW4" s="24"/>
+      <c r="KX4" s="24"/>
       <c r="KY4" s="24"/>
       <c r="KZ4" s="24"/>
       <c r="LA4" s="24"/>
@@ -4374,7 +4315,7 @@
       <c r="LX4" s="24"/>
       <c r="LY4" s="24"/>
       <c r="LZ4" s="24"/>
-      <c r="MA4" s="24"/>
+      <c r="MA4" s="25"/>
       <c r="MB4" s="24"/>
       <c r="MC4" s="24"/>
       <c r="MD4" s="24"/>
@@ -4385,12 +4326,12 @@
       <c r="MI4" s="24"/>
       <c r="MJ4" s="24"/>
       <c r="MK4" s="24"/>
-      <c r="ML4" s="25"/>
-      <c r="MM4" s="25"/>
+      <c r="ML4" s="24"/>
+      <c r="MM4" s="24"/>
       <c r="MN4" s="24"/>
       <c r="MO4" s="24"/>
       <c r="MP4" s="24"/>
-      <c r="MQ4" s="24"/>
+      <c r="MQ4" s="25"/>
       <c r="MR4" s="24"/>
       <c r="MS4" s="24"/>
       <c r="MT4" s="24"/>
@@ -4402,8 +4343,8 @@
       <c r="MZ4" s="24"/>
       <c r="NA4" s="24"/>
       <c r="NB4" s="24"/>
-      <c r="NC4" s="25"/>
-      <c r="ND4" s="25"/>
+      <c r="NC4" s="24"/>
+      <c r="ND4" s="24"/>
       <c r="NE4" s="24"/>
       <c r="NF4" s="24"/>
       <c r="NG4" s="24"/>
@@ -4412,7 +4353,7 @@
       <c r="NJ4" s="24"/>
       <c r="NK4" s="24"/>
       <c r="NL4" s="24"/>
-      <c r="NM4" s="24"/>
+      <c r="NM4" s="25"/>
       <c r="NN4" s="24"/>
       <c r="NO4" s="24"/>
       <c r="NP4" s="24"/>
@@ -4425,8 +4366,8 @@
       <c r="NW4" s="24"/>
       <c r="NX4" s="24"/>
       <c r="NY4" s="24"/>
-      <c r="NZ4" s="25"/>
-      <c r="OA4" s="25"/>
+      <c r="NZ4" s="24"/>
+      <c r="OA4" s="24"/>
       <c r="OB4" s="24"/>
       <c r="OC4" s="24"/>
       <c r="OD4" s="24"/>
@@ -4436,7 +4377,7 @@
       <c r="OH4" s="24"/>
       <c r="OI4" s="24"/>
       <c r="OJ4" s="24"/>
-      <c r="OK4" s="24"/>
+      <c r="OK4" s="26"/>
       <c r="OL4" s="24"/>
       <c r="OM4" s="24"/>
       <c r="ON4" s="24"/>
@@ -4450,10 +4391,10 @@
       <c r="OV4" s="24"/>
       <c r="OW4" s="24"/>
       <c r="OX4" s="24"/>
-      <c r="OY4" s="26"/>
-      <c r="OZ4" s="26"/>
+      <c r="OY4" s="24"/>
+      <c r="OZ4" s="24"/>
       <c r="PA4" s="24"/>
-      <c r="PB4" s="24"/>
+      <c r="PB4" s="26"/>
       <c r="PC4" s="24"/>
       <c r="PD4" s="24"/>
       <c r="PE4" s="24"/>
@@ -4468,8 +4409,8 @@
       <c r="PN4" s="24"/>
       <c r="PO4" s="24"/>
       <c r="PP4" s="24"/>
-      <c r="PQ4" s="26"/>
-      <c r="PR4" s="26"/>
+      <c r="PQ4" s="24"/>
+      <c r="PR4" s="24"/>
       <c r="PS4" s="24"/>
       <c r="PT4" s="24"/>
       <c r="PU4" s="24"/>
@@ -4480,7 +4421,7 @@
       <c r="PZ4" s="24"/>
       <c r="QA4" s="24"/>
       <c r="QB4" s="24"/>
-      <c r="QC4" s="24"/>
+      <c r="QC4" s="26"/>
       <c r="QD4" s="24"/>
       <c r="QE4" s="24"/>
       <c r="QF4" s="24"/>
@@ -4493,49 +4434,30 @@
       <c r="QM4" s="24"/>
       <c r="QN4" s="24"/>
       <c r="QO4" s="24"/>
-      <c r="QP4" s="24"/>
-      <c r="QQ4" s="24"/>
-      <c r="QR4" s="24"/>
-      <c r="QS4" s="26"/>
-      <c r="QT4" s="26"/>
-      <c r="QU4" s="24"/>
-      <c r="QV4" s="24"/>
-      <c r="QW4" s="24"/>
-      <c r="QX4" s="24"/>
-      <c r="QY4" s="24"/>
-      <c r="QZ4" s="24"/>
-      <c r="RA4" s="24"/>
-      <c r="RB4" s="24"/>
-      <c r="RC4" s="24"/>
-      <c r="RD4" s="24"/>
-      <c r="RE4" s="24"/>
-      <c r="RF4" s="24"/>
+      <c r="QP4" s="26"/>
+      <c r="QQ4" s="25"/>
+      <c r="QR4" s="25"/>
+      <c r="QS4" s="25"/>
+      <c r="QT4" s="25"/>
+      <c r="QU4" s="25"/>
+      <c r="QV4" s="25"/>
+      <c r="QW4" s="25"/>
+      <c r="QX4" s="25"/>
+      <c r="QY4" s="25"/>
+      <c r="QZ4" s="25"/>
+      <c r="RA4" s="25"/>
+      <c r="RB4" s="25"/>
+      <c r="RC4" s="25"/>
+      <c r="RD4" s="25"/>
+      <c r="RE4" s="25"/>
+      <c r="RF4" s="25"/>
       <c r="RG4" s="26"/>
-      <c r="RH4" s="26"/>
+      <c r="RH4" s="25"/>
       <c r="RI4" s="25"/>
       <c r="RJ4" s="25"/>
       <c r="RK4" s="25"/>
       <c r="RL4" s="25"/>
       <c r="RM4" s="25"/>
-      <c r="RN4" s="25"/>
-      <c r="RO4" s="25"/>
-      <c r="RP4" s="25"/>
-      <c r="RQ4" s="25"/>
-      <c r="RR4" s="25"/>
-      <c r="RS4" s="25"/>
-      <c r="RT4" s="25"/>
-      <c r="RU4" s="25"/>
-      <c r="RV4" s="25"/>
-      <c r="RW4" s="25"/>
-      <c r="RX4" s="25"/>
-      <c r="RY4" s="26"/>
-      <c r="RZ4" s="26"/>
-      <c r="SA4" s="25"/>
-      <c r="SB4" s="25"/>
-      <c r="SC4" s="25"/>
-      <c r="SD4" s="25"/>
-      <c r="SE4" s="25"/>
-      <c r="SF4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="23"/>
@@ -4561,7 +4483,7 @@
       <c r="V5" s="24"/>
       <c r="W5" s="24"/>
       <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
+      <c r="Y5" s="24"/>
       <c r="Z5" s="24"/>
       <c r="AA5" s="24"/>
       <c r="AB5" s="24"/>
@@ -4573,8 +4495,8 @@
       <c r="AH5" s="24"/>
       <c r="AI5" s="24"/>
       <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="24"/>
       <c r="AM5" s="24"/>
       <c r="AN5" s="24"/>
       <c r="AO5" s="24"/>
@@ -4582,8 +4504,8 @@
       <c r="AQ5" s="24"/>
       <c r="AR5" s="24"/>
       <c r="AS5" s="24"/>
-      <c r="AT5" s="24"/>
-      <c r="AU5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="24"/>
       <c r="AV5" s="24"/>
       <c r="AW5" s="24"/>
       <c r="AX5" s="24"/>
@@ -4607,11 +4529,11 @@
       <c r="BP5" s="24"/>
       <c r="BQ5" s="24"/>
       <c r="BR5" s="24"/>
-      <c r="BS5" s="24"/>
+      <c r="BS5" s="25"/>
       <c r="BT5" s="24"/>
       <c r="BU5" s="24"/>
-      <c r="BV5" s="25"/>
-      <c r="BW5" s="25"/>
+      <c r="BV5" s="24"/>
+      <c r="BW5" s="24"/>
       <c r="BX5" s="24"/>
       <c r="BY5" s="24"/>
       <c r="BZ5" s="24"/>
@@ -4703,35 +4625,35 @@
       <c r="FH5" s="24"/>
       <c r="FI5" s="24"/>
       <c r="FJ5" s="24"/>
-      <c r="FK5" s="24"/>
+      <c r="FK5" s="28"/>
       <c r="FL5" s="24"/>
       <c r="FM5" s="24"/>
       <c r="FN5" s="24"/>
-      <c r="FO5" s="28"/>
-      <c r="FP5" s="28"/>
+      <c r="FO5" s="24"/>
+      <c r="FP5" s="24"/>
       <c r="FQ5" s="24"/>
       <c r="FR5" s="24"/>
-      <c r="FS5" s="24"/>
+      <c r="FS5" s="28"/>
       <c r="FT5" s="24"/>
       <c r="FU5" s="24"/>
       <c r="FV5" s="24"/>
       <c r="FW5" s="24"/>
-      <c r="FX5" s="28"/>
-      <c r="FY5" s="28"/>
+      <c r="FX5" s="24"/>
+      <c r="FY5" s="24"/>
       <c r="FZ5" s="24"/>
       <c r="GA5" s="24"/>
       <c r="GB5" s="24"/>
       <c r="GC5" s="24"/>
       <c r="GD5" s="24"/>
       <c r="GE5" s="24"/>
-      <c r="GF5" s="24"/>
+      <c r="GF5" s="29"/>
       <c r="GG5" s="24"/>
       <c r="GH5" s="24"/>
       <c r="GI5" s="24"/>
       <c r="GJ5" s="24"/>
       <c r="GK5" s="24"/>
-      <c r="GL5" s="29"/>
-      <c r="GM5" s="29"/>
+      <c r="GL5" s="24"/>
+      <c r="GM5" s="24"/>
       <c r="GN5" s="24"/>
       <c r="GO5" s="24"/>
       <c r="GP5" s="24"/>
@@ -4775,15 +4697,15 @@
       <c r="IB5" s="24"/>
       <c r="IC5" s="24"/>
       <c r="ID5" s="24"/>
-      <c r="IE5" s="24"/>
+      <c r="IE5" s="25"/>
       <c r="IF5" s="24"/>
       <c r="IG5" s="24"/>
       <c r="IH5" s="24"/>
       <c r="II5" s="24"/>
       <c r="IJ5" s="24"/>
       <c r="IK5" s="24"/>
-      <c r="IL5" s="25"/>
-      <c r="IM5" s="25"/>
+      <c r="IL5" s="24"/>
+      <c r="IM5" s="24"/>
       <c r="IN5" s="24"/>
       <c r="IO5" s="24"/>
       <c r="IP5" s="24"/>
@@ -4798,7 +4720,7 @@
       <c r="IY5" s="24"/>
       <c r="IZ5" s="24"/>
       <c r="JA5" s="24"/>
-      <c r="JB5" s="24"/>
+      <c r="JB5" s="25"/>
       <c r="JC5" s="24"/>
       <c r="JD5" s="24"/>
       <c r="JE5" s="24"/>
@@ -4806,8 +4728,8 @@
       <c r="JG5" s="24"/>
       <c r="JH5" s="24"/>
       <c r="JI5" s="24"/>
-      <c r="JJ5" s="25"/>
-      <c r="JK5" s="25"/>
+      <c r="JJ5" s="24"/>
+      <c r="JK5" s="24"/>
       <c r="JL5" s="24"/>
       <c r="JM5" s="24"/>
       <c r="JN5" s="24"/>
@@ -4835,7 +4757,7 @@
       <c r="KJ5" s="24"/>
       <c r="KK5" s="24"/>
       <c r="KL5" s="24"/>
-      <c r="KM5" s="24"/>
+      <c r="KM5" s="25"/>
       <c r="KN5" s="24"/>
       <c r="KO5" s="24"/>
       <c r="KP5" s="24"/>
@@ -4845,8 +4767,8 @@
       <c r="KT5" s="24"/>
       <c r="KU5" s="24"/>
       <c r="KV5" s="24"/>
-      <c r="KW5" s="25"/>
-      <c r="KX5" s="25"/>
+      <c r="KW5" s="24"/>
+      <c r="KX5" s="24"/>
       <c r="KY5" s="24"/>
       <c r="KZ5" s="24"/>
       <c r="LA5" s="24"/>
@@ -4875,7 +4797,7 @@
       <c r="LX5" s="24"/>
       <c r="LY5" s="24"/>
       <c r="LZ5" s="24"/>
-      <c r="MA5" s="24"/>
+      <c r="MA5" s="28"/>
       <c r="MB5" s="24"/>
       <c r="MC5" s="24"/>
       <c r="MD5" s="24"/>
@@ -4886,12 +4808,12 @@
       <c r="MI5" s="24"/>
       <c r="MJ5" s="24"/>
       <c r="MK5" s="24"/>
-      <c r="ML5" s="28"/>
-      <c r="MM5" s="28"/>
+      <c r="ML5" s="24"/>
+      <c r="MM5" s="24"/>
       <c r="MN5" s="24"/>
       <c r="MO5" s="24"/>
       <c r="MP5" s="24"/>
-      <c r="MQ5" s="24"/>
+      <c r="MQ5" s="25"/>
       <c r="MR5" s="24"/>
       <c r="MS5" s="24"/>
       <c r="MT5" s="24"/>
@@ -4903,8 +4825,8 @@
       <c r="MZ5" s="24"/>
       <c r="NA5" s="24"/>
       <c r="NB5" s="24"/>
-      <c r="NC5" s="25"/>
-      <c r="ND5" s="25"/>
+      <c r="NC5" s="24"/>
+      <c r="ND5" s="24"/>
       <c r="NE5" s="24"/>
       <c r="NF5" s="24"/>
       <c r="NG5" s="24"/>
@@ -4913,7 +4835,7 @@
       <c r="NJ5" s="24"/>
       <c r="NK5" s="24"/>
       <c r="NL5" s="24"/>
-      <c r="NM5" s="24"/>
+      <c r="NM5" s="25"/>
       <c r="NN5" s="24"/>
       <c r="NO5" s="24"/>
       <c r="NP5" s="24"/>
@@ -4926,8 +4848,8 @@
       <c r="NW5" s="24"/>
       <c r="NX5" s="24"/>
       <c r="NY5" s="24"/>
-      <c r="NZ5" s="25"/>
-      <c r="OA5" s="25"/>
+      <c r="NZ5" s="24"/>
+      <c r="OA5" s="24"/>
       <c r="OB5" s="24"/>
       <c r="OC5" s="24"/>
       <c r="OD5" s="24"/>
@@ -4937,7 +4859,7 @@
       <c r="OH5" s="24"/>
       <c r="OI5" s="24"/>
       <c r="OJ5" s="24"/>
-      <c r="OK5" s="24"/>
+      <c r="OK5" s="26"/>
       <c r="OL5" s="24"/>
       <c r="OM5" s="24"/>
       <c r="ON5" s="24"/>
@@ -4951,10 +4873,10 @@
       <c r="OV5" s="24"/>
       <c r="OW5" s="24"/>
       <c r="OX5" s="24"/>
-      <c r="OY5" s="26"/>
-      <c r="OZ5" s="26"/>
+      <c r="OY5" s="24"/>
+      <c r="OZ5" s="24"/>
       <c r="PA5" s="24"/>
-      <c r="PB5" s="24"/>
+      <c r="PB5" s="26"/>
       <c r="PC5" s="24"/>
       <c r="PD5" s="24"/>
       <c r="PE5" s="24"/>
@@ -4969,8 +4891,8 @@
       <c r="PN5" s="24"/>
       <c r="PO5" s="24"/>
       <c r="PP5" s="24"/>
-      <c r="PQ5" s="26"/>
-      <c r="PR5" s="26"/>
+      <c r="PQ5" s="24"/>
+      <c r="PR5" s="24"/>
       <c r="PS5" s="24"/>
       <c r="PT5" s="24"/>
       <c r="PU5" s="24"/>
@@ -4981,7 +4903,7 @@
       <c r="PZ5" s="24"/>
       <c r="QA5" s="24"/>
       <c r="QB5" s="24"/>
-      <c r="QC5" s="24"/>
+      <c r="QC5" s="26"/>
       <c r="QD5" s="24"/>
       <c r="QE5" s="24"/>
       <c r="QF5" s="24"/>
@@ -4994,49 +4916,30 @@
       <c r="QM5" s="24"/>
       <c r="QN5" s="24"/>
       <c r="QO5" s="24"/>
-      <c r="QP5" s="24"/>
-      <c r="QQ5" s="24"/>
-      <c r="QR5" s="24"/>
-      <c r="QS5" s="26"/>
-      <c r="QT5" s="26"/>
-      <c r="QU5" s="24"/>
-      <c r="QV5" s="24"/>
-      <c r="QW5" s="24"/>
-      <c r="QX5" s="24"/>
-      <c r="QY5" s="24"/>
-      <c r="QZ5" s="24"/>
-      <c r="RA5" s="24"/>
-      <c r="RB5" s="24"/>
-      <c r="RC5" s="24"/>
-      <c r="RD5" s="24"/>
-      <c r="RE5" s="24"/>
-      <c r="RF5" s="24"/>
+      <c r="QP5" s="26"/>
+      <c r="QQ5" s="25"/>
+      <c r="QR5" s="25"/>
+      <c r="QS5" s="25"/>
+      <c r="QT5" s="25"/>
+      <c r="QU5" s="25"/>
+      <c r="QV5" s="25"/>
+      <c r="QW5" s="25"/>
+      <c r="QX5" s="25"/>
+      <c r="QY5" s="25"/>
+      <c r="QZ5" s="25"/>
+      <c r="RA5" s="25"/>
+      <c r="RB5" s="25"/>
+      <c r="RC5" s="25"/>
+      <c r="RD5" s="25"/>
+      <c r="RE5" s="25"/>
+      <c r="RF5" s="25"/>
       <c r="RG5" s="26"/>
-      <c r="RH5" s="26"/>
+      <c r="RH5" s="25"/>
       <c r="RI5" s="25"/>
       <c r="RJ5" s="25"/>
       <c r="RK5" s="25"/>
       <c r="RL5" s="25"/>
       <c r="RM5" s="25"/>
-      <c r="RN5" s="25"/>
-      <c r="RO5" s="25"/>
-      <c r="RP5" s="25"/>
-      <c r="RQ5" s="25"/>
-      <c r="RR5" s="25"/>
-      <c r="RS5" s="25"/>
-      <c r="RT5" s="25"/>
-      <c r="RU5" s="25"/>
-      <c r="RV5" s="25"/>
-      <c r="RW5" s="25"/>
-      <c r="RX5" s="25"/>
-      <c r="RY5" s="26"/>
-      <c r="RZ5" s="26"/>
-      <c r="SA5" s="25"/>
-      <c r="SB5" s="25"/>
-      <c r="SC5" s="25"/>
-      <c r="SD5" s="25"/>
-      <c r="SE5" s="25"/>
-      <c r="SF5" s="25"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="23"/>
@@ -5045,64 +4948,48 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="AL6" s="28"/>
-      <c r="AU6" s="28"/>
-      <c r="BU6" s="25"/>
-      <c r="BV6" s="25"/>
-      <c r="BW6" s="25"/>
-      <c r="FO6" s="28"/>
-      <c r="FP6" s="28"/>
-      <c r="FX6" s="25"/>
-      <c r="FY6" s="25"/>
-      <c r="GL6" s="29"/>
-      <c r="GM6" s="29"/>
-      <c r="IL6" s="25"/>
-      <c r="IM6" s="25"/>
-      <c r="JJ6" s="25"/>
-      <c r="JK6" s="25"/>
-      <c r="KW6" s="25"/>
-      <c r="KX6" s="25"/>
-      <c r="ML6" s="28"/>
-      <c r="MM6" s="28"/>
-      <c r="NC6" s="25"/>
-      <c r="ND6" s="25"/>
-      <c r="NZ6" s="25"/>
-      <c r="OA6" s="25"/>
-      <c r="OY6" s="26"/>
-      <c r="OZ6" s="26"/>
-      <c r="PQ6" s="30"/>
-      <c r="PR6" s="30"/>
-      <c r="QS6" s="26"/>
-      <c r="QT6" s="26"/>
-      <c r="RG6" s="26"/>
-      <c r="RH6" s="26"/>
-      <c r="RI6" s="25"/>
-      <c r="RJ6" s="25"/>
-      <c r="RK6" s="25"/>
-      <c r="RL6" s="25"/>
-      <c r="RM6" s="25"/>
-      <c r="RN6" s="25"/>
-      <c r="RO6" s="25"/>
-      <c r="RP6" s="25"/>
-      <c r="RQ6" s="25"/>
-      <c r="RR6" s="25"/>
-      <c r="RS6" s="25"/>
-      <c r="RT6" s="25"/>
-      <c r="RU6" s="25"/>
-      <c r="RV6" s="25"/>
-      <c r="RW6" s="25"/>
-      <c r="RX6" s="25"/>
-      <c r="RY6" s="26"/>
-      <c r="RZ6" s="26"/>
-      <c r="SA6" s="25"/>
-      <c r="SB6" s="25"/>
-      <c r="SC6" s="25"/>
-      <c r="SD6" s="25"/>
-      <c r="SE6" s="25"/>
-      <c r="SF6" s="25"/>
+      <c r="J6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="AK6" s="31"/>
+      <c r="AT6" s="31"/>
+      <c r="BR6" s="30"/>
+      <c r="BS6" s="30"/>
+      <c r="FK6" s="31"/>
+      <c r="FS6" s="30"/>
+      <c r="GF6" s="32"/>
+      <c r="IE6" s="30"/>
+      <c r="JB6" s="30"/>
+      <c r="KM6" s="30"/>
+      <c r="MA6" s="31"/>
+      <c r="MQ6" s="30"/>
+      <c r="NM6" s="30"/>
+      <c r="OK6" s="33"/>
+      <c r="PB6" s="34"/>
+      <c r="QC6" s="33"/>
+      <c r="QP6" s="33"/>
+      <c r="QQ6" s="30"/>
+      <c r="QR6" s="30"/>
+      <c r="QS6" s="30"/>
+      <c r="QT6" s="30"/>
+      <c r="QU6" s="30"/>
+      <c r="QV6" s="30"/>
+      <c r="QW6" s="30"/>
+      <c r="QX6" s="30"/>
+      <c r="QY6" s="30"/>
+      <c r="QZ6" s="30"/>
+      <c r="RA6" s="30"/>
+      <c r="RB6" s="30"/>
+      <c r="RC6" s="30"/>
+      <c r="RD6" s="30"/>
+      <c r="RE6" s="30"/>
+      <c r="RF6" s="30"/>
+      <c r="RG6" s="33"/>
+      <c r="RH6" s="30"/>
+      <c r="RI6" s="30"/>
+      <c r="RJ6" s="30"/>
+      <c r="RK6" s="30"/>
+      <c r="RL6" s="30"/>
+      <c r="RM6" s="30"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="23"/>
@@ -5111,65 +4998,49 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="AH7" s="24"/>
-      <c r="AL7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="BU7" s="25"/>
-      <c r="BV7" s="25"/>
-      <c r="BW7" s="25"/>
-      <c r="FO7" s="28"/>
-      <c r="FP7" s="28"/>
-      <c r="FX7" s="25"/>
-      <c r="FY7" s="25"/>
-      <c r="GL7" s="31"/>
-      <c r="GM7" s="31"/>
-      <c r="IL7" s="25"/>
-      <c r="IM7" s="25"/>
-      <c r="JJ7" s="32"/>
-      <c r="JK7" s="32"/>
-      <c r="KW7" s="25"/>
-      <c r="KX7" s="25"/>
-      <c r="ML7" s="28"/>
-      <c r="MM7" s="28"/>
-      <c r="NC7" s="25"/>
-      <c r="ND7" s="25"/>
-      <c r="NZ7" s="25"/>
-      <c r="OA7" s="25"/>
-      <c r="OY7" s="26"/>
-      <c r="OZ7" s="26"/>
-      <c r="PQ7" s="26"/>
-      <c r="PR7" s="26"/>
-      <c r="QS7" s="26"/>
-      <c r="QT7" s="26"/>
-      <c r="RG7" s="26"/>
-      <c r="RH7" s="26"/>
-      <c r="RI7" s="25"/>
-      <c r="RJ7" s="25"/>
-      <c r="RK7" s="25"/>
-      <c r="RL7" s="25"/>
-      <c r="RM7" s="25"/>
-      <c r="RN7" s="25"/>
-      <c r="RO7" s="25"/>
-      <c r="RP7" s="25"/>
-      <c r="RQ7" s="25"/>
-      <c r="RR7" s="25"/>
-      <c r="RS7" s="25"/>
-      <c r="RT7" s="25"/>
-      <c r="RU7" s="25"/>
-      <c r="RV7" s="25"/>
-      <c r="RW7" s="25"/>
-      <c r="RX7" s="25"/>
-      <c r="RY7" s="26"/>
-      <c r="RZ7" s="26"/>
-      <c r="SA7" s="25"/>
-      <c r="SB7" s="25"/>
-      <c r="SC7" s="25"/>
-      <c r="SD7" s="25"/>
-      <c r="SE7" s="25"/>
-      <c r="SF7" s="25"/>
+      <c r="J7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="AG7" s="24"/>
+      <c r="AK7" s="31"/>
+      <c r="AT7" s="31"/>
+      <c r="BR7" s="30"/>
+      <c r="BS7" s="30"/>
+      <c r="FK7" s="31"/>
+      <c r="FS7" s="30"/>
+      <c r="GF7" s="35"/>
+      <c r="IE7" s="30"/>
+      <c r="JB7" s="36"/>
+      <c r="KM7" s="30"/>
+      <c r="MA7" s="31"/>
+      <c r="MQ7" s="30"/>
+      <c r="NM7" s="30"/>
+      <c r="OK7" s="33"/>
+      <c r="PB7" s="33"/>
+      <c r="QC7" s="33"/>
+      <c r="QP7" s="33"/>
+      <c r="QQ7" s="30"/>
+      <c r="QR7" s="30"/>
+      <c r="QS7" s="30"/>
+      <c r="QT7" s="30"/>
+      <c r="QU7" s="30"/>
+      <c r="QV7" s="30"/>
+      <c r="QW7" s="30"/>
+      <c r="QX7" s="30"/>
+      <c r="QY7" s="30"/>
+      <c r="QZ7" s="30"/>
+      <c r="RA7" s="30"/>
+      <c r="RB7" s="30"/>
+      <c r="RC7" s="30"/>
+      <c r="RD7" s="30"/>
+      <c r="RE7" s="30"/>
+      <c r="RF7" s="30"/>
+      <c r="RG7" s="33"/>
+      <c r="RH7" s="30"/>
+      <c r="RI7" s="30"/>
+      <c r="RJ7" s="30"/>
+      <c r="RK7" s="30"/>
+      <c r="RL7" s="30"/>
+      <c r="RM7" s="30"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="23"/>
@@ -5177,64 +5048,48 @@
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="AL8" s="28"/>
-      <c r="AU8" s="25"/>
-      <c r="BU8" s="25"/>
-      <c r="BV8" s="25"/>
-      <c r="BW8" s="25"/>
-      <c r="FO8" s="28"/>
-      <c r="FP8" s="28"/>
-      <c r="FX8" s="25"/>
-      <c r="FY8" s="25"/>
-      <c r="GL8" s="31"/>
-      <c r="GM8" s="31"/>
-      <c r="IL8" s="25"/>
-      <c r="IM8" s="25"/>
-      <c r="JJ8" s="32"/>
-      <c r="JK8" s="32"/>
-      <c r="KW8" s="25"/>
-      <c r="KX8" s="25"/>
-      <c r="ML8" s="28"/>
-      <c r="MM8" s="28"/>
-      <c r="NC8" s="25"/>
-      <c r="ND8" s="25"/>
-      <c r="NZ8" s="25"/>
-      <c r="OA8" s="25"/>
-      <c r="OY8" s="26"/>
-      <c r="OZ8" s="26"/>
-      <c r="PQ8" s="26"/>
-      <c r="PR8" s="26"/>
-      <c r="QS8" s="26"/>
-      <c r="QT8" s="26"/>
-      <c r="RG8" s="26"/>
-      <c r="RH8" s="26"/>
-      <c r="RI8" s="25"/>
-      <c r="RJ8" s="25"/>
-      <c r="RK8" s="25"/>
-      <c r="RL8" s="25"/>
-      <c r="RM8" s="25"/>
-      <c r="RN8" s="25"/>
-      <c r="RO8" s="25"/>
-      <c r="RP8" s="25"/>
-      <c r="RQ8" s="25"/>
-      <c r="RR8" s="25"/>
-      <c r="RS8" s="25"/>
-      <c r="RT8" s="25"/>
-      <c r="RU8" s="25"/>
-      <c r="RV8" s="25"/>
-      <c r="RW8" s="25"/>
-      <c r="RX8" s="25"/>
-      <c r="RY8" s="26"/>
-      <c r="RZ8" s="26"/>
-      <c r="SA8" s="25"/>
-      <c r="SB8" s="25"/>
-      <c r="SC8" s="25"/>
-      <c r="SD8" s="25"/>
-      <c r="SE8" s="25"/>
-      <c r="SF8" s="25"/>
+      <c r="J8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="AK8" s="31"/>
+      <c r="AT8" s="30"/>
+      <c r="BR8" s="30"/>
+      <c r="BS8" s="30"/>
+      <c r="FK8" s="31"/>
+      <c r="FS8" s="30"/>
+      <c r="GF8" s="35"/>
+      <c r="IE8" s="30"/>
+      <c r="JB8" s="36"/>
+      <c r="KM8" s="30"/>
+      <c r="MA8" s="31"/>
+      <c r="MQ8" s="30"/>
+      <c r="NM8" s="30"/>
+      <c r="OK8" s="33"/>
+      <c r="PB8" s="33"/>
+      <c r="QC8" s="33"/>
+      <c r="QP8" s="33"/>
+      <c r="QQ8" s="30"/>
+      <c r="QR8" s="30"/>
+      <c r="QS8" s="30"/>
+      <c r="QT8" s="30"/>
+      <c r="QU8" s="30"/>
+      <c r="QV8" s="30"/>
+      <c r="QW8" s="30"/>
+      <c r="QX8" s="30"/>
+      <c r="QY8" s="30"/>
+      <c r="QZ8" s="30"/>
+      <c r="RA8" s="30"/>
+      <c r="RB8" s="30"/>
+      <c r="RC8" s="30"/>
+      <c r="RD8" s="30"/>
+      <c r="RE8" s="30"/>
+      <c r="RF8" s="30"/>
+      <c r="RG8" s="33"/>
+      <c r="RH8" s="30"/>
+      <c r="RI8" s="30"/>
+      <c r="RJ8" s="30"/>
+      <c r="RK8" s="30"/>
+      <c r="RL8" s="30"/>
+      <c r="RM8" s="30"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="23"/>
@@ -5242,64 +5097,48 @@
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="AL9" s="28"/>
-      <c r="AU9" s="28"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25"/>
-      <c r="BW9" s="25"/>
-      <c r="FO9" s="28"/>
-      <c r="FP9" s="28"/>
-      <c r="FX9" s="25"/>
-      <c r="FY9" s="25"/>
-      <c r="GL9" s="31"/>
-      <c r="GM9" s="31"/>
-      <c r="IL9" s="25"/>
-      <c r="IM9" s="25"/>
-      <c r="JJ9" s="32"/>
-      <c r="JK9" s="32"/>
-      <c r="KW9" s="25"/>
-      <c r="KX9" s="25"/>
-      <c r="ML9" s="28"/>
-      <c r="MM9" s="28"/>
-      <c r="NC9" s="25"/>
-      <c r="ND9" s="25"/>
-      <c r="NZ9" s="25"/>
-      <c r="OA9" s="25"/>
-      <c r="OY9" s="26"/>
-      <c r="OZ9" s="26"/>
-      <c r="PQ9" s="26"/>
-      <c r="PR9" s="26"/>
-      <c r="QS9" s="26"/>
-      <c r="QT9" s="26"/>
-      <c r="RG9" s="28"/>
-      <c r="RH9" s="28"/>
-      <c r="RI9" s="28"/>
-      <c r="RJ9" s="28"/>
-      <c r="RK9" s="28"/>
-      <c r="RL9" s="28"/>
-      <c r="RM9" s="28"/>
-      <c r="RN9" s="28"/>
-      <c r="RO9" s="28"/>
-      <c r="RP9" s="28"/>
-      <c r="RQ9" s="28"/>
-      <c r="RR9" s="28"/>
-      <c r="RS9" s="28"/>
-      <c r="RT9" s="28"/>
-      <c r="RU9" s="28"/>
-      <c r="RV9" s="28"/>
-      <c r="RW9" s="28"/>
-      <c r="RX9" s="28"/>
-      <c r="RY9" s="26"/>
-      <c r="RZ9" s="26"/>
-      <c r="SA9" s="25"/>
-      <c r="SB9" s="25"/>
-      <c r="SC9" s="25"/>
-      <c r="SD9" s="25"/>
-      <c r="SE9" s="25"/>
-      <c r="SF9" s="25"/>
+      <c r="J9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="AK9" s="31"/>
+      <c r="AT9" s="31"/>
+      <c r="BR9" s="30"/>
+      <c r="BS9" s="30"/>
+      <c r="FK9" s="31"/>
+      <c r="FS9" s="30"/>
+      <c r="GF9" s="35"/>
+      <c r="IE9" s="30"/>
+      <c r="JB9" s="36"/>
+      <c r="KM9" s="30"/>
+      <c r="MA9" s="31"/>
+      <c r="MQ9" s="30"/>
+      <c r="NM9" s="30"/>
+      <c r="OK9" s="33"/>
+      <c r="PB9" s="33"/>
+      <c r="QC9" s="33"/>
+      <c r="QP9" s="31"/>
+      <c r="QQ9" s="31"/>
+      <c r="QR9" s="31"/>
+      <c r="QS9" s="31"/>
+      <c r="QT9" s="31"/>
+      <c r="QU9" s="31"/>
+      <c r="QV9" s="31"/>
+      <c r="QW9" s="31"/>
+      <c r="QX9" s="31"/>
+      <c r="QY9" s="31"/>
+      <c r="QZ9" s="31"/>
+      <c r="RA9" s="31"/>
+      <c r="RB9" s="31"/>
+      <c r="RC9" s="31"/>
+      <c r="RD9" s="31"/>
+      <c r="RE9" s="31"/>
+      <c r="RF9" s="31"/>
+      <c r="RG9" s="33"/>
+      <c r="RH9" s="30"/>
+      <c r="RI9" s="30"/>
+      <c r="RJ9" s="30"/>
+      <c r="RK9" s="30"/>
+      <c r="RL9" s="30"/>
+      <c r="RM9" s="30"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="23"/>
@@ -5307,1160 +5146,828 @@
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="AL10" s="28"/>
-      <c r="AU10" s="28"/>
-      <c r="BU10" s="25"/>
-      <c r="BV10" s="25"/>
-      <c r="BW10" s="25"/>
-      <c r="ER10" s="25"/>
-      <c r="ES10" s="25"/>
-      <c r="FO10" s="28"/>
-      <c r="FP10" s="28"/>
-      <c r="FX10" s="25"/>
-      <c r="FY10" s="25"/>
-      <c r="GL10" s="29"/>
-      <c r="GM10" s="29"/>
-      <c r="IL10" s="28"/>
-      <c r="IM10" s="28"/>
-      <c r="JJ10" s="32"/>
-      <c r="JK10" s="32"/>
-      <c r="KW10" s="25"/>
-      <c r="KX10" s="25"/>
-      <c r="ML10" s="28"/>
-      <c r="MM10" s="28"/>
-      <c r="NC10" s="25"/>
-      <c r="ND10" s="25"/>
-      <c r="NZ10" s="25"/>
-      <c r="OA10" s="25"/>
-      <c r="OY10" s="26"/>
-      <c r="OZ10" s="26"/>
-      <c r="PQ10" s="26"/>
-      <c r="PR10" s="26"/>
-      <c r="QS10" s="26"/>
-      <c r="QT10" s="26"/>
-      <c r="RG10" s="28"/>
-      <c r="RH10" s="28"/>
-      <c r="RI10" s="28"/>
-      <c r="RJ10" s="28"/>
-      <c r="RK10" s="28"/>
-      <c r="RL10" s="28"/>
-      <c r="RM10" s="28"/>
-      <c r="RN10" s="28"/>
-      <c r="RO10" s="28"/>
-      <c r="RP10" s="28"/>
-      <c r="RQ10" s="28"/>
-      <c r="RR10" s="28"/>
-      <c r="RS10" s="28"/>
-      <c r="RT10" s="28"/>
-      <c r="RU10" s="28"/>
-      <c r="RV10" s="28"/>
-      <c r="RW10" s="28"/>
-      <c r="RX10" s="28"/>
-      <c r="RY10" s="28"/>
-      <c r="RZ10" s="28"/>
-      <c r="SA10" s="28"/>
-      <c r="SB10" s="28"/>
-      <c r="SC10" s="28"/>
-      <c r="SD10" s="28"/>
-      <c r="SE10" s="28"/>
-      <c r="SF10" s="28"/>
+      <c r="J10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="AK10" s="31"/>
+      <c r="AT10" s="31"/>
+      <c r="BR10" s="30"/>
+      <c r="BS10" s="30"/>
+      <c r="EO10" s="30"/>
+      <c r="FK10" s="31"/>
+      <c r="FS10" s="30"/>
+      <c r="GF10" s="32"/>
+      <c r="IE10" s="31"/>
+      <c r="JB10" s="36"/>
+      <c r="KM10" s="30"/>
+      <c r="MA10" s="31"/>
+      <c r="MQ10" s="30"/>
+      <c r="NM10" s="30"/>
+      <c r="OK10" s="33"/>
+      <c r="PB10" s="33"/>
+      <c r="QC10" s="33"/>
+      <c r="QP10" s="31"/>
+      <c r="QQ10" s="31"/>
+      <c r="QR10" s="31"/>
+      <c r="QS10" s="31"/>
+      <c r="QT10" s="31"/>
+      <c r="QU10" s="31"/>
+      <c r="QV10" s="31"/>
+      <c r="QW10" s="31"/>
+      <c r="QX10" s="31"/>
+      <c r="QY10" s="31"/>
+      <c r="QZ10" s="31"/>
+      <c r="RA10" s="31"/>
+      <c r="RB10" s="31"/>
+      <c r="RC10" s="31"/>
+      <c r="RD10" s="31"/>
+      <c r="RE10" s="31"/>
+      <c r="RF10" s="31"/>
+      <c r="RG10" s="31"/>
+      <c r="RH10" s="31"/>
+      <c r="RI10" s="31"/>
+      <c r="RJ10" s="31"/>
+      <c r="RK10" s="31"/>
+      <c r="RL10" s="31"/>
+      <c r="RM10" s="31"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="33"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="AL11" s="28"/>
-      <c r="AU11" s="25"/>
-      <c r="BU11" s="25"/>
-      <c r="BV11" s="25"/>
-      <c r="BW11" s="25"/>
-      <c r="ER11" s="25"/>
-      <c r="ES11" s="25"/>
-      <c r="FO11" s="28"/>
-      <c r="FP11" s="28"/>
-      <c r="FX11" s="25"/>
-      <c r="FY11" s="25"/>
-      <c r="GL11" s="31"/>
-      <c r="GM11" s="31"/>
-      <c r="IL11" s="25"/>
-      <c r="IM11" s="25"/>
-      <c r="JJ11" s="25"/>
-      <c r="JK11" s="25"/>
-      <c r="KW11" s="25"/>
-      <c r="KX11" s="25"/>
-      <c r="ML11" s="28"/>
-      <c r="MM11" s="28"/>
-      <c r="NC11" s="25"/>
-      <c r="ND11" s="25"/>
-      <c r="NZ11" s="25"/>
-      <c r="OA11" s="25"/>
-      <c r="OY11" s="26"/>
-      <c r="OZ11" s="26"/>
-      <c r="PQ11" s="26"/>
-      <c r="PR11" s="26"/>
-      <c r="QS11" s="26"/>
-      <c r="QT11" s="26"/>
-      <c r="RG11" s="28"/>
-      <c r="RH11" s="28"/>
-      <c r="RI11" s="28"/>
-      <c r="RJ11" s="28"/>
-      <c r="RK11" s="28"/>
-      <c r="RL11" s="28"/>
-      <c r="RM11" s="28"/>
-      <c r="RN11" s="28"/>
-      <c r="RO11" s="28"/>
-      <c r="RP11" s="28"/>
-      <c r="RQ11" s="28"/>
-      <c r="RR11" s="28"/>
-      <c r="RS11" s="28"/>
-      <c r="RT11" s="28"/>
-      <c r="RU11" s="28"/>
-      <c r="RV11" s="28"/>
-      <c r="RW11" s="28"/>
-      <c r="RX11" s="28"/>
-      <c r="RY11" s="28"/>
-      <c r="RZ11" s="28"/>
-      <c r="SA11" s="28"/>
-      <c r="SB11" s="28"/>
-      <c r="SC11" s="28"/>
-      <c r="SD11" s="28"/>
-      <c r="SE11" s="28"/>
-      <c r="SF11" s="28"/>
+      <c r="J11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="AK11" s="31"/>
+      <c r="AT11" s="30"/>
+      <c r="BR11" s="30"/>
+      <c r="BS11" s="30"/>
+      <c r="EO11" s="30"/>
+      <c r="FK11" s="31"/>
+      <c r="FS11" s="30"/>
+      <c r="GF11" s="35"/>
+      <c r="IE11" s="30"/>
+      <c r="JB11" s="30"/>
+      <c r="KM11" s="30"/>
+      <c r="MA11" s="31"/>
+      <c r="MQ11" s="30"/>
+      <c r="NM11" s="30"/>
+      <c r="OK11" s="33"/>
+      <c r="PB11" s="33"/>
+      <c r="QC11" s="33"/>
+      <c r="QP11" s="31"/>
+      <c r="QQ11" s="31"/>
+      <c r="QR11" s="31"/>
+      <c r="QS11" s="31"/>
+      <c r="QT11" s="31"/>
+      <c r="QU11" s="31"/>
+      <c r="QV11" s="31"/>
+      <c r="QW11" s="31"/>
+      <c r="QX11" s="31"/>
+      <c r="QY11" s="31"/>
+      <c r="QZ11" s="31"/>
+      <c r="RA11" s="31"/>
+      <c r="RB11" s="31"/>
+      <c r="RC11" s="31"/>
+      <c r="RD11" s="31"/>
+      <c r="RE11" s="31"/>
+      <c r="RF11" s="31"/>
+      <c r="RG11" s="31"/>
+      <c r="RH11" s="31"/>
+      <c r="RI11" s="31"/>
+      <c r="RJ11" s="31"/>
+      <c r="RK11" s="31"/>
+      <c r="RL11" s="31"/>
+      <c r="RM11" s="31"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="33"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="AU12" s="25"/>
-      <c r="BU12" s="25"/>
-      <c r="BV12" s="25"/>
-      <c r="BW12" s="25"/>
-      <c r="ER12" s="25"/>
-      <c r="ES12" s="25"/>
-      <c r="FX12" s="25"/>
-      <c r="FY12" s="25"/>
-      <c r="GL12" s="31"/>
-      <c r="GM12" s="31"/>
-      <c r="IL12" s="25"/>
-      <c r="IM12" s="25"/>
-      <c r="JJ12" s="25"/>
-      <c r="JK12" s="25"/>
-      <c r="KW12" s="25"/>
-      <c r="KX12" s="25"/>
-      <c r="ML12" s="28"/>
-      <c r="MM12" s="28"/>
-      <c r="NC12" s="25"/>
-      <c r="ND12" s="25"/>
-      <c r="NZ12" s="25"/>
-      <c r="OA12" s="25"/>
-      <c r="OY12" s="26"/>
-      <c r="OZ12" s="26"/>
-      <c r="PQ12" s="26"/>
-      <c r="PR12" s="26"/>
-      <c r="QS12" s="26"/>
-      <c r="QT12" s="26"/>
-      <c r="RG12" s="28"/>
-      <c r="RH12" s="28"/>
-      <c r="RI12" s="28"/>
-      <c r="RJ12" s="28"/>
-      <c r="RK12" s="28"/>
-      <c r="RL12" s="28"/>
-      <c r="RM12" s="28"/>
-      <c r="RN12" s="28"/>
-      <c r="RO12" s="28"/>
-      <c r="RP12" s="28"/>
-      <c r="RQ12" s="28"/>
-      <c r="RR12" s="28"/>
-      <c r="RS12" s="28"/>
-      <c r="RT12" s="28"/>
-      <c r="RU12" s="28"/>
-      <c r="RV12" s="28"/>
-      <c r="RW12" s="28"/>
-      <c r="RX12" s="28"/>
-      <c r="RY12" s="28"/>
-      <c r="RZ12" s="28"/>
-      <c r="SA12" s="28"/>
-      <c r="SB12" s="28"/>
-      <c r="SC12" s="28"/>
-      <c r="SD12" s="28"/>
-      <c r="SE12" s="28"/>
-      <c r="SF12" s="28"/>
+      <c r="J12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="AT12" s="30"/>
+      <c r="BR12" s="30"/>
+      <c r="BS12" s="30"/>
+      <c r="EO12" s="30"/>
+      <c r="FS12" s="30"/>
+      <c r="GF12" s="35"/>
+      <c r="IE12" s="30"/>
+      <c r="JB12" s="30"/>
+      <c r="KM12" s="30"/>
+      <c r="MA12" s="31"/>
+      <c r="MQ12" s="30"/>
+      <c r="NM12" s="30"/>
+      <c r="OK12" s="33"/>
+      <c r="PB12" s="33"/>
+      <c r="QC12" s="33"/>
+      <c r="QP12" s="31"/>
+      <c r="QQ12" s="31"/>
+      <c r="QR12" s="31"/>
+      <c r="QS12" s="31"/>
+      <c r="QT12" s="31"/>
+      <c r="QU12" s="31"/>
+      <c r="QV12" s="31"/>
+      <c r="QW12" s="31"/>
+      <c r="QX12" s="31"/>
+      <c r="QY12" s="31"/>
+      <c r="QZ12" s="31"/>
+      <c r="RA12" s="31"/>
+      <c r="RB12" s="31"/>
+      <c r="RC12" s="31"/>
+      <c r="RD12" s="31"/>
+      <c r="RE12" s="31"/>
+      <c r="RF12" s="31"/>
+      <c r="RG12" s="31"/>
+      <c r="RH12" s="31"/>
+      <c r="RI12" s="31"/>
+      <c r="RJ12" s="31"/>
+      <c r="RK12" s="31"/>
+      <c r="RL12" s="31"/>
+      <c r="RM12" s="31"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="33"/>
+      <c r="A13" s="37"/>
       <c r="C13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="AU13" s="25"/>
-      <c r="BU13" s="25"/>
-      <c r="BV13" s="25"/>
-      <c r="BW13" s="25"/>
-      <c r="ER13" s="25"/>
-      <c r="ES13" s="25"/>
-      <c r="FX13" s="25"/>
-      <c r="FY13" s="25"/>
-      <c r="GL13" s="31"/>
-      <c r="GM13" s="31"/>
-      <c r="IL13" s="25"/>
-      <c r="IM13" s="25"/>
-      <c r="JJ13" s="25"/>
-      <c r="JK13" s="25"/>
-      <c r="KW13" s="25"/>
-      <c r="KX13" s="25"/>
-      <c r="ML13" s="28"/>
-      <c r="MM13" s="28"/>
-      <c r="NC13" s="25"/>
-      <c r="ND13" s="25"/>
-      <c r="NZ13" s="25"/>
-      <c r="OA13" s="25"/>
-      <c r="OY13" s="26"/>
-      <c r="OZ13" s="26"/>
-      <c r="PQ13" s="26"/>
-      <c r="PR13" s="26"/>
-      <c r="QS13" s="26"/>
-      <c r="QT13" s="26"/>
-      <c r="RG13" s="28"/>
-      <c r="RH13" s="28"/>
-      <c r="RI13" s="28"/>
-      <c r="RJ13" s="28"/>
-      <c r="RK13" s="28"/>
-      <c r="RL13" s="28"/>
-      <c r="RM13" s="28"/>
-      <c r="RN13" s="28"/>
-      <c r="RO13" s="28"/>
-      <c r="RP13" s="28"/>
-      <c r="RQ13" s="28"/>
-      <c r="RR13" s="28"/>
-      <c r="RS13" s="28"/>
-      <c r="RT13" s="28"/>
-      <c r="RU13" s="28"/>
-      <c r="RV13" s="28"/>
-      <c r="RW13" s="28"/>
-      <c r="RX13" s="28"/>
-      <c r="RY13" s="28"/>
-      <c r="RZ13" s="28"/>
-      <c r="SA13" s="28"/>
-      <c r="SB13" s="28"/>
-      <c r="SC13" s="28"/>
-      <c r="SD13" s="28"/>
-      <c r="SE13" s="28"/>
-      <c r="SF13" s="28"/>
+      <c r="J13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="AT13" s="30"/>
+      <c r="BR13" s="30"/>
+      <c r="BS13" s="30"/>
+      <c r="EO13" s="30"/>
+      <c r="FS13" s="30"/>
+      <c r="GF13" s="35"/>
+      <c r="IE13" s="30"/>
+      <c r="JB13" s="30"/>
+      <c r="KM13" s="30"/>
+      <c r="MA13" s="31"/>
+      <c r="MQ13" s="30"/>
+      <c r="NM13" s="30"/>
+      <c r="OK13" s="33"/>
+      <c r="PB13" s="33"/>
+      <c r="QC13" s="33"/>
+      <c r="QP13" s="31"/>
+      <c r="QQ13" s="31"/>
+      <c r="QR13" s="31"/>
+      <c r="QS13" s="31"/>
+      <c r="QT13" s="31"/>
+      <c r="QU13" s="31"/>
+      <c r="QV13" s="31"/>
+      <c r="QW13" s="31"/>
+      <c r="QX13" s="31"/>
+      <c r="QY13" s="31"/>
+      <c r="QZ13" s="31"/>
+      <c r="RA13" s="31"/>
+      <c r="RB13" s="31"/>
+      <c r="RC13" s="31"/>
+      <c r="RD13" s="31"/>
+      <c r="RE13" s="31"/>
+      <c r="RF13" s="31"/>
+      <c r="RG13" s="31"/>
+      <c r="RH13" s="31"/>
+      <c r="RI13" s="31"/>
+      <c r="RJ13" s="31"/>
+      <c r="RK13" s="31"/>
+      <c r="RL13" s="31"/>
+      <c r="RM13" s="31"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="J14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="BU14" s="25"/>
-      <c r="BV14" s="25"/>
-      <c r="BW14" s="25"/>
-      <c r="ER14" s="25"/>
-      <c r="ES14" s="25"/>
-      <c r="FX14" s="25"/>
-      <c r="FY14" s="25"/>
-      <c r="GL14" s="31"/>
-      <c r="GM14" s="31"/>
-      <c r="IL14" s="25"/>
-      <c r="IM14" s="25"/>
-      <c r="JJ14" s="25"/>
-      <c r="JK14" s="25"/>
-      <c r="KW14" s="25"/>
-      <c r="KX14" s="25"/>
-      <c r="ML14" s="28"/>
-      <c r="MM14" s="28"/>
-      <c r="NC14" s="25"/>
-      <c r="ND14" s="25"/>
-      <c r="NZ14" s="25"/>
-      <c r="OA14" s="25"/>
-      <c r="OY14" s="26"/>
-      <c r="OZ14" s="26"/>
-      <c r="PQ14" s="26"/>
-      <c r="PR14" s="26"/>
-      <c r="QS14" s="26"/>
-      <c r="QT14" s="26"/>
-      <c r="RG14" s="28"/>
-      <c r="RH14" s="28"/>
-      <c r="RI14" s="28"/>
-      <c r="RJ14" s="28"/>
-      <c r="RK14" s="28"/>
-      <c r="RL14" s="28"/>
-      <c r="RM14" s="28"/>
-      <c r="RN14" s="28"/>
-      <c r="RO14" s="28"/>
-      <c r="RP14" s="28"/>
-      <c r="RQ14" s="28"/>
-      <c r="RR14" s="28"/>
-      <c r="RS14" s="28"/>
-      <c r="RT14" s="28"/>
-      <c r="RU14" s="28"/>
-      <c r="RV14" s="28"/>
-      <c r="RW14" s="28"/>
-      <c r="RX14" s="28"/>
-      <c r="RY14" s="28"/>
-      <c r="RZ14" s="28"/>
-      <c r="SA14" s="28"/>
-      <c r="SB14" s="28"/>
-      <c r="SC14" s="28"/>
-      <c r="SD14" s="28"/>
-      <c r="SE14" s="28"/>
-      <c r="SF14" s="28"/>
+      <c r="A14" s="31"/>
+      <c r="J14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="AT14" s="30"/>
+      <c r="BR14" s="30"/>
+      <c r="BS14" s="30"/>
+      <c r="EO14" s="30"/>
+      <c r="FS14" s="30"/>
+      <c r="GF14" s="35"/>
+      <c r="IE14" s="30"/>
+      <c r="JB14" s="30"/>
+      <c r="KM14" s="30"/>
+      <c r="MA14" s="31"/>
+      <c r="MQ14" s="30"/>
+      <c r="NM14" s="30"/>
+      <c r="OK14" s="33"/>
+      <c r="PB14" s="33"/>
+      <c r="QC14" s="33"/>
+      <c r="QP14" s="31"/>
+      <c r="QQ14" s="31"/>
+      <c r="QR14" s="31"/>
+      <c r="QS14" s="31"/>
+      <c r="QT14" s="31"/>
+      <c r="QU14" s="31"/>
+      <c r="QV14" s="31"/>
+      <c r="QW14" s="31"/>
+      <c r="QX14" s="31"/>
+      <c r="QY14" s="31"/>
+      <c r="QZ14" s="31"/>
+      <c r="RA14" s="31"/>
+      <c r="RB14" s="31"/>
+      <c r="RC14" s="31"/>
+      <c r="RD14" s="31"/>
+      <c r="RE14" s="31"/>
+      <c r="RF14" s="31"/>
+      <c r="RG14" s="31"/>
+      <c r="RH14" s="31"/>
+      <c r="RI14" s="31"/>
+      <c r="RJ14" s="31"/>
+      <c r="RK14" s="31"/>
+      <c r="RL14" s="31"/>
+      <c r="RM14" s="31"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="J15" s="25"/>
-      <c r="AU15" s="28"/>
-      <c r="BU15" s="25"/>
-      <c r="BV15" s="25"/>
-      <c r="BW15" s="25"/>
-      <c r="ER15" s="25"/>
-      <c r="ES15" s="25"/>
-      <c r="FX15" s="25"/>
-      <c r="FY15" s="25"/>
-      <c r="GL15" s="29"/>
-      <c r="GM15" s="29"/>
-      <c r="IL15" s="25"/>
-      <c r="IM15" s="25"/>
-      <c r="JJ15" s="25"/>
-      <c r="JK15" s="25"/>
-      <c r="KW15" s="25"/>
-      <c r="KX15" s="25"/>
-      <c r="ML15" s="28"/>
-      <c r="MM15" s="28"/>
-      <c r="NC15" s="25"/>
-      <c r="ND15" s="25"/>
-      <c r="NZ15" s="25"/>
-      <c r="OA15" s="25"/>
-      <c r="OY15" s="26"/>
-      <c r="OZ15" s="26"/>
-      <c r="PQ15" s="26"/>
-      <c r="PR15" s="26"/>
-      <c r="QS15" s="26"/>
-      <c r="QT15" s="26"/>
-      <c r="RG15" s="28"/>
-      <c r="RH15" s="28"/>
-      <c r="RI15" s="28"/>
-      <c r="RJ15" s="28"/>
-      <c r="RK15" s="28"/>
-      <c r="RL15" s="28"/>
-      <c r="RM15" s="28"/>
-      <c r="RN15" s="28"/>
-      <c r="RO15" s="28"/>
-      <c r="RP15" s="28"/>
-      <c r="RQ15" s="28"/>
-      <c r="RR15" s="28"/>
-      <c r="RS15" s="28"/>
-      <c r="RT15" s="28"/>
-      <c r="RU15" s="28"/>
-      <c r="RV15" s="28"/>
-      <c r="RW15" s="28"/>
-      <c r="RX15" s="28"/>
-      <c r="RY15" s="28"/>
-      <c r="RZ15" s="28"/>
-      <c r="SA15" s="28"/>
-      <c r="SB15" s="28"/>
-      <c r="SC15" s="28"/>
-      <c r="SD15" s="28"/>
-      <c r="SE15" s="28"/>
-      <c r="SF15" s="28"/>
+      <c r="A15" s="31"/>
+      <c r="J15" s="30"/>
+      <c r="AT15" s="31"/>
+      <c r="BR15" s="30"/>
+      <c r="BS15" s="30"/>
+      <c r="EO15" s="30"/>
+      <c r="FS15" s="30"/>
+      <c r="GF15" s="32"/>
+      <c r="IE15" s="30"/>
+      <c r="JB15" s="30"/>
+      <c r="KM15" s="30"/>
+      <c r="MA15" s="31"/>
+      <c r="MQ15" s="30"/>
+      <c r="NM15" s="30"/>
+      <c r="OK15" s="33"/>
+      <c r="PB15" s="33"/>
+      <c r="QC15" s="33"/>
+      <c r="QP15" s="31"/>
+      <c r="QQ15" s="31"/>
+      <c r="QR15" s="31"/>
+      <c r="QS15" s="31"/>
+      <c r="QT15" s="31"/>
+      <c r="QU15" s="31"/>
+      <c r="QV15" s="31"/>
+      <c r="QW15" s="31"/>
+      <c r="QX15" s="31"/>
+      <c r="QY15" s="31"/>
+      <c r="QZ15" s="31"/>
+      <c r="RA15" s="31"/>
+      <c r="RB15" s="31"/>
+      <c r="RC15" s="31"/>
+      <c r="RD15" s="31"/>
+      <c r="RE15" s="31"/>
+      <c r="RF15" s="31"/>
+      <c r="RG15" s="31"/>
+      <c r="RH15" s="31"/>
+      <c r="RI15" s="31"/>
+      <c r="RJ15" s="31"/>
+      <c r="RK15" s="31"/>
+      <c r="RL15" s="31"/>
+      <c r="RM15" s="31"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="J16" s="25"/>
-      <c r="AU16" s="28"/>
-      <c r="BU16" s="25"/>
-      <c r="BV16" s="25"/>
-      <c r="BW16" s="25"/>
-      <c r="ER16" s="25"/>
-      <c r="ES16" s="25"/>
-      <c r="FX16" s="25"/>
-      <c r="FY16" s="25"/>
-      <c r="GL16" s="29"/>
-      <c r="GM16" s="29"/>
-      <c r="IL16" s="25"/>
-      <c r="IM16" s="25"/>
-      <c r="JJ16" s="25"/>
-      <c r="JK16" s="25"/>
-      <c r="KW16" s="25"/>
-      <c r="KX16" s="25"/>
-      <c r="ML16" s="28"/>
-      <c r="MM16" s="28"/>
-      <c r="NC16" s="25"/>
-      <c r="ND16" s="25"/>
-      <c r="NZ16" s="25"/>
-      <c r="OA16" s="25"/>
-      <c r="OY16" s="26"/>
-      <c r="OZ16" s="26"/>
-      <c r="PQ16" s="26"/>
-      <c r="PR16" s="26"/>
-      <c r="RG16" s="26"/>
-      <c r="RH16" s="26"/>
-      <c r="RI16" s="25"/>
-      <c r="RJ16" s="25"/>
-      <c r="RK16" s="25"/>
-      <c r="RL16" s="25"/>
-      <c r="RM16" s="25"/>
-      <c r="RN16" s="25"/>
-      <c r="RO16" s="25"/>
-      <c r="RP16" s="25"/>
-      <c r="RQ16" s="25"/>
-      <c r="RR16" s="25"/>
-      <c r="RS16" s="25"/>
-      <c r="RT16" s="25"/>
-      <c r="RU16" s="25"/>
-      <c r="RV16" s="25"/>
-      <c r="RW16" s="25"/>
-      <c r="RX16" s="25"/>
-      <c r="RY16" s="25"/>
-      <c r="RZ16" s="25"/>
-      <c r="SA16" s="25"/>
-      <c r="SB16" s="25"/>
-      <c r="SC16" s="25"/>
-      <c r="SD16" s="25"/>
-      <c r="SE16" s="25"/>
-      <c r="SF16" s="25"/>
+      <c r="A16" s="31"/>
+      <c r="J16" s="30"/>
+      <c r="AT16" s="31"/>
+      <c r="BR16" s="30"/>
+      <c r="BS16" s="30"/>
+      <c r="EO16" s="30"/>
+      <c r="FS16" s="30"/>
+      <c r="GF16" s="32"/>
+      <c r="IE16" s="30"/>
+      <c r="JB16" s="30"/>
+      <c r="KM16" s="30"/>
+      <c r="MA16" s="31"/>
+      <c r="MQ16" s="30"/>
+      <c r="NM16" s="30"/>
+      <c r="OK16" s="33"/>
+      <c r="PB16" s="33"/>
+      <c r="QP16" s="33"/>
+      <c r="QQ16" s="30"/>
+      <c r="QR16" s="30"/>
+      <c r="QS16" s="30"/>
+      <c r="QT16" s="30"/>
+      <c r="QU16" s="30"/>
+      <c r="QV16" s="30"/>
+      <c r="QW16" s="30"/>
+      <c r="QX16" s="30"/>
+      <c r="QY16" s="30"/>
+      <c r="QZ16" s="30"/>
+      <c r="RA16" s="30"/>
+      <c r="RB16" s="30"/>
+      <c r="RC16" s="30"/>
+      <c r="RD16" s="30"/>
+      <c r="RE16" s="30"/>
+      <c r="RF16" s="30"/>
+      <c r="RG16" s="30"/>
+      <c r="RH16" s="30"/>
+      <c r="RI16" s="30"/>
+      <c r="RJ16" s="30"/>
+      <c r="RK16" s="30"/>
+      <c r="RL16" s="30"/>
+      <c r="RM16" s="30"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="J17" s="25"/>
-      <c r="BU17" s="25"/>
-      <c r="BV17" s="25"/>
-      <c r="BW17" s="25"/>
-      <c r="ER17" s="25"/>
-      <c r="ES17" s="25"/>
-      <c r="GL17" s="29"/>
-      <c r="GM17" s="29"/>
-      <c r="IL17" s="25"/>
-      <c r="IM17" s="25"/>
-      <c r="JJ17" s="25"/>
-      <c r="JK17" s="25"/>
-      <c r="KW17" s="28"/>
-      <c r="KX17" s="28"/>
-      <c r="ML17" s="25"/>
-      <c r="MM17" s="25"/>
-      <c r="NC17" s="25"/>
-      <c r="ND17" s="25"/>
-      <c r="NZ17" s="25"/>
-      <c r="OA17" s="25"/>
-      <c r="OY17" s="26"/>
-      <c r="OZ17" s="26"/>
-      <c r="PQ17" s="26"/>
-      <c r="PR17" s="26"/>
-      <c r="RG17" s="26"/>
-      <c r="RH17" s="26"/>
-      <c r="RI17" s="25"/>
-      <c r="RJ17" s="25"/>
-      <c r="RK17" s="25"/>
-      <c r="RL17" s="25"/>
-      <c r="RM17" s="25"/>
-      <c r="RN17" s="25"/>
-      <c r="RO17" s="25"/>
-      <c r="RP17" s="25"/>
-      <c r="RQ17" s="25"/>
-      <c r="RR17" s="25"/>
-      <c r="RS17" s="25"/>
-      <c r="RT17" s="25"/>
-      <c r="RU17" s="25"/>
-      <c r="RV17" s="25"/>
-      <c r="RW17" s="25"/>
-      <c r="RX17" s="25"/>
-      <c r="RY17" s="25"/>
-      <c r="RZ17" s="25"/>
-      <c r="SA17" s="25"/>
-      <c r="SB17" s="25"/>
-      <c r="SC17" s="25"/>
-      <c r="SD17" s="25"/>
-      <c r="SE17" s="25"/>
-      <c r="SF17" s="25"/>
+      <c r="A17" s="31"/>
+      <c r="J17" s="30"/>
+      <c r="BR17" s="30"/>
+      <c r="BS17" s="30"/>
+      <c r="EO17" s="30"/>
+      <c r="GF17" s="32"/>
+      <c r="IE17" s="30"/>
+      <c r="JB17" s="30"/>
+      <c r="KM17" s="31"/>
+      <c r="MA17" s="30"/>
+      <c r="MQ17" s="30"/>
+      <c r="NM17" s="30"/>
+      <c r="OK17" s="33"/>
+      <c r="PB17" s="33"/>
+      <c r="QP17" s="33"/>
+      <c r="QQ17" s="30"/>
+      <c r="QR17" s="30"/>
+      <c r="QS17" s="30"/>
+      <c r="QT17" s="30"/>
+      <c r="QU17" s="30"/>
+      <c r="QV17" s="30"/>
+      <c r="QW17" s="30"/>
+      <c r="QX17" s="30"/>
+      <c r="QY17" s="30"/>
+      <c r="QZ17" s="30"/>
+      <c r="RA17" s="30"/>
+      <c r="RB17" s="30"/>
+      <c r="RC17" s="30"/>
+      <c r="RD17" s="30"/>
+      <c r="RE17" s="30"/>
+      <c r="RF17" s="30"/>
+      <c r="RG17" s="30"/>
+      <c r="RH17" s="30"/>
+      <c r="RI17" s="30"/>
+      <c r="RJ17" s="30"/>
+      <c r="RK17" s="30"/>
+      <c r="RL17" s="30"/>
+      <c r="RM17" s="30"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="BU18" s="25"/>
-      <c r="BV18" s="28"/>
-      <c r="BW18" s="28"/>
-      <c r="ER18" s="25"/>
-      <c r="ES18" s="25"/>
-      <c r="GL18" s="29"/>
-      <c r="GM18" s="29"/>
-      <c r="IL18" s="25"/>
-      <c r="IM18" s="25"/>
-      <c r="JJ18" s="25"/>
-      <c r="JK18" s="25"/>
-      <c r="KW18" s="25"/>
-      <c r="KX18" s="25"/>
-      <c r="ML18" s="25"/>
-      <c r="MM18" s="25"/>
-      <c r="NC18" s="25"/>
-      <c r="ND18" s="25"/>
-      <c r="NZ18" s="25"/>
-      <c r="OA18" s="25"/>
-      <c r="OY18" s="26"/>
-      <c r="OZ18" s="26"/>
-      <c r="PQ18" s="26"/>
-      <c r="PR18" s="26"/>
-      <c r="RG18" s="26"/>
-      <c r="RH18" s="26"/>
-      <c r="RI18" s="25"/>
-      <c r="RJ18" s="25"/>
-      <c r="RK18" s="25"/>
-      <c r="RL18" s="25"/>
-      <c r="RM18" s="25"/>
-      <c r="RN18" s="25"/>
-      <c r="RO18" s="25"/>
-      <c r="RP18" s="25"/>
-      <c r="RQ18" s="25"/>
-      <c r="RR18" s="25"/>
-      <c r="RS18" s="25"/>
-      <c r="RT18" s="25"/>
-      <c r="RU18" s="25"/>
-      <c r="RV18" s="25"/>
-      <c r="RW18" s="25"/>
-      <c r="RX18" s="25"/>
-      <c r="RY18" s="25"/>
-      <c r="RZ18" s="25"/>
-      <c r="SA18" s="25"/>
-      <c r="SB18" s="25"/>
-      <c r="SC18" s="25"/>
-      <c r="SD18" s="25"/>
-      <c r="SE18" s="25"/>
-      <c r="SF18" s="25"/>
+      <c r="A18" s="31"/>
+      <c r="BR18" s="30"/>
+      <c r="BS18" s="31"/>
+      <c r="EO18" s="30"/>
+      <c r="GF18" s="32"/>
+      <c r="IE18" s="30"/>
+      <c r="JB18" s="30"/>
+      <c r="KM18" s="30"/>
+      <c r="MA18" s="30"/>
+      <c r="MQ18" s="30"/>
+      <c r="NM18" s="30"/>
+      <c r="OK18" s="33"/>
+      <c r="PB18" s="33"/>
+      <c r="QP18" s="33"/>
+      <c r="QQ18" s="30"/>
+      <c r="QR18" s="30"/>
+      <c r="QS18" s="30"/>
+      <c r="QT18" s="30"/>
+      <c r="QU18" s="30"/>
+      <c r="QV18" s="30"/>
+      <c r="QW18" s="30"/>
+      <c r="QX18" s="30"/>
+      <c r="QY18" s="30"/>
+      <c r="QZ18" s="30"/>
+      <c r="RA18" s="30"/>
+      <c r="RB18" s="30"/>
+      <c r="RC18" s="30"/>
+      <c r="RD18" s="30"/>
+      <c r="RE18" s="30"/>
+      <c r="RF18" s="30"/>
+      <c r="RG18" s="30"/>
+      <c r="RH18" s="30"/>
+      <c r="RI18" s="30"/>
+      <c r="RJ18" s="30"/>
+      <c r="RK18" s="30"/>
+      <c r="RL18" s="30"/>
+      <c r="RM18" s="30"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="BU19" s="25"/>
-      <c r="BV19" s="25"/>
-      <c r="BW19" s="25"/>
-      <c r="ER19" s="25"/>
-      <c r="ES19" s="25"/>
-      <c r="GL19" s="25"/>
-      <c r="GM19" s="25"/>
-      <c r="IL19" s="25"/>
-      <c r="IM19" s="25"/>
-      <c r="JJ19" s="25"/>
-      <c r="JK19" s="25"/>
-      <c r="KW19" s="28"/>
-      <c r="KX19" s="28"/>
-      <c r="ML19" s="28"/>
-      <c r="MM19" s="28"/>
-      <c r="NC19" s="25"/>
-      <c r="ND19" s="25"/>
-      <c r="NZ19" s="25"/>
-      <c r="OA19" s="25"/>
-      <c r="OY19" s="26"/>
-      <c r="OZ19" s="26"/>
-      <c r="PQ19" s="26"/>
-      <c r="PR19" s="26"/>
-      <c r="RG19" s="26"/>
-      <c r="RH19" s="26"/>
-      <c r="RI19" s="25"/>
-      <c r="RJ19" s="25"/>
-      <c r="RK19" s="25"/>
-      <c r="RL19" s="25"/>
-      <c r="RM19" s="25"/>
-      <c r="RN19" s="25"/>
-      <c r="RO19" s="25"/>
-      <c r="RP19" s="25"/>
-      <c r="RQ19" s="25"/>
-      <c r="RR19" s="25"/>
-      <c r="RS19" s="25"/>
-      <c r="RT19" s="25"/>
-      <c r="RU19" s="25"/>
-      <c r="RV19" s="25"/>
-      <c r="RW19" s="25"/>
-      <c r="RX19" s="25"/>
-      <c r="RY19" s="25"/>
-      <c r="RZ19" s="25"/>
-      <c r="SA19" s="25"/>
-      <c r="SB19" s="25"/>
-      <c r="SC19" s="25"/>
-      <c r="SD19" s="25"/>
-      <c r="SE19" s="25"/>
-      <c r="SF19" s="25"/>
+      <c r="A19" s="31"/>
+      <c r="BR19" s="30"/>
+      <c r="BS19" s="30"/>
+      <c r="EO19" s="30"/>
+      <c r="GF19" s="30"/>
+      <c r="IE19" s="30"/>
+      <c r="JB19" s="30"/>
+      <c r="KM19" s="31"/>
+      <c r="MA19" s="31"/>
+      <c r="MQ19" s="30"/>
+      <c r="NM19" s="30"/>
+      <c r="OK19" s="33"/>
+      <c r="PB19" s="33"/>
+      <c r="QP19" s="33"/>
+      <c r="QQ19" s="30"/>
+      <c r="QR19" s="30"/>
+      <c r="QS19" s="30"/>
+      <c r="QT19" s="30"/>
+      <c r="QU19" s="30"/>
+      <c r="QV19" s="30"/>
+      <c r="QW19" s="30"/>
+      <c r="QX19" s="30"/>
+      <c r="QY19" s="30"/>
+      <c r="QZ19" s="30"/>
+      <c r="RA19" s="30"/>
+      <c r="RB19" s="30"/>
+      <c r="RC19" s="30"/>
+      <c r="RD19" s="30"/>
+      <c r="RE19" s="30"/>
+      <c r="RF19" s="30"/>
+      <c r="RG19" s="30"/>
+      <c r="RH19" s="30"/>
+      <c r="RI19" s="30"/>
+      <c r="RJ19" s="30"/>
+      <c r="RK19" s="30"/>
+      <c r="RL19" s="30"/>
+      <c r="RM19" s="30"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="BU20" s="25"/>
-      <c r="BV20" s="25"/>
-      <c r="BW20" s="25"/>
-      <c r="ER20" s="25"/>
-      <c r="ES20" s="25"/>
-      <c r="GL20" s="25"/>
-      <c r="GM20" s="25"/>
-      <c r="IL20" s="25"/>
-      <c r="IM20" s="25"/>
-      <c r="JJ20" s="25"/>
-      <c r="JK20" s="25"/>
-      <c r="KW20" s="25"/>
-      <c r="KX20" s="25"/>
-      <c r="NC20" s="25"/>
-      <c r="ND20" s="25"/>
-      <c r="NZ20" s="25"/>
-      <c r="OA20" s="25"/>
-      <c r="OY20" s="26"/>
-      <c r="OZ20" s="26"/>
-      <c r="PQ20" s="26"/>
-      <c r="PR20" s="26"/>
-      <c r="RG20" s="26"/>
-      <c r="RH20" s="26"/>
-      <c r="RI20" s="25"/>
-      <c r="RJ20" s="25"/>
-      <c r="RK20" s="25"/>
-      <c r="RL20" s="25"/>
-      <c r="RM20" s="25"/>
-      <c r="RN20" s="25"/>
-      <c r="RO20" s="25"/>
-      <c r="RP20" s="25"/>
-      <c r="RQ20" s="25"/>
-      <c r="RR20" s="25"/>
-      <c r="RS20" s="25"/>
-      <c r="RT20" s="25"/>
-      <c r="RU20" s="25"/>
-      <c r="RV20" s="25"/>
-      <c r="RW20" s="25"/>
-      <c r="RX20" s="25"/>
-      <c r="RY20" s="25"/>
-      <c r="RZ20" s="25"/>
-      <c r="SA20" s="25"/>
-      <c r="SB20" s="25"/>
-      <c r="SC20" s="25"/>
-      <c r="SD20" s="25"/>
-      <c r="SE20" s="25"/>
-      <c r="SF20" s="25"/>
+      <c r="A20" s="31"/>
+      <c r="BR20" s="30"/>
+      <c r="BS20" s="30"/>
+      <c r="EO20" s="30"/>
+      <c r="GF20" s="30"/>
+      <c r="IE20" s="30"/>
+      <c r="JB20" s="30"/>
+      <c r="KM20" s="30"/>
+      <c r="MQ20" s="30"/>
+      <c r="NM20" s="30"/>
+      <c r="OK20" s="33"/>
+      <c r="PB20" s="33"/>
+      <c r="QP20" s="33"/>
+      <c r="QQ20" s="30"/>
+      <c r="QR20" s="30"/>
+      <c r="QS20" s="30"/>
+      <c r="QT20" s="30"/>
+      <c r="QU20" s="30"/>
+      <c r="QV20" s="30"/>
+      <c r="QW20" s="30"/>
+      <c r="QX20" s="30"/>
+      <c r="QY20" s="30"/>
+      <c r="QZ20" s="30"/>
+      <c r="RA20" s="30"/>
+      <c r="RB20" s="30"/>
+      <c r="RC20" s="30"/>
+      <c r="RD20" s="30"/>
+      <c r="RE20" s="30"/>
+      <c r="RF20" s="30"/>
+      <c r="RG20" s="30"/>
+      <c r="RH20" s="30"/>
+      <c r="RI20" s="30"/>
+      <c r="RJ20" s="30"/>
+      <c r="RK20" s="30"/>
+      <c r="RL20" s="30"/>
+      <c r="RM20" s="30"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="BU21" s="25"/>
-      <c r="BV21" s="25"/>
-      <c r="BW21" s="25"/>
-      <c r="ER21" s="25"/>
-      <c r="ES21" s="25"/>
-      <c r="GL21" s="25"/>
-      <c r="GM21" s="25"/>
-      <c r="IL21" s="25"/>
-      <c r="IM21" s="25"/>
-      <c r="JJ21" s="25"/>
-      <c r="JK21" s="25"/>
-      <c r="KW21" s="25"/>
-      <c r="KX21" s="25"/>
-      <c r="NC21" s="25"/>
-      <c r="ND21" s="25"/>
-      <c r="NZ21" s="25"/>
-      <c r="OA21" s="25"/>
-      <c r="PQ21" s="26"/>
-      <c r="PR21" s="26"/>
+      <c r="A21" s="31"/>
+      <c r="BR21" s="30"/>
+      <c r="BS21" s="30"/>
+      <c r="EO21" s="30"/>
+      <c r="GF21" s="30"/>
+      <c r="IE21" s="30"/>
+      <c r="JB21" s="30"/>
+      <c r="KM21" s="30"/>
+      <c r="MQ21" s="30"/>
+      <c r="NM21" s="30"/>
+      <c r="PB21" s="33"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="BU22" s="25"/>
-      <c r="BV22" s="25"/>
-      <c r="BW22" s="25"/>
-      <c r="ER22" s="25"/>
-      <c r="ES22" s="25"/>
-      <c r="GL22" s="25"/>
-      <c r="GM22" s="25"/>
-      <c r="IL22" s="25"/>
-      <c r="IM22" s="25"/>
-      <c r="JJ22" s="25"/>
-      <c r="JK22" s="25"/>
-      <c r="KW22" s="25"/>
-      <c r="KX22" s="25"/>
-      <c r="NC22" s="25"/>
-      <c r="ND22" s="25"/>
-      <c r="NZ22" s="25"/>
-      <c r="OA22" s="25"/>
-      <c r="PQ22" s="26"/>
-      <c r="PR22" s="26"/>
+      <c r="A22" s="31"/>
+      <c r="BR22" s="30"/>
+      <c r="BS22" s="30"/>
+      <c r="EO22" s="30"/>
+      <c r="GF22" s="30"/>
+      <c r="IE22" s="30"/>
+      <c r="JB22" s="30"/>
+      <c r="KM22" s="30"/>
+      <c r="MQ22" s="30"/>
+      <c r="NM22" s="30"/>
+      <c r="PB22" s="33"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="BU23" s="25"/>
-      <c r="BV23" s="25"/>
-      <c r="BW23" s="25"/>
-      <c r="ER23" s="25"/>
-      <c r="ES23" s="25"/>
-      <c r="GL23" s="25"/>
-      <c r="GM23" s="25"/>
-      <c r="IL23" s="25"/>
-      <c r="IM23" s="25"/>
-      <c r="JJ23" s="25"/>
-      <c r="JK23" s="25"/>
-      <c r="KW23" s="25"/>
-      <c r="KX23" s="25"/>
-      <c r="NC23" s="25"/>
-      <c r="ND23" s="25"/>
-      <c r="NZ23" s="25"/>
-      <c r="OA23" s="25"/>
-      <c r="PQ23" s="26"/>
-      <c r="PR23" s="26"/>
+      <c r="A23" s="31"/>
+      <c r="BR23" s="30"/>
+      <c r="BS23" s="30"/>
+      <c r="EO23" s="30"/>
+      <c r="GF23" s="30"/>
+      <c r="IE23" s="30"/>
+      <c r="JB23" s="30"/>
+      <c r="KM23" s="30"/>
+      <c r="MQ23" s="30"/>
+      <c r="NM23" s="30"/>
+      <c r="PB23" s="33"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="BU24" s="25"/>
-      <c r="BV24" s="25"/>
-      <c r="BW24" s="25"/>
-      <c r="ER24" s="25"/>
-      <c r="ES24" s="25"/>
-      <c r="GL24" s="25"/>
-      <c r="GM24" s="25"/>
-      <c r="IL24" s="25"/>
-      <c r="IM24" s="25"/>
-      <c r="JJ24" s="32"/>
-      <c r="JK24" s="32"/>
-      <c r="KW24" s="25"/>
-      <c r="KX24" s="25"/>
-      <c r="NC24" s="25"/>
-      <c r="ND24" s="25"/>
-      <c r="NZ24" s="25"/>
-      <c r="OA24" s="25"/>
-      <c r="PQ24" s="26"/>
-      <c r="PR24" s="26"/>
+      <c r="BR24" s="30"/>
+      <c r="BS24" s="30"/>
+      <c r="EO24" s="30"/>
+      <c r="GF24" s="30"/>
+      <c r="IE24" s="30"/>
+      <c r="JB24" s="36"/>
+      <c r="KM24" s="30"/>
+      <c r="MQ24" s="30"/>
+      <c r="NM24" s="30"/>
+      <c r="PB24" s="33"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="BU25" s="25"/>
-      <c r="BV25" s="25"/>
-      <c r="BW25" s="25"/>
-      <c r="ER25" s="25"/>
-      <c r="ES25" s="25"/>
-      <c r="GL25" s="25"/>
-      <c r="GM25" s="25"/>
-      <c r="IL25" s="25"/>
-      <c r="IM25" s="25"/>
-      <c r="JJ25" s="32"/>
-      <c r="JK25" s="32"/>
-      <c r="KW25" s="25"/>
-      <c r="KX25" s="25"/>
-      <c r="NC25" s="25"/>
-      <c r="ND25" s="25"/>
-      <c r="NZ25" s="25"/>
-      <c r="OA25" s="25"/>
-      <c r="PQ25" s="26"/>
-      <c r="PR25" s="26"/>
+      <c r="BR25" s="30"/>
+      <c r="BS25" s="30"/>
+      <c r="EO25" s="30"/>
+      <c r="GF25" s="30"/>
+      <c r="IE25" s="30"/>
+      <c r="JB25" s="36"/>
+      <c r="KM25" s="30"/>
+      <c r="MQ25" s="30"/>
+      <c r="NM25" s="30"/>
+      <c r="PB25" s="33"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="BU26" s="25"/>
-      <c r="BV26" s="25"/>
-      <c r="BW26" s="25"/>
-      <c r="ER26" s="25"/>
-      <c r="ES26" s="25"/>
-      <c r="GL26" s="25"/>
-      <c r="GM26" s="25"/>
-      <c r="IL26" s="25"/>
-      <c r="IM26" s="25"/>
-      <c r="JJ26" s="25"/>
-      <c r="JK26" s="25"/>
-      <c r="KW26" s="25"/>
-      <c r="KX26" s="25"/>
-      <c r="NZ26" s="25"/>
-      <c r="OA26" s="25"/>
-      <c r="PQ26" s="26"/>
-      <c r="PR26" s="26"/>
+      <c r="BR26" s="30"/>
+      <c r="BS26" s="30"/>
+      <c r="EO26" s="30"/>
+      <c r="GF26" s="30"/>
+      <c r="IE26" s="30"/>
+      <c r="JB26" s="30"/>
+      <c r="KM26" s="30"/>
+      <c r="NM26" s="30"/>
+      <c r="PB26" s="33"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="BU27" s="25"/>
-      <c r="BV27" s="25"/>
-      <c r="BW27" s="25"/>
-      <c r="ER27" s="25"/>
-      <c r="ES27" s="25"/>
-      <c r="GL27" s="25"/>
-      <c r="GM27" s="25"/>
-      <c r="JJ27" s="32"/>
-      <c r="JK27" s="32"/>
-      <c r="KW27" s="25"/>
-      <c r="KX27" s="25"/>
-      <c r="PQ27" s="26"/>
-      <c r="PR27" s="26"/>
+      <c r="BR27" s="30"/>
+      <c r="BS27" s="30"/>
+      <c r="EO27" s="30"/>
+      <c r="GF27" s="30"/>
+      <c r="JB27" s="36"/>
+      <c r="KM27" s="30"/>
+      <c r="PB27" s="33"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="BU28" s="25"/>
-      <c r="BV28" s="25"/>
-      <c r="BW28" s="25"/>
-      <c r="ER28" s="25"/>
-      <c r="ES28" s="25"/>
-      <c r="GL28" s="25"/>
-      <c r="GM28" s="25"/>
-      <c r="JJ28" s="32"/>
-      <c r="JK28" s="32"/>
-      <c r="KW28" s="25"/>
-      <c r="KX28" s="25"/>
-      <c r="PQ28" s="26"/>
-      <c r="PR28" s="26"/>
+      <c r="BR28" s="30"/>
+      <c r="BS28" s="30"/>
+      <c r="EO28" s="30"/>
+      <c r="GF28" s="30"/>
+      <c r="JB28" s="36"/>
+      <c r="KM28" s="30"/>
+      <c r="PB28" s="33"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="BU29" s="25"/>
-      <c r="BV29" s="25"/>
-      <c r="BW29" s="25"/>
-      <c r="ER29" s="25"/>
-      <c r="ES29" s="25"/>
-      <c r="GL29" s="25"/>
-      <c r="GM29" s="25"/>
-      <c r="JJ29" s="32"/>
-      <c r="JK29" s="32"/>
-      <c r="KW29" s="25"/>
-      <c r="KX29" s="25"/>
-      <c r="PQ29" s="26"/>
-      <c r="PR29" s="26"/>
+      <c r="BR29" s="30"/>
+      <c r="BS29" s="30"/>
+      <c r="EO29" s="30"/>
+      <c r="GF29" s="30"/>
+      <c r="JB29" s="36"/>
+      <c r="KM29" s="30"/>
+      <c r="PB29" s="33"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="BU30" s="25"/>
-      <c r="BV30" s="25"/>
-      <c r="BW30" s="25"/>
-      <c r="ER30" s="25"/>
-      <c r="ES30" s="25"/>
-      <c r="GL30" s="25"/>
-      <c r="GM30" s="25"/>
-      <c r="JJ30" s="25"/>
-      <c r="JK30" s="25"/>
-      <c r="KW30" s="25"/>
-      <c r="KX30" s="25"/>
+      <c r="BR30" s="30"/>
+      <c r="BS30" s="30"/>
+      <c r="EO30" s="30"/>
+      <c r="GF30" s="30"/>
+      <c r="JB30" s="30"/>
+      <c r="KM30" s="30"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="BU31" s="25"/>
-      <c r="BV31" s="28"/>
-      <c r="BW31" s="28"/>
-      <c r="ER31" s="25"/>
-      <c r="ES31" s="25"/>
-      <c r="GL31" s="25"/>
-      <c r="GM31" s="25"/>
-      <c r="JJ31" s="25"/>
-      <c r="JK31" s="25"/>
-      <c r="KW31" s="25"/>
-      <c r="KX31" s="25"/>
+      <c r="BR31" s="30"/>
+      <c r="BS31" s="31"/>
+      <c r="EO31" s="30"/>
+      <c r="GF31" s="30"/>
+      <c r="JB31" s="30"/>
+      <c r="KM31" s="30"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="BU32" s="25"/>
-      <c r="BV32" s="25"/>
-      <c r="BW32" s="25"/>
-      <c r="GL32" s="25"/>
-      <c r="GM32" s="25"/>
-      <c r="JJ32" s="25"/>
-      <c r="JK32" s="25"/>
-      <c r="KW32" s="25"/>
-      <c r="KX32" s="25"/>
+      <c r="BR32" s="30"/>
+      <c r="BS32" s="30"/>
+      <c r="GF32" s="30"/>
+      <c r="JB32" s="30"/>
+      <c r="KM32" s="30"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="BU33" s="25"/>
-      <c r="BV33" s="25"/>
-      <c r="BW33" s="25"/>
-      <c r="GL33" s="25"/>
-      <c r="GM33" s="25"/>
-      <c r="JJ33" s="25"/>
-      <c r="JK33" s="25"/>
-      <c r="KW33" s="25"/>
-      <c r="KX33" s="25"/>
+      <c r="BR33" s="30"/>
+      <c r="BS33" s="30"/>
+      <c r="GF33" s="30"/>
+      <c r="JB33" s="30"/>
+      <c r="KM33" s="30"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="BU34" s="25"/>
-      <c r="BV34" s="25"/>
-      <c r="BW34" s="25"/>
-      <c r="GL34" s="25"/>
-      <c r="GM34" s="25"/>
-      <c r="JJ34" s="25"/>
-      <c r="JK34" s="25"/>
-      <c r="KW34" s="25"/>
-      <c r="KX34" s="25"/>
+      <c r="BR34" s="30"/>
+      <c r="BS34" s="30"/>
+      <c r="GF34" s="30"/>
+      <c r="JB34" s="30"/>
+      <c r="KM34" s="30"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="BU35" s="25"/>
-      <c r="BV35" s="25"/>
-      <c r="BW35" s="25"/>
-      <c r="GL35" s="25"/>
-      <c r="GM35" s="25"/>
-      <c r="JJ35" s="25"/>
-      <c r="JK35" s="25"/>
-      <c r="KW35" s="25"/>
-      <c r="KX35" s="25"/>
+      <c r="BR35" s="30"/>
+      <c r="BS35" s="30"/>
+      <c r="GF35" s="30"/>
+      <c r="JB35" s="30"/>
+      <c r="KM35" s="30"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="BU36" s="25"/>
-      <c r="BV36" s="25"/>
-      <c r="BW36" s="25"/>
-      <c r="GL36" s="25"/>
-      <c r="GM36" s="25"/>
-      <c r="JJ36" s="25"/>
-      <c r="JK36" s="25"/>
-      <c r="KW36" s="25"/>
-      <c r="KX36" s="25"/>
+      <c r="BR36" s="30"/>
+      <c r="BS36" s="30"/>
+      <c r="GF36" s="30"/>
+      <c r="JB36" s="30"/>
+      <c r="KM36" s="30"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="BU37" s="25"/>
-      <c r="BV37" s="25"/>
-      <c r="BW37" s="25"/>
-      <c r="GL37" s="25"/>
-      <c r="GM37" s="25"/>
-      <c r="JJ37" s="25"/>
-      <c r="JK37" s="25"/>
-      <c r="KW37" s="25"/>
-      <c r="KX37" s="25"/>
+      <c r="BR37" s="30"/>
+      <c r="BS37" s="30"/>
+      <c r="GF37" s="30"/>
+      <c r="JB37" s="30"/>
+      <c r="KM37" s="30"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="BU38" s="25"/>
-      <c r="BV38" s="25"/>
-      <c r="BW38" s="25"/>
-      <c r="GL38" s="25"/>
-      <c r="GM38" s="25"/>
-      <c r="JJ38" s="25"/>
-      <c r="JK38" s="25"/>
-      <c r="KW38" s="25"/>
-      <c r="KX38" s="25"/>
+      <c r="BR38" s="30"/>
+      <c r="BS38" s="30"/>
+      <c r="GF38" s="30"/>
+      <c r="JB38" s="30"/>
+      <c r="KM38" s="30"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="BU39" s="25"/>
-      <c r="BV39" s="25"/>
-      <c r="BW39" s="25"/>
-      <c r="GL39" s="25"/>
-      <c r="GM39" s="25"/>
-      <c r="JJ39" s="25"/>
-      <c r="JK39" s="25"/>
-      <c r="KW39" s="25"/>
-      <c r="KX39" s="25"/>
+      <c r="BR39" s="30"/>
+      <c r="BS39" s="30"/>
+      <c r="GF39" s="30"/>
+      <c r="JB39" s="30"/>
+      <c r="KM39" s="30"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="BU40" s="25"/>
-      <c r="BV40" s="28"/>
-      <c r="BW40" s="28"/>
-      <c r="GL40" s="25"/>
-      <c r="GM40" s="25"/>
-      <c r="JJ40" s="25"/>
-      <c r="JK40" s="25"/>
-      <c r="KW40" s="25"/>
-      <c r="KX40" s="25"/>
+      <c r="BR40" s="30"/>
+      <c r="BS40" s="31"/>
+      <c r="GF40" s="30"/>
+      <c r="JB40" s="30"/>
+      <c r="KM40" s="30"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="BU41" s="34"/>
-      <c r="BV41" s="25"/>
-      <c r="BW41" s="25"/>
-      <c r="GL41" s="25"/>
-      <c r="GM41" s="25"/>
-      <c r="KW41" s="25"/>
-      <c r="KX41" s="25"/>
+      <c r="BR41" s="38"/>
+      <c r="BS41" s="30"/>
+      <c r="GF41" s="30"/>
+      <c r="KM41" s="30"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="BU42" s="25"/>
-      <c r="BV42" s="28"/>
-      <c r="BW42" s="28"/>
-      <c r="GL42" s="25"/>
-      <c r="GM42" s="25"/>
-      <c r="KW42" s="25"/>
-      <c r="KX42" s="25"/>
+      <c r="BR42" s="30"/>
+      <c r="BS42" s="31"/>
+      <c r="GF42" s="30"/>
+      <c r="KM42" s="30"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="BU43" s="25"/>
-      <c r="BV43" s="25"/>
-      <c r="BW43" s="25"/>
-      <c r="GL43" s="25"/>
-      <c r="GM43" s="25"/>
+      <c r="BR43" s="30"/>
+      <c r="BS43" s="30"/>
+      <c r="GF43" s="30"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="BU44" s="25"/>
-      <c r="BV44" s="25"/>
-      <c r="BW44" s="25"/>
-      <c r="GL44" s="25"/>
-      <c r="GM44" s="25"/>
+      <c r="BR44" s="30"/>
+      <c r="BS44" s="30"/>
+      <c r="GF44" s="30"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="BU45" s="25"/>
-      <c r="BV45" s="25"/>
-      <c r="BW45" s="25"/>
-      <c r="GL45" s="25"/>
-      <c r="GM45" s="25"/>
+      <c r="BR45" s="30"/>
+      <c r="BS45" s="30"/>
+      <c r="GF45" s="30"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="BU46" s="25"/>
-      <c r="BV46" s="25"/>
-      <c r="BW46" s="25"/>
-      <c r="GL46" s="25"/>
-      <c r="GM46" s="25"/>
+      <c r="BR46" s="30"/>
+      <c r="BS46" s="30"/>
+      <c r="GF46" s="30"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="BU47" s="25"/>
-      <c r="BV47" s="25"/>
-      <c r="BW47" s="25"/>
-      <c r="GL47" s="25"/>
-      <c r="GM47" s="25"/>
+      <c r="BR47" s="30"/>
+      <c r="BS47" s="30"/>
+      <c r="GF47" s="30"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="BU48" s="25"/>
-      <c r="BV48" s="25"/>
-      <c r="BW48" s="25"/>
-      <c r="GL48" s="25"/>
-      <c r="GM48" s="25"/>
+      <c r="BR48" s="30"/>
+      <c r="BS48" s="30"/>
+      <c r="GF48" s="30"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="BU49" s="25"/>
-      <c r="BV49" s="25"/>
-      <c r="BW49" s="25"/>
-      <c r="GL49" s="25"/>
-      <c r="GM49" s="25"/>
+      <c r="BR49" s="30"/>
+      <c r="BS49" s="30"/>
+      <c r="GF49" s="30"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="BU50" s="25"/>
-      <c r="BV50" s="25"/>
-      <c r="BW50" s="25"/>
-      <c r="GL50" s="25"/>
-      <c r="GM50" s="25"/>
+      <c r="BR50" s="30"/>
+      <c r="BS50" s="30"/>
+      <c r="GF50" s="30"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="BU51" s="25"/>
-      <c r="BV51" s="25"/>
-      <c r="BW51" s="25"/>
-      <c r="GL51" s="25"/>
-      <c r="GM51" s="25"/>
+      <c r="BR51" s="30"/>
+      <c r="BS51" s="30"/>
+      <c r="GF51" s="30"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="BU52" s="25"/>
-      <c r="BV52" s="25"/>
-      <c r="BW52" s="25"/>
-      <c r="GL52" s="25"/>
-      <c r="GM52" s="25"/>
+      <c r="BR52" s="30"/>
+      <c r="BS52" s="30"/>
+      <c r="GF52" s="30"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="BU53" s="25"/>
-      <c r="BV53" s="25"/>
-      <c r="BW53" s="25"/>
-      <c r="GL53" s="25"/>
-      <c r="GM53" s="25"/>
+      <c r="BR53" s="30"/>
+      <c r="BS53" s="30"/>
+      <c r="GF53" s="30"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="BU54" s="25"/>
-      <c r="BV54" s="25"/>
-      <c r="BW54" s="25"/>
-      <c r="GL54" s="32"/>
-      <c r="GM54" s="32"/>
+      <c r="BR54" s="30"/>
+      <c r="BS54" s="30"/>
+      <c r="GF54" s="36"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="BU55" s="25"/>
-      <c r="BV55" s="25"/>
-      <c r="BW55" s="25"/>
+      <c r="BR55" s="30"/>
+      <c r="BS55" s="30"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="BU56" s="25"/>
-      <c r="BV56" s="25"/>
-      <c r="BW56" s="25"/>
+      <c r="BR56" s="30"/>
+      <c r="BS56" s="30"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="BU57" s="25"/>
-      <c r="BV57" s="25"/>
-      <c r="BW57" s="25"/>
+      <c r="BR57" s="30"/>
+      <c r="BS57" s="30"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="BU58" s="25"/>
-      <c r="BV58" s="25"/>
-      <c r="BW58" s="25"/>
+      <c r="BR58" s="30"/>
+      <c r="BS58" s="30"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="BU59" s="25"/>
-      <c r="BV59" s="25"/>
-      <c r="BW59" s="25"/>
+      <c r="BR59" s="30"/>
+      <c r="BS59" s="30"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="BU60" s="25"/>
-      <c r="BV60" s="25"/>
-      <c r="BW60" s="25"/>
+      <c r="BR60" s="30"/>
+      <c r="BS60" s="30"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="BU61" s="25"/>
-      <c r="BV61" s="25"/>
-      <c r="BW61" s="25"/>
+      <c r="BR61" s="30"/>
+      <c r="BS61" s="30"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="BU62" s="25"/>
-      <c r="BV62" s="25"/>
-      <c r="BW62" s="25"/>
+      <c r="BR62" s="30"/>
+      <c r="BS62" s="30"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="BU63" s="25"/>
-      <c r="BV63" s="25"/>
-      <c r="BW63" s="25"/>
+      <c r="BR63" s="30"/>
+      <c r="BS63" s="30"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="BU64" s="25"/>
-      <c r="BV64" s="25"/>
-      <c r="BW64" s="25"/>
+      <c r="BR64" s="30"/>
+      <c r="BS64" s="30"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="BU65" s="25"/>
-      <c r="BV65" s="25"/>
-      <c r="BW65" s="25"/>
+      <c r="BR65" s="30"/>
+      <c r="BS65" s="30"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="BU66" s="25"/>
-      <c r="BV66" s="25"/>
-      <c r="BW66" s="25"/>
+      <c r="BR66" s="30"/>
+      <c r="BS66" s="30"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="BU67" s="25"/>
-      <c r="BV67" s="25"/>
-      <c r="BW67" s="25"/>
+      <c r="BR67" s="30"/>
+      <c r="BS67" s="30"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="BU68" s="25"/>
-      <c r="BV68" s="25"/>
-      <c r="BW68" s="25"/>
+      <c r="BR68" s="30"/>
+      <c r="BS68" s="30"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="BU69" s="25"/>
-      <c r="BV69" s="25"/>
-      <c r="BW69" s="25"/>
+      <c r="BR69" s="30"/>
+      <c r="BS69" s="30"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="BU70" s="25"/>
-      <c r="BV70" s="25"/>
-      <c r="BW70" s="25"/>
+      <c r="BR70" s="30"/>
+      <c r="BS70" s="30"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="BU71" s="25"/>
-      <c r="BV71" s="25"/>
-      <c r="BW71" s="25"/>
+      <c r="BR71" s="30"/>
+      <c r="BS71" s="30"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="BU72" s="25"/>
-      <c r="BV72" s="25"/>
-      <c r="BW72" s="25"/>
+      <c r="BR72" s="30"/>
+      <c r="BS72" s="30"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="BU73" s="25"/>
-      <c r="BV73" s="25"/>
-      <c r="BW73" s="25"/>
+      <c r="BR73" s="30"/>
+      <c r="BS73" s="30"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="BU74" s="25"/>
-      <c r="BV74" s="28"/>
-      <c r="BW74" s="28"/>
+      <c r="BR74" s="30"/>
+      <c r="BS74" s="31"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="BU75" s="25"/>
-      <c r="BV75" s="25"/>
-      <c r="BW75" s="25"/>
+      <c r="BR75" s="30"/>
+      <c r="BS75" s="30"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="BU76" s="25"/>
-      <c r="BV76" s="25"/>
-      <c r="BW76" s="25"/>
+      <c r="BR76" s="30"/>
+      <c r="BS76" s="30"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="BU77" s="25"/>
-      <c r="BV77" s="25"/>
-      <c r="BW77" s="25"/>
+      <c r="BR77" s="30"/>
+      <c r="BS77" s="30"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="BU78" s="25"/>
+      <c r="BR78" s="30"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="BU79" s="25"/>
+      <c r="BR79" s="30"/>
     </row>
     <row r="80" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
@@ -6603,30 +6110,810 @@
     <row r="218" ht="15.75" customHeight="1"/>
     <row r="219" ht="15.75" customHeight="1"/>
     <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="X1:AI1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BF1"/>
-    <mergeCell ref="BG1:BK1"/>
-    <mergeCell ref="BL1:BP1"/>
-    <mergeCell ref="BQ1:BU1"/>
-    <mergeCell ref="BV1:EQ1"/>
-    <mergeCell ref="ML1:NB1"/>
-    <mergeCell ref="NC1:NY1"/>
-    <mergeCell ref="NZ1:OX1"/>
-    <mergeCell ref="OY1:PP1"/>
-    <mergeCell ref="PQ1:QR1"/>
-    <mergeCell ref="QS1:RF1"/>
-    <mergeCell ref="RG1:RX1"/>
-    <mergeCell ref="RY1:SF1"/>
-    <mergeCell ref="ER1:FN1"/>
-    <mergeCell ref="FO1:FW1"/>
-    <mergeCell ref="FX1:GK1"/>
-    <mergeCell ref="GL1:IK1"/>
-    <mergeCell ref="IL1:JI1"/>
-    <mergeCell ref="KW1:MK1"/>
-    <mergeCell ref="JJ1:KV1"/>
+    <mergeCell ref="AJ1:AR1"/>
+    <mergeCell ref="AS1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:EN1"/>
+    <mergeCell ref="X1:AH1"/>
+    <mergeCell ref="MA1:MP1"/>
+    <mergeCell ref="MQ1:NL1"/>
+    <mergeCell ref="NM1:OJ1"/>
+    <mergeCell ref="OK1:PA1"/>
+    <mergeCell ref="PB1:QB1"/>
+    <mergeCell ref="QC1:QO1"/>
+    <mergeCell ref="QP1:RF1"/>
+    <mergeCell ref="RG1:RM1"/>
+    <mergeCell ref="EO1:FJ1"/>
+    <mergeCell ref="FK1:FR1"/>
+    <mergeCell ref="FS1:GE1"/>
+    <mergeCell ref="GF1:ID1"/>
+    <mergeCell ref="IE1:JA1"/>
+    <mergeCell ref="JB1:KL1"/>
+    <mergeCell ref="KM1:LZ1"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/app/data/base_export.xlsx
+++ b/app/data/base_export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="489">
   <si>
     <t>Fecha de la visita</t>
   </si>
@@ -31,6 +31,9 @@
     <t>País</t>
   </si>
   <si>
+    <t>Cel. Paciente</t>
+  </si>
+  <si>
     <t>Exp. Medico #:</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>Exp. Optometria #:</t>
   </si>
   <si>
+    <t>Cedula #</t>
+  </si>
+  <si>
     <t>Comunidad</t>
   </si>
   <si>
@@ -52,9 +58,6 @@
     <t>Lote</t>
   </si>
   <si>
-    <t>Cel. Paciente</t>
-  </si>
-  <si>
     <t>Cel. por Emergencia</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>Reporte de Accidentes</t>
   </si>
   <si>
+    <t xml:space="preserve">Médic@ </t>
+  </si>
+  <si>
     <t>Glicemia</t>
   </si>
   <si>
@@ -184,9 +190,6 @@
     <t>Tipo de Sangre</t>
   </si>
   <si>
-    <t>Doctor</t>
-  </si>
-  <si>
     <t>Antecedentes de Desnutrición</t>
   </si>
   <si>
@@ -232,9 +235,6 @@
     <t>Tratamiento</t>
   </si>
   <si>
-    <t xml:space="preserve">Médic@ </t>
-  </si>
-  <si>
     <t>Visita a la Comunidad</t>
   </si>
   <si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>Citológico - Frotis adecuado pero limitado - Fijacion deficiente</t>
+  </si>
+  <si>
+    <t>Citológico - Frotis adecuado pero limitado - Hemorragia</t>
   </si>
   <si>
     <t>Citológico - Frotis adecuado pero limitado - Presencia de exudado inflamatorio</t>
@@ -1481,11 +1484,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
+  <fonts count="20">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
     </font>
     <font>
       <b/>
@@ -1507,8 +1524,19 @@
     </font>
     <font>
       <b/>
+      <sz val="16.0"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12.0"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -1527,21 +1555,21 @@
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1568,8 +1596,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FFBFBFBF"/>
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1589,7 +1617,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1599,106 +1627,127 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1919,43 +1968,41 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="10.56"/>
     <col customWidth="1" min="3" max="3" width="12.11"/>
-    <col customWidth="1" min="4" max="7" width="10.56"/>
-    <col customWidth="1" min="8" max="10" width="14.89"/>
-    <col customWidth="1" min="11" max="13" width="10.56"/>
-    <col customWidth="1" min="14" max="14" width="13.89"/>
-    <col customWidth="1" min="15" max="15" width="14.33"/>
-    <col customWidth="1" min="16" max="16" width="10.56"/>
-    <col customWidth="1" min="17" max="17" width="12.67"/>
-    <col customWidth="1" min="18" max="18" width="10.56"/>
-    <col customWidth="1" min="19" max="19" width="11.67"/>
-    <col customWidth="1" min="20" max="20" width="11.89"/>
-    <col customWidth="1" min="21" max="21" width="12.44"/>
-    <col customWidth="1" min="22" max="22" width="11.89"/>
-    <col customWidth="1" min="23" max="23" width="12.0"/>
-    <col customWidth="1" min="24" max="25" width="10.56"/>
-    <col customWidth="1" min="26" max="27" width="13.33"/>
-    <col customWidth="1" min="28" max="33" width="10.56"/>
-    <col customWidth="1" min="34" max="34" width="13.11"/>
-    <col customWidth="1" min="35" max="35" width="10.56"/>
-    <col customWidth="1" min="36" max="37" width="13.44"/>
-    <col customWidth="1" min="38" max="39" width="10.56"/>
-    <col customWidth="1" min="40" max="40" width="12.44"/>
-    <col customWidth="1" min="41" max="41" width="12.11"/>
-    <col customWidth="1" min="42" max="43" width="10.56"/>
-    <col customWidth="1" min="44" max="44" width="13.78"/>
-    <col customWidth="1" min="45" max="47" width="10.56"/>
-    <col customWidth="1" min="48" max="48" width="15.89"/>
-    <col customWidth="1" min="49" max="49" width="14.44"/>
-    <col customWidth="1" min="50" max="51" width="10.56"/>
-    <col customWidth="1" min="52" max="52" width="12.11"/>
-    <col customWidth="1" min="53" max="53" width="13.33"/>
-    <col customWidth="1" min="54" max="54" width="13.0"/>
-    <col customWidth="1" min="55" max="475" width="10.56"/>
-    <col customWidth="1" min="476" max="476" width="12.11"/>
-    <col customWidth="1" min="477" max="478" width="10.56"/>
-    <col customWidth="1" min="479" max="479" width="12.44"/>
-    <col customWidth="1" min="480" max="480" width="11.56"/>
-    <col customWidth="1" min="481" max="481" width="10.56"/>
+    <col customWidth="1" min="4" max="8" width="10.56"/>
+    <col customWidth="1" min="9" max="12" width="14.89"/>
+    <col customWidth="1" min="13" max="15" width="10.56"/>
+    <col customWidth="1" min="16" max="16" width="14.33"/>
+    <col customWidth="1" min="17" max="17" width="10.56"/>
+    <col customWidth="1" min="18" max="18" width="12.67"/>
+    <col customWidth="1" min="19" max="19" width="10.56"/>
+    <col customWidth="1" min="20" max="20" width="11.67"/>
+    <col customWidth="1" min="21" max="21" width="11.89"/>
+    <col customWidth="1" min="22" max="22" width="12.44"/>
+    <col customWidth="1" min="23" max="23" width="11.89"/>
+    <col customWidth="1" min="24" max="24" width="12.0"/>
+    <col customWidth="1" min="25" max="27" width="10.56"/>
+    <col customWidth="1" min="28" max="29" width="13.33"/>
+    <col customWidth="1" min="30" max="35" width="10.56"/>
+    <col customWidth="1" min="36" max="36" width="13.11"/>
+    <col customWidth="1" min="37" max="37" width="10.56"/>
+    <col customWidth="1" min="38" max="39" width="13.44"/>
+    <col customWidth="1" min="40" max="41" width="10.56"/>
+    <col customWidth="1" min="42" max="42" width="12.44"/>
+    <col customWidth="1" min="43" max="43" width="12.11"/>
+    <col customWidth="1" min="44" max="45" width="10.56"/>
+    <col customWidth="1" min="46" max="46" width="13.78"/>
+    <col customWidth="1" min="47" max="49" width="10.56"/>
+    <col customWidth="1" min="50" max="50" width="15.89"/>
+    <col customWidth="1" min="51" max="51" width="14.44"/>
+    <col customWidth="1" min="52" max="53" width="10.56"/>
+    <col customWidth="1" min="54" max="54" width="12.11"/>
+    <col customWidth="1" min="55" max="55" width="13.0"/>
+    <col customWidth="1" min="56" max="496" width="10.56"/>
+    <col customWidth="1" min="497" max="497" width="12.11"/>
+    <col customWidth="1" min="498" max="499" width="10.56"/>
+    <col customWidth="1" min="500" max="500" width="12.44"/>
+    <col customWidth="1" min="501" max="501" width="11.56"/>
+    <col customWidth="1" min="502" max="502" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1977,7 +2024,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1986,3988 +2033,4525 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AL1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="AU1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BH1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BM1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BR1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="EO1" s="6" t="s">
+      <c r="BW1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="FK1" s="7" t="s">
+      <c r="ET1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="FS1" s="7" t="s">
+      <c r="FQ1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="GF1" s="6" t="s">
+      <c r="FZ1" s="11"/>
+      <c r="GA1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="IE1" s="6" t="s">
+      <c r="GN1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="JB1" s="7" t="s">
+      <c r="IN1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="KM1" s="7" t="s">
+      <c r="JL1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="MA1" s="7" t="s">
+      <c r="KY1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="MQ1" s="7" t="s">
+      <c r="MN1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="NM1" s="7" t="s">
+      <c r="NE1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="OK1" s="7" t="s">
+      <c r="OB1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="PB1" s="7" t="s">
+      <c r="PA1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="QC1" s="7" t="s">
+      <c r="PS1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="QP1" s="7" t="s">
+      <c r="QU1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="RG1" s="7" t="s">
+      <c r="RI1" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="SA1" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="12" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AC2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AD2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AG2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="15" t="s">
+      <c r="AI2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AK2" s="16" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AL2" s="16" t="s">
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AN2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AO2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="17" t="s">
+      <c r="AP2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="17" t="s">
+      <c r="AQ2" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AQ2" s="17" t="s">
+      <c r="AR2" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AR2" s="17" t="s">
+      <c r="AS2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AS2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT2" s="16" t="s">
+      <c r="AT2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AU2" s="16" t="s">
+      <c r="AU2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="AW2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AW2" s="17" t="s">
+      <c r="AX2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AX2" s="14" t="s">
+      <c r="AY2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AY2" s="17" t="s">
+      <c r="AZ2" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="BA2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="BB2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="BB2" s="14" t="s">
+      <c r="BC2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BD2" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="BD2" s="14" t="s">
+      <c r="BE2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="BE2" s="17" t="s">
+      <c r="BF2" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="BF2" s="17" t="s">
+      <c r="BG2" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="BG2" s="15" t="s">
+      <c r="BH2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI2" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="BH2" s="15" t="s">
+      <c r="BJ2" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="BI2" s="15" t="s">
+      <c r="BK2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="BJ2" s="15" t="s">
+      <c r="BL2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="BK2" s="15" t="s">
+      <c r="BM2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN2" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="BL2" s="15" t="s">
+      <c r="BO2" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="BM2" s="15" t="s">
+      <c r="BP2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="BN2" s="15" t="s">
+      <c r="BQ2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="BO2" s="15" t="s">
+      <c r="BR2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS2" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="BP2" s="15" t="s">
+      <c r="BT2" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="BQ2" s="15" t="s">
+      <c r="BU2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="BR2" s="15" t="s">
+      <c r="BV2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="BS2" s="16" t="s">
+      <c r="BW2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="BX2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="BT2" s="18" t="s">
+      <c r="BY2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="BU2" s="14" t="s">
+      <c r="BZ2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="BV2" s="14" t="s">
+      <c r="CA2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="BW2" s="14" t="s">
+      <c r="CB2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="BX2" s="14" t="s">
+      <c r="CC2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="BY2" s="14" t="s">
+      <c r="CD2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="BZ2" s="14" t="s">
+      <c r="CE2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="CA2" s="14" t="s">
+      <c r="CF2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="CB2" s="14" t="s">
+      <c r="CG2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="CC2" s="14" t="s">
+      <c r="CH2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="CD2" s="14" t="s">
+      <c r="CI2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="CE2" s="14" t="s">
+      <c r="CJ2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="CF2" s="14" t="s">
+      <c r="CK2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="CG2" s="17" t="s">
+      <c r="CL2" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="CH2" s="14" t="s">
+      <c r="CM2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="CI2" s="14" t="s">
+      <c r="CN2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="CJ2" s="14" t="s">
+      <c r="CO2" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="CK2" s="14" t="s">
+      <c r="CP2" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="CL2" s="14" t="s">
+      <c r="CQ2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="CM2" s="14" t="s">
+      <c r="CR2" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="CN2" s="14" t="s">
+      <c r="CS2" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="CO2" s="14" t="s">
+      <c r="CT2" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="CP2" s="14" t="s">
+      <c r="CU2" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="CQ2" s="14" t="s">
+      <c r="CV2" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="CR2" s="14" t="s">
+      <c r="CW2" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="CS2" s="14" t="s">
+      <c r="CX2" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="CT2" s="17" t="s">
+      <c r="CY2" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="CU2" s="14" t="s">
+      <c r="CZ2" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="CV2" s="14" t="s">
+      <c r="DA2" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="CW2" s="14" t="s">
+      <c r="DB2" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="CX2" s="14" t="s">
+      <c r="DC2" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="CY2" s="14" t="s">
+      <c r="DD2" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="CZ2" s="14" t="s">
+      <c r="DE2" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="DA2" s="14" t="s">
+      <c r="DF2" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="DB2" s="14" t="s">
+      <c r="DG2" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="DC2" s="17" t="s">
+      <c r="DH2" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="DD2" s="14" t="s">
+      <c r="DI2" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="DE2" s="17" t="s">
+      <c r="DJ2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="DF2" s="14" t="s">
+      <c r="DK2" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="DG2" s="14" t="s">
+      <c r="DL2" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="DH2" s="14" t="s">
+      <c r="DM2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="DI2" s="14" t="s">
+      <c r="DN2" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="DJ2" s="14" t="s">
+      <c r="DO2" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="DK2" s="14" t="s">
+      <c r="DP2" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="DL2" s="14" t="s">
+      <c r="DQ2" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="DM2" s="14" t="s">
+      <c r="DR2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="DN2" s="14" t="s">
+      <c r="DS2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="DO2" s="14" t="s">
+      <c r="DT2" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="DP2" s="14" t="s">
+      <c r="DU2" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="DQ2" s="14" t="s">
+      <c r="DV2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="DR2" s="14" t="s">
+      <c r="DW2" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="DS2" s="14" t="s">
+      <c r="DX2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="DT2" s="14" t="s">
+      <c r="DY2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="DU2" s="14" t="s">
+      <c r="DZ2" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="DV2" s="14" t="s">
+      <c r="EA2" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="DW2" s="14" t="s">
+      <c r="EB2" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="DX2" s="14" t="s">
+      <c r="EC2" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="DY2" s="14" t="s">
+      <c r="ED2" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="DZ2" s="14" t="s">
+      <c r="EE2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="EA2" s="14" t="s">
+      <c r="EF2" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="EB2" s="14" t="s">
+      <c r="EG2" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="EC2" s="14" t="s">
+      <c r="EH2" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="ED2" s="14" t="s">
+      <c r="EI2" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="EE2" s="14" t="s">
+      <c r="EJ2" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="EF2" s="14" t="s">
+      <c r="EK2" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="EG2" s="14" t="s">
+      <c r="EL2" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="EH2" s="14" t="s">
+      <c r="EM2" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="EI2" s="14" t="s">
+      <c r="EN2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="EJ2" s="14" t="s">
+      <c r="EO2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="EK2" s="17" t="s">
+      <c r="EP2" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="EL2" s="14" t="s">
+      <c r="EQ2" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="EM2" s="14" t="s">
+      <c r="ER2" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="EN2" s="14" t="s">
+      <c r="ES2" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="EO2" s="14" t="s">
+      <c r="ET2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="EU2" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="EP2" s="14" t="s">
+      <c r="EV2" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="EQ2" s="14" t="s">
+      <c r="EW2" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="ER2" s="14" t="s">
+      <c r="EX2" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="ES2" s="14" t="s">
+      <c r="EY2" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="ET2" s="14" t="s">
+      <c r="EZ2" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="EU2" s="14" t="s">
+      <c r="FA2" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="EV2" s="14" t="s">
+      <c r="FB2" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="EW2" s="14" t="s">
+      <c r="FC2" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="EX2" s="14" t="s">
+      <c r="FD2" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="EY2" s="14" t="s">
+      <c r="FE2" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="EZ2" s="14" t="s">
+      <c r="FF2" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="FA2" s="14" t="s">
+      <c r="FG2" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="FB2" s="14" t="s">
+      <c r="FH2" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="FC2" s="14" t="s">
+      <c r="FI2" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="FD2" s="14" t="s">
+      <c r="FJ2" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="FE2" s="14" t="s">
+      <c r="FK2" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="FF2" s="14" t="s">
+      <c r="FL2" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="FG2" s="14" t="s">
+      <c r="FM2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="FH2" s="14" t="s">
+      <c r="FN2" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="FI2" s="14" t="s">
+      <c r="FO2" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="FJ2" s="14" t="s">
+      <c r="FP2" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="FK2" s="16" t="s">
+      <c r="FQ2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="FR2" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="FL2" s="16" t="s">
+      <c r="FS2" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="FM2" s="17" t="s">
+      <c r="FT2" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="FN2" s="17" t="s">
+      <c r="FU2" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="FO2" s="17" t="s">
+      <c r="FV2" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="FP2" s="17" t="s">
+      <c r="FW2" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="FQ2" s="17" t="s">
+      <c r="FX2" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="FR2" s="17" t="s">
+      <c r="FY2" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="FS2" s="18" t="s">
+      <c r="FZ2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="GA2" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="FT2" s="16" t="s">
+      <c r="GB2" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="FU2" s="14" t="s">
+      <c r="GC2" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="FV2" s="14" t="s">
+      <c r="GD2" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="FW2" s="14" t="s">
+      <c r="GE2" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="FX2" s="14" t="s">
+      <c r="GF2" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="FY2" s="14" t="s">
+      <c r="GG2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="FZ2" s="14" t="s">
+      <c r="GH2" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="GA2" s="14" t="s">
+      <c r="GI2" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="GB2" s="14" t="s">
+      <c r="GJ2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="GC2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="GD2" s="14" t="s">
+      <c r="GK2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="GL2" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="GE2" s="14" t="s">
+      <c r="GM2" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="GF2" s="19" t="s">
+      <c r="GN2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="GO2" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="GG2" s="19" t="s">
+      <c r="GP2" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="GH2" s="20" t="s">
+      <c r="GQ2" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="GI2" s="21" t="s">
+      <c r="GR2" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="GJ2" s="21" t="s">
+      <c r="GS2" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="GK2" s="21" t="s">
+      <c r="GT2" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="GL2" s="20" t="s">
+      <c r="GU2" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="GM2" s="21" t="s">
+      <c r="GV2" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="GN2" s="21" t="s">
+      <c r="GW2" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="GO2" s="21" t="s">
+      <c r="GX2" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="GP2" s="21" t="s">
+      <c r="GY2" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="GQ2" s="20" t="s">
+      <c r="GZ2" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="GR2" s="20" t="s">
+      <c r="HA2" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="GS2" s="20" t="s">
+      <c r="HB2" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="GT2" s="20" t="s">
+      <c r="HC2" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="GU2" s="14" t="s">
+      <c r="HD2" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="GV2" s="14" t="s">
+      <c r="HE2" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="GW2" s="14" t="s">
+      <c r="HF2" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="GX2" s="14" t="s">
+      <c r="HG2" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="GY2" s="14" t="s">
+      <c r="HH2" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="GZ2" s="14" t="s">
+      <c r="HI2" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="HA2" s="14" t="s">
+      <c r="HJ2" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="HB2" s="14" t="s">
+      <c r="HK2" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="HC2" s="14" t="s">
+      <c r="HL2" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="HD2" s="14" t="s">
+      <c r="HM2" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="HE2" s="14" t="s">
+      <c r="HN2" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="HF2" s="14" t="s">
+      <c r="HO2" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="HG2" s="14" t="s">
+      <c r="HP2" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="HH2" s="14" t="s">
+      <c r="HQ2" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="HI2" s="14" t="s">
+      <c r="HR2" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="HJ2" s="14" t="s">
+      <c r="HS2" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="HK2" s="14" t="s">
+      <c r="HT2" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="HL2" s="14" t="s">
+      <c r="HU2" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="HM2" s="14" t="s">
+      <c r="HV2" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="HN2" s="14" t="s">
+      <c r="HW2" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="HO2" s="14" t="s">
+      <c r="HX2" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="HP2" s="14" t="s">
+      <c r="HY2" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="HQ2" s="14" t="s">
+      <c r="HZ2" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="HR2" s="14" t="s">
+      <c r="IA2" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="HS2" s="14" t="s">
+      <c r="IB2" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="HT2" s="14" t="s">
+      <c r="IC2" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="HU2" s="14" t="s">
+      <c r="ID2" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="HV2" s="14" t="s">
+      <c r="IE2" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="HW2" s="14" t="s">
+      <c r="IF2" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="HX2" s="14" t="s">
+      <c r="IG2" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="HY2" s="14" t="s">
+      <c r="IH2" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="HZ2" s="14" t="s">
+      <c r="II2" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="IA2" s="14" t="s">
+      <c r="IJ2" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="IB2" s="14" t="s">
+      <c r="IK2" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="IC2" s="14" t="s">
+      <c r="IL2" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="ID2" s="22" t="s">
+      <c r="IM2" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="IE2" s="18" t="s">
+      <c r="IN2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="IO2" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="IF2" s="18" t="s">
+      <c r="IP2" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="IG2" s="14" t="s">
+      <c r="IQ2" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="IH2" s="14" t="s">
+      <c r="IR2" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="II2" s="14" t="s">
+      <c r="IS2" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="IJ2" s="14" t="s">
+      <c r="IT2" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="IK2" s="17" t="s">
+      <c r="IU2" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="IL2" s="14" t="s">
+      <c r="IV2" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="IM2" s="14" t="s">
+      <c r="IW2" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="IN2" s="14" t="s">
+      <c r="IX2" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="IO2" s="14" t="s">
+      <c r="IY2" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="IP2" s="14" t="s">
+      <c r="IZ2" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="IQ2" s="14" t="s">
+      <c r="JA2" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="IR2" s="14" t="s">
+      <c r="JB2" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="IS2" s="14" t="s">
+      <c r="JC2" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="IT2" s="14" t="s">
+      <c r="JD2" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="IU2" s="14" t="s">
+      <c r="JE2" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="IV2" s="14" t="s">
+      <c r="JF2" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="IW2" s="14" t="s">
+      <c r="JG2" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="IX2" s="14" t="s">
+      <c r="JH2" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="IY2" s="14" t="s">
+      <c r="JI2" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="IZ2" s="14" t="s">
+      <c r="JJ2" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="JA2" s="14" t="s">
+      <c r="JK2" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="JB2" s="16" t="s">
+      <c r="JL2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="JM2" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="JC2" s="18" t="s">
+      <c r="JN2" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="JD2" s="14" t="s">
+      <c r="JO2" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="JE2" s="22" t="s">
+      <c r="JP2" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="JF2" s="22" t="s">
+      <c r="JQ2" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="JG2" s="22" t="s">
+      <c r="JR2" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="JH2" s="22" t="s">
+      <c r="JS2" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="JI2" s="14" t="s">
+      <c r="JT2" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="JJ2" s="14" t="s">
+      <c r="JU2" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="JK2" s="14" t="s">
+      <c r="JV2" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="JL2" s="14" t="s">
+      <c r="JW2" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="JM2" s="14" t="s">
+      <c r="JX2" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="JN2" s="14" t="s">
+      <c r="JY2" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="JO2" s="14" t="s">
+      <c r="JZ2" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="JP2" s="14" t="s">
+      <c r="KA2" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="JQ2" s="14" t="s">
+      <c r="KB2" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="JR2" s="14" t="s">
+      <c r="KC2" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="JS2" s="14" t="s">
+      <c r="KD2" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="JT2" s="14" t="s">
+      <c r="KE2" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="JU2" s="14" t="s">
+      <c r="KF2" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="JV2" s="22" t="s">
+      <c r="KG2" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="JW2" s="22" t="s">
+      <c r="KH2" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="JX2" s="14" t="s">
+      <c r="KI2" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="JY2" s="22" t="s">
+      <c r="KJ2" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="JZ2" s="22" t="s">
+      <c r="KK2" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="KA2" s="22" t="s">
+      <c r="KL2" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="KB2" s="14" t="s">
+      <c r="KM2" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="KC2" s="14" t="s">
+      <c r="KN2" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="KD2" s="14" t="s">
+      <c r="KO2" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="KE2" s="14" t="s">
+      <c r="KP2" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="KF2" s="14" t="s">
+      <c r="KQ2" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="KG2" s="14" t="s">
+      <c r="KR2" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="KH2" s="14" t="s">
+      <c r="KS2" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="KI2" s="14" t="s">
+      <c r="KT2" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="KJ2" s="14" t="s">
+      <c r="KU2" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="KK2" s="14" t="s">
+      <c r="KV2" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="KL2" s="14" t="s">
+      <c r="KW2" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="KM2" s="18" t="s">
+      <c r="KX2" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="KN2" s="18" t="s">
+      <c r="KY2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="KZ2" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="KO2" s="18" t="s">
+      <c r="LA2" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="KP2" s="14" t="s">
+      <c r="LB2" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="KQ2" s="14" t="s">
+      <c r="LC2" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="KR2" s="14" t="s">
+      <c r="LD2" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="KS2" s="14" t="s">
+      <c r="LE2" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="KT2" s="14" t="s">
+      <c r="LF2" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="KU2" s="14" t="s">
+      <c r="LG2" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="KV2" s="14" t="s">
+      <c r="LH2" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="KW2" s="14" t="s">
+      <c r="LI2" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="KX2" s="14" t="s">
+      <c r="LJ2" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="KY2" s="14" t="s">
+      <c r="LK2" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="KZ2" s="14" t="s">
+      <c r="LL2" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="LM2" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="LA2" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="LB2" s="14" t="s">
+      <c r="LN2" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="LC2" s="17" t="s">
+      <c r="LO2" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="LD2" s="14" t="s">
+      <c r="LP2" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="LE2" s="14" t="s">
+      <c r="LQ2" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="LF2" s="14" t="s">
+      <c r="LR2" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="LG2" s="14" t="s">
+      <c r="LS2" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="LH2" s="14" t="s">
+      <c r="LT2" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="LI2" s="14" t="s">
+      <c r="LU2" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="LJ2" s="14" t="s">
+      <c r="LV2" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="LK2" s="14" t="s">
+      <c r="LW2" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="LL2" s="14" t="s">
+      <c r="LX2" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="LM2" s="14" t="s">
+      <c r="LY2" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="LN2" s="14" t="s">
+      <c r="LZ2" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="LO2" s="14" t="s">
+      <c r="MA2" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="LP2" s="14" t="s">
+      <c r="MB2" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="LQ2" s="14" t="s">
+      <c r="MC2" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="LR2" s="14" t="s">
+      <c r="MD2" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="LS2" s="14" t="s">
+      <c r="ME2" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="LT2" s="14" t="s">
+      <c r="MF2" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="LU2" s="14" t="s">
+      <c r="MG2" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="LV2" s="14" t="s">
+      <c r="MH2" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="LW2" s="14" t="s">
+      <c r="MI2" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="LX2" s="14" t="s">
+      <c r="MJ2" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="LY2" s="14" t="s">
+      <c r="MK2" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="LZ2" s="14" t="s">
+      <c r="ML2" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="MA2" s="18" t="s">
+      <c r="MM2" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="MB2" s="16" t="s">
+      <c r="MN2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="MO2" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="MC2" s="17" t="s">
+      <c r="MP2" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="MD2" s="17" t="s">
+      <c r="MQ2" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="ME2" s="17" t="s">
+      <c r="MR2" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="MF2" s="17" t="s">
+      <c r="MS2" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="MG2" s="17" t="s">
+      <c r="MT2" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="MH2" s="17" t="s">
+      <c r="MU2" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="MI2" s="17" t="s">
+      <c r="MV2" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="MJ2" s="17" t="s">
+      <c r="MW2" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="MK2" s="17" t="s">
+      <c r="MX2" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="ML2" s="17" t="s">
+      <c r="MY2" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="MM2" s="17" t="s">
+      <c r="MZ2" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="MN2" s="14" t="s">
+      <c r="NA2" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="MO2" s="14" t="s">
+      <c r="NB2" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="MP2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="MQ2" s="18" t="s">
+      <c r="NC2" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="MR2" s="18" t="s">
+      <c r="ND2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="NE2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="NF2" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="MS2" s="14" t="s">
+      <c r="NG2" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="MT2" s="14" t="s">
+      <c r="NH2" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="MU2" s="14" t="s">
+      <c r="NI2" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="MV2" s="14" t="s">
+      <c r="NJ2" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="MW2" s="14" t="s">
+      <c r="NK2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="MX2" s="14" t="s">
+      <c r="NL2" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="MY2" s="14" t="s">
+      <c r="NM2" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="MZ2" s="14" t="s">
+      <c r="NN2" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="NA2" s="14" t="s">
+      <c r="NO2" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="NB2" s="14" t="s">
+      <c r="NP2" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="NC2" s="14" t="s">
+      <c r="NQ2" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="ND2" s="14" t="s">
+      <c r="NR2" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="NE2" s="14" t="s">
+      <c r="NS2" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="NF2" s="14" t="s">
+      <c r="NT2" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="NG2" s="14" t="s">
+      <c r="NU2" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="NH2" s="14" t="s">
+      <c r="NV2" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="NI2" s="14" t="s">
+      <c r="NW2" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="NJ2" s="14" t="s">
+      <c r="NX2" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="NK2" s="14" t="s">
+      <c r="NY2" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="NL2" s="14" t="s">
+      <c r="NZ2" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="NM2" s="18" t="s">
+      <c r="OA2" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="NN2" s="18" t="s">
+      <c r="OB2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="OC2" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="NO2" s="18" t="s">
+      <c r="OD2" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="NP2" s="14" t="s">
+      <c r="OE2" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="NQ2" s="14" t="s">
+      <c r="OF2" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="NR2" s="14" t="s">
+      <c r="OG2" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="NS2" s="14" t="s">
+      <c r="OH2" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="NT2" s="14" t="s">
+      <c r="OI2" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="NU2" s="14" t="s">
+      <c r="OJ2" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="NV2" s="14" t="s">
+      <c r="OK2" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="NW2" s="14" t="s">
+      <c r="OL2" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="NX2" s="14" t="s">
+      <c r="OM2" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="NY2" s="14" t="s">
+      <c r="ON2" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="NZ2" s="14" t="s">
+      <c r="OO2" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="OA2" s="14" t="s">
+      <c r="OP2" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="OB2" s="14" t="s">
+      <c r="OQ2" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="OC2" s="14" t="s">
+      <c r="OR2" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="OD2" s="14" t="s">
+      <c r="OS2" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="OE2" s="14" t="s">
+      <c r="OT2" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="OF2" s="14" t="s">
+      <c r="OU2" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="OG2" s="14" t="s">
+      <c r="OV2" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="OH2" s="14" t="s">
+      <c r="OW2" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="OI2" s="14" t="s">
+      <c r="OX2" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="OJ2" s="14" t="s">
+      <c r="OY2" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="OK2" s="18" t="s">
+      <c r="OZ2" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="OL2" s="18" t="s">
+      <c r="PA2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="PB2" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="OM2" s="14" t="s">
+      <c r="PC2" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="ON2" s="14" t="s">
+      <c r="PD2" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="OO2" s="14" t="s">
+      <c r="PE2" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="OP2" s="14" t="s">
+      <c r="PF2" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="OQ2" s="14" t="s">
+      <c r="PG2" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="OR2" s="14" t="s">
+      <c r="PH2" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="OS2" s="14" t="s">
+      <c r="PI2" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="OT2" s="14" t="s">
+      <c r="PJ2" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="OU2" s="14" t="s">
+      <c r="PK2" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="OV2" s="14" t="s">
+      <c r="PL2" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="OW2" s="14" t="s">
+      <c r="PM2" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="OX2" s="14" t="s">
+      <c r="PN2" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="OY2" s="14" t="s">
+      <c r="PO2" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="OZ2" s="14" t="s">
+      <c r="PP2" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="PA2" s="14" t="s">
+      <c r="PQ2" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="PB2" s="18" t="s">
+      <c r="PR2" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="PC2" s="18" t="s">
+      <c r="PS2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="PT2" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="PD2" s="18" t="s">
+      <c r="PU2" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="PE2" s="22" t="s">
+      <c r="PV2" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="PF2" s="14" t="s">
+      <c r="PW2" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="PG2" s="14" t="s">
+      <c r="PX2" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="PH2" s="14" t="s">
+      <c r="PY2" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="PI2" s="14" t="s">
+      <c r="PZ2" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="PJ2" s="14" t="s">
+      <c r="QA2" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="PK2" s="14" t="s">
+      <c r="QB2" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="PL2" s="14" t="s">
+      <c r="QC2" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="PM2" s="14" t="s">
+      <c r="QD2" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="PN2" s="14" t="s">
+      <c r="QE2" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="PO2" s="14" t="s">
+      <c r="QF2" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="PP2" s="14" t="s">
+      <c r="QG2" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="PQ2" s="14" t="s">
+      <c r="QH2" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="PR2" s="14" t="s">
+      <c r="QI2" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="PS2" s="14" t="s">
+      <c r="QJ2" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="PT2" s="14" t="s">
+      <c r="QK2" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="PU2" s="14" t="s">
+      <c r="QL2" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="PV2" s="14" t="s">
+      <c r="QM2" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="PW2" s="14" t="s">
+      <c r="QN2" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="PX2" s="14" t="s">
+      <c r="QO2" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="PY2" s="14" t="s">
+      <c r="QP2" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="PZ2" s="14" t="s">
+      <c r="QQ2" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="QA2" s="14" t="s">
+      <c r="QR2" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="QB2" s="14" t="s">
+      <c r="QS2" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="QC2" s="18" t="s">
+      <c r="QT2" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="QD2" s="18" t="s">
+      <c r="QU2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="QV2" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="QE2" s="18" t="s">
+      <c r="QW2" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="QF2" s="14" t="s">
+      <c r="QX2" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="QG2" s="14" t="s">
+      <c r="QY2" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="QH2" s="14" t="s">
+      <c r="QZ2" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="QI2" s="14" t="s">
+      <c r="RA2" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="QJ2" s="14" t="s">
+      <c r="RB2" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="QK2" s="14" t="s">
+      <c r="RC2" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="RD2" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="QL2" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="QM2" s="14" t="s">
+      <c r="RE2" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="QN2" s="14" t="s">
+      <c r="RF2" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="QO2" s="14" t="s">
+      <c r="RG2" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="QP2" s="18" t="s">
+      <c r="RH2" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="QQ2" s="18" t="s">
+      <c r="RI2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="RJ2" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="QR2" s="14" t="s">
+      <c r="RK2" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="QS2" s="14" t="s">
+      <c r="RL2" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="QT2" s="14" t="s">
+      <c r="RM2" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="QU2" s="17" t="s">
+      <c r="RN2" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="QV2" s="17" t="s">
+      <c r="RO2" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="QW2" s="17" t="s">
+      <c r="RP2" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="QX2" s="17" t="s">
+      <c r="RQ2" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="QY2" s="17" t="s">
+      <c r="RR2" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="QZ2" s="17" t="s">
+      <c r="RS2" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="RA2" s="17" t="s">
+      <c r="RT2" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="RB2" s="14" t="s">
+      <c r="RU2" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="RC2" s="14" t="s">
+      <c r="RV2" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="RD2" s="14" t="s">
+      <c r="RW2" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="RE2" s="14" t="s">
+      <c r="RX2" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="RF2" s="14" t="s">
+      <c r="RY2" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="RG2" s="16" t="s">
+      <c r="RZ2" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="RH2" s="18" t="s">
+      <c r="SA2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="SB2" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="RI2" s="18" t="s">
+      <c r="SC2" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="SD2" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="RJ2" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="RK2" s="14" t="s">
+      <c r="SE2" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="RL2" s="14" t="s">
+      <c r="SF2" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="RM2" s="14" t="s">
+      <c r="SG2" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="SH2" s="19" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="24"/>
-      <c r="AX3" s="24"/>
-      <c r="AY3" s="24"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="24"/>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="24"/>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="24"/>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="24"/>
-      <c r="BL3" s="24"/>
-      <c r="BM3" s="24"/>
-      <c r="BN3" s="24"/>
-      <c r="BO3" s="24"/>
-      <c r="BP3" s="24"/>
-      <c r="BQ3" s="24"/>
-      <c r="BR3" s="24"/>
-      <c r="BS3" s="24"/>
-      <c r="BT3" s="24"/>
-      <c r="BU3" s="24"/>
-      <c r="BV3" s="24"/>
-      <c r="BW3" s="24"/>
-      <c r="BX3" s="24"/>
-      <c r="BY3" s="24"/>
-      <c r="BZ3" s="24"/>
-      <c r="CA3" s="24"/>
-      <c r="CB3" s="24"/>
-      <c r="CC3" s="24"/>
-      <c r="CD3" s="24"/>
-      <c r="CE3" s="24"/>
-      <c r="CF3" s="24"/>
-      <c r="CG3" s="24"/>
-      <c r="CH3" s="24"/>
-      <c r="CI3" s="24"/>
-      <c r="CJ3" s="24"/>
-      <c r="CK3" s="24"/>
-      <c r="CL3" s="24"/>
-      <c r="CM3" s="24"/>
-      <c r="CN3" s="24"/>
-      <c r="CO3" s="24"/>
-      <c r="CP3" s="24"/>
-      <c r="CQ3" s="24"/>
-      <c r="CR3" s="24"/>
-      <c r="CS3" s="24"/>
-      <c r="CT3" s="24"/>
-      <c r="CU3" s="24"/>
-      <c r="CV3" s="24"/>
-      <c r="CW3" s="24"/>
-      <c r="CX3" s="24"/>
-      <c r="CY3" s="24"/>
-      <c r="CZ3" s="24"/>
-      <c r="DA3" s="24"/>
-      <c r="DB3" s="24"/>
-      <c r="DC3" s="24"/>
-      <c r="DD3" s="24"/>
-      <c r="DE3" s="24"/>
-      <c r="DF3" s="24"/>
-      <c r="DG3" s="24"/>
-      <c r="DH3" s="24"/>
-      <c r="DI3" s="24"/>
-      <c r="DJ3" s="24"/>
-      <c r="DK3" s="24"/>
-      <c r="DL3" s="24"/>
-      <c r="DM3" s="24"/>
-      <c r="DN3" s="24"/>
-      <c r="DO3" s="24"/>
-      <c r="DP3" s="24"/>
-      <c r="DQ3" s="24"/>
-      <c r="DR3" s="24"/>
-      <c r="DS3" s="24"/>
-      <c r="DT3" s="24"/>
-      <c r="DU3" s="24"/>
-      <c r="DV3" s="24"/>
-      <c r="DW3" s="24"/>
-      <c r="DX3" s="24"/>
-      <c r="DY3" s="24"/>
-      <c r="DZ3" s="24"/>
-      <c r="EA3" s="24"/>
-      <c r="EB3" s="24"/>
-      <c r="EC3" s="24"/>
-      <c r="ED3" s="24"/>
-      <c r="EE3" s="24"/>
-      <c r="EF3" s="24"/>
-      <c r="EG3" s="24"/>
-      <c r="EH3" s="24"/>
-      <c r="EI3" s="24"/>
-      <c r="EJ3" s="24"/>
-      <c r="EK3" s="24"/>
-      <c r="EL3" s="24"/>
-      <c r="EM3" s="24"/>
-      <c r="EN3" s="24"/>
-      <c r="EO3" s="24"/>
-      <c r="EP3" s="24"/>
-      <c r="EQ3" s="24"/>
-      <c r="ER3" s="24"/>
-      <c r="ES3" s="24"/>
-      <c r="ET3" s="24"/>
-      <c r="EU3" s="24"/>
-      <c r="EV3" s="24"/>
-      <c r="EW3" s="24"/>
-      <c r="EX3" s="24"/>
-      <c r="EY3" s="24"/>
-      <c r="EZ3" s="24"/>
-      <c r="FA3" s="24"/>
-      <c r="FB3" s="24"/>
-      <c r="FC3" s="24"/>
-      <c r="FD3" s="24"/>
-      <c r="FE3" s="24"/>
-      <c r="FF3" s="24"/>
-      <c r="FG3" s="24"/>
-      <c r="FH3" s="24"/>
-      <c r="FI3" s="24"/>
-      <c r="FJ3" s="24"/>
-      <c r="FK3" s="24"/>
-      <c r="FL3" s="24"/>
-      <c r="FM3" s="24"/>
-      <c r="FN3" s="24"/>
-      <c r="FO3" s="24"/>
-      <c r="FP3" s="24"/>
-      <c r="FQ3" s="24"/>
-      <c r="FR3" s="24"/>
-      <c r="FS3" s="24"/>
-      <c r="FT3" s="24"/>
-      <c r="FU3" s="24"/>
-      <c r="FV3" s="24"/>
-      <c r="FW3" s="24"/>
-      <c r="FX3" s="24"/>
-      <c r="FY3" s="24"/>
-      <c r="FZ3" s="24"/>
-      <c r="GA3" s="24"/>
-      <c r="GB3" s="24"/>
-      <c r="GC3" s="24"/>
-      <c r="GD3" s="24"/>
-      <c r="GE3" s="24"/>
-      <c r="GF3" s="24"/>
-      <c r="GG3" s="24"/>
-      <c r="GH3" s="24"/>
-      <c r="GI3" s="24"/>
-      <c r="GJ3" s="24"/>
-      <c r="GK3" s="24"/>
-      <c r="GL3" s="24"/>
-      <c r="GM3" s="24"/>
-      <c r="GN3" s="24"/>
-      <c r="GO3" s="24"/>
-      <c r="GP3" s="24"/>
-      <c r="GQ3" s="24"/>
-      <c r="GR3" s="24"/>
-      <c r="GS3" s="24"/>
-      <c r="GT3" s="24"/>
-      <c r="GU3" s="24"/>
-      <c r="GV3" s="24"/>
-      <c r="GW3" s="24"/>
-      <c r="GX3" s="24"/>
-      <c r="GY3" s="24"/>
-      <c r="GZ3" s="24"/>
-      <c r="HA3" s="24"/>
-      <c r="HB3" s="24"/>
-      <c r="HC3" s="24"/>
-      <c r="HD3" s="24"/>
-      <c r="HE3" s="24"/>
-      <c r="HF3" s="24"/>
-      <c r="HG3" s="24"/>
-      <c r="HH3" s="24"/>
-      <c r="HI3" s="24"/>
-      <c r="HJ3" s="24"/>
-      <c r="HK3" s="24"/>
-      <c r="HL3" s="24"/>
-      <c r="HM3" s="24"/>
-      <c r="HN3" s="24"/>
-      <c r="HO3" s="24"/>
-      <c r="HP3" s="24"/>
-      <c r="HQ3" s="24"/>
-      <c r="HR3" s="24"/>
-      <c r="HS3" s="24"/>
-      <c r="HT3" s="24"/>
-      <c r="HU3" s="24"/>
-      <c r="HV3" s="24"/>
-      <c r="HW3" s="24"/>
-      <c r="HX3" s="24"/>
-      <c r="HY3" s="24"/>
-      <c r="HZ3" s="24"/>
-      <c r="IA3" s="24"/>
-      <c r="IB3" s="24"/>
-      <c r="IC3" s="24"/>
-      <c r="ID3" s="24"/>
-      <c r="IE3" s="24"/>
-      <c r="IF3" s="24"/>
-      <c r="IG3" s="24"/>
-      <c r="IH3" s="24"/>
-      <c r="II3" s="24"/>
-      <c r="IJ3" s="24"/>
-      <c r="IK3" s="24"/>
-      <c r="IL3" s="24"/>
-      <c r="IM3" s="24"/>
-      <c r="IN3" s="24"/>
-      <c r="IO3" s="24"/>
-      <c r="IP3" s="24"/>
-      <c r="IQ3" s="24"/>
-      <c r="IR3" s="24"/>
-      <c r="IS3" s="24"/>
-      <c r="IT3" s="24"/>
-      <c r="IU3" s="24"/>
-      <c r="IV3" s="24"/>
-      <c r="IW3" s="24"/>
-      <c r="IX3" s="24"/>
-      <c r="IY3" s="24"/>
-      <c r="IZ3" s="24"/>
-      <c r="JA3" s="24"/>
-      <c r="JB3" s="24"/>
-      <c r="JC3" s="24"/>
-      <c r="JD3" s="24"/>
-      <c r="JE3" s="24"/>
-      <c r="JF3" s="24"/>
-      <c r="JG3" s="24"/>
-      <c r="JH3" s="24"/>
-      <c r="JI3" s="24"/>
-      <c r="JJ3" s="24"/>
-      <c r="JK3" s="24"/>
-      <c r="JL3" s="24"/>
-      <c r="JM3" s="24"/>
-      <c r="JN3" s="24"/>
-      <c r="JO3" s="24"/>
-      <c r="JP3" s="24"/>
-      <c r="JQ3" s="24"/>
-      <c r="JR3" s="24"/>
-      <c r="JS3" s="24"/>
-      <c r="JT3" s="24"/>
-      <c r="JU3" s="24"/>
-      <c r="JV3" s="24"/>
-      <c r="JW3" s="24"/>
-      <c r="JX3" s="24"/>
-      <c r="JY3" s="24"/>
-      <c r="JZ3" s="24"/>
-      <c r="KA3" s="24"/>
-      <c r="KB3" s="24"/>
-      <c r="KC3" s="24"/>
-      <c r="KD3" s="24"/>
-      <c r="KE3" s="24"/>
-      <c r="KF3" s="24"/>
-      <c r="KG3" s="24"/>
-      <c r="KH3" s="24"/>
-      <c r="KI3" s="24"/>
-      <c r="KJ3" s="24"/>
-      <c r="KK3" s="24"/>
-      <c r="KL3" s="24"/>
-      <c r="KM3" s="25"/>
-      <c r="KN3" s="24"/>
-      <c r="KO3" s="24"/>
-      <c r="KP3" s="24"/>
-      <c r="KQ3" s="24"/>
-      <c r="KR3" s="24"/>
-      <c r="KS3" s="24"/>
-      <c r="KT3" s="24"/>
-      <c r="KU3" s="24"/>
-      <c r="KV3" s="24"/>
-      <c r="KW3" s="24"/>
-      <c r="KX3" s="24"/>
-      <c r="KY3" s="24"/>
-      <c r="KZ3" s="24"/>
-      <c r="LA3" s="24"/>
-      <c r="LB3" s="24"/>
-      <c r="LC3" s="24"/>
-      <c r="LD3" s="24"/>
-      <c r="LE3" s="24"/>
-      <c r="LF3" s="24"/>
-      <c r="LG3" s="24"/>
-      <c r="LH3" s="24"/>
-      <c r="LI3" s="24"/>
-      <c r="LJ3" s="24"/>
-      <c r="LK3" s="24"/>
-      <c r="LL3" s="24"/>
-      <c r="LM3" s="24"/>
-      <c r="LN3" s="24"/>
-      <c r="LO3" s="24"/>
-      <c r="LP3" s="24"/>
-      <c r="LQ3" s="24"/>
-      <c r="LR3" s="24"/>
-      <c r="LS3" s="24"/>
-      <c r="LT3" s="24"/>
-      <c r="LU3" s="24"/>
-      <c r="LV3" s="24"/>
-      <c r="LW3" s="24"/>
-      <c r="LX3" s="24"/>
-      <c r="LY3" s="24"/>
-      <c r="LZ3" s="24"/>
-      <c r="MA3" s="24"/>
-      <c r="MB3" s="24"/>
-      <c r="MC3" s="24"/>
-      <c r="MD3" s="24"/>
-      <c r="ME3" s="24"/>
-      <c r="MF3" s="24"/>
-      <c r="MG3" s="24"/>
-      <c r="MH3" s="24"/>
-      <c r="MI3" s="24"/>
-      <c r="MJ3" s="24"/>
-      <c r="MK3" s="24"/>
-      <c r="ML3" s="24"/>
-      <c r="MM3" s="24"/>
-      <c r="MN3" s="24"/>
-      <c r="MO3" s="24"/>
-      <c r="MP3" s="24"/>
-      <c r="MQ3" s="24"/>
-      <c r="MR3" s="24"/>
-      <c r="MS3" s="24"/>
-      <c r="MT3" s="24"/>
-      <c r="MU3" s="24"/>
-      <c r="MV3" s="24"/>
-      <c r="MW3" s="24"/>
-      <c r="MX3" s="24"/>
-      <c r="MY3" s="24"/>
-      <c r="MZ3" s="24"/>
-      <c r="NA3" s="24"/>
-      <c r="NB3" s="24"/>
-      <c r="NC3" s="24"/>
-      <c r="ND3" s="24"/>
-      <c r="NE3" s="24"/>
-      <c r="NF3" s="24"/>
-      <c r="NG3" s="24"/>
-      <c r="NH3" s="24"/>
-      <c r="NI3" s="24"/>
-      <c r="NJ3" s="24"/>
-      <c r="NK3" s="24"/>
-      <c r="NL3" s="24"/>
-      <c r="NM3" s="25"/>
-      <c r="NN3" s="24"/>
-      <c r="NO3" s="24"/>
-      <c r="NP3" s="24"/>
-      <c r="NQ3" s="24"/>
-      <c r="NR3" s="24"/>
-      <c r="NS3" s="24"/>
-      <c r="NT3" s="24"/>
-      <c r="NU3" s="24"/>
-      <c r="NV3" s="24"/>
-      <c r="NW3" s="24"/>
-      <c r="NX3" s="24"/>
-      <c r="NY3" s="24"/>
-      <c r="NZ3" s="24"/>
-      <c r="OA3" s="24"/>
-      <c r="OB3" s="24"/>
-      <c r="OC3" s="24"/>
-      <c r="OD3" s="24"/>
-      <c r="OE3" s="24"/>
-      <c r="OF3" s="24"/>
-      <c r="OG3" s="24"/>
-      <c r="OH3" s="24"/>
-      <c r="OI3" s="24"/>
-      <c r="OJ3" s="24"/>
-      <c r="OK3" s="24"/>
-      <c r="OL3" s="24"/>
-      <c r="OM3" s="24"/>
-      <c r="ON3" s="24"/>
-      <c r="OO3" s="24"/>
-      <c r="OP3" s="24"/>
-      <c r="OQ3" s="24"/>
-      <c r="OR3" s="24"/>
-      <c r="OS3" s="24"/>
-      <c r="OT3" s="24"/>
-      <c r="OU3" s="24"/>
-      <c r="OV3" s="24"/>
-      <c r="OW3" s="24"/>
-      <c r="OX3" s="24"/>
-      <c r="OY3" s="24"/>
-      <c r="OZ3" s="24"/>
-      <c r="PA3" s="24"/>
-      <c r="PB3" s="26"/>
-      <c r="PC3" s="24"/>
-      <c r="PD3" s="24"/>
-      <c r="PE3" s="24"/>
-      <c r="PF3" s="24"/>
-      <c r="PG3" s="24"/>
-      <c r="PH3" s="24"/>
-      <c r="PI3" s="24"/>
-      <c r="PJ3" s="24"/>
-      <c r="PK3" s="24"/>
-      <c r="PL3" s="24"/>
-      <c r="PM3" s="24"/>
-      <c r="PN3" s="24"/>
-      <c r="PO3" s="24"/>
-      <c r="PP3" s="24"/>
-      <c r="PQ3" s="24"/>
-      <c r="PR3" s="24"/>
-      <c r="PS3" s="24"/>
-      <c r="PT3" s="24"/>
-      <c r="PU3" s="24"/>
-      <c r="PV3" s="24"/>
-      <c r="PW3" s="24"/>
-      <c r="PX3" s="24"/>
-      <c r="PY3" s="24"/>
-      <c r="PZ3" s="24"/>
-      <c r="QA3" s="24"/>
-      <c r="QB3" s="24"/>
-      <c r="QC3" s="26"/>
-      <c r="QD3" s="24"/>
-      <c r="QE3" s="24"/>
-      <c r="QF3" s="24"/>
-      <c r="QG3" s="24"/>
-      <c r="QH3" s="24"/>
-      <c r="QI3" s="24"/>
-      <c r="QJ3" s="24"/>
-      <c r="QK3" s="24"/>
-      <c r="QL3" s="24"/>
-      <c r="QM3" s="24"/>
-      <c r="QN3" s="24"/>
-      <c r="QO3" s="24"/>
-      <c r="QP3" s="27"/>
-      <c r="QQ3" s="24"/>
-      <c r="QR3" s="24"/>
-      <c r="QS3" s="24"/>
-      <c r="QT3" s="24"/>
-      <c r="QU3" s="24"/>
-      <c r="QV3" s="24"/>
-      <c r="QW3" s="24"/>
-      <c r="QX3" s="24"/>
-      <c r="QY3" s="24"/>
-      <c r="QZ3" s="24"/>
-      <c r="RA3" s="24"/>
-      <c r="RB3" s="24"/>
-      <c r="RC3" s="24"/>
-      <c r="RD3" s="24"/>
-      <c r="RE3" s="24"/>
-      <c r="RF3" s="24"/>
-      <c r="RG3" s="28"/>
-      <c r="RH3" s="28"/>
-      <c r="RI3" s="28"/>
-      <c r="RJ3" s="28"/>
-      <c r="RK3" s="28"/>
-      <c r="RL3" s="28"/>
-      <c r="RM3" s="28"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="32"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="32"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="32"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="32"/>
+      <c r="CE3" s="32"/>
+      <c r="CF3" s="32"/>
+      <c r="CG3" s="32"/>
+      <c r="CH3" s="32"/>
+      <c r="CI3" s="32"/>
+      <c r="CJ3" s="32"/>
+      <c r="CK3" s="32"/>
+      <c r="CL3" s="32"/>
+      <c r="CM3" s="32"/>
+      <c r="CN3" s="32"/>
+      <c r="CO3" s="32"/>
+      <c r="CP3" s="32"/>
+      <c r="CQ3" s="32"/>
+      <c r="CR3" s="32"/>
+      <c r="CS3" s="32"/>
+      <c r="CT3" s="32"/>
+      <c r="CU3" s="32"/>
+      <c r="CV3" s="32"/>
+      <c r="CW3" s="32"/>
+      <c r="CX3" s="32"/>
+      <c r="CY3" s="32"/>
+      <c r="CZ3" s="32"/>
+      <c r="DA3" s="32"/>
+      <c r="DB3" s="32"/>
+      <c r="DC3" s="32"/>
+      <c r="DD3" s="32"/>
+      <c r="DE3" s="32"/>
+      <c r="DF3" s="32"/>
+      <c r="DG3" s="32"/>
+      <c r="DH3" s="32"/>
+      <c r="DI3" s="32"/>
+      <c r="DJ3" s="32"/>
+      <c r="DK3" s="32"/>
+      <c r="DL3" s="32"/>
+      <c r="DM3" s="32"/>
+      <c r="DN3" s="32"/>
+      <c r="DO3" s="32"/>
+      <c r="DP3" s="32"/>
+      <c r="DQ3" s="32"/>
+      <c r="DR3" s="32"/>
+      <c r="DS3" s="32"/>
+      <c r="DT3" s="32"/>
+      <c r="DU3" s="32"/>
+      <c r="DV3" s="32"/>
+      <c r="DW3" s="32"/>
+      <c r="DX3" s="32"/>
+      <c r="DY3" s="32"/>
+      <c r="DZ3" s="32"/>
+      <c r="EA3" s="32"/>
+      <c r="EB3" s="32"/>
+      <c r="EC3" s="32"/>
+      <c r="ED3" s="32"/>
+      <c r="EE3" s="32"/>
+      <c r="EF3" s="32"/>
+      <c r="EG3" s="32"/>
+      <c r="EH3" s="32"/>
+      <c r="EI3" s="32"/>
+      <c r="EJ3" s="32"/>
+      <c r="EK3" s="32"/>
+      <c r="EL3" s="32"/>
+      <c r="EM3" s="32"/>
+      <c r="EN3" s="32"/>
+      <c r="EO3" s="32"/>
+      <c r="EP3" s="32"/>
+      <c r="EQ3" s="32"/>
+      <c r="ER3" s="32"/>
+      <c r="ES3" s="32"/>
+      <c r="ET3" s="32"/>
+      <c r="EU3" s="32"/>
+      <c r="EV3" s="32"/>
+      <c r="EW3" s="32"/>
+      <c r="EX3" s="32"/>
+      <c r="EY3" s="32"/>
+      <c r="EZ3" s="32"/>
+      <c r="FA3" s="32"/>
+      <c r="FB3" s="32"/>
+      <c r="FC3" s="32"/>
+      <c r="FD3" s="32"/>
+      <c r="FE3" s="32"/>
+      <c r="FF3" s="32"/>
+      <c r="FG3" s="32"/>
+      <c r="FH3" s="32"/>
+      <c r="FI3" s="32"/>
+      <c r="FJ3" s="32"/>
+      <c r="FK3" s="32"/>
+      <c r="FL3" s="32"/>
+      <c r="FM3" s="32"/>
+      <c r="FN3" s="32"/>
+      <c r="FO3" s="32"/>
+      <c r="FP3" s="32"/>
+      <c r="FQ3" s="32"/>
+      <c r="FR3" s="32"/>
+      <c r="FS3" s="32"/>
+      <c r="FT3" s="32"/>
+      <c r="FU3" s="32"/>
+      <c r="FV3" s="32"/>
+      <c r="FW3" s="32"/>
+      <c r="FX3" s="32"/>
+      <c r="FY3" s="32"/>
+      <c r="FZ3" s="32"/>
+      <c r="GA3" s="32"/>
+      <c r="GB3" s="32"/>
+      <c r="GC3" s="32"/>
+      <c r="GD3" s="32"/>
+      <c r="GE3" s="32"/>
+      <c r="GF3" s="32"/>
+      <c r="GG3" s="32"/>
+      <c r="GH3" s="32"/>
+      <c r="GI3" s="32"/>
+      <c r="GJ3" s="32"/>
+      <c r="GK3" s="32"/>
+      <c r="GL3" s="32"/>
+      <c r="GM3" s="32"/>
+      <c r="GN3" s="32"/>
+      <c r="GO3" s="32"/>
+      <c r="GP3" s="32"/>
+      <c r="GQ3" s="32"/>
+      <c r="GR3" s="32"/>
+      <c r="GS3" s="32"/>
+      <c r="GT3" s="32"/>
+      <c r="GU3" s="32"/>
+      <c r="GV3" s="32"/>
+      <c r="GW3" s="32"/>
+      <c r="GX3" s="32"/>
+      <c r="GY3" s="32"/>
+      <c r="GZ3" s="32"/>
+      <c r="HA3" s="32"/>
+      <c r="HB3" s="32"/>
+      <c r="HC3" s="32"/>
+      <c r="HD3" s="32"/>
+      <c r="HE3" s="32"/>
+      <c r="HF3" s="32"/>
+      <c r="HG3" s="32"/>
+      <c r="HH3" s="32"/>
+      <c r="HI3" s="32"/>
+      <c r="HJ3" s="32"/>
+      <c r="HK3" s="32"/>
+      <c r="HL3" s="32"/>
+      <c r="HM3" s="32"/>
+      <c r="HN3" s="32"/>
+      <c r="HO3" s="32"/>
+      <c r="HP3" s="32"/>
+      <c r="HQ3" s="32"/>
+      <c r="HR3" s="32"/>
+      <c r="HS3" s="32"/>
+      <c r="HT3" s="32"/>
+      <c r="HU3" s="32"/>
+      <c r="HV3" s="32"/>
+      <c r="HW3" s="32"/>
+      <c r="HX3" s="32"/>
+      <c r="HY3" s="32"/>
+      <c r="HZ3" s="32"/>
+      <c r="IA3" s="32"/>
+      <c r="IB3" s="32"/>
+      <c r="IC3" s="32"/>
+      <c r="ID3" s="32"/>
+      <c r="IE3" s="32"/>
+      <c r="IF3" s="32"/>
+      <c r="IG3" s="32"/>
+      <c r="IH3" s="32"/>
+      <c r="II3" s="32"/>
+      <c r="IJ3" s="32"/>
+      <c r="IK3" s="32"/>
+      <c r="IL3" s="32"/>
+      <c r="IM3" s="32"/>
+      <c r="IN3" s="32"/>
+      <c r="IO3" s="32"/>
+      <c r="IP3" s="32"/>
+      <c r="IQ3" s="32"/>
+      <c r="IR3" s="32"/>
+      <c r="IS3" s="32"/>
+      <c r="IT3" s="32"/>
+      <c r="IU3" s="32"/>
+      <c r="IV3" s="32"/>
+      <c r="IW3" s="32"/>
+      <c r="IX3" s="32"/>
+      <c r="IY3" s="32"/>
+      <c r="IZ3" s="32"/>
+      <c r="JA3" s="32"/>
+      <c r="JB3" s="32"/>
+      <c r="JC3" s="32"/>
+      <c r="JD3" s="32"/>
+      <c r="JE3" s="32"/>
+      <c r="JF3" s="32"/>
+      <c r="JG3" s="32"/>
+      <c r="JH3" s="32"/>
+      <c r="JI3" s="32"/>
+      <c r="JJ3" s="32"/>
+      <c r="JK3" s="32"/>
+      <c r="JL3" s="32"/>
+      <c r="JM3" s="32"/>
+      <c r="JN3" s="32"/>
+      <c r="JO3" s="32"/>
+      <c r="JP3" s="32"/>
+      <c r="JQ3" s="32"/>
+      <c r="JR3" s="32"/>
+      <c r="JS3" s="32"/>
+      <c r="JT3" s="32"/>
+      <c r="JU3" s="32"/>
+      <c r="JV3" s="32"/>
+      <c r="JW3" s="32"/>
+      <c r="JX3" s="32"/>
+      <c r="JY3" s="32"/>
+      <c r="JZ3" s="32"/>
+      <c r="KA3" s="32"/>
+      <c r="KB3" s="32"/>
+      <c r="KC3" s="32"/>
+      <c r="KD3" s="32"/>
+      <c r="KE3" s="32"/>
+      <c r="KF3" s="32"/>
+      <c r="KG3" s="32"/>
+      <c r="KH3" s="32"/>
+      <c r="KI3" s="32"/>
+      <c r="KJ3" s="32"/>
+      <c r="KK3" s="32"/>
+      <c r="KL3" s="32"/>
+      <c r="KM3" s="32"/>
+      <c r="KN3" s="32"/>
+      <c r="KO3" s="32"/>
+      <c r="KP3" s="32"/>
+      <c r="KQ3" s="32"/>
+      <c r="KR3" s="32"/>
+      <c r="KS3" s="32"/>
+      <c r="KT3" s="32"/>
+      <c r="KU3" s="32"/>
+      <c r="KV3" s="32"/>
+      <c r="KW3" s="32"/>
+      <c r="KX3" s="32"/>
+      <c r="KY3" s="34"/>
+      <c r="KZ3" s="34"/>
+      <c r="LA3" s="32"/>
+      <c r="LB3" s="32"/>
+      <c r="LC3" s="32"/>
+      <c r="LD3" s="32"/>
+      <c r="LE3" s="32"/>
+      <c r="LF3" s="32"/>
+      <c r="LG3" s="32"/>
+      <c r="LH3" s="32"/>
+      <c r="LI3" s="32"/>
+      <c r="LJ3" s="32"/>
+      <c r="LK3" s="32"/>
+      <c r="LL3" s="32"/>
+      <c r="LM3" s="32"/>
+      <c r="LN3" s="32"/>
+      <c r="LO3" s="32"/>
+      <c r="LP3" s="32"/>
+      <c r="LQ3" s="32"/>
+      <c r="LR3" s="32"/>
+      <c r="LS3" s="32"/>
+      <c r="LT3" s="32"/>
+      <c r="LU3" s="32"/>
+      <c r="LV3" s="32"/>
+      <c r="LW3" s="32"/>
+      <c r="LX3" s="32"/>
+      <c r="LY3" s="32"/>
+      <c r="LZ3" s="32"/>
+      <c r="MA3" s="32"/>
+      <c r="MB3" s="32"/>
+      <c r="MC3" s="32"/>
+      <c r="MD3" s="32"/>
+      <c r="ME3" s="32"/>
+      <c r="MF3" s="32"/>
+      <c r="MG3" s="32"/>
+      <c r="MH3" s="32"/>
+      <c r="MI3" s="32"/>
+      <c r="MJ3" s="32"/>
+      <c r="MK3" s="32"/>
+      <c r="ML3" s="32"/>
+      <c r="MM3" s="32"/>
+      <c r="MN3" s="32"/>
+      <c r="MO3" s="32"/>
+      <c r="MP3" s="32"/>
+      <c r="MQ3" s="32"/>
+      <c r="MR3" s="32"/>
+      <c r="MS3" s="32"/>
+      <c r="MT3" s="32"/>
+      <c r="MU3" s="32"/>
+      <c r="MV3" s="32"/>
+      <c r="MW3" s="32"/>
+      <c r="MX3" s="32"/>
+      <c r="MY3" s="32"/>
+      <c r="MZ3" s="32"/>
+      <c r="NA3" s="32"/>
+      <c r="NB3" s="32"/>
+      <c r="NC3" s="32"/>
+      <c r="ND3" s="32"/>
+      <c r="NE3" s="32"/>
+      <c r="NF3" s="32"/>
+      <c r="NG3" s="32"/>
+      <c r="NH3" s="32"/>
+      <c r="NI3" s="32"/>
+      <c r="NJ3" s="32"/>
+      <c r="NK3" s="32"/>
+      <c r="NL3" s="32"/>
+      <c r="NM3" s="32"/>
+      <c r="NN3" s="32"/>
+      <c r="NO3" s="32"/>
+      <c r="NP3" s="32"/>
+      <c r="NQ3" s="32"/>
+      <c r="NR3" s="32"/>
+      <c r="NS3" s="32"/>
+      <c r="NT3" s="32"/>
+      <c r="NU3" s="32"/>
+      <c r="NV3" s="32"/>
+      <c r="NW3" s="32"/>
+      <c r="NX3" s="32"/>
+      <c r="NY3" s="32"/>
+      <c r="NZ3" s="32"/>
+      <c r="OA3" s="32"/>
+      <c r="OB3" s="34"/>
+      <c r="OC3" s="34"/>
+      <c r="OD3" s="32"/>
+      <c r="OE3" s="32"/>
+      <c r="OF3" s="32"/>
+      <c r="OG3" s="32"/>
+      <c r="OH3" s="32"/>
+      <c r="OI3" s="32"/>
+      <c r="OJ3" s="32"/>
+      <c r="OK3" s="32"/>
+      <c r="OL3" s="32"/>
+      <c r="OM3" s="32"/>
+      <c r="ON3" s="32"/>
+      <c r="OO3" s="32"/>
+      <c r="OP3" s="32"/>
+      <c r="OQ3" s="32"/>
+      <c r="OR3" s="32"/>
+      <c r="OS3" s="32"/>
+      <c r="OT3" s="32"/>
+      <c r="OU3" s="32"/>
+      <c r="OV3" s="32"/>
+      <c r="OW3" s="32"/>
+      <c r="OX3" s="32"/>
+      <c r="OY3" s="32"/>
+      <c r="OZ3" s="32"/>
+      <c r="PA3" s="32"/>
+      <c r="PB3" s="32"/>
+      <c r="PC3" s="32"/>
+      <c r="PD3" s="32"/>
+      <c r="PE3" s="32"/>
+      <c r="PF3" s="32"/>
+      <c r="PG3" s="32"/>
+      <c r="PH3" s="32"/>
+      <c r="PI3" s="32"/>
+      <c r="PJ3" s="32"/>
+      <c r="PK3" s="32"/>
+      <c r="PL3" s="32"/>
+      <c r="PM3" s="32"/>
+      <c r="PN3" s="32"/>
+      <c r="PO3" s="32"/>
+      <c r="PP3" s="32"/>
+      <c r="PQ3" s="32"/>
+      <c r="PR3" s="32"/>
+      <c r="PS3" s="34"/>
+      <c r="PT3" s="34"/>
+      <c r="PU3" s="32"/>
+      <c r="PV3" s="32"/>
+      <c r="PW3" s="32"/>
+      <c r="PX3" s="32"/>
+      <c r="PY3" s="32"/>
+      <c r="PZ3" s="32"/>
+      <c r="QA3" s="32"/>
+      <c r="QB3" s="32"/>
+      <c r="QC3" s="32"/>
+      <c r="QD3" s="32"/>
+      <c r="QE3" s="32"/>
+      <c r="QF3" s="32"/>
+      <c r="QG3" s="32"/>
+      <c r="QH3" s="32"/>
+      <c r="QI3" s="32"/>
+      <c r="QJ3" s="32"/>
+      <c r="QK3" s="32"/>
+      <c r="QL3" s="32"/>
+      <c r="QM3" s="32"/>
+      <c r="QN3" s="32"/>
+      <c r="QO3" s="32"/>
+      <c r="QP3" s="32"/>
+      <c r="QQ3" s="32"/>
+      <c r="QR3" s="32"/>
+      <c r="QS3" s="32"/>
+      <c r="QT3" s="32"/>
+      <c r="QU3" s="34"/>
+      <c r="QV3" s="34"/>
+      <c r="QW3" s="32"/>
+      <c r="QX3" s="32"/>
+      <c r="QY3" s="32"/>
+      <c r="QZ3" s="32"/>
+      <c r="RA3" s="32"/>
+      <c r="RB3" s="32"/>
+      <c r="RC3" s="32"/>
+      <c r="RD3" s="32"/>
+      <c r="RE3" s="32"/>
+      <c r="RF3" s="32"/>
+      <c r="RG3" s="32"/>
+      <c r="RH3" s="32"/>
+      <c r="RI3" s="32"/>
+      <c r="RJ3" s="32"/>
+      <c r="RK3" s="32"/>
+      <c r="RL3" s="32"/>
+      <c r="RM3" s="32"/>
+      <c r="RN3" s="32"/>
+      <c r="RO3" s="32"/>
+      <c r="RP3" s="32"/>
+      <c r="RQ3" s="32"/>
+      <c r="RR3" s="32"/>
+      <c r="RS3" s="32"/>
+      <c r="RT3" s="32"/>
+      <c r="RU3" s="32"/>
+      <c r="RV3" s="32"/>
+      <c r="RW3" s="32"/>
+      <c r="RX3" s="32"/>
+      <c r="RY3" s="32"/>
+      <c r="RZ3" s="32"/>
+      <c r="SA3" s="35"/>
+      <c r="SB3" s="35"/>
+      <c r="SC3" s="35"/>
+      <c r="SD3" s="35"/>
+      <c r="SE3" s="35"/>
+      <c r="SF3" s="35"/>
+      <c r="SG3" s="35"/>
+      <c r="SH3" s="35"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="24"/>
-      <c r="AW4" s="24"/>
-      <c r="AX4" s="24"/>
-      <c r="AY4" s="24"/>
-      <c r="AZ4" s="24"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24"/>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="24"/>
-      <c r="BJ4" s="24"/>
-      <c r="BK4" s="24"/>
-      <c r="BL4" s="24"/>
-      <c r="BM4" s="24"/>
-      <c r="BN4" s="24"/>
-      <c r="BO4" s="24"/>
-      <c r="BP4" s="24"/>
-      <c r="BQ4" s="24"/>
-      <c r="BR4" s="24"/>
-      <c r="BS4" s="28"/>
-      <c r="BT4" s="24"/>
-      <c r="BU4" s="24"/>
-      <c r="BV4" s="24"/>
-      <c r="BW4" s="24"/>
-      <c r="BX4" s="24"/>
-      <c r="BY4" s="24"/>
-      <c r="BZ4" s="24"/>
-      <c r="CA4" s="24"/>
-      <c r="CB4" s="24"/>
-      <c r="CC4" s="24"/>
-      <c r="CD4" s="24"/>
-      <c r="CE4" s="24"/>
-      <c r="CF4" s="24"/>
-      <c r="CG4" s="24"/>
-      <c r="CH4" s="24"/>
-      <c r="CI4" s="24"/>
-      <c r="CJ4" s="24"/>
-      <c r="CK4" s="24"/>
-      <c r="CL4" s="24"/>
-      <c r="CM4" s="24"/>
-      <c r="CN4" s="24"/>
-      <c r="CO4" s="24"/>
-      <c r="CP4" s="24"/>
-      <c r="CQ4" s="24"/>
-      <c r="CR4" s="24"/>
-      <c r="CS4" s="24"/>
-      <c r="CT4" s="24"/>
-      <c r="CU4" s="24"/>
-      <c r="CV4" s="24"/>
-      <c r="CW4" s="24"/>
-      <c r="CX4" s="24"/>
-      <c r="CY4" s="24"/>
-      <c r="CZ4" s="24"/>
-      <c r="DA4" s="24"/>
-      <c r="DB4" s="24"/>
-      <c r="DC4" s="24"/>
-      <c r="DD4" s="24"/>
-      <c r="DE4" s="24"/>
-      <c r="DF4" s="24"/>
-      <c r="DG4" s="24"/>
-      <c r="DH4" s="24"/>
-      <c r="DI4" s="24"/>
-      <c r="DJ4" s="24"/>
-      <c r="DK4" s="24"/>
-      <c r="DL4" s="24"/>
-      <c r="DM4" s="24"/>
-      <c r="DN4" s="24"/>
-      <c r="DO4" s="24"/>
-      <c r="DP4" s="24"/>
-      <c r="DQ4" s="24"/>
-      <c r="DR4" s="24"/>
-      <c r="DS4" s="24"/>
-      <c r="DT4" s="24"/>
-      <c r="DU4" s="24"/>
-      <c r="DV4" s="24"/>
-      <c r="DW4" s="24"/>
-      <c r="DX4" s="24"/>
-      <c r="DY4" s="24"/>
-      <c r="DZ4" s="24"/>
-      <c r="EA4" s="24"/>
-      <c r="EB4" s="24"/>
-      <c r="EC4" s="24"/>
-      <c r="ED4" s="24"/>
-      <c r="EE4" s="24"/>
-      <c r="EF4" s="24"/>
-      <c r="EG4" s="24"/>
-      <c r="EH4" s="24"/>
-      <c r="EI4" s="24"/>
-      <c r="EJ4" s="24"/>
-      <c r="EK4" s="24"/>
-      <c r="EL4" s="24"/>
-      <c r="EM4" s="24"/>
-      <c r="EN4" s="24"/>
-      <c r="EO4" s="24"/>
-      <c r="EP4" s="24"/>
-      <c r="EQ4" s="24"/>
-      <c r="ER4" s="24"/>
-      <c r="ES4" s="24"/>
-      <c r="ET4" s="24"/>
-      <c r="EU4" s="24"/>
-      <c r="EV4" s="24"/>
-      <c r="EW4" s="24"/>
-      <c r="EX4" s="24"/>
-      <c r="EY4" s="24"/>
-      <c r="EZ4" s="24"/>
-      <c r="FA4" s="24"/>
-      <c r="FB4" s="24"/>
-      <c r="FC4" s="24"/>
-      <c r="FD4" s="24"/>
-      <c r="FE4" s="24"/>
-      <c r="FF4" s="24"/>
-      <c r="FG4" s="24"/>
-      <c r="FH4" s="24"/>
-      <c r="FI4" s="24"/>
-      <c r="FJ4" s="24"/>
-      <c r="FK4" s="28"/>
-      <c r="FL4" s="24"/>
-      <c r="FM4" s="24"/>
-      <c r="FN4" s="24"/>
-      <c r="FO4" s="24"/>
-      <c r="FP4" s="24"/>
-      <c r="FQ4" s="24"/>
-      <c r="FR4" s="24"/>
-      <c r="FS4" s="25"/>
-      <c r="FT4" s="24"/>
-      <c r="FU4" s="24"/>
-      <c r="FV4" s="24"/>
-      <c r="FW4" s="24"/>
-      <c r="FX4" s="24"/>
-      <c r="FY4" s="24"/>
-      <c r="FZ4" s="24"/>
-      <c r="GA4" s="24"/>
-      <c r="GB4" s="24"/>
-      <c r="GC4" s="24"/>
-      <c r="GD4" s="24"/>
-      <c r="GE4" s="24"/>
-      <c r="GF4" s="29"/>
-      <c r="GG4" s="24"/>
-      <c r="GH4" s="24"/>
-      <c r="GI4" s="24"/>
-      <c r="GJ4" s="24"/>
-      <c r="GK4" s="24"/>
-      <c r="GL4" s="24"/>
-      <c r="GM4" s="24"/>
-      <c r="GN4" s="24"/>
-      <c r="GO4" s="24"/>
-      <c r="GP4" s="24"/>
-      <c r="GQ4" s="24"/>
-      <c r="GR4" s="24"/>
-      <c r="GS4" s="24"/>
-      <c r="GT4" s="24"/>
-      <c r="GU4" s="24"/>
-      <c r="GV4" s="24"/>
-      <c r="GW4" s="24"/>
-      <c r="GX4" s="24"/>
-      <c r="GY4" s="24"/>
-      <c r="GZ4" s="24"/>
-      <c r="HA4" s="24"/>
-      <c r="HB4" s="24"/>
-      <c r="HC4" s="24"/>
-      <c r="HD4" s="24"/>
-      <c r="HE4" s="24"/>
-      <c r="HF4" s="24"/>
-      <c r="HG4" s="24"/>
-      <c r="HH4" s="24"/>
-      <c r="HI4" s="24"/>
-      <c r="HJ4" s="24"/>
-      <c r="HK4" s="24"/>
-      <c r="HL4" s="24"/>
-      <c r="HM4" s="24"/>
-      <c r="HN4" s="24"/>
-      <c r="HO4" s="24"/>
-      <c r="HP4" s="24"/>
-      <c r="HQ4" s="24"/>
-      <c r="HR4" s="24"/>
-      <c r="HS4" s="24"/>
-      <c r="HT4" s="24"/>
-      <c r="HU4" s="24"/>
-      <c r="HV4" s="24"/>
-      <c r="HW4" s="24"/>
-      <c r="HX4" s="24"/>
-      <c r="HY4" s="24"/>
-      <c r="HZ4" s="24"/>
-      <c r="IA4" s="24"/>
-      <c r="IB4" s="24"/>
-      <c r="IC4" s="24"/>
-      <c r="ID4" s="24"/>
-      <c r="IE4" s="25"/>
-      <c r="IF4" s="24"/>
-      <c r="IG4" s="24"/>
-      <c r="IH4" s="24"/>
-      <c r="II4" s="24"/>
-      <c r="IJ4" s="24"/>
-      <c r="IK4" s="24"/>
-      <c r="IL4" s="24"/>
-      <c r="IM4" s="24"/>
-      <c r="IN4" s="24"/>
-      <c r="IO4" s="24"/>
-      <c r="IP4" s="24"/>
-      <c r="IQ4" s="24"/>
-      <c r="IR4" s="24"/>
-      <c r="IS4" s="24"/>
-      <c r="IT4" s="24"/>
-      <c r="IU4" s="24"/>
-      <c r="IV4" s="24"/>
-      <c r="IW4" s="24"/>
-      <c r="IX4" s="24"/>
-      <c r="IY4" s="24"/>
-      <c r="IZ4" s="24"/>
-      <c r="JA4" s="24"/>
-      <c r="JB4" s="28"/>
-      <c r="JC4" s="24"/>
-      <c r="JD4" s="24"/>
-      <c r="JE4" s="24"/>
-      <c r="JF4" s="24"/>
-      <c r="JG4" s="24"/>
-      <c r="JH4" s="24"/>
-      <c r="JI4" s="24"/>
-      <c r="JJ4" s="24"/>
-      <c r="JK4" s="24"/>
-      <c r="JL4" s="24"/>
-      <c r="JM4" s="24"/>
-      <c r="JN4" s="24"/>
-      <c r="JO4" s="24"/>
-      <c r="JP4" s="24"/>
-      <c r="JQ4" s="24"/>
-      <c r="JR4" s="24"/>
-      <c r="JS4" s="24"/>
-      <c r="JT4" s="24"/>
-      <c r="JU4" s="24"/>
-      <c r="JV4" s="24"/>
-      <c r="JW4" s="24"/>
-      <c r="JX4" s="24"/>
-      <c r="JY4" s="24"/>
-      <c r="JZ4" s="24"/>
-      <c r="KA4" s="24"/>
-      <c r="KB4" s="24"/>
-      <c r="KC4" s="24"/>
-      <c r="KD4" s="24"/>
-      <c r="KE4" s="24"/>
-      <c r="KF4" s="24"/>
-      <c r="KG4" s="24"/>
-      <c r="KH4" s="24"/>
-      <c r="KI4" s="24"/>
-      <c r="KJ4" s="24"/>
-      <c r="KK4" s="24"/>
-      <c r="KL4" s="24"/>
-      <c r="KM4" s="25"/>
-      <c r="KN4" s="24"/>
-      <c r="KO4" s="24"/>
-      <c r="KP4" s="24"/>
-      <c r="KQ4" s="24"/>
-      <c r="KR4" s="24"/>
-      <c r="KS4" s="24"/>
-      <c r="KT4" s="24"/>
-      <c r="KU4" s="24"/>
-      <c r="KV4" s="24"/>
-      <c r="KW4" s="24"/>
-      <c r="KX4" s="24"/>
-      <c r="KY4" s="24"/>
-      <c r="KZ4" s="24"/>
-      <c r="LA4" s="24"/>
-      <c r="LB4" s="24"/>
-      <c r="LC4" s="24"/>
-      <c r="LD4" s="24"/>
-      <c r="LE4" s="24"/>
-      <c r="LF4" s="24"/>
-      <c r="LG4" s="24"/>
-      <c r="LH4" s="24"/>
-      <c r="LI4" s="24"/>
-      <c r="LJ4" s="24"/>
-      <c r="LK4" s="24"/>
-      <c r="LL4" s="24"/>
-      <c r="LM4" s="24"/>
-      <c r="LN4" s="24"/>
-      <c r="LO4" s="24"/>
-      <c r="LP4" s="24"/>
-      <c r="LQ4" s="24"/>
-      <c r="LR4" s="24"/>
-      <c r="LS4" s="24"/>
-      <c r="LT4" s="24"/>
-      <c r="LU4" s="24"/>
-      <c r="LV4" s="24"/>
-      <c r="LW4" s="24"/>
-      <c r="LX4" s="24"/>
-      <c r="LY4" s="24"/>
-      <c r="LZ4" s="24"/>
-      <c r="MA4" s="25"/>
-      <c r="MB4" s="24"/>
-      <c r="MC4" s="24"/>
-      <c r="MD4" s="24"/>
-      <c r="ME4" s="24"/>
-      <c r="MF4" s="24"/>
-      <c r="MG4" s="24"/>
-      <c r="MH4" s="24"/>
-      <c r="MI4" s="24"/>
-      <c r="MJ4" s="24"/>
-      <c r="MK4" s="24"/>
-      <c r="ML4" s="24"/>
-      <c r="MM4" s="24"/>
-      <c r="MN4" s="24"/>
-      <c r="MO4" s="24"/>
-      <c r="MP4" s="24"/>
-      <c r="MQ4" s="25"/>
-      <c r="MR4" s="24"/>
-      <c r="MS4" s="24"/>
-      <c r="MT4" s="24"/>
-      <c r="MU4" s="24"/>
-      <c r="MV4" s="24"/>
-      <c r="MW4" s="24"/>
-      <c r="MX4" s="24"/>
-      <c r="MY4" s="24"/>
-      <c r="MZ4" s="24"/>
-      <c r="NA4" s="24"/>
-      <c r="NB4" s="24"/>
-      <c r="NC4" s="24"/>
-      <c r="ND4" s="24"/>
-      <c r="NE4" s="24"/>
-      <c r="NF4" s="24"/>
-      <c r="NG4" s="24"/>
-      <c r="NH4" s="24"/>
-      <c r="NI4" s="24"/>
-      <c r="NJ4" s="24"/>
-      <c r="NK4" s="24"/>
-      <c r="NL4" s="24"/>
-      <c r="NM4" s="25"/>
-      <c r="NN4" s="24"/>
-      <c r="NO4" s="24"/>
-      <c r="NP4" s="24"/>
-      <c r="NQ4" s="24"/>
-      <c r="NR4" s="24"/>
-      <c r="NS4" s="24"/>
-      <c r="NT4" s="24"/>
-      <c r="NU4" s="24"/>
-      <c r="NV4" s="24"/>
-      <c r="NW4" s="24"/>
-      <c r="NX4" s="24"/>
-      <c r="NY4" s="24"/>
-      <c r="NZ4" s="24"/>
-      <c r="OA4" s="24"/>
-      <c r="OB4" s="24"/>
-      <c r="OC4" s="24"/>
-      <c r="OD4" s="24"/>
-      <c r="OE4" s="24"/>
-      <c r="OF4" s="24"/>
-      <c r="OG4" s="24"/>
-      <c r="OH4" s="24"/>
-      <c r="OI4" s="24"/>
-      <c r="OJ4" s="24"/>
-      <c r="OK4" s="26"/>
-      <c r="OL4" s="24"/>
-      <c r="OM4" s="24"/>
-      <c r="ON4" s="24"/>
-      <c r="OO4" s="24"/>
-      <c r="OP4" s="24"/>
-      <c r="OQ4" s="24"/>
-      <c r="OR4" s="24"/>
-      <c r="OS4" s="24"/>
-      <c r="OT4" s="24"/>
-      <c r="OU4" s="24"/>
-      <c r="OV4" s="24"/>
-      <c r="OW4" s="24"/>
-      <c r="OX4" s="24"/>
-      <c r="OY4" s="24"/>
-      <c r="OZ4" s="24"/>
-      <c r="PA4" s="24"/>
-      <c r="PB4" s="26"/>
-      <c r="PC4" s="24"/>
-      <c r="PD4" s="24"/>
-      <c r="PE4" s="24"/>
-      <c r="PF4" s="24"/>
-      <c r="PG4" s="24"/>
-      <c r="PH4" s="24"/>
-      <c r="PI4" s="24"/>
-      <c r="PJ4" s="24"/>
-      <c r="PK4" s="24"/>
-      <c r="PL4" s="24"/>
-      <c r="PM4" s="24"/>
-      <c r="PN4" s="24"/>
-      <c r="PO4" s="24"/>
-      <c r="PP4" s="24"/>
-      <c r="PQ4" s="24"/>
-      <c r="PR4" s="24"/>
-      <c r="PS4" s="24"/>
-      <c r="PT4" s="24"/>
-      <c r="PU4" s="24"/>
-      <c r="PV4" s="24"/>
-      <c r="PW4" s="24"/>
-      <c r="PX4" s="24"/>
-      <c r="PY4" s="24"/>
-      <c r="PZ4" s="24"/>
-      <c r="QA4" s="24"/>
-      <c r="QB4" s="24"/>
-      <c r="QC4" s="26"/>
-      <c r="QD4" s="24"/>
-      <c r="QE4" s="24"/>
-      <c r="QF4" s="24"/>
-      <c r="QG4" s="24"/>
-      <c r="QH4" s="24"/>
-      <c r="QI4" s="24"/>
-      <c r="QJ4" s="24"/>
-      <c r="QK4" s="24"/>
-      <c r="QL4" s="24"/>
-      <c r="QM4" s="24"/>
-      <c r="QN4" s="24"/>
-      <c r="QO4" s="24"/>
-      <c r="QP4" s="26"/>
-      <c r="QQ4" s="25"/>
-      <c r="QR4" s="25"/>
-      <c r="QS4" s="25"/>
-      <c r="QT4" s="25"/>
-      <c r="QU4" s="25"/>
-      <c r="QV4" s="25"/>
-      <c r="QW4" s="25"/>
-      <c r="QX4" s="25"/>
-      <c r="QY4" s="25"/>
-      <c r="QZ4" s="25"/>
-      <c r="RA4" s="25"/>
-      <c r="RB4" s="25"/>
-      <c r="RC4" s="25"/>
-      <c r="RD4" s="25"/>
-      <c r="RE4" s="25"/>
-      <c r="RF4" s="25"/>
-      <c r="RG4" s="26"/>
-      <c r="RH4" s="25"/>
-      <c r="RI4" s="25"/>
-      <c r="RJ4" s="25"/>
-      <c r="RK4" s="25"/>
-      <c r="RL4" s="25"/>
-      <c r="RM4" s="25"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="32"/>
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32"/>
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="32"/>
+      <c r="CK4" s="32"/>
+      <c r="CL4" s="32"/>
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
+      <c r="CZ4" s="32"/>
+      <c r="DA4" s="32"/>
+      <c r="DB4" s="32"/>
+      <c r="DC4" s="32"/>
+      <c r="DD4" s="32"/>
+      <c r="DE4" s="32"/>
+      <c r="DF4" s="32"/>
+      <c r="DG4" s="32"/>
+      <c r="DH4" s="32"/>
+      <c r="DI4" s="32"/>
+      <c r="DJ4" s="32"/>
+      <c r="DK4" s="32"/>
+      <c r="DL4" s="32"/>
+      <c r="DM4" s="32"/>
+      <c r="DN4" s="32"/>
+      <c r="DO4" s="32"/>
+      <c r="DP4" s="32"/>
+      <c r="DQ4" s="32"/>
+      <c r="DR4" s="32"/>
+      <c r="DS4" s="32"/>
+      <c r="DT4" s="32"/>
+      <c r="DU4" s="32"/>
+      <c r="DV4" s="32"/>
+      <c r="DW4" s="32"/>
+      <c r="DX4" s="32"/>
+      <c r="DY4" s="32"/>
+      <c r="DZ4" s="32"/>
+      <c r="EA4" s="32"/>
+      <c r="EB4" s="32"/>
+      <c r="EC4" s="32"/>
+      <c r="ED4" s="32"/>
+      <c r="EE4" s="32"/>
+      <c r="EF4" s="32"/>
+      <c r="EG4" s="32"/>
+      <c r="EH4" s="32"/>
+      <c r="EI4" s="32"/>
+      <c r="EJ4" s="32"/>
+      <c r="EK4" s="32"/>
+      <c r="EL4" s="32"/>
+      <c r="EM4" s="32"/>
+      <c r="EN4" s="32"/>
+      <c r="EO4" s="32"/>
+      <c r="EP4" s="32"/>
+      <c r="EQ4" s="32"/>
+      <c r="ER4" s="32"/>
+      <c r="ES4" s="32"/>
+      <c r="ET4" s="32"/>
+      <c r="EU4" s="32"/>
+      <c r="EV4" s="32"/>
+      <c r="EW4" s="32"/>
+      <c r="EX4" s="32"/>
+      <c r="EY4" s="32"/>
+      <c r="EZ4" s="32"/>
+      <c r="FA4" s="32"/>
+      <c r="FB4" s="32"/>
+      <c r="FC4" s="32"/>
+      <c r="FD4" s="32"/>
+      <c r="FE4" s="32"/>
+      <c r="FF4" s="32"/>
+      <c r="FG4" s="32"/>
+      <c r="FH4" s="32"/>
+      <c r="FI4" s="32"/>
+      <c r="FJ4" s="32"/>
+      <c r="FK4" s="32"/>
+      <c r="FL4" s="32"/>
+      <c r="FM4" s="32"/>
+      <c r="FN4" s="32"/>
+      <c r="FO4" s="32"/>
+      <c r="FP4" s="32"/>
+      <c r="FQ4" s="35"/>
+      <c r="FR4" s="35"/>
+      <c r="FS4" s="32"/>
+      <c r="FT4" s="32"/>
+      <c r="FU4" s="32"/>
+      <c r="FV4" s="32"/>
+      <c r="FW4" s="32"/>
+      <c r="FX4" s="32"/>
+      <c r="FY4" s="32"/>
+      <c r="FZ4" s="34"/>
+      <c r="GA4" s="34"/>
+      <c r="GB4" s="32"/>
+      <c r="GC4" s="32"/>
+      <c r="GD4" s="32"/>
+      <c r="GE4" s="32"/>
+      <c r="GF4" s="32"/>
+      <c r="GG4" s="32"/>
+      <c r="GH4" s="32"/>
+      <c r="GI4" s="32"/>
+      <c r="GJ4" s="32"/>
+      <c r="GK4" s="32"/>
+      <c r="GL4" s="32"/>
+      <c r="GM4" s="32"/>
+      <c r="GN4" s="37"/>
+      <c r="GO4" s="37"/>
+      <c r="GP4" s="32"/>
+      <c r="GQ4" s="32"/>
+      <c r="GR4" s="32"/>
+      <c r="GS4" s="32"/>
+      <c r="GT4" s="32"/>
+      <c r="GU4" s="32"/>
+      <c r="GV4" s="32"/>
+      <c r="GW4" s="32"/>
+      <c r="GX4" s="32"/>
+      <c r="GY4" s="32"/>
+      <c r="GZ4" s="32"/>
+      <c r="HA4" s="32"/>
+      <c r="HB4" s="32"/>
+      <c r="HC4" s="32"/>
+      <c r="HD4" s="32"/>
+      <c r="HE4" s="32"/>
+      <c r="HF4" s="32"/>
+      <c r="HG4" s="32"/>
+      <c r="HH4" s="32"/>
+      <c r="HI4" s="32"/>
+      <c r="HJ4" s="32"/>
+      <c r="HK4" s="32"/>
+      <c r="HL4" s="32"/>
+      <c r="HM4" s="32"/>
+      <c r="HN4" s="32"/>
+      <c r="HO4" s="32"/>
+      <c r="HP4" s="32"/>
+      <c r="HQ4" s="32"/>
+      <c r="HR4" s="32"/>
+      <c r="HS4" s="32"/>
+      <c r="HT4" s="32"/>
+      <c r="HU4" s="32"/>
+      <c r="HV4" s="32"/>
+      <c r="HW4" s="32"/>
+      <c r="HX4" s="32"/>
+      <c r="HY4" s="32"/>
+      <c r="HZ4" s="32"/>
+      <c r="IA4" s="32"/>
+      <c r="IB4" s="32"/>
+      <c r="IC4" s="32"/>
+      <c r="ID4" s="32"/>
+      <c r="IE4" s="32"/>
+      <c r="IF4" s="32"/>
+      <c r="IG4" s="32"/>
+      <c r="IH4" s="32"/>
+      <c r="II4" s="32"/>
+      <c r="IJ4" s="32"/>
+      <c r="IK4" s="32"/>
+      <c r="IL4" s="32"/>
+      <c r="IM4" s="32"/>
+      <c r="IN4" s="34"/>
+      <c r="IO4" s="34"/>
+      <c r="IP4" s="32"/>
+      <c r="IQ4" s="32"/>
+      <c r="IR4" s="32"/>
+      <c r="IS4" s="32"/>
+      <c r="IT4" s="32"/>
+      <c r="IU4" s="32"/>
+      <c r="IV4" s="32"/>
+      <c r="IW4" s="32"/>
+      <c r="IX4" s="32"/>
+      <c r="IY4" s="32"/>
+      <c r="IZ4" s="32"/>
+      <c r="JA4" s="32"/>
+      <c r="JB4" s="32"/>
+      <c r="JC4" s="32"/>
+      <c r="JD4" s="32"/>
+      <c r="JE4" s="32"/>
+      <c r="JF4" s="32"/>
+      <c r="JG4" s="32"/>
+      <c r="JH4" s="32"/>
+      <c r="JI4" s="32"/>
+      <c r="JJ4" s="32"/>
+      <c r="JK4" s="32"/>
+      <c r="JL4" s="35"/>
+      <c r="JM4" s="35"/>
+      <c r="JN4" s="32"/>
+      <c r="JO4" s="32"/>
+      <c r="JP4" s="32"/>
+      <c r="JQ4" s="32"/>
+      <c r="JR4" s="32"/>
+      <c r="JS4" s="32"/>
+      <c r="JT4" s="32"/>
+      <c r="JU4" s="32"/>
+      <c r="JV4" s="32"/>
+      <c r="JW4" s="32"/>
+      <c r="JX4" s="32"/>
+      <c r="JY4" s="32"/>
+      <c r="JZ4" s="32"/>
+      <c r="KA4" s="32"/>
+      <c r="KB4" s="32"/>
+      <c r="KC4" s="32"/>
+      <c r="KD4" s="32"/>
+      <c r="KE4" s="32"/>
+      <c r="KF4" s="32"/>
+      <c r="KG4" s="32"/>
+      <c r="KH4" s="32"/>
+      <c r="KI4" s="32"/>
+      <c r="KJ4" s="32"/>
+      <c r="KK4" s="32"/>
+      <c r="KL4" s="32"/>
+      <c r="KM4" s="32"/>
+      <c r="KN4" s="32"/>
+      <c r="KO4" s="32"/>
+      <c r="KP4" s="32"/>
+      <c r="KQ4" s="32"/>
+      <c r="KR4" s="32"/>
+      <c r="KS4" s="32"/>
+      <c r="KT4" s="32"/>
+      <c r="KU4" s="32"/>
+      <c r="KV4" s="32"/>
+      <c r="KW4" s="32"/>
+      <c r="KX4" s="32"/>
+      <c r="KY4" s="34"/>
+      <c r="KZ4" s="34"/>
+      <c r="LA4" s="32"/>
+      <c r="LB4" s="32"/>
+      <c r="LC4" s="32"/>
+      <c r="LD4" s="32"/>
+      <c r="LE4" s="32"/>
+      <c r="LF4" s="32"/>
+      <c r="LG4" s="32"/>
+      <c r="LH4" s="32"/>
+      <c r="LI4" s="32"/>
+      <c r="LJ4" s="32"/>
+      <c r="LK4" s="32"/>
+      <c r="LL4" s="32"/>
+      <c r="LM4" s="32"/>
+      <c r="LN4" s="32"/>
+      <c r="LO4" s="32"/>
+      <c r="LP4" s="32"/>
+      <c r="LQ4" s="32"/>
+      <c r="LR4" s="32"/>
+      <c r="LS4" s="32"/>
+      <c r="LT4" s="32"/>
+      <c r="LU4" s="32"/>
+      <c r="LV4" s="32"/>
+      <c r="LW4" s="32"/>
+      <c r="LX4" s="32"/>
+      <c r="LY4" s="32"/>
+      <c r="LZ4" s="32"/>
+      <c r="MA4" s="32"/>
+      <c r="MB4" s="32"/>
+      <c r="MC4" s="32"/>
+      <c r="MD4" s="32"/>
+      <c r="ME4" s="32"/>
+      <c r="MF4" s="32"/>
+      <c r="MG4" s="32"/>
+      <c r="MH4" s="32"/>
+      <c r="MI4" s="32"/>
+      <c r="MJ4" s="32"/>
+      <c r="MK4" s="32"/>
+      <c r="ML4" s="32"/>
+      <c r="MM4" s="32"/>
+      <c r="MN4" s="34"/>
+      <c r="MO4" s="34"/>
+      <c r="MP4" s="32"/>
+      <c r="MQ4" s="32"/>
+      <c r="MR4" s="32"/>
+      <c r="MS4" s="32"/>
+      <c r="MT4" s="32"/>
+      <c r="MU4" s="32"/>
+      <c r="MV4" s="32"/>
+      <c r="MW4" s="32"/>
+      <c r="MX4" s="32"/>
+      <c r="MY4" s="32"/>
+      <c r="MZ4" s="32"/>
+      <c r="NA4" s="32"/>
+      <c r="NB4" s="32"/>
+      <c r="NC4" s="32"/>
+      <c r="ND4" s="32"/>
+      <c r="NE4" s="34"/>
+      <c r="NF4" s="34"/>
+      <c r="NG4" s="32"/>
+      <c r="NH4" s="32"/>
+      <c r="NI4" s="32"/>
+      <c r="NJ4" s="32"/>
+      <c r="NK4" s="32"/>
+      <c r="NL4" s="32"/>
+      <c r="NM4" s="32"/>
+      <c r="NN4" s="32"/>
+      <c r="NO4" s="32"/>
+      <c r="NP4" s="32"/>
+      <c r="NQ4" s="32"/>
+      <c r="NR4" s="32"/>
+      <c r="NS4" s="32"/>
+      <c r="NT4" s="32"/>
+      <c r="NU4" s="32"/>
+      <c r="NV4" s="32"/>
+      <c r="NW4" s="32"/>
+      <c r="NX4" s="32"/>
+      <c r="NY4" s="32"/>
+      <c r="NZ4" s="32"/>
+      <c r="OA4" s="32"/>
+      <c r="OB4" s="34"/>
+      <c r="OC4" s="34"/>
+      <c r="OD4" s="32"/>
+      <c r="OE4" s="32"/>
+      <c r="OF4" s="32"/>
+      <c r="OG4" s="32"/>
+      <c r="OH4" s="32"/>
+      <c r="OI4" s="32"/>
+      <c r="OJ4" s="32"/>
+      <c r="OK4" s="32"/>
+      <c r="OL4" s="32"/>
+      <c r="OM4" s="32"/>
+      <c r="ON4" s="32"/>
+      <c r="OO4" s="32"/>
+      <c r="OP4" s="32"/>
+      <c r="OQ4" s="32"/>
+      <c r="OR4" s="32"/>
+      <c r="OS4" s="32"/>
+      <c r="OT4" s="32"/>
+      <c r="OU4" s="32"/>
+      <c r="OV4" s="32"/>
+      <c r="OW4" s="32"/>
+      <c r="OX4" s="32"/>
+      <c r="OY4" s="32"/>
+      <c r="OZ4" s="32"/>
+      <c r="PA4" s="34"/>
+      <c r="PB4" s="34"/>
+      <c r="PC4" s="32"/>
+      <c r="PD4" s="32"/>
+      <c r="PE4" s="32"/>
+      <c r="PF4" s="32"/>
+      <c r="PG4" s="32"/>
+      <c r="PH4" s="32"/>
+      <c r="PI4" s="32"/>
+      <c r="PJ4" s="32"/>
+      <c r="PK4" s="32"/>
+      <c r="PL4" s="32"/>
+      <c r="PM4" s="32"/>
+      <c r="PN4" s="32"/>
+      <c r="PO4" s="32"/>
+      <c r="PP4" s="32"/>
+      <c r="PQ4" s="32"/>
+      <c r="PR4" s="32"/>
+      <c r="PS4" s="34"/>
+      <c r="PT4" s="34"/>
+      <c r="PU4" s="32"/>
+      <c r="PV4" s="32"/>
+      <c r="PW4" s="32"/>
+      <c r="PX4" s="32"/>
+      <c r="PY4" s="32"/>
+      <c r="PZ4" s="32"/>
+      <c r="QA4" s="32"/>
+      <c r="QB4" s="32"/>
+      <c r="QC4" s="32"/>
+      <c r="QD4" s="32"/>
+      <c r="QE4" s="32"/>
+      <c r="QF4" s="32"/>
+      <c r="QG4" s="32"/>
+      <c r="QH4" s="32"/>
+      <c r="QI4" s="32"/>
+      <c r="QJ4" s="32"/>
+      <c r="QK4" s="32"/>
+      <c r="QL4" s="32"/>
+      <c r="QM4" s="32"/>
+      <c r="QN4" s="32"/>
+      <c r="QO4" s="32"/>
+      <c r="QP4" s="32"/>
+      <c r="QQ4" s="32"/>
+      <c r="QR4" s="32"/>
+      <c r="QS4" s="32"/>
+      <c r="QT4" s="32"/>
+      <c r="QU4" s="34"/>
+      <c r="QV4" s="34"/>
+      <c r="QW4" s="32"/>
+      <c r="QX4" s="32"/>
+      <c r="QY4" s="32"/>
+      <c r="QZ4" s="32"/>
+      <c r="RA4" s="32"/>
+      <c r="RB4" s="32"/>
+      <c r="RC4" s="32"/>
+      <c r="RD4" s="32"/>
+      <c r="RE4" s="32"/>
+      <c r="RF4" s="32"/>
+      <c r="RG4" s="32"/>
+      <c r="RH4" s="32"/>
+      <c r="RI4" s="34"/>
+      <c r="RJ4" s="34"/>
+      <c r="RK4" s="34"/>
+      <c r="RL4" s="34"/>
+      <c r="RM4" s="34"/>
+      <c r="RN4" s="34"/>
+      <c r="RO4" s="34"/>
+      <c r="RP4" s="34"/>
+      <c r="RQ4" s="34"/>
+      <c r="RR4" s="34"/>
+      <c r="RS4" s="34"/>
+      <c r="RT4" s="34"/>
+      <c r="RU4" s="34"/>
+      <c r="RV4" s="34"/>
+      <c r="RW4" s="34"/>
+      <c r="RX4" s="34"/>
+      <c r="RY4" s="34"/>
+      <c r="RZ4" s="34"/>
+      <c r="SA4" s="34"/>
+      <c r="SB4" s="34"/>
+      <c r="SC4" s="34"/>
+      <c r="SD4" s="34"/>
+      <c r="SE4" s="34"/>
+      <c r="SF4" s="34"/>
+      <c r="SG4" s="34"/>
+      <c r="SH4" s="34"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="24"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="24"/>
-      <c r="AV5" s="24"/>
-      <c r="AW5" s="24"/>
-      <c r="AX5" s="24"/>
-      <c r="AY5" s="24"/>
-      <c r="AZ5" s="24"/>
-      <c r="BA5" s="24"/>
-      <c r="BB5" s="24"/>
-      <c r="BC5" s="24"/>
-      <c r="BD5" s="24"/>
-      <c r="BE5" s="24"/>
-      <c r="BF5" s="24"/>
-      <c r="BG5" s="24"/>
-      <c r="BH5" s="24"/>
-      <c r="BI5" s="24"/>
-      <c r="BJ5" s="24"/>
-      <c r="BK5" s="24"/>
-      <c r="BL5" s="24"/>
-      <c r="BM5" s="24"/>
-      <c r="BN5" s="24"/>
-      <c r="BO5" s="24"/>
-      <c r="BP5" s="24"/>
-      <c r="BQ5" s="24"/>
-      <c r="BR5" s="24"/>
-      <c r="BS5" s="25"/>
-      <c r="BT5" s="24"/>
-      <c r="BU5" s="24"/>
-      <c r="BV5" s="24"/>
-      <c r="BW5" s="24"/>
-      <c r="BX5" s="24"/>
-      <c r="BY5" s="24"/>
-      <c r="BZ5" s="24"/>
-      <c r="CA5" s="24"/>
-      <c r="CB5" s="24"/>
-      <c r="CC5" s="24"/>
-      <c r="CD5" s="24"/>
-      <c r="CE5" s="24"/>
-      <c r="CF5" s="24"/>
-      <c r="CG5" s="24"/>
-      <c r="CH5" s="24"/>
-      <c r="CI5" s="24"/>
-      <c r="CJ5" s="24"/>
-      <c r="CK5" s="24"/>
-      <c r="CL5" s="24"/>
-      <c r="CM5" s="24"/>
-      <c r="CN5" s="24"/>
-      <c r="CO5" s="24"/>
-      <c r="CP5" s="24"/>
-      <c r="CQ5" s="24"/>
-      <c r="CR5" s="24"/>
-      <c r="CS5" s="24"/>
-      <c r="CT5" s="24"/>
-      <c r="CU5" s="24"/>
-      <c r="CV5" s="24"/>
-      <c r="CW5" s="24"/>
-      <c r="CX5" s="24"/>
-      <c r="CY5" s="24"/>
-      <c r="CZ5" s="24"/>
-      <c r="DA5" s="24"/>
-      <c r="DB5" s="24"/>
-      <c r="DC5" s="24"/>
-      <c r="DD5" s="24"/>
-      <c r="DE5" s="24"/>
-      <c r="DF5" s="24"/>
-      <c r="DG5" s="24"/>
-      <c r="DH5" s="24"/>
-      <c r="DI5" s="24"/>
-      <c r="DJ5" s="24"/>
-      <c r="DK5" s="24"/>
-      <c r="DL5" s="24"/>
-      <c r="DM5" s="24"/>
-      <c r="DN5" s="24"/>
-      <c r="DO5" s="24"/>
-      <c r="DP5" s="24"/>
-      <c r="DQ5" s="24"/>
-      <c r="DR5" s="24"/>
-      <c r="DS5" s="24"/>
-      <c r="DT5" s="24"/>
-      <c r="DU5" s="24"/>
-      <c r="DV5" s="24"/>
-      <c r="DW5" s="24"/>
-      <c r="DX5" s="24"/>
-      <c r="DY5" s="24"/>
-      <c r="DZ5" s="24"/>
-      <c r="EA5" s="24"/>
-      <c r="EB5" s="24"/>
-      <c r="EC5" s="24"/>
-      <c r="ED5" s="24"/>
-      <c r="EE5" s="24"/>
-      <c r="EF5" s="24"/>
-      <c r="EG5" s="24"/>
-      <c r="EH5" s="24"/>
-      <c r="EI5" s="24"/>
-      <c r="EJ5" s="24"/>
-      <c r="EK5" s="24"/>
-      <c r="EL5" s="24"/>
-      <c r="EM5" s="24"/>
-      <c r="EN5" s="24"/>
-      <c r="EO5" s="24"/>
-      <c r="EP5" s="24"/>
-      <c r="EQ5" s="24"/>
-      <c r="ER5" s="24"/>
-      <c r="ES5" s="24"/>
-      <c r="ET5" s="24"/>
-      <c r="EU5" s="24"/>
-      <c r="EV5" s="24"/>
-      <c r="EW5" s="24"/>
-      <c r="EX5" s="24"/>
-      <c r="EY5" s="24"/>
-      <c r="EZ5" s="24"/>
-      <c r="FA5" s="24"/>
-      <c r="FB5" s="24"/>
-      <c r="FC5" s="24"/>
-      <c r="FD5" s="24"/>
-      <c r="FE5" s="24"/>
-      <c r="FF5" s="24"/>
-      <c r="FG5" s="24"/>
-      <c r="FH5" s="24"/>
-      <c r="FI5" s="24"/>
-      <c r="FJ5" s="24"/>
-      <c r="FK5" s="28"/>
-      <c r="FL5" s="24"/>
-      <c r="FM5" s="24"/>
-      <c r="FN5" s="24"/>
-      <c r="FO5" s="24"/>
-      <c r="FP5" s="24"/>
-      <c r="FQ5" s="24"/>
-      <c r="FR5" s="24"/>
-      <c r="FS5" s="28"/>
-      <c r="FT5" s="24"/>
-      <c r="FU5" s="24"/>
-      <c r="FV5" s="24"/>
-      <c r="FW5" s="24"/>
-      <c r="FX5" s="24"/>
-      <c r="FY5" s="24"/>
-      <c r="FZ5" s="24"/>
-      <c r="GA5" s="24"/>
-      <c r="GB5" s="24"/>
-      <c r="GC5" s="24"/>
-      <c r="GD5" s="24"/>
-      <c r="GE5" s="24"/>
-      <c r="GF5" s="29"/>
-      <c r="GG5" s="24"/>
-      <c r="GH5" s="24"/>
-      <c r="GI5" s="24"/>
-      <c r="GJ5" s="24"/>
-      <c r="GK5" s="24"/>
-      <c r="GL5" s="24"/>
-      <c r="GM5" s="24"/>
-      <c r="GN5" s="24"/>
-      <c r="GO5" s="24"/>
-      <c r="GP5" s="24"/>
-      <c r="GQ5" s="24"/>
-      <c r="GR5" s="24"/>
-      <c r="GS5" s="24"/>
-      <c r="GT5" s="24"/>
-      <c r="GU5" s="24"/>
-      <c r="GV5" s="24"/>
-      <c r="GW5" s="24"/>
-      <c r="GX5" s="24"/>
-      <c r="GY5" s="24"/>
-      <c r="GZ5" s="24"/>
-      <c r="HA5" s="24"/>
-      <c r="HB5" s="24"/>
-      <c r="HC5" s="24"/>
-      <c r="HD5" s="24"/>
-      <c r="HE5" s="24"/>
-      <c r="HF5" s="24"/>
-      <c r="HG5" s="24"/>
-      <c r="HH5" s="24"/>
-      <c r="HI5" s="24"/>
-      <c r="HJ5" s="24"/>
-      <c r="HK5" s="24"/>
-      <c r="HL5" s="24"/>
-      <c r="HM5" s="24"/>
-      <c r="HN5" s="24"/>
-      <c r="HO5" s="24"/>
-      <c r="HP5" s="24"/>
-      <c r="HQ5" s="24"/>
-      <c r="HR5" s="24"/>
-      <c r="HS5" s="24"/>
-      <c r="HT5" s="24"/>
-      <c r="HU5" s="24"/>
-      <c r="HV5" s="24"/>
-      <c r="HW5" s="24"/>
-      <c r="HX5" s="24"/>
-      <c r="HY5" s="24"/>
-      <c r="HZ5" s="24"/>
-      <c r="IA5" s="24"/>
-      <c r="IB5" s="24"/>
-      <c r="IC5" s="24"/>
-      <c r="ID5" s="24"/>
-      <c r="IE5" s="25"/>
-      <c r="IF5" s="24"/>
-      <c r="IG5" s="24"/>
-      <c r="IH5" s="24"/>
-      <c r="II5" s="24"/>
-      <c r="IJ5" s="24"/>
-      <c r="IK5" s="24"/>
-      <c r="IL5" s="24"/>
-      <c r="IM5" s="24"/>
-      <c r="IN5" s="24"/>
-      <c r="IO5" s="24"/>
-      <c r="IP5" s="24"/>
-      <c r="IQ5" s="24"/>
-      <c r="IR5" s="24"/>
-      <c r="IS5" s="24"/>
-      <c r="IT5" s="24"/>
-      <c r="IU5" s="24"/>
-      <c r="IV5" s="24"/>
-      <c r="IW5" s="24"/>
-      <c r="IX5" s="24"/>
-      <c r="IY5" s="24"/>
-      <c r="IZ5" s="24"/>
-      <c r="JA5" s="24"/>
-      <c r="JB5" s="25"/>
-      <c r="JC5" s="24"/>
-      <c r="JD5" s="24"/>
-      <c r="JE5" s="24"/>
-      <c r="JF5" s="24"/>
-      <c r="JG5" s="24"/>
-      <c r="JH5" s="24"/>
-      <c r="JI5" s="24"/>
-      <c r="JJ5" s="24"/>
-      <c r="JK5" s="24"/>
-      <c r="JL5" s="24"/>
-      <c r="JM5" s="24"/>
-      <c r="JN5" s="24"/>
-      <c r="JO5" s="24"/>
-      <c r="JP5" s="24"/>
-      <c r="JQ5" s="24"/>
-      <c r="JR5" s="24"/>
-      <c r="JS5" s="24"/>
-      <c r="JT5" s="24"/>
-      <c r="JU5" s="24"/>
-      <c r="JV5" s="24"/>
-      <c r="JW5" s="24"/>
-      <c r="JX5" s="24"/>
-      <c r="JY5" s="24"/>
-      <c r="JZ5" s="24"/>
-      <c r="KA5" s="24"/>
-      <c r="KB5" s="24"/>
-      <c r="KC5" s="24"/>
-      <c r="KD5" s="24"/>
-      <c r="KE5" s="24"/>
-      <c r="KF5" s="24"/>
-      <c r="KG5" s="24"/>
-      <c r="KH5" s="24"/>
-      <c r="KI5" s="24"/>
-      <c r="KJ5" s="24"/>
-      <c r="KK5" s="24"/>
-      <c r="KL5" s="24"/>
-      <c r="KM5" s="25"/>
-      <c r="KN5" s="24"/>
-      <c r="KO5" s="24"/>
-      <c r="KP5" s="24"/>
-      <c r="KQ5" s="24"/>
-      <c r="KR5" s="24"/>
-      <c r="KS5" s="24"/>
-      <c r="KT5" s="24"/>
-      <c r="KU5" s="24"/>
-      <c r="KV5" s="24"/>
-      <c r="KW5" s="24"/>
-      <c r="KX5" s="24"/>
-      <c r="KY5" s="24"/>
-      <c r="KZ5" s="24"/>
-      <c r="LA5" s="24"/>
-      <c r="LB5" s="24"/>
-      <c r="LC5" s="24"/>
-      <c r="LD5" s="24"/>
-      <c r="LE5" s="24"/>
-      <c r="LF5" s="24"/>
-      <c r="LG5" s="24"/>
-      <c r="LH5" s="24"/>
-      <c r="LI5" s="24"/>
-      <c r="LJ5" s="24"/>
-      <c r="LK5" s="24"/>
-      <c r="LL5" s="24"/>
-      <c r="LM5" s="24"/>
-      <c r="LN5" s="24"/>
-      <c r="LO5" s="24"/>
-      <c r="LP5" s="24"/>
-      <c r="LQ5" s="24"/>
-      <c r="LR5" s="24"/>
-      <c r="LS5" s="24"/>
-      <c r="LT5" s="24"/>
-      <c r="LU5" s="24"/>
-      <c r="LV5" s="24"/>
-      <c r="LW5" s="24"/>
-      <c r="LX5" s="24"/>
-      <c r="LY5" s="24"/>
-      <c r="LZ5" s="24"/>
-      <c r="MA5" s="28"/>
-      <c r="MB5" s="24"/>
-      <c r="MC5" s="24"/>
-      <c r="MD5" s="24"/>
-      <c r="ME5" s="24"/>
-      <c r="MF5" s="24"/>
-      <c r="MG5" s="24"/>
-      <c r="MH5" s="24"/>
-      <c r="MI5" s="24"/>
-      <c r="MJ5" s="24"/>
-      <c r="MK5" s="24"/>
-      <c r="ML5" s="24"/>
-      <c r="MM5" s="24"/>
-      <c r="MN5" s="24"/>
-      <c r="MO5" s="24"/>
-      <c r="MP5" s="24"/>
-      <c r="MQ5" s="25"/>
-      <c r="MR5" s="24"/>
-      <c r="MS5" s="24"/>
-      <c r="MT5" s="24"/>
-      <c r="MU5" s="24"/>
-      <c r="MV5" s="24"/>
-      <c r="MW5" s="24"/>
-      <c r="MX5" s="24"/>
-      <c r="MY5" s="24"/>
-      <c r="MZ5" s="24"/>
-      <c r="NA5" s="24"/>
-      <c r="NB5" s="24"/>
-      <c r="NC5" s="24"/>
-      <c r="ND5" s="24"/>
-      <c r="NE5" s="24"/>
-      <c r="NF5" s="24"/>
-      <c r="NG5" s="24"/>
-      <c r="NH5" s="24"/>
-      <c r="NI5" s="24"/>
-      <c r="NJ5" s="24"/>
-      <c r="NK5" s="24"/>
-      <c r="NL5" s="24"/>
-      <c r="NM5" s="25"/>
-      <c r="NN5" s="24"/>
-      <c r="NO5" s="24"/>
-      <c r="NP5" s="24"/>
-      <c r="NQ5" s="24"/>
-      <c r="NR5" s="24"/>
-      <c r="NS5" s="24"/>
-      <c r="NT5" s="24"/>
-      <c r="NU5" s="24"/>
-      <c r="NV5" s="24"/>
-      <c r="NW5" s="24"/>
-      <c r="NX5" s="24"/>
-      <c r="NY5" s="24"/>
-      <c r="NZ5" s="24"/>
-      <c r="OA5" s="24"/>
-      <c r="OB5" s="24"/>
-      <c r="OC5" s="24"/>
-      <c r="OD5" s="24"/>
-      <c r="OE5" s="24"/>
-      <c r="OF5" s="24"/>
-      <c r="OG5" s="24"/>
-      <c r="OH5" s="24"/>
-      <c r="OI5" s="24"/>
-      <c r="OJ5" s="24"/>
-      <c r="OK5" s="26"/>
-      <c r="OL5" s="24"/>
-      <c r="OM5" s="24"/>
-      <c r="ON5" s="24"/>
-      <c r="OO5" s="24"/>
-      <c r="OP5" s="24"/>
-      <c r="OQ5" s="24"/>
-      <c r="OR5" s="24"/>
-      <c r="OS5" s="24"/>
-      <c r="OT5" s="24"/>
-      <c r="OU5" s="24"/>
-      <c r="OV5" s="24"/>
-      <c r="OW5" s="24"/>
-      <c r="OX5" s="24"/>
-      <c r="OY5" s="24"/>
-      <c r="OZ5" s="24"/>
-      <c r="PA5" s="24"/>
-      <c r="PB5" s="26"/>
-      <c r="PC5" s="24"/>
-      <c r="PD5" s="24"/>
-      <c r="PE5" s="24"/>
-      <c r="PF5" s="24"/>
-      <c r="PG5" s="24"/>
-      <c r="PH5" s="24"/>
-      <c r="PI5" s="24"/>
-      <c r="PJ5" s="24"/>
-      <c r="PK5" s="24"/>
-      <c r="PL5" s="24"/>
-      <c r="PM5" s="24"/>
-      <c r="PN5" s="24"/>
-      <c r="PO5" s="24"/>
-      <c r="PP5" s="24"/>
-      <c r="PQ5" s="24"/>
-      <c r="PR5" s="24"/>
-      <c r="PS5" s="24"/>
-      <c r="PT5" s="24"/>
-      <c r="PU5" s="24"/>
-      <c r="PV5" s="24"/>
-      <c r="PW5" s="24"/>
-      <c r="PX5" s="24"/>
-      <c r="PY5" s="24"/>
-      <c r="PZ5" s="24"/>
-      <c r="QA5" s="24"/>
-      <c r="QB5" s="24"/>
-      <c r="QC5" s="26"/>
-      <c r="QD5" s="24"/>
-      <c r="QE5" s="24"/>
-      <c r="QF5" s="24"/>
-      <c r="QG5" s="24"/>
-      <c r="QH5" s="24"/>
-      <c r="QI5" s="24"/>
-      <c r="QJ5" s="24"/>
-      <c r="QK5" s="24"/>
-      <c r="QL5" s="24"/>
-      <c r="QM5" s="24"/>
-      <c r="QN5" s="24"/>
-      <c r="QO5" s="24"/>
-      <c r="QP5" s="26"/>
-      <c r="QQ5" s="25"/>
-      <c r="QR5" s="25"/>
-      <c r="QS5" s="25"/>
-      <c r="QT5" s="25"/>
-      <c r="QU5" s="25"/>
-      <c r="QV5" s="25"/>
-      <c r="QW5" s="25"/>
-      <c r="QX5" s="25"/>
-      <c r="QY5" s="25"/>
-      <c r="QZ5" s="25"/>
-      <c r="RA5" s="25"/>
-      <c r="RB5" s="25"/>
-      <c r="RC5" s="25"/>
-      <c r="RD5" s="25"/>
-      <c r="RE5" s="25"/>
-      <c r="RF5" s="25"/>
-      <c r="RG5" s="26"/>
-      <c r="RH5" s="25"/>
-      <c r="RI5" s="25"/>
-      <c r="RJ5" s="25"/>
-      <c r="RK5" s="25"/>
-      <c r="RL5" s="25"/>
-      <c r="RM5" s="25"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="32"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="32"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="32"/>
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="32"/>
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="32"/>
+      <c r="BZ5" s="32"/>
+      <c r="CA5" s="32"/>
+      <c r="CB5" s="32"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="32"/>
+      <c r="CE5" s="32"/>
+      <c r="CF5" s="32"/>
+      <c r="CG5" s="32"/>
+      <c r="CH5" s="32"/>
+      <c r="CI5" s="32"/>
+      <c r="CJ5" s="32"/>
+      <c r="CK5" s="32"/>
+      <c r="CL5" s="32"/>
+      <c r="CM5" s="32"/>
+      <c r="CN5" s="32"/>
+      <c r="CO5" s="32"/>
+      <c r="CP5" s="32"/>
+      <c r="CQ5" s="32"/>
+      <c r="CR5" s="32"/>
+      <c r="CS5" s="32"/>
+      <c r="CT5" s="32"/>
+      <c r="CU5" s="32"/>
+      <c r="CV5" s="32"/>
+      <c r="CW5" s="32"/>
+      <c r="CX5" s="32"/>
+      <c r="CY5" s="32"/>
+      <c r="CZ5" s="32"/>
+      <c r="DA5" s="32"/>
+      <c r="DB5" s="32"/>
+      <c r="DC5" s="32"/>
+      <c r="DD5" s="32"/>
+      <c r="DE5" s="32"/>
+      <c r="DF5" s="32"/>
+      <c r="DG5" s="32"/>
+      <c r="DH5" s="32"/>
+      <c r="DI5" s="32"/>
+      <c r="DJ5" s="32"/>
+      <c r="DK5" s="32"/>
+      <c r="DL5" s="32"/>
+      <c r="DM5" s="32"/>
+      <c r="DN5" s="32"/>
+      <c r="DO5" s="32"/>
+      <c r="DP5" s="32"/>
+      <c r="DQ5" s="32"/>
+      <c r="DR5" s="32"/>
+      <c r="DS5" s="32"/>
+      <c r="DT5" s="32"/>
+      <c r="DU5" s="32"/>
+      <c r="DV5" s="32"/>
+      <c r="DW5" s="32"/>
+      <c r="DX5" s="32"/>
+      <c r="DY5" s="32"/>
+      <c r="DZ5" s="32"/>
+      <c r="EA5" s="32"/>
+      <c r="EB5" s="32"/>
+      <c r="EC5" s="32"/>
+      <c r="ED5" s="32"/>
+      <c r="EE5" s="32"/>
+      <c r="EF5" s="32"/>
+      <c r="EG5" s="32"/>
+      <c r="EH5" s="32"/>
+      <c r="EI5" s="32"/>
+      <c r="EJ5" s="32"/>
+      <c r="EK5" s="32"/>
+      <c r="EL5" s="32"/>
+      <c r="EM5" s="32"/>
+      <c r="EN5" s="32"/>
+      <c r="EO5" s="32"/>
+      <c r="EP5" s="32"/>
+      <c r="EQ5" s="32"/>
+      <c r="ER5" s="32"/>
+      <c r="ES5" s="32"/>
+      <c r="ET5" s="32"/>
+      <c r="EU5" s="32"/>
+      <c r="EV5" s="32"/>
+      <c r="EW5" s="32"/>
+      <c r="EX5" s="32"/>
+      <c r="EY5" s="32"/>
+      <c r="EZ5" s="32"/>
+      <c r="FA5" s="32"/>
+      <c r="FB5" s="32"/>
+      <c r="FC5" s="32"/>
+      <c r="FD5" s="32"/>
+      <c r="FE5" s="32"/>
+      <c r="FF5" s="32"/>
+      <c r="FG5" s="32"/>
+      <c r="FH5" s="32"/>
+      <c r="FI5" s="32"/>
+      <c r="FJ5" s="32"/>
+      <c r="FK5" s="32"/>
+      <c r="FL5" s="32"/>
+      <c r="FM5" s="32"/>
+      <c r="FN5" s="32"/>
+      <c r="FO5" s="32"/>
+      <c r="FP5" s="32"/>
+      <c r="FQ5" s="35"/>
+      <c r="FR5" s="35"/>
+      <c r="FS5" s="32"/>
+      <c r="FT5" s="32"/>
+      <c r="FU5" s="32"/>
+      <c r="FV5" s="32"/>
+      <c r="FW5" s="32"/>
+      <c r="FX5" s="32"/>
+      <c r="FY5" s="32"/>
+      <c r="FZ5" s="35"/>
+      <c r="GA5" s="35"/>
+      <c r="GB5" s="32"/>
+      <c r="GC5" s="32"/>
+      <c r="GD5" s="32"/>
+      <c r="GE5" s="32"/>
+      <c r="GF5" s="32"/>
+      <c r="GG5" s="32"/>
+      <c r="GH5" s="32"/>
+      <c r="GI5" s="32"/>
+      <c r="GJ5" s="32"/>
+      <c r="GK5" s="32"/>
+      <c r="GL5" s="32"/>
+      <c r="GM5" s="32"/>
+      <c r="GN5" s="37"/>
+      <c r="GO5" s="37"/>
+      <c r="GP5" s="32"/>
+      <c r="GQ5" s="32"/>
+      <c r="GR5" s="32"/>
+      <c r="GS5" s="32"/>
+      <c r="GT5" s="32"/>
+      <c r="GU5" s="32"/>
+      <c r="GV5" s="32"/>
+      <c r="GW5" s="32"/>
+      <c r="GX5" s="32"/>
+      <c r="GY5" s="32"/>
+      <c r="GZ5" s="32"/>
+      <c r="HA5" s="32"/>
+      <c r="HB5" s="32"/>
+      <c r="HC5" s="32"/>
+      <c r="HD5" s="32"/>
+      <c r="HE5" s="32"/>
+      <c r="HF5" s="32"/>
+      <c r="HG5" s="32"/>
+      <c r="HH5" s="32"/>
+      <c r="HI5" s="32"/>
+      <c r="HJ5" s="32"/>
+      <c r="HK5" s="32"/>
+      <c r="HL5" s="32"/>
+      <c r="HM5" s="32"/>
+      <c r="HN5" s="32"/>
+      <c r="HO5" s="32"/>
+      <c r="HP5" s="32"/>
+      <c r="HQ5" s="32"/>
+      <c r="HR5" s="32"/>
+      <c r="HS5" s="32"/>
+      <c r="HT5" s="32"/>
+      <c r="HU5" s="32"/>
+      <c r="HV5" s="32"/>
+      <c r="HW5" s="32"/>
+      <c r="HX5" s="32"/>
+      <c r="HY5" s="32"/>
+      <c r="HZ5" s="32"/>
+      <c r="IA5" s="32"/>
+      <c r="IB5" s="32"/>
+      <c r="IC5" s="32"/>
+      <c r="ID5" s="32"/>
+      <c r="IE5" s="32"/>
+      <c r="IF5" s="32"/>
+      <c r="IG5" s="32"/>
+      <c r="IH5" s="32"/>
+      <c r="II5" s="32"/>
+      <c r="IJ5" s="32"/>
+      <c r="IK5" s="32"/>
+      <c r="IL5" s="32"/>
+      <c r="IM5" s="32"/>
+      <c r="IN5" s="34"/>
+      <c r="IO5" s="34"/>
+      <c r="IP5" s="32"/>
+      <c r="IQ5" s="32"/>
+      <c r="IR5" s="32"/>
+      <c r="IS5" s="32"/>
+      <c r="IT5" s="32"/>
+      <c r="IU5" s="32"/>
+      <c r="IV5" s="32"/>
+      <c r="IW5" s="32"/>
+      <c r="IX5" s="32"/>
+      <c r="IY5" s="32"/>
+      <c r="IZ5" s="32"/>
+      <c r="JA5" s="32"/>
+      <c r="JB5" s="32"/>
+      <c r="JC5" s="32"/>
+      <c r="JD5" s="32"/>
+      <c r="JE5" s="32"/>
+      <c r="JF5" s="32"/>
+      <c r="JG5" s="32"/>
+      <c r="JH5" s="32"/>
+      <c r="JI5" s="32"/>
+      <c r="JJ5" s="32"/>
+      <c r="JK5" s="32"/>
+      <c r="JL5" s="34"/>
+      <c r="JM5" s="34"/>
+      <c r="JN5" s="32"/>
+      <c r="JO5" s="32"/>
+      <c r="JP5" s="32"/>
+      <c r="JQ5" s="32"/>
+      <c r="JR5" s="32"/>
+      <c r="JS5" s="32"/>
+      <c r="JT5" s="32"/>
+      <c r="JU5" s="32"/>
+      <c r="JV5" s="32"/>
+      <c r="JW5" s="32"/>
+      <c r="JX5" s="32"/>
+      <c r="JY5" s="32"/>
+      <c r="JZ5" s="32"/>
+      <c r="KA5" s="32"/>
+      <c r="KB5" s="32"/>
+      <c r="KC5" s="32"/>
+      <c r="KD5" s="32"/>
+      <c r="KE5" s="32"/>
+      <c r="KF5" s="32"/>
+      <c r="KG5" s="32"/>
+      <c r="KH5" s="32"/>
+      <c r="KI5" s="32"/>
+      <c r="KJ5" s="32"/>
+      <c r="KK5" s="32"/>
+      <c r="KL5" s="32"/>
+      <c r="KM5" s="32"/>
+      <c r="KN5" s="32"/>
+      <c r="KO5" s="32"/>
+      <c r="KP5" s="32"/>
+      <c r="KQ5" s="32"/>
+      <c r="KR5" s="32"/>
+      <c r="KS5" s="32"/>
+      <c r="KT5" s="32"/>
+      <c r="KU5" s="32"/>
+      <c r="KV5" s="32"/>
+      <c r="KW5" s="32"/>
+      <c r="KX5" s="32"/>
+      <c r="KY5" s="34"/>
+      <c r="KZ5" s="34"/>
+      <c r="LA5" s="32"/>
+      <c r="LB5" s="32"/>
+      <c r="LC5" s="32"/>
+      <c r="LD5" s="32"/>
+      <c r="LE5" s="32"/>
+      <c r="LF5" s="32"/>
+      <c r="LG5" s="32"/>
+      <c r="LH5" s="32"/>
+      <c r="LI5" s="32"/>
+      <c r="LJ5" s="32"/>
+      <c r="LK5" s="32"/>
+      <c r="LL5" s="32"/>
+      <c r="LM5" s="32"/>
+      <c r="LN5" s="32"/>
+      <c r="LO5" s="32"/>
+      <c r="LP5" s="32"/>
+      <c r="LQ5" s="32"/>
+      <c r="LR5" s="32"/>
+      <c r="LS5" s="32"/>
+      <c r="LT5" s="32"/>
+      <c r="LU5" s="32"/>
+      <c r="LV5" s="32"/>
+      <c r="LW5" s="32"/>
+      <c r="LX5" s="32"/>
+      <c r="LY5" s="32"/>
+      <c r="LZ5" s="32"/>
+      <c r="MA5" s="32"/>
+      <c r="MB5" s="32"/>
+      <c r="MC5" s="32"/>
+      <c r="MD5" s="32"/>
+      <c r="ME5" s="32"/>
+      <c r="MF5" s="32"/>
+      <c r="MG5" s="32"/>
+      <c r="MH5" s="32"/>
+      <c r="MI5" s="32"/>
+      <c r="MJ5" s="32"/>
+      <c r="MK5" s="32"/>
+      <c r="ML5" s="32"/>
+      <c r="MM5" s="32"/>
+      <c r="MN5" s="35"/>
+      <c r="MO5" s="35"/>
+      <c r="MP5" s="32"/>
+      <c r="MQ5" s="32"/>
+      <c r="MR5" s="32"/>
+      <c r="MS5" s="32"/>
+      <c r="MT5" s="32"/>
+      <c r="MU5" s="32"/>
+      <c r="MV5" s="32"/>
+      <c r="MW5" s="32"/>
+      <c r="MX5" s="32"/>
+      <c r="MY5" s="32"/>
+      <c r="MZ5" s="32"/>
+      <c r="NA5" s="32"/>
+      <c r="NB5" s="32"/>
+      <c r="NC5" s="32"/>
+      <c r="ND5" s="32"/>
+      <c r="NE5" s="34"/>
+      <c r="NF5" s="34"/>
+      <c r="NG5" s="32"/>
+      <c r="NH5" s="32"/>
+      <c r="NI5" s="32"/>
+      <c r="NJ5" s="32"/>
+      <c r="NK5" s="32"/>
+      <c r="NL5" s="32"/>
+      <c r="NM5" s="32"/>
+      <c r="NN5" s="32"/>
+      <c r="NO5" s="32"/>
+      <c r="NP5" s="32"/>
+      <c r="NQ5" s="32"/>
+      <c r="NR5" s="32"/>
+      <c r="NS5" s="32"/>
+      <c r="NT5" s="32"/>
+      <c r="NU5" s="32"/>
+      <c r="NV5" s="32"/>
+      <c r="NW5" s="32"/>
+      <c r="NX5" s="32"/>
+      <c r="NY5" s="32"/>
+      <c r="NZ5" s="32"/>
+      <c r="OA5" s="32"/>
+      <c r="OB5" s="34"/>
+      <c r="OC5" s="34"/>
+      <c r="OD5" s="32"/>
+      <c r="OE5" s="32"/>
+      <c r="OF5" s="32"/>
+      <c r="OG5" s="32"/>
+      <c r="OH5" s="32"/>
+      <c r="OI5" s="32"/>
+      <c r="OJ5" s="32"/>
+      <c r="OK5" s="32"/>
+      <c r="OL5" s="32"/>
+      <c r="OM5" s="32"/>
+      <c r="ON5" s="32"/>
+      <c r="OO5" s="32"/>
+      <c r="OP5" s="32"/>
+      <c r="OQ5" s="32"/>
+      <c r="OR5" s="32"/>
+      <c r="OS5" s="32"/>
+      <c r="OT5" s="32"/>
+      <c r="OU5" s="32"/>
+      <c r="OV5" s="32"/>
+      <c r="OW5" s="32"/>
+      <c r="OX5" s="32"/>
+      <c r="OY5" s="32"/>
+      <c r="OZ5" s="32"/>
+      <c r="PA5" s="34"/>
+      <c r="PB5" s="34"/>
+      <c r="PC5" s="32"/>
+      <c r="PD5" s="32"/>
+      <c r="PE5" s="32"/>
+      <c r="PF5" s="32"/>
+      <c r="PG5" s="32"/>
+      <c r="PH5" s="32"/>
+      <c r="PI5" s="32"/>
+      <c r="PJ5" s="32"/>
+      <c r="PK5" s="32"/>
+      <c r="PL5" s="32"/>
+      <c r="PM5" s="32"/>
+      <c r="PN5" s="32"/>
+      <c r="PO5" s="32"/>
+      <c r="PP5" s="32"/>
+      <c r="PQ5" s="32"/>
+      <c r="PR5" s="32"/>
+      <c r="PS5" s="34"/>
+      <c r="PT5" s="34"/>
+      <c r="PU5" s="32"/>
+      <c r="PV5" s="32"/>
+      <c r="PW5" s="32"/>
+      <c r="PX5" s="32"/>
+      <c r="PY5" s="32"/>
+      <c r="PZ5" s="32"/>
+      <c r="QA5" s="32"/>
+      <c r="QB5" s="32"/>
+      <c r="QC5" s="32"/>
+      <c r="QD5" s="32"/>
+      <c r="QE5" s="32"/>
+      <c r="QF5" s="32"/>
+      <c r="QG5" s="32"/>
+      <c r="QH5" s="32"/>
+      <c r="QI5" s="32"/>
+      <c r="QJ5" s="32"/>
+      <c r="QK5" s="32"/>
+      <c r="QL5" s="32"/>
+      <c r="QM5" s="32"/>
+      <c r="QN5" s="32"/>
+      <c r="QO5" s="32"/>
+      <c r="QP5" s="32"/>
+      <c r="QQ5" s="32"/>
+      <c r="QR5" s="32"/>
+      <c r="QS5" s="32"/>
+      <c r="QT5" s="32"/>
+      <c r="QU5" s="34"/>
+      <c r="QV5" s="34"/>
+      <c r="QW5" s="32"/>
+      <c r="QX5" s="32"/>
+      <c r="QY5" s="32"/>
+      <c r="QZ5" s="32"/>
+      <c r="RA5" s="32"/>
+      <c r="RB5" s="32"/>
+      <c r="RC5" s="32"/>
+      <c r="RD5" s="32"/>
+      <c r="RE5" s="32"/>
+      <c r="RF5" s="32"/>
+      <c r="RG5" s="32"/>
+      <c r="RH5" s="32"/>
+      <c r="RI5" s="34"/>
+      <c r="RJ5" s="34"/>
+      <c r="RK5" s="34"/>
+      <c r="RL5" s="34"/>
+      <c r="RM5" s="34"/>
+      <c r="RN5" s="34"/>
+      <c r="RO5" s="34"/>
+      <c r="RP5" s="34"/>
+      <c r="RQ5" s="34"/>
+      <c r="RR5" s="34"/>
+      <c r="RS5" s="34"/>
+      <c r="RT5" s="34"/>
+      <c r="RU5" s="34"/>
+      <c r="RV5" s="34"/>
+      <c r="RW5" s="34"/>
+      <c r="RX5" s="34"/>
+      <c r="RY5" s="34"/>
+      <c r="RZ5" s="34"/>
+      <c r="SA5" s="34"/>
+      <c r="SB5" s="34"/>
+      <c r="SC5" s="34"/>
+      <c r="SD5" s="34"/>
+      <c r="SE5" s="34"/>
+      <c r="SF5" s="34"/>
+      <c r="SG5" s="34"/>
+      <c r="SH5" s="34"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="J6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="AK6" s="31"/>
-      <c r="AT6" s="31"/>
-      <c r="BR6" s="30"/>
-      <c r="BS6" s="30"/>
-      <c r="FK6" s="31"/>
-      <c r="FS6" s="30"/>
-      <c r="GF6" s="32"/>
-      <c r="IE6" s="30"/>
-      <c r="JB6" s="30"/>
-      <c r="KM6" s="30"/>
-      <c r="MA6" s="31"/>
-      <c r="MQ6" s="30"/>
-      <c r="NM6" s="30"/>
-      <c r="OK6" s="33"/>
-      <c r="PB6" s="34"/>
-      <c r="QC6" s="33"/>
-      <c r="QP6" s="33"/>
-      <c r="QQ6" s="30"/>
-      <c r="QR6" s="30"/>
-      <c r="QS6" s="30"/>
-      <c r="QT6" s="30"/>
-      <c r="QU6" s="30"/>
-      <c r="QV6" s="30"/>
-      <c r="QW6" s="30"/>
-      <c r="QX6" s="30"/>
-      <c r="QY6" s="30"/>
-      <c r="QZ6" s="30"/>
-      <c r="RA6" s="30"/>
-      <c r="RB6" s="30"/>
-      <c r="RC6" s="30"/>
-      <c r="RD6" s="30"/>
-      <c r="RE6" s="30"/>
-      <c r="RF6" s="30"/>
-      <c r="RG6" s="33"/>
-      <c r="RH6" s="30"/>
-      <c r="RI6" s="30"/>
-      <c r="RJ6" s="30"/>
-      <c r="RK6" s="30"/>
-      <c r="RL6" s="30"/>
-      <c r="RM6" s="30"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AM6" s="40"/>
+      <c r="AV6" s="40"/>
+      <c r="BV6" s="39"/>
+      <c r="BW6" s="39"/>
+      <c r="BX6" s="39"/>
+      <c r="FQ6" s="40"/>
+      <c r="FR6" s="40"/>
+      <c r="FZ6" s="39"/>
+      <c r="GA6" s="39"/>
+      <c r="GN6" s="41"/>
+      <c r="GO6" s="41"/>
+      <c r="IN6" s="39"/>
+      <c r="IO6" s="39"/>
+      <c r="JL6" s="39"/>
+      <c r="JM6" s="39"/>
+      <c r="KY6" s="39"/>
+      <c r="KZ6" s="39"/>
+      <c r="MN6" s="40"/>
+      <c r="MO6" s="40"/>
+      <c r="NE6" s="39"/>
+      <c r="NF6" s="39"/>
+      <c r="OB6" s="39"/>
+      <c r="OC6" s="39"/>
+      <c r="PA6" s="39"/>
+      <c r="PB6" s="39"/>
+      <c r="PS6" s="42"/>
+      <c r="PT6" s="42"/>
+      <c r="QU6" s="39"/>
+      <c r="QV6" s="39"/>
+      <c r="RI6" s="39"/>
+      <c r="RJ6" s="39"/>
+      <c r="RK6" s="39"/>
+      <c r="RL6" s="39"/>
+      <c r="RM6" s="39"/>
+      <c r="RN6" s="39"/>
+      <c r="RO6" s="39"/>
+      <c r="RP6" s="39"/>
+      <c r="RQ6" s="39"/>
+      <c r="RR6" s="39"/>
+      <c r="RS6" s="39"/>
+      <c r="RT6" s="39"/>
+      <c r="RU6" s="39"/>
+      <c r="RV6" s="39"/>
+      <c r="RW6" s="39"/>
+      <c r="RX6" s="39"/>
+      <c r="RY6" s="39"/>
+      <c r="RZ6" s="39"/>
+      <c r="SA6" s="39"/>
+      <c r="SB6" s="39"/>
+      <c r="SC6" s="39"/>
+      <c r="SD6" s="39"/>
+      <c r="SE6" s="39"/>
+      <c r="SF6" s="39"/>
+      <c r="SG6" s="39"/>
+      <c r="SH6" s="39"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="J7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="AG7" s="24"/>
-      <c r="AK7" s="31"/>
-      <c r="AT7" s="31"/>
-      <c r="BR7" s="30"/>
-      <c r="BS7" s="30"/>
-      <c r="FK7" s="31"/>
-      <c r="FS7" s="30"/>
-      <c r="GF7" s="35"/>
-      <c r="IE7" s="30"/>
-      <c r="JB7" s="36"/>
-      <c r="KM7" s="30"/>
-      <c r="MA7" s="31"/>
-      <c r="MQ7" s="30"/>
-      <c r="NM7" s="30"/>
-      <c r="OK7" s="33"/>
-      <c r="PB7" s="33"/>
-      <c r="QC7" s="33"/>
-      <c r="QP7" s="33"/>
-      <c r="QQ7" s="30"/>
-      <c r="QR7" s="30"/>
-      <c r="QS7" s="30"/>
-      <c r="QT7" s="30"/>
-      <c r="QU7" s="30"/>
-      <c r="QV7" s="30"/>
-      <c r="QW7" s="30"/>
-      <c r="QX7" s="30"/>
-      <c r="QY7" s="30"/>
-      <c r="QZ7" s="30"/>
-      <c r="RA7" s="30"/>
-      <c r="RB7" s="30"/>
-      <c r="RC7" s="30"/>
-      <c r="RD7" s="30"/>
-      <c r="RE7" s="30"/>
-      <c r="RF7" s="30"/>
-      <c r="RG7" s="33"/>
-      <c r="RH7" s="30"/>
-      <c r="RI7" s="30"/>
-      <c r="RJ7" s="30"/>
-      <c r="RK7" s="30"/>
-      <c r="RL7" s="30"/>
-      <c r="RM7" s="30"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AI7" s="32"/>
+      <c r="AM7" s="40"/>
+      <c r="AV7" s="40"/>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="FQ7" s="40"/>
+      <c r="FR7" s="40"/>
+      <c r="FZ7" s="39"/>
+      <c r="GA7" s="39"/>
+      <c r="GN7" s="43"/>
+      <c r="GO7" s="43"/>
+      <c r="IN7" s="39"/>
+      <c r="IO7" s="39"/>
+      <c r="JL7" s="42"/>
+      <c r="JM7" s="42"/>
+      <c r="KY7" s="39"/>
+      <c r="KZ7" s="39"/>
+      <c r="MN7" s="40"/>
+      <c r="MO7" s="40"/>
+      <c r="NE7" s="39"/>
+      <c r="NF7" s="39"/>
+      <c r="OB7" s="39"/>
+      <c r="OC7" s="39"/>
+      <c r="PA7" s="39"/>
+      <c r="PB7" s="39"/>
+      <c r="PS7" s="39"/>
+      <c r="PT7" s="39"/>
+      <c r="QU7" s="39"/>
+      <c r="QV7" s="39"/>
+      <c r="RI7" s="39"/>
+      <c r="RJ7" s="39"/>
+      <c r="RK7" s="39"/>
+      <c r="RL7" s="39"/>
+      <c r="RM7" s="39"/>
+      <c r="RN7" s="39"/>
+      <c r="RO7" s="39"/>
+      <c r="RP7" s="39"/>
+      <c r="RQ7" s="39"/>
+      <c r="RR7" s="39"/>
+      <c r="RS7" s="39"/>
+      <c r="RT7" s="39"/>
+      <c r="RU7" s="39"/>
+      <c r="RV7" s="39"/>
+      <c r="RW7" s="39"/>
+      <c r="RX7" s="39"/>
+      <c r="RY7" s="39"/>
+      <c r="RZ7" s="39"/>
+      <c r="SA7" s="39"/>
+      <c r="SB7" s="39"/>
+      <c r="SC7" s="39"/>
+      <c r="SD7" s="39"/>
+      <c r="SE7" s="39"/>
+      <c r="SF7" s="39"/>
+      <c r="SG7" s="39"/>
+      <c r="SH7" s="39"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="J8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="AK8" s="31"/>
-      <c r="AT8" s="30"/>
-      <c r="BR8" s="30"/>
-      <c r="BS8" s="30"/>
-      <c r="FK8" s="31"/>
-      <c r="FS8" s="30"/>
-      <c r="GF8" s="35"/>
-      <c r="IE8" s="30"/>
-      <c r="JB8" s="36"/>
-      <c r="KM8" s="30"/>
-      <c r="MA8" s="31"/>
-      <c r="MQ8" s="30"/>
-      <c r="NM8" s="30"/>
-      <c r="OK8" s="33"/>
-      <c r="PB8" s="33"/>
-      <c r="QC8" s="33"/>
-      <c r="QP8" s="33"/>
-      <c r="QQ8" s="30"/>
-      <c r="QR8" s="30"/>
-      <c r="QS8" s="30"/>
-      <c r="QT8" s="30"/>
-      <c r="QU8" s="30"/>
-      <c r="QV8" s="30"/>
-      <c r="QW8" s="30"/>
-      <c r="QX8" s="30"/>
-      <c r="QY8" s="30"/>
-      <c r="QZ8" s="30"/>
-      <c r="RA8" s="30"/>
-      <c r="RB8" s="30"/>
-      <c r="RC8" s="30"/>
-      <c r="RD8" s="30"/>
-      <c r="RE8" s="30"/>
-      <c r="RF8" s="30"/>
-      <c r="RG8" s="33"/>
-      <c r="RH8" s="30"/>
-      <c r="RI8" s="30"/>
-      <c r="RJ8" s="30"/>
-      <c r="RK8" s="30"/>
-      <c r="RL8" s="30"/>
-      <c r="RM8" s="30"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AM8" s="40"/>
+      <c r="AV8" s="39"/>
+      <c r="BV8" s="39"/>
+      <c r="BW8" s="39"/>
+      <c r="BX8" s="39"/>
+      <c r="FQ8" s="40"/>
+      <c r="FR8" s="40"/>
+      <c r="FZ8" s="39"/>
+      <c r="GA8" s="39"/>
+      <c r="GN8" s="43"/>
+      <c r="GO8" s="43"/>
+      <c r="IN8" s="39"/>
+      <c r="IO8" s="39"/>
+      <c r="JL8" s="42"/>
+      <c r="JM8" s="42"/>
+      <c r="KY8" s="39"/>
+      <c r="KZ8" s="39"/>
+      <c r="MN8" s="40"/>
+      <c r="MO8" s="40"/>
+      <c r="NE8" s="39"/>
+      <c r="NF8" s="39"/>
+      <c r="OB8" s="39"/>
+      <c r="OC8" s="39"/>
+      <c r="PA8" s="39"/>
+      <c r="PB8" s="39"/>
+      <c r="PS8" s="39"/>
+      <c r="PT8" s="39"/>
+      <c r="QU8" s="39"/>
+      <c r="QV8" s="39"/>
+      <c r="RI8" s="39"/>
+      <c r="RJ8" s="39"/>
+      <c r="RK8" s="39"/>
+      <c r="RL8" s="39"/>
+      <c r="RM8" s="39"/>
+      <c r="RN8" s="39"/>
+      <c r="RO8" s="39"/>
+      <c r="RP8" s="39"/>
+      <c r="RQ8" s="39"/>
+      <c r="RR8" s="39"/>
+      <c r="RS8" s="39"/>
+      <c r="RT8" s="39"/>
+      <c r="RU8" s="39"/>
+      <c r="RV8" s="39"/>
+      <c r="RW8" s="39"/>
+      <c r="RX8" s="39"/>
+      <c r="RY8" s="39"/>
+      <c r="RZ8" s="39"/>
+      <c r="SA8" s="39"/>
+      <c r="SB8" s="39"/>
+      <c r="SC8" s="39"/>
+      <c r="SD8" s="39"/>
+      <c r="SE8" s="39"/>
+      <c r="SF8" s="39"/>
+      <c r="SG8" s="39"/>
+      <c r="SH8" s="39"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="J9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="AK9" s="31"/>
-      <c r="AT9" s="31"/>
-      <c r="BR9" s="30"/>
-      <c r="BS9" s="30"/>
-      <c r="FK9" s="31"/>
-      <c r="FS9" s="30"/>
-      <c r="GF9" s="35"/>
-      <c r="IE9" s="30"/>
-      <c r="JB9" s="36"/>
-      <c r="KM9" s="30"/>
-      <c r="MA9" s="31"/>
-      <c r="MQ9" s="30"/>
-      <c r="NM9" s="30"/>
-      <c r="OK9" s="33"/>
-      <c r="PB9" s="33"/>
-      <c r="QC9" s="33"/>
-      <c r="QP9" s="31"/>
-      <c r="QQ9" s="31"/>
-      <c r="QR9" s="31"/>
-      <c r="QS9" s="31"/>
-      <c r="QT9" s="31"/>
-      <c r="QU9" s="31"/>
-      <c r="QV9" s="31"/>
-      <c r="QW9" s="31"/>
-      <c r="QX9" s="31"/>
-      <c r="QY9" s="31"/>
-      <c r="QZ9" s="31"/>
-      <c r="RA9" s="31"/>
-      <c r="RB9" s="31"/>
-      <c r="RC9" s="31"/>
-      <c r="RD9" s="31"/>
-      <c r="RE9" s="31"/>
-      <c r="RF9" s="31"/>
-      <c r="RG9" s="33"/>
-      <c r="RH9" s="30"/>
-      <c r="RI9" s="30"/>
-      <c r="RJ9" s="30"/>
-      <c r="RK9" s="30"/>
-      <c r="RL9" s="30"/>
-      <c r="RM9" s="30"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AM9" s="40"/>
+      <c r="AV9" s="40"/>
+      <c r="BV9" s="39"/>
+      <c r="BW9" s="39"/>
+      <c r="BX9" s="39"/>
+      <c r="FQ9" s="40"/>
+      <c r="FR9" s="40"/>
+      <c r="FZ9" s="39"/>
+      <c r="GA9" s="39"/>
+      <c r="GN9" s="43"/>
+      <c r="GO9" s="43"/>
+      <c r="IN9" s="39"/>
+      <c r="IO9" s="39"/>
+      <c r="JL9" s="42"/>
+      <c r="JM9" s="42"/>
+      <c r="KY9" s="39"/>
+      <c r="KZ9" s="39"/>
+      <c r="MN9" s="40"/>
+      <c r="MO9" s="40"/>
+      <c r="NE9" s="39"/>
+      <c r="NF9" s="39"/>
+      <c r="OB9" s="39"/>
+      <c r="OC9" s="39"/>
+      <c r="PA9" s="39"/>
+      <c r="PB9" s="39"/>
+      <c r="PS9" s="39"/>
+      <c r="PT9" s="39"/>
+      <c r="QU9" s="39"/>
+      <c r="QV9" s="39"/>
+      <c r="RI9" s="40"/>
+      <c r="RJ9" s="40"/>
+      <c r="RK9" s="40"/>
+      <c r="RL9" s="40"/>
+      <c r="RM9" s="40"/>
+      <c r="RN9" s="40"/>
+      <c r="RO9" s="40"/>
+      <c r="RP9" s="40"/>
+      <c r="RQ9" s="40"/>
+      <c r="RR9" s="40"/>
+      <c r="RS9" s="40"/>
+      <c r="RT9" s="40"/>
+      <c r="RU9" s="40"/>
+      <c r="RV9" s="40"/>
+      <c r="RW9" s="40"/>
+      <c r="RX9" s="40"/>
+      <c r="RY9" s="40"/>
+      <c r="RZ9" s="40"/>
+      <c r="SA9" s="39"/>
+      <c r="SB9" s="39"/>
+      <c r="SC9" s="39"/>
+      <c r="SD9" s="39"/>
+      <c r="SE9" s="39"/>
+      <c r="SF9" s="39"/>
+      <c r="SG9" s="39"/>
+      <c r="SH9" s="39"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="J10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="AK10" s="31"/>
-      <c r="AT10" s="31"/>
-      <c r="BR10" s="30"/>
-      <c r="BS10" s="30"/>
-      <c r="EO10" s="30"/>
-      <c r="FK10" s="31"/>
-      <c r="FS10" s="30"/>
-      <c r="GF10" s="32"/>
-      <c r="IE10" s="31"/>
-      <c r="JB10" s="36"/>
-      <c r="KM10" s="30"/>
-      <c r="MA10" s="31"/>
-      <c r="MQ10" s="30"/>
-      <c r="NM10" s="30"/>
-      <c r="OK10" s="33"/>
-      <c r="PB10" s="33"/>
-      <c r="QC10" s="33"/>
-      <c r="QP10" s="31"/>
-      <c r="QQ10" s="31"/>
-      <c r="QR10" s="31"/>
-      <c r="QS10" s="31"/>
-      <c r="QT10" s="31"/>
-      <c r="QU10" s="31"/>
-      <c r="QV10" s="31"/>
-      <c r="QW10" s="31"/>
-      <c r="QX10" s="31"/>
-      <c r="QY10" s="31"/>
-      <c r="QZ10" s="31"/>
-      <c r="RA10" s="31"/>
-      <c r="RB10" s="31"/>
-      <c r="RC10" s="31"/>
-      <c r="RD10" s="31"/>
-      <c r="RE10" s="31"/>
-      <c r="RF10" s="31"/>
-      <c r="RG10" s="31"/>
-      <c r="RH10" s="31"/>
-      <c r="RI10" s="31"/>
-      <c r="RJ10" s="31"/>
-      <c r="RK10" s="31"/>
-      <c r="RL10" s="31"/>
-      <c r="RM10" s="31"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AM10" s="40"/>
+      <c r="AV10" s="40"/>
+      <c r="BV10" s="39"/>
+      <c r="BW10" s="39"/>
+      <c r="BX10" s="39"/>
+      <c r="ET10" s="39"/>
+      <c r="EU10" s="39"/>
+      <c r="FQ10" s="40"/>
+      <c r="FR10" s="40"/>
+      <c r="FZ10" s="39"/>
+      <c r="GA10" s="39"/>
+      <c r="GN10" s="41"/>
+      <c r="GO10" s="41"/>
+      <c r="IN10" s="40"/>
+      <c r="IO10" s="40"/>
+      <c r="JL10" s="42"/>
+      <c r="JM10" s="42"/>
+      <c r="KY10" s="39"/>
+      <c r="KZ10" s="39"/>
+      <c r="MN10" s="40"/>
+      <c r="MO10" s="40"/>
+      <c r="NE10" s="39"/>
+      <c r="NF10" s="39"/>
+      <c r="OB10" s="39"/>
+      <c r="OC10" s="39"/>
+      <c r="PA10" s="39"/>
+      <c r="PB10" s="39"/>
+      <c r="PS10" s="39"/>
+      <c r="PT10" s="39"/>
+      <c r="QU10" s="39"/>
+      <c r="QV10" s="39"/>
+      <c r="RI10" s="40"/>
+      <c r="RJ10" s="40"/>
+      <c r="RK10" s="40"/>
+      <c r="RL10" s="40"/>
+      <c r="RM10" s="40"/>
+      <c r="RN10" s="40"/>
+      <c r="RO10" s="40"/>
+      <c r="RP10" s="40"/>
+      <c r="RQ10" s="40"/>
+      <c r="RR10" s="40"/>
+      <c r="RS10" s="40"/>
+      <c r="RT10" s="40"/>
+      <c r="RU10" s="40"/>
+      <c r="RV10" s="40"/>
+      <c r="RW10" s="40"/>
+      <c r="RX10" s="40"/>
+      <c r="RY10" s="40"/>
+      <c r="RZ10" s="40"/>
+      <c r="SA10" s="40"/>
+      <c r="SB10" s="40"/>
+      <c r="SC10" s="40"/>
+      <c r="SD10" s="40"/>
+      <c r="SE10" s="40"/>
+      <c r="SF10" s="40"/>
+      <c r="SG10" s="40"/>
+      <c r="SH10" s="40"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="J11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="AK11" s="31"/>
-      <c r="AT11" s="30"/>
-      <c r="BR11" s="30"/>
-      <c r="BS11" s="30"/>
-      <c r="EO11" s="30"/>
-      <c r="FK11" s="31"/>
-      <c r="FS11" s="30"/>
-      <c r="GF11" s="35"/>
-      <c r="IE11" s="30"/>
-      <c r="JB11" s="30"/>
-      <c r="KM11" s="30"/>
-      <c r="MA11" s="31"/>
-      <c r="MQ11" s="30"/>
-      <c r="NM11" s="30"/>
-      <c r="OK11" s="33"/>
-      <c r="PB11" s="33"/>
-      <c r="QC11" s="33"/>
-      <c r="QP11" s="31"/>
-      <c r="QQ11" s="31"/>
-      <c r="QR11" s="31"/>
-      <c r="QS11" s="31"/>
-      <c r="QT11" s="31"/>
-      <c r="QU11" s="31"/>
-      <c r="QV11" s="31"/>
-      <c r="QW11" s="31"/>
-      <c r="QX11" s="31"/>
-      <c r="QY11" s="31"/>
-      <c r="QZ11" s="31"/>
-      <c r="RA11" s="31"/>
-      <c r="RB11" s="31"/>
-      <c r="RC11" s="31"/>
-      <c r="RD11" s="31"/>
-      <c r="RE11" s="31"/>
-      <c r="RF11" s="31"/>
-      <c r="RG11" s="31"/>
-      <c r="RH11" s="31"/>
-      <c r="RI11" s="31"/>
-      <c r="RJ11" s="31"/>
-      <c r="RK11" s="31"/>
-      <c r="RL11" s="31"/>
-      <c r="RM11" s="31"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AM11" s="40"/>
+      <c r="AV11" s="39"/>
+      <c r="BV11" s="39"/>
+      <c r="BW11" s="39"/>
+      <c r="BX11" s="39"/>
+      <c r="ET11" s="39"/>
+      <c r="EU11" s="39"/>
+      <c r="FQ11" s="40"/>
+      <c r="FR11" s="40"/>
+      <c r="FZ11" s="39"/>
+      <c r="GA11" s="39"/>
+      <c r="GN11" s="43"/>
+      <c r="GO11" s="43"/>
+      <c r="IN11" s="39"/>
+      <c r="IO11" s="39"/>
+      <c r="JL11" s="39"/>
+      <c r="JM11" s="39"/>
+      <c r="KY11" s="39"/>
+      <c r="KZ11" s="39"/>
+      <c r="MN11" s="40"/>
+      <c r="MO11" s="40"/>
+      <c r="NE11" s="39"/>
+      <c r="NF11" s="39"/>
+      <c r="OB11" s="39"/>
+      <c r="OC11" s="39"/>
+      <c r="PA11" s="39"/>
+      <c r="PB11" s="39"/>
+      <c r="PS11" s="39"/>
+      <c r="PT11" s="39"/>
+      <c r="QU11" s="39"/>
+      <c r="QV11" s="39"/>
+      <c r="RI11" s="40"/>
+      <c r="RJ11" s="40"/>
+      <c r="RK11" s="40"/>
+      <c r="RL11" s="40"/>
+      <c r="RM11" s="40"/>
+      <c r="RN11" s="40"/>
+      <c r="RO11" s="40"/>
+      <c r="RP11" s="40"/>
+      <c r="RQ11" s="40"/>
+      <c r="RR11" s="40"/>
+      <c r="RS11" s="40"/>
+      <c r="RT11" s="40"/>
+      <c r="RU11" s="40"/>
+      <c r="RV11" s="40"/>
+      <c r="RW11" s="40"/>
+      <c r="RX11" s="40"/>
+      <c r="RY11" s="40"/>
+      <c r="RZ11" s="40"/>
+      <c r="SA11" s="40"/>
+      <c r="SB11" s="40"/>
+      <c r="SC11" s="40"/>
+      <c r="SD11" s="40"/>
+      <c r="SE11" s="40"/>
+      <c r="SF11" s="40"/>
+      <c r="SG11" s="40"/>
+      <c r="SH11" s="40"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="J12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="AT12" s="30"/>
-      <c r="BR12" s="30"/>
-      <c r="BS12" s="30"/>
-      <c r="EO12" s="30"/>
-      <c r="FS12" s="30"/>
-      <c r="GF12" s="35"/>
-      <c r="IE12" s="30"/>
-      <c r="JB12" s="30"/>
-      <c r="KM12" s="30"/>
-      <c r="MA12" s="31"/>
-      <c r="MQ12" s="30"/>
-      <c r="NM12" s="30"/>
-      <c r="OK12" s="33"/>
-      <c r="PB12" s="33"/>
-      <c r="QC12" s="33"/>
-      <c r="QP12" s="31"/>
-      <c r="QQ12" s="31"/>
-      <c r="QR12" s="31"/>
-      <c r="QS12" s="31"/>
-      <c r="QT12" s="31"/>
-      <c r="QU12" s="31"/>
-      <c r="QV12" s="31"/>
-      <c r="QW12" s="31"/>
-      <c r="QX12" s="31"/>
-      <c r="QY12" s="31"/>
-      <c r="QZ12" s="31"/>
-      <c r="RA12" s="31"/>
-      <c r="RB12" s="31"/>
-      <c r="RC12" s="31"/>
-      <c r="RD12" s="31"/>
-      <c r="RE12" s="31"/>
-      <c r="RF12" s="31"/>
-      <c r="RG12" s="31"/>
-      <c r="RH12" s="31"/>
-      <c r="RI12" s="31"/>
-      <c r="RJ12" s="31"/>
-      <c r="RK12" s="31"/>
-      <c r="RL12" s="31"/>
-      <c r="RM12" s="31"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="BV12" s="39"/>
+      <c r="BW12" s="39"/>
+      <c r="BX12" s="39"/>
+      <c r="ET12" s="39"/>
+      <c r="EU12" s="39"/>
+      <c r="FZ12" s="39"/>
+      <c r="GA12" s="39"/>
+      <c r="GN12" s="43"/>
+      <c r="GO12" s="43"/>
+      <c r="IN12" s="39"/>
+      <c r="IO12" s="39"/>
+      <c r="JL12" s="39"/>
+      <c r="JM12" s="39"/>
+      <c r="KY12" s="39"/>
+      <c r="KZ12" s="39"/>
+      <c r="MN12" s="40"/>
+      <c r="MO12" s="40"/>
+      <c r="NE12" s="39"/>
+      <c r="NF12" s="39"/>
+      <c r="OB12" s="39"/>
+      <c r="OC12" s="39"/>
+      <c r="PA12" s="39"/>
+      <c r="PB12" s="39"/>
+      <c r="PS12" s="39"/>
+      <c r="PT12" s="39"/>
+      <c r="QU12" s="39"/>
+      <c r="QV12" s="39"/>
+      <c r="RI12" s="40"/>
+      <c r="RJ12" s="40"/>
+      <c r="RK12" s="40"/>
+      <c r="RL12" s="40"/>
+      <c r="RM12" s="40"/>
+      <c r="RN12" s="40"/>
+      <c r="RO12" s="40"/>
+      <c r="RP12" s="40"/>
+      <c r="RQ12" s="40"/>
+      <c r="RR12" s="40"/>
+      <c r="RS12" s="40"/>
+      <c r="RT12" s="40"/>
+      <c r="RU12" s="40"/>
+      <c r="RV12" s="40"/>
+      <c r="RW12" s="40"/>
+      <c r="RX12" s="40"/>
+      <c r="RY12" s="40"/>
+      <c r="RZ12" s="40"/>
+      <c r="SA12" s="40"/>
+      <c r="SB12" s="40"/>
+      <c r="SC12" s="40"/>
+      <c r="SD12" s="40"/>
+      <c r="SE12" s="40"/>
+      <c r="SF12" s="40"/>
+      <c r="SG12" s="40"/>
+      <c r="SH12" s="40"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="C13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="J13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="AT13" s="30"/>
-      <c r="BR13" s="30"/>
-      <c r="BS13" s="30"/>
-      <c r="EO13" s="30"/>
-      <c r="FS13" s="30"/>
-      <c r="GF13" s="35"/>
-      <c r="IE13" s="30"/>
-      <c r="JB13" s="30"/>
-      <c r="KM13" s="30"/>
-      <c r="MA13" s="31"/>
-      <c r="MQ13" s="30"/>
-      <c r="NM13" s="30"/>
-      <c r="OK13" s="33"/>
-      <c r="PB13" s="33"/>
-      <c r="QC13" s="33"/>
-      <c r="QP13" s="31"/>
-      <c r="QQ13" s="31"/>
-      <c r="QR13" s="31"/>
-      <c r="QS13" s="31"/>
-      <c r="QT13" s="31"/>
-      <c r="QU13" s="31"/>
-      <c r="QV13" s="31"/>
-      <c r="QW13" s="31"/>
-      <c r="QX13" s="31"/>
-      <c r="QY13" s="31"/>
-      <c r="QZ13" s="31"/>
-      <c r="RA13" s="31"/>
-      <c r="RB13" s="31"/>
-      <c r="RC13" s="31"/>
-      <c r="RD13" s="31"/>
-      <c r="RE13" s="31"/>
-      <c r="RF13" s="31"/>
-      <c r="RG13" s="31"/>
-      <c r="RH13" s="31"/>
-      <c r="RI13" s="31"/>
-      <c r="RJ13" s="31"/>
-      <c r="RK13" s="31"/>
-      <c r="RL13" s="31"/>
-      <c r="RM13" s="31"/>
+      <c r="A13" s="44"/>
+      <c r="C13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="BV13" s="39"/>
+      <c r="BW13" s="39"/>
+      <c r="BX13" s="39"/>
+      <c r="ET13" s="39"/>
+      <c r="EU13" s="39"/>
+      <c r="FZ13" s="39"/>
+      <c r="GA13" s="39"/>
+      <c r="GN13" s="43"/>
+      <c r="GO13" s="43"/>
+      <c r="IN13" s="39"/>
+      <c r="IO13" s="39"/>
+      <c r="JL13" s="39"/>
+      <c r="JM13" s="39"/>
+      <c r="KY13" s="39"/>
+      <c r="KZ13" s="39"/>
+      <c r="MN13" s="40"/>
+      <c r="MO13" s="40"/>
+      <c r="NE13" s="39"/>
+      <c r="NF13" s="39"/>
+      <c r="OB13" s="39"/>
+      <c r="OC13" s="39"/>
+      <c r="PA13" s="39"/>
+      <c r="PB13" s="39"/>
+      <c r="PS13" s="39"/>
+      <c r="PT13" s="39"/>
+      <c r="QU13" s="39"/>
+      <c r="QV13" s="39"/>
+      <c r="RI13" s="40"/>
+      <c r="RJ13" s="40"/>
+      <c r="RK13" s="40"/>
+      <c r="RL13" s="40"/>
+      <c r="RM13" s="40"/>
+      <c r="RN13" s="40"/>
+      <c r="RO13" s="40"/>
+      <c r="RP13" s="40"/>
+      <c r="RQ13" s="40"/>
+      <c r="RR13" s="40"/>
+      <c r="RS13" s="40"/>
+      <c r="RT13" s="40"/>
+      <c r="RU13" s="40"/>
+      <c r="RV13" s="40"/>
+      <c r="RW13" s="40"/>
+      <c r="RX13" s="40"/>
+      <c r="RY13" s="40"/>
+      <c r="RZ13" s="40"/>
+      <c r="SA13" s="40"/>
+      <c r="SB13" s="40"/>
+      <c r="SC13" s="40"/>
+      <c r="SD13" s="40"/>
+      <c r="SE13" s="40"/>
+      <c r="SF13" s="40"/>
+      <c r="SG13" s="40"/>
+      <c r="SH13" s="40"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="J14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="AT14" s="30"/>
-      <c r="BR14" s="30"/>
-      <c r="BS14" s="30"/>
-      <c r="EO14" s="30"/>
-      <c r="FS14" s="30"/>
-      <c r="GF14" s="35"/>
-      <c r="IE14" s="30"/>
-      <c r="JB14" s="30"/>
-      <c r="KM14" s="30"/>
-      <c r="MA14" s="31"/>
-      <c r="MQ14" s="30"/>
-      <c r="NM14" s="30"/>
-      <c r="OK14" s="33"/>
-      <c r="PB14" s="33"/>
-      <c r="QC14" s="33"/>
-      <c r="QP14" s="31"/>
-      <c r="QQ14" s="31"/>
-      <c r="QR14" s="31"/>
-      <c r="QS14" s="31"/>
-      <c r="QT14" s="31"/>
-      <c r="QU14" s="31"/>
-      <c r="QV14" s="31"/>
-      <c r="QW14" s="31"/>
-      <c r="QX14" s="31"/>
-      <c r="QY14" s="31"/>
-      <c r="QZ14" s="31"/>
-      <c r="RA14" s="31"/>
-      <c r="RB14" s="31"/>
-      <c r="RC14" s="31"/>
-      <c r="RD14" s="31"/>
-      <c r="RE14" s="31"/>
-      <c r="RF14" s="31"/>
-      <c r="RG14" s="31"/>
-      <c r="RH14" s="31"/>
-      <c r="RI14" s="31"/>
-      <c r="RJ14" s="31"/>
-      <c r="RK14" s="31"/>
-      <c r="RL14" s="31"/>
-      <c r="RM14" s="31"/>
+      <c r="A14" s="40"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AV14" s="39"/>
+      <c r="BV14" s="39"/>
+      <c r="BW14" s="39"/>
+      <c r="BX14" s="39"/>
+      <c r="ET14" s="39"/>
+      <c r="EU14" s="39"/>
+      <c r="FZ14" s="39"/>
+      <c r="GA14" s="39"/>
+      <c r="GN14" s="43"/>
+      <c r="GO14" s="43"/>
+      <c r="IN14" s="39"/>
+      <c r="IO14" s="39"/>
+      <c r="JL14" s="39"/>
+      <c r="JM14" s="39"/>
+      <c r="KY14" s="39"/>
+      <c r="KZ14" s="39"/>
+      <c r="MN14" s="40"/>
+      <c r="MO14" s="40"/>
+      <c r="NE14" s="39"/>
+      <c r="NF14" s="39"/>
+      <c r="OB14" s="39"/>
+      <c r="OC14" s="39"/>
+      <c r="PA14" s="39"/>
+      <c r="PB14" s="39"/>
+      <c r="PS14" s="39"/>
+      <c r="PT14" s="39"/>
+      <c r="QU14" s="39"/>
+      <c r="QV14" s="39"/>
+      <c r="RI14" s="40"/>
+      <c r="RJ14" s="40"/>
+      <c r="RK14" s="40"/>
+      <c r="RL14" s="40"/>
+      <c r="RM14" s="40"/>
+      <c r="RN14" s="40"/>
+      <c r="RO14" s="40"/>
+      <c r="RP14" s="40"/>
+      <c r="RQ14" s="40"/>
+      <c r="RR14" s="40"/>
+      <c r="RS14" s="40"/>
+      <c r="RT14" s="40"/>
+      <c r="RU14" s="40"/>
+      <c r="RV14" s="40"/>
+      <c r="RW14" s="40"/>
+      <c r="RX14" s="40"/>
+      <c r="RY14" s="40"/>
+      <c r="RZ14" s="40"/>
+      <c r="SA14" s="40"/>
+      <c r="SB14" s="40"/>
+      <c r="SC14" s="40"/>
+      <c r="SD14" s="40"/>
+      <c r="SE14" s="40"/>
+      <c r="SF14" s="40"/>
+      <c r="SG14" s="40"/>
+      <c r="SH14" s="40"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="J15" s="30"/>
-      <c r="AT15" s="31"/>
-      <c r="BR15" s="30"/>
-      <c r="BS15" s="30"/>
-      <c r="EO15" s="30"/>
-      <c r="FS15" s="30"/>
-      <c r="GF15" s="32"/>
-      <c r="IE15" s="30"/>
-      <c r="JB15" s="30"/>
-      <c r="KM15" s="30"/>
-      <c r="MA15" s="31"/>
-      <c r="MQ15" s="30"/>
-      <c r="NM15" s="30"/>
-      <c r="OK15" s="33"/>
-      <c r="PB15" s="33"/>
-      <c r="QC15" s="33"/>
-      <c r="QP15" s="31"/>
-      <c r="QQ15" s="31"/>
-      <c r="QR15" s="31"/>
-      <c r="QS15" s="31"/>
-      <c r="QT15" s="31"/>
-      <c r="QU15" s="31"/>
-      <c r="QV15" s="31"/>
-      <c r="QW15" s="31"/>
-      <c r="QX15" s="31"/>
-      <c r="QY15" s="31"/>
-      <c r="QZ15" s="31"/>
-      <c r="RA15" s="31"/>
-      <c r="RB15" s="31"/>
-      <c r="RC15" s="31"/>
-      <c r="RD15" s="31"/>
-      <c r="RE15" s="31"/>
-      <c r="RF15" s="31"/>
-      <c r="RG15" s="31"/>
-      <c r="RH15" s="31"/>
-      <c r="RI15" s="31"/>
-      <c r="RJ15" s="31"/>
-      <c r="RK15" s="31"/>
-      <c r="RL15" s="31"/>
-      <c r="RM15" s="31"/>
+      <c r="A15" s="40"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="AV15" s="40"/>
+      <c r="BV15" s="39"/>
+      <c r="BW15" s="39"/>
+      <c r="BX15" s="39"/>
+      <c r="ET15" s="39"/>
+      <c r="EU15" s="39"/>
+      <c r="FZ15" s="39"/>
+      <c r="GA15" s="39"/>
+      <c r="GN15" s="41"/>
+      <c r="GO15" s="41"/>
+      <c r="IN15" s="39"/>
+      <c r="IO15" s="39"/>
+      <c r="JL15" s="39"/>
+      <c r="JM15" s="39"/>
+      <c r="KY15" s="39"/>
+      <c r="KZ15" s="39"/>
+      <c r="MN15" s="40"/>
+      <c r="MO15" s="40"/>
+      <c r="NE15" s="39"/>
+      <c r="NF15" s="39"/>
+      <c r="OB15" s="39"/>
+      <c r="OC15" s="39"/>
+      <c r="PA15" s="39"/>
+      <c r="PB15" s="39"/>
+      <c r="PS15" s="39"/>
+      <c r="PT15" s="39"/>
+      <c r="QU15" s="39"/>
+      <c r="QV15" s="39"/>
+      <c r="RI15" s="40"/>
+      <c r="RJ15" s="40"/>
+      <c r="RK15" s="40"/>
+      <c r="RL15" s="40"/>
+      <c r="RM15" s="40"/>
+      <c r="RN15" s="40"/>
+      <c r="RO15" s="40"/>
+      <c r="RP15" s="40"/>
+      <c r="RQ15" s="40"/>
+      <c r="RR15" s="40"/>
+      <c r="RS15" s="40"/>
+      <c r="RT15" s="40"/>
+      <c r="RU15" s="40"/>
+      <c r="RV15" s="40"/>
+      <c r="RW15" s="40"/>
+      <c r="RX15" s="40"/>
+      <c r="RY15" s="40"/>
+      <c r="RZ15" s="40"/>
+      <c r="SA15" s="40"/>
+      <c r="SB15" s="40"/>
+      <c r="SC15" s="40"/>
+      <c r="SD15" s="40"/>
+      <c r="SE15" s="40"/>
+      <c r="SF15" s="40"/>
+      <c r="SG15" s="40"/>
+      <c r="SH15" s="40"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="J16" s="30"/>
-      <c r="AT16" s="31"/>
-      <c r="BR16" s="30"/>
-      <c r="BS16" s="30"/>
-      <c r="EO16" s="30"/>
-      <c r="FS16" s="30"/>
-      <c r="GF16" s="32"/>
-      <c r="IE16" s="30"/>
-      <c r="JB16" s="30"/>
-      <c r="KM16" s="30"/>
-      <c r="MA16" s="31"/>
-      <c r="MQ16" s="30"/>
-      <c r="NM16" s="30"/>
-      <c r="OK16" s="33"/>
-      <c r="PB16" s="33"/>
-      <c r="QP16" s="33"/>
-      <c r="QQ16" s="30"/>
-      <c r="QR16" s="30"/>
-      <c r="QS16" s="30"/>
-      <c r="QT16" s="30"/>
-      <c r="QU16" s="30"/>
-      <c r="QV16" s="30"/>
-      <c r="QW16" s="30"/>
-      <c r="QX16" s="30"/>
-      <c r="QY16" s="30"/>
-      <c r="QZ16" s="30"/>
-      <c r="RA16" s="30"/>
-      <c r="RB16" s="30"/>
-      <c r="RC16" s="30"/>
-      <c r="RD16" s="30"/>
-      <c r="RE16" s="30"/>
-      <c r="RF16" s="30"/>
-      <c r="RG16" s="30"/>
-      <c r="RH16" s="30"/>
-      <c r="RI16" s="30"/>
-      <c r="RJ16" s="30"/>
-      <c r="RK16" s="30"/>
-      <c r="RL16" s="30"/>
-      <c r="RM16" s="30"/>
+      <c r="A16" s="40"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
+      <c r="AV16" s="40"/>
+      <c r="BV16" s="39"/>
+      <c r="BW16" s="39"/>
+      <c r="BX16" s="39"/>
+      <c r="ET16" s="39"/>
+      <c r="EU16" s="39"/>
+      <c r="FZ16" s="39"/>
+      <c r="GA16" s="39"/>
+      <c r="GN16" s="41"/>
+      <c r="GO16" s="41"/>
+      <c r="IN16" s="39"/>
+      <c r="IO16" s="39"/>
+      <c r="JL16" s="39"/>
+      <c r="JM16" s="39"/>
+      <c r="KY16" s="39"/>
+      <c r="KZ16" s="39"/>
+      <c r="MN16" s="40"/>
+      <c r="MO16" s="40"/>
+      <c r="NE16" s="39"/>
+      <c r="NF16" s="39"/>
+      <c r="OB16" s="39"/>
+      <c r="OC16" s="39"/>
+      <c r="PA16" s="39"/>
+      <c r="PB16" s="39"/>
+      <c r="PS16" s="39"/>
+      <c r="PT16" s="39"/>
+      <c r="RI16" s="39"/>
+      <c r="RJ16" s="39"/>
+      <c r="RK16" s="39"/>
+      <c r="RL16" s="39"/>
+      <c r="RM16" s="39"/>
+      <c r="RN16" s="39"/>
+      <c r="RO16" s="39"/>
+      <c r="RP16" s="39"/>
+      <c r="RQ16" s="39"/>
+      <c r="RR16" s="39"/>
+      <c r="RS16" s="39"/>
+      <c r="RT16" s="39"/>
+      <c r="RU16" s="39"/>
+      <c r="RV16" s="39"/>
+      <c r="RW16" s="39"/>
+      <c r="RX16" s="39"/>
+      <c r="RY16" s="39"/>
+      <c r="RZ16" s="39"/>
+      <c r="SA16" s="39"/>
+      <c r="SB16" s="39"/>
+      <c r="SC16" s="39"/>
+      <c r="SD16" s="39"/>
+      <c r="SE16" s="39"/>
+      <c r="SF16" s="39"/>
+      <c r="SG16" s="39"/>
+      <c r="SH16" s="39"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="J17" s="30"/>
-      <c r="BR17" s="30"/>
-      <c r="BS17" s="30"/>
-      <c r="EO17" s="30"/>
-      <c r="GF17" s="32"/>
-      <c r="IE17" s="30"/>
-      <c r="JB17" s="30"/>
-      <c r="KM17" s="31"/>
-      <c r="MA17" s="30"/>
-      <c r="MQ17" s="30"/>
-      <c r="NM17" s="30"/>
-      <c r="OK17" s="33"/>
-      <c r="PB17" s="33"/>
-      <c r="QP17" s="33"/>
-      <c r="QQ17" s="30"/>
-      <c r="QR17" s="30"/>
-      <c r="QS17" s="30"/>
-      <c r="QT17" s="30"/>
-      <c r="QU17" s="30"/>
-      <c r="QV17" s="30"/>
-      <c r="QW17" s="30"/>
-      <c r="QX17" s="30"/>
-      <c r="QY17" s="30"/>
-      <c r="QZ17" s="30"/>
-      <c r="RA17" s="30"/>
-      <c r="RB17" s="30"/>
-      <c r="RC17" s="30"/>
-      <c r="RD17" s="30"/>
-      <c r="RE17" s="30"/>
-      <c r="RF17" s="30"/>
-      <c r="RG17" s="30"/>
-      <c r="RH17" s="30"/>
-      <c r="RI17" s="30"/>
-      <c r="RJ17" s="30"/>
-      <c r="RK17" s="30"/>
-      <c r="RL17" s="30"/>
-      <c r="RM17" s="30"/>
+      <c r="A17" s="40"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="BV17" s="39"/>
+      <c r="BW17" s="39"/>
+      <c r="BX17" s="39"/>
+      <c r="ET17" s="39"/>
+      <c r="EU17" s="39"/>
+      <c r="GN17" s="41"/>
+      <c r="GO17" s="41"/>
+      <c r="IN17" s="39"/>
+      <c r="IO17" s="39"/>
+      <c r="JL17" s="39"/>
+      <c r="JM17" s="39"/>
+      <c r="KY17" s="40"/>
+      <c r="KZ17" s="40"/>
+      <c r="MN17" s="39"/>
+      <c r="MO17" s="39"/>
+      <c r="NE17" s="39"/>
+      <c r="NF17" s="39"/>
+      <c r="OB17" s="39"/>
+      <c r="OC17" s="39"/>
+      <c r="PA17" s="39"/>
+      <c r="PB17" s="39"/>
+      <c r="PS17" s="39"/>
+      <c r="PT17" s="39"/>
+      <c r="RI17" s="39"/>
+      <c r="RJ17" s="39"/>
+      <c r="RK17" s="39"/>
+      <c r="RL17" s="39"/>
+      <c r="RM17" s="39"/>
+      <c r="RN17" s="39"/>
+      <c r="RO17" s="39"/>
+      <c r="RP17" s="39"/>
+      <c r="RQ17" s="39"/>
+      <c r="RR17" s="39"/>
+      <c r="RS17" s="39"/>
+      <c r="RT17" s="39"/>
+      <c r="RU17" s="39"/>
+      <c r="RV17" s="39"/>
+      <c r="RW17" s="39"/>
+      <c r="RX17" s="39"/>
+      <c r="RY17" s="39"/>
+      <c r="RZ17" s="39"/>
+      <c r="SA17" s="39"/>
+      <c r="SB17" s="39"/>
+      <c r="SC17" s="39"/>
+      <c r="SD17" s="39"/>
+      <c r="SE17" s="39"/>
+      <c r="SF17" s="39"/>
+      <c r="SG17" s="39"/>
+      <c r="SH17" s="39"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="BR18" s="30"/>
-      <c r="BS18" s="31"/>
-      <c r="EO18" s="30"/>
-      <c r="GF18" s="32"/>
-      <c r="IE18" s="30"/>
-      <c r="JB18" s="30"/>
-      <c r="KM18" s="30"/>
-      <c r="MA18" s="30"/>
-      <c r="MQ18" s="30"/>
-      <c r="NM18" s="30"/>
-      <c r="OK18" s="33"/>
-      <c r="PB18" s="33"/>
-      <c r="QP18" s="33"/>
-      <c r="QQ18" s="30"/>
-      <c r="QR18" s="30"/>
-      <c r="QS18" s="30"/>
-      <c r="QT18" s="30"/>
-      <c r="QU18" s="30"/>
-      <c r="QV18" s="30"/>
-      <c r="QW18" s="30"/>
-      <c r="QX18" s="30"/>
-      <c r="QY18" s="30"/>
-      <c r="QZ18" s="30"/>
-      <c r="RA18" s="30"/>
-      <c r="RB18" s="30"/>
-      <c r="RC18" s="30"/>
-      <c r="RD18" s="30"/>
-      <c r="RE18" s="30"/>
-      <c r="RF18" s="30"/>
-      <c r="RG18" s="30"/>
-      <c r="RH18" s="30"/>
-      <c r="RI18" s="30"/>
-      <c r="RJ18" s="30"/>
-      <c r="RK18" s="30"/>
-      <c r="RL18" s="30"/>
-      <c r="RM18" s="30"/>
+      <c r="A18" s="40"/>
+      <c r="BV18" s="39"/>
+      <c r="BW18" s="40"/>
+      <c r="BX18" s="40"/>
+      <c r="ET18" s="39"/>
+      <c r="EU18" s="39"/>
+      <c r="GN18" s="41"/>
+      <c r="GO18" s="41"/>
+      <c r="IN18" s="39"/>
+      <c r="IO18" s="39"/>
+      <c r="JL18" s="39"/>
+      <c r="JM18" s="39"/>
+      <c r="KY18" s="39"/>
+      <c r="KZ18" s="39"/>
+      <c r="MN18" s="39"/>
+      <c r="MO18" s="39"/>
+      <c r="NE18" s="39"/>
+      <c r="NF18" s="39"/>
+      <c r="OB18" s="39"/>
+      <c r="OC18" s="39"/>
+      <c r="PA18" s="39"/>
+      <c r="PB18" s="39"/>
+      <c r="PS18" s="39"/>
+      <c r="PT18" s="39"/>
+      <c r="RI18" s="39"/>
+      <c r="RJ18" s="39"/>
+      <c r="RK18" s="39"/>
+      <c r="RL18" s="39"/>
+      <c r="RM18" s="39"/>
+      <c r="RN18" s="39"/>
+      <c r="RO18" s="39"/>
+      <c r="RP18" s="39"/>
+      <c r="RQ18" s="39"/>
+      <c r="RR18" s="39"/>
+      <c r="RS18" s="39"/>
+      <c r="RT18" s="39"/>
+      <c r="RU18" s="39"/>
+      <c r="RV18" s="39"/>
+      <c r="RW18" s="39"/>
+      <c r="RX18" s="39"/>
+      <c r="RY18" s="39"/>
+      <c r="RZ18" s="39"/>
+      <c r="SA18" s="39"/>
+      <c r="SB18" s="39"/>
+      <c r="SC18" s="39"/>
+      <c r="SD18" s="39"/>
+      <c r="SE18" s="39"/>
+      <c r="SF18" s="39"/>
+      <c r="SG18" s="39"/>
+      <c r="SH18" s="39"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="BR19" s="30"/>
-      <c r="BS19" s="30"/>
-      <c r="EO19" s="30"/>
-      <c r="GF19" s="30"/>
-      <c r="IE19" s="30"/>
-      <c r="JB19" s="30"/>
-      <c r="KM19" s="31"/>
-      <c r="MA19" s="31"/>
-      <c r="MQ19" s="30"/>
-      <c r="NM19" s="30"/>
-      <c r="OK19" s="33"/>
-      <c r="PB19" s="33"/>
-      <c r="QP19" s="33"/>
-      <c r="QQ19" s="30"/>
-      <c r="QR19" s="30"/>
-      <c r="QS19" s="30"/>
-      <c r="QT19" s="30"/>
-      <c r="QU19" s="30"/>
-      <c r="QV19" s="30"/>
-      <c r="QW19" s="30"/>
-      <c r="QX19" s="30"/>
-      <c r="QY19" s="30"/>
-      <c r="QZ19" s="30"/>
-      <c r="RA19" s="30"/>
-      <c r="RB19" s="30"/>
-      <c r="RC19" s="30"/>
-      <c r="RD19" s="30"/>
-      <c r="RE19" s="30"/>
-      <c r="RF19" s="30"/>
-      <c r="RG19" s="30"/>
-      <c r="RH19" s="30"/>
-      <c r="RI19" s="30"/>
-      <c r="RJ19" s="30"/>
-      <c r="RK19" s="30"/>
-      <c r="RL19" s="30"/>
-      <c r="RM19" s="30"/>
+      <c r="A19" s="40"/>
+      <c r="BV19" s="39"/>
+      <c r="BW19" s="39"/>
+      <c r="BX19" s="39"/>
+      <c r="ET19" s="39"/>
+      <c r="EU19" s="39"/>
+      <c r="GN19" s="39"/>
+      <c r="GO19" s="39"/>
+      <c r="IN19" s="39"/>
+      <c r="IO19" s="39"/>
+      <c r="JL19" s="39"/>
+      <c r="JM19" s="39"/>
+      <c r="KY19" s="40"/>
+      <c r="KZ19" s="40"/>
+      <c r="MN19" s="40"/>
+      <c r="MO19" s="40"/>
+      <c r="NE19" s="39"/>
+      <c r="NF19" s="39"/>
+      <c r="OB19" s="39"/>
+      <c r="OC19" s="39"/>
+      <c r="PA19" s="39"/>
+      <c r="PB19" s="39"/>
+      <c r="PS19" s="39"/>
+      <c r="PT19" s="39"/>
+      <c r="RI19" s="39"/>
+      <c r="RJ19" s="39"/>
+      <c r="RK19" s="39"/>
+      <c r="RL19" s="39"/>
+      <c r="RM19" s="39"/>
+      <c r="RN19" s="39"/>
+      <c r="RO19" s="39"/>
+      <c r="RP19" s="39"/>
+      <c r="RQ19" s="39"/>
+      <c r="RR19" s="39"/>
+      <c r="RS19" s="39"/>
+      <c r="RT19" s="39"/>
+      <c r="RU19" s="39"/>
+      <c r="RV19" s="39"/>
+      <c r="RW19" s="39"/>
+      <c r="RX19" s="39"/>
+      <c r="RY19" s="39"/>
+      <c r="RZ19" s="39"/>
+      <c r="SA19" s="39"/>
+      <c r="SB19" s="39"/>
+      <c r="SC19" s="39"/>
+      <c r="SD19" s="39"/>
+      <c r="SE19" s="39"/>
+      <c r="SF19" s="39"/>
+      <c r="SG19" s="39"/>
+      <c r="SH19" s="39"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="BR20" s="30"/>
-      <c r="BS20" s="30"/>
-      <c r="EO20" s="30"/>
-      <c r="GF20" s="30"/>
-      <c r="IE20" s="30"/>
-      <c r="JB20" s="30"/>
-      <c r="KM20" s="30"/>
-      <c r="MQ20" s="30"/>
-      <c r="NM20" s="30"/>
-      <c r="OK20" s="33"/>
-      <c r="PB20" s="33"/>
-      <c r="QP20" s="33"/>
-      <c r="QQ20" s="30"/>
-      <c r="QR20" s="30"/>
-      <c r="QS20" s="30"/>
-      <c r="QT20" s="30"/>
-      <c r="QU20" s="30"/>
-      <c r="QV20" s="30"/>
-      <c r="QW20" s="30"/>
-      <c r="QX20" s="30"/>
-      <c r="QY20" s="30"/>
-      <c r="QZ20" s="30"/>
-      <c r="RA20" s="30"/>
-      <c r="RB20" s="30"/>
-      <c r="RC20" s="30"/>
-      <c r="RD20" s="30"/>
-      <c r="RE20" s="30"/>
-      <c r="RF20" s="30"/>
-      <c r="RG20" s="30"/>
-      <c r="RH20" s="30"/>
-      <c r="RI20" s="30"/>
-      <c r="RJ20" s="30"/>
-      <c r="RK20" s="30"/>
-      <c r="RL20" s="30"/>
-      <c r="RM20" s="30"/>
+      <c r="A20" s="40"/>
+      <c r="BV20" s="39"/>
+      <c r="BW20" s="39"/>
+      <c r="BX20" s="39"/>
+      <c r="ET20" s="39"/>
+      <c r="EU20" s="39"/>
+      <c r="GN20" s="39"/>
+      <c r="GO20" s="39"/>
+      <c r="IN20" s="39"/>
+      <c r="IO20" s="39"/>
+      <c r="JL20" s="39"/>
+      <c r="JM20" s="39"/>
+      <c r="KY20" s="39"/>
+      <c r="KZ20" s="39"/>
+      <c r="NE20" s="39"/>
+      <c r="NF20" s="39"/>
+      <c r="OB20" s="39"/>
+      <c r="OC20" s="39"/>
+      <c r="PA20" s="39"/>
+      <c r="PB20" s="39"/>
+      <c r="PS20" s="39"/>
+      <c r="PT20" s="39"/>
+      <c r="RI20" s="39"/>
+      <c r="RJ20" s="39"/>
+      <c r="RK20" s="39"/>
+      <c r="RL20" s="39"/>
+      <c r="RM20" s="39"/>
+      <c r="RN20" s="39"/>
+      <c r="RO20" s="39"/>
+      <c r="RP20" s="39"/>
+      <c r="RQ20" s="39"/>
+      <c r="RR20" s="39"/>
+      <c r="RS20" s="39"/>
+      <c r="RT20" s="39"/>
+      <c r="RU20" s="39"/>
+      <c r="RV20" s="39"/>
+      <c r="RW20" s="39"/>
+      <c r="RX20" s="39"/>
+      <c r="RY20" s="39"/>
+      <c r="RZ20" s="39"/>
+      <c r="SA20" s="39"/>
+      <c r="SB20" s="39"/>
+      <c r="SC20" s="39"/>
+      <c r="SD20" s="39"/>
+      <c r="SE20" s="39"/>
+      <c r="SF20" s="39"/>
+      <c r="SG20" s="39"/>
+      <c r="SH20" s="39"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="BR21" s="30"/>
-      <c r="BS21" s="30"/>
-      <c r="EO21" s="30"/>
-      <c r="GF21" s="30"/>
-      <c r="IE21" s="30"/>
-      <c r="JB21" s="30"/>
-      <c r="KM21" s="30"/>
-      <c r="MQ21" s="30"/>
-      <c r="NM21" s="30"/>
-      <c r="PB21" s="33"/>
+      <c r="A21" s="40"/>
+      <c r="BV21" s="39"/>
+      <c r="BW21" s="39"/>
+      <c r="BX21" s="39"/>
+      <c r="ET21" s="39"/>
+      <c r="EU21" s="39"/>
+      <c r="GN21" s="39"/>
+      <c r="GO21" s="39"/>
+      <c r="IN21" s="39"/>
+      <c r="IO21" s="39"/>
+      <c r="JL21" s="39"/>
+      <c r="JM21" s="39"/>
+      <c r="KY21" s="39"/>
+      <c r="KZ21" s="39"/>
+      <c r="NE21" s="39"/>
+      <c r="NF21" s="39"/>
+      <c r="OB21" s="39"/>
+      <c r="OC21" s="39"/>
+      <c r="PS21" s="39"/>
+      <c r="PT21" s="39"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="BR22" s="30"/>
-      <c r="BS22" s="30"/>
-      <c r="EO22" s="30"/>
-      <c r="GF22" s="30"/>
-      <c r="IE22" s="30"/>
-      <c r="JB22" s="30"/>
-      <c r="KM22" s="30"/>
-      <c r="MQ22" s="30"/>
-      <c r="NM22" s="30"/>
-      <c r="PB22" s="33"/>
+      <c r="A22" s="40"/>
+      <c r="BV22" s="39"/>
+      <c r="BW22" s="39"/>
+      <c r="BX22" s="39"/>
+      <c r="ET22" s="39"/>
+      <c r="EU22" s="39"/>
+      <c r="GN22" s="39"/>
+      <c r="GO22" s="39"/>
+      <c r="IN22" s="39"/>
+      <c r="IO22" s="39"/>
+      <c r="JL22" s="39"/>
+      <c r="JM22" s="39"/>
+      <c r="KY22" s="39"/>
+      <c r="KZ22" s="39"/>
+      <c r="NE22" s="39"/>
+      <c r="NF22" s="39"/>
+      <c r="OB22" s="39"/>
+      <c r="OC22" s="39"/>
+      <c r="PS22" s="39"/>
+      <c r="PT22" s="39"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="BR23" s="30"/>
-      <c r="BS23" s="30"/>
-      <c r="EO23" s="30"/>
-      <c r="GF23" s="30"/>
-      <c r="IE23" s="30"/>
-      <c r="JB23" s="30"/>
-      <c r="KM23" s="30"/>
-      <c r="MQ23" s="30"/>
-      <c r="NM23" s="30"/>
-      <c r="PB23" s="33"/>
+      <c r="A23" s="40"/>
+      <c r="BV23" s="39"/>
+      <c r="BW23" s="39"/>
+      <c r="BX23" s="39"/>
+      <c r="ET23" s="39"/>
+      <c r="EU23" s="39"/>
+      <c r="GN23" s="39"/>
+      <c r="GO23" s="39"/>
+      <c r="IN23" s="39"/>
+      <c r="IO23" s="39"/>
+      <c r="JL23" s="39"/>
+      <c r="JM23" s="39"/>
+      <c r="KY23" s="39"/>
+      <c r="KZ23" s="39"/>
+      <c r="NE23" s="39"/>
+      <c r="NF23" s="39"/>
+      <c r="OB23" s="39"/>
+      <c r="OC23" s="39"/>
+      <c r="PS23" s="39"/>
+      <c r="PT23" s="39"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="BR24" s="30"/>
-      <c r="BS24" s="30"/>
-      <c r="EO24" s="30"/>
-      <c r="GF24" s="30"/>
-      <c r="IE24" s="30"/>
-      <c r="JB24" s="36"/>
-      <c r="KM24" s="30"/>
-      <c r="MQ24" s="30"/>
-      <c r="NM24" s="30"/>
-      <c r="PB24" s="33"/>
+      <c r="BV24" s="39"/>
+      <c r="BW24" s="39"/>
+      <c r="BX24" s="39"/>
+      <c r="ET24" s="39"/>
+      <c r="EU24" s="39"/>
+      <c r="GN24" s="39"/>
+      <c r="GO24" s="39"/>
+      <c r="IN24" s="39"/>
+      <c r="IO24" s="39"/>
+      <c r="JL24" s="42"/>
+      <c r="JM24" s="42"/>
+      <c r="KY24" s="39"/>
+      <c r="KZ24" s="39"/>
+      <c r="NE24" s="39"/>
+      <c r="NF24" s="39"/>
+      <c r="OB24" s="39"/>
+      <c r="OC24" s="39"/>
+      <c r="PS24" s="39"/>
+      <c r="PT24" s="39"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="BR25" s="30"/>
-      <c r="BS25" s="30"/>
-      <c r="EO25" s="30"/>
-      <c r="GF25" s="30"/>
-      <c r="IE25" s="30"/>
-      <c r="JB25" s="36"/>
-      <c r="KM25" s="30"/>
-      <c r="MQ25" s="30"/>
-      <c r="NM25" s="30"/>
-      <c r="PB25" s="33"/>
+      <c r="BV25" s="39"/>
+      <c r="BW25" s="39"/>
+      <c r="BX25" s="39"/>
+      <c r="ET25" s="39"/>
+      <c r="EU25" s="39"/>
+      <c r="GN25" s="39"/>
+      <c r="GO25" s="39"/>
+      <c r="IN25" s="39"/>
+      <c r="IO25" s="39"/>
+      <c r="JL25" s="42"/>
+      <c r="JM25" s="42"/>
+      <c r="KY25" s="39"/>
+      <c r="KZ25" s="39"/>
+      <c r="NE25" s="39"/>
+      <c r="NF25" s="39"/>
+      <c r="OB25" s="39"/>
+      <c r="OC25" s="39"/>
+      <c r="PS25" s="39"/>
+      <c r="PT25" s="39"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="BR26" s="30"/>
-      <c r="BS26" s="30"/>
-      <c r="EO26" s="30"/>
-      <c r="GF26" s="30"/>
-      <c r="IE26" s="30"/>
-      <c r="JB26" s="30"/>
-      <c r="KM26" s="30"/>
-      <c r="NM26" s="30"/>
-      <c r="PB26" s="33"/>
+      <c r="BV26" s="39"/>
+      <c r="BW26" s="39"/>
+      <c r="BX26" s="39"/>
+      <c r="ET26" s="39"/>
+      <c r="EU26" s="39"/>
+      <c r="GN26" s="39"/>
+      <c r="GO26" s="39"/>
+      <c r="IN26" s="39"/>
+      <c r="IO26" s="39"/>
+      <c r="JL26" s="39"/>
+      <c r="JM26" s="39"/>
+      <c r="KY26" s="39"/>
+      <c r="KZ26" s="39"/>
+      <c r="OB26" s="39"/>
+      <c r="OC26" s="39"/>
+      <c r="PS26" s="39"/>
+      <c r="PT26" s="39"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="BR27" s="30"/>
-      <c r="BS27" s="30"/>
-      <c r="EO27" s="30"/>
-      <c r="GF27" s="30"/>
-      <c r="JB27" s="36"/>
-      <c r="KM27" s="30"/>
-      <c r="PB27" s="33"/>
+      <c r="BV27" s="39"/>
+      <c r="BW27" s="39"/>
+      <c r="BX27" s="39"/>
+      <c r="ET27" s="39"/>
+      <c r="EU27" s="39"/>
+      <c r="GN27" s="39"/>
+      <c r="GO27" s="39"/>
+      <c r="JL27" s="42"/>
+      <c r="JM27" s="42"/>
+      <c r="KY27" s="39"/>
+      <c r="KZ27" s="39"/>
+      <c r="PS27" s="39"/>
+      <c r="PT27" s="39"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="BR28" s="30"/>
-      <c r="BS28" s="30"/>
-      <c r="EO28" s="30"/>
-      <c r="GF28" s="30"/>
-      <c r="JB28" s="36"/>
-      <c r="KM28" s="30"/>
-      <c r="PB28" s="33"/>
+      <c r="BV28" s="39"/>
+      <c r="BW28" s="39"/>
+      <c r="BX28" s="39"/>
+      <c r="ET28" s="39"/>
+      <c r="EU28" s="39"/>
+      <c r="GN28" s="39"/>
+      <c r="GO28" s="39"/>
+      <c r="JL28" s="42"/>
+      <c r="JM28" s="42"/>
+      <c r="KY28" s="39"/>
+      <c r="KZ28" s="39"/>
+      <c r="PS28" s="39"/>
+      <c r="PT28" s="39"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="BR29" s="30"/>
-      <c r="BS29" s="30"/>
-      <c r="EO29" s="30"/>
-      <c r="GF29" s="30"/>
-      <c r="JB29" s="36"/>
-      <c r="KM29" s="30"/>
-      <c r="PB29" s="33"/>
+      <c r="BV29" s="39"/>
+      <c r="BW29" s="39"/>
+      <c r="BX29" s="39"/>
+      <c r="ET29" s="39"/>
+      <c r="EU29" s="39"/>
+      <c r="GN29" s="39"/>
+      <c r="GO29" s="39"/>
+      <c r="JL29" s="42"/>
+      <c r="JM29" s="42"/>
+      <c r="KY29" s="39"/>
+      <c r="KZ29" s="39"/>
+      <c r="PS29" s="39"/>
+      <c r="PT29" s="39"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="BR30" s="30"/>
-      <c r="BS30" s="30"/>
-      <c r="EO30" s="30"/>
-      <c r="GF30" s="30"/>
-      <c r="JB30" s="30"/>
-      <c r="KM30" s="30"/>
+      <c r="BV30" s="39"/>
+      <c r="BW30" s="39"/>
+      <c r="BX30" s="39"/>
+      <c r="ET30" s="39"/>
+      <c r="EU30" s="39"/>
+      <c r="GN30" s="39"/>
+      <c r="GO30" s="39"/>
+      <c r="JL30" s="39"/>
+      <c r="JM30" s="39"/>
+      <c r="KY30" s="39"/>
+      <c r="KZ30" s="39"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="BR31" s="30"/>
-      <c r="BS31" s="31"/>
-      <c r="EO31" s="30"/>
-      <c r="GF31" s="30"/>
-      <c r="JB31" s="30"/>
-      <c r="KM31" s="30"/>
+      <c r="BV31" s="39"/>
+      <c r="BW31" s="40"/>
+      <c r="BX31" s="40"/>
+      <c r="ET31" s="39"/>
+      <c r="EU31" s="39"/>
+      <c r="GN31" s="39"/>
+      <c r="GO31" s="39"/>
+      <c r="JL31" s="39"/>
+      <c r="JM31" s="39"/>
+      <c r="KY31" s="39"/>
+      <c r="KZ31" s="39"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="BR32" s="30"/>
-      <c r="BS32" s="30"/>
-      <c r="GF32" s="30"/>
-      <c r="JB32" s="30"/>
-      <c r="KM32" s="30"/>
+      <c r="BV32" s="39"/>
+      <c r="BW32" s="39"/>
+      <c r="BX32" s="39"/>
+      <c r="GN32" s="39"/>
+      <c r="GO32" s="39"/>
+      <c r="JL32" s="39"/>
+      <c r="JM32" s="39"/>
+      <c r="KY32" s="39"/>
+      <c r="KZ32" s="39"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="BR33" s="30"/>
-      <c r="BS33" s="30"/>
-      <c r="GF33" s="30"/>
-      <c r="JB33" s="30"/>
-      <c r="KM33" s="30"/>
+      <c r="BV33" s="39"/>
+      <c r="BW33" s="39"/>
+      <c r="BX33" s="39"/>
+      <c r="GN33" s="39"/>
+      <c r="GO33" s="39"/>
+      <c r="JL33" s="39"/>
+      <c r="JM33" s="39"/>
+      <c r="KY33" s="39"/>
+      <c r="KZ33" s="39"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="BR34" s="30"/>
-      <c r="BS34" s="30"/>
-      <c r="GF34" s="30"/>
-      <c r="JB34" s="30"/>
-      <c r="KM34" s="30"/>
+      <c r="BV34" s="39"/>
+      <c r="BW34" s="39"/>
+      <c r="BX34" s="39"/>
+      <c r="GN34" s="39"/>
+      <c r="GO34" s="39"/>
+      <c r="JL34" s="39"/>
+      <c r="JM34" s="39"/>
+      <c r="KY34" s="39"/>
+      <c r="KZ34" s="39"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="BR35" s="30"/>
-      <c r="BS35" s="30"/>
-      <c r="GF35" s="30"/>
-      <c r="JB35" s="30"/>
-      <c r="KM35" s="30"/>
+      <c r="BV35" s="39"/>
+      <c r="BW35" s="39"/>
+      <c r="BX35" s="39"/>
+      <c r="GN35" s="39"/>
+      <c r="GO35" s="39"/>
+      <c r="JL35" s="39"/>
+      <c r="JM35" s="39"/>
+      <c r="KY35" s="39"/>
+      <c r="KZ35" s="39"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="BR36" s="30"/>
-      <c r="BS36" s="30"/>
-      <c r="GF36" s="30"/>
-      <c r="JB36" s="30"/>
-      <c r="KM36" s="30"/>
+      <c r="BV36" s="39"/>
+      <c r="BW36" s="39"/>
+      <c r="BX36" s="39"/>
+      <c r="GN36" s="39"/>
+      <c r="GO36" s="39"/>
+      <c r="JL36" s="39"/>
+      <c r="JM36" s="39"/>
+      <c r="KY36" s="39"/>
+      <c r="KZ36" s="39"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="BR37" s="30"/>
-      <c r="BS37" s="30"/>
-      <c r="GF37" s="30"/>
-      <c r="JB37" s="30"/>
-      <c r="KM37" s="30"/>
+      <c r="BV37" s="39"/>
+      <c r="BW37" s="39"/>
+      <c r="BX37" s="39"/>
+      <c r="GN37" s="39"/>
+      <c r="GO37" s="39"/>
+      <c r="JL37" s="39"/>
+      <c r="JM37" s="39"/>
+      <c r="KY37" s="39"/>
+      <c r="KZ37" s="39"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="BR38" s="30"/>
-      <c r="BS38" s="30"/>
-      <c r="GF38" s="30"/>
-      <c r="JB38" s="30"/>
-      <c r="KM38" s="30"/>
+      <c r="BV38" s="39"/>
+      <c r="BW38" s="39"/>
+      <c r="BX38" s="39"/>
+      <c r="GN38" s="39"/>
+      <c r="GO38" s="39"/>
+      <c r="JL38" s="39"/>
+      <c r="JM38" s="39"/>
+      <c r="KY38" s="39"/>
+      <c r="KZ38" s="39"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="BR39" s="30"/>
-      <c r="BS39" s="30"/>
-      <c r="GF39" s="30"/>
-      <c r="JB39" s="30"/>
-      <c r="KM39" s="30"/>
+      <c r="BV39" s="39"/>
+      <c r="BW39" s="39"/>
+      <c r="BX39" s="39"/>
+      <c r="GN39" s="39"/>
+      <c r="GO39" s="39"/>
+      <c r="JL39" s="39"/>
+      <c r="JM39" s="39"/>
+      <c r="KY39" s="39"/>
+      <c r="KZ39" s="39"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="BR40" s="30"/>
-      <c r="BS40" s="31"/>
-      <c r="GF40" s="30"/>
-      <c r="JB40" s="30"/>
-      <c r="KM40" s="30"/>
+      <c r="BV40" s="39"/>
+      <c r="BW40" s="40"/>
+      <c r="BX40" s="40"/>
+      <c r="GN40" s="39"/>
+      <c r="GO40" s="39"/>
+      <c r="JL40" s="39"/>
+      <c r="JM40" s="39"/>
+      <c r="KY40" s="39"/>
+      <c r="KZ40" s="39"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="BR41" s="38"/>
-      <c r="BS41" s="30"/>
-      <c r="GF41" s="30"/>
-      <c r="KM41" s="30"/>
+      <c r="BV41" s="45"/>
+      <c r="BW41" s="39"/>
+      <c r="BX41" s="39"/>
+      <c r="GN41" s="39"/>
+      <c r="GO41" s="39"/>
+      <c r="KY41" s="39"/>
+      <c r="KZ41" s="39"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="BR42" s="30"/>
-      <c r="BS42" s="31"/>
-      <c r="GF42" s="30"/>
-      <c r="KM42" s="30"/>
+      <c r="BV42" s="39"/>
+      <c r="BW42" s="40"/>
+      <c r="BX42" s="40"/>
+      <c r="GN42" s="39"/>
+      <c r="GO42" s="39"/>
+      <c r="KY42" s="39"/>
+      <c r="KZ42" s="39"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="BR43" s="30"/>
-      <c r="BS43" s="30"/>
-      <c r="GF43" s="30"/>
+      <c r="BV43" s="39"/>
+      <c r="BW43" s="39"/>
+      <c r="BX43" s="39"/>
+      <c r="GN43" s="39"/>
+      <c r="GO43" s="39"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="BR44" s="30"/>
-      <c r="BS44" s="30"/>
-      <c r="GF44" s="30"/>
+      <c r="BV44" s="39"/>
+      <c r="BW44" s="39"/>
+      <c r="BX44" s="39"/>
+      <c r="GN44" s="39"/>
+      <c r="GO44" s="39"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="BR45" s="30"/>
-      <c r="BS45" s="30"/>
-      <c r="GF45" s="30"/>
+      <c r="BV45" s="39"/>
+      <c r="BW45" s="39"/>
+      <c r="BX45" s="39"/>
+      <c r="GN45" s="39"/>
+      <c r="GO45" s="39"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="BR46" s="30"/>
-      <c r="BS46" s="30"/>
-      <c r="GF46" s="30"/>
+      <c r="BV46" s="39"/>
+      <c r="BW46" s="39"/>
+      <c r="BX46" s="39"/>
+      <c r="GN46" s="39"/>
+      <c r="GO46" s="39"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="BR47" s="30"/>
-      <c r="BS47" s="30"/>
-      <c r="GF47" s="30"/>
+      <c r="BV47" s="39"/>
+      <c r="BW47" s="39"/>
+      <c r="BX47" s="39"/>
+      <c r="GN47" s="39"/>
+      <c r="GO47" s="39"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="BR48" s="30"/>
-      <c r="BS48" s="30"/>
-      <c r="GF48" s="30"/>
+      <c r="BV48" s="39"/>
+      <c r="BW48" s="39"/>
+      <c r="BX48" s="39"/>
+      <c r="GN48" s="39"/>
+      <c r="GO48" s="39"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="BR49" s="30"/>
-      <c r="BS49" s="30"/>
-      <c r="GF49" s="30"/>
+      <c r="BV49" s="39"/>
+      <c r="BW49" s="39"/>
+      <c r="BX49" s="39"/>
+      <c r="GN49" s="39"/>
+      <c r="GO49" s="39"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="BR50" s="30"/>
-      <c r="BS50" s="30"/>
-      <c r="GF50" s="30"/>
+      <c r="BV50" s="39"/>
+      <c r="BW50" s="39"/>
+      <c r="BX50" s="39"/>
+      <c r="GN50" s="39"/>
+      <c r="GO50" s="39"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="BR51" s="30"/>
-      <c r="BS51" s="30"/>
-      <c r="GF51" s="30"/>
+      <c r="BV51" s="39"/>
+      <c r="BW51" s="39"/>
+      <c r="BX51" s="39"/>
+      <c r="GN51" s="39"/>
+      <c r="GO51" s="39"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="BR52" s="30"/>
-      <c r="BS52" s="30"/>
-      <c r="GF52" s="30"/>
+      <c r="BV52" s="39"/>
+      <c r="BW52" s="39"/>
+      <c r="BX52" s="39"/>
+      <c r="GN52" s="39"/>
+      <c r="GO52" s="39"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="BR53" s="30"/>
-      <c r="BS53" s="30"/>
-      <c r="GF53" s="30"/>
+      <c r="BV53" s="39"/>
+      <c r="BW53" s="39"/>
+      <c r="BX53" s="39"/>
+      <c r="GN53" s="39"/>
+      <c r="GO53" s="39"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="BR54" s="30"/>
-      <c r="BS54" s="30"/>
-      <c r="GF54" s="36"/>
+      <c r="BV54" s="39"/>
+      <c r="BW54" s="39"/>
+      <c r="BX54" s="39"/>
+      <c r="GN54" s="42"/>
+      <c r="GO54" s="42"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="BR55" s="30"/>
-      <c r="BS55" s="30"/>
+      <c r="BV55" s="39"/>
+      <c r="BW55" s="39"/>
+      <c r="BX55" s="39"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="BR56" s="30"/>
-      <c r="BS56" s="30"/>
+      <c r="BV56" s="39"/>
+      <c r="BW56" s="39"/>
+      <c r="BX56" s="39"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="BR57" s="30"/>
-      <c r="BS57" s="30"/>
+      <c r="BV57" s="39"/>
+      <c r="BW57" s="39"/>
+      <c r="BX57" s="39"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="BR58" s="30"/>
-      <c r="BS58" s="30"/>
+      <c r="BV58" s="39"/>
+      <c r="BW58" s="39"/>
+      <c r="BX58" s="39"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="BR59" s="30"/>
-      <c r="BS59" s="30"/>
+      <c r="BV59" s="39"/>
+      <c r="BW59" s="39"/>
+      <c r="BX59" s="39"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="BR60" s="30"/>
-      <c r="BS60" s="30"/>
+      <c r="BV60" s="39"/>
+      <c r="BW60" s="39"/>
+      <c r="BX60" s="39"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="BR61" s="30"/>
-      <c r="BS61" s="30"/>
+      <c r="BV61" s="39"/>
+      <c r="BW61" s="39"/>
+      <c r="BX61" s="39"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="BR62" s="30"/>
-      <c r="BS62" s="30"/>
+      <c r="BV62" s="39"/>
+      <c r="BW62" s="39"/>
+      <c r="BX62" s="39"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="BR63" s="30"/>
-      <c r="BS63" s="30"/>
+      <c r="BV63" s="39"/>
+      <c r="BW63" s="39"/>
+      <c r="BX63" s="39"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="BR64" s="30"/>
-      <c r="BS64" s="30"/>
+      <c r="BV64" s="39"/>
+      <c r="BW64" s="39"/>
+      <c r="BX64" s="39"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="BR65" s="30"/>
-      <c r="BS65" s="30"/>
+      <c r="BV65" s="39"/>
+      <c r="BW65" s="39"/>
+      <c r="BX65" s="39"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="BR66" s="30"/>
-      <c r="BS66" s="30"/>
+      <c r="BV66" s="39"/>
+      <c r="BW66" s="39"/>
+      <c r="BX66" s="39"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="BR67" s="30"/>
-      <c r="BS67" s="30"/>
+      <c r="BV67" s="39"/>
+      <c r="BW67" s="39"/>
+      <c r="BX67" s="39"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="BR68" s="30"/>
-      <c r="BS68" s="30"/>
+      <c r="BV68" s="39"/>
+      <c r="BW68" s="39"/>
+      <c r="BX68" s="39"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="BR69" s="30"/>
-      <c r="BS69" s="30"/>
+      <c r="BV69" s="39"/>
+      <c r="BW69" s="39"/>
+      <c r="BX69" s="39"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="BR70" s="30"/>
-      <c r="BS70" s="30"/>
+      <c r="BV70" s="39"/>
+      <c r="BW70" s="39"/>
+      <c r="BX70" s="39"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="BR71" s="30"/>
-      <c r="BS71" s="30"/>
+      <c r="BV71" s="39"/>
+      <c r="BW71" s="39"/>
+      <c r="BX71" s="39"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="BR72" s="30"/>
-      <c r="BS72" s="30"/>
+      <c r="BV72" s="39"/>
+      <c r="BW72" s="39"/>
+      <c r="BX72" s="39"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="BR73" s="30"/>
-      <c r="BS73" s="30"/>
+      <c r="BV73" s="39"/>
+      <c r="BW73" s="39"/>
+      <c r="BX73" s="39"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="BR74" s="30"/>
-      <c r="BS74" s="31"/>
+      <c r="BV74" s="39"/>
+      <c r="BW74" s="40"/>
+      <c r="BX74" s="40"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="BR75" s="30"/>
-      <c r="BS75" s="30"/>
+      <c r="BV75" s="39"/>
+      <c r="BW75" s="39"/>
+      <c r="BX75" s="39"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="BR76" s="30"/>
-      <c r="BS76" s="30"/>
+      <c r="BV76" s="39"/>
+      <c r="BW76" s="39"/>
+      <c r="BX76" s="39"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="BR77" s="30"/>
-      <c r="BS77" s="30"/>
+      <c r="BV77" s="39"/>
+      <c r="BW77" s="39"/>
+      <c r="BX77" s="39"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="BR78" s="30"/>
+      <c r="BV78" s="39"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="BR79" s="30"/>
+      <c r="BV79" s="39"/>
     </row>
     <row r="80" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
@@ -6892,28 +7476,28 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AJ1:AR1"/>
-    <mergeCell ref="AS1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:EN1"/>
-    <mergeCell ref="X1:AH1"/>
-    <mergeCell ref="MA1:MP1"/>
-    <mergeCell ref="MQ1:NL1"/>
-    <mergeCell ref="NM1:OJ1"/>
-    <mergeCell ref="OK1:PA1"/>
-    <mergeCell ref="PB1:QB1"/>
-    <mergeCell ref="QC1:QO1"/>
-    <mergeCell ref="QP1:RF1"/>
-    <mergeCell ref="RG1:RM1"/>
-    <mergeCell ref="EO1:FJ1"/>
-    <mergeCell ref="FK1:FR1"/>
-    <mergeCell ref="FS1:GE1"/>
-    <mergeCell ref="GF1:ID1"/>
-    <mergeCell ref="IE1:JA1"/>
-    <mergeCell ref="JB1:KL1"/>
-    <mergeCell ref="KM1:LZ1"/>
+    <mergeCell ref="Z1:AJ1"/>
+    <mergeCell ref="AU1:BG1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="BW1:ES1"/>
+    <mergeCell ref="BR1:BV1"/>
+    <mergeCell ref="BM1:BQ1"/>
+    <mergeCell ref="BH1:BL1"/>
+    <mergeCell ref="SA1:SH1"/>
+    <mergeCell ref="RI1:RZ1"/>
+    <mergeCell ref="QU1:RH1"/>
+    <mergeCell ref="PS1:QT1"/>
+    <mergeCell ref="PA1:PR1"/>
+    <mergeCell ref="OB1:OZ1"/>
+    <mergeCell ref="NE1:OA1"/>
+    <mergeCell ref="MN1:ND1"/>
+    <mergeCell ref="GA1:GM1"/>
+    <mergeCell ref="KY1:MM1"/>
+    <mergeCell ref="IN1:JK1"/>
+    <mergeCell ref="GN1:IM1"/>
+    <mergeCell ref="FQ1:FY1"/>
+    <mergeCell ref="ET1:FP1"/>
+    <mergeCell ref="JL1:KX1"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/app/data/base_export.xlsx
+++ b/app/data/base_export.xlsx
@@ -1520,12 +1520,12 @@
       <b/>
       <sz val="16.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="16.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -1617,7 +1617,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1644,6 +1644,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -2078,4480 +2081,4932 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="7" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
       <c r="AK1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
+      <c r="CC1" s="7"/>
+      <c r="CD1" s="7"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="7"/>
+      <c r="CQ1" s="7"/>
+      <c r="CR1" s="7"/>
+      <c r="CS1" s="7"/>
+      <c r="CT1" s="7"/>
+      <c r="CU1" s="7"/>
+      <c r="CV1" s="7"/>
+      <c r="CW1" s="7"/>
+      <c r="CX1" s="7"/>
+      <c r="CY1" s="7"/>
+      <c r="CZ1" s="7"/>
+      <c r="DA1" s="7"/>
+      <c r="DB1" s="7"/>
+      <c r="DC1" s="7"/>
+      <c r="DD1" s="7"/>
+      <c r="DE1" s="7"/>
+      <c r="DF1" s="7"/>
+      <c r="DG1" s="7"/>
+      <c r="DH1" s="7"/>
+      <c r="DI1" s="7"/>
+      <c r="DJ1" s="7"/>
+      <c r="DK1" s="7"/>
+      <c r="DL1" s="7"/>
+      <c r="DM1" s="7"/>
+      <c r="DN1" s="7"/>
+      <c r="DO1" s="7"/>
+      <c r="DP1" s="7"/>
+      <c r="DQ1" s="7"/>
+      <c r="DR1" s="7"/>
+      <c r="DS1" s="7"/>
+      <c r="DT1" s="7"/>
+      <c r="DU1" s="7"/>
+      <c r="DV1" s="7"/>
+      <c r="DW1" s="7"/>
+      <c r="DX1" s="7"/>
+      <c r="DY1" s="7"/>
+      <c r="DZ1" s="7"/>
+      <c r="EA1" s="7"/>
+      <c r="EB1" s="7"/>
+      <c r="EC1" s="7"/>
+      <c r="ED1" s="7"/>
+      <c r="EE1" s="7"/>
+      <c r="EF1" s="7"/>
+      <c r="EG1" s="7"/>
+      <c r="EH1" s="7"/>
+      <c r="EI1" s="7"/>
+      <c r="EJ1" s="7"/>
+      <c r="EK1" s="7"/>
+      <c r="EL1" s="7"/>
+      <c r="EM1" s="7"/>
+      <c r="EN1" s="7"/>
+      <c r="EO1" s="7"/>
+      <c r="EP1" s="7"/>
+      <c r="EQ1" s="7"/>
+      <c r="ER1" s="7"/>
+      <c r="ES1" s="7"/>
       <c r="ET1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="FQ1" s="10" t="s">
+      <c r="EU1" s="10"/>
+      <c r="EV1" s="10"/>
+      <c r="EW1" s="10"/>
+      <c r="EX1" s="10"/>
+      <c r="EY1" s="10"/>
+      <c r="EZ1" s="10"/>
+      <c r="FA1" s="10"/>
+      <c r="FB1" s="10"/>
+      <c r="FC1" s="10"/>
+      <c r="FD1" s="10"/>
+      <c r="FE1" s="10"/>
+      <c r="FF1" s="10"/>
+      <c r="FG1" s="10"/>
+      <c r="FH1" s="10"/>
+      <c r="FI1" s="10"/>
+      <c r="FJ1" s="10"/>
+      <c r="FK1" s="10"/>
+      <c r="FL1" s="10"/>
+      <c r="FM1" s="10"/>
+      <c r="FN1" s="10"/>
+      <c r="FO1" s="10"/>
+      <c r="FP1" s="10"/>
+      <c r="FQ1" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="FR1" s="12"/>
+      <c r="FS1" s="12"/>
+      <c r="FT1" s="12"/>
+      <c r="FU1" s="12"/>
+      <c r="FV1" s="12"/>
+      <c r="FW1" s="12"/>
+      <c r="FX1" s="12"/>
+      <c r="FY1" s="12"/>
       <c r="FZ1" s="11"/>
-      <c r="GA1" s="10" t="s">
+      <c r="GA1" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="GB1" s="12"/>
+      <c r="GC1" s="12"/>
+      <c r="GD1" s="12"/>
+      <c r="GE1" s="12"/>
+      <c r="GF1" s="12"/>
+      <c r="GG1" s="12"/>
+      <c r="GH1" s="12"/>
+      <c r="GI1" s="12"/>
+      <c r="GJ1" s="12"/>
+      <c r="GK1" s="12"/>
+      <c r="GL1" s="12"/>
+      <c r="GM1" s="12"/>
       <c r="GN1" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="GO1" s="10"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
+      <c r="GT1" s="10"/>
+      <c r="GU1" s="10"/>
+      <c r="GV1" s="10"/>
+      <c r="GW1" s="10"/>
+      <c r="GX1" s="10"/>
+      <c r="GY1" s="10"/>
+      <c r="GZ1" s="10"/>
+      <c r="HA1" s="10"/>
+      <c r="HB1" s="10"/>
+      <c r="HC1" s="10"/>
+      <c r="HD1" s="10"/>
+      <c r="HE1" s="10"/>
+      <c r="HF1" s="10"/>
+      <c r="HG1" s="10"/>
+      <c r="HH1" s="10"/>
+      <c r="HI1" s="10"/>
+      <c r="HJ1" s="10"/>
+      <c r="HK1" s="10"/>
+      <c r="HL1" s="10"/>
+      <c r="HM1" s="10"/>
+      <c r="HN1" s="10"/>
+      <c r="HO1" s="10"/>
+      <c r="HP1" s="10"/>
+      <c r="HQ1" s="10"/>
+      <c r="HR1" s="10"/>
+      <c r="HS1" s="10"/>
+      <c r="HT1" s="10"/>
+      <c r="HU1" s="10"/>
+      <c r="HV1" s="10"/>
+      <c r="HW1" s="10"/>
+      <c r="HX1" s="10"/>
+      <c r="HY1" s="10"/>
+      <c r="HZ1" s="10"/>
+      <c r="IA1" s="10"/>
+      <c r="IB1" s="10"/>
+      <c r="IC1" s="10"/>
+      <c r="ID1" s="10"/>
+      <c r="IE1" s="10"/>
+      <c r="IF1" s="10"/>
+      <c r="IG1" s="10"/>
+      <c r="IH1" s="10"/>
+      <c r="II1" s="10"/>
+      <c r="IJ1" s="10"/>
+      <c r="IK1" s="10"/>
+      <c r="IL1" s="10"/>
+      <c r="IM1" s="10"/>
       <c r="IN1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="JL1" s="10" t="s">
+      <c r="IO1" s="10"/>
+      <c r="IP1" s="10"/>
+      <c r="IQ1" s="10"/>
+      <c r="IR1" s="10"/>
+      <c r="IS1" s="10"/>
+      <c r="IT1" s="10"/>
+      <c r="IU1" s="10"/>
+      <c r="IV1" s="10"/>
+      <c r="IW1" s="10"/>
+      <c r="IX1" s="10"/>
+      <c r="IY1" s="10"/>
+      <c r="IZ1" s="10"/>
+      <c r="JA1" s="10"/>
+      <c r="JB1" s="10"/>
+      <c r="JC1" s="10"/>
+      <c r="JD1" s="10"/>
+      <c r="JE1" s="10"/>
+      <c r="JF1" s="10"/>
+      <c r="JG1" s="10"/>
+      <c r="JH1" s="10"/>
+      <c r="JI1" s="10"/>
+      <c r="JJ1" s="10"/>
+      <c r="JK1" s="10"/>
+      <c r="JL1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="KY1" s="10" t="s">
+      <c r="JM1" s="12"/>
+      <c r="JN1" s="12"/>
+      <c r="JO1" s="12"/>
+      <c r="JP1" s="12"/>
+      <c r="JQ1" s="12"/>
+      <c r="JR1" s="12"/>
+      <c r="JS1" s="12"/>
+      <c r="JT1" s="12"/>
+      <c r="JU1" s="12"/>
+      <c r="JV1" s="12"/>
+      <c r="JW1" s="12"/>
+      <c r="JX1" s="12"/>
+      <c r="JY1" s="12"/>
+      <c r="JZ1" s="12"/>
+      <c r="KA1" s="12"/>
+      <c r="KB1" s="12"/>
+      <c r="KC1" s="12"/>
+      <c r="KD1" s="12"/>
+      <c r="KE1" s="12"/>
+      <c r="KF1" s="12"/>
+      <c r="KG1" s="12"/>
+      <c r="KH1" s="12"/>
+      <c r="KI1" s="12"/>
+      <c r="KJ1" s="12"/>
+      <c r="KK1" s="12"/>
+      <c r="KL1" s="12"/>
+      <c r="KM1" s="12"/>
+      <c r="KN1" s="12"/>
+      <c r="KO1" s="12"/>
+      <c r="KP1" s="12"/>
+      <c r="KQ1" s="12"/>
+      <c r="KR1" s="12"/>
+      <c r="KS1" s="12"/>
+      <c r="KT1" s="12"/>
+      <c r="KU1" s="12"/>
+      <c r="KV1" s="12"/>
+      <c r="KW1" s="12"/>
+      <c r="KX1" s="12"/>
+      <c r="KY1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="MN1" s="10" t="s">
+      <c r="KZ1" s="12"/>
+      <c r="LA1" s="12"/>
+      <c r="LB1" s="12"/>
+      <c r="LC1" s="12"/>
+      <c r="LD1" s="12"/>
+      <c r="LE1" s="12"/>
+      <c r="LF1" s="12"/>
+      <c r="LG1" s="12"/>
+      <c r="LH1" s="12"/>
+      <c r="LI1" s="12"/>
+      <c r="LJ1" s="12"/>
+      <c r="LK1" s="12"/>
+      <c r="LL1" s="12"/>
+      <c r="LM1" s="12"/>
+      <c r="LN1" s="12"/>
+      <c r="LO1" s="12"/>
+      <c r="LP1" s="12"/>
+      <c r="LQ1" s="12"/>
+      <c r="LR1" s="12"/>
+      <c r="LS1" s="12"/>
+      <c r="LT1" s="12"/>
+      <c r="LU1" s="12"/>
+      <c r="LV1" s="12"/>
+      <c r="LW1" s="12"/>
+      <c r="LX1" s="12"/>
+      <c r="LY1" s="12"/>
+      <c r="LZ1" s="12"/>
+      <c r="MA1" s="12"/>
+      <c r="MB1" s="12"/>
+      <c r="MC1" s="12"/>
+      <c r="MD1" s="12"/>
+      <c r="ME1" s="12"/>
+      <c r="MF1" s="12"/>
+      <c r="MG1" s="12"/>
+      <c r="MH1" s="12"/>
+      <c r="MI1" s="12"/>
+      <c r="MJ1" s="12"/>
+      <c r="MK1" s="12"/>
+      <c r="ML1" s="12"/>
+      <c r="MM1" s="12"/>
+      <c r="MN1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="NE1" s="10" t="s">
+      <c r="MO1" s="12"/>
+      <c r="MP1" s="12"/>
+      <c r="MQ1" s="12"/>
+      <c r="MR1" s="12"/>
+      <c r="MS1" s="12"/>
+      <c r="MT1" s="12"/>
+      <c r="MU1" s="12"/>
+      <c r="MV1" s="12"/>
+      <c r="MW1" s="12"/>
+      <c r="MX1" s="12"/>
+      <c r="MY1" s="12"/>
+      <c r="MZ1" s="12"/>
+      <c r="NA1" s="12"/>
+      <c r="NB1" s="12"/>
+      <c r="NC1" s="12"/>
+      <c r="ND1" s="12"/>
+      <c r="NE1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="OB1" s="10" t="s">
+      <c r="NF1" s="12"/>
+      <c r="NG1" s="12"/>
+      <c r="NH1" s="12"/>
+      <c r="NI1" s="12"/>
+      <c r="NJ1" s="12"/>
+      <c r="NK1" s="12"/>
+      <c r="NL1" s="12"/>
+      <c r="NM1" s="12"/>
+      <c r="NN1" s="12"/>
+      <c r="NO1" s="12"/>
+      <c r="NP1" s="12"/>
+      <c r="NQ1" s="12"/>
+      <c r="NR1" s="12"/>
+      <c r="NS1" s="12"/>
+      <c r="NT1" s="12"/>
+      <c r="NU1" s="12"/>
+      <c r="NV1" s="12"/>
+      <c r="NW1" s="12"/>
+      <c r="NX1" s="12"/>
+      <c r="NY1" s="12"/>
+      <c r="NZ1" s="12"/>
+      <c r="OA1" s="12"/>
+      <c r="OB1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="PA1" s="10" t="s">
+      <c r="OC1" s="12"/>
+      <c r="OD1" s="12"/>
+      <c r="OE1" s="12"/>
+      <c r="OF1" s="12"/>
+      <c r="OG1" s="12"/>
+      <c r="OH1" s="12"/>
+      <c r="OI1" s="12"/>
+      <c r="OJ1" s="12"/>
+      <c r="OK1" s="12"/>
+      <c r="OL1" s="12"/>
+      <c r="OM1" s="12"/>
+      <c r="ON1" s="12"/>
+      <c r="OO1" s="12"/>
+      <c r="OP1" s="12"/>
+      <c r="OQ1" s="12"/>
+      <c r="OR1" s="12"/>
+      <c r="OS1" s="12"/>
+      <c r="OT1" s="12"/>
+      <c r="OU1" s="12"/>
+      <c r="OV1" s="12"/>
+      <c r="OW1" s="12"/>
+      <c r="OX1" s="12"/>
+      <c r="OY1" s="12"/>
+      <c r="OZ1" s="12"/>
+      <c r="PA1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="PS1" s="10" t="s">
+      <c r="PB1" s="12"/>
+      <c r="PC1" s="12"/>
+      <c r="PD1" s="12"/>
+      <c r="PE1" s="12"/>
+      <c r="PF1" s="12"/>
+      <c r="PG1" s="12"/>
+      <c r="PH1" s="12"/>
+      <c r="PI1" s="12"/>
+      <c r="PJ1" s="12"/>
+      <c r="PK1" s="12"/>
+      <c r="PL1" s="12"/>
+      <c r="PM1" s="12"/>
+      <c r="PN1" s="12"/>
+      <c r="PO1" s="12"/>
+      <c r="PP1" s="12"/>
+      <c r="PQ1" s="12"/>
+      <c r="PR1" s="12"/>
+      <c r="PS1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="QU1" s="10" t="s">
+      <c r="PT1" s="12"/>
+      <c r="PU1" s="12"/>
+      <c r="PV1" s="12"/>
+      <c r="PW1" s="12"/>
+      <c r="PX1" s="12"/>
+      <c r="PY1" s="12"/>
+      <c r="PZ1" s="12"/>
+      <c r="QA1" s="12"/>
+      <c r="QB1" s="12"/>
+      <c r="QC1" s="12"/>
+      <c r="QD1" s="12"/>
+      <c r="QE1" s="12"/>
+      <c r="QF1" s="12"/>
+      <c r="QG1" s="12"/>
+      <c r="QH1" s="12"/>
+      <c r="QI1" s="12"/>
+      <c r="QJ1" s="12"/>
+      <c r="QK1" s="12"/>
+      <c r="QL1" s="12"/>
+      <c r="QM1" s="12"/>
+      <c r="QN1" s="12"/>
+      <c r="QO1" s="12"/>
+      <c r="QP1" s="12"/>
+      <c r="QQ1" s="12"/>
+      <c r="QR1" s="12"/>
+      <c r="QS1" s="12"/>
+      <c r="QT1" s="12"/>
+      <c r="QU1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="RI1" s="10" t="s">
+      <c r="QV1" s="12"/>
+      <c r="QW1" s="12"/>
+      <c r="QX1" s="12"/>
+      <c r="QY1" s="12"/>
+      <c r="QZ1" s="12"/>
+      <c r="RA1" s="12"/>
+      <c r="RB1" s="12"/>
+      <c r="RC1" s="12"/>
+      <c r="RD1" s="12"/>
+      <c r="RE1" s="12"/>
+      <c r="RF1" s="12"/>
+      <c r="RG1" s="12"/>
+      <c r="RH1" s="12"/>
+      <c r="RI1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="SA1" s="10" t="s">
+      <c r="RJ1" s="12"/>
+      <c r="RK1" s="12"/>
+      <c r="RL1" s="12"/>
+      <c r="RM1" s="12"/>
+      <c r="RN1" s="12"/>
+      <c r="RO1" s="12"/>
+      <c r="RP1" s="12"/>
+      <c r="RQ1" s="12"/>
+      <c r="RR1" s="12"/>
+      <c r="RS1" s="12"/>
+      <c r="RT1" s="12"/>
+      <c r="RU1" s="12"/>
+      <c r="RV1" s="12"/>
+      <c r="RW1" s="12"/>
+      <c r="RX1" s="12"/>
+      <c r="RY1" s="12"/>
+      <c r="RZ1" s="12"/>
+      <c r="SA1" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="SB1" s="12"/>
+      <c r="SC1" s="12"/>
+      <c r="SD1" s="12"/>
+      <c r="SE1" s="12"/>
+      <c r="SF1" s="12"/>
+      <c r="SG1" s="12"/>
+      <c r="SH1" s="12"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AA2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AC2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AD2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AE2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AF2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AG2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="19" t="s">
+      <c r="AH2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AI2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="20" t="s">
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AM2" s="21" t="s">
+      <c r="AM2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AN2" s="21" t="s">
+      <c r="AN2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AO2" s="22" t="s">
+      <c r="AO2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="22" t="s">
+      <c r="AP2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AQ2" s="22" t="s">
+      <c r="AQ2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AR2" s="22" t="s">
+      <c r="AR2" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="AS2" s="22" t="s">
+      <c r="AS2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AT2" s="22" t="s">
+      <c r="AT2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AU2" s="20" t="s">
+      <c r="AU2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" s="21" t="s">
+      <c r="AV2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AW2" s="21" t="s">
+      <c r="AW2" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AX2" s="22" t="s">
+      <c r="AX2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AY2" s="22" t="s">
+      <c r="AY2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="AZ2" s="19" t="s">
+      <c r="AZ2" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="BA2" s="22" t="s">
+      <c r="BA2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="BB2" s="22" t="s">
+      <c r="BB2" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="BC2" s="19" t="s">
+      <c r="BC2" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="BD2" s="19" t="s">
+      <c r="BD2" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="BE2" s="19" t="s">
+      <c r="BE2" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="BF2" s="22" t="s">
+      <c r="BF2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="BG2" s="22" t="s">
+      <c r="BG2" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="BH2" s="20" t="s">
+      <c r="BH2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BI2" s="20" t="s">
+      <c r="BI2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="BJ2" s="20" t="s">
+      <c r="BJ2" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="BK2" s="20" t="s">
+      <c r="BK2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="BL2" s="20" t="s">
+      <c r="BL2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="BM2" s="20" t="s">
+      <c r="BM2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BN2" s="20" t="s">
+      <c r="BN2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="BO2" s="20" t="s">
+      <c r="BO2" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="BP2" s="20" t="s">
+      <c r="BP2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="BQ2" s="20" t="s">
+      <c r="BQ2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="BR2" s="20" t="s">
+      <c r="BR2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BS2" s="20" t="s">
+      <c r="BS2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="BT2" s="20" t="s">
+      <c r="BT2" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="BU2" s="20" t="s">
+      <c r="BU2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="BV2" s="20" t="s">
+      <c r="BV2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="BW2" s="23" t="s">
+      <c r="BW2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="BX2" s="21" t="s">
+      <c r="BX2" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="BY2" s="24" t="s">
+      <c r="BY2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="BZ2" s="19" t="s">
+      <c r="BZ2" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="CA2" s="19" t="s">
+      <c r="CA2" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="CB2" s="19" t="s">
+      <c r="CB2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="CC2" s="19" t="s">
+      <c r="CC2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="CD2" s="19" t="s">
+      <c r="CD2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="CE2" s="19" t="s">
+      <c r="CE2" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="CF2" s="19" t="s">
+      <c r="CF2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="CG2" s="19" t="s">
+      <c r="CG2" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="CH2" s="19" t="s">
+      <c r="CH2" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="CI2" s="19" t="s">
+      <c r="CI2" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="CJ2" s="19" t="s">
+      <c r="CJ2" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="CK2" s="19" t="s">
+      <c r="CK2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="CL2" s="22" t="s">
+      <c r="CL2" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="CM2" s="19" t="s">
+      <c r="CM2" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="CN2" s="19" t="s">
+      <c r="CN2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="CO2" s="19" t="s">
+      <c r="CO2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="CP2" s="19" t="s">
+      <c r="CP2" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="CQ2" s="19" t="s">
+      <c r="CQ2" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="CR2" s="19" t="s">
+      <c r="CR2" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="CS2" s="19" t="s">
+      <c r="CS2" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="CT2" s="19" t="s">
+      <c r="CT2" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="CU2" s="19" t="s">
+      <c r="CU2" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="CV2" s="19" t="s">
+      <c r="CV2" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="CW2" s="19" t="s">
+      <c r="CW2" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="CX2" s="19" t="s">
+      <c r="CX2" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="CY2" s="22" t="s">
+      <c r="CY2" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="CZ2" s="19" t="s">
+      <c r="CZ2" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="DA2" s="19" t="s">
+      <c r="DA2" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="DB2" s="19" t="s">
+      <c r="DB2" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="DC2" s="19" t="s">
+      <c r="DC2" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="DD2" s="19" t="s">
+      <c r="DD2" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="DE2" s="19" t="s">
+      <c r="DE2" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="DF2" s="19" t="s">
+      <c r="DF2" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="DG2" s="19" t="s">
+      <c r="DG2" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="DH2" s="22" t="s">
+      <c r="DH2" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="DI2" s="19" t="s">
+      <c r="DI2" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="DJ2" s="22" t="s">
+      <c r="DJ2" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="DK2" s="19" t="s">
+      <c r="DK2" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="DL2" s="19" t="s">
+      <c r="DL2" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="DM2" s="19" t="s">
+      <c r="DM2" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="DN2" s="19" t="s">
+      <c r="DN2" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="DO2" s="19" t="s">
+      <c r="DO2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="DP2" s="19" t="s">
+      <c r="DP2" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="DQ2" s="19" t="s">
+      <c r="DQ2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="DR2" s="19" t="s">
+      <c r="DR2" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="DS2" s="19" t="s">
+      <c r="DS2" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="DT2" s="19" t="s">
+      <c r="DT2" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="DU2" s="19" t="s">
+      <c r="DU2" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="DV2" s="19" t="s">
+      <c r="DV2" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="DW2" s="19" t="s">
+      <c r="DW2" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="DX2" s="19" t="s">
+      <c r="DX2" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="DY2" s="19" t="s">
+      <c r="DY2" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="DZ2" s="19" t="s">
+      <c r="DZ2" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="EA2" s="19" t="s">
+      <c r="EA2" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="EB2" s="19" t="s">
+      <c r="EB2" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="EC2" s="19" t="s">
+      <c r="EC2" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="ED2" s="19" t="s">
+      <c r="ED2" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="EE2" s="19" t="s">
+      <c r="EE2" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="EF2" s="19" t="s">
+      <c r="EF2" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="EG2" s="19" t="s">
+      <c r="EG2" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="EH2" s="19" t="s">
+      <c r="EH2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="EI2" s="19" t="s">
+      <c r="EI2" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="EJ2" s="19" t="s">
+      <c r="EJ2" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="EK2" s="19" t="s">
+      <c r="EK2" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="EL2" s="19" t="s">
+      <c r="EL2" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="EM2" s="19" t="s">
+      <c r="EM2" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="EN2" s="19" t="s">
+      <c r="EN2" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="EO2" s="19" t="s">
+      <c r="EO2" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="EP2" s="22" t="s">
+      <c r="EP2" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="EQ2" s="19" t="s">
+      <c r="EQ2" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="ER2" s="19" t="s">
+      <c r="ER2" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="ES2" s="19" t="s">
+      <c r="ES2" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="ET2" s="18" t="s">
+      <c r="ET2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="EU2" s="19" t="s">
+      <c r="EU2" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="EV2" s="19" t="s">
+      <c r="EV2" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="EW2" s="19" t="s">
+      <c r="EW2" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="EX2" s="19" t="s">
+      <c r="EX2" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="EY2" s="19" t="s">
+      <c r="EY2" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="EZ2" s="19" t="s">
+      <c r="EZ2" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="FA2" s="19" t="s">
+      <c r="FA2" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="FB2" s="19" t="s">
+      <c r="FB2" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="FC2" s="19" t="s">
+      <c r="FC2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="FD2" s="19" t="s">
+      <c r="FD2" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="FE2" s="19" t="s">
+      <c r="FE2" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="FF2" s="19" t="s">
+      <c r="FF2" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="FG2" s="19" t="s">
+      <c r="FG2" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="FH2" s="19" t="s">
+      <c r="FH2" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="FI2" s="19" t="s">
+      <c r="FI2" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="FJ2" s="19" t="s">
+      <c r="FJ2" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="FK2" s="19" t="s">
+      <c r="FK2" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="FL2" s="19" t="s">
+      <c r="FL2" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="FM2" s="19" t="s">
+      <c r="FM2" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="FN2" s="19" t="s">
+      <c r="FN2" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="FO2" s="19" t="s">
+      <c r="FO2" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="FP2" s="19" t="s">
+      <c r="FP2" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="FQ2" s="23" t="s">
+      <c r="FQ2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="FR2" s="21" t="s">
+      <c r="FR2" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="FS2" s="21" t="s">
+      <c r="FS2" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="FT2" s="22" t="s">
+      <c r="FT2" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="FU2" s="22" t="s">
+      <c r="FU2" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="FV2" s="22" t="s">
+      <c r="FV2" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="FW2" s="22" t="s">
+      <c r="FW2" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="FX2" s="22" t="s">
+      <c r="FX2" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="FY2" s="22" t="s">
+      <c r="FY2" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="FZ2" s="18" t="s">
+      <c r="FZ2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="GA2" s="24" t="s">
+      <c r="GA2" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="GB2" s="21" t="s">
+      <c r="GB2" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="GC2" s="19" t="s">
+      <c r="GC2" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="GD2" s="19" t="s">
+      <c r="GD2" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="GE2" s="19" t="s">
+      <c r="GE2" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="GF2" s="19" t="s">
+      <c r="GF2" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="GG2" s="19" t="s">
+      <c r="GG2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="GH2" s="19" t="s">
+      <c r="GH2" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="GI2" s="19" t="s">
+      <c r="GI2" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="GJ2" s="19" t="s">
+      <c r="GJ2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="GK2" s="19" t="s">
+      <c r="GK2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="GL2" s="19" t="s">
+      <c r="GL2" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="GM2" s="19" t="s">
+      <c r="GM2" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="GN2" s="25" t="s">
+      <c r="GN2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="GO2" s="26" t="s">
+      <c r="GO2" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="GP2" s="26" t="s">
+      <c r="GP2" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="GQ2" s="27" t="s">
+      <c r="GQ2" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="GR2" s="28" t="s">
+      <c r="GR2" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="GS2" s="28" t="s">
+      <c r="GS2" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="GT2" s="28" t="s">
+      <c r="GT2" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="GU2" s="27" t="s">
+      <c r="GU2" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="GV2" s="28" t="s">
+      <c r="GV2" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="GW2" s="28" t="s">
+      <c r="GW2" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="GX2" s="28" t="s">
+      <c r="GX2" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="GY2" s="28" t="s">
+      <c r="GY2" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="GZ2" s="27" t="s">
+      <c r="GZ2" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="HA2" s="27" t="s">
+      <c r="HA2" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="HB2" s="27" t="s">
+      <c r="HB2" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="HC2" s="27" t="s">
+      <c r="HC2" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="HD2" s="19" t="s">
+      <c r="HD2" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="HE2" s="19" t="s">
+      <c r="HE2" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="HF2" s="19" t="s">
+      <c r="HF2" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="HG2" s="19" t="s">
+      <c r="HG2" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="HH2" s="19" t="s">
+      <c r="HH2" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="HI2" s="19" t="s">
+      <c r="HI2" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="HJ2" s="19" t="s">
+      <c r="HJ2" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="HK2" s="19" t="s">
+      <c r="HK2" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="HL2" s="19" t="s">
+      <c r="HL2" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="HM2" s="19" t="s">
+      <c r="HM2" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="HN2" s="19" t="s">
+      <c r="HN2" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="HO2" s="19" t="s">
+      <c r="HO2" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="HP2" s="19" t="s">
+      <c r="HP2" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="HQ2" s="19" t="s">
+      <c r="HQ2" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="HR2" s="19" t="s">
+      <c r="HR2" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="HS2" s="19" t="s">
+      <c r="HS2" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="HT2" s="19" t="s">
+      <c r="HT2" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="HU2" s="19" t="s">
+      <c r="HU2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="HV2" s="19" t="s">
+      <c r="HV2" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="HW2" s="19" t="s">
+      <c r="HW2" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="HX2" s="19" t="s">
+      <c r="HX2" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="HY2" s="19" t="s">
+      <c r="HY2" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="HZ2" s="19" t="s">
+      <c r="HZ2" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="IA2" s="19" t="s">
+      <c r="IA2" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="IB2" s="19" t="s">
+      <c r="IB2" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="IC2" s="19" t="s">
+      <c r="IC2" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="ID2" s="19" t="s">
+      <c r="ID2" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="IE2" s="19" t="s">
+      <c r="IE2" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="IF2" s="19" t="s">
+      <c r="IF2" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="IG2" s="19" t="s">
+      <c r="IG2" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="IH2" s="19" t="s">
+      <c r="IH2" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="II2" s="19" t="s">
+      <c r="II2" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="IJ2" s="19" t="s">
+      <c r="IJ2" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="IK2" s="19" t="s">
+      <c r="IK2" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="IL2" s="19" t="s">
+      <c r="IL2" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="IM2" s="29" t="s">
+      <c r="IM2" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="IN2" s="18" t="s">
+      <c r="IN2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="IO2" s="24" t="s">
+      <c r="IO2" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="IP2" s="24" t="s">
+      <c r="IP2" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="IQ2" s="19" t="s">
+      <c r="IQ2" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="IR2" s="19" t="s">
+      <c r="IR2" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="IS2" s="19" t="s">
+      <c r="IS2" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="IT2" s="19" t="s">
+      <c r="IT2" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="IU2" s="22" t="s">
+      <c r="IU2" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="IV2" s="19" t="s">
+      <c r="IV2" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="IW2" s="19" t="s">
+      <c r="IW2" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="IX2" s="19" t="s">
+      <c r="IX2" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="IY2" s="19" t="s">
+      <c r="IY2" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="IZ2" s="19" t="s">
+      <c r="IZ2" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="JA2" s="19" t="s">
+      <c r="JA2" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="JB2" s="19" t="s">
+      <c r="JB2" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="JC2" s="19" t="s">
+      <c r="JC2" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="JD2" s="19" t="s">
+      <c r="JD2" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="JE2" s="19" t="s">
+      <c r="JE2" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="JF2" s="19" t="s">
+      <c r="JF2" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="JG2" s="19" t="s">
+      <c r="JG2" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="JH2" s="19" t="s">
+      <c r="JH2" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="JI2" s="19" t="s">
+      <c r="JI2" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="JJ2" s="19" t="s">
+      <c r="JJ2" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="JK2" s="19" t="s">
+      <c r="JK2" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="JL2" s="23" t="s">
+      <c r="JL2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="JM2" s="21" t="s">
+      <c r="JM2" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="JN2" s="24" t="s">
+      <c r="JN2" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="JO2" s="19" t="s">
+      <c r="JO2" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="JP2" s="29" t="s">
+      <c r="JP2" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="JQ2" s="30" t="s">
+      <c r="JQ2" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="JR2" s="29" t="s">
+      <c r="JR2" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="JS2" s="29" t="s">
+      <c r="JS2" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="JT2" s="29" t="s">
+      <c r="JT2" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="JU2" s="19" t="s">
+      <c r="JU2" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="JV2" s="19" t="s">
+      <c r="JV2" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="JW2" s="19" t="s">
+      <c r="JW2" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="JX2" s="19" t="s">
+      <c r="JX2" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="JY2" s="19" t="s">
+      <c r="JY2" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="JZ2" s="19" t="s">
+      <c r="JZ2" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="KA2" s="19" t="s">
+      <c r="KA2" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="KB2" s="19" t="s">
+      <c r="KB2" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="KC2" s="19" t="s">
+      <c r="KC2" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="KD2" s="19" t="s">
+      <c r="KD2" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="KE2" s="19" t="s">
+      <c r="KE2" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="KF2" s="19" t="s">
+      <c r="KF2" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="KG2" s="19" t="s">
+      <c r="KG2" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="KH2" s="29" t="s">
+      <c r="KH2" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="KI2" s="29" t="s">
+      <c r="KI2" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="KJ2" s="19" t="s">
+      <c r="KJ2" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="KK2" s="29" t="s">
+      <c r="KK2" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="KL2" s="29" t="s">
+      <c r="KL2" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="KM2" s="29" t="s">
+      <c r="KM2" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="KN2" s="19" t="s">
+      <c r="KN2" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="KO2" s="19" t="s">
+      <c r="KO2" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="KP2" s="19" t="s">
+      <c r="KP2" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="KQ2" s="19" t="s">
+      <c r="KQ2" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="KR2" s="19" t="s">
+      <c r="KR2" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="KS2" s="19" t="s">
+      <c r="KS2" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="KT2" s="19" t="s">
+      <c r="KT2" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="KU2" s="19" t="s">
+      <c r="KU2" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="KV2" s="19" t="s">
+      <c r="KV2" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="KW2" s="19" t="s">
+      <c r="KW2" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="KX2" s="19" t="s">
+      <c r="KX2" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="KY2" s="18" t="s">
+      <c r="KY2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="KZ2" s="24" t="s">
+      <c r="KZ2" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="LA2" s="24" t="s">
+      <c r="LA2" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="LB2" s="24" t="s">
+      <c r="LB2" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="LC2" s="19" t="s">
+      <c r="LC2" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="LD2" s="19" t="s">
+      <c r="LD2" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="LE2" s="19" t="s">
+      <c r="LE2" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="LF2" s="19" t="s">
+      <c r="LF2" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="LG2" s="19" t="s">
+      <c r="LG2" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="LH2" s="19" t="s">
+      <c r="LH2" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="LI2" s="19" t="s">
+      <c r="LI2" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="LJ2" s="19" t="s">
+      <c r="LJ2" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="LK2" s="19" t="s">
+      <c r="LK2" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="LL2" s="19" t="s">
+      <c r="LL2" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="LM2" s="19" t="s">
+      <c r="LM2" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="LN2" s="22" t="s">
+      <c r="LN2" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="LO2" s="19" t="s">
+      <c r="LO2" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="LP2" s="22" t="s">
+      <c r="LP2" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="LQ2" s="19" t="s">
+      <c r="LQ2" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="LR2" s="19" t="s">
+      <c r="LR2" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="LS2" s="19" t="s">
+      <c r="LS2" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="LT2" s="19" t="s">
+      <c r="LT2" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="LU2" s="19" t="s">
+      <c r="LU2" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="LV2" s="19" t="s">
+      <c r="LV2" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="LW2" s="19" t="s">
+      <c r="LW2" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="LX2" s="19" t="s">
+      <c r="LX2" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="LY2" s="19" t="s">
+      <c r="LY2" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="LZ2" s="19" t="s">
+      <c r="LZ2" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="MA2" s="19" t="s">
+      <c r="MA2" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="MB2" s="19" t="s">
+      <c r="MB2" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="MC2" s="19" t="s">
+      <c r="MC2" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="MD2" s="19" t="s">
+      <c r="MD2" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="ME2" s="19" t="s">
+      <c r="ME2" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="MF2" s="19" t="s">
+      <c r="MF2" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="MG2" s="19" t="s">
+      <c r="MG2" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="MH2" s="19" t="s">
+      <c r="MH2" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="MI2" s="19" t="s">
+      <c r="MI2" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="MJ2" s="19" t="s">
+      <c r="MJ2" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="MK2" s="19" t="s">
+      <c r="MK2" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="ML2" s="19" t="s">
+      <c r="ML2" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="MM2" s="19" t="s">
+      <c r="MM2" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="MN2" s="18" t="s">
+      <c r="MN2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="MO2" s="24" t="s">
+      <c r="MO2" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="MP2" s="21" t="s">
+      <c r="MP2" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="MQ2" s="22" t="s">
+      <c r="MQ2" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="MR2" s="22" t="s">
+      <c r="MR2" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="MS2" s="22" t="s">
+      <c r="MS2" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="MT2" s="22" t="s">
+      <c r="MT2" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="MU2" s="22" t="s">
+      <c r="MU2" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="MV2" s="22" t="s">
+      <c r="MV2" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="MW2" s="22" t="s">
+      <c r="MW2" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="MX2" s="22" t="s">
+      <c r="MX2" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="MY2" s="22" t="s">
+      <c r="MY2" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="MZ2" s="22" t="s">
+      <c r="MZ2" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="NA2" s="22" t="s">
+      <c r="NA2" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="NB2" s="19" t="s">
+      <c r="NB2" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="NC2" s="19" t="s">
+      <c r="NC2" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="ND2" s="22" t="s">
+      <c r="ND2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="NE2" s="18" t="s">
+      <c r="NE2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="NF2" s="24" t="s">
+      <c r="NF2" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="NG2" s="24" t="s">
+      <c r="NG2" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="NH2" s="19" t="s">
+      <c r="NH2" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="NI2" s="19" t="s">
+      <c r="NI2" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="NJ2" s="19" t="s">
+      <c r="NJ2" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="NK2" s="19" t="s">
+      <c r="NK2" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="NL2" s="19" t="s">
+      <c r="NL2" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="NM2" s="19" t="s">
+      <c r="NM2" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="NN2" s="19" t="s">
+      <c r="NN2" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="NO2" s="19" t="s">
+      <c r="NO2" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="NP2" s="19" t="s">
+      <c r="NP2" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="NQ2" s="19" t="s">
+      <c r="NQ2" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="NR2" s="19" t="s">
+      <c r="NR2" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="NS2" s="19" t="s">
+      <c r="NS2" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="NT2" s="19" t="s">
+      <c r="NT2" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="NU2" s="19" t="s">
+      <c r="NU2" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="NV2" s="19" t="s">
+      <c r="NV2" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="NW2" s="19" t="s">
+      <c r="NW2" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="NX2" s="19" t="s">
+      <c r="NX2" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="NY2" s="19" t="s">
+      <c r="NY2" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="NZ2" s="19" t="s">
+      <c r="NZ2" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="OA2" s="19" t="s">
+      <c r="OA2" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="OB2" s="18" t="s">
+      <c r="OB2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="OC2" s="24" t="s">
+      <c r="OC2" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="OD2" s="24" t="s">
+      <c r="OD2" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="OE2" s="24" t="s">
+      <c r="OE2" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="OF2" s="19" t="s">
+      <c r="OF2" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="OG2" s="19" t="s">
+      <c r="OG2" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="OH2" s="19" t="s">
+      <c r="OH2" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="OI2" s="19" t="s">
+      <c r="OI2" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="OJ2" s="19" t="s">
+      <c r="OJ2" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="OK2" s="19" t="s">
+      <c r="OK2" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="OL2" s="19" t="s">
+      <c r="OL2" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="OM2" s="19" t="s">
+      <c r="OM2" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="ON2" s="19" t="s">
+      <c r="ON2" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="OO2" s="19" t="s">
+      <c r="OO2" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="OP2" s="19" t="s">
+      <c r="OP2" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="OQ2" s="19" t="s">
+      <c r="OQ2" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="OR2" s="19" t="s">
+      <c r="OR2" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="OS2" s="19" t="s">
+      <c r="OS2" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="OT2" s="19" t="s">
+      <c r="OT2" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="OU2" s="19" t="s">
+      <c r="OU2" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="OV2" s="19" t="s">
+      <c r="OV2" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="OW2" s="19" t="s">
+      <c r="OW2" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="OX2" s="19" t="s">
+      <c r="OX2" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="OY2" s="19" t="s">
+      <c r="OY2" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="OZ2" s="19" t="s">
+      <c r="OZ2" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="PA2" s="18" t="s">
+      <c r="PA2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="PB2" s="24" t="s">
+      <c r="PB2" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="PC2" s="24" t="s">
+      <c r="PC2" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="PD2" s="19" t="s">
+      <c r="PD2" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="PE2" s="19" t="s">
+      <c r="PE2" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="PF2" s="19" t="s">
+      <c r="PF2" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="PG2" s="19" t="s">
+      <c r="PG2" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="PH2" s="19" t="s">
+      <c r="PH2" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="PI2" s="19" t="s">
+      <c r="PI2" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="PJ2" s="19" t="s">
+      <c r="PJ2" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="PK2" s="19" t="s">
+      <c r="PK2" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="PL2" s="19" t="s">
+      <c r="PL2" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="PM2" s="19" t="s">
+      <c r="PM2" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="PN2" s="19" t="s">
+      <c r="PN2" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="PO2" s="19" t="s">
+      <c r="PO2" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="PP2" s="19" t="s">
+      <c r="PP2" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="PQ2" s="19" t="s">
+      <c r="PQ2" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="PR2" s="19" t="s">
+      <c r="PR2" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="PS2" s="18" t="s">
+      <c r="PS2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="PT2" s="24" t="s">
+      <c r="PT2" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="PU2" s="24" t="s">
+      <c r="PU2" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="PV2" s="24" t="s">
+      <c r="PV2" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="PW2" s="29" t="s">
+      <c r="PW2" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="PX2" s="19" t="s">
+      <c r="PX2" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="PY2" s="19" t="s">
+      <c r="PY2" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="PZ2" s="19" t="s">
+      <c r="PZ2" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="QA2" s="19" t="s">
+      <c r="QA2" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="QB2" s="19" t="s">
+      <c r="QB2" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="QC2" s="19" t="s">
+      <c r="QC2" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="QD2" s="19" t="s">
+      <c r="QD2" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="QE2" s="19" t="s">
+      <c r="QE2" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="QF2" s="19" t="s">
+      <c r="QF2" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="QG2" s="19" t="s">
+      <c r="QG2" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="QH2" s="19" t="s">
+      <c r="QH2" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="QI2" s="19" t="s">
+      <c r="QI2" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="QJ2" s="19" t="s">
+      <c r="QJ2" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="QK2" s="19" t="s">
+      <c r="QK2" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="QL2" s="19" t="s">
+      <c r="QL2" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="QM2" s="19" t="s">
+      <c r="QM2" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="QN2" s="19" t="s">
+      <c r="QN2" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="QO2" s="19" t="s">
+      <c r="QO2" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="QP2" s="19" t="s">
+      <c r="QP2" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="QQ2" s="19" t="s">
+      <c r="QQ2" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="QR2" s="19" t="s">
+      <c r="QR2" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="QS2" s="19" t="s">
+      <c r="QS2" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="QT2" s="19" t="s">
+      <c r="QT2" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="QU2" s="18" t="s">
+      <c r="QU2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="QV2" s="24" t="s">
+      <c r="QV2" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="QW2" s="24" t="s">
+      <c r="QW2" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="QX2" s="24" t="s">
+      <c r="QX2" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="QY2" s="19" t="s">
+      <c r="QY2" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="QZ2" s="19" t="s">
+      <c r="QZ2" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="RA2" s="19" t="s">
+      <c r="RA2" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="RB2" s="19" t="s">
+      <c r="RB2" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="RC2" s="19" t="s">
+      <c r="RC2" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="RD2" s="19" t="s">
+      <c r="RD2" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="RE2" s="19" t="s">
+      <c r="RE2" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="RF2" s="19" t="s">
+      <c r="RF2" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="RG2" s="19" t="s">
+      <c r="RG2" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="RH2" s="19" t="s">
+      <c r="RH2" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="RI2" s="18" t="s">
+      <c r="RI2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="RJ2" s="24" t="s">
+      <c r="RJ2" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="RK2" s="24" t="s">
+      <c r="RK2" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="RL2" s="19" t="s">
+      <c r="RL2" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="RM2" s="19" t="s">
+      <c r="RM2" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="RN2" s="19" t="s">
+      <c r="RN2" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="RO2" s="22" t="s">
+      <c r="RO2" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="RP2" s="22" t="s">
+      <c r="RP2" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="RQ2" s="22" t="s">
+      <c r="RQ2" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="RR2" s="22" t="s">
+      <c r="RR2" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="RS2" s="22" t="s">
+      <c r="RS2" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="RT2" s="22" t="s">
+      <c r="RT2" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="RU2" s="22" t="s">
+      <c r="RU2" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="RV2" s="19" t="s">
+      <c r="RV2" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="RW2" s="19" t="s">
+      <c r="RW2" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="RX2" s="19" t="s">
+      <c r="RX2" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="RY2" s="19" t="s">
+      <c r="RY2" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="RZ2" s="19" t="s">
+      <c r="RZ2" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="SA2" s="23" t="s">
+      <c r="SA2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="SB2" s="21" t="s">
+      <c r="SB2" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="SC2" s="24" t="s">
+      <c r="SC2" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="SD2" s="24" t="s">
+      <c r="SD2" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="SE2" s="19" t="s">
+      <c r="SE2" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="SF2" s="19" t="s">
+      <c r="SF2" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="SG2" s="19" t="s">
+      <c r="SG2" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="SH2" s="19" t="s">
+      <c r="SH2" s="20" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="32"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="32"/>
-      <c r="BF3" s="32"/>
-      <c r="BG3" s="32"/>
-      <c r="BH3" s="32"/>
-      <c r="BI3" s="32"/>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="32"/>
-      <c r="BL3" s="32"/>
-      <c r="BM3" s="32"/>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="32"/>
-      <c r="BP3" s="32"/>
-      <c r="BQ3" s="32"/>
-      <c r="BR3" s="32"/>
-      <c r="BS3" s="32"/>
-      <c r="BT3" s="32"/>
-      <c r="BU3" s="32"/>
-      <c r="BV3" s="32"/>
-      <c r="BW3" s="32"/>
-      <c r="BX3" s="32"/>
-      <c r="BY3" s="32"/>
-      <c r="BZ3" s="32"/>
-      <c r="CA3" s="32"/>
-      <c r="CB3" s="32"/>
-      <c r="CC3" s="32"/>
-      <c r="CD3" s="32"/>
-      <c r="CE3" s="32"/>
-      <c r="CF3" s="32"/>
-      <c r="CG3" s="32"/>
-      <c r="CH3" s="32"/>
-      <c r="CI3" s="32"/>
-      <c r="CJ3" s="32"/>
-      <c r="CK3" s="32"/>
-      <c r="CL3" s="32"/>
-      <c r="CM3" s="32"/>
-      <c r="CN3" s="32"/>
-      <c r="CO3" s="32"/>
-      <c r="CP3" s="32"/>
-      <c r="CQ3" s="32"/>
-      <c r="CR3" s="32"/>
-      <c r="CS3" s="32"/>
-      <c r="CT3" s="32"/>
-      <c r="CU3" s="32"/>
-      <c r="CV3" s="32"/>
-      <c r="CW3" s="32"/>
-      <c r="CX3" s="32"/>
-      <c r="CY3" s="32"/>
-      <c r="CZ3" s="32"/>
-      <c r="DA3" s="32"/>
-      <c r="DB3" s="32"/>
-      <c r="DC3" s="32"/>
-      <c r="DD3" s="32"/>
-      <c r="DE3" s="32"/>
-      <c r="DF3" s="32"/>
-      <c r="DG3" s="32"/>
-      <c r="DH3" s="32"/>
-      <c r="DI3" s="32"/>
-      <c r="DJ3" s="32"/>
-      <c r="DK3" s="32"/>
-      <c r="DL3" s="32"/>
-      <c r="DM3" s="32"/>
-      <c r="DN3" s="32"/>
-      <c r="DO3" s="32"/>
-      <c r="DP3" s="32"/>
-      <c r="DQ3" s="32"/>
-      <c r="DR3" s="32"/>
-      <c r="DS3" s="32"/>
-      <c r="DT3" s="32"/>
-      <c r="DU3" s="32"/>
-      <c r="DV3" s="32"/>
-      <c r="DW3" s="32"/>
-      <c r="DX3" s="32"/>
-      <c r="DY3" s="32"/>
-      <c r="DZ3" s="32"/>
-      <c r="EA3" s="32"/>
-      <c r="EB3" s="32"/>
-      <c r="EC3" s="32"/>
-      <c r="ED3" s="32"/>
-      <c r="EE3" s="32"/>
-      <c r="EF3" s="32"/>
-      <c r="EG3" s="32"/>
-      <c r="EH3" s="32"/>
-      <c r="EI3" s="32"/>
-      <c r="EJ3" s="32"/>
-      <c r="EK3" s="32"/>
-      <c r="EL3" s="32"/>
-      <c r="EM3" s="32"/>
-      <c r="EN3" s="32"/>
-      <c r="EO3" s="32"/>
-      <c r="EP3" s="32"/>
-      <c r="EQ3" s="32"/>
-      <c r="ER3" s="32"/>
-      <c r="ES3" s="32"/>
-      <c r="ET3" s="32"/>
-      <c r="EU3" s="32"/>
-      <c r="EV3" s="32"/>
-      <c r="EW3" s="32"/>
-      <c r="EX3" s="32"/>
-      <c r="EY3" s="32"/>
-      <c r="EZ3" s="32"/>
-      <c r="FA3" s="32"/>
-      <c r="FB3" s="32"/>
-      <c r="FC3" s="32"/>
-      <c r="FD3" s="32"/>
-      <c r="FE3" s="32"/>
-      <c r="FF3" s="32"/>
-      <c r="FG3" s="32"/>
-      <c r="FH3" s="32"/>
-      <c r="FI3" s="32"/>
-      <c r="FJ3" s="32"/>
-      <c r="FK3" s="32"/>
-      <c r="FL3" s="32"/>
-      <c r="FM3" s="32"/>
-      <c r="FN3" s="32"/>
-      <c r="FO3" s="32"/>
-      <c r="FP3" s="32"/>
-      <c r="FQ3" s="32"/>
-      <c r="FR3" s="32"/>
-      <c r="FS3" s="32"/>
-      <c r="FT3" s="32"/>
-      <c r="FU3" s="32"/>
-      <c r="FV3" s="32"/>
-      <c r="FW3" s="32"/>
-      <c r="FX3" s="32"/>
-      <c r="FY3" s="32"/>
-      <c r="FZ3" s="32"/>
-      <c r="GA3" s="32"/>
-      <c r="GB3" s="32"/>
-      <c r="GC3" s="32"/>
-      <c r="GD3" s="32"/>
-      <c r="GE3" s="32"/>
-      <c r="GF3" s="32"/>
-      <c r="GG3" s="32"/>
-      <c r="GH3" s="32"/>
-      <c r="GI3" s="32"/>
-      <c r="GJ3" s="32"/>
-      <c r="GK3" s="32"/>
-      <c r="GL3" s="32"/>
-      <c r="GM3" s="32"/>
-      <c r="GN3" s="32"/>
-      <c r="GO3" s="32"/>
-      <c r="GP3" s="32"/>
-      <c r="GQ3" s="32"/>
-      <c r="GR3" s="32"/>
-      <c r="GS3" s="32"/>
-      <c r="GT3" s="32"/>
-      <c r="GU3" s="32"/>
-      <c r="GV3" s="32"/>
-      <c r="GW3" s="32"/>
-      <c r="GX3" s="32"/>
-      <c r="GY3" s="32"/>
-      <c r="GZ3" s="32"/>
-      <c r="HA3" s="32"/>
-      <c r="HB3" s="32"/>
-      <c r="HC3" s="32"/>
-      <c r="HD3" s="32"/>
-      <c r="HE3" s="32"/>
-      <c r="HF3" s="32"/>
-      <c r="HG3" s="32"/>
-      <c r="HH3" s="32"/>
-      <c r="HI3" s="32"/>
-      <c r="HJ3" s="32"/>
-      <c r="HK3" s="32"/>
-      <c r="HL3" s="32"/>
-      <c r="HM3" s="32"/>
-      <c r="HN3" s="32"/>
-      <c r="HO3" s="32"/>
-      <c r="HP3" s="32"/>
-      <c r="HQ3" s="32"/>
-      <c r="HR3" s="32"/>
-      <c r="HS3" s="32"/>
-      <c r="HT3" s="32"/>
-      <c r="HU3" s="32"/>
-      <c r="HV3" s="32"/>
-      <c r="HW3" s="32"/>
-      <c r="HX3" s="32"/>
-      <c r="HY3" s="32"/>
-      <c r="HZ3" s="32"/>
-      <c r="IA3" s="32"/>
-      <c r="IB3" s="32"/>
-      <c r="IC3" s="32"/>
-      <c r="ID3" s="32"/>
-      <c r="IE3" s="32"/>
-      <c r="IF3" s="32"/>
-      <c r="IG3" s="32"/>
-      <c r="IH3" s="32"/>
-      <c r="II3" s="32"/>
-      <c r="IJ3" s="32"/>
-      <c r="IK3" s="32"/>
-      <c r="IL3" s="32"/>
-      <c r="IM3" s="32"/>
-      <c r="IN3" s="32"/>
-      <c r="IO3" s="32"/>
-      <c r="IP3" s="32"/>
-      <c r="IQ3" s="32"/>
-      <c r="IR3" s="32"/>
-      <c r="IS3" s="32"/>
-      <c r="IT3" s="32"/>
-      <c r="IU3" s="32"/>
-      <c r="IV3" s="32"/>
-      <c r="IW3" s="32"/>
-      <c r="IX3" s="32"/>
-      <c r="IY3" s="32"/>
-      <c r="IZ3" s="32"/>
-      <c r="JA3" s="32"/>
-      <c r="JB3" s="32"/>
-      <c r="JC3" s="32"/>
-      <c r="JD3" s="32"/>
-      <c r="JE3" s="32"/>
-      <c r="JF3" s="32"/>
-      <c r="JG3" s="32"/>
-      <c r="JH3" s="32"/>
-      <c r="JI3" s="32"/>
-      <c r="JJ3" s="32"/>
-      <c r="JK3" s="32"/>
-      <c r="JL3" s="32"/>
-      <c r="JM3" s="32"/>
-      <c r="JN3" s="32"/>
-      <c r="JO3" s="32"/>
-      <c r="JP3" s="32"/>
-      <c r="JQ3" s="32"/>
-      <c r="JR3" s="32"/>
-      <c r="JS3" s="32"/>
-      <c r="JT3" s="32"/>
-      <c r="JU3" s="32"/>
-      <c r="JV3" s="32"/>
-      <c r="JW3" s="32"/>
-      <c r="JX3" s="32"/>
-      <c r="JY3" s="32"/>
-      <c r="JZ3" s="32"/>
-      <c r="KA3" s="32"/>
-      <c r="KB3" s="32"/>
-      <c r="KC3" s="32"/>
-      <c r="KD3" s="32"/>
-      <c r="KE3" s="32"/>
-      <c r="KF3" s="32"/>
-      <c r="KG3" s="32"/>
-      <c r="KH3" s="32"/>
-      <c r="KI3" s="32"/>
-      <c r="KJ3" s="32"/>
-      <c r="KK3" s="32"/>
-      <c r="KL3" s="32"/>
-      <c r="KM3" s="32"/>
-      <c r="KN3" s="32"/>
-      <c r="KO3" s="32"/>
-      <c r="KP3" s="32"/>
-      <c r="KQ3" s="32"/>
-      <c r="KR3" s="32"/>
-      <c r="KS3" s="32"/>
-      <c r="KT3" s="32"/>
-      <c r="KU3" s="32"/>
-      <c r="KV3" s="32"/>
-      <c r="KW3" s="32"/>
-      <c r="KX3" s="32"/>
-      <c r="KY3" s="34"/>
-      <c r="KZ3" s="34"/>
-      <c r="LA3" s="32"/>
-      <c r="LB3" s="32"/>
-      <c r="LC3" s="32"/>
-      <c r="LD3" s="32"/>
-      <c r="LE3" s="32"/>
-      <c r="LF3" s="32"/>
-      <c r="LG3" s="32"/>
-      <c r="LH3" s="32"/>
-      <c r="LI3" s="32"/>
-      <c r="LJ3" s="32"/>
-      <c r="LK3" s="32"/>
-      <c r="LL3" s="32"/>
-      <c r="LM3" s="32"/>
-      <c r="LN3" s="32"/>
-      <c r="LO3" s="32"/>
-      <c r="LP3" s="32"/>
-      <c r="LQ3" s="32"/>
-      <c r="LR3" s="32"/>
-      <c r="LS3" s="32"/>
-      <c r="LT3" s="32"/>
-      <c r="LU3" s="32"/>
-      <c r="LV3" s="32"/>
-      <c r="LW3" s="32"/>
-      <c r="LX3" s="32"/>
-      <c r="LY3" s="32"/>
-      <c r="LZ3" s="32"/>
-      <c r="MA3" s="32"/>
-      <c r="MB3" s="32"/>
-      <c r="MC3" s="32"/>
-      <c r="MD3" s="32"/>
-      <c r="ME3" s="32"/>
-      <c r="MF3" s="32"/>
-      <c r="MG3" s="32"/>
-      <c r="MH3" s="32"/>
-      <c r="MI3" s="32"/>
-      <c r="MJ3" s="32"/>
-      <c r="MK3" s="32"/>
-      <c r="ML3" s="32"/>
-      <c r="MM3" s="32"/>
-      <c r="MN3" s="32"/>
-      <c r="MO3" s="32"/>
-      <c r="MP3" s="32"/>
-      <c r="MQ3" s="32"/>
-      <c r="MR3" s="32"/>
-      <c r="MS3" s="32"/>
-      <c r="MT3" s="32"/>
-      <c r="MU3" s="32"/>
-      <c r="MV3" s="32"/>
-      <c r="MW3" s="32"/>
-      <c r="MX3" s="32"/>
-      <c r="MY3" s="32"/>
-      <c r="MZ3" s="32"/>
-      <c r="NA3" s="32"/>
-      <c r="NB3" s="32"/>
-      <c r="NC3" s="32"/>
-      <c r="ND3" s="32"/>
-      <c r="NE3" s="32"/>
-      <c r="NF3" s="32"/>
-      <c r="NG3" s="32"/>
-      <c r="NH3" s="32"/>
-      <c r="NI3" s="32"/>
-      <c r="NJ3" s="32"/>
-      <c r="NK3" s="32"/>
-      <c r="NL3" s="32"/>
-      <c r="NM3" s="32"/>
-      <c r="NN3" s="32"/>
-      <c r="NO3" s="32"/>
-      <c r="NP3" s="32"/>
-      <c r="NQ3" s="32"/>
-      <c r="NR3" s="32"/>
-      <c r="NS3" s="32"/>
-      <c r="NT3" s="32"/>
-      <c r="NU3" s="32"/>
-      <c r="NV3" s="32"/>
-      <c r="NW3" s="32"/>
-      <c r="NX3" s="32"/>
-      <c r="NY3" s="32"/>
-      <c r="NZ3" s="32"/>
-      <c r="OA3" s="32"/>
-      <c r="OB3" s="34"/>
-      <c r="OC3" s="34"/>
-      <c r="OD3" s="32"/>
-      <c r="OE3" s="32"/>
-      <c r="OF3" s="32"/>
-      <c r="OG3" s="32"/>
-      <c r="OH3" s="32"/>
-      <c r="OI3" s="32"/>
-      <c r="OJ3" s="32"/>
-      <c r="OK3" s="32"/>
-      <c r="OL3" s="32"/>
-      <c r="OM3" s="32"/>
-      <c r="ON3" s="32"/>
-      <c r="OO3" s="32"/>
-      <c r="OP3" s="32"/>
-      <c r="OQ3" s="32"/>
-      <c r="OR3" s="32"/>
-      <c r="OS3" s="32"/>
-      <c r="OT3" s="32"/>
-      <c r="OU3" s="32"/>
-      <c r="OV3" s="32"/>
-      <c r="OW3" s="32"/>
-      <c r="OX3" s="32"/>
-      <c r="OY3" s="32"/>
-      <c r="OZ3" s="32"/>
-      <c r="PA3" s="32"/>
-      <c r="PB3" s="32"/>
-      <c r="PC3" s="32"/>
-      <c r="PD3" s="32"/>
-      <c r="PE3" s="32"/>
-      <c r="PF3" s="32"/>
-      <c r="PG3" s="32"/>
-      <c r="PH3" s="32"/>
-      <c r="PI3" s="32"/>
-      <c r="PJ3" s="32"/>
-      <c r="PK3" s="32"/>
-      <c r="PL3" s="32"/>
-      <c r="PM3" s="32"/>
-      <c r="PN3" s="32"/>
-      <c r="PO3" s="32"/>
-      <c r="PP3" s="32"/>
-      <c r="PQ3" s="32"/>
-      <c r="PR3" s="32"/>
-      <c r="PS3" s="34"/>
-      <c r="PT3" s="34"/>
-      <c r="PU3" s="32"/>
-      <c r="PV3" s="32"/>
-      <c r="PW3" s="32"/>
-      <c r="PX3" s="32"/>
-      <c r="PY3" s="32"/>
-      <c r="PZ3" s="32"/>
-      <c r="QA3" s="32"/>
-      <c r="QB3" s="32"/>
-      <c r="QC3" s="32"/>
-      <c r="QD3" s="32"/>
-      <c r="QE3" s="32"/>
-      <c r="QF3" s="32"/>
-      <c r="QG3" s="32"/>
-      <c r="QH3" s="32"/>
-      <c r="QI3" s="32"/>
-      <c r="QJ3" s="32"/>
-      <c r="QK3" s="32"/>
-      <c r="QL3" s="32"/>
-      <c r="QM3" s="32"/>
-      <c r="QN3" s="32"/>
-      <c r="QO3" s="32"/>
-      <c r="QP3" s="32"/>
-      <c r="QQ3" s="32"/>
-      <c r="QR3" s="32"/>
-      <c r="QS3" s="32"/>
-      <c r="QT3" s="32"/>
-      <c r="QU3" s="34"/>
-      <c r="QV3" s="34"/>
-      <c r="QW3" s="32"/>
-      <c r="QX3" s="32"/>
-      <c r="QY3" s="32"/>
-      <c r="QZ3" s="32"/>
-      <c r="RA3" s="32"/>
-      <c r="RB3" s="32"/>
-      <c r="RC3" s="32"/>
-      <c r="RD3" s="32"/>
-      <c r="RE3" s="32"/>
-      <c r="RF3" s="32"/>
-      <c r="RG3" s="32"/>
-      <c r="RH3" s="32"/>
-      <c r="RI3" s="32"/>
-      <c r="RJ3" s="32"/>
-      <c r="RK3" s="32"/>
-      <c r="RL3" s="32"/>
-      <c r="RM3" s="32"/>
-      <c r="RN3" s="32"/>
-      <c r="RO3" s="32"/>
-      <c r="RP3" s="32"/>
-      <c r="RQ3" s="32"/>
-      <c r="RR3" s="32"/>
-      <c r="RS3" s="32"/>
-      <c r="RT3" s="32"/>
-      <c r="RU3" s="32"/>
-      <c r="RV3" s="32"/>
-      <c r="RW3" s="32"/>
-      <c r="RX3" s="32"/>
-      <c r="RY3" s="32"/>
-      <c r="RZ3" s="32"/>
-      <c r="SA3" s="35"/>
-      <c r="SB3" s="35"/>
-      <c r="SC3" s="35"/>
-      <c r="SD3" s="35"/>
-      <c r="SE3" s="35"/>
-      <c r="SF3" s="35"/>
-      <c r="SG3" s="35"/>
-      <c r="SH3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33"/>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33"/>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33"/>
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="33"/>
+      <c r="BL3" s="33"/>
+      <c r="BM3" s="33"/>
+      <c r="BN3" s="33"/>
+      <c r="BO3" s="33"/>
+      <c r="BP3" s="33"/>
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="33"/>
+      <c r="BS3" s="33"/>
+      <c r="BT3" s="33"/>
+      <c r="BU3" s="33"/>
+      <c r="BV3" s="33"/>
+      <c r="BW3" s="33"/>
+      <c r="BX3" s="33"/>
+      <c r="BY3" s="33"/>
+      <c r="BZ3" s="33"/>
+      <c r="CA3" s="33"/>
+      <c r="CB3" s="33"/>
+      <c r="CC3" s="33"/>
+      <c r="CD3" s="33"/>
+      <c r="CE3" s="33"/>
+      <c r="CF3" s="33"/>
+      <c r="CG3" s="33"/>
+      <c r="CH3" s="33"/>
+      <c r="CI3" s="33"/>
+      <c r="CJ3" s="33"/>
+      <c r="CK3" s="33"/>
+      <c r="CL3" s="33"/>
+      <c r="CM3" s="33"/>
+      <c r="CN3" s="33"/>
+      <c r="CO3" s="33"/>
+      <c r="CP3" s="33"/>
+      <c r="CQ3" s="33"/>
+      <c r="CR3" s="33"/>
+      <c r="CS3" s="33"/>
+      <c r="CT3" s="33"/>
+      <c r="CU3" s="33"/>
+      <c r="CV3" s="33"/>
+      <c r="CW3" s="33"/>
+      <c r="CX3" s="33"/>
+      <c r="CY3" s="33"/>
+      <c r="CZ3" s="33"/>
+      <c r="DA3" s="33"/>
+      <c r="DB3" s="33"/>
+      <c r="DC3" s="33"/>
+      <c r="DD3" s="33"/>
+      <c r="DE3" s="33"/>
+      <c r="DF3" s="33"/>
+      <c r="DG3" s="33"/>
+      <c r="DH3" s="33"/>
+      <c r="DI3" s="33"/>
+      <c r="DJ3" s="33"/>
+      <c r="DK3" s="33"/>
+      <c r="DL3" s="33"/>
+      <c r="DM3" s="33"/>
+      <c r="DN3" s="33"/>
+      <c r="DO3" s="33"/>
+      <c r="DP3" s="33"/>
+      <c r="DQ3" s="33"/>
+      <c r="DR3" s="33"/>
+      <c r="DS3" s="33"/>
+      <c r="DT3" s="33"/>
+      <c r="DU3" s="33"/>
+      <c r="DV3" s="33"/>
+      <c r="DW3" s="33"/>
+      <c r="DX3" s="33"/>
+      <c r="DY3" s="33"/>
+      <c r="DZ3" s="33"/>
+      <c r="EA3" s="33"/>
+      <c r="EB3" s="33"/>
+      <c r="EC3" s="33"/>
+      <c r="ED3" s="33"/>
+      <c r="EE3" s="33"/>
+      <c r="EF3" s="33"/>
+      <c r="EG3" s="33"/>
+      <c r="EH3" s="33"/>
+      <c r="EI3" s="33"/>
+      <c r="EJ3" s="33"/>
+      <c r="EK3" s="33"/>
+      <c r="EL3" s="33"/>
+      <c r="EM3" s="33"/>
+      <c r="EN3" s="33"/>
+      <c r="EO3" s="33"/>
+      <c r="EP3" s="33"/>
+      <c r="EQ3" s="33"/>
+      <c r="ER3" s="33"/>
+      <c r="ES3" s="33"/>
+      <c r="ET3" s="33"/>
+      <c r="EU3" s="33"/>
+      <c r="EV3" s="33"/>
+      <c r="EW3" s="33"/>
+      <c r="EX3" s="33"/>
+      <c r="EY3" s="33"/>
+      <c r="EZ3" s="33"/>
+      <c r="FA3" s="33"/>
+      <c r="FB3" s="33"/>
+      <c r="FC3" s="33"/>
+      <c r="FD3" s="33"/>
+      <c r="FE3" s="33"/>
+      <c r="FF3" s="33"/>
+      <c r="FG3" s="33"/>
+      <c r="FH3" s="33"/>
+      <c r="FI3" s="33"/>
+      <c r="FJ3" s="33"/>
+      <c r="FK3" s="33"/>
+      <c r="FL3" s="33"/>
+      <c r="FM3" s="33"/>
+      <c r="FN3" s="33"/>
+      <c r="FO3" s="33"/>
+      <c r="FP3" s="33"/>
+      <c r="FQ3" s="33"/>
+      <c r="FR3" s="33"/>
+      <c r="FS3" s="33"/>
+      <c r="FT3" s="33"/>
+      <c r="FU3" s="33"/>
+      <c r="FV3" s="33"/>
+      <c r="FW3" s="33"/>
+      <c r="FX3" s="33"/>
+      <c r="FY3" s="33"/>
+      <c r="FZ3" s="33"/>
+      <c r="GA3" s="33"/>
+      <c r="GB3" s="33"/>
+      <c r="GC3" s="33"/>
+      <c r="GD3" s="33"/>
+      <c r="GE3" s="33"/>
+      <c r="GF3" s="33"/>
+      <c r="GG3" s="33"/>
+      <c r="GH3" s="33"/>
+      <c r="GI3" s="33"/>
+      <c r="GJ3" s="33"/>
+      <c r="GK3" s="33"/>
+      <c r="GL3" s="33"/>
+      <c r="GM3" s="33"/>
+      <c r="GN3" s="33"/>
+      <c r="GO3" s="33"/>
+      <c r="GP3" s="33"/>
+      <c r="GQ3" s="33"/>
+      <c r="GR3" s="33"/>
+      <c r="GS3" s="33"/>
+      <c r="GT3" s="33"/>
+      <c r="GU3" s="33"/>
+      <c r="GV3" s="33"/>
+      <c r="GW3" s="33"/>
+      <c r="GX3" s="33"/>
+      <c r="GY3" s="33"/>
+      <c r="GZ3" s="33"/>
+      <c r="HA3" s="33"/>
+      <c r="HB3" s="33"/>
+      <c r="HC3" s="33"/>
+      <c r="HD3" s="33"/>
+      <c r="HE3" s="33"/>
+      <c r="HF3" s="33"/>
+      <c r="HG3" s="33"/>
+      <c r="HH3" s="33"/>
+      <c r="HI3" s="33"/>
+      <c r="HJ3" s="33"/>
+      <c r="HK3" s="33"/>
+      <c r="HL3" s="33"/>
+      <c r="HM3" s="33"/>
+      <c r="HN3" s="33"/>
+      <c r="HO3" s="33"/>
+      <c r="HP3" s="33"/>
+      <c r="HQ3" s="33"/>
+      <c r="HR3" s="33"/>
+      <c r="HS3" s="33"/>
+      <c r="HT3" s="33"/>
+      <c r="HU3" s="33"/>
+      <c r="HV3" s="33"/>
+      <c r="HW3" s="33"/>
+      <c r="HX3" s="33"/>
+      <c r="HY3" s="33"/>
+      <c r="HZ3" s="33"/>
+      <c r="IA3" s="33"/>
+      <c r="IB3" s="33"/>
+      <c r="IC3" s="33"/>
+      <c r="ID3" s="33"/>
+      <c r="IE3" s="33"/>
+      <c r="IF3" s="33"/>
+      <c r="IG3" s="33"/>
+      <c r="IH3" s="33"/>
+      <c r="II3" s="33"/>
+      <c r="IJ3" s="33"/>
+      <c r="IK3" s="33"/>
+      <c r="IL3" s="33"/>
+      <c r="IM3" s="33"/>
+      <c r="IN3" s="33"/>
+      <c r="IO3" s="33"/>
+      <c r="IP3" s="33"/>
+      <c r="IQ3" s="33"/>
+      <c r="IR3" s="33"/>
+      <c r="IS3" s="33"/>
+      <c r="IT3" s="33"/>
+      <c r="IU3" s="33"/>
+      <c r="IV3" s="33"/>
+      <c r="IW3" s="33"/>
+      <c r="IX3" s="33"/>
+      <c r="IY3" s="33"/>
+      <c r="IZ3" s="33"/>
+      <c r="JA3" s="33"/>
+      <c r="JB3" s="33"/>
+      <c r="JC3" s="33"/>
+      <c r="JD3" s="33"/>
+      <c r="JE3" s="33"/>
+      <c r="JF3" s="33"/>
+      <c r="JG3" s="33"/>
+      <c r="JH3" s="33"/>
+      <c r="JI3" s="33"/>
+      <c r="JJ3" s="33"/>
+      <c r="JK3" s="33"/>
+      <c r="JL3" s="33"/>
+      <c r="JM3" s="33"/>
+      <c r="JN3" s="33"/>
+      <c r="JO3" s="33"/>
+      <c r="JP3" s="33"/>
+      <c r="JQ3" s="33"/>
+      <c r="JR3" s="33"/>
+      <c r="JS3" s="33"/>
+      <c r="JT3" s="33"/>
+      <c r="JU3" s="33"/>
+      <c r="JV3" s="33"/>
+      <c r="JW3" s="33"/>
+      <c r="JX3" s="33"/>
+      <c r="JY3" s="33"/>
+      <c r="JZ3" s="33"/>
+      <c r="KA3" s="33"/>
+      <c r="KB3" s="33"/>
+      <c r="KC3" s="33"/>
+      <c r="KD3" s="33"/>
+      <c r="KE3" s="33"/>
+      <c r="KF3" s="33"/>
+      <c r="KG3" s="33"/>
+      <c r="KH3" s="33"/>
+      <c r="KI3" s="33"/>
+      <c r="KJ3" s="33"/>
+      <c r="KK3" s="33"/>
+      <c r="KL3" s="33"/>
+      <c r="KM3" s="33"/>
+      <c r="KN3" s="33"/>
+      <c r="KO3" s="33"/>
+      <c r="KP3" s="33"/>
+      <c r="KQ3" s="33"/>
+      <c r="KR3" s="33"/>
+      <c r="KS3" s="33"/>
+      <c r="KT3" s="33"/>
+      <c r="KU3" s="33"/>
+      <c r="KV3" s="33"/>
+      <c r="KW3" s="33"/>
+      <c r="KX3" s="33"/>
+      <c r="KY3" s="35"/>
+      <c r="KZ3" s="35"/>
+      <c r="LA3" s="33"/>
+      <c r="LB3" s="33"/>
+      <c r="LC3" s="33"/>
+      <c r="LD3" s="33"/>
+      <c r="LE3" s="33"/>
+      <c r="LF3" s="33"/>
+      <c r="LG3" s="33"/>
+      <c r="LH3" s="33"/>
+      <c r="LI3" s="33"/>
+      <c r="LJ3" s="33"/>
+      <c r="LK3" s="33"/>
+      <c r="LL3" s="33"/>
+      <c r="LM3" s="33"/>
+      <c r="LN3" s="33"/>
+      <c r="LO3" s="33"/>
+      <c r="LP3" s="33"/>
+      <c r="LQ3" s="33"/>
+      <c r="LR3" s="33"/>
+      <c r="LS3" s="33"/>
+      <c r="LT3" s="33"/>
+      <c r="LU3" s="33"/>
+      <c r="LV3" s="33"/>
+      <c r="LW3" s="33"/>
+      <c r="LX3" s="33"/>
+      <c r="LY3" s="33"/>
+      <c r="LZ3" s="33"/>
+      <c r="MA3" s="33"/>
+      <c r="MB3" s="33"/>
+      <c r="MC3" s="33"/>
+      <c r="MD3" s="33"/>
+      <c r="ME3" s="33"/>
+      <c r="MF3" s="33"/>
+      <c r="MG3" s="33"/>
+      <c r="MH3" s="33"/>
+      <c r="MI3" s="33"/>
+      <c r="MJ3" s="33"/>
+      <c r="MK3" s="33"/>
+      <c r="ML3" s="33"/>
+      <c r="MM3" s="33"/>
+      <c r="MN3" s="33"/>
+      <c r="MO3" s="33"/>
+      <c r="MP3" s="33"/>
+      <c r="MQ3" s="33"/>
+      <c r="MR3" s="33"/>
+      <c r="MS3" s="33"/>
+      <c r="MT3" s="33"/>
+      <c r="MU3" s="33"/>
+      <c r="MV3" s="33"/>
+      <c r="MW3" s="33"/>
+      <c r="MX3" s="33"/>
+      <c r="MY3" s="33"/>
+      <c r="MZ3" s="33"/>
+      <c r="NA3" s="33"/>
+      <c r="NB3" s="33"/>
+      <c r="NC3" s="33"/>
+      <c r="ND3" s="33"/>
+      <c r="NE3" s="33"/>
+      <c r="NF3" s="33"/>
+      <c r="NG3" s="33"/>
+      <c r="NH3" s="33"/>
+      <c r="NI3" s="33"/>
+      <c r="NJ3" s="33"/>
+      <c r="NK3" s="33"/>
+      <c r="NL3" s="33"/>
+      <c r="NM3" s="33"/>
+      <c r="NN3" s="33"/>
+      <c r="NO3" s="33"/>
+      <c r="NP3" s="33"/>
+      <c r="NQ3" s="33"/>
+      <c r="NR3" s="33"/>
+      <c r="NS3" s="33"/>
+      <c r="NT3" s="33"/>
+      <c r="NU3" s="33"/>
+      <c r="NV3" s="33"/>
+      <c r="NW3" s="33"/>
+      <c r="NX3" s="33"/>
+      <c r="NY3" s="33"/>
+      <c r="NZ3" s="33"/>
+      <c r="OA3" s="33"/>
+      <c r="OB3" s="35"/>
+      <c r="OC3" s="35"/>
+      <c r="OD3" s="33"/>
+      <c r="OE3" s="33"/>
+      <c r="OF3" s="33"/>
+      <c r="OG3" s="33"/>
+      <c r="OH3" s="33"/>
+      <c r="OI3" s="33"/>
+      <c r="OJ3" s="33"/>
+      <c r="OK3" s="33"/>
+      <c r="OL3" s="33"/>
+      <c r="OM3" s="33"/>
+      <c r="ON3" s="33"/>
+      <c r="OO3" s="33"/>
+      <c r="OP3" s="33"/>
+      <c r="OQ3" s="33"/>
+      <c r="OR3" s="33"/>
+      <c r="OS3" s="33"/>
+      <c r="OT3" s="33"/>
+      <c r="OU3" s="33"/>
+      <c r="OV3" s="33"/>
+      <c r="OW3" s="33"/>
+      <c r="OX3" s="33"/>
+      <c r="OY3" s="33"/>
+      <c r="OZ3" s="33"/>
+      <c r="PA3" s="33"/>
+      <c r="PB3" s="33"/>
+      <c r="PC3" s="33"/>
+      <c r="PD3" s="33"/>
+      <c r="PE3" s="33"/>
+      <c r="PF3" s="33"/>
+      <c r="PG3" s="33"/>
+      <c r="PH3" s="33"/>
+      <c r="PI3" s="33"/>
+      <c r="PJ3" s="33"/>
+      <c r="PK3" s="33"/>
+      <c r="PL3" s="33"/>
+      <c r="PM3" s="33"/>
+      <c r="PN3" s="33"/>
+      <c r="PO3" s="33"/>
+      <c r="PP3" s="33"/>
+      <c r="PQ3" s="33"/>
+      <c r="PR3" s="33"/>
+      <c r="PS3" s="35"/>
+      <c r="PT3" s="35"/>
+      <c r="PU3" s="33"/>
+      <c r="PV3" s="33"/>
+      <c r="PW3" s="33"/>
+      <c r="PX3" s="33"/>
+      <c r="PY3" s="33"/>
+      <c r="PZ3" s="33"/>
+      <c r="QA3" s="33"/>
+      <c r="QB3" s="33"/>
+      <c r="QC3" s="33"/>
+      <c r="QD3" s="33"/>
+      <c r="QE3" s="33"/>
+      <c r="QF3" s="33"/>
+      <c r="QG3" s="33"/>
+      <c r="QH3" s="33"/>
+      <c r="QI3" s="33"/>
+      <c r="QJ3" s="33"/>
+      <c r="QK3" s="33"/>
+      <c r="QL3" s="33"/>
+      <c r="QM3" s="33"/>
+      <c r="QN3" s="33"/>
+      <c r="QO3" s="33"/>
+      <c r="QP3" s="33"/>
+      <c r="QQ3" s="33"/>
+      <c r="QR3" s="33"/>
+      <c r="QS3" s="33"/>
+      <c r="QT3" s="33"/>
+      <c r="QU3" s="35"/>
+      <c r="QV3" s="35"/>
+      <c r="QW3" s="33"/>
+      <c r="QX3" s="33"/>
+      <c r="QY3" s="33"/>
+      <c r="QZ3" s="33"/>
+      <c r="RA3" s="33"/>
+      <c r="RB3" s="33"/>
+      <c r="RC3" s="33"/>
+      <c r="RD3" s="33"/>
+      <c r="RE3" s="33"/>
+      <c r="RF3" s="33"/>
+      <c r="RG3" s="33"/>
+      <c r="RH3" s="33"/>
+      <c r="RI3" s="33"/>
+      <c r="RJ3" s="33"/>
+      <c r="RK3" s="33"/>
+      <c r="RL3" s="33"/>
+      <c r="RM3" s="33"/>
+      <c r="RN3" s="33"/>
+      <c r="RO3" s="33"/>
+      <c r="RP3" s="33"/>
+      <c r="RQ3" s="33"/>
+      <c r="RR3" s="33"/>
+      <c r="RS3" s="33"/>
+      <c r="RT3" s="33"/>
+      <c r="RU3" s="33"/>
+      <c r="RV3" s="33"/>
+      <c r="RW3" s="33"/>
+      <c r="RX3" s="33"/>
+      <c r="RY3" s="33"/>
+      <c r="RZ3" s="33"/>
+      <c r="SA3" s="36"/>
+      <c r="SB3" s="36"/>
+      <c r="SC3" s="36"/>
+      <c r="SD3" s="36"/>
+      <c r="SE3" s="36"/>
+      <c r="SF3" s="36"/>
+      <c r="SG3" s="36"/>
+      <c r="SH3" s="36"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32"/>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="32"/>
-      <c r="CK4" s="32"/>
-      <c r="CL4" s="32"/>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32"/>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32"/>
-      <c r="CZ4" s="32"/>
-      <c r="DA4" s="32"/>
-      <c r="DB4" s="32"/>
-      <c r="DC4" s="32"/>
-      <c r="DD4" s="32"/>
-      <c r="DE4" s="32"/>
-      <c r="DF4" s="32"/>
-      <c r="DG4" s="32"/>
-      <c r="DH4" s="32"/>
-      <c r="DI4" s="32"/>
-      <c r="DJ4" s="32"/>
-      <c r="DK4" s="32"/>
-      <c r="DL4" s="32"/>
-      <c r="DM4" s="32"/>
-      <c r="DN4" s="32"/>
-      <c r="DO4" s="32"/>
-      <c r="DP4" s="32"/>
-      <c r="DQ4" s="32"/>
-      <c r="DR4" s="32"/>
-      <c r="DS4" s="32"/>
-      <c r="DT4" s="32"/>
-      <c r="DU4" s="32"/>
-      <c r="DV4" s="32"/>
-      <c r="DW4" s="32"/>
-      <c r="DX4" s="32"/>
-      <c r="DY4" s="32"/>
-      <c r="DZ4" s="32"/>
-      <c r="EA4" s="32"/>
-      <c r="EB4" s="32"/>
-      <c r="EC4" s="32"/>
-      <c r="ED4" s="32"/>
-      <c r="EE4" s="32"/>
-      <c r="EF4" s="32"/>
-      <c r="EG4" s="32"/>
-      <c r="EH4" s="32"/>
-      <c r="EI4" s="32"/>
-      <c r="EJ4" s="32"/>
-      <c r="EK4" s="32"/>
-      <c r="EL4" s="32"/>
-      <c r="EM4" s="32"/>
-      <c r="EN4" s="32"/>
-      <c r="EO4" s="32"/>
-      <c r="EP4" s="32"/>
-      <c r="EQ4" s="32"/>
-      <c r="ER4" s="32"/>
-      <c r="ES4" s="32"/>
-      <c r="ET4" s="32"/>
-      <c r="EU4" s="32"/>
-      <c r="EV4" s="32"/>
-      <c r="EW4" s="32"/>
-      <c r="EX4" s="32"/>
-      <c r="EY4" s="32"/>
-      <c r="EZ4" s="32"/>
-      <c r="FA4" s="32"/>
-      <c r="FB4" s="32"/>
-      <c r="FC4" s="32"/>
-      <c r="FD4" s="32"/>
-      <c r="FE4" s="32"/>
-      <c r="FF4" s="32"/>
-      <c r="FG4" s="32"/>
-      <c r="FH4" s="32"/>
-      <c r="FI4" s="32"/>
-      <c r="FJ4" s="32"/>
-      <c r="FK4" s="32"/>
-      <c r="FL4" s="32"/>
-      <c r="FM4" s="32"/>
-      <c r="FN4" s="32"/>
-      <c r="FO4" s="32"/>
-      <c r="FP4" s="32"/>
-      <c r="FQ4" s="35"/>
-      <c r="FR4" s="35"/>
-      <c r="FS4" s="32"/>
-      <c r="FT4" s="32"/>
-      <c r="FU4" s="32"/>
-      <c r="FV4" s="32"/>
-      <c r="FW4" s="32"/>
-      <c r="FX4" s="32"/>
-      <c r="FY4" s="32"/>
-      <c r="FZ4" s="34"/>
-      <c r="GA4" s="34"/>
-      <c r="GB4" s="32"/>
-      <c r="GC4" s="32"/>
-      <c r="GD4" s="32"/>
-      <c r="GE4" s="32"/>
-      <c r="GF4" s="32"/>
-      <c r="GG4" s="32"/>
-      <c r="GH4" s="32"/>
-      <c r="GI4" s="32"/>
-      <c r="GJ4" s="32"/>
-      <c r="GK4" s="32"/>
-      <c r="GL4" s="32"/>
-      <c r="GM4" s="32"/>
-      <c r="GN4" s="37"/>
-      <c r="GO4" s="37"/>
-      <c r="GP4" s="32"/>
-      <c r="GQ4" s="32"/>
-      <c r="GR4" s="32"/>
-      <c r="GS4" s="32"/>
-      <c r="GT4" s="32"/>
-      <c r="GU4" s="32"/>
-      <c r="GV4" s="32"/>
-      <c r="GW4" s="32"/>
-      <c r="GX4" s="32"/>
-      <c r="GY4" s="32"/>
-      <c r="GZ4" s="32"/>
-      <c r="HA4" s="32"/>
-      <c r="HB4" s="32"/>
-      <c r="HC4" s="32"/>
-      <c r="HD4" s="32"/>
-      <c r="HE4" s="32"/>
-      <c r="HF4" s="32"/>
-      <c r="HG4" s="32"/>
-      <c r="HH4" s="32"/>
-      <c r="HI4" s="32"/>
-      <c r="HJ4" s="32"/>
-      <c r="HK4" s="32"/>
-      <c r="HL4" s="32"/>
-      <c r="HM4" s="32"/>
-      <c r="HN4" s="32"/>
-      <c r="HO4" s="32"/>
-      <c r="HP4" s="32"/>
-      <c r="HQ4" s="32"/>
-      <c r="HR4" s="32"/>
-      <c r="HS4" s="32"/>
-      <c r="HT4" s="32"/>
-      <c r="HU4" s="32"/>
-      <c r="HV4" s="32"/>
-      <c r="HW4" s="32"/>
-      <c r="HX4" s="32"/>
-      <c r="HY4" s="32"/>
-      <c r="HZ4" s="32"/>
-      <c r="IA4" s="32"/>
-      <c r="IB4" s="32"/>
-      <c r="IC4" s="32"/>
-      <c r="ID4" s="32"/>
-      <c r="IE4" s="32"/>
-      <c r="IF4" s="32"/>
-      <c r="IG4" s="32"/>
-      <c r="IH4" s="32"/>
-      <c r="II4" s="32"/>
-      <c r="IJ4" s="32"/>
-      <c r="IK4" s="32"/>
-      <c r="IL4" s="32"/>
-      <c r="IM4" s="32"/>
-      <c r="IN4" s="34"/>
-      <c r="IO4" s="34"/>
-      <c r="IP4" s="32"/>
-      <c r="IQ4" s="32"/>
-      <c r="IR4" s="32"/>
-      <c r="IS4" s="32"/>
-      <c r="IT4" s="32"/>
-      <c r="IU4" s="32"/>
-      <c r="IV4" s="32"/>
-      <c r="IW4" s="32"/>
-      <c r="IX4" s="32"/>
-      <c r="IY4" s="32"/>
-      <c r="IZ4" s="32"/>
-      <c r="JA4" s="32"/>
-      <c r="JB4" s="32"/>
-      <c r="JC4" s="32"/>
-      <c r="JD4" s="32"/>
-      <c r="JE4" s="32"/>
-      <c r="JF4" s="32"/>
-      <c r="JG4" s="32"/>
-      <c r="JH4" s="32"/>
-      <c r="JI4" s="32"/>
-      <c r="JJ4" s="32"/>
-      <c r="JK4" s="32"/>
-      <c r="JL4" s="35"/>
-      <c r="JM4" s="35"/>
-      <c r="JN4" s="32"/>
-      <c r="JO4" s="32"/>
-      <c r="JP4" s="32"/>
-      <c r="JQ4" s="32"/>
-      <c r="JR4" s="32"/>
-      <c r="JS4" s="32"/>
-      <c r="JT4" s="32"/>
-      <c r="JU4" s="32"/>
-      <c r="JV4" s="32"/>
-      <c r="JW4" s="32"/>
-      <c r="JX4" s="32"/>
-      <c r="JY4" s="32"/>
-      <c r="JZ4" s="32"/>
-      <c r="KA4" s="32"/>
-      <c r="KB4" s="32"/>
-      <c r="KC4" s="32"/>
-      <c r="KD4" s="32"/>
-      <c r="KE4" s="32"/>
-      <c r="KF4" s="32"/>
-      <c r="KG4" s="32"/>
-      <c r="KH4" s="32"/>
-      <c r="KI4" s="32"/>
-      <c r="KJ4" s="32"/>
-      <c r="KK4" s="32"/>
-      <c r="KL4" s="32"/>
-      <c r="KM4" s="32"/>
-      <c r="KN4" s="32"/>
-      <c r="KO4" s="32"/>
-      <c r="KP4" s="32"/>
-      <c r="KQ4" s="32"/>
-      <c r="KR4" s="32"/>
-      <c r="KS4" s="32"/>
-      <c r="KT4" s="32"/>
-      <c r="KU4" s="32"/>
-      <c r="KV4" s="32"/>
-      <c r="KW4" s="32"/>
-      <c r="KX4" s="32"/>
-      <c r="KY4" s="34"/>
-      <c r="KZ4" s="34"/>
-      <c r="LA4" s="32"/>
-      <c r="LB4" s="32"/>
-      <c r="LC4" s="32"/>
-      <c r="LD4" s="32"/>
-      <c r="LE4" s="32"/>
-      <c r="LF4" s="32"/>
-      <c r="LG4" s="32"/>
-      <c r="LH4" s="32"/>
-      <c r="LI4" s="32"/>
-      <c r="LJ4" s="32"/>
-      <c r="LK4" s="32"/>
-      <c r="LL4" s="32"/>
-      <c r="LM4" s="32"/>
-      <c r="LN4" s="32"/>
-      <c r="LO4" s="32"/>
-      <c r="LP4" s="32"/>
-      <c r="LQ4" s="32"/>
-      <c r="LR4" s="32"/>
-      <c r="LS4" s="32"/>
-      <c r="LT4" s="32"/>
-      <c r="LU4" s="32"/>
-      <c r="LV4" s="32"/>
-      <c r="LW4" s="32"/>
-      <c r="LX4" s="32"/>
-      <c r="LY4" s="32"/>
-      <c r="LZ4" s="32"/>
-      <c r="MA4" s="32"/>
-      <c r="MB4" s="32"/>
-      <c r="MC4" s="32"/>
-      <c r="MD4" s="32"/>
-      <c r="ME4" s="32"/>
-      <c r="MF4" s="32"/>
-      <c r="MG4" s="32"/>
-      <c r="MH4" s="32"/>
-      <c r="MI4" s="32"/>
-      <c r="MJ4" s="32"/>
-      <c r="MK4" s="32"/>
-      <c r="ML4" s="32"/>
-      <c r="MM4" s="32"/>
-      <c r="MN4" s="34"/>
-      <c r="MO4" s="34"/>
-      <c r="MP4" s="32"/>
-      <c r="MQ4" s="32"/>
-      <c r="MR4" s="32"/>
-      <c r="MS4" s="32"/>
-      <c r="MT4" s="32"/>
-      <c r="MU4" s="32"/>
-      <c r="MV4" s="32"/>
-      <c r="MW4" s="32"/>
-      <c r="MX4" s="32"/>
-      <c r="MY4" s="32"/>
-      <c r="MZ4" s="32"/>
-      <c r="NA4" s="32"/>
-      <c r="NB4" s="32"/>
-      <c r="NC4" s="32"/>
-      <c r="ND4" s="32"/>
-      <c r="NE4" s="34"/>
-      <c r="NF4" s="34"/>
-      <c r="NG4" s="32"/>
-      <c r="NH4" s="32"/>
-      <c r="NI4" s="32"/>
-      <c r="NJ4" s="32"/>
-      <c r="NK4" s="32"/>
-      <c r="NL4" s="32"/>
-      <c r="NM4" s="32"/>
-      <c r="NN4" s="32"/>
-      <c r="NO4" s="32"/>
-      <c r="NP4" s="32"/>
-      <c r="NQ4" s="32"/>
-      <c r="NR4" s="32"/>
-      <c r="NS4" s="32"/>
-      <c r="NT4" s="32"/>
-      <c r="NU4" s="32"/>
-      <c r="NV4" s="32"/>
-      <c r="NW4" s="32"/>
-      <c r="NX4" s="32"/>
-      <c r="NY4" s="32"/>
-      <c r="NZ4" s="32"/>
-      <c r="OA4" s="32"/>
-      <c r="OB4" s="34"/>
-      <c r="OC4" s="34"/>
-      <c r="OD4" s="32"/>
-      <c r="OE4" s="32"/>
-      <c r="OF4" s="32"/>
-      <c r="OG4" s="32"/>
-      <c r="OH4" s="32"/>
-      <c r="OI4" s="32"/>
-      <c r="OJ4" s="32"/>
-      <c r="OK4" s="32"/>
-      <c r="OL4" s="32"/>
-      <c r="OM4" s="32"/>
-      <c r="ON4" s="32"/>
-      <c r="OO4" s="32"/>
-      <c r="OP4" s="32"/>
-      <c r="OQ4" s="32"/>
-      <c r="OR4" s="32"/>
-      <c r="OS4" s="32"/>
-      <c r="OT4" s="32"/>
-      <c r="OU4" s="32"/>
-      <c r="OV4" s="32"/>
-      <c r="OW4" s="32"/>
-      <c r="OX4" s="32"/>
-      <c r="OY4" s="32"/>
-      <c r="OZ4" s="32"/>
-      <c r="PA4" s="34"/>
-      <c r="PB4" s="34"/>
-      <c r="PC4" s="32"/>
-      <c r="PD4" s="32"/>
-      <c r="PE4" s="32"/>
-      <c r="PF4" s="32"/>
-      <c r="PG4" s="32"/>
-      <c r="PH4" s="32"/>
-      <c r="PI4" s="32"/>
-      <c r="PJ4" s="32"/>
-      <c r="PK4" s="32"/>
-      <c r="PL4" s="32"/>
-      <c r="PM4" s="32"/>
-      <c r="PN4" s="32"/>
-      <c r="PO4" s="32"/>
-      <c r="PP4" s="32"/>
-      <c r="PQ4" s="32"/>
-      <c r="PR4" s="32"/>
-      <c r="PS4" s="34"/>
-      <c r="PT4" s="34"/>
-      <c r="PU4" s="32"/>
-      <c r="PV4" s="32"/>
-      <c r="PW4" s="32"/>
-      <c r="PX4" s="32"/>
-      <c r="PY4" s="32"/>
-      <c r="PZ4" s="32"/>
-      <c r="QA4" s="32"/>
-      <c r="QB4" s="32"/>
-      <c r="QC4" s="32"/>
-      <c r="QD4" s="32"/>
-      <c r="QE4" s="32"/>
-      <c r="QF4" s="32"/>
-      <c r="QG4" s="32"/>
-      <c r="QH4" s="32"/>
-      <c r="QI4" s="32"/>
-      <c r="QJ4" s="32"/>
-      <c r="QK4" s="32"/>
-      <c r="QL4" s="32"/>
-      <c r="QM4" s="32"/>
-      <c r="QN4" s="32"/>
-      <c r="QO4" s="32"/>
-      <c r="QP4" s="32"/>
-      <c r="QQ4" s="32"/>
-      <c r="QR4" s="32"/>
-      <c r="QS4" s="32"/>
-      <c r="QT4" s="32"/>
-      <c r="QU4" s="34"/>
-      <c r="QV4" s="34"/>
-      <c r="QW4" s="32"/>
-      <c r="QX4" s="32"/>
-      <c r="QY4" s="32"/>
-      <c r="QZ4" s="32"/>
-      <c r="RA4" s="32"/>
-      <c r="RB4" s="32"/>
-      <c r="RC4" s="32"/>
-      <c r="RD4" s="32"/>
-      <c r="RE4" s="32"/>
-      <c r="RF4" s="32"/>
-      <c r="RG4" s="32"/>
-      <c r="RH4" s="32"/>
-      <c r="RI4" s="34"/>
-      <c r="RJ4" s="34"/>
-      <c r="RK4" s="34"/>
-      <c r="RL4" s="34"/>
-      <c r="RM4" s="34"/>
-      <c r="RN4" s="34"/>
-      <c r="RO4" s="34"/>
-      <c r="RP4" s="34"/>
-      <c r="RQ4" s="34"/>
-      <c r="RR4" s="34"/>
-      <c r="RS4" s="34"/>
-      <c r="RT4" s="34"/>
-      <c r="RU4" s="34"/>
-      <c r="RV4" s="34"/>
-      <c r="RW4" s="34"/>
-      <c r="RX4" s="34"/>
-      <c r="RY4" s="34"/>
-      <c r="RZ4" s="34"/>
-      <c r="SA4" s="34"/>
-      <c r="SB4" s="34"/>
-      <c r="SC4" s="34"/>
-      <c r="SD4" s="34"/>
-      <c r="SE4" s="34"/>
-      <c r="SF4" s="34"/>
-      <c r="SG4" s="34"/>
-      <c r="SH4" s="34"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="33"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="33"/>
+      <c r="AY4" s="33"/>
+      <c r="AZ4" s="33"/>
+      <c r="BA4" s="33"/>
+      <c r="BB4" s="33"/>
+      <c r="BC4" s="33"/>
+      <c r="BD4" s="33"/>
+      <c r="BE4" s="33"/>
+      <c r="BF4" s="33"/>
+      <c r="BG4" s="33"/>
+      <c r="BH4" s="33"/>
+      <c r="BI4" s="33"/>
+      <c r="BJ4" s="33"/>
+      <c r="BK4" s="33"/>
+      <c r="BL4" s="33"/>
+      <c r="BM4" s="33"/>
+      <c r="BN4" s="33"/>
+      <c r="BO4" s="33"/>
+      <c r="BP4" s="33"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="33"/>
+      <c r="BS4" s="33"/>
+      <c r="BT4" s="33"/>
+      <c r="BU4" s="33"/>
+      <c r="BV4" s="33"/>
+      <c r="BW4" s="36"/>
+      <c r="BX4" s="36"/>
+      <c r="BY4" s="33"/>
+      <c r="BZ4" s="33"/>
+      <c r="CA4" s="33"/>
+      <c r="CB4" s="33"/>
+      <c r="CC4" s="33"/>
+      <c r="CD4" s="33"/>
+      <c r="CE4" s="33"/>
+      <c r="CF4" s="33"/>
+      <c r="CG4" s="33"/>
+      <c r="CH4" s="33"/>
+      <c r="CI4" s="33"/>
+      <c r="CJ4" s="33"/>
+      <c r="CK4" s="33"/>
+      <c r="CL4" s="33"/>
+      <c r="CM4" s="33"/>
+      <c r="CN4" s="33"/>
+      <c r="CO4" s="33"/>
+      <c r="CP4" s="33"/>
+      <c r="CQ4" s="33"/>
+      <c r="CR4" s="33"/>
+      <c r="CS4" s="33"/>
+      <c r="CT4" s="33"/>
+      <c r="CU4" s="33"/>
+      <c r="CV4" s="33"/>
+      <c r="CW4" s="33"/>
+      <c r="CX4" s="33"/>
+      <c r="CY4" s="33"/>
+      <c r="CZ4" s="33"/>
+      <c r="DA4" s="33"/>
+      <c r="DB4" s="33"/>
+      <c r="DC4" s="33"/>
+      <c r="DD4" s="33"/>
+      <c r="DE4" s="33"/>
+      <c r="DF4" s="33"/>
+      <c r="DG4" s="33"/>
+      <c r="DH4" s="33"/>
+      <c r="DI4" s="33"/>
+      <c r="DJ4" s="33"/>
+      <c r="DK4" s="33"/>
+      <c r="DL4" s="33"/>
+      <c r="DM4" s="33"/>
+      <c r="DN4" s="33"/>
+      <c r="DO4" s="33"/>
+      <c r="DP4" s="33"/>
+      <c r="DQ4" s="33"/>
+      <c r="DR4" s="33"/>
+      <c r="DS4" s="33"/>
+      <c r="DT4" s="33"/>
+      <c r="DU4" s="33"/>
+      <c r="DV4" s="33"/>
+      <c r="DW4" s="33"/>
+      <c r="DX4" s="33"/>
+      <c r="DY4" s="33"/>
+      <c r="DZ4" s="33"/>
+      <c r="EA4" s="33"/>
+      <c r="EB4" s="33"/>
+      <c r="EC4" s="33"/>
+      <c r="ED4" s="33"/>
+      <c r="EE4" s="33"/>
+      <c r="EF4" s="33"/>
+      <c r="EG4" s="33"/>
+      <c r="EH4" s="33"/>
+      <c r="EI4" s="33"/>
+      <c r="EJ4" s="33"/>
+      <c r="EK4" s="33"/>
+      <c r="EL4" s="33"/>
+      <c r="EM4" s="33"/>
+      <c r="EN4" s="33"/>
+      <c r="EO4" s="33"/>
+      <c r="EP4" s="33"/>
+      <c r="EQ4" s="33"/>
+      <c r="ER4" s="33"/>
+      <c r="ES4" s="33"/>
+      <c r="ET4" s="33"/>
+      <c r="EU4" s="33"/>
+      <c r="EV4" s="33"/>
+      <c r="EW4" s="33"/>
+      <c r="EX4" s="33"/>
+      <c r="EY4" s="33"/>
+      <c r="EZ4" s="33"/>
+      <c r="FA4" s="33"/>
+      <c r="FB4" s="33"/>
+      <c r="FC4" s="33"/>
+      <c r="FD4" s="33"/>
+      <c r="FE4" s="33"/>
+      <c r="FF4" s="33"/>
+      <c r="FG4" s="33"/>
+      <c r="FH4" s="33"/>
+      <c r="FI4" s="33"/>
+      <c r="FJ4" s="33"/>
+      <c r="FK4" s="33"/>
+      <c r="FL4" s="33"/>
+      <c r="FM4" s="33"/>
+      <c r="FN4" s="33"/>
+      <c r="FO4" s="33"/>
+      <c r="FP4" s="33"/>
+      <c r="FQ4" s="36"/>
+      <c r="FR4" s="36"/>
+      <c r="FS4" s="33"/>
+      <c r="FT4" s="33"/>
+      <c r="FU4" s="33"/>
+      <c r="FV4" s="33"/>
+      <c r="FW4" s="33"/>
+      <c r="FX4" s="33"/>
+      <c r="FY4" s="33"/>
+      <c r="FZ4" s="35"/>
+      <c r="GA4" s="35"/>
+      <c r="GB4" s="33"/>
+      <c r="GC4" s="33"/>
+      <c r="GD4" s="33"/>
+      <c r="GE4" s="33"/>
+      <c r="GF4" s="33"/>
+      <c r="GG4" s="33"/>
+      <c r="GH4" s="33"/>
+      <c r="GI4" s="33"/>
+      <c r="GJ4" s="33"/>
+      <c r="GK4" s="33"/>
+      <c r="GL4" s="33"/>
+      <c r="GM4" s="33"/>
+      <c r="GN4" s="38"/>
+      <c r="GO4" s="38"/>
+      <c r="GP4" s="33"/>
+      <c r="GQ4" s="33"/>
+      <c r="GR4" s="33"/>
+      <c r="GS4" s="33"/>
+      <c r="GT4" s="33"/>
+      <c r="GU4" s="33"/>
+      <c r="GV4" s="33"/>
+      <c r="GW4" s="33"/>
+      <c r="GX4" s="33"/>
+      <c r="GY4" s="33"/>
+      <c r="GZ4" s="33"/>
+      <c r="HA4" s="33"/>
+      <c r="HB4" s="33"/>
+      <c r="HC4" s="33"/>
+      <c r="HD4" s="33"/>
+      <c r="HE4" s="33"/>
+      <c r="HF4" s="33"/>
+      <c r="HG4" s="33"/>
+      <c r="HH4" s="33"/>
+      <c r="HI4" s="33"/>
+      <c r="HJ4" s="33"/>
+      <c r="HK4" s="33"/>
+      <c r="HL4" s="33"/>
+      <c r="HM4" s="33"/>
+      <c r="HN4" s="33"/>
+      <c r="HO4" s="33"/>
+      <c r="HP4" s="33"/>
+      <c r="HQ4" s="33"/>
+      <c r="HR4" s="33"/>
+      <c r="HS4" s="33"/>
+      <c r="HT4" s="33"/>
+      <c r="HU4" s="33"/>
+      <c r="HV4" s="33"/>
+      <c r="HW4" s="33"/>
+      <c r="HX4" s="33"/>
+      <c r="HY4" s="33"/>
+      <c r="HZ4" s="33"/>
+      <c r="IA4" s="33"/>
+      <c r="IB4" s="33"/>
+      <c r="IC4" s="33"/>
+      <c r="ID4" s="33"/>
+      <c r="IE4" s="33"/>
+      <c r="IF4" s="33"/>
+      <c r="IG4" s="33"/>
+      <c r="IH4" s="33"/>
+      <c r="II4" s="33"/>
+      <c r="IJ4" s="33"/>
+      <c r="IK4" s="33"/>
+      <c r="IL4" s="33"/>
+      <c r="IM4" s="33"/>
+      <c r="IN4" s="35"/>
+      <c r="IO4" s="35"/>
+      <c r="IP4" s="33"/>
+      <c r="IQ4" s="33"/>
+      <c r="IR4" s="33"/>
+      <c r="IS4" s="33"/>
+      <c r="IT4" s="33"/>
+      <c r="IU4" s="33"/>
+      <c r="IV4" s="33"/>
+      <c r="IW4" s="33"/>
+      <c r="IX4" s="33"/>
+      <c r="IY4" s="33"/>
+      <c r="IZ4" s="33"/>
+      <c r="JA4" s="33"/>
+      <c r="JB4" s="33"/>
+      <c r="JC4" s="33"/>
+      <c r="JD4" s="33"/>
+      <c r="JE4" s="33"/>
+      <c r="JF4" s="33"/>
+      <c r="JG4" s="33"/>
+      <c r="JH4" s="33"/>
+      <c r="JI4" s="33"/>
+      <c r="JJ4" s="33"/>
+      <c r="JK4" s="33"/>
+      <c r="JL4" s="36"/>
+      <c r="JM4" s="36"/>
+      <c r="JN4" s="33"/>
+      <c r="JO4" s="33"/>
+      <c r="JP4" s="33"/>
+      <c r="JQ4" s="33"/>
+      <c r="JR4" s="33"/>
+      <c r="JS4" s="33"/>
+      <c r="JT4" s="33"/>
+      <c r="JU4" s="33"/>
+      <c r="JV4" s="33"/>
+      <c r="JW4" s="33"/>
+      <c r="JX4" s="33"/>
+      <c r="JY4" s="33"/>
+      <c r="JZ4" s="33"/>
+      <c r="KA4" s="33"/>
+      <c r="KB4" s="33"/>
+      <c r="KC4" s="33"/>
+      <c r="KD4" s="33"/>
+      <c r="KE4" s="33"/>
+      <c r="KF4" s="33"/>
+      <c r="KG4" s="33"/>
+      <c r="KH4" s="33"/>
+      <c r="KI4" s="33"/>
+      <c r="KJ4" s="33"/>
+      <c r="KK4" s="33"/>
+      <c r="KL4" s="33"/>
+      <c r="KM4" s="33"/>
+      <c r="KN4" s="33"/>
+      <c r="KO4" s="33"/>
+      <c r="KP4" s="33"/>
+      <c r="KQ4" s="33"/>
+      <c r="KR4" s="33"/>
+      <c r="KS4" s="33"/>
+      <c r="KT4" s="33"/>
+      <c r="KU4" s="33"/>
+      <c r="KV4" s="33"/>
+      <c r="KW4" s="33"/>
+      <c r="KX4" s="33"/>
+      <c r="KY4" s="35"/>
+      <c r="KZ4" s="35"/>
+      <c r="LA4" s="33"/>
+      <c r="LB4" s="33"/>
+      <c r="LC4" s="33"/>
+      <c r="LD4" s="33"/>
+      <c r="LE4" s="33"/>
+      <c r="LF4" s="33"/>
+      <c r="LG4" s="33"/>
+      <c r="LH4" s="33"/>
+      <c r="LI4" s="33"/>
+      <c r="LJ4" s="33"/>
+      <c r="LK4" s="33"/>
+      <c r="LL4" s="33"/>
+      <c r="LM4" s="33"/>
+      <c r="LN4" s="33"/>
+      <c r="LO4" s="33"/>
+      <c r="LP4" s="33"/>
+      <c r="LQ4" s="33"/>
+      <c r="LR4" s="33"/>
+      <c r="LS4" s="33"/>
+      <c r="LT4" s="33"/>
+      <c r="LU4" s="33"/>
+      <c r="LV4" s="33"/>
+      <c r="LW4" s="33"/>
+      <c r="LX4" s="33"/>
+      <c r="LY4" s="33"/>
+      <c r="LZ4" s="33"/>
+      <c r="MA4" s="33"/>
+      <c r="MB4" s="33"/>
+      <c r="MC4" s="33"/>
+      <c r="MD4" s="33"/>
+      <c r="ME4" s="33"/>
+      <c r="MF4" s="33"/>
+      <c r="MG4" s="33"/>
+      <c r="MH4" s="33"/>
+      <c r="MI4" s="33"/>
+      <c r="MJ4" s="33"/>
+      <c r="MK4" s="33"/>
+      <c r="ML4" s="33"/>
+      <c r="MM4" s="33"/>
+      <c r="MN4" s="35"/>
+      <c r="MO4" s="35"/>
+      <c r="MP4" s="33"/>
+      <c r="MQ4" s="33"/>
+      <c r="MR4" s="33"/>
+      <c r="MS4" s="33"/>
+      <c r="MT4" s="33"/>
+      <c r="MU4" s="33"/>
+      <c r="MV4" s="33"/>
+      <c r="MW4" s="33"/>
+      <c r="MX4" s="33"/>
+      <c r="MY4" s="33"/>
+      <c r="MZ4" s="33"/>
+      <c r="NA4" s="33"/>
+      <c r="NB4" s="33"/>
+      <c r="NC4" s="33"/>
+      <c r="ND4" s="33"/>
+      <c r="NE4" s="35"/>
+      <c r="NF4" s="35"/>
+      <c r="NG4" s="33"/>
+      <c r="NH4" s="33"/>
+      <c r="NI4" s="33"/>
+      <c r="NJ4" s="33"/>
+      <c r="NK4" s="33"/>
+      <c r="NL4" s="33"/>
+      <c r="NM4" s="33"/>
+      <c r="NN4" s="33"/>
+      <c r="NO4" s="33"/>
+      <c r="NP4" s="33"/>
+      <c r="NQ4" s="33"/>
+      <c r="NR4" s="33"/>
+      <c r="NS4" s="33"/>
+      <c r="NT4" s="33"/>
+      <c r="NU4" s="33"/>
+      <c r="NV4" s="33"/>
+      <c r="NW4" s="33"/>
+      <c r="NX4" s="33"/>
+      <c r="NY4" s="33"/>
+      <c r="NZ4" s="33"/>
+      <c r="OA4" s="33"/>
+      <c r="OB4" s="35"/>
+      <c r="OC4" s="35"/>
+      <c r="OD4" s="33"/>
+      <c r="OE4" s="33"/>
+      <c r="OF4" s="33"/>
+      <c r="OG4" s="33"/>
+      <c r="OH4" s="33"/>
+      <c r="OI4" s="33"/>
+      <c r="OJ4" s="33"/>
+      <c r="OK4" s="33"/>
+      <c r="OL4" s="33"/>
+      <c r="OM4" s="33"/>
+      <c r="ON4" s="33"/>
+      <c r="OO4" s="33"/>
+      <c r="OP4" s="33"/>
+      <c r="OQ4" s="33"/>
+      <c r="OR4" s="33"/>
+      <c r="OS4" s="33"/>
+      <c r="OT4" s="33"/>
+      <c r="OU4" s="33"/>
+      <c r="OV4" s="33"/>
+      <c r="OW4" s="33"/>
+      <c r="OX4" s="33"/>
+      <c r="OY4" s="33"/>
+      <c r="OZ4" s="33"/>
+      <c r="PA4" s="35"/>
+      <c r="PB4" s="35"/>
+      <c r="PC4" s="33"/>
+      <c r="PD4" s="33"/>
+      <c r="PE4" s="33"/>
+      <c r="PF4" s="33"/>
+      <c r="PG4" s="33"/>
+      <c r="PH4" s="33"/>
+      <c r="PI4" s="33"/>
+      <c r="PJ4" s="33"/>
+      <c r="PK4" s="33"/>
+      <c r="PL4" s="33"/>
+      <c r="PM4" s="33"/>
+      <c r="PN4" s="33"/>
+      <c r="PO4" s="33"/>
+      <c r="PP4" s="33"/>
+      <c r="PQ4" s="33"/>
+      <c r="PR4" s="33"/>
+      <c r="PS4" s="35"/>
+      <c r="PT4" s="35"/>
+      <c r="PU4" s="33"/>
+      <c r="PV4" s="33"/>
+      <c r="PW4" s="33"/>
+      <c r="PX4" s="33"/>
+      <c r="PY4" s="33"/>
+      <c r="PZ4" s="33"/>
+      <c r="QA4" s="33"/>
+      <c r="QB4" s="33"/>
+      <c r="QC4" s="33"/>
+      <c r="QD4" s="33"/>
+      <c r="QE4" s="33"/>
+      <c r="QF4" s="33"/>
+      <c r="QG4" s="33"/>
+      <c r="QH4" s="33"/>
+      <c r="QI4" s="33"/>
+      <c r="QJ4" s="33"/>
+      <c r="QK4" s="33"/>
+      <c r="QL4" s="33"/>
+      <c r="QM4" s="33"/>
+      <c r="QN4" s="33"/>
+      <c r="QO4" s="33"/>
+      <c r="QP4" s="33"/>
+      <c r="QQ4" s="33"/>
+      <c r="QR4" s="33"/>
+      <c r="QS4" s="33"/>
+      <c r="QT4" s="33"/>
+      <c r="QU4" s="35"/>
+      <c r="QV4" s="35"/>
+      <c r="QW4" s="33"/>
+      <c r="QX4" s="33"/>
+      <c r="QY4" s="33"/>
+      <c r="QZ4" s="33"/>
+      <c r="RA4" s="33"/>
+      <c r="RB4" s="33"/>
+      <c r="RC4" s="33"/>
+      <c r="RD4" s="33"/>
+      <c r="RE4" s="33"/>
+      <c r="RF4" s="33"/>
+      <c r="RG4" s="33"/>
+      <c r="RH4" s="33"/>
+      <c r="RI4" s="35"/>
+      <c r="RJ4" s="35"/>
+      <c r="RK4" s="35"/>
+      <c r="RL4" s="35"/>
+      <c r="RM4" s="35"/>
+      <c r="RN4" s="35"/>
+      <c r="RO4" s="35"/>
+      <c r="RP4" s="35"/>
+      <c r="RQ4" s="35"/>
+      <c r="RR4" s="35"/>
+      <c r="RS4" s="35"/>
+      <c r="RT4" s="35"/>
+      <c r="RU4" s="35"/>
+      <c r="RV4" s="35"/>
+      <c r="RW4" s="35"/>
+      <c r="RX4" s="35"/>
+      <c r="RY4" s="35"/>
+      <c r="RZ4" s="35"/>
+      <c r="SA4" s="35"/>
+      <c r="SB4" s="35"/>
+      <c r="SC4" s="35"/>
+      <c r="SD4" s="35"/>
+      <c r="SE4" s="35"/>
+      <c r="SF4" s="35"/>
+      <c r="SG4" s="35"/>
+      <c r="SH4" s="35"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="35"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="32"/>
-      <c r="AZ5" s="32"/>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="32"/>
-      <c r="BC5" s="32"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="32"/>
-      <c r="BL5" s="32"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="32"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="34"/>
-      <c r="BX5" s="34"/>
-      <c r="BY5" s="32"/>
-      <c r="BZ5" s="32"/>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="32"/>
-      <c r="CD5" s="32"/>
-      <c r="CE5" s="32"/>
-      <c r="CF5" s="32"/>
-      <c r="CG5" s="32"/>
-      <c r="CH5" s="32"/>
-      <c r="CI5" s="32"/>
-      <c r="CJ5" s="32"/>
-      <c r="CK5" s="32"/>
-      <c r="CL5" s="32"/>
-      <c r="CM5" s="32"/>
-      <c r="CN5" s="32"/>
-      <c r="CO5" s="32"/>
-      <c r="CP5" s="32"/>
-      <c r="CQ5" s="32"/>
-      <c r="CR5" s="32"/>
-      <c r="CS5" s="32"/>
-      <c r="CT5" s="32"/>
-      <c r="CU5" s="32"/>
-      <c r="CV5" s="32"/>
-      <c r="CW5" s="32"/>
-      <c r="CX5" s="32"/>
-      <c r="CY5" s="32"/>
-      <c r="CZ5" s="32"/>
-      <c r="DA5" s="32"/>
-      <c r="DB5" s="32"/>
-      <c r="DC5" s="32"/>
-      <c r="DD5" s="32"/>
-      <c r="DE5" s="32"/>
-      <c r="DF5" s="32"/>
-      <c r="DG5" s="32"/>
-      <c r="DH5" s="32"/>
-      <c r="DI5" s="32"/>
-      <c r="DJ5" s="32"/>
-      <c r="DK5" s="32"/>
-      <c r="DL5" s="32"/>
-      <c r="DM5" s="32"/>
-      <c r="DN5" s="32"/>
-      <c r="DO5" s="32"/>
-      <c r="DP5" s="32"/>
-      <c r="DQ5" s="32"/>
-      <c r="DR5" s="32"/>
-      <c r="DS5" s="32"/>
-      <c r="DT5" s="32"/>
-      <c r="DU5" s="32"/>
-      <c r="DV5" s="32"/>
-      <c r="DW5" s="32"/>
-      <c r="DX5" s="32"/>
-      <c r="DY5" s="32"/>
-      <c r="DZ5" s="32"/>
-      <c r="EA5" s="32"/>
-      <c r="EB5" s="32"/>
-      <c r="EC5" s="32"/>
-      <c r="ED5" s="32"/>
-      <c r="EE5" s="32"/>
-      <c r="EF5" s="32"/>
-      <c r="EG5" s="32"/>
-      <c r="EH5" s="32"/>
-      <c r="EI5" s="32"/>
-      <c r="EJ5" s="32"/>
-      <c r="EK5" s="32"/>
-      <c r="EL5" s="32"/>
-      <c r="EM5" s="32"/>
-      <c r="EN5" s="32"/>
-      <c r="EO5" s="32"/>
-      <c r="EP5" s="32"/>
-      <c r="EQ5" s="32"/>
-      <c r="ER5" s="32"/>
-      <c r="ES5" s="32"/>
-      <c r="ET5" s="32"/>
-      <c r="EU5" s="32"/>
-      <c r="EV5" s="32"/>
-      <c r="EW5" s="32"/>
-      <c r="EX5" s="32"/>
-      <c r="EY5" s="32"/>
-      <c r="EZ5" s="32"/>
-      <c r="FA5" s="32"/>
-      <c r="FB5" s="32"/>
-      <c r="FC5" s="32"/>
-      <c r="FD5" s="32"/>
-      <c r="FE5" s="32"/>
-      <c r="FF5" s="32"/>
-      <c r="FG5" s="32"/>
-      <c r="FH5" s="32"/>
-      <c r="FI5" s="32"/>
-      <c r="FJ5" s="32"/>
-      <c r="FK5" s="32"/>
-      <c r="FL5" s="32"/>
-      <c r="FM5" s="32"/>
-      <c r="FN5" s="32"/>
-      <c r="FO5" s="32"/>
-      <c r="FP5" s="32"/>
-      <c r="FQ5" s="35"/>
-      <c r="FR5" s="35"/>
-      <c r="FS5" s="32"/>
-      <c r="FT5" s="32"/>
-      <c r="FU5" s="32"/>
-      <c r="FV5" s="32"/>
-      <c r="FW5" s="32"/>
-      <c r="FX5" s="32"/>
-      <c r="FY5" s="32"/>
-      <c r="FZ5" s="35"/>
-      <c r="GA5" s="35"/>
-      <c r="GB5" s="32"/>
-      <c r="GC5" s="32"/>
-      <c r="GD5" s="32"/>
-      <c r="GE5" s="32"/>
-      <c r="GF5" s="32"/>
-      <c r="GG5" s="32"/>
-      <c r="GH5" s="32"/>
-      <c r="GI5" s="32"/>
-      <c r="GJ5" s="32"/>
-      <c r="GK5" s="32"/>
-      <c r="GL5" s="32"/>
-      <c r="GM5" s="32"/>
-      <c r="GN5" s="37"/>
-      <c r="GO5" s="37"/>
-      <c r="GP5" s="32"/>
-      <c r="GQ5" s="32"/>
-      <c r="GR5" s="32"/>
-      <c r="GS5" s="32"/>
-      <c r="GT5" s="32"/>
-      <c r="GU5" s="32"/>
-      <c r="GV5" s="32"/>
-      <c r="GW5" s="32"/>
-      <c r="GX5" s="32"/>
-      <c r="GY5" s="32"/>
-      <c r="GZ5" s="32"/>
-      <c r="HA5" s="32"/>
-      <c r="HB5" s="32"/>
-      <c r="HC5" s="32"/>
-      <c r="HD5" s="32"/>
-      <c r="HE5" s="32"/>
-      <c r="HF5" s="32"/>
-      <c r="HG5" s="32"/>
-      <c r="HH5" s="32"/>
-      <c r="HI5" s="32"/>
-      <c r="HJ5" s="32"/>
-      <c r="HK5" s="32"/>
-      <c r="HL5" s="32"/>
-      <c r="HM5" s="32"/>
-      <c r="HN5" s="32"/>
-      <c r="HO5" s="32"/>
-      <c r="HP5" s="32"/>
-      <c r="HQ5" s="32"/>
-      <c r="HR5" s="32"/>
-      <c r="HS5" s="32"/>
-      <c r="HT5" s="32"/>
-      <c r="HU5" s="32"/>
-      <c r="HV5" s="32"/>
-      <c r="HW5" s="32"/>
-      <c r="HX5" s="32"/>
-      <c r="HY5" s="32"/>
-      <c r="HZ5" s="32"/>
-      <c r="IA5" s="32"/>
-      <c r="IB5" s="32"/>
-      <c r="IC5" s="32"/>
-      <c r="ID5" s="32"/>
-      <c r="IE5" s="32"/>
-      <c r="IF5" s="32"/>
-      <c r="IG5" s="32"/>
-      <c r="IH5" s="32"/>
-      <c r="II5" s="32"/>
-      <c r="IJ5" s="32"/>
-      <c r="IK5" s="32"/>
-      <c r="IL5" s="32"/>
-      <c r="IM5" s="32"/>
-      <c r="IN5" s="34"/>
-      <c r="IO5" s="34"/>
-      <c r="IP5" s="32"/>
-      <c r="IQ5" s="32"/>
-      <c r="IR5" s="32"/>
-      <c r="IS5" s="32"/>
-      <c r="IT5" s="32"/>
-      <c r="IU5" s="32"/>
-      <c r="IV5" s="32"/>
-      <c r="IW5" s="32"/>
-      <c r="IX5" s="32"/>
-      <c r="IY5" s="32"/>
-      <c r="IZ5" s="32"/>
-      <c r="JA5" s="32"/>
-      <c r="JB5" s="32"/>
-      <c r="JC5" s="32"/>
-      <c r="JD5" s="32"/>
-      <c r="JE5" s="32"/>
-      <c r="JF5" s="32"/>
-      <c r="JG5" s="32"/>
-      <c r="JH5" s="32"/>
-      <c r="JI5" s="32"/>
-      <c r="JJ5" s="32"/>
-      <c r="JK5" s="32"/>
-      <c r="JL5" s="34"/>
-      <c r="JM5" s="34"/>
-      <c r="JN5" s="32"/>
-      <c r="JO5" s="32"/>
-      <c r="JP5" s="32"/>
-      <c r="JQ5" s="32"/>
-      <c r="JR5" s="32"/>
-      <c r="JS5" s="32"/>
-      <c r="JT5" s="32"/>
-      <c r="JU5" s="32"/>
-      <c r="JV5" s="32"/>
-      <c r="JW5" s="32"/>
-      <c r="JX5" s="32"/>
-      <c r="JY5" s="32"/>
-      <c r="JZ5" s="32"/>
-      <c r="KA5" s="32"/>
-      <c r="KB5" s="32"/>
-      <c r="KC5" s="32"/>
-      <c r="KD5" s="32"/>
-      <c r="KE5" s="32"/>
-      <c r="KF5" s="32"/>
-      <c r="KG5" s="32"/>
-      <c r="KH5" s="32"/>
-      <c r="KI5" s="32"/>
-      <c r="KJ5" s="32"/>
-      <c r="KK5" s="32"/>
-      <c r="KL5" s="32"/>
-      <c r="KM5" s="32"/>
-      <c r="KN5" s="32"/>
-      <c r="KO5" s="32"/>
-      <c r="KP5" s="32"/>
-      <c r="KQ5" s="32"/>
-      <c r="KR5" s="32"/>
-      <c r="KS5" s="32"/>
-      <c r="KT5" s="32"/>
-      <c r="KU5" s="32"/>
-      <c r="KV5" s="32"/>
-      <c r="KW5" s="32"/>
-      <c r="KX5" s="32"/>
-      <c r="KY5" s="34"/>
-      <c r="KZ5" s="34"/>
-      <c r="LA5" s="32"/>
-      <c r="LB5" s="32"/>
-      <c r="LC5" s="32"/>
-      <c r="LD5" s="32"/>
-      <c r="LE5" s="32"/>
-      <c r="LF5" s="32"/>
-      <c r="LG5" s="32"/>
-      <c r="LH5" s="32"/>
-      <c r="LI5" s="32"/>
-      <c r="LJ5" s="32"/>
-      <c r="LK5" s="32"/>
-      <c r="LL5" s="32"/>
-      <c r="LM5" s="32"/>
-      <c r="LN5" s="32"/>
-      <c r="LO5" s="32"/>
-      <c r="LP5" s="32"/>
-      <c r="LQ5" s="32"/>
-      <c r="LR5" s="32"/>
-      <c r="LS5" s="32"/>
-      <c r="LT5" s="32"/>
-      <c r="LU5" s="32"/>
-      <c r="LV5" s="32"/>
-      <c r="LW5" s="32"/>
-      <c r="LX5" s="32"/>
-      <c r="LY5" s="32"/>
-      <c r="LZ5" s="32"/>
-      <c r="MA5" s="32"/>
-      <c r="MB5" s="32"/>
-      <c r="MC5" s="32"/>
-      <c r="MD5" s="32"/>
-      <c r="ME5" s="32"/>
-      <c r="MF5" s="32"/>
-      <c r="MG5" s="32"/>
-      <c r="MH5" s="32"/>
-      <c r="MI5" s="32"/>
-      <c r="MJ5" s="32"/>
-      <c r="MK5" s="32"/>
-      <c r="ML5" s="32"/>
-      <c r="MM5" s="32"/>
-      <c r="MN5" s="35"/>
-      <c r="MO5" s="35"/>
-      <c r="MP5" s="32"/>
-      <c r="MQ5" s="32"/>
-      <c r="MR5" s="32"/>
-      <c r="MS5" s="32"/>
-      <c r="MT5" s="32"/>
-      <c r="MU5" s="32"/>
-      <c r="MV5" s="32"/>
-      <c r="MW5" s="32"/>
-      <c r="MX5" s="32"/>
-      <c r="MY5" s="32"/>
-      <c r="MZ5" s="32"/>
-      <c r="NA5" s="32"/>
-      <c r="NB5" s="32"/>
-      <c r="NC5" s="32"/>
-      <c r="ND5" s="32"/>
-      <c r="NE5" s="34"/>
-      <c r="NF5" s="34"/>
-      <c r="NG5" s="32"/>
-      <c r="NH5" s="32"/>
-      <c r="NI5" s="32"/>
-      <c r="NJ5" s="32"/>
-      <c r="NK5" s="32"/>
-      <c r="NL5" s="32"/>
-      <c r="NM5" s="32"/>
-      <c r="NN5" s="32"/>
-      <c r="NO5" s="32"/>
-      <c r="NP5" s="32"/>
-      <c r="NQ5" s="32"/>
-      <c r="NR5" s="32"/>
-      <c r="NS5" s="32"/>
-      <c r="NT5" s="32"/>
-      <c r="NU5" s="32"/>
-      <c r="NV5" s="32"/>
-      <c r="NW5" s="32"/>
-      <c r="NX5" s="32"/>
-      <c r="NY5" s="32"/>
-      <c r="NZ5" s="32"/>
-      <c r="OA5" s="32"/>
-      <c r="OB5" s="34"/>
-      <c r="OC5" s="34"/>
-      <c r="OD5" s="32"/>
-      <c r="OE5" s="32"/>
-      <c r="OF5" s="32"/>
-      <c r="OG5" s="32"/>
-      <c r="OH5" s="32"/>
-      <c r="OI5" s="32"/>
-      <c r="OJ5" s="32"/>
-      <c r="OK5" s="32"/>
-      <c r="OL5" s="32"/>
-      <c r="OM5" s="32"/>
-      <c r="ON5" s="32"/>
-      <c r="OO5" s="32"/>
-      <c r="OP5" s="32"/>
-      <c r="OQ5" s="32"/>
-      <c r="OR5" s="32"/>
-      <c r="OS5" s="32"/>
-      <c r="OT5" s="32"/>
-      <c r="OU5" s="32"/>
-      <c r="OV5" s="32"/>
-      <c r="OW5" s="32"/>
-      <c r="OX5" s="32"/>
-      <c r="OY5" s="32"/>
-      <c r="OZ5" s="32"/>
-      <c r="PA5" s="34"/>
-      <c r="PB5" s="34"/>
-      <c r="PC5" s="32"/>
-      <c r="PD5" s="32"/>
-      <c r="PE5" s="32"/>
-      <c r="PF5" s="32"/>
-      <c r="PG5" s="32"/>
-      <c r="PH5" s="32"/>
-      <c r="PI5" s="32"/>
-      <c r="PJ5" s="32"/>
-      <c r="PK5" s="32"/>
-      <c r="PL5" s="32"/>
-      <c r="PM5" s="32"/>
-      <c r="PN5" s="32"/>
-      <c r="PO5" s="32"/>
-      <c r="PP5" s="32"/>
-      <c r="PQ5" s="32"/>
-      <c r="PR5" s="32"/>
-      <c r="PS5" s="34"/>
-      <c r="PT5" s="34"/>
-      <c r="PU5" s="32"/>
-      <c r="PV5" s="32"/>
-      <c r="PW5" s="32"/>
-      <c r="PX5" s="32"/>
-      <c r="PY5" s="32"/>
-      <c r="PZ5" s="32"/>
-      <c r="QA5" s="32"/>
-      <c r="QB5" s="32"/>
-      <c r="QC5" s="32"/>
-      <c r="QD5" s="32"/>
-      <c r="QE5" s="32"/>
-      <c r="QF5" s="32"/>
-      <c r="QG5" s="32"/>
-      <c r="QH5" s="32"/>
-      <c r="QI5" s="32"/>
-      <c r="QJ5" s="32"/>
-      <c r="QK5" s="32"/>
-      <c r="QL5" s="32"/>
-      <c r="QM5" s="32"/>
-      <c r="QN5" s="32"/>
-      <c r="QO5" s="32"/>
-      <c r="QP5" s="32"/>
-      <c r="QQ5" s="32"/>
-      <c r="QR5" s="32"/>
-      <c r="QS5" s="32"/>
-      <c r="QT5" s="32"/>
-      <c r="QU5" s="34"/>
-      <c r="QV5" s="34"/>
-      <c r="QW5" s="32"/>
-      <c r="QX5" s="32"/>
-      <c r="QY5" s="32"/>
-      <c r="QZ5" s="32"/>
-      <c r="RA5" s="32"/>
-      <c r="RB5" s="32"/>
-      <c r="RC5" s="32"/>
-      <c r="RD5" s="32"/>
-      <c r="RE5" s="32"/>
-      <c r="RF5" s="32"/>
-      <c r="RG5" s="32"/>
-      <c r="RH5" s="32"/>
-      <c r="RI5" s="34"/>
-      <c r="RJ5" s="34"/>
-      <c r="RK5" s="34"/>
-      <c r="RL5" s="34"/>
-      <c r="RM5" s="34"/>
-      <c r="RN5" s="34"/>
-      <c r="RO5" s="34"/>
-      <c r="RP5" s="34"/>
-      <c r="RQ5" s="34"/>
-      <c r="RR5" s="34"/>
-      <c r="RS5" s="34"/>
-      <c r="RT5" s="34"/>
-      <c r="RU5" s="34"/>
-      <c r="RV5" s="34"/>
-      <c r="RW5" s="34"/>
-      <c r="RX5" s="34"/>
-      <c r="RY5" s="34"/>
-      <c r="RZ5" s="34"/>
-      <c r="SA5" s="34"/>
-      <c r="SB5" s="34"/>
-      <c r="SC5" s="34"/>
-      <c r="SD5" s="34"/>
-      <c r="SE5" s="34"/>
-      <c r="SF5" s="34"/>
-      <c r="SG5" s="34"/>
-      <c r="SH5" s="34"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33"/>
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="33"/>
+      <c r="BG5" s="33"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="33"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="35"/>
+      <c r="BX5" s="35"/>
+      <c r="BY5" s="33"/>
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="33"/>
+      <c r="CD5" s="33"/>
+      <c r="CE5" s="33"/>
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33"/>
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="33"/>
+      <c r="CJ5" s="33"/>
+      <c r="CK5" s="33"/>
+      <c r="CL5" s="33"/>
+      <c r="CM5" s="33"/>
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33"/>
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="33"/>
+      <c r="CR5" s="33"/>
+      <c r="CS5" s="33"/>
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33"/>
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="33"/>
+      <c r="CX5" s="33"/>
+      <c r="CY5" s="33"/>
+      <c r="CZ5" s="33"/>
+      <c r="DA5" s="33"/>
+      <c r="DB5" s="33"/>
+      <c r="DC5" s="33"/>
+      <c r="DD5" s="33"/>
+      <c r="DE5" s="33"/>
+      <c r="DF5" s="33"/>
+      <c r="DG5" s="33"/>
+      <c r="DH5" s="33"/>
+      <c r="DI5" s="33"/>
+      <c r="DJ5" s="33"/>
+      <c r="DK5" s="33"/>
+      <c r="DL5" s="33"/>
+      <c r="DM5" s="33"/>
+      <c r="DN5" s="33"/>
+      <c r="DO5" s="33"/>
+      <c r="DP5" s="33"/>
+      <c r="DQ5" s="33"/>
+      <c r="DR5" s="33"/>
+      <c r="DS5" s="33"/>
+      <c r="DT5" s="33"/>
+      <c r="DU5" s="33"/>
+      <c r="DV5" s="33"/>
+      <c r="DW5" s="33"/>
+      <c r="DX5" s="33"/>
+      <c r="DY5" s="33"/>
+      <c r="DZ5" s="33"/>
+      <c r="EA5" s="33"/>
+      <c r="EB5" s="33"/>
+      <c r="EC5" s="33"/>
+      <c r="ED5" s="33"/>
+      <c r="EE5" s="33"/>
+      <c r="EF5" s="33"/>
+      <c r="EG5" s="33"/>
+      <c r="EH5" s="33"/>
+      <c r="EI5" s="33"/>
+      <c r="EJ5" s="33"/>
+      <c r="EK5" s="33"/>
+      <c r="EL5" s="33"/>
+      <c r="EM5" s="33"/>
+      <c r="EN5" s="33"/>
+      <c r="EO5" s="33"/>
+      <c r="EP5" s="33"/>
+      <c r="EQ5" s="33"/>
+      <c r="ER5" s="33"/>
+      <c r="ES5" s="33"/>
+      <c r="ET5" s="33"/>
+      <c r="EU5" s="33"/>
+      <c r="EV5" s="33"/>
+      <c r="EW5" s="33"/>
+      <c r="EX5" s="33"/>
+      <c r="EY5" s="33"/>
+      <c r="EZ5" s="33"/>
+      <c r="FA5" s="33"/>
+      <c r="FB5" s="33"/>
+      <c r="FC5" s="33"/>
+      <c r="FD5" s="33"/>
+      <c r="FE5" s="33"/>
+      <c r="FF5" s="33"/>
+      <c r="FG5" s="33"/>
+      <c r="FH5" s="33"/>
+      <c r="FI5" s="33"/>
+      <c r="FJ5" s="33"/>
+      <c r="FK5" s="33"/>
+      <c r="FL5" s="33"/>
+      <c r="FM5" s="33"/>
+      <c r="FN5" s="33"/>
+      <c r="FO5" s="33"/>
+      <c r="FP5" s="33"/>
+      <c r="FQ5" s="36"/>
+      <c r="FR5" s="36"/>
+      <c r="FS5" s="33"/>
+      <c r="FT5" s="33"/>
+      <c r="FU5" s="33"/>
+      <c r="FV5" s="33"/>
+      <c r="FW5" s="33"/>
+      <c r="FX5" s="33"/>
+      <c r="FY5" s="33"/>
+      <c r="FZ5" s="36"/>
+      <c r="GA5" s="36"/>
+      <c r="GB5" s="33"/>
+      <c r="GC5" s="33"/>
+      <c r="GD5" s="33"/>
+      <c r="GE5" s="33"/>
+      <c r="GF5" s="33"/>
+      <c r="GG5" s="33"/>
+      <c r="GH5" s="33"/>
+      <c r="GI5" s="33"/>
+      <c r="GJ5" s="33"/>
+      <c r="GK5" s="33"/>
+      <c r="GL5" s="33"/>
+      <c r="GM5" s="33"/>
+      <c r="GN5" s="38"/>
+      <c r="GO5" s="38"/>
+      <c r="GP5" s="33"/>
+      <c r="GQ5" s="33"/>
+      <c r="GR5" s="33"/>
+      <c r="GS5" s="33"/>
+      <c r="GT5" s="33"/>
+      <c r="GU5" s="33"/>
+      <c r="GV5" s="33"/>
+      <c r="GW5" s="33"/>
+      <c r="GX5" s="33"/>
+      <c r="GY5" s="33"/>
+      <c r="GZ5" s="33"/>
+      <c r="HA5" s="33"/>
+      <c r="HB5" s="33"/>
+      <c r="HC5" s="33"/>
+      <c r="HD5" s="33"/>
+      <c r="HE5" s="33"/>
+      <c r="HF5" s="33"/>
+      <c r="HG5" s="33"/>
+      <c r="HH5" s="33"/>
+      <c r="HI5" s="33"/>
+      <c r="HJ5" s="33"/>
+      <c r="HK5" s="33"/>
+      <c r="HL5" s="33"/>
+      <c r="HM5" s="33"/>
+      <c r="HN5" s="33"/>
+      <c r="HO5" s="33"/>
+      <c r="HP5" s="33"/>
+      <c r="HQ5" s="33"/>
+      <c r="HR5" s="33"/>
+      <c r="HS5" s="33"/>
+      <c r="HT5" s="33"/>
+      <c r="HU5" s="33"/>
+      <c r="HV5" s="33"/>
+      <c r="HW5" s="33"/>
+      <c r="HX5" s="33"/>
+      <c r="HY5" s="33"/>
+      <c r="HZ5" s="33"/>
+      <c r="IA5" s="33"/>
+      <c r="IB5" s="33"/>
+      <c r="IC5" s="33"/>
+      <c r="ID5" s="33"/>
+      <c r="IE5" s="33"/>
+      <c r="IF5" s="33"/>
+      <c r="IG5" s="33"/>
+      <c r="IH5" s="33"/>
+      <c r="II5" s="33"/>
+      <c r="IJ5" s="33"/>
+      <c r="IK5" s="33"/>
+      <c r="IL5" s="33"/>
+      <c r="IM5" s="33"/>
+      <c r="IN5" s="35"/>
+      <c r="IO5" s="35"/>
+      <c r="IP5" s="33"/>
+      <c r="IQ5" s="33"/>
+      <c r="IR5" s="33"/>
+      <c r="IS5" s="33"/>
+      <c r="IT5" s="33"/>
+      <c r="IU5" s="33"/>
+      <c r="IV5" s="33"/>
+      <c r="IW5" s="33"/>
+      <c r="IX5" s="33"/>
+      <c r="IY5" s="33"/>
+      <c r="IZ5" s="33"/>
+      <c r="JA5" s="33"/>
+      <c r="JB5" s="33"/>
+      <c r="JC5" s="33"/>
+      <c r="JD5" s="33"/>
+      <c r="JE5" s="33"/>
+      <c r="JF5" s="33"/>
+      <c r="JG5" s="33"/>
+      <c r="JH5" s="33"/>
+      <c r="JI5" s="33"/>
+      <c r="JJ5" s="33"/>
+      <c r="JK5" s="33"/>
+      <c r="JL5" s="35"/>
+      <c r="JM5" s="35"/>
+      <c r="JN5" s="33"/>
+      <c r="JO5" s="33"/>
+      <c r="JP5" s="33"/>
+      <c r="JQ5" s="33"/>
+      <c r="JR5" s="33"/>
+      <c r="JS5" s="33"/>
+      <c r="JT5" s="33"/>
+      <c r="JU5" s="33"/>
+      <c r="JV5" s="33"/>
+      <c r="JW5" s="33"/>
+      <c r="JX5" s="33"/>
+      <c r="JY5" s="33"/>
+      <c r="JZ5" s="33"/>
+      <c r="KA5" s="33"/>
+      <c r="KB5" s="33"/>
+      <c r="KC5" s="33"/>
+      <c r="KD5" s="33"/>
+      <c r="KE5" s="33"/>
+      <c r="KF5" s="33"/>
+      <c r="KG5" s="33"/>
+      <c r="KH5" s="33"/>
+      <c r="KI5" s="33"/>
+      <c r="KJ5" s="33"/>
+      <c r="KK5" s="33"/>
+      <c r="KL5" s="33"/>
+      <c r="KM5" s="33"/>
+      <c r="KN5" s="33"/>
+      <c r="KO5" s="33"/>
+      <c r="KP5" s="33"/>
+      <c r="KQ5" s="33"/>
+      <c r="KR5" s="33"/>
+      <c r="KS5" s="33"/>
+      <c r="KT5" s="33"/>
+      <c r="KU5" s="33"/>
+      <c r="KV5" s="33"/>
+      <c r="KW5" s="33"/>
+      <c r="KX5" s="33"/>
+      <c r="KY5" s="35"/>
+      <c r="KZ5" s="35"/>
+      <c r="LA5" s="33"/>
+      <c r="LB5" s="33"/>
+      <c r="LC5" s="33"/>
+      <c r="LD5" s="33"/>
+      <c r="LE5" s="33"/>
+      <c r="LF5" s="33"/>
+      <c r="LG5" s="33"/>
+      <c r="LH5" s="33"/>
+      <c r="LI5" s="33"/>
+      <c r="LJ5" s="33"/>
+      <c r="LK5" s="33"/>
+      <c r="LL5" s="33"/>
+      <c r="LM5" s="33"/>
+      <c r="LN5" s="33"/>
+      <c r="LO5" s="33"/>
+      <c r="LP5" s="33"/>
+      <c r="LQ5" s="33"/>
+      <c r="LR5" s="33"/>
+      <c r="LS5" s="33"/>
+      <c r="LT5" s="33"/>
+      <c r="LU5" s="33"/>
+      <c r="LV5" s="33"/>
+      <c r="LW5" s="33"/>
+      <c r="LX5" s="33"/>
+      <c r="LY5" s="33"/>
+      <c r="LZ5" s="33"/>
+      <c r="MA5" s="33"/>
+      <c r="MB5" s="33"/>
+      <c r="MC5" s="33"/>
+      <c r="MD5" s="33"/>
+      <c r="ME5" s="33"/>
+      <c r="MF5" s="33"/>
+      <c r="MG5" s="33"/>
+      <c r="MH5" s="33"/>
+      <c r="MI5" s="33"/>
+      <c r="MJ5" s="33"/>
+      <c r="MK5" s="33"/>
+      <c r="ML5" s="33"/>
+      <c r="MM5" s="33"/>
+      <c r="MN5" s="36"/>
+      <c r="MO5" s="36"/>
+      <c r="MP5" s="33"/>
+      <c r="MQ5" s="33"/>
+      <c r="MR5" s="33"/>
+      <c r="MS5" s="33"/>
+      <c r="MT5" s="33"/>
+      <c r="MU5" s="33"/>
+      <c r="MV5" s="33"/>
+      <c r="MW5" s="33"/>
+      <c r="MX5" s="33"/>
+      <c r="MY5" s="33"/>
+      <c r="MZ5" s="33"/>
+      <c r="NA5" s="33"/>
+      <c r="NB5" s="33"/>
+      <c r="NC5" s="33"/>
+      <c r="ND5" s="33"/>
+      <c r="NE5" s="35"/>
+      <c r="NF5" s="35"/>
+      <c r="NG5" s="33"/>
+      <c r="NH5" s="33"/>
+      <c r="NI5" s="33"/>
+      <c r="NJ5" s="33"/>
+      <c r="NK5" s="33"/>
+      <c r="NL5" s="33"/>
+      <c r="NM5" s="33"/>
+      <c r="NN5" s="33"/>
+      <c r="NO5" s="33"/>
+      <c r="NP5" s="33"/>
+      <c r="NQ5" s="33"/>
+      <c r="NR5" s="33"/>
+      <c r="NS5" s="33"/>
+      <c r="NT5" s="33"/>
+      <c r="NU5" s="33"/>
+      <c r="NV5" s="33"/>
+      <c r="NW5" s="33"/>
+      <c r="NX5" s="33"/>
+      <c r="NY5" s="33"/>
+      <c r="NZ5" s="33"/>
+      <c r="OA5" s="33"/>
+      <c r="OB5" s="35"/>
+      <c r="OC5" s="35"/>
+      <c r="OD5" s="33"/>
+      <c r="OE5" s="33"/>
+      <c r="OF5" s="33"/>
+      <c r="OG5" s="33"/>
+      <c r="OH5" s="33"/>
+      <c r="OI5" s="33"/>
+      <c r="OJ5" s="33"/>
+      <c r="OK5" s="33"/>
+      <c r="OL5" s="33"/>
+      <c r="OM5" s="33"/>
+      <c r="ON5" s="33"/>
+      <c r="OO5" s="33"/>
+      <c r="OP5" s="33"/>
+      <c r="OQ5" s="33"/>
+      <c r="OR5" s="33"/>
+      <c r="OS5" s="33"/>
+      <c r="OT5" s="33"/>
+      <c r="OU5" s="33"/>
+      <c r="OV5" s="33"/>
+      <c r="OW5" s="33"/>
+      <c r="OX5" s="33"/>
+      <c r="OY5" s="33"/>
+      <c r="OZ5" s="33"/>
+      <c r="PA5" s="35"/>
+      <c r="PB5" s="35"/>
+      <c r="PC5" s="33"/>
+      <c r="PD5" s="33"/>
+      <c r="PE5" s="33"/>
+      <c r="PF5" s="33"/>
+      <c r="PG5" s="33"/>
+      <c r="PH5" s="33"/>
+      <c r="PI5" s="33"/>
+      <c r="PJ5" s="33"/>
+      <c r="PK5" s="33"/>
+      <c r="PL5" s="33"/>
+      <c r="PM5" s="33"/>
+      <c r="PN5" s="33"/>
+      <c r="PO5" s="33"/>
+      <c r="PP5" s="33"/>
+      <c r="PQ5" s="33"/>
+      <c r="PR5" s="33"/>
+      <c r="PS5" s="35"/>
+      <c r="PT5" s="35"/>
+      <c r="PU5" s="33"/>
+      <c r="PV5" s="33"/>
+      <c r="PW5" s="33"/>
+      <c r="PX5" s="33"/>
+      <c r="PY5" s="33"/>
+      <c r="PZ5" s="33"/>
+      <c r="QA5" s="33"/>
+      <c r="QB5" s="33"/>
+      <c r="QC5" s="33"/>
+      <c r="QD5" s="33"/>
+      <c r="QE5" s="33"/>
+      <c r="QF5" s="33"/>
+      <c r="QG5" s="33"/>
+      <c r="QH5" s="33"/>
+      <c r="QI5" s="33"/>
+      <c r="QJ5" s="33"/>
+      <c r="QK5" s="33"/>
+      <c r="QL5" s="33"/>
+      <c r="QM5" s="33"/>
+      <c r="QN5" s="33"/>
+      <c r="QO5" s="33"/>
+      <c r="QP5" s="33"/>
+      <c r="QQ5" s="33"/>
+      <c r="QR5" s="33"/>
+      <c r="QS5" s="33"/>
+      <c r="QT5" s="33"/>
+      <c r="QU5" s="35"/>
+      <c r="QV5" s="35"/>
+      <c r="QW5" s="33"/>
+      <c r="QX5" s="33"/>
+      <c r="QY5" s="33"/>
+      <c r="QZ5" s="33"/>
+      <c r="RA5" s="33"/>
+      <c r="RB5" s="33"/>
+      <c r="RC5" s="33"/>
+      <c r="RD5" s="33"/>
+      <c r="RE5" s="33"/>
+      <c r="RF5" s="33"/>
+      <c r="RG5" s="33"/>
+      <c r="RH5" s="33"/>
+      <c r="RI5" s="35"/>
+      <c r="RJ5" s="35"/>
+      <c r="RK5" s="35"/>
+      <c r="RL5" s="35"/>
+      <c r="RM5" s="35"/>
+      <c r="RN5" s="35"/>
+      <c r="RO5" s="35"/>
+      <c r="RP5" s="35"/>
+      <c r="RQ5" s="35"/>
+      <c r="RR5" s="35"/>
+      <c r="RS5" s="35"/>
+      <c r="RT5" s="35"/>
+      <c r="RU5" s="35"/>
+      <c r="RV5" s="35"/>
+      <c r="RW5" s="35"/>
+      <c r="RX5" s="35"/>
+      <c r="RY5" s="35"/>
+      <c r="RZ5" s="35"/>
+      <c r="SA5" s="35"/>
+      <c r="SB5" s="35"/>
+      <c r="SC5" s="35"/>
+      <c r="SD5" s="35"/>
+      <c r="SE5" s="35"/>
+      <c r="SF5" s="35"/>
+      <c r="SG5" s="35"/>
+      <c r="SH5" s="35"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AM6" s="40"/>
-      <c r="AV6" s="40"/>
-      <c r="BV6" s="39"/>
-      <c r="BW6" s="39"/>
-      <c r="BX6" s="39"/>
-      <c r="FQ6" s="40"/>
-      <c r="FR6" s="40"/>
-      <c r="FZ6" s="39"/>
-      <c r="GA6" s="39"/>
-      <c r="GN6" s="41"/>
-      <c r="GO6" s="41"/>
-      <c r="IN6" s="39"/>
-      <c r="IO6" s="39"/>
-      <c r="JL6" s="39"/>
-      <c r="JM6" s="39"/>
-      <c r="KY6" s="39"/>
-      <c r="KZ6" s="39"/>
-      <c r="MN6" s="40"/>
-      <c r="MO6" s="40"/>
-      <c r="NE6" s="39"/>
-      <c r="NF6" s="39"/>
-      <c r="OB6" s="39"/>
-      <c r="OC6" s="39"/>
-      <c r="PA6" s="39"/>
-      <c r="PB6" s="39"/>
-      <c r="PS6" s="42"/>
-      <c r="PT6" s="42"/>
-      <c r="QU6" s="39"/>
-      <c r="QV6" s="39"/>
-      <c r="RI6" s="39"/>
-      <c r="RJ6" s="39"/>
-      <c r="RK6" s="39"/>
-      <c r="RL6" s="39"/>
-      <c r="RM6" s="39"/>
-      <c r="RN6" s="39"/>
-      <c r="RO6" s="39"/>
-      <c r="RP6" s="39"/>
-      <c r="RQ6" s="39"/>
-      <c r="RR6" s="39"/>
-      <c r="RS6" s="39"/>
-      <c r="RT6" s="39"/>
-      <c r="RU6" s="39"/>
-      <c r="RV6" s="39"/>
-      <c r="RW6" s="39"/>
-      <c r="RX6" s="39"/>
-      <c r="RY6" s="39"/>
-      <c r="RZ6" s="39"/>
-      <c r="SA6" s="39"/>
-      <c r="SB6" s="39"/>
-      <c r="SC6" s="39"/>
-      <c r="SD6" s="39"/>
-      <c r="SE6" s="39"/>
-      <c r="SF6" s="39"/>
-      <c r="SG6" s="39"/>
-      <c r="SH6" s="39"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AM6" s="41"/>
+      <c r="AV6" s="41"/>
+      <c r="BV6" s="40"/>
+      <c r="BW6" s="40"/>
+      <c r="BX6" s="40"/>
+      <c r="FQ6" s="41"/>
+      <c r="FR6" s="41"/>
+      <c r="FZ6" s="40"/>
+      <c r="GA6" s="40"/>
+      <c r="GN6" s="42"/>
+      <c r="GO6" s="42"/>
+      <c r="IN6" s="40"/>
+      <c r="IO6" s="40"/>
+      <c r="JL6" s="40"/>
+      <c r="JM6" s="40"/>
+      <c r="KY6" s="40"/>
+      <c r="KZ6" s="40"/>
+      <c r="MN6" s="41"/>
+      <c r="MO6" s="41"/>
+      <c r="NE6" s="40"/>
+      <c r="NF6" s="40"/>
+      <c r="OB6" s="40"/>
+      <c r="OC6" s="40"/>
+      <c r="PA6" s="40"/>
+      <c r="PB6" s="40"/>
+      <c r="PS6" s="43"/>
+      <c r="PT6" s="43"/>
+      <c r="QU6" s="40"/>
+      <c r="QV6" s="40"/>
+      <c r="RI6" s="40"/>
+      <c r="RJ6" s="40"/>
+      <c r="RK6" s="40"/>
+      <c r="RL6" s="40"/>
+      <c r="RM6" s="40"/>
+      <c r="RN6" s="40"/>
+      <c r="RO6" s="40"/>
+      <c r="RP6" s="40"/>
+      <c r="RQ6" s="40"/>
+      <c r="RR6" s="40"/>
+      <c r="RS6" s="40"/>
+      <c r="RT6" s="40"/>
+      <c r="RU6" s="40"/>
+      <c r="RV6" s="40"/>
+      <c r="RW6" s="40"/>
+      <c r="RX6" s="40"/>
+      <c r="RY6" s="40"/>
+      <c r="RZ6" s="40"/>
+      <c r="SA6" s="40"/>
+      <c r="SB6" s="40"/>
+      <c r="SC6" s="40"/>
+      <c r="SD6" s="40"/>
+      <c r="SE6" s="40"/>
+      <c r="SF6" s="40"/>
+      <c r="SG6" s="40"/>
+      <c r="SH6" s="40"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AI7" s="32"/>
-      <c r="AM7" s="40"/>
-      <c r="AV7" s="40"/>
-      <c r="BV7" s="39"/>
-      <c r="BW7" s="39"/>
-      <c r="BX7" s="39"/>
-      <c r="FQ7" s="40"/>
-      <c r="FR7" s="40"/>
-      <c r="FZ7" s="39"/>
-      <c r="GA7" s="39"/>
-      <c r="GN7" s="43"/>
-      <c r="GO7" s="43"/>
-      <c r="IN7" s="39"/>
-      <c r="IO7" s="39"/>
-      <c r="JL7" s="42"/>
-      <c r="JM7" s="42"/>
-      <c r="KY7" s="39"/>
-      <c r="KZ7" s="39"/>
-      <c r="MN7" s="40"/>
-      <c r="MO7" s="40"/>
-      <c r="NE7" s="39"/>
-      <c r="NF7" s="39"/>
-      <c r="OB7" s="39"/>
-      <c r="OC7" s="39"/>
-      <c r="PA7" s="39"/>
-      <c r="PB7" s="39"/>
-      <c r="PS7" s="39"/>
-      <c r="PT7" s="39"/>
-      <c r="QU7" s="39"/>
-      <c r="QV7" s="39"/>
-      <c r="RI7" s="39"/>
-      <c r="RJ7" s="39"/>
-      <c r="RK7" s="39"/>
-      <c r="RL7" s="39"/>
-      <c r="RM7" s="39"/>
-      <c r="RN7" s="39"/>
-      <c r="RO7" s="39"/>
-      <c r="RP7" s="39"/>
-      <c r="RQ7" s="39"/>
-      <c r="RR7" s="39"/>
-      <c r="RS7" s="39"/>
-      <c r="RT7" s="39"/>
-      <c r="RU7" s="39"/>
-      <c r="RV7" s="39"/>
-      <c r="RW7" s="39"/>
-      <c r="RX7" s="39"/>
-      <c r="RY7" s="39"/>
-      <c r="RZ7" s="39"/>
-      <c r="SA7" s="39"/>
-      <c r="SB7" s="39"/>
-      <c r="SC7" s="39"/>
-      <c r="SD7" s="39"/>
-      <c r="SE7" s="39"/>
-      <c r="SF7" s="39"/>
-      <c r="SG7" s="39"/>
-      <c r="SH7" s="39"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AI7" s="33"/>
+      <c r="AM7" s="41"/>
+      <c r="AV7" s="41"/>
+      <c r="BV7" s="40"/>
+      <c r="BW7" s="40"/>
+      <c r="BX7" s="40"/>
+      <c r="FQ7" s="41"/>
+      <c r="FR7" s="41"/>
+      <c r="FZ7" s="40"/>
+      <c r="GA7" s="40"/>
+      <c r="GN7" s="44"/>
+      <c r="GO7" s="44"/>
+      <c r="IN7" s="40"/>
+      <c r="IO7" s="40"/>
+      <c r="JL7" s="43"/>
+      <c r="JM7" s="43"/>
+      <c r="KY7" s="40"/>
+      <c r="KZ7" s="40"/>
+      <c r="MN7" s="41"/>
+      <c r="MO7" s="41"/>
+      <c r="NE7" s="40"/>
+      <c r="NF7" s="40"/>
+      <c r="OB7" s="40"/>
+      <c r="OC7" s="40"/>
+      <c r="PA7" s="40"/>
+      <c r="PB7" s="40"/>
+      <c r="PS7" s="40"/>
+      <c r="PT7" s="40"/>
+      <c r="QU7" s="40"/>
+      <c r="QV7" s="40"/>
+      <c r="RI7" s="40"/>
+      <c r="RJ7" s="40"/>
+      <c r="RK7" s="40"/>
+      <c r="RL7" s="40"/>
+      <c r="RM7" s="40"/>
+      <c r="RN7" s="40"/>
+      <c r="RO7" s="40"/>
+      <c r="RP7" s="40"/>
+      <c r="RQ7" s="40"/>
+      <c r="RR7" s="40"/>
+      <c r="RS7" s="40"/>
+      <c r="RT7" s="40"/>
+      <c r="RU7" s="40"/>
+      <c r="RV7" s="40"/>
+      <c r="RW7" s="40"/>
+      <c r="RX7" s="40"/>
+      <c r="RY7" s="40"/>
+      <c r="RZ7" s="40"/>
+      <c r="SA7" s="40"/>
+      <c r="SB7" s="40"/>
+      <c r="SC7" s="40"/>
+      <c r="SD7" s="40"/>
+      <c r="SE7" s="40"/>
+      <c r="SF7" s="40"/>
+      <c r="SG7" s="40"/>
+      <c r="SH7" s="40"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AM8" s="40"/>
-      <c r="AV8" s="39"/>
-      <c r="BV8" s="39"/>
-      <c r="BW8" s="39"/>
-      <c r="BX8" s="39"/>
-      <c r="FQ8" s="40"/>
-      <c r="FR8" s="40"/>
-      <c r="FZ8" s="39"/>
-      <c r="GA8" s="39"/>
-      <c r="GN8" s="43"/>
-      <c r="GO8" s="43"/>
-      <c r="IN8" s="39"/>
-      <c r="IO8" s="39"/>
-      <c r="JL8" s="42"/>
-      <c r="JM8" s="42"/>
-      <c r="KY8" s="39"/>
-      <c r="KZ8" s="39"/>
-      <c r="MN8" s="40"/>
-      <c r="MO8" s="40"/>
-      <c r="NE8" s="39"/>
-      <c r="NF8" s="39"/>
-      <c r="OB8" s="39"/>
-      <c r="OC8" s="39"/>
-      <c r="PA8" s="39"/>
-      <c r="PB8" s="39"/>
-      <c r="PS8" s="39"/>
-      <c r="PT8" s="39"/>
-      <c r="QU8" s="39"/>
-      <c r="QV8" s="39"/>
-      <c r="RI8" s="39"/>
-      <c r="RJ8" s="39"/>
-      <c r="RK8" s="39"/>
-      <c r="RL8" s="39"/>
-      <c r="RM8" s="39"/>
-      <c r="RN8" s="39"/>
-      <c r="RO8" s="39"/>
-      <c r="RP8" s="39"/>
-      <c r="RQ8" s="39"/>
-      <c r="RR8" s="39"/>
-      <c r="RS8" s="39"/>
-      <c r="RT8" s="39"/>
-      <c r="RU8" s="39"/>
-      <c r="RV8" s="39"/>
-      <c r="RW8" s="39"/>
-      <c r="RX8" s="39"/>
-      <c r="RY8" s="39"/>
-      <c r="RZ8" s="39"/>
-      <c r="SA8" s="39"/>
-      <c r="SB8" s="39"/>
-      <c r="SC8" s="39"/>
-      <c r="SD8" s="39"/>
-      <c r="SE8" s="39"/>
-      <c r="SF8" s="39"/>
-      <c r="SG8" s="39"/>
-      <c r="SH8" s="39"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AM8" s="41"/>
+      <c r="AV8" s="40"/>
+      <c r="BV8" s="40"/>
+      <c r="BW8" s="40"/>
+      <c r="BX8" s="40"/>
+      <c r="FQ8" s="41"/>
+      <c r="FR8" s="41"/>
+      <c r="FZ8" s="40"/>
+      <c r="GA8" s="40"/>
+      <c r="GN8" s="44"/>
+      <c r="GO8" s="44"/>
+      <c r="IN8" s="40"/>
+      <c r="IO8" s="40"/>
+      <c r="JL8" s="43"/>
+      <c r="JM8" s="43"/>
+      <c r="KY8" s="40"/>
+      <c r="KZ8" s="40"/>
+      <c r="MN8" s="41"/>
+      <c r="MO8" s="41"/>
+      <c r="NE8" s="40"/>
+      <c r="NF8" s="40"/>
+      <c r="OB8" s="40"/>
+      <c r="OC8" s="40"/>
+      <c r="PA8" s="40"/>
+      <c r="PB8" s="40"/>
+      <c r="PS8" s="40"/>
+      <c r="PT8" s="40"/>
+      <c r="QU8" s="40"/>
+      <c r="QV8" s="40"/>
+      <c r="RI8" s="40"/>
+      <c r="RJ8" s="40"/>
+      <c r="RK8" s="40"/>
+      <c r="RL8" s="40"/>
+      <c r="RM8" s="40"/>
+      <c r="RN8" s="40"/>
+      <c r="RO8" s="40"/>
+      <c r="RP8" s="40"/>
+      <c r="RQ8" s="40"/>
+      <c r="RR8" s="40"/>
+      <c r="RS8" s="40"/>
+      <c r="RT8" s="40"/>
+      <c r="RU8" s="40"/>
+      <c r="RV8" s="40"/>
+      <c r="RW8" s="40"/>
+      <c r="RX8" s="40"/>
+      <c r="RY8" s="40"/>
+      <c r="RZ8" s="40"/>
+      <c r="SA8" s="40"/>
+      <c r="SB8" s="40"/>
+      <c r="SC8" s="40"/>
+      <c r="SD8" s="40"/>
+      <c r="SE8" s="40"/>
+      <c r="SF8" s="40"/>
+      <c r="SG8" s="40"/>
+      <c r="SH8" s="40"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AM9" s="40"/>
-      <c r="AV9" s="40"/>
-      <c r="BV9" s="39"/>
-      <c r="BW9" s="39"/>
-      <c r="BX9" s="39"/>
-      <c r="FQ9" s="40"/>
-      <c r="FR9" s="40"/>
-      <c r="FZ9" s="39"/>
-      <c r="GA9" s="39"/>
-      <c r="GN9" s="43"/>
-      <c r="GO9" s="43"/>
-      <c r="IN9" s="39"/>
-      <c r="IO9" s="39"/>
-      <c r="JL9" s="42"/>
-      <c r="JM9" s="42"/>
-      <c r="KY9" s="39"/>
-      <c r="KZ9" s="39"/>
-      <c r="MN9" s="40"/>
-      <c r="MO9" s="40"/>
-      <c r="NE9" s="39"/>
-      <c r="NF9" s="39"/>
-      <c r="OB9" s="39"/>
-      <c r="OC9" s="39"/>
-      <c r="PA9" s="39"/>
-      <c r="PB9" s="39"/>
-      <c r="PS9" s="39"/>
-      <c r="PT9" s="39"/>
-      <c r="QU9" s="39"/>
-      <c r="QV9" s="39"/>
-      <c r="RI9" s="40"/>
-      <c r="RJ9" s="40"/>
-      <c r="RK9" s="40"/>
-      <c r="RL9" s="40"/>
-      <c r="RM9" s="40"/>
-      <c r="RN9" s="40"/>
-      <c r="RO9" s="40"/>
-      <c r="RP9" s="40"/>
-      <c r="RQ9" s="40"/>
-      <c r="RR9" s="40"/>
-      <c r="RS9" s="40"/>
-      <c r="RT9" s="40"/>
-      <c r="RU9" s="40"/>
-      <c r="RV9" s="40"/>
-      <c r="RW9" s="40"/>
-      <c r="RX9" s="40"/>
-      <c r="RY9" s="40"/>
-      <c r="RZ9" s="40"/>
-      <c r="SA9" s="39"/>
-      <c r="SB9" s="39"/>
-      <c r="SC9" s="39"/>
-      <c r="SD9" s="39"/>
-      <c r="SE9" s="39"/>
-      <c r="SF9" s="39"/>
-      <c r="SG9" s="39"/>
-      <c r="SH9" s="39"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AM9" s="41"/>
+      <c r="AV9" s="41"/>
+      <c r="BV9" s="40"/>
+      <c r="BW9" s="40"/>
+      <c r="BX9" s="40"/>
+      <c r="FQ9" s="41"/>
+      <c r="FR9" s="41"/>
+      <c r="FZ9" s="40"/>
+      <c r="GA9" s="40"/>
+      <c r="GN9" s="44"/>
+      <c r="GO9" s="44"/>
+      <c r="IN9" s="40"/>
+      <c r="IO9" s="40"/>
+      <c r="JL9" s="43"/>
+      <c r="JM9" s="43"/>
+      <c r="KY9" s="40"/>
+      <c r="KZ9" s="40"/>
+      <c r="MN9" s="41"/>
+      <c r="MO9" s="41"/>
+      <c r="NE9" s="40"/>
+      <c r="NF9" s="40"/>
+      <c r="OB9" s="40"/>
+      <c r="OC9" s="40"/>
+      <c r="PA9" s="40"/>
+      <c r="PB9" s="40"/>
+      <c r="PS9" s="40"/>
+      <c r="PT9" s="40"/>
+      <c r="QU9" s="40"/>
+      <c r="QV9" s="40"/>
+      <c r="RI9" s="41"/>
+      <c r="RJ9" s="41"/>
+      <c r="RK9" s="41"/>
+      <c r="RL9" s="41"/>
+      <c r="RM9" s="41"/>
+      <c r="RN9" s="41"/>
+      <c r="RO9" s="41"/>
+      <c r="RP9" s="41"/>
+      <c r="RQ9" s="41"/>
+      <c r="RR9" s="41"/>
+      <c r="RS9" s="41"/>
+      <c r="RT9" s="41"/>
+      <c r="RU9" s="41"/>
+      <c r="RV9" s="41"/>
+      <c r="RW9" s="41"/>
+      <c r="RX9" s="41"/>
+      <c r="RY9" s="41"/>
+      <c r="RZ9" s="41"/>
+      <c r="SA9" s="40"/>
+      <c r="SB9" s="40"/>
+      <c r="SC9" s="40"/>
+      <c r="SD9" s="40"/>
+      <c r="SE9" s="40"/>
+      <c r="SF9" s="40"/>
+      <c r="SG9" s="40"/>
+      <c r="SH9" s="40"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AM10" s="40"/>
-      <c r="AV10" s="40"/>
-      <c r="BV10" s="39"/>
-      <c r="BW10" s="39"/>
-      <c r="BX10" s="39"/>
-      <c r="ET10" s="39"/>
-      <c r="EU10" s="39"/>
-      <c r="FQ10" s="40"/>
-      <c r="FR10" s="40"/>
-      <c r="FZ10" s="39"/>
-      <c r="GA10" s="39"/>
-      <c r="GN10" s="41"/>
-      <c r="GO10" s="41"/>
-      <c r="IN10" s="40"/>
-      <c r="IO10" s="40"/>
-      <c r="JL10" s="42"/>
-      <c r="JM10" s="42"/>
-      <c r="KY10" s="39"/>
-      <c r="KZ10" s="39"/>
-      <c r="MN10" s="40"/>
-      <c r="MO10" s="40"/>
-      <c r="NE10" s="39"/>
-      <c r="NF10" s="39"/>
-      <c r="OB10" s="39"/>
-      <c r="OC10" s="39"/>
-      <c r="PA10" s="39"/>
-      <c r="PB10" s="39"/>
-      <c r="PS10" s="39"/>
-      <c r="PT10" s="39"/>
-      <c r="QU10" s="39"/>
-      <c r="QV10" s="39"/>
-      <c r="RI10" s="40"/>
-      <c r="RJ10" s="40"/>
-      <c r="RK10" s="40"/>
-      <c r="RL10" s="40"/>
-      <c r="RM10" s="40"/>
-      <c r="RN10" s="40"/>
-      <c r="RO10" s="40"/>
-      <c r="RP10" s="40"/>
-      <c r="RQ10" s="40"/>
-      <c r="RR10" s="40"/>
-      <c r="RS10" s="40"/>
-      <c r="RT10" s="40"/>
-      <c r="RU10" s="40"/>
-      <c r="RV10" s="40"/>
-      <c r="RW10" s="40"/>
-      <c r="RX10" s="40"/>
-      <c r="RY10" s="40"/>
-      <c r="RZ10" s="40"/>
-      <c r="SA10" s="40"/>
-      <c r="SB10" s="40"/>
-      <c r="SC10" s="40"/>
-      <c r="SD10" s="40"/>
-      <c r="SE10" s="40"/>
-      <c r="SF10" s="40"/>
-      <c r="SG10" s="40"/>
-      <c r="SH10" s="40"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AM10" s="41"/>
+      <c r="AV10" s="41"/>
+      <c r="BV10" s="40"/>
+      <c r="BW10" s="40"/>
+      <c r="BX10" s="40"/>
+      <c r="ET10" s="40"/>
+      <c r="EU10" s="40"/>
+      <c r="FQ10" s="41"/>
+      <c r="FR10" s="41"/>
+      <c r="FZ10" s="40"/>
+      <c r="GA10" s="40"/>
+      <c r="GN10" s="42"/>
+      <c r="GO10" s="42"/>
+      <c r="IN10" s="41"/>
+      <c r="IO10" s="41"/>
+      <c r="JL10" s="43"/>
+      <c r="JM10" s="43"/>
+      <c r="KY10" s="40"/>
+      <c r="KZ10" s="40"/>
+      <c r="MN10" s="41"/>
+      <c r="MO10" s="41"/>
+      <c r="NE10" s="40"/>
+      <c r="NF10" s="40"/>
+      <c r="OB10" s="40"/>
+      <c r="OC10" s="40"/>
+      <c r="PA10" s="40"/>
+      <c r="PB10" s="40"/>
+      <c r="PS10" s="40"/>
+      <c r="PT10" s="40"/>
+      <c r="QU10" s="40"/>
+      <c r="QV10" s="40"/>
+      <c r="RI10" s="41"/>
+      <c r="RJ10" s="41"/>
+      <c r="RK10" s="41"/>
+      <c r="RL10" s="41"/>
+      <c r="RM10" s="41"/>
+      <c r="RN10" s="41"/>
+      <c r="RO10" s="41"/>
+      <c r="RP10" s="41"/>
+      <c r="RQ10" s="41"/>
+      <c r="RR10" s="41"/>
+      <c r="RS10" s="41"/>
+      <c r="RT10" s="41"/>
+      <c r="RU10" s="41"/>
+      <c r="RV10" s="41"/>
+      <c r="RW10" s="41"/>
+      <c r="RX10" s="41"/>
+      <c r="RY10" s="41"/>
+      <c r="RZ10" s="41"/>
+      <c r="SA10" s="41"/>
+      <c r="SB10" s="41"/>
+      <c r="SC10" s="41"/>
+      <c r="SD10" s="41"/>
+      <c r="SE10" s="41"/>
+      <c r="SF10" s="41"/>
+      <c r="SG10" s="41"/>
+      <c r="SH10" s="41"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AM11" s="40"/>
-      <c r="AV11" s="39"/>
-      <c r="BV11" s="39"/>
-      <c r="BW11" s="39"/>
-      <c r="BX11" s="39"/>
-      <c r="ET11" s="39"/>
-      <c r="EU11" s="39"/>
-      <c r="FQ11" s="40"/>
-      <c r="FR11" s="40"/>
-      <c r="FZ11" s="39"/>
-      <c r="GA11" s="39"/>
-      <c r="GN11" s="43"/>
-      <c r="GO11" s="43"/>
-      <c r="IN11" s="39"/>
-      <c r="IO11" s="39"/>
-      <c r="JL11" s="39"/>
-      <c r="JM11" s="39"/>
-      <c r="KY11" s="39"/>
-      <c r="KZ11" s="39"/>
-      <c r="MN11" s="40"/>
-      <c r="MO11" s="40"/>
-      <c r="NE11" s="39"/>
-      <c r="NF11" s="39"/>
-      <c r="OB11" s="39"/>
-      <c r="OC11" s="39"/>
-      <c r="PA11" s="39"/>
-      <c r="PB11" s="39"/>
-      <c r="PS11" s="39"/>
-      <c r="PT11" s="39"/>
-      <c r="QU11" s="39"/>
-      <c r="QV11" s="39"/>
-      <c r="RI11" s="40"/>
-      <c r="RJ11" s="40"/>
-      <c r="RK11" s="40"/>
-      <c r="RL11" s="40"/>
-      <c r="RM11" s="40"/>
-      <c r="RN11" s="40"/>
-      <c r="RO11" s="40"/>
-      <c r="RP11" s="40"/>
-      <c r="RQ11" s="40"/>
-      <c r="RR11" s="40"/>
-      <c r="RS11" s="40"/>
-      <c r="RT11" s="40"/>
-      <c r="RU11" s="40"/>
-      <c r="RV11" s="40"/>
-      <c r="RW11" s="40"/>
-      <c r="RX11" s="40"/>
-      <c r="RY11" s="40"/>
-      <c r="RZ11" s="40"/>
-      <c r="SA11" s="40"/>
-      <c r="SB11" s="40"/>
-      <c r="SC11" s="40"/>
-      <c r="SD11" s="40"/>
-      <c r="SE11" s="40"/>
-      <c r="SF11" s="40"/>
-      <c r="SG11" s="40"/>
-      <c r="SH11" s="40"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AM11" s="41"/>
+      <c r="AV11" s="40"/>
+      <c r="BV11" s="40"/>
+      <c r="BW11" s="40"/>
+      <c r="BX11" s="40"/>
+      <c r="ET11" s="40"/>
+      <c r="EU11" s="40"/>
+      <c r="FQ11" s="41"/>
+      <c r="FR11" s="41"/>
+      <c r="FZ11" s="40"/>
+      <c r="GA11" s="40"/>
+      <c r="GN11" s="44"/>
+      <c r="GO11" s="44"/>
+      <c r="IN11" s="40"/>
+      <c r="IO11" s="40"/>
+      <c r="JL11" s="40"/>
+      <c r="JM11" s="40"/>
+      <c r="KY11" s="40"/>
+      <c r="KZ11" s="40"/>
+      <c r="MN11" s="41"/>
+      <c r="MO11" s="41"/>
+      <c r="NE11" s="40"/>
+      <c r="NF11" s="40"/>
+      <c r="OB11" s="40"/>
+      <c r="OC11" s="40"/>
+      <c r="PA11" s="40"/>
+      <c r="PB11" s="40"/>
+      <c r="PS11" s="40"/>
+      <c r="PT11" s="40"/>
+      <c r="QU11" s="40"/>
+      <c r="QV11" s="40"/>
+      <c r="RI11" s="41"/>
+      <c r="RJ11" s="41"/>
+      <c r="RK11" s="41"/>
+      <c r="RL11" s="41"/>
+      <c r="RM11" s="41"/>
+      <c r="RN11" s="41"/>
+      <c r="RO11" s="41"/>
+      <c r="RP11" s="41"/>
+      <c r="RQ11" s="41"/>
+      <c r="RR11" s="41"/>
+      <c r="RS11" s="41"/>
+      <c r="RT11" s="41"/>
+      <c r="RU11" s="41"/>
+      <c r="RV11" s="41"/>
+      <c r="RW11" s="41"/>
+      <c r="RX11" s="41"/>
+      <c r="RY11" s="41"/>
+      <c r="RZ11" s="41"/>
+      <c r="SA11" s="41"/>
+      <c r="SB11" s="41"/>
+      <c r="SC11" s="41"/>
+      <c r="SD11" s="41"/>
+      <c r="SE11" s="41"/>
+      <c r="SF11" s="41"/>
+      <c r="SG11" s="41"/>
+      <c r="SH11" s="41"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AV12" s="39"/>
-      <c r="BV12" s="39"/>
-      <c r="BW12" s="39"/>
-      <c r="BX12" s="39"/>
-      <c r="ET12" s="39"/>
-      <c r="EU12" s="39"/>
-      <c r="FZ12" s="39"/>
-      <c r="GA12" s="39"/>
-      <c r="GN12" s="43"/>
-      <c r="GO12" s="43"/>
-      <c r="IN12" s="39"/>
-      <c r="IO12" s="39"/>
-      <c r="JL12" s="39"/>
-      <c r="JM12" s="39"/>
-      <c r="KY12" s="39"/>
-      <c r="KZ12" s="39"/>
-      <c r="MN12" s="40"/>
-      <c r="MO12" s="40"/>
-      <c r="NE12" s="39"/>
-      <c r="NF12" s="39"/>
-      <c r="OB12" s="39"/>
-      <c r="OC12" s="39"/>
-      <c r="PA12" s="39"/>
-      <c r="PB12" s="39"/>
-      <c r="PS12" s="39"/>
-      <c r="PT12" s="39"/>
-      <c r="QU12" s="39"/>
-      <c r="QV12" s="39"/>
-      <c r="RI12" s="40"/>
-      <c r="RJ12" s="40"/>
-      <c r="RK12" s="40"/>
-      <c r="RL12" s="40"/>
-      <c r="RM12" s="40"/>
-      <c r="RN12" s="40"/>
-      <c r="RO12" s="40"/>
-      <c r="RP12" s="40"/>
-      <c r="RQ12" s="40"/>
-      <c r="RR12" s="40"/>
-      <c r="RS12" s="40"/>
-      <c r="RT12" s="40"/>
-      <c r="RU12" s="40"/>
-      <c r="RV12" s="40"/>
-      <c r="RW12" s="40"/>
-      <c r="RX12" s="40"/>
-      <c r="RY12" s="40"/>
-      <c r="RZ12" s="40"/>
-      <c r="SA12" s="40"/>
-      <c r="SB12" s="40"/>
-      <c r="SC12" s="40"/>
-      <c r="SD12" s="40"/>
-      <c r="SE12" s="40"/>
-      <c r="SF12" s="40"/>
-      <c r="SG12" s="40"/>
-      <c r="SH12" s="40"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="BV12" s="40"/>
+      <c r="BW12" s="40"/>
+      <c r="BX12" s="40"/>
+      <c r="ET12" s="40"/>
+      <c r="EU12" s="40"/>
+      <c r="FZ12" s="40"/>
+      <c r="GA12" s="40"/>
+      <c r="GN12" s="44"/>
+      <c r="GO12" s="44"/>
+      <c r="IN12" s="40"/>
+      <c r="IO12" s="40"/>
+      <c r="JL12" s="40"/>
+      <c r="JM12" s="40"/>
+      <c r="KY12" s="40"/>
+      <c r="KZ12" s="40"/>
+      <c r="MN12" s="41"/>
+      <c r="MO12" s="41"/>
+      <c r="NE12" s="40"/>
+      <c r="NF12" s="40"/>
+      <c r="OB12" s="40"/>
+      <c r="OC12" s="40"/>
+      <c r="PA12" s="40"/>
+      <c r="PB12" s="40"/>
+      <c r="PS12" s="40"/>
+      <c r="PT12" s="40"/>
+      <c r="QU12" s="40"/>
+      <c r="QV12" s="40"/>
+      <c r="RI12" s="41"/>
+      <c r="RJ12" s="41"/>
+      <c r="RK12" s="41"/>
+      <c r="RL12" s="41"/>
+      <c r="RM12" s="41"/>
+      <c r="RN12" s="41"/>
+      <c r="RO12" s="41"/>
+      <c r="RP12" s="41"/>
+      <c r="RQ12" s="41"/>
+      <c r="RR12" s="41"/>
+      <c r="RS12" s="41"/>
+      <c r="RT12" s="41"/>
+      <c r="RU12" s="41"/>
+      <c r="RV12" s="41"/>
+      <c r="RW12" s="41"/>
+      <c r="RX12" s="41"/>
+      <c r="RY12" s="41"/>
+      <c r="RZ12" s="41"/>
+      <c r="SA12" s="41"/>
+      <c r="SB12" s="41"/>
+      <c r="SC12" s="41"/>
+      <c r="SD12" s="41"/>
+      <c r="SE12" s="41"/>
+      <c r="SF12" s="41"/>
+      <c r="SG12" s="41"/>
+      <c r="SH12" s="41"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="C13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AV13" s="39"/>
-      <c r="BV13" s="39"/>
-      <c r="BW13" s="39"/>
-      <c r="BX13" s="39"/>
-      <c r="ET13" s="39"/>
-      <c r="EU13" s="39"/>
-      <c r="FZ13" s="39"/>
-      <c r="GA13" s="39"/>
-      <c r="GN13" s="43"/>
-      <c r="GO13" s="43"/>
-      <c r="IN13" s="39"/>
-      <c r="IO13" s="39"/>
-      <c r="JL13" s="39"/>
-      <c r="JM13" s="39"/>
-      <c r="KY13" s="39"/>
-      <c r="KZ13" s="39"/>
-      <c r="MN13" s="40"/>
-      <c r="MO13" s="40"/>
-      <c r="NE13" s="39"/>
-      <c r="NF13" s="39"/>
-      <c r="OB13" s="39"/>
-      <c r="OC13" s="39"/>
-      <c r="PA13" s="39"/>
-      <c r="PB13" s="39"/>
-      <c r="PS13" s="39"/>
-      <c r="PT13" s="39"/>
-      <c r="QU13" s="39"/>
-      <c r="QV13" s="39"/>
-      <c r="RI13" s="40"/>
-      <c r="RJ13" s="40"/>
-      <c r="RK13" s="40"/>
-      <c r="RL13" s="40"/>
-      <c r="RM13" s="40"/>
-      <c r="RN13" s="40"/>
-      <c r="RO13" s="40"/>
-      <c r="RP13" s="40"/>
-      <c r="RQ13" s="40"/>
-      <c r="RR13" s="40"/>
-      <c r="RS13" s="40"/>
-      <c r="RT13" s="40"/>
-      <c r="RU13" s="40"/>
-      <c r="RV13" s="40"/>
-      <c r="RW13" s="40"/>
-      <c r="RX13" s="40"/>
-      <c r="RY13" s="40"/>
-      <c r="RZ13" s="40"/>
-      <c r="SA13" s="40"/>
-      <c r="SB13" s="40"/>
-      <c r="SC13" s="40"/>
-      <c r="SD13" s="40"/>
-      <c r="SE13" s="40"/>
-      <c r="SF13" s="40"/>
-      <c r="SG13" s="40"/>
-      <c r="SH13" s="40"/>
+      <c r="A13" s="45"/>
+      <c r="C13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="BV13" s="40"/>
+      <c r="BW13" s="40"/>
+      <c r="BX13" s="40"/>
+      <c r="ET13" s="40"/>
+      <c r="EU13" s="40"/>
+      <c r="FZ13" s="40"/>
+      <c r="GA13" s="40"/>
+      <c r="GN13" s="44"/>
+      <c r="GO13" s="44"/>
+      <c r="IN13" s="40"/>
+      <c r="IO13" s="40"/>
+      <c r="JL13" s="40"/>
+      <c r="JM13" s="40"/>
+      <c r="KY13" s="40"/>
+      <c r="KZ13" s="40"/>
+      <c r="MN13" s="41"/>
+      <c r="MO13" s="41"/>
+      <c r="NE13" s="40"/>
+      <c r="NF13" s="40"/>
+      <c r="OB13" s="40"/>
+      <c r="OC13" s="40"/>
+      <c r="PA13" s="40"/>
+      <c r="PB13" s="40"/>
+      <c r="PS13" s="40"/>
+      <c r="PT13" s="40"/>
+      <c r="QU13" s="40"/>
+      <c r="QV13" s="40"/>
+      <c r="RI13" s="41"/>
+      <c r="RJ13" s="41"/>
+      <c r="RK13" s="41"/>
+      <c r="RL13" s="41"/>
+      <c r="RM13" s="41"/>
+      <c r="RN13" s="41"/>
+      <c r="RO13" s="41"/>
+      <c r="RP13" s="41"/>
+      <c r="RQ13" s="41"/>
+      <c r="RR13" s="41"/>
+      <c r="RS13" s="41"/>
+      <c r="RT13" s="41"/>
+      <c r="RU13" s="41"/>
+      <c r="RV13" s="41"/>
+      <c r="RW13" s="41"/>
+      <c r="RX13" s="41"/>
+      <c r="RY13" s="41"/>
+      <c r="RZ13" s="41"/>
+      <c r="SA13" s="41"/>
+      <c r="SB13" s="41"/>
+      <c r="SC13" s="41"/>
+      <c r="SD13" s="41"/>
+      <c r="SE13" s="41"/>
+      <c r="SF13" s="41"/>
+      <c r="SG13" s="41"/>
+      <c r="SH13" s="41"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AV14" s="39"/>
-      <c r="BV14" s="39"/>
-      <c r="BW14" s="39"/>
-      <c r="BX14" s="39"/>
-      <c r="ET14" s="39"/>
-      <c r="EU14" s="39"/>
-      <c r="FZ14" s="39"/>
-      <c r="GA14" s="39"/>
-      <c r="GN14" s="43"/>
-      <c r="GO14" s="43"/>
-      <c r="IN14" s="39"/>
-      <c r="IO14" s="39"/>
-      <c r="JL14" s="39"/>
-      <c r="JM14" s="39"/>
-      <c r="KY14" s="39"/>
-      <c r="KZ14" s="39"/>
-      <c r="MN14" s="40"/>
-      <c r="MO14" s="40"/>
-      <c r="NE14" s="39"/>
-      <c r="NF14" s="39"/>
-      <c r="OB14" s="39"/>
-      <c r="OC14" s="39"/>
-      <c r="PA14" s="39"/>
-      <c r="PB14" s="39"/>
-      <c r="PS14" s="39"/>
-      <c r="PT14" s="39"/>
-      <c r="QU14" s="39"/>
-      <c r="QV14" s="39"/>
-      <c r="RI14" s="40"/>
-      <c r="RJ14" s="40"/>
-      <c r="RK14" s="40"/>
-      <c r="RL14" s="40"/>
-      <c r="RM14" s="40"/>
-      <c r="RN14" s="40"/>
-      <c r="RO14" s="40"/>
-      <c r="RP14" s="40"/>
-      <c r="RQ14" s="40"/>
-      <c r="RR14" s="40"/>
-      <c r="RS14" s="40"/>
-      <c r="RT14" s="40"/>
-      <c r="RU14" s="40"/>
-      <c r="RV14" s="40"/>
-      <c r="RW14" s="40"/>
-      <c r="RX14" s="40"/>
-      <c r="RY14" s="40"/>
-      <c r="RZ14" s="40"/>
-      <c r="SA14" s="40"/>
-      <c r="SB14" s="40"/>
-      <c r="SC14" s="40"/>
-      <c r="SD14" s="40"/>
-      <c r="SE14" s="40"/>
-      <c r="SF14" s="40"/>
-      <c r="SG14" s="40"/>
-      <c r="SH14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AV14" s="40"/>
+      <c r="BV14" s="40"/>
+      <c r="BW14" s="40"/>
+      <c r="BX14" s="40"/>
+      <c r="ET14" s="40"/>
+      <c r="EU14" s="40"/>
+      <c r="FZ14" s="40"/>
+      <c r="GA14" s="40"/>
+      <c r="GN14" s="44"/>
+      <c r="GO14" s="44"/>
+      <c r="IN14" s="40"/>
+      <c r="IO14" s="40"/>
+      <c r="JL14" s="40"/>
+      <c r="JM14" s="40"/>
+      <c r="KY14" s="40"/>
+      <c r="KZ14" s="40"/>
+      <c r="MN14" s="41"/>
+      <c r="MO14" s="41"/>
+      <c r="NE14" s="40"/>
+      <c r="NF14" s="40"/>
+      <c r="OB14" s="40"/>
+      <c r="OC14" s="40"/>
+      <c r="PA14" s="40"/>
+      <c r="PB14" s="40"/>
+      <c r="PS14" s="40"/>
+      <c r="PT14" s="40"/>
+      <c r="QU14" s="40"/>
+      <c r="QV14" s="40"/>
+      <c r="RI14" s="41"/>
+      <c r="RJ14" s="41"/>
+      <c r="RK14" s="41"/>
+      <c r="RL14" s="41"/>
+      <c r="RM14" s="41"/>
+      <c r="RN14" s="41"/>
+      <c r="RO14" s="41"/>
+      <c r="RP14" s="41"/>
+      <c r="RQ14" s="41"/>
+      <c r="RR14" s="41"/>
+      <c r="RS14" s="41"/>
+      <c r="RT14" s="41"/>
+      <c r="RU14" s="41"/>
+      <c r="RV14" s="41"/>
+      <c r="RW14" s="41"/>
+      <c r="RX14" s="41"/>
+      <c r="RY14" s="41"/>
+      <c r="RZ14" s="41"/>
+      <c r="SA14" s="41"/>
+      <c r="SB14" s="41"/>
+      <c r="SC14" s="41"/>
+      <c r="SD14" s="41"/>
+      <c r="SE14" s="41"/>
+      <c r="SF14" s="41"/>
+      <c r="SG14" s="41"/>
+      <c r="SH14" s="41"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
-      <c r="AV15" s="40"/>
-      <c r="BV15" s="39"/>
-      <c r="BW15" s="39"/>
-      <c r="BX15" s="39"/>
-      <c r="ET15" s="39"/>
-      <c r="EU15" s="39"/>
-      <c r="FZ15" s="39"/>
-      <c r="GA15" s="39"/>
-      <c r="GN15" s="41"/>
-      <c r="GO15" s="41"/>
-      <c r="IN15" s="39"/>
-      <c r="IO15" s="39"/>
-      <c r="JL15" s="39"/>
-      <c r="JM15" s="39"/>
-      <c r="KY15" s="39"/>
-      <c r="KZ15" s="39"/>
-      <c r="MN15" s="40"/>
-      <c r="MO15" s="40"/>
-      <c r="NE15" s="39"/>
-      <c r="NF15" s="39"/>
-      <c r="OB15" s="39"/>
-      <c r="OC15" s="39"/>
-      <c r="PA15" s="39"/>
-      <c r="PB15" s="39"/>
-      <c r="PS15" s="39"/>
-      <c r="PT15" s="39"/>
-      <c r="QU15" s="39"/>
-      <c r="QV15" s="39"/>
-      <c r="RI15" s="40"/>
-      <c r="RJ15" s="40"/>
-      <c r="RK15" s="40"/>
-      <c r="RL15" s="40"/>
-      <c r="RM15" s="40"/>
-      <c r="RN15" s="40"/>
-      <c r="RO15" s="40"/>
-      <c r="RP15" s="40"/>
-      <c r="RQ15" s="40"/>
-      <c r="RR15" s="40"/>
-      <c r="RS15" s="40"/>
-      <c r="RT15" s="40"/>
-      <c r="RU15" s="40"/>
-      <c r="RV15" s="40"/>
-      <c r="RW15" s="40"/>
-      <c r="RX15" s="40"/>
-      <c r="RY15" s="40"/>
-      <c r="RZ15" s="40"/>
-      <c r="SA15" s="40"/>
-      <c r="SB15" s="40"/>
-      <c r="SC15" s="40"/>
-      <c r="SD15" s="40"/>
-      <c r="SE15" s="40"/>
-      <c r="SF15" s="40"/>
-      <c r="SG15" s="40"/>
-      <c r="SH15" s="40"/>
+      <c r="A15" s="41"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="AV15" s="41"/>
+      <c r="BV15" s="40"/>
+      <c r="BW15" s="40"/>
+      <c r="BX15" s="40"/>
+      <c r="ET15" s="40"/>
+      <c r="EU15" s="40"/>
+      <c r="FZ15" s="40"/>
+      <c r="GA15" s="40"/>
+      <c r="GN15" s="42"/>
+      <c r="GO15" s="42"/>
+      <c r="IN15" s="40"/>
+      <c r="IO15" s="40"/>
+      <c r="JL15" s="40"/>
+      <c r="JM15" s="40"/>
+      <c r="KY15" s="40"/>
+      <c r="KZ15" s="40"/>
+      <c r="MN15" s="41"/>
+      <c r="MO15" s="41"/>
+      <c r="NE15" s="40"/>
+      <c r="NF15" s="40"/>
+      <c r="OB15" s="40"/>
+      <c r="OC15" s="40"/>
+      <c r="PA15" s="40"/>
+      <c r="PB15" s="40"/>
+      <c r="PS15" s="40"/>
+      <c r="PT15" s="40"/>
+      <c r="QU15" s="40"/>
+      <c r="QV15" s="40"/>
+      <c r="RI15" s="41"/>
+      <c r="RJ15" s="41"/>
+      <c r="RK15" s="41"/>
+      <c r="RL15" s="41"/>
+      <c r="RM15" s="41"/>
+      <c r="RN15" s="41"/>
+      <c r="RO15" s="41"/>
+      <c r="RP15" s="41"/>
+      <c r="RQ15" s="41"/>
+      <c r="RR15" s="41"/>
+      <c r="RS15" s="41"/>
+      <c r="RT15" s="41"/>
+      <c r="RU15" s="41"/>
+      <c r="RV15" s="41"/>
+      <c r="RW15" s="41"/>
+      <c r="RX15" s="41"/>
+      <c r="RY15" s="41"/>
+      <c r="RZ15" s="41"/>
+      <c r="SA15" s="41"/>
+      <c r="SB15" s="41"/>
+      <c r="SC15" s="41"/>
+      <c r="SD15" s="41"/>
+      <c r="SE15" s="41"/>
+      <c r="SF15" s="41"/>
+      <c r="SG15" s="41"/>
+      <c r="SH15" s="41"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
-      <c r="AV16" s="40"/>
-      <c r="BV16" s="39"/>
-      <c r="BW16" s="39"/>
-      <c r="BX16" s="39"/>
-      <c r="ET16" s="39"/>
-      <c r="EU16" s="39"/>
-      <c r="FZ16" s="39"/>
-      <c r="GA16" s="39"/>
-      <c r="GN16" s="41"/>
-      <c r="GO16" s="41"/>
-      <c r="IN16" s="39"/>
-      <c r="IO16" s="39"/>
-      <c r="JL16" s="39"/>
-      <c r="JM16" s="39"/>
-      <c r="KY16" s="39"/>
-      <c r="KZ16" s="39"/>
-      <c r="MN16" s="40"/>
-      <c r="MO16" s="40"/>
-      <c r="NE16" s="39"/>
-      <c r="NF16" s="39"/>
-      <c r="OB16" s="39"/>
-      <c r="OC16" s="39"/>
-      <c r="PA16" s="39"/>
-      <c r="PB16" s="39"/>
-      <c r="PS16" s="39"/>
-      <c r="PT16" s="39"/>
-      <c r="RI16" s="39"/>
-      <c r="RJ16" s="39"/>
-      <c r="RK16" s="39"/>
-      <c r="RL16" s="39"/>
-      <c r="RM16" s="39"/>
-      <c r="RN16" s="39"/>
-      <c r="RO16" s="39"/>
-      <c r="RP16" s="39"/>
-      <c r="RQ16" s="39"/>
-      <c r="RR16" s="39"/>
-      <c r="RS16" s="39"/>
-      <c r="RT16" s="39"/>
-      <c r="RU16" s="39"/>
-      <c r="RV16" s="39"/>
-      <c r="RW16" s="39"/>
-      <c r="RX16" s="39"/>
-      <c r="RY16" s="39"/>
-      <c r="RZ16" s="39"/>
-      <c r="SA16" s="39"/>
-      <c r="SB16" s="39"/>
-      <c r="SC16" s="39"/>
-      <c r="SD16" s="39"/>
-      <c r="SE16" s="39"/>
-      <c r="SF16" s="39"/>
-      <c r="SG16" s="39"/>
-      <c r="SH16" s="39"/>
+      <c r="A16" s="41"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="AV16" s="41"/>
+      <c r="BV16" s="40"/>
+      <c r="BW16" s="40"/>
+      <c r="BX16" s="40"/>
+      <c r="ET16" s="40"/>
+      <c r="EU16" s="40"/>
+      <c r="FZ16" s="40"/>
+      <c r="GA16" s="40"/>
+      <c r="GN16" s="42"/>
+      <c r="GO16" s="42"/>
+      <c r="IN16" s="40"/>
+      <c r="IO16" s="40"/>
+      <c r="JL16" s="40"/>
+      <c r="JM16" s="40"/>
+      <c r="KY16" s="40"/>
+      <c r="KZ16" s="40"/>
+      <c r="MN16" s="41"/>
+      <c r="MO16" s="41"/>
+      <c r="NE16" s="40"/>
+      <c r="NF16" s="40"/>
+      <c r="OB16" s="40"/>
+      <c r="OC16" s="40"/>
+      <c r="PA16" s="40"/>
+      <c r="PB16" s="40"/>
+      <c r="PS16" s="40"/>
+      <c r="PT16" s="40"/>
+      <c r="RI16" s="40"/>
+      <c r="RJ16" s="40"/>
+      <c r="RK16" s="40"/>
+      <c r="RL16" s="40"/>
+      <c r="RM16" s="40"/>
+      <c r="RN16" s="40"/>
+      <c r="RO16" s="40"/>
+      <c r="RP16" s="40"/>
+      <c r="RQ16" s="40"/>
+      <c r="RR16" s="40"/>
+      <c r="RS16" s="40"/>
+      <c r="RT16" s="40"/>
+      <c r="RU16" s="40"/>
+      <c r="RV16" s="40"/>
+      <c r="RW16" s="40"/>
+      <c r="RX16" s="40"/>
+      <c r="RY16" s="40"/>
+      <c r="RZ16" s="40"/>
+      <c r="SA16" s="40"/>
+      <c r="SB16" s="40"/>
+      <c r="SC16" s="40"/>
+      <c r="SD16" s="40"/>
+      <c r="SE16" s="40"/>
+      <c r="SF16" s="40"/>
+      <c r="SG16" s="40"/>
+      <c r="SH16" s="40"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
-      <c r="BV17" s="39"/>
-      <c r="BW17" s="39"/>
-      <c r="BX17" s="39"/>
-      <c r="ET17" s="39"/>
-      <c r="EU17" s="39"/>
-      <c r="GN17" s="41"/>
-      <c r="GO17" s="41"/>
-      <c r="IN17" s="39"/>
-      <c r="IO17" s="39"/>
-      <c r="JL17" s="39"/>
-      <c r="JM17" s="39"/>
-      <c r="KY17" s="40"/>
-      <c r="KZ17" s="40"/>
-      <c r="MN17" s="39"/>
-      <c r="MO17" s="39"/>
-      <c r="NE17" s="39"/>
-      <c r="NF17" s="39"/>
-      <c r="OB17" s="39"/>
-      <c r="OC17" s="39"/>
-      <c r="PA17" s="39"/>
-      <c r="PB17" s="39"/>
-      <c r="PS17" s="39"/>
-      <c r="PT17" s="39"/>
-      <c r="RI17" s="39"/>
-      <c r="RJ17" s="39"/>
-      <c r="RK17" s="39"/>
-      <c r="RL17" s="39"/>
-      <c r="RM17" s="39"/>
-      <c r="RN17" s="39"/>
-      <c r="RO17" s="39"/>
-      <c r="RP17" s="39"/>
-      <c r="RQ17" s="39"/>
-      <c r="RR17" s="39"/>
-      <c r="RS17" s="39"/>
-      <c r="RT17" s="39"/>
-      <c r="RU17" s="39"/>
-      <c r="RV17" s="39"/>
-      <c r="RW17" s="39"/>
-      <c r="RX17" s="39"/>
-      <c r="RY17" s="39"/>
-      <c r="RZ17" s="39"/>
-      <c r="SA17" s="39"/>
-      <c r="SB17" s="39"/>
-      <c r="SC17" s="39"/>
-      <c r="SD17" s="39"/>
-      <c r="SE17" s="39"/>
-      <c r="SF17" s="39"/>
-      <c r="SG17" s="39"/>
-      <c r="SH17" s="39"/>
+      <c r="A17" s="41"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+      <c r="BV17" s="40"/>
+      <c r="BW17" s="40"/>
+      <c r="BX17" s="40"/>
+      <c r="ET17" s="40"/>
+      <c r="EU17" s="40"/>
+      <c r="GN17" s="42"/>
+      <c r="GO17" s="42"/>
+      <c r="IN17" s="40"/>
+      <c r="IO17" s="40"/>
+      <c r="JL17" s="40"/>
+      <c r="JM17" s="40"/>
+      <c r="KY17" s="41"/>
+      <c r="KZ17" s="41"/>
+      <c r="MN17" s="40"/>
+      <c r="MO17" s="40"/>
+      <c r="NE17" s="40"/>
+      <c r="NF17" s="40"/>
+      <c r="OB17" s="40"/>
+      <c r="OC17" s="40"/>
+      <c r="PA17" s="40"/>
+      <c r="PB17" s="40"/>
+      <c r="PS17" s="40"/>
+      <c r="PT17" s="40"/>
+      <c r="RI17" s="40"/>
+      <c r="RJ17" s="40"/>
+      <c r="RK17" s="40"/>
+      <c r="RL17" s="40"/>
+      <c r="RM17" s="40"/>
+      <c r="RN17" s="40"/>
+      <c r="RO17" s="40"/>
+      <c r="RP17" s="40"/>
+      <c r="RQ17" s="40"/>
+      <c r="RR17" s="40"/>
+      <c r="RS17" s="40"/>
+      <c r="RT17" s="40"/>
+      <c r="RU17" s="40"/>
+      <c r="RV17" s="40"/>
+      <c r="RW17" s="40"/>
+      <c r="RX17" s="40"/>
+      <c r="RY17" s="40"/>
+      <c r="RZ17" s="40"/>
+      <c r="SA17" s="40"/>
+      <c r="SB17" s="40"/>
+      <c r="SC17" s="40"/>
+      <c r="SD17" s="40"/>
+      <c r="SE17" s="40"/>
+      <c r="SF17" s="40"/>
+      <c r="SG17" s="40"/>
+      <c r="SH17" s="40"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="BV18" s="39"/>
-      <c r="BW18" s="40"/>
-      <c r="BX18" s="40"/>
-      <c r="ET18" s="39"/>
-      <c r="EU18" s="39"/>
-      <c r="GN18" s="41"/>
-      <c r="GO18" s="41"/>
-      <c r="IN18" s="39"/>
-      <c r="IO18" s="39"/>
-      <c r="JL18" s="39"/>
-      <c r="JM18" s="39"/>
-      <c r="KY18" s="39"/>
-      <c r="KZ18" s="39"/>
-      <c r="MN18" s="39"/>
-      <c r="MO18" s="39"/>
-      <c r="NE18" s="39"/>
-      <c r="NF18" s="39"/>
-      <c r="OB18" s="39"/>
-      <c r="OC18" s="39"/>
-      <c r="PA18" s="39"/>
-      <c r="PB18" s="39"/>
-      <c r="PS18" s="39"/>
-      <c r="PT18" s="39"/>
-      <c r="RI18" s="39"/>
-      <c r="RJ18" s="39"/>
-      <c r="RK18" s="39"/>
-      <c r="RL18" s="39"/>
-      <c r="RM18" s="39"/>
-      <c r="RN18" s="39"/>
-      <c r="RO18" s="39"/>
-      <c r="RP18" s="39"/>
-      <c r="RQ18" s="39"/>
-      <c r="RR18" s="39"/>
-      <c r="RS18" s="39"/>
-      <c r="RT18" s="39"/>
-      <c r="RU18" s="39"/>
-      <c r="RV18" s="39"/>
-      <c r="RW18" s="39"/>
-      <c r="RX18" s="39"/>
-      <c r="RY18" s="39"/>
-      <c r="RZ18" s="39"/>
-      <c r="SA18" s="39"/>
-      <c r="SB18" s="39"/>
-      <c r="SC18" s="39"/>
-      <c r="SD18" s="39"/>
-      <c r="SE18" s="39"/>
-      <c r="SF18" s="39"/>
-      <c r="SG18" s="39"/>
-      <c r="SH18" s="39"/>
+      <c r="A18" s="41"/>
+      <c r="BV18" s="40"/>
+      <c r="BW18" s="41"/>
+      <c r="BX18" s="41"/>
+      <c r="ET18" s="40"/>
+      <c r="EU18" s="40"/>
+      <c r="GN18" s="42"/>
+      <c r="GO18" s="42"/>
+      <c r="IN18" s="40"/>
+      <c r="IO18" s="40"/>
+      <c r="JL18" s="40"/>
+      <c r="JM18" s="40"/>
+      <c r="KY18" s="40"/>
+      <c r="KZ18" s="40"/>
+      <c r="MN18" s="40"/>
+      <c r="MO18" s="40"/>
+      <c r="NE18" s="40"/>
+      <c r="NF18" s="40"/>
+      <c r="OB18" s="40"/>
+      <c r="OC18" s="40"/>
+      <c r="PA18" s="40"/>
+      <c r="PB18" s="40"/>
+      <c r="PS18" s="40"/>
+      <c r="PT18" s="40"/>
+      <c r="RI18" s="40"/>
+      <c r="RJ18" s="40"/>
+      <c r="RK18" s="40"/>
+      <c r="RL18" s="40"/>
+      <c r="RM18" s="40"/>
+      <c r="RN18" s="40"/>
+      <c r="RO18" s="40"/>
+      <c r="RP18" s="40"/>
+      <c r="RQ18" s="40"/>
+      <c r="RR18" s="40"/>
+      <c r="RS18" s="40"/>
+      <c r="RT18" s="40"/>
+      <c r="RU18" s="40"/>
+      <c r="RV18" s="40"/>
+      <c r="RW18" s="40"/>
+      <c r="RX18" s="40"/>
+      <c r="RY18" s="40"/>
+      <c r="RZ18" s="40"/>
+      <c r="SA18" s="40"/>
+      <c r="SB18" s="40"/>
+      <c r="SC18" s="40"/>
+      <c r="SD18" s="40"/>
+      <c r="SE18" s="40"/>
+      <c r="SF18" s="40"/>
+      <c r="SG18" s="40"/>
+      <c r="SH18" s="40"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="BV19" s="39"/>
-      <c r="BW19" s="39"/>
-      <c r="BX19" s="39"/>
-      <c r="ET19" s="39"/>
-      <c r="EU19" s="39"/>
-      <c r="GN19" s="39"/>
-      <c r="GO19" s="39"/>
-      <c r="IN19" s="39"/>
-      <c r="IO19" s="39"/>
-      <c r="JL19" s="39"/>
-      <c r="JM19" s="39"/>
-      <c r="KY19" s="40"/>
-      <c r="KZ19" s="40"/>
-      <c r="MN19" s="40"/>
-      <c r="MO19" s="40"/>
-      <c r="NE19" s="39"/>
-      <c r="NF19" s="39"/>
-      <c r="OB19" s="39"/>
-      <c r="OC19" s="39"/>
-      <c r="PA19" s="39"/>
-      <c r="PB19" s="39"/>
-      <c r="PS19" s="39"/>
-      <c r="PT19" s="39"/>
-      <c r="RI19" s="39"/>
-      <c r="RJ19" s="39"/>
-      <c r="RK19" s="39"/>
-      <c r="RL19" s="39"/>
-      <c r="RM19" s="39"/>
-      <c r="RN19" s="39"/>
-      <c r="RO19" s="39"/>
-      <c r="RP19" s="39"/>
-      <c r="RQ19" s="39"/>
-      <c r="RR19" s="39"/>
-      <c r="RS19" s="39"/>
-      <c r="RT19" s="39"/>
-      <c r="RU19" s="39"/>
-      <c r="RV19" s="39"/>
-      <c r="RW19" s="39"/>
-      <c r="RX19" s="39"/>
-      <c r="RY19" s="39"/>
-      <c r="RZ19" s="39"/>
-      <c r="SA19" s="39"/>
-      <c r="SB19" s="39"/>
-      <c r="SC19" s="39"/>
-      <c r="SD19" s="39"/>
-      <c r="SE19" s="39"/>
-      <c r="SF19" s="39"/>
-      <c r="SG19" s="39"/>
-      <c r="SH19" s="39"/>
+      <c r="A19" s="41"/>
+      <c r="BV19" s="40"/>
+      <c r="BW19" s="40"/>
+      <c r="BX19" s="40"/>
+      <c r="ET19" s="40"/>
+      <c r="EU19" s="40"/>
+      <c r="GN19" s="40"/>
+      <c r="GO19" s="40"/>
+      <c r="IN19" s="40"/>
+      <c r="IO19" s="40"/>
+      <c r="JL19" s="40"/>
+      <c r="JM19" s="40"/>
+      <c r="KY19" s="41"/>
+      <c r="KZ19" s="41"/>
+      <c r="MN19" s="41"/>
+      <c r="MO19" s="41"/>
+      <c r="NE19" s="40"/>
+      <c r="NF19" s="40"/>
+      <c r="OB19" s="40"/>
+      <c r="OC19" s="40"/>
+      <c r="PA19" s="40"/>
+      <c r="PB19" s="40"/>
+      <c r="PS19" s="40"/>
+      <c r="PT19" s="40"/>
+      <c r="RI19" s="40"/>
+      <c r="RJ19" s="40"/>
+      <c r="RK19" s="40"/>
+      <c r="RL19" s="40"/>
+      <c r="RM19" s="40"/>
+      <c r="RN19" s="40"/>
+      <c r="RO19" s="40"/>
+      <c r="RP19" s="40"/>
+      <c r="RQ19" s="40"/>
+      <c r="RR19" s="40"/>
+      <c r="RS19" s="40"/>
+      <c r="RT19" s="40"/>
+      <c r="RU19" s="40"/>
+      <c r="RV19" s="40"/>
+      <c r="RW19" s="40"/>
+      <c r="RX19" s="40"/>
+      <c r="RY19" s="40"/>
+      <c r="RZ19" s="40"/>
+      <c r="SA19" s="40"/>
+      <c r="SB19" s="40"/>
+      <c r="SC19" s="40"/>
+      <c r="SD19" s="40"/>
+      <c r="SE19" s="40"/>
+      <c r="SF19" s="40"/>
+      <c r="SG19" s="40"/>
+      <c r="SH19" s="40"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="BV20" s="39"/>
-      <c r="BW20" s="39"/>
-      <c r="BX20" s="39"/>
-      <c r="ET20" s="39"/>
-      <c r="EU20" s="39"/>
-      <c r="GN20" s="39"/>
-      <c r="GO20" s="39"/>
-      <c r="IN20" s="39"/>
-      <c r="IO20" s="39"/>
-      <c r="JL20" s="39"/>
-      <c r="JM20" s="39"/>
-      <c r="KY20" s="39"/>
-      <c r="KZ20" s="39"/>
-      <c r="NE20" s="39"/>
-      <c r="NF20" s="39"/>
-      <c r="OB20" s="39"/>
-      <c r="OC20" s="39"/>
-      <c r="PA20" s="39"/>
-      <c r="PB20" s="39"/>
-      <c r="PS20" s="39"/>
-      <c r="PT20" s="39"/>
-      <c r="RI20" s="39"/>
-      <c r="RJ20" s="39"/>
-      <c r="RK20" s="39"/>
-      <c r="RL20" s="39"/>
-      <c r="RM20" s="39"/>
-      <c r="RN20" s="39"/>
-      <c r="RO20" s="39"/>
-      <c r="RP20" s="39"/>
-      <c r="RQ20" s="39"/>
-      <c r="RR20" s="39"/>
-      <c r="RS20" s="39"/>
-      <c r="RT20" s="39"/>
-      <c r="RU20" s="39"/>
-      <c r="RV20" s="39"/>
-      <c r="RW20" s="39"/>
-      <c r="RX20" s="39"/>
-      <c r="RY20" s="39"/>
-      <c r="RZ20" s="39"/>
-      <c r="SA20" s="39"/>
-      <c r="SB20" s="39"/>
-      <c r="SC20" s="39"/>
-      <c r="SD20" s="39"/>
-      <c r="SE20" s="39"/>
-      <c r="SF20" s="39"/>
-      <c r="SG20" s="39"/>
-      <c r="SH20" s="39"/>
+      <c r="A20" s="41"/>
+      <c r="BV20" s="40"/>
+      <c r="BW20" s="40"/>
+      <c r="BX20" s="40"/>
+      <c r="ET20" s="40"/>
+      <c r="EU20" s="40"/>
+      <c r="GN20" s="40"/>
+      <c r="GO20" s="40"/>
+      <c r="IN20" s="40"/>
+      <c r="IO20" s="40"/>
+      <c r="JL20" s="40"/>
+      <c r="JM20" s="40"/>
+      <c r="KY20" s="40"/>
+      <c r="KZ20" s="40"/>
+      <c r="NE20" s="40"/>
+      <c r="NF20" s="40"/>
+      <c r="OB20" s="40"/>
+      <c r="OC20" s="40"/>
+      <c r="PA20" s="40"/>
+      <c r="PB20" s="40"/>
+      <c r="PS20" s="40"/>
+      <c r="PT20" s="40"/>
+      <c r="RI20" s="40"/>
+      <c r="RJ20" s="40"/>
+      <c r="RK20" s="40"/>
+      <c r="RL20" s="40"/>
+      <c r="RM20" s="40"/>
+      <c r="RN20" s="40"/>
+      <c r="RO20" s="40"/>
+      <c r="RP20" s="40"/>
+      <c r="RQ20" s="40"/>
+      <c r="RR20" s="40"/>
+      <c r="RS20" s="40"/>
+      <c r="RT20" s="40"/>
+      <c r="RU20" s="40"/>
+      <c r="RV20" s="40"/>
+      <c r="RW20" s="40"/>
+      <c r="RX20" s="40"/>
+      <c r="RY20" s="40"/>
+      <c r="RZ20" s="40"/>
+      <c r="SA20" s="40"/>
+      <c r="SB20" s="40"/>
+      <c r="SC20" s="40"/>
+      <c r="SD20" s="40"/>
+      <c r="SE20" s="40"/>
+      <c r="SF20" s="40"/>
+      <c r="SG20" s="40"/>
+      <c r="SH20" s="40"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="BV21" s="39"/>
-      <c r="BW21" s="39"/>
-      <c r="BX21" s="39"/>
-      <c r="ET21" s="39"/>
-      <c r="EU21" s="39"/>
-      <c r="GN21" s="39"/>
-      <c r="GO21" s="39"/>
-      <c r="IN21" s="39"/>
-      <c r="IO21" s="39"/>
-      <c r="JL21" s="39"/>
-      <c r="JM21" s="39"/>
-      <c r="KY21" s="39"/>
-      <c r="KZ21" s="39"/>
-      <c r="NE21" s="39"/>
-      <c r="NF21" s="39"/>
-      <c r="OB21" s="39"/>
-      <c r="OC21" s="39"/>
-      <c r="PS21" s="39"/>
-      <c r="PT21" s="39"/>
+      <c r="A21" s="41"/>
+      <c r="BV21" s="40"/>
+      <c r="BW21" s="40"/>
+      <c r="BX21" s="40"/>
+      <c r="ET21" s="40"/>
+      <c r="EU21" s="40"/>
+      <c r="GN21" s="40"/>
+      <c r="GO21" s="40"/>
+      <c r="IN21" s="40"/>
+      <c r="IO21" s="40"/>
+      <c r="JL21" s="40"/>
+      <c r="JM21" s="40"/>
+      <c r="KY21" s="40"/>
+      <c r="KZ21" s="40"/>
+      <c r="NE21" s="40"/>
+      <c r="NF21" s="40"/>
+      <c r="OB21" s="40"/>
+      <c r="OC21" s="40"/>
+      <c r="PS21" s="40"/>
+      <c r="PT21" s="40"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="BV22" s="39"/>
-      <c r="BW22" s="39"/>
-      <c r="BX22" s="39"/>
-      <c r="ET22" s="39"/>
-      <c r="EU22" s="39"/>
-      <c r="GN22" s="39"/>
-      <c r="GO22" s="39"/>
-      <c r="IN22" s="39"/>
-      <c r="IO22" s="39"/>
-      <c r="JL22" s="39"/>
-      <c r="JM22" s="39"/>
-      <c r="KY22" s="39"/>
-      <c r="KZ22" s="39"/>
-      <c r="NE22" s="39"/>
-      <c r="NF22" s="39"/>
-      <c r="OB22" s="39"/>
-      <c r="OC22" s="39"/>
-      <c r="PS22" s="39"/>
-      <c r="PT22" s="39"/>
+      <c r="A22" s="41"/>
+      <c r="BV22" s="40"/>
+      <c r="BW22" s="40"/>
+      <c r="BX22" s="40"/>
+      <c r="ET22" s="40"/>
+      <c r="EU22" s="40"/>
+      <c r="GN22" s="40"/>
+      <c r="GO22" s="40"/>
+      <c r="IN22" s="40"/>
+      <c r="IO22" s="40"/>
+      <c r="JL22" s="40"/>
+      <c r="JM22" s="40"/>
+      <c r="KY22" s="40"/>
+      <c r="KZ22" s="40"/>
+      <c r="NE22" s="40"/>
+      <c r="NF22" s="40"/>
+      <c r="OB22" s="40"/>
+      <c r="OC22" s="40"/>
+      <c r="PS22" s="40"/>
+      <c r="PT22" s="40"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="BV23" s="39"/>
-      <c r="BW23" s="39"/>
-      <c r="BX23" s="39"/>
-      <c r="ET23" s="39"/>
-      <c r="EU23" s="39"/>
-      <c r="GN23" s="39"/>
-      <c r="GO23" s="39"/>
-      <c r="IN23" s="39"/>
-      <c r="IO23" s="39"/>
-      <c r="JL23" s="39"/>
-      <c r="JM23" s="39"/>
-      <c r="KY23" s="39"/>
-      <c r="KZ23" s="39"/>
-      <c r="NE23" s="39"/>
-      <c r="NF23" s="39"/>
-      <c r="OB23" s="39"/>
-      <c r="OC23" s="39"/>
-      <c r="PS23" s="39"/>
-      <c r="PT23" s="39"/>
+      <c r="A23" s="41"/>
+      <c r="BV23" s="40"/>
+      <c r="BW23" s="40"/>
+      <c r="BX23" s="40"/>
+      <c r="ET23" s="40"/>
+      <c r="EU23" s="40"/>
+      <c r="GN23" s="40"/>
+      <c r="GO23" s="40"/>
+      <c r="IN23" s="40"/>
+      <c r="IO23" s="40"/>
+      <c r="JL23" s="40"/>
+      <c r="JM23" s="40"/>
+      <c r="KY23" s="40"/>
+      <c r="KZ23" s="40"/>
+      <c r="NE23" s="40"/>
+      <c r="NF23" s="40"/>
+      <c r="OB23" s="40"/>
+      <c r="OC23" s="40"/>
+      <c r="PS23" s="40"/>
+      <c r="PT23" s="40"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="BV24" s="39"/>
-      <c r="BW24" s="39"/>
-      <c r="BX24" s="39"/>
-      <c r="ET24" s="39"/>
-      <c r="EU24" s="39"/>
-      <c r="GN24" s="39"/>
-      <c r="GO24" s="39"/>
-      <c r="IN24" s="39"/>
-      <c r="IO24" s="39"/>
-      <c r="JL24" s="42"/>
-      <c r="JM24" s="42"/>
-      <c r="KY24" s="39"/>
-      <c r="KZ24" s="39"/>
-      <c r="NE24" s="39"/>
-      <c r="NF24" s="39"/>
-      <c r="OB24" s="39"/>
-      <c r="OC24" s="39"/>
-      <c r="PS24" s="39"/>
-      <c r="PT24" s="39"/>
+      <c r="BV24" s="40"/>
+      <c r="BW24" s="40"/>
+      <c r="BX24" s="40"/>
+      <c r="ET24" s="40"/>
+      <c r="EU24" s="40"/>
+      <c r="GN24" s="40"/>
+      <c r="GO24" s="40"/>
+      <c r="IN24" s="40"/>
+      <c r="IO24" s="40"/>
+      <c r="JL24" s="43"/>
+      <c r="JM24" s="43"/>
+      <c r="KY24" s="40"/>
+      <c r="KZ24" s="40"/>
+      <c r="NE24" s="40"/>
+      <c r="NF24" s="40"/>
+      <c r="OB24" s="40"/>
+      <c r="OC24" s="40"/>
+      <c r="PS24" s="40"/>
+      <c r="PT24" s="40"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="BV25" s="39"/>
-      <c r="BW25" s="39"/>
-      <c r="BX25" s="39"/>
-      <c r="ET25" s="39"/>
-      <c r="EU25" s="39"/>
-      <c r="GN25" s="39"/>
-      <c r="GO25" s="39"/>
-      <c r="IN25" s="39"/>
-      <c r="IO25" s="39"/>
-      <c r="JL25" s="42"/>
-      <c r="JM25" s="42"/>
-      <c r="KY25" s="39"/>
-      <c r="KZ25" s="39"/>
-      <c r="NE25" s="39"/>
-      <c r="NF25" s="39"/>
-      <c r="OB25" s="39"/>
-      <c r="OC25" s="39"/>
-      <c r="PS25" s="39"/>
-      <c r="PT25" s="39"/>
+      <c r="BV25" s="40"/>
+      <c r="BW25" s="40"/>
+      <c r="BX25" s="40"/>
+      <c r="ET25" s="40"/>
+      <c r="EU25" s="40"/>
+      <c r="GN25" s="40"/>
+      <c r="GO25" s="40"/>
+      <c r="IN25" s="40"/>
+      <c r="IO25" s="40"/>
+      <c r="JL25" s="43"/>
+      <c r="JM25" s="43"/>
+      <c r="KY25" s="40"/>
+      <c r="KZ25" s="40"/>
+      <c r="NE25" s="40"/>
+      <c r="NF25" s="40"/>
+      <c r="OB25" s="40"/>
+      <c r="OC25" s="40"/>
+      <c r="PS25" s="40"/>
+      <c r="PT25" s="40"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="BV26" s="39"/>
-      <c r="BW26" s="39"/>
-      <c r="BX26" s="39"/>
-      <c r="ET26" s="39"/>
-      <c r="EU26" s="39"/>
-      <c r="GN26" s="39"/>
-      <c r="GO26" s="39"/>
-      <c r="IN26" s="39"/>
-      <c r="IO26" s="39"/>
-      <c r="JL26" s="39"/>
-      <c r="JM26" s="39"/>
-      <c r="KY26" s="39"/>
-      <c r="KZ26" s="39"/>
-      <c r="OB26" s="39"/>
-      <c r="OC26" s="39"/>
-      <c r="PS26" s="39"/>
-      <c r="PT26" s="39"/>
+      <c r="BV26" s="40"/>
+      <c r="BW26" s="40"/>
+      <c r="BX26" s="40"/>
+      <c r="ET26" s="40"/>
+      <c r="EU26" s="40"/>
+      <c r="GN26" s="40"/>
+      <c r="GO26" s="40"/>
+      <c r="IN26" s="40"/>
+      <c r="IO26" s="40"/>
+      <c r="JL26" s="40"/>
+      <c r="JM26" s="40"/>
+      <c r="KY26" s="40"/>
+      <c r="KZ26" s="40"/>
+      <c r="OB26" s="40"/>
+      <c r="OC26" s="40"/>
+      <c r="PS26" s="40"/>
+      <c r="PT26" s="40"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="BV27" s="39"/>
-      <c r="BW27" s="39"/>
-      <c r="BX27" s="39"/>
-      <c r="ET27" s="39"/>
-      <c r="EU27" s="39"/>
-      <c r="GN27" s="39"/>
-      <c r="GO27" s="39"/>
-      <c r="JL27" s="42"/>
-      <c r="JM27" s="42"/>
-      <c r="KY27" s="39"/>
-      <c r="KZ27" s="39"/>
-      <c r="PS27" s="39"/>
-      <c r="PT27" s="39"/>
+      <c r="BV27" s="40"/>
+      <c r="BW27" s="40"/>
+      <c r="BX27" s="40"/>
+      <c r="ET27" s="40"/>
+      <c r="EU27" s="40"/>
+      <c r="GN27" s="40"/>
+      <c r="GO27" s="40"/>
+      <c r="JL27" s="43"/>
+      <c r="JM27" s="43"/>
+      <c r="KY27" s="40"/>
+      <c r="KZ27" s="40"/>
+      <c r="PS27" s="40"/>
+      <c r="PT27" s="40"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="BV28" s="39"/>
-      <c r="BW28" s="39"/>
-      <c r="BX28" s="39"/>
-      <c r="ET28" s="39"/>
-      <c r="EU28" s="39"/>
-      <c r="GN28" s="39"/>
-      <c r="GO28" s="39"/>
-      <c r="JL28" s="42"/>
-      <c r="JM28" s="42"/>
-      <c r="KY28" s="39"/>
-      <c r="KZ28" s="39"/>
-      <c r="PS28" s="39"/>
-      <c r="PT28" s="39"/>
+      <c r="BV28" s="40"/>
+      <c r="BW28" s="40"/>
+      <c r="BX28" s="40"/>
+      <c r="ET28" s="40"/>
+      <c r="EU28" s="40"/>
+      <c r="GN28" s="40"/>
+      <c r="GO28" s="40"/>
+      <c r="JL28" s="43"/>
+      <c r="JM28" s="43"/>
+      <c r="KY28" s="40"/>
+      <c r="KZ28" s="40"/>
+      <c r="PS28" s="40"/>
+      <c r="PT28" s="40"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="BV29" s="39"/>
-      <c r="BW29" s="39"/>
-      <c r="BX29" s="39"/>
-      <c r="ET29" s="39"/>
-      <c r="EU29" s="39"/>
-      <c r="GN29" s="39"/>
-      <c r="GO29" s="39"/>
-      <c r="JL29" s="42"/>
-      <c r="JM29" s="42"/>
-      <c r="KY29" s="39"/>
-      <c r="KZ29" s="39"/>
-      <c r="PS29" s="39"/>
-      <c r="PT29" s="39"/>
+      <c r="BV29" s="40"/>
+      <c r="BW29" s="40"/>
+      <c r="BX29" s="40"/>
+      <c r="ET29" s="40"/>
+      <c r="EU29" s="40"/>
+      <c r="GN29" s="40"/>
+      <c r="GO29" s="40"/>
+      <c r="JL29" s="43"/>
+      <c r="JM29" s="43"/>
+      <c r="KY29" s="40"/>
+      <c r="KZ29" s="40"/>
+      <c r="PS29" s="40"/>
+      <c r="PT29" s="40"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="BV30" s="39"/>
-      <c r="BW30" s="39"/>
-      <c r="BX30" s="39"/>
-      <c r="ET30" s="39"/>
-      <c r="EU30" s="39"/>
-      <c r="GN30" s="39"/>
-      <c r="GO30" s="39"/>
-      <c r="JL30" s="39"/>
-      <c r="JM30" s="39"/>
-      <c r="KY30" s="39"/>
-      <c r="KZ30" s="39"/>
+      <c r="BV30" s="40"/>
+      <c r="BW30" s="40"/>
+      <c r="BX30" s="40"/>
+      <c r="ET30" s="40"/>
+      <c r="EU30" s="40"/>
+      <c r="GN30" s="40"/>
+      <c r="GO30" s="40"/>
+      <c r="JL30" s="40"/>
+      <c r="JM30" s="40"/>
+      <c r="KY30" s="40"/>
+      <c r="KZ30" s="40"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="BV31" s="39"/>
-      <c r="BW31" s="40"/>
-      <c r="BX31" s="40"/>
-      <c r="ET31" s="39"/>
-      <c r="EU31" s="39"/>
-      <c r="GN31" s="39"/>
-      <c r="GO31" s="39"/>
-      <c r="JL31" s="39"/>
-      <c r="JM31" s="39"/>
-      <c r="KY31" s="39"/>
-      <c r="KZ31" s="39"/>
+      <c r="BV31" s="40"/>
+      <c r="BW31" s="41"/>
+      <c r="BX31" s="41"/>
+      <c r="ET31" s="40"/>
+      <c r="EU31" s="40"/>
+      <c r="GN31" s="40"/>
+      <c r="GO31" s="40"/>
+      <c r="JL31" s="40"/>
+      <c r="JM31" s="40"/>
+      <c r="KY31" s="40"/>
+      <c r="KZ31" s="40"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="BV32" s="39"/>
-      <c r="BW32" s="39"/>
-      <c r="BX32" s="39"/>
-      <c r="GN32" s="39"/>
-      <c r="GO32" s="39"/>
-      <c r="JL32" s="39"/>
-      <c r="JM32" s="39"/>
-      <c r="KY32" s="39"/>
-      <c r="KZ32" s="39"/>
+      <c r="BV32" s="40"/>
+      <c r="BW32" s="40"/>
+      <c r="BX32" s="40"/>
+      <c r="GN32" s="40"/>
+      <c r="GO32" s="40"/>
+      <c r="JL32" s="40"/>
+      <c r="JM32" s="40"/>
+      <c r="KY32" s="40"/>
+      <c r="KZ32" s="40"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="BV33" s="39"/>
-      <c r="BW33" s="39"/>
-      <c r="BX33" s="39"/>
-      <c r="GN33" s="39"/>
-      <c r="GO33" s="39"/>
-      <c r="JL33" s="39"/>
-      <c r="JM33" s="39"/>
-      <c r="KY33" s="39"/>
-      <c r="KZ33" s="39"/>
+      <c r="BV33" s="40"/>
+      <c r="BW33" s="40"/>
+      <c r="BX33" s="40"/>
+      <c r="GN33" s="40"/>
+      <c r="GO33" s="40"/>
+      <c r="JL33" s="40"/>
+      <c r="JM33" s="40"/>
+      <c r="KY33" s="40"/>
+      <c r="KZ33" s="40"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="BV34" s="39"/>
-      <c r="BW34" s="39"/>
-      <c r="BX34" s="39"/>
-      <c r="GN34" s="39"/>
-      <c r="GO34" s="39"/>
-      <c r="JL34" s="39"/>
-      <c r="JM34" s="39"/>
-      <c r="KY34" s="39"/>
-      <c r="KZ34" s="39"/>
+      <c r="BV34" s="40"/>
+      <c r="BW34" s="40"/>
+      <c r="BX34" s="40"/>
+      <c r="GN34" s="40"/>
+      <c r="GO34" s="40"/>
+      <c r="JL34" s="40"/>
+      <c r="JM34" s="40"/>
+      <c r="KY34" s="40"/>
+      <c r="KZ34" s="40"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="BV35" s="39"/>
-      <c r="BW35" s="39"/>
-      <c r="BX35" s="39"/>
-      <c r="GN35" s="39"/>
-      <c r="GO35" s="39"/>
-      <c r="JL35" s="39"/>
-      <c r="JM35" s="39"/>
-      <c r="KY35" s="39"/>
-      <c r="KZ35" s="39"/>
+      <c r="BV35" s="40"/>
+      <c r="BW35" s="40"/>
+      <c r="BX35" s="40"/>
+      <c r="GN35" s="40"/>
+      <c r="GO35" s="40"/>
+      <c r="JL35" s="40"/>
+      <c r="JM35" s="40"/>
+      <c r="KY35" s="40"/>
+      <c r="KZ35" s="40"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="BV36" s="39"/>
-      <c r="BW36" s="39"/>
-      <c r="BX36" s="39"/>
-      <c r="GN36" s="39"/>
-      <c r="GO36" s="39"/>
-      <c r="JL36" s="39"/>
-      <c r="JM36" s="39"/>
-      <c r="KY36" s="39"/>
-      <c r="KZ36" s="39"/>
+      <c r="BV36" s="40"/>
+      <c r="BW36" s="40"/>
+      <c r="BX36" s="40"/>
+      <c r="GN36" s="40"/>
+      <c r="GO36" s="40"/>
+      <c r="JL36" s="40"/>
+      <c r="JM36" s="40"/>
+      <c r="KY36" s="40"/>
+      <c r="KZ36" s="40"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="BV37" s="39"/>
-      <c r="BW37" s="39"/>
-      <c r="BX37" s="39"/>
-      <c r="GN37" s="39"/>
-      <c r="GO37" s="39"/>
-      <c r="JL37" s="39"/>
-      <c r="JM37" s="39"/>
-      <c r="KY37" s="39"/>
-      <c r="KZ37" s="39"/>
+      <c r="BV37" s="40"/>
+      <c r="BW37" s="40"/>
+      <c r="BX37" s="40"/>
+      <c r="GN37" s="40"/>
+      <c r="GO37" s="40"/>
+      <c r="JL37" s="40"/>
+      <c r="JM37" s="40"/>
+      <c r="KY37" s="40"/>
+      <c r="KZ37" s="40"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="BV38" s="39"/>
-      <c r="BW38" s="39"/>
-      <c r="BX38" s="39"/>
-      <c r="GN38" s="39"/>
-      <c r="GO38" s="39"/>
-      <c r="JL38" s="39"/>
-      <c r="JM38" s="39"/>
-      <c r="KY38" s="39"/>
-      <c r="KZ38" s="39"/>
+      <c r="BV38" s="40"/>
+      <c r="BW38" s="40"/>
+      <c r="BX38" s="40"/>
+      <c r="GN38" s="40"/>
+      <c r="GO38" s="40"/>
+      <c r="JL38" s="40"/>
+      <c r="JM38" s="40"/>
+      <c r="KY38" s="40"/>
+      <c r="KZ38" s="40"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="BV39" s="39"/>
-      <c r="BW39" s="39"/>
-      <c r="BX39" s="39"/>
-      <c r="GN39" s="39"/>
-      <c r="GO39" s="39"/>
-      <c r="JL39" s="39"/>
-      <c r="JM39" s="39"/>
-      <c r="KY39" s="39"/>
-      <c r="KZ39" s="39"/>
+      <c r="BV39" s="40"/>
+      <c r="BW39" s="40"/>
+      <c r="BX39" s="40"/>
+      <c r="GN39" s="40"/>
+      <c r="GO39" s="40"/>
+      <c r="JL39" s="40"/>
+      <c r="JM39" s="40"/>
+      <c r="KY39" s="40"/>
+      <c r="KZ39" s="40"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="BV40" s="39"/>
-      <c r="BW40" s="40"/>
-      <c r="BX40" s="40"/>
-      <c r="GN40" s="39"/>
-      <c r="GO40" s="39"/>
-      <c r="JL40" s="39"/>
-      <c r="JM40" s="39"/>
-      <c r="KY40" s="39"/>
-      <c r="KZ40" s="39"/>
+      <c r="BV40" s="40"/>
+      <c r="BW40" s="41"/>
+      <c r="BX40" s="41"/>
+      <c r="GN40" s="40"/>
+      <c r="GO40" s="40"/>
+      <c r="JL40" s="40"/>
+      <c r="JM40" s="40"/>
+      <c r="KY40" s="40"/>
+      <c r="KZ40" s="40"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="BV41" s="45"/>
-      <c r="BW41" s="39"/>
-      <c r="BX41" s="39"/>
-      <c r="GN41" s="39"/>
-      <c r="GO41" s="39"/>
-      <c r="KY41" s="39"/>
-      <c r="KZ41" s="39"/>
+      <c r="BV41" s="46"/>
+      <c r="BW41" s="40"/>
+      <c r="BX41" s="40"/>
+      <c r="GN41" s="40"/>
+      <c r="GO41" s="40"/>
+      <c r="KY41" s="40"/>
+      <c r="KZ41" s="40"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="BV42" s="39"/>
-      <c r="BW42" s="40"/>
-      <c r="BX42" s="40"/>
-      <c r="GN42" s="39"/>
-      <c r="GO42" s="39"/>
-      <c r="KY42" s="39"/>
-      <c r="KZ42" s="39"/>
+      <c r="BV42" s="40"/>
+      <c r="BW42" s="41"/>
+      <c r="BX42" s="41"/>
+      <c r="GN42" s="40"/>
+      <c r="GO42" s="40"/>
+      <c r="KY42" s="40"/>
+      <c r="KZ42" s="40"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="BV43" s="39"/>
-      <c r="BW43" s="39"/>
-      <c r="BX43" s="39"/>
-      <c r="GN43" s="39"/>
-      <c r="GO43" s="39"/>
+      <c r="BV43" s="40"/>
+      <c r="BW43" s="40"/>
+      <c r="BX43" s="40"/>
+      <c r="GN43" s="40"/>
+      <c r="GO43" s="40"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="BV44" s="39"/>
-      <c r="BW44" s="39"/>
-      <c r="BX44" s="39"/>
-      <c r="GN44" s="39"/>
-      <c r="GO44" s="39"/>
+      <c r="BV44" s="40"/>
+      <c r="BW44" s="40"/>
+      <c r="BX44" s="40"/>
+      <c r="GN44" s="40"/>
+      <c r="GO44" s="40"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="BV45" s="39"/>
-      <c r="BW45" s="39"/>
-      <c r="BX45" s="39"/>
-      <c r="GN45" s="39"/>
-      <c r="GO45" s="39"/>
+      <c r="BV45" s="40"/>
+      <c r="BW45" s="40"/>
+      <c r="BX45" s="40"/>
+      <c r="GN45" s="40"/>
+      <c r="GO45" s="40"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="BV46" s="39"/>
-      <c r="BW46" s="39"/>
-      <c r="BX46" s="39"/>
-      <c r="GN46" s="39"/>
-      <c r="GO46" s="39"/>
+      <c r="BV46" s="40"/>
+      <c r="BW46" s="40"/>
+      <c r="BX46" s="40"/>
+      <c r="GN46" s="40"/>
+      <c r="GO46" s="40"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="BV47" s="39"/>
-      <c r="BW47" s="39"/>
-      <c r="BX47" s="39"/>
-      <c r="GN47" s="39"/>
-      <c r="GO47" s="39"/>
+      <c r="BV47" s="40"/>
+      <c r="BW47" s="40"/>
+      <c r="BX47" s="40"/>
+      <c r="GN47" s="40"/>
+      <c r="GO47" s="40"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="BV48" s="39"/>
-      <c r="BW48" s="39"/>
-      <c r="BX48" s="39"/>
-      <c r="GN48" s="39"/>
-      <c r="GO48" s="39"/>
+      <c r="BV48" s="40"/>
+      <c r="BW48" s="40"/>
+      <c r="BX48" s="40"/>
+      <c r="GN48" s="40"/>
+      <c r="GO48" s="40"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="BV49" s="39"/>
-      <c r="BW49" s="39"/>
-      <c r="BX49" s="39"/>
-      <c r="GN49" s="39"/>
-      <c r="GO49" s="39"/>
+      <c r="BV49" s="40"/>
+      <c r="BW49" s="40"/>
+      <c r="BX49" s="40"/>
+      <c r="GN49" s="40"/>
+      <c r="GO49" s="40"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="BV50" s="39"/>
-      <c r="BW50" s="39"/>
-      <c r="BX50" s="39"/>
-      <c r="GN50" s="39"/>
-      <c r="GO50" s="39"/>
+      <c r="BV50" s="40"/>
+      <c r="BW50" s="40"/>
+      <c r="BX50" s="40"/>
+      <c r="GN50" s="40"/>
+      <c r="GO50" s="40"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="BV51" s="39"/>
-      <c r="BW51" s="39"/>
-      <c r="BX51" s="39"/>
-      <c r="GN51" s="39"/>
-      <c r="GO51" s="39"/>
+      <c r="BV51" s="40"/>
+      <c r="BW51" s="40"/>
+      <c r="BX51" s="40"/>
+      <c r="GN51" s="40"/>
+      <c r="GO51" s="40"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="BV52" s="39"/>
-      <c r="BW52" s="39"/>
-      <c r="BX52" s="39"/>
-      <c r="GN52" s="39"/>
-      <c r="GO52" s="39"/>
+      <c r="BV52" s="40"/>
+      <c r="BW52" s="40"/>
+      <c r="BX52" s="40"/>
+      <c r="GN52" s="40"/>
+      <c r="GO52" s="40"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="BV53" s="39"/>
-      <c r="BW53" s="39"/>
-      <c r="BX53" s="39"/>
-      <c r="GN53" s="39"/>
-      <c r="GO53" s="39"/>
+      <c r="BV53" s="40"/>
+      <c r="BW53" s="40"/>
+      <c r="BX53" s="40"/>
+      <c r="GN53" s="40"/>
+      <c r="GO53" s="40"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="BV54" s="39"/>
-      <c r="BW54" s="39"/>
-      <c r="BX54" s="39"/>
-      <c r="GN54" s="42"/>
-      <c r="GO54" s="42"/>
+      <c r="BV54" s="40"/>
+      <c r="BW54" s="40"/>
+      <c r="BX54" s="40"/>
+      <c r="GN54" s="43"/>
+      <c r="GO54" s="43"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="BV55" s="39"/>
-      <c r="BW55" s="39"/>
-      <c r="BX55" s="39"/>
+      <c r="BV55" s="40"/>
+      <c r="BW55" s="40"/>
+      <c r="BX55" s="40"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="BV56" s="39"/>
-      <c r="BW56" s="39"/>
-      <c r="BX56" s="39"/>
+      <c r="BV56" s="40"/>
+      <c r="BW56" s="40"/>
+      <c r="BX56" s="40"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="BV57" s="39"/>
-      <c r="BW57" s="39"/>
-      <c r="BX57" s="39"/>
+      <c r="BV57" s="40"/>
+      <c r="BW57" s="40"/>
+      <c r="BX57" s="40"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="BV58" s="39"/>
-      <c r="BW58" s="39"/>
-      <c r="BX58" s="39"/>
+      <c r="BV58" s="40"/>
+      <c r="BW58" s="40"/>
+      <c r="BX58" s="40"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="BV59" s="39"/>
-      <c r="BW59" s="39"/>
-      <c r="BX59" s="39"/>
+      <c r="BV59" s="40"/>
+      <c r="BW59" s="40"/>
+      <c r="BX59" s="40"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="BV60" s="39"/>
-      <c r="BW60" s="39"/>
-      <c r="BX60" s="39"/>
+      <c r="BV60" s="40"/>
+      <c r="BW60" s="40"/>
+      <c r="BX60" s="40"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="BV61" s="39"/>
-      <c r="BW61" s="39"/>
-      <c r="BX61" s="39"/>
+      <c r="BV61" s="40"/>
+      <c r="BW61" s="40"/>
+      <c r="BX61" s="40"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="BV62" s="39"/>
-      <c r="BW62" s="39"/>
-      <c r="BX62" s="39"/>
+      <c r="BV62" s="40"/>
+      <c r="BW62" s="40"/>
+      <c r="BX62" s="40"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="BV63" s="39"/>
-      <c r="BW63" s="39"/>
-      <c r="BX63" s="39"/>
+      <c r="BV63" s="40"/>
+      <c r="BW63" s="40"/>
+      <c r="BX63" s="40"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="BV64" s="39"/>
-      <c r="BW64" s="39"/>
-      <c r="BX64" s="39"/>
+      <c r="BV64" s="40"/>
+      <c r="BW64" s="40"/>
+      <c r="BX64" s="40"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="BV65" s="39"/>
-      <c r="BW65" s="39"/>
-      <c r="BX65" s="39"/>
+      <c r="BV65" s="40"/>
+      <c r="BW65" s="40"/>
+      <c r="BX65" s="40"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="BV66" s="39"/>
-      <c r="BW66" s="39"/>
-      <c r="BX66" s="39"/>
+      <c r="BV66" s="40"/>
+      <c r="BW66" s="40"/>
+      <c r="BX66" s="40"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="BV67" s="39"/>
-      <c r="BW67" s="39"/>
-      <c r="BX67" s="39"/>
+      <c r="BV67" s="40"/>
+      <c r="BW67" s="40"/>
+      <c r="BX67" s="40"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="BV68" s="39"/>
-      <c r="BW68" s="39"/>
-      <c r="BX68" s="39"/>
+      <c r="BV68" s="40"/>
+      <c r="BW68" s="40"/>
+      <c r="BX68" s="40"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="BV69" s="39"/>
-      <c r="BW69" s="39"/>
-      <c r="BX69" s="39"/>
+      <c r="BV69" s="40"/>
+      <c r="BW69" s="40"/>
+      <c r="BX69" s="40"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="BV70" s="39"/>
-      <c r="BW70" s="39"/>
-      <c r="BX70" s="39"/>
+      <c r="BV70" s="40"/>
+      <c r="BW70" s="40"/>
+      <c r="BX70" s="40"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="BV71" s="39"/>
-      <c r="BW71" s="39"/>
-      <c r="BX71" s="39"/>
+      <c r="BV71" s="40"/>
+      <c r="BW71" s="40"/>
+      <c r="BX71" s="40"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="BV72" s="39"/>
-      <c r="BW72" s="39"/>
-      <c r="BX72" s="39"/>
+      <c r="BV72" s="40"/>
+      <c r="BW72" s="40"/>
+      <c r="BX72" s="40"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="BV73" s="39"/>
-      <c r="BW73" s="39"/>
-      <c r="BX73" s="39"/>
+      <c r="BV73" s="40"/>
+      <c r="BW73" s="40"/>
+      <c r="BX73" s="40"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="BV74" s="39"/>
-      <c r="BW74" s="40"/>
-      <c r="BX74" s="40"/>
+      <c r="BV74" s="40"/>
+      <c r="BW74" s="41"/>
+      <c r="BX74" s="41"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="BV75" s="39"/>
-      <c r="BW75" s="39"/>
-      <c r="BX75" s="39"/>
+      <c r="BV75" s="40"/>
+      <c r="BW75" s="40"/>
+      <c r="BX75" s="40"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="BV76" s="39"/>
-      <c r="BW76" s="39"/>
-      <c r="BX76" s="39"/>
+      <c r="BV76" s="40"/>
+      <c r="BW76" s="40"/>
+      <c r="BX76" s="40"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="BV77" s="39"/>
-      <c r="BW77" s="39"/>
-      <c r="BX77" s="39"/>
+      <c r="BV77" s="40"/>
+      <c r="BW77" s="40"/>
+      <c r="BX77" s="40"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="BV78" s="39"/>
+      <c r="BV78" s="40"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="BV79" s="39"/>
+      <c r="BV79" s="40"/>
     </row>
     <row r="80" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
@@ -7475,30 +7930,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="Z1:AJ1"/>
-    <mergeCell ref="AU1:BG1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="BW1:ES1"/>
-    <mergeCell ref="BR1:BV1"/>
-    <mergeCell ref="BM1:BQ1"/>
-    <mergeCell ref="BH1:BL1"/>
-    <mergeCell ref="SA1:SH1"/>
-    <mergeCell ref="RI1:RZ1"/>
-    <mergeCell ref="QU1:RH1"/>
-    <mergeCell ref="PS1:QT1"/>
-    <mergeCell ref="PA1:PR1"/>
-    <mergeCell ref="OB1:OZ1"/>
-    <mergeCell ref="NE1:OA1"/>
-    <mergeCell ref="MN1:ND1"/>
-    <mergeCell ref="GA1:GM1"/>
-    <mergeCell ref="KY1:MM1"/>
-    <mergeCell ref="IN1:JK1"/>
-    <mergeCell ref="GN1:IM1"/>
-    <mergeCell ref="FQ1:FY1"/>
-    <mergeCell ref="ET1:FP1"/>
-    <mergeCell ref="JL1:KX1"/>
-  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/app/data/base_export.xlsx
+++ b/app/data/base_export.xlsx
@@ -187,33 +187,33 @@
     <t>Temp (C°)</t>
   </si>
   <si>
+    <t>Antecedentes de Desnutrición</t>
+  </si>
+  <si>
+    <t>Antecedentes Prenatales</t>
+  </si>
+  <si>
+    <t>Antecedentes Historia Sexual</t>
+  </si>
+  <si>
+    <t>Alimentación</t>
+  </si>
+  <si>
+    <t>Fecha más reciente del Tratamiento del Parásito</t>
+  </si>
+  <si>
+    <t>Antecedentes Patologicos de Familiares</t>
+  </si>
+  <si>
+    <t>Cirugías Previas</t>
+  </si>
+  <si>
+    <t>Vacunas</t>
+  </si>
+  <si>
     <t>Tipo de Sangre</t>
   </si>
   <si>
-    <t>Antecedentes de Desnutrición</t>
-  </si>
-  <si>
-    <t>Antecedentes Prenatales</t>
-  </si>
-  <si>
-    <t>Antecedentes Historia Sexual</t>
-  </si>
-  <si>
-    <t>Alimentación</t>
-  </si>
-  <si>
-    <t>Fecha más reciente del Tratamiento del Parásito</t>
-  </si>
-  <si>
-    <t>Antecedentes Patologicos de Familiares</t>
-  </si>
-  <si>
-    <t>Cirugías Previas</t>
-  </si>
-  <si>
-    <t>Vacunas</t>
-  </si>
-  <si>
     <t>Fecha del Examen</t>
   </si>
   <si>
@@ -916,7 +916,7 @@
     <t>Carcinoma - NOS</t>
   </si>
   <si>
-    <t>Carcinoma de Células Escamosas invasor</t>
+    <t>Carcinoma de Células Escamosas Invasoras</t>
   </si>
   <si>
     <t>Otros - Atrofia</t>
@@ -1036,7 +1036,7 @@
     <t>IRC Renal - Moderada</t>
   </si>
   <si>
-    <t>IRC Renal - Severe</t>
+    <t>IRC Renal - Severo</t>
   </si>
   <si>
     <t>Litiasis Renal</t>
@@ -1424,7 +1424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1464,6 +1464,11 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
@@ -1533,7 +1538,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1597,22 +1602,25 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1624,36 +1632,36 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1888,15 +1896,13 @@
     <col customWidth="1" min="24" max="24" width="12.0"/>
     <col customWidth="1" min="25" max="27" width="10.56"/>
     <col customWidth="1" min="28" max="29" width="13.33"/>
-    <col customWidth="1" min="30" max="35" width="10.56"/>
-    <col customWidth="1" min="36" max="36" width="13.11"/>
-    <col customWidth="1" min="37" max="37" width="10.56"/>
-    <col customWidth="1" min="38" max="39" width="13.44"/>
-    <col customWidth="1" min="40" max="41" width="10.56"/>
-    <col customWidth="1" min="42" max="42" width="12.44"/>
-    <col customWidth="1" min="43" max="43" width="12.11"/>
-    <col customWidth="1" min="44" max="45" width="10.56"/>
-    <col customWidth="1" min="46" max="46" width="13.78"/>
+    <col customWidth="1" min="30" max="36" width="10.56"/>
+    <col customWidth="1" min="37" max="38" width="13.44"/>
+    <col customWidth="1" min="39" max="40" width="10.56"/>
+    <col customWidth="1" min="41" max="41" width="12.44"/>
+    <col customWidth="1" min="42" max="42" width="12.11"/>
+    <col customWidth="1" min="43" max="44" width="10.56"/>
+    <col customWidth="1" min="45" max="46" width="13.78"/>
     <col customWidth="1" min="47" max="49" width="10.56"/>
     <col customWidth="1" min="50" max="50" width="15.89"/>
     <col customWidth="1" min="51" max="51" width="14.44"/>
@@ -1998,13 +2004,13 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
@@ -2548,17 +2554,17 @@
       <c r="AI2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL2" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="AM2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="AN2" s="19" t="s">
+      <c r="AN2" s="20" t="s">
         <v>60</v>
       </c>
       <c r="AO2" s="20" t="s">
@@ -2576,7 +2582,7 @@
       <c r="AS2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AT2" s="21" t="s">
         <v>66</v>
       </c>
       <c r="AU2" s="18" t="s">
@@ -2663,13 +2669,13 @@
       <c r="BV2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="BW2" s="21" t="s">
+      <c r="BW2" s="22" t="s">
         <v>47</v>
       </c>
       <c r="BX2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="BY2" s="22" t="s">
+      <c r="BY2" s="23" t="s">
         <v>84</v>
       </c>
       <c r="BZ2" s="17" t="s">
@@ -2951,13 +2957,13 @@
       <c r="FN2" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="FO2" s="23" t="s">
+      <c r="FO2" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="FP2" s="23" t="s">
+      <c r="FP2" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="FQ2" s="21" t="s">
+      <c r="FQ2" s="22" t="s">
         <v>47</v>
       </c>
       <c r="FR2" s="19" t="s">
@@ -2987,7 +2993,7 @@
       <c r="FZ2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="GA2" s="22" t="s">
+      <c r="GA2" s="23" t="s">
         <v>187</v>
       </c>
       <c r="GB2" s="19" t="s">
@@ -3018,7 +3024,7 @@
         <v>196</v>
       </c>
       <c r="GK2" s="17" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="GL2" s="17" t="s">
         <v>197</v>
@@ -3026,52 +3032,52 @@
       <c r="GM2" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="GN2" s="24" t="s">
+      <c r="GN2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="GO2" s="25" t="s">
+      <c r="GO2" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="GP2" s="25" t="s">
+      <c r="GP2" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="GQ2" s="26" t="s">
+      <c r="GQ2" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="GR2" s="27" t="s">
+      <c r="GR2" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="GS2" s="27" t="s">
+      <c r="GS2" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="GT2" s="27" t="s">
+      <c r="GT2" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="GU2" s="26" t="s">
+      <c r="GU2" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="GV2" s="27" t="s">
+      <c r="GV2" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="GW2" s="27" t="s">
+      <c r="GW2" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="GX2" s="27" t="s">
+      <c r="GX2" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="GY2" s="27" t="s">
+      <c r="GY2" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="GZ2" s="26" t="s">
+      <c r="GZ2" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="HA2" s="26" t="s">
+      <c r="HA2" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="HB2" s="26" t="s">
+      <c r="HB2" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="HC2" s="26" t="s">
+      <c r="HC2" s="27" t="s">
         <v>213</v>
       </c>
       <c r="HD2" s="17" t="s">
@@ -3179,16 +3185,16 @@
       <c r="IL2" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="IM2" s="28" t="s">
+      <c r="IM2" s="29" t="s">
         <v>249</v>
       </c>
       <c r="IN2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="IO2" s="22" t="s">
+      <c r="IO2" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="IP2" s="22" t="s">
+      <c r="IP2" s="23" t="s">
         <v>251</v>
       </c>
       <c r="IQ2" s="17" t="s">
@@ -3254,31 +3260,31 @@
       <c r="JK2" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="JL2" s="21" t="s">
+      <c r="JL2" s="22" t="s">
         <v>47</v>
       </c>
       <c r="JM2" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="JN2" s="22" t="s">
+      <c r="JN2" s="23" t="s">
         <v>274</v>
       </c>
       <c r="JO2" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="JP2" s="28" t="s">
+      <c r="JP2" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="JQ2" s="29" t="s">
+      <c r="JQ2" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="JR2" s="28" t="s">
+      <c r="JR2" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="JS2" s="28" t="s">
+      <c r="JS2" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="JT2" s="28" t="s">
+      <c r="JT2" s="29" t="s">
         <v>280</v>
       </c>
       <c r="JU2" s="17" t="s">
@@ -3320,28 +3326,28 @@
       <c r="KG2" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="KH2" s="28" t="s">
+      <c r="KH2" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="KI2" s="28" t="s">
+      <c r="KI2" s="29" t="s">
         <v>295</v>
       </c>
       <c r="KJ2" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="KK2" s="28" t="s">
+      <c r="KK2" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="KL2" s="28" t="s">
+      <c r="KL2" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="KM2" s="28" t="s">
+      <c r="KM2" s="29" t="s">
         <v>299</v>
       </c>
       <c r="KN2" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="KO2" s="17" t="s">
+      <c r="KO2" s="24" t="s">
         <v>301</v>
       </c>
       <c r="KP2" s="17" t="s">
@@ -3374,13 +3380,13 @@
       <c r="KY2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="KZ2" s="22" t="s">
+      <c r="KZ2" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="LA2" s="22" t="s">
+      <c r="LA2" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="LB2" s="22" t="s">
+      <c r="LB2" s="23" t="s">
         <v>313</v>
       </c>
       <c r="LC2" s="17" t="s">
@@ -3467,7 +3473,7 @@
       <c r="MD2" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="ME2" s="17" t="s">
+      <c r="ME2" s="24" t="s">
         <v>341</v>
       </c>
       <c r="MF2" s="17" t="s">
@@ -3497,7 +3503,7 @@
       <c r="MN2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="MO2" s="22" t="s">
+      <c r="MO2" s="23" t="s">
         <v>350</v>
       </c>
       <c r="MP2" s="19" t="s">
@@ -3548,7 +3554,7 @@
       <c r="NE2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="NF2" s="23" t="s">
+      <c r="NF2" s="24" t="s">
         <v>365</v>
       </c>
       <c r="NG2" s="17" t="s">
@@ -3557,13 +3563,13 @@
       <c r="NH2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="NI2" s="22" t="s">
+      <c r="NI2" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="NJ2" s="22" t="s">
+      <c r="NJ2" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="NK2" s="22" t="s">
+      <c r="NK2" s="23" t="s">
         <v>369</v>
       </c>
       <c r="NL2" s="17" t="s">
@@ -3632,10 +3638,10 @@
       <c r="OG2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="OH2" s="22" t="s">
+      <c r="OH2" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="OI2" s="22" t="s">
+      <c r="OI2" s="23" t="s">
         <v>392</v>
       </c>
       <c r="OJ2" s="17" t="s">
@@ -3686,16 +3692,16 @@
       <c r="OY2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="OZ2" s="22" t="s">
+      <c r="OZ2" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="PA2" s="22" t="s">
+      <c r="PA2" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="PB2" s="22" t="s">
+      <c r="PB2" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="PC2" s="28" t="s">
+      <c r="PC2" s="29" t="s">
         <v>411</v>
       </c>
       <c r="PD2" s="17" t="s">
@@ -3770,13 +3776,13 @@
       <c r="QA2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="QB2" s="22" t="s">
+      <c r="QB2" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="QC2" s="22" t="s">
+      <c r="QC2" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="QD2" s="22" t="s">
+      <c r="QD2" s="23" t="s">
         <v>437</v>
       </c>
       <c r="QE2" s="17" t="s">
@@ -3812,10 +3818,10 @@
       <c r="QO2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="QP2" s="22" t="s">
+      <c r="QP2" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="QQ2" s="22" t="s">
+      <c r="QQ2" s="23" t="s">
         <v>448</v>
       </c>
       <c r="QR2" s="17" t="s">
@@ -3863,16 +3869,16 @@
       <c r="RF2" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="RG2" s="21" t="s">
+      <c r="RG2" s="22" t="s">
         <v>47</v>
       </c>
       <c r="RH2" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="RI2" s="22" t="s">
+      <c r="RI2" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="RJ2" s="22" t="s">
+      <c r="RJ2" s="23" t="s">
         <v>173</v>
       </c>
       <c r="RK2" s="17" t="s">
@@ -3889,2869 +3895,2869 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="31"/>
-      <c r="BH3" s="31"/>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="31"/>
-      <c r="BN3" s="31"/>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="31"/>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="31"/>
-      <c r="BT3" s="31"/>
-      <c r="BU3" s="31"/>
-      <c r="BV3" s="31"/>
-      <c r="BW3" s="31"/>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="31"/>
-      <c r="BZ3" s="31"/>
-      <c r="CA3" s="31"/>
-      <c r="CB3" s="31"/>
-      <c r="CC3" s="31"/>
-      <c r="CD3" s="31"/>
-      <c r="CE3" s="31"/>
-      <c r="CF3" s="31"/>
-      <c r="CG3" s="31"/>
-      <c r="CH3" s="31"/>
-      <c r="CI3" s="31"/>
-      <c r="CJ3" s="31"/>
-      <c r="CK3" s="31"/>
-      <c r="CL3" s="31"/>
-      <c r="CM3" s="31"/>
-      <c r="CN3" s="31"/>
-      <c r="CO3" s="31"/>
-      <c r="CP3" s="31"/>
-      <c r="CQ3" s="31"/>
-      <c r="CR3" s="31"/>
-      <c r="CS3" s="31"/>
-      <c r="CT3" s="31"/>
-      <c r="CU3" s="31"/>
-      <c r="CV3" s="31"/>
-      <c r="CW3" s="31"/>
-      <c r="CX3" s="31"/>
-      <c r="CY3" s="31"/>
-      <c r="CZ3" s="31"/>
-      <c r="DA3" s="31"/>
-      <c r="DB3" s="31"/>
-      <c r="DC3" s="31"/>
-      <c r="DD3" s="31"/>
-      <c r="DE3" s="31"/>
-      <c r="DF3" s="31"/>
-      <c r="DG3" s="31"/>
-      <c r="DH3" s="31"/>
-      <c r="DI3" s="31"/>
-      <c r="DJ3" s="31"/>
-      <c r="DK3" s="31"/>
-      <c r="DL3" s="31"/>
-      <c r="DM3" s="31"/>
-      <c r="DN3" s="31"/>
-      <c r="DO3" s="31"/>
-      <c r="DP3" s="31"/>
-      <c r="DQ3" s="31"/>
-      <c r="DR3" s="31"/>
-      <c r="DS3" s="31"/>
-      <c r="DT3" s="31"/>
-      <c r="DU3" s="31"/>
-      <c r="DV3" s="31"/>
-      <c r="DW3" s="31"/>
-      <c r="DX3" s="31"/>
-      <c r="DY3" s="31"/>
-      <c r="DZ3" s="31"/>
-      <c r="EA3" s="31"/>
-      <c r="EB3" s="31"/>
-      <c r="EC3" s="31"/>
-      <c r="ED3" s="31"/>
-      <c r="EE3" s="31"/>
-      <c r="EF3" s="31"/>
-      <c r="EG3" s="31"/>
-      <c r="EH3" s="31"/>
-      <c r="EI3" s="31"/>
-      <c r="EJ3" s="31"/>
-      <c r="EK3" s="31"/>
-      <c r="EL3" s="31"/>
-      <c r="EM3" s="31"/>
-      <c r="EN3" s="31"/>
-      <c r="EO3" s="31"/>
-      <c r="EP3" s="31"/>
-      <c r="EQ3" s="31"/>
-      <c r="ER3" s="31"/>
-      <c r="ES3" s="31"/>
-      <c r="ET3" s="31"/>
-      <c r="EU3" s="31"/>
-      <c r="EV3" s="31"/>
-      <c r="EW3" s="31"/>
-      <c r="EX3" s="31"/>
-      <c r="EY3" s="31"/>
-      <c r="EZ3" s="31"/>
-      <c r="FA3" s="31"/>
-      <c r="FB3" s="31"/>
-      <c r="FC3" s="31"/>
-      <c r="FD3" s="31"/>
-      <c r="FE3" s="31"/>
-      <c r="FF3" s="31"/>
-      <c r="FG3" s="31"/>
-      <c r="FH3" s="31"/>
-      <c r="FI3" s="31"/>
-      <c r="FJ3" s="31"/>
-      <c r="FK3" s="31"/>
-      <c r="FL3" s="31"/>
-      <c r="FM3" s="31"/>
-      <c r="FN3" s="31"/>
-      <c r="FO3" s="31"/>
-      <c r="FP3" s="31"/>
-      <c r="FQ3" s="31"/>
-      <c r="FR3" s="31"/>
-      <c r="FS3" s="31"/>
-      <c r="FT3" s="31"/>
-      <c r="FU3" s="31"/>
-      <c r="FV3" s="31"/>
-      <c r="FW3" s="31"/>
-      <c r="FX3" s="31"/>
-      <c r="FY3" s="31"/>
-      <c r="FZ3" s="31"/>
-      <c r="GA3" s="31"/>
-      <c r="GB3" s="31"/>
-      <c r="GC3" s="31"/>
-      <c r="GD3" s="31"/>
-      <c r="GE3" s="31"/>
-      <c r="GF3" s="31"/>
-      <c r="GG3" s="31"/>
-      <c r="GH3" s="31"/>
-      <c r="GI3" s="31"/>
-      <c r="GJ3" s="31"/>
-      <c r="GK3" s="31"/>
-      <c r="GL3" s="31"/>
-      <c r="GM3" s="31"/>
-      <c r="GN3" s="31"/>
-      <c r="GO3" s="31"/>
-      <c r="GP3" s="31"/>
-      <c r="GQ3" s="31"/>
-      <c r="GR3" s="31"/>
-      <c r="GS3" s="31"/>
-      <c r="GT3" s="31"/>
-      <c r="GU3" s="31"/>
-      <c r="GV3" s="31"/>
-      <c r="GW3" s="31"/>
-      <c r="GX3" s="31"/>
-      <c r="GY3" s="31"/>
-      <c r="GZ3" s="31"/>
-      <c r="HA3" s="31"/>
-      <c r="HB3" s="31"/>
-      <c r="HC3" s="31"/>
-      <c r="HD3" s="31"/>
-      <c r="HE3" s="31"/>
-      <c r="HF3" s="31"/>
-      <c r="HG3" s="31"/>
-      <c r="HH3" s="31"/>
-      <c r="HI3" s="31"/>
-      <c r="HJ3" s="31"/>
-      <c r="HK3" s="31"/>
-      <c r="HL3" s="31"/>
-      <c r="HM3" s="31"/>
-      <c r="HN3" s="31"/>
-      <c r="HO3" s="31"/>
-      <c r="HP3" s="31"/>
-      <c r="HQ3" s="31"/>
-      <c r="HR3" s="31"/>
-      <c r="HS3" s="31"/>
-      <c r="HT3" s="31"/>
-      <c r="HU3" s="31"/>
-      <c r="HV3" s="31"/>
-      <c r="HW3" s="31"/>
-      <c r="HX3" s="31"/>
-      <c r="HY3" s="31"/>
-      <c r="HZ3" s="31"/>
-      <c r="IA3" s="31"/>
-      <c r="IB3" s="31"/>
-      <c r="IC3" s="31"/>
-      <c r="ID3" s="31"/>
-      <c r="IE3" s="31"/>
-      <c r="IF3" s="31"/>
-      <c r="IG3" s="31"/>
-      <c r="IH3" s="31"/>
-      <c r="II3" s="31"/>
-      <c r="IJ3" s="31"/>
-      <c r="IK3" s="31"/>
-      <c r="IL3" s="31"/>
-      <c r="IM3" s="31"/>
-      <c r="IN3" s="31"/>
-      <c r="IO3" s="31"/>
-      <c r="IP3" s="31"/>
-      <c r="IQ3" s="31"/>
-      <c r="IR3" s="31"/>
-      <c r="IS3" s="31"/>
-      <c r="IT3" s="31"/>
-      <c r="IU3" s="31"/>
-      <c r="IV3" s="31"/>
-      <c r="IW3" s="31"/>
-      <c r="IX3" s="31"/>
-      <c r="IY3" s="31"/>
-      <c r="IZ3" s="31"/>
-      <c r="JA3" s="31"/>
-      <c r="JB3" s="31"/>
-      <c r="JC3" s="31"/>
-      <c r="JD3" s="31"/>
-      <c r="JE3" s="31"/>
-      <c r="JF3" s="31"/>
-      <c r="JG3" s="31"/>
-      <c r="JH3" s="31"/>
-      <c r="JI3" s="31"/>
-      <c r="JJ3" s="31"/>
-      <c r="JK3" s="31"/>
-      <c r="JL3" s="31"/>
-      <c r="JM3" s="31"/>
-      <c r="JN3" s="31"/>
-      <c r="JO3" s="31"/>
-      <c r="JP3" s="31"/>
-      <c r="JQ3" s="31"/>
-      <c r="JR3" s="31"/>
-      <c r="JS3" s="31"/>
-      <c r="JT3" s="31"/>
-      <c r="JU3" s="31"/>
-      <c r="JV3" s="31"/>
-      <c r="JW3" s="31"/>
-      <c r="JX3" s="31"/>
-      <c r="JY3" s="31"/>
-      <c r="JZ3" s="31"/>
-      <c r="KA3" s="31"/>
-      <c r="KB3" s="31"/>
-      <c r="KC3" s="31"/>
-      <c r="KD3" s="31"/>
-      <c r="KE3" s="31"/>
-      <c r="KF3" s="31"/>
-      <c r="KG3" s="31"/>
-      <c r="KH3" s="31"/>
-      <c r="KI3" s="31"/>
-      <c r="KJ3" s="31"/>
-      <c r="KK3" s="31"/>
-      <c r="KL3" s="31"/>
-      <c r="KM3" s="31"/>
-      <c r="KN3" s="31"/>
-      <c r="KO3" s="31"/>
-      <c r="KP3" s="31"/>
-      <c r="KQ3" s="31"/>
-      <c r="KR3" s="31"/>
-      <c r="KS3" s="31"/>
-      <c r="KT3" s="31"/>
-      <c r="KU3" s="31"/>
-      <c r="KV3" s="31"/>
-      <c r="KW3" s="31"/>
-      <c r="KX3" s="31"/>
-      <c r="KY3" s="32"/>
-      <c r="KZ3" s="32"/>
-      <c r="LA3" s="31"/>
-      <c r="LB3" s="31"/>
-      <c r="LC3" s="31"/>
-      <c r="LD3" s="31"/>
-      <c r="LE3" s="31"/>
-      <c r="LF3" s="31"/>
-      <c r="LG3" s="31"/>
-      <c r="LH3" s="31"/>
-      <c r="LI3" s="31"/>
-      <c r="LJ3" s="31"/>
-      <c r="LK3" s="31"/>
-      <c r="LL3" s="31"/>
-      <c r="LM3" s="31"/>
-      <c r="LN3" s="31"/>
-      <c r="LO3" s="31"/>
-      <c r="LP3" s="31"/>
-      <c r="LQ3" s="31"/>
-      <c r="LR3" s="31"/>
-      <c r="LS3" s="31"/>
-      <c r="LT3" s="31"/>
-      <c r="LU3" s="31"/>
-      <c r="LV3" s="31"/>
-      <c r="LW3" s="31"/>
-      <c r="LX3" s="31"/>
-      <c r="LY3" s="31"/>
-      <c r="LZ3" s="31"/>
-      <c r="MA3" s="31"/>
-      <c r="MB3" s="31"/>
-      <c r="MC3" s="31"/>
-      <c r="MD3" s="31"/>
-      <c r="ME3" s="31"/>
-      <c r="MF3" s="31"/>
-      <c r="MG3" s="31"/>
-      <c r="MH3" s="31"/>
-      <c r="MI3" s="31"/>
-      <c r="MJ3" s="31"/>
-      <c r="MK3" s="31"/>
-      <c r="ML3" s="31"/>
-      <c r="MM3" s="31"/>
-      <c r="MN3" s="31"/>
-      <c r="MO3" s="31"/>
-      <c r="MP3" s="31"/>
-      <c r="MQ3" s="31"/>
-      <c r="MR3" s="31"/>
-      <c r="MS3" s="31"/>
-      <c r="MT3" s="31"/>
-      <c r="MU3" s="31"/>
-      <c r="MV3" s="31"/>
-      <c r="MW3" s="31"/>
-      <c r="MX3" s="31"/>
-      <c r="MY3" s="31"/>
-      <c r="MZ3" s="31"/>
-      <c r="NA3" s="31"/>
-      <c r="NB3" s="31"/>
-      <c r="NC3" s="31"/>
-      <c r="ND3" s="31"/>
-      <c r="NE3" s="31"/>
-      <c r="NF3" s="31"/>
-      <c r="NG3" s="31"/>
-      <c r="NH3" s="32"/>
-      <c r="NI3" s="32"/>
-      <c r="NJ3" s="31"/>
-      <c r="NK3" s="31"/>
-      <c r="NL3" s="31"/>
-      <c r="NM3" s="31"/>
-      <c r="NN3" s="31"/>
-      <c r="NO3" s="31"/>
-      <c r="NP3" s="31"/>
-      <c r="NQ3" s="31"/>
-      <c r="NR3" s="31"/>
-      <c r="NS3" s="31"/>
-      <c r="NT3" s="31"/>
-      <c r="NU3" s="31"/>
-      <c r="NV3" s="31"/>
-      <c r="NW3" s="31"/>
-      <c r="NX3" s="31"/>
-      <c r="NY3" s="31"/>
-      <c r="NZ3" s="31"/>
-      <c r="OA3" s="31"/>
-      <c r="OB3" s="31"/>
-      <c r="OC3" s="31"/>
-      <c r="OD3" s="31"/>
-      <c r="OE3" s="31"/>
-      <c r="OF3" s="31"/>
-      <c r="OG3" s="31"/>
-      <c r="OH3" s="31"/>
-      <c r="OI3" s="31"/>
-      <c r="OJ3" s="31"/>
-      <c r="OK3" s="31"/>
-      <c r="OL3" s="31"/>
-      <c r="OM3" s="31"/>
-      <c r="ON3" s="31"/>
-      <c r="OO3" s="31"/>
-      <c r="OP3" s="31"/>
-      <c r="OQ3" s="31"/>
-      <c r="OR3" s="31"/>
-      <c r="OS3" s="31"/>
-      <c r="OT3" s="31"/>
-      <c r="OU3" s="31"/>
-      <c r="OV3" s="31"/>
-      <c r="OW3" s="31"/>
-      <c r="OX3" s="31"/>
-      <c r="OY3" s="32"/>
-      <c r="OZ3" s="32"/>
-      <c r="PA3" s="31"/>
-      <c r="PB3" s="31"/>
-      <c r="PC3" s="31"/>
-      <c r="PD3" s="31"/>
-      <c r="PE3" s="31"/>
-      <c r="PF3" s="31"/>
-      <c r="PG3" s="31"/>
-      <c r="PH3" s="31"/>
-      <c r="PI3" s="31"/>
-      <c r="PJ3" s="31"/>
-      <c r="PK3" s="31"/>
-      <c r="PL3" s="31"/>
-      <c r="PM3" s="31"/>
-      <c r="PN3" s="31"/>
-      <c r="PO3" s="31"/>
-      <c r="PP3" s="31"/>
-      <c r="PQ3" s="31"/>
-      <c r="PR3" s="31"/>
-      <c r="PS3" s="31"/>
-      <c r="PT3" s="31"/>
-      <c r="PU3" s="31"/>
-      <c r="PV3" s="31"/>
-      <c r="PW3" s="31"/>
-      <c r="PX3" s="31"/>
-      <c r="PY3" s="31"/>
-      <c r="PZ3" s="31"/>
-      <c r="QA3" s="32"/>
-      <c r="QB3" s="32"/>
-      <c r="QC3" s="31"/>
-      <c r="QD3" s="31"/>
-      <c r="QE3" s="31"/>
-      <c r="QF3" s="31"/>
-      <c r="QG3" s="31"/>
-      <c r="QH3" s="31"/>
-      <c r="QI3" s="31"/>
-      <c r="QJ3" s="31"/>
-      <c r="QK3" s="31"/>
-      <c r="QL3" s="31"/>
-      <c r="QM3" s="31"/>
-      <c r="QN3" s="31"/>
-      <c r="QO3" s="31"/>
-      <c r="QP3" s="31"/>
-      <c r="QQ3" s="31"/>
-      <c r="QR3" s="31"/>
-      <c r="QS3" s="31"/>
-      <c r="QT3" s="31"/>
-      <c r="QU3" s="31"/>
-      <c r="QV3" s="31"/>
-      <c r="QW3" s="31"/>
-      <c r="QX3" s="31"/>
-      <c r="QY3" s="31"/>
-      <c r="QZ3" s="31"/>
-      <c r="RA3" s="31"/>
-      <c r="RB3" s="31"/>
-      <c r="RC3" s="31"/>
-      <c r="RD3" s="31"/>
-      <c r="RE3" s="31"/>
-      <c r="RF3" s="31"/>
-      <c r="RG3" s="33"/>
-      <c r="RH3" s="33"/>
-      <c r="RI3" s="33"/>
-      <c r="RJ3" s="33"/>
-      <c r="RK3" s="33"/>
-      <c r="RL3" s="33"/>
-      <c r="RM3" s="33"/>
-      <c r="RN3" s="33"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="32"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="32"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="32"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="32"/>
+      <c r="CE3" s="32"/>
+      <c r="CF3" s="32"/>
+      <c r="CG3" s="32"/>
+      <c r="CH3" s="32"/>
+      <c r="CI3" s="32"/>
+      <c r="CJ3" s="32"/>
+      <c r="CK3" s="32"/>
+      <c r="CL3" s="32"/>
+      <c r="CM3" s="32"/>
+      <c r="CN3" s="32"/>
+      <c r="CO3" s="32"/>
+      <c r="CP3" s="32"/>
+      <c r="CQ3" s="32"/>
+      <c r="CR3" s="32"/>
+      <c r="CS3" s="32"/>
+      <c r="CT3" s="32"/>
+      <c r="CU3" s="32"/>
+      <c r="CV3" s="32"/>
+      <c r="CW3" s="32"/>
+      <c r="CX3" s="32"/>
+      <c r="CY3" s="32"/>
+      <c r="CZ3" s="32"/>
+      <c r="DA3" s="32"/>
+      <c r="DB3" s="32"/>
+      <c r="DC3" s="32"/>
+      <c r="DD3" s="32"/>
+      <c r="DE3" s="32"/>
+      <c r="DF3" s="32"/>
+      <c r="DG3" s="32"/>
+      <c r="DH3" s="32"/>
+      <c r="DI3" s="32"/>
+      <c r="DJ3" s="32"/>
+      <c r="DK3" s="32"/>
+      <c r="DL3" s="32"/>
+      <c r="DM3" s="32"/>
+      <c r="DN3" s="32"/>
+      <c r="DO3" s="32"/>
+      <c r="DP3" s="32"/>
+      <c r="DQ3" s="32"/>
+      <c r="DR3" s="32"/>
+      <c r="DS3" s="32"/>
+      <c r="DT3" s="32"/>
+      <c r="DU3" s="32"/>
+      <c r="DV3" s="32"/>
+      <c r="DW3" s="32"/>
+      <c r="DX3" s="32"/>
+      <c r="DY3" s="32"/>
+      <c r="DZ3" s="32"/>
+      <c r="EA3" s="32"/>
+      <c r="EB3" s="32"/>
+      <c r="EC3" s="32"/>
+      <c r="ED3" s="32"/>
+      <c r="EE3" s="32"/>
+      <c r="EF3" s="32"/>
+      <c r="EG3" s="32"/>
+      <c r="EH3" s="32"/>
+      <c r="EI3" s="32"/>
+      <c r="EJ3" s="32"/>
+      <c r="EK3" s="32"/>
+      <c r="EL3" s="32"/>
+      <c r="EM3" s="32"/>
+      <c r="EN3" s="32"/>
+      <c r="EO3" s="32"/>
+      <c r="EP3" s="32"/>
+      <c r="EQ3" s="32"/>
+      <c r="ER3" s="32"/>
+      <c r="ES3" s="32"/>
+      <c r="ET3" s="32"/>
+      <c r="EU3" s="32"/>
+      <c r="EV3" s="32"/>
+      <c r="EW3" s="32"/>
+      <c r="EX3" s="32"/>
+      <c r="EY3" s="32"/>
+      <c r="EZ3" s="32"/>
+      <c r="FA3" s="32"/>
+      <c r="FB3" s="32"/>
+      <c r="FC3" s="32"/>
+      <c r="FD3" s="32"/>
+      <c r="FE3" s="32"/>
+      <c r="FF3" s="32"/>
+      <c r="FG3" s="32"/>
+      <c r="FH3" s="32"/>
+      <c r="FI3" s="32"/>
+      <c r="FJ3" s="32"/>
+      <c r="FK3" s="32"/>
+      <c r="FL3" s="32"/>
+      <c r="FM3" s="32"/>
+      <c r="FN3" s="32"/>
+      <c r="FO3" s="32"/>
+      <c r="FP3" s="32"/>
+      <c r="FQ3" s="32"/>
+      <c r="FR3" s="32"/>
+      <c r="FS3" s="32"/>
+      <c r="FT3" s="32"/>
+      <c r="FU3" s="32"/>
+      <c r="FV3" s="32"/>
+      <c r="FW3" s="32"/>
+      <c r="FX3" s="32"/>
+      <c r="FY3" s="32"/>
+      <c r="FZ3" s="32"/>
+      <c r="GA3" s="32"/>
+      <c r="GB3" s="32"/>
+      <c r="GC3" s="32"/>
+      <c r="GD3" s="32"/>
+      <c r="GE3" s="32"/>
+      <c r="GF3" s="32"/>
+      <c r="GG3" s="32"/>
+      <c r="GH3" s="32"/>
+      <c r="GI3" s="32"/>
+      <c r="GJ3" s="32"/>
+      <c r="GK3" s="32"/>
+      <c r="GL3" s="32"/>
+      <c r="GM3" s="32"/>
+      <c r="GN3" s="32"/>
+      <c r="GO3" s="32"/>
+      <c r="GP3" s="32"/>
+      <c r="GQ3" s="32"/>
+      <c r="GR3" s="32"/>
+      <c r="GS3" s="32"/>
+      <c r="GT3" s="32"/>
+      <c r="GU3" s="32"/>
+      <c r="GV3" s="32"/>
+      <c r="GW3" s="32"/>
+      <c r="GX3" s="32"/>
+      <c r="GY3" s="32"/>
+      <c r="GZ3" s="32"/>
+      <c r="HA3" s="32"/>
+      <c r="HB3" s="32"/>
+      <c r="HC3" s="32"/>
+      <c r="HD3" s="32"/>
+      <c r="HE3" s="32"/>
+      <c r="HF3" s="32"/>
+      <c r="HG3" s="32"/>
+      <c r="HH3" s="32"/>
+      <c r="HI3" s="32"/>
+      <c r="HJ3" s="32"/>
+      <c r="HK3" s="32"/>
+      <c r="HL3" s="32"/>
+      <c r="HM3" s="32"/>
+      <c r="HN3" s="32"/>
+      <c r="HO3" s="32"/>
+      <c r="HP3" s="32"/>
+      <c r="HQ3" s="32"/>
+      <c r="HR3" s="32"/>
+      <c r="HS3" s="32"/>
+      <c r="HT3" s="32"/>
+      <c r="HU3" s="32"/>
+      <c r="HV3" s="32"/>
+      <c r="HW3" s="32"/>
+      <c r="HX3" s="32"/>
+      <c r="HY3" s="32"/>
+      <c r="HZ3" s="32"/>
+      <c r="IA3" s="32"/>
+      <c r="IB3" s="32"/>
+      <c r="IC3" s="32"/>
+      <c r="ID3" s="32"/>
+      <c r="IE3" s="32"/>
+      <c r="IF3" s="32"/>
+      <c r="IG3" s="32"/>
+      <c r="IH3" s="32"/>
+      <c r="II3" s="32"/>
+      <c r="IJ3" s="32"/>
+      <c r="IK3" s="32"/>
+      <c r="IL3" s="32"/>
+      <c r="IM3" s="32"/>
+      <c r="IN3" s="32"/>
+      <c r="IO3" s="32"/>
+      <c r="IP3" s="32"/>
+      <c r="IQ3" s="32"/>
+      <c r="IR3" s="32"/>
+      <c r="IS3" s="32"/>
+      <c r="IT3" s="32"/>
+      <c r="IU3" s="32"/>
+      <c r="IV3" s="32"/>
+      <c r="IW3" s="32"/>
+      <c r="IX3" s="32"/>
+      <c r="IY3" s="32"/>
+      <c r="IZ3" s="32"/>
+      <c r="JA3" s="32"/>
+      <c r="JB3" s="32"/>
+      <c r="JC3" s="32"/>
+      <c r="JD3" s="32"/>
+      <c r="JE3" s="32"/>
+      <c r="JF3" s="32"/>
+      <c r="JG3" s="32"/>
+      <c r="JH3" s="32"/>
+      <c r="JI3" s="32"/>
+      <c r="JJ3" s="32"/>
+      <c r="JK3" s="32"/>
+      <c r="JL3" s="32"/>
+      <c r="JM3" s="32"/>
+      <c r="JN3" s="32"/>
+      <c r="JO3" s="32"/>
+      <c r="JP3" s="32"/>
+      <c r="JQ3" s="32"/>
+      <c r="JR3" s="32"/>
+      <c r="JS3" s="32"/>
+      <c r="JT3" s="32"/>
+      <c r="JU3" s="32"/>
+      <c r="JV3" s="32"/>
+      <c r="JW3" s="32"/>
+      <c r="JX3" s="32"/>
+      <c r="JY3" s="32"/>
+      <c r="JZ3" s="32"/>
+      <c r="KA3" s="32"/>
+      <c r="KB3" s="32"/>
+      <c r="KC3" s="32"/>
+      <c r="KD3" s="32"/>
+      <c r="KE3" s="32"/>
+      <c r="KF3" s="32"/>
+      <c r="KG3" s="32"/>
+      <c r="KH3" s="32"/>
+      <c r="KI3" s="32"/>
+      <c r="KJ3" s="32"/>
+      <c r="KK3" s="32"/>
+      <c r="KL3" s="32"/>
+      <c r="KM3" s="32"/>
+      <c r="KN3" s="32"/>
+      <c r="KO3" s="32"/>
+      <c r="KP3" s="32"/>
+      <c r="KQ3" s="32"/>
+      <c r="KR3" s="32"/>
+      <c r="KS3" s="32"/>
+      <c r="KT3" s="32"/>
+      <c r="KU3" s="32"/>
+      <c r="KV3" s="32"/>
+      <c r="KW3" s="32"/>
+      <c r="KX3" s="32"/>
+      <c r="KY3" s="33"/>
+      <c r="KZ3" s="33"/>
+      <c r="LA3" s="32"/>
+      <c r="LB3" s="32"/>
+      <c r="LC3" s="32"/>
+      <c r="LD3" s="32"/>
+      <c r="LE3" s="32"/>
+      <c r="LF3" s="32"/>
+      <c r="LG3" s="32"/>
+      <c r="LH3" s="32"/>
+      <c r="LI3" s="32"/>
+      <c r="LJ3" s="32"/>
+      <c r="LK3" s="32"/>
+      <c r="LL3" s="32"/>
+      <c r="LM3" s="32"/>
+      <c r="LN3" s="32"/>
+      <c r="LO3" s="32"/>
+      <c r="LP3" s="32"/>
+      <c r="LQ3" s="32"/>
+      <c r="LR3" s="32"/>
+      <c r="LS3" s="32"/>
+      <c r="LT3" s="32"/>
+      <c r="LU3" s="32"/>
+      <c r="LV3" s="32"/>
+      <c r="LW3" s="32"/>
+      <c r="LX3" s="32"/>
+      <c r="LY3" s="32"/>
+      <c r="LZ3" s="32"/>
+      <c r="MA3" s="32"/>
+      <c r="MB3" s="32"/>
+      <c r="MC3" s="32"/>
+      <c r="MD3" s="32"/>
+      <c r="ME3" s="32"/>
+      <c r="MF3" s="32"/>
+      <c r="MG3" s="32"/>
+      <c r="MH3" s="32"/>
+      <c r="MI3" s="32"/>
+      <c r="MJ3" s="32"/>
+      <c r="MK3" s="32"/>
+      <c r="ML3" s="32"/>
+      <c r="MM3" s="32"/>
+      <c r="MN3" s="32"/>
+      <c r="MO3" s="32"/>
+      <c r="MP3" s="32"/>
+      <c r="MQ3" s="32"/>
+      <c r="MR3" s="32"/>
+      <c r="MS3" s="32"/>
+      <c r="MT3" s="32"/>
+      <c r="MU3" s="32"/>
+      <c r="MV3" s="32"/>
+      <c r="MW3" s="32"/>
+      <c r="MX3" s="32"/>
+      <c r="MY3" s="32"/>
+      <c r="MZ3" s="32"/>
+      <c r="NA3" s="32"/>
+      <c r="NB3" s="32"/>
+      <c r="NC3" s="32"/>
+      <c r="ND3" s="32"/>
+      <c r="NE3" s="32"/>
+      <c r="NF3" s="32"/>
+      <c r="NG3" s="32"/>
+      <c r="NH3" s="33"/>
+      <c r="NI3" s="33"/>
+      <c r="NJ3" s="32"/>
+      <c r="NK3" s="32"/>
+      <c r="NL3" s="32"/>
+      <c r="NM3" s="32"/>
+      <c r="NN3" s="32"/>
+      <c r="NO3" s="32"/>
+      <c r="NP3" s="32"/>
+      <c r="NQ3" s="32"/>
+      <c r="NR3" s="32"/>
+      <c r="NS3" s="32"/>
+      <c r="NT3" s="32"/>
+      <c r="NU3" s="32"/>
+      <c r="NV3" s="32"/>
+      <c r="NW3" s="32"/>
+      <c r="NX3" s="32"/>
+      <c r="NY3" s="32"/>
+      <c r="NZ3" s="32"/>
+      <c r="OA3" s="32"/>
+      <c r="OB3" s="32"/>
+      <c r="OC3" s="32"/>
+      <c r="OD3" s="32"/>
+      <c r="OE3" s="32"/>
+      <c r="OF3" s="32"/>
+      <c r="OG3" s="32"/>
+      <c r="OH3" s="32"/>
+      <c r="OI3" s="32"/>
+      <c r="OJ3" s="32"/>
+      <c r="OK3" s="32"/>
+      <c r="OL3" s="32"/>
+      <c r="OM3" s="32"/>
+      <c r="ON3" s="32"/>
+      <c r="OO3" s="32"/>
+      <c r="OP3" s="32"/>
+      <c r="OQ3" s="32"/>
+      <c r="OR3" s="32"/>
+      <c r="OS3" s="32"/>
+      <c r="OT3" s="32"/>
+      <c r="OU3" s="32"/>
+      <c r="OV3" s="32"/>
+      <c r="OW3" s="32"/>
+      <c r="OX3" s="32"/>
+      <c r="OY3" s="33"/>
+      <c r="OZ3" s="33"/>
+      <c r="PA3" s="32"/>
+      <c r="PB3" s="32"/>
+      <c r="PC3" s="32"/>
+      <c r="PD3" s="32"/>
+      <c r="PE3" s="32"/>
+      <c r="PF3" s="32"/>
+      <c r="PG3" s="32"/>
+      <c r="PH3" s="32"/>
+      <c r="PI3" s="32"/>
+      <c r="PJ3" s="32"/>
+      <c r="PK3" s="32"/>
+      <c r="PL3" s="32"/>
+      <c r="PM3" s="32"/>
+      <c r="PN3" s="32"/>
+      <c r="PO3" s="32"/>
+      <c r="PP3" s="32"/>
+      <c r="PQ3" s="32"/>
+      <c r="PR3" s="32"/>
+      <c r="PS3" s="32"/>
+      <c r="PT3" s="32"/>
+      <c r="PU3" s="32"/>
+      <c r="PV3" s="32"/>
+      <c r="PW3" s="32"/>
+      <c r="PX3" s="32"/>
+      <c r="PY3" s="32"/>
+      <c r="PZ3" s="32"/>
+      <c r="QA3" s="33"/>
+      <c r="QB3" s="33"/>
+      <c r="QC3" s="32"/>
+      <c r="QD3" s="32"/>
+      <c r="QE3" s="32"/>
+      <c r="QF3" s="32"/>
+      <c r="QG3" s="32"/>
+      <c r="QH3" s="32"/>
+      <c r="QI3" s="32"/>
+      <c r="QJ3" s="32"/>
+      <c r="QK3" s="32"/>
+      <c r="QL3" s="32"/>
+      <c r="QM3" s="32"/>
+      <c r="QN3" s="32"/>
+      <c r="QO3" s="32"/>
+      <c r="QP3" s="32"/>
+      <c r="QQ3" s="32"/>
+      <c r="QR3" s="32"/>
+      <c r="QS3" s="32"/>
+      <c r="QT3" s="32"/>
+      <c r="QU3" s="32"/>
+      <c r="QV3" s="32"/>
+      <c r="QW3" s="32"/>
+      <c r="QX3" s="32"/>
+      <c r="QY3" s="32"/>
+      <c r="QZ3" s="32"/>
+      <c r="RA3" s="32"/>
+      <c r="RB3" s="32"/>
+      <c r="RC3" s="32"/>
+      <c r="RD3" s="32"/>
+      <c r="RE3" s="32"/>
+      <c r="RF3" s="32"/>
+      <c r="RG3" s="34"/>
+      <c r="RH3" s="34"/>
+      <c r="RI3" s="34"/>
+      <c r="RJ3" s="34"/>
+      <c r="RK3" s="34"/>
+      <c r="RL3" s="34"/>
+      <c r="RM3" s="34"/>
+      <c r="RN3" s="34"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
-      <c r="BH4" s="31"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BW4" s="33"/>
-      <c r="BX4" s="33"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="31"/>
-      <c r="CK4" s="31"/>
-      <c r="CL4" s="31"/>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="31"/>
-      <c r="CO4" s="31"/>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CR4" s="31"/>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31"/>
-      <c r="CZ4" s="31"/>
-      <c r="DA4" s="31"/>
-      <c r="DB4" s="31"/>
-      <c r="DC4" s="31"/>
-      <c r="DD4" s="31"/>
-      <c r="DE4" s="31"/>
-      <c r="DF4" s="31"/>
-      <c r="DG4" s="31"/>
-      <c r="DH4" s="31"/>
-      <c r="DI4" s="31"/>
-      <c r="DJ4" s="31"/>
-      <c r="DK4" s="31"/>
-      <c r="DL4" s="31"/>
-      <c r="DM4" s="31"/>
-      <c r="DN4" s="31"/>
-      <c r="DO4" s="31"/>
-      <c r="DP4" s="31"/>
-      <c r="DQ4" s="31"/>
-      <c r="DR4" s="31"/>
-      <c r="DS4" s="31"/>
-      <c r="DT4" s="31"/>
-      <c r="DU4" s="31"/>
-      <c r="DV4" s="31"/>
-      <c r="DW4" s="31"/>
-      <c r="DX4" s="31"/>
-      <c r="DY4" s="31"/>
-      <c r="DZ4" s="31"/>
-      <c r="EA4" s="31"/>
-      <c r="EB4" s="31"/>
-      <c r="EC4" s="31"/>
-      <c r="ED4" s="31"/>
-      <c r="EE4" s="31"/>
-      <c r="EF4" s="31"/>
-      <c r="EG4" s="31"/>
-      <c r="EH4" s="31"/>
-      <c r="EI4" s="31"/>
-      <c r="EJ4" s="31"/>
-      <c r="EK4" s="31"/>
-      <c r="EL4" s="31"/>
-      <c r="EM4" s="31"/>
-      <c r="EN4" s="31"/>
-      <c r="EO4" s="31"/>
-      <c r="EP4" s="31"/>
-      <c r="EQ4" s="31"/>
-      <c r="ER4" s="31"/>
-      <c r="ES4" s="31"/>
-      <c r="ET4" s="31"/>
-      <c r="EU4" s="31"/>
-      <c r="EV4" s="31"/>
-      <c r="EW4" s="31"/>
-      <c r="EX4" s="31"/>
-      <c r="EY4" s="31"/>
-      <c r="EZ4" s="31"/>
-      <c r="FA4" s="31"/>
-      <c r="FB4" s="31"/>
-      <c r="FC4" s="31"/>
-      <c r="FD4" s="31"/>
-      <c r="FE4" s="31"/>
-      <c r="FF4" s="31"/>
-      <c r="FG4" s="31"/>
-      <c r="FH4" s="31"/>
-      <c r="FI4" s="31"/>
-      <c r="FJ4" s="31"/>
-      <c r="FK4" s="31"/>
-      <c r="FL4" s="31"/>
-      <c r="FM4" s="31"/>
-      <c r="FN4" s="31"/>
-      <c r="FO4" s="31"/>
-      <c r="FP4" s="31"/>
-      <c r="FQ4" s="33"/>
-      <c r="FR4" s="33"/>
-      <c r="FS4" s="31"/>
-      <c r="FT4" s="31"/>
-      <c r="FU4" s="31"/>
-      <c r="FV4" s="31"/>
-      <c r="FW4" s="31"/>
-      <c r="FX4" s="31"/>
-      <c r="FY4" s="31"/>
-      <c r="FZ4" s="32"/>
-      <c r="GA4" s="32"/>
-      <c r="GB4" s="31"/>
-      <c r="GC4" s="31"/>
-      <c r="GD4" s="31"/>
-      <c r="GE4" s="31"/>
-      <c r="GF4" s="31"/>
-      <c r="GG4" s="31"/>
-      <c r="GH4" s="31"/>
-      <c r="GI4" s="31"/>
-      <c r="GJ4" s="31"/>
-      <c r="GK4" s="31"/>
-      <c r="GL4" s="31"/>
-      <c r="GM4" s="31"/>
-      <c r="GN4" s="34"/>
-      <c r="GO4" s="34"/>
-      <c r="GP4" s="31"/>
-      <c r="GQ4" s="31"/>
-      <c r="GR4" s="31"/>
-      <c r="GS4" s="31"/>
-      <c r="GT4" s="31"/>
-      <c r="GU4" s="31"/>
-      <c r="GV4" s="31"/>
-      <c r="GW4" s="31"/>
-      <c r="GX4" s="31"/>
-      <c r="GY4" s="31"/>
-      <c r="GZ4" s="31"/>
-      <c r="HA4" s="31"/>
-      <c r="HB4" s="31"/>
-      <c r="HC4" s="31"/>
-      <c r="HD4" s="31"/>
-      <c r="HE4" s="31"/>
-      <c r="HF4" s="31"/>
-      <c r="HG4" s="31"/>
-      <c r="HH4" s="31"/>
-      <c r="HI4" s="31"/>
-      <c r="HJ4" s="31"/>
-      <c r="HK4" s="31"/>
-      <c r="HL4" s="31"/>
-      <c r="HM4" s="31"/>
-      <c r="HN4" s="31"/>
-      <c r="HO4" s="31"/>
-      <c r="HP4" s="31"/>
-      <c r="HQ4" s="31"/>
-      <c r="HR4" s="31"/>
-      <c r="HS4" s="31"/>
-      <c r="HT4" s="31"/>
-      <c r="HU4" s="31"/>
-      <c r="HV4" s="31"/>
-      <c r="HW4" s="31"/>
-      <c r="HX4" s="31"/>
-      <c r="HY4" s="31"/>
-      <c r="HZ4" s="31"/>
-      <c r="IA4" s="31"/>
-      <c r="IB4" s="31"/>
-      <c r="IC4" s="31"/>
-      <c r="ID4" s="31"/>
-      <c r="IE4" s="31"/>
-      <c r="IF4" s="31"/>
-      <c r="IG4" s="31"/>
-      <c r="IH4" s="31"/>
-      <c r="II4" s="31"/>
-      <c r="IJ4" s="31"/>
-      <c r="IK4" s="31"/>
-      <c r="IL4" s="31"/>
-      <c r="IM4" s="31"/>
-      <c r="IN4" s="32"/>
-      <c r="IO4" s="32"/>
-      <c r="IP4" s="31"/>
-      <c r="IQ4" s="31"/>
-      <c r="IR4" s="31"/>
-      <c r="IS4" s="31"/>
-      <c r="IT4" s="31"/>
-      <c r="IU4" s="31"/>
-      <c r="IV4" s="31"/>
-      <c r="IW4" s="31"/>
-      <c r="IX4" s="31"/>
-      <c r="IY4" s="31"/>
-      <c r="IZ4" s="31"/>
-      <c r="JA4" s="31"/>
-      <c r="JB4" s="31"/>
-      <c r="JC4" s="31"/>
-      <c r="JD4" s="31"/>
-      <c r="JE4" s="31"/>
-      <c r="JF4" s="31"/>
-      <c r="JG4" s="31"/>
-      <c r="JH4" s="31"/>
-      <c r="JI4" s="31"/>
-      <c r="JJ4" s="31"/>
-      <c r="JK4" s="31"/>
-      <c r="JL4" s="33"/>
-      <c r="JM4" s="33"/>
-      <c r="JN4" s="31"/>
-      <c r="JO4" s="31"/>
-      <c r="JP4" s="31"/>
-      <c r="JQ4" s="31"/>
-      <c r="JR4" s="31"/>
-      <c r="JS4" s="31"/>
-      <c r="JT4" s="31"/>
-      <c r="JU4" s="31"/>
-      <c r="JV4" s="31"/>
-      <c r="JW4" s="31"/>
-      <c r="JX4" s="31"/>
-      <c r="JY4" s="31"/>
-      <c r="JZ4" s="31"/>
-      <c r="KA4" s="31"/>
-      <c r="KB4" s="31"/>
-      <c r="KC4" s="31"/>
-      <c r="KD4" s="31"/>
-      <c r="KE4" s="31"/>
-      <c r="KF4" s="31"/>
-      <c r="KG4" s="31"/>
-      <c r="KH4" s="31"/>
-      <c r="KI4" s="31"/>
-      <c r="KJ4" s="31"/>
-      <c r="KK4" s="31"/>
-      <c r="KL4" s="31"/>
-      <c r="KM4" s="31"/>
-      <c r="KN4" s="31"/>
-      <c r="KO4" s="31"/>
-      <c r="KP4" s="31"/>
-      <c r="KQ4" s="31"/>
-      <c r="KR4" s="31"/>
-      <c r="KS4" s="31"/>
-      <c r="KT4" s="31"/>
-      <c r="KU4" s="31"/>
-      <c r="KV4" s="31"/>
-      <c r="KW4" s="31"/>
-      <c r="KX4" s="31"/>
-      <c r="KY4" s="32"/>
-      <c r="KZ4" s="32"/>
-      <c r="LA4" s="31"/>
-      <c r="LB4" s="31"/>
-      <c r="LC4" s="31"/>
-      <c r="LD4" s="31"/>
-      <c r="LE4" s="31"/>
-      <c r="LF4" s="31"/>
-      <c r="LG4" s="31"/>
-      <c r="LH4" s="31"/>
-      <c r="LI4" s="31"/>
-      <c r="LJ4" s="31"/>
-      <c r="LK4" s="31"/>
-      <c r="LL4" s="31"/>
-      <c r="LM4" s="31"/>
-      <c r="LN4" s="31"/>
-      <c r="LO4" s="31"/>
-      <c r="LP4" s="31"/>
-      <c r="LQ4" s="31"/>
-      <c r="LR4" s="31"/>
-      <c r="LS4" s="31"/>
-      <c r="LT4" s="31"/>
-      <c r="LU4" s="31"/>
-      <c r="LV4" s="31"/>
-      <c r="LW4" s="31"/>
-      <c r="LX4" s="31"/>
-      <c r="LY4" s="31"/>
-      <c r="LZ4" s="31"/>
-      <c r="MA4" s="31"/>
-      <c r="MB4" s="31"/>
-      <c r="MC4" s="31"/>
-      <c r="MD4" s="31"/>
-      <c r="ME4" s="31"/>
-      <c r="MF4" s="31"/>
-      <c r="MG4" s="31"/>
-      <c r="MH4" s="31"/>
-      <c r="MI4" s="31"/>
-      <c r="MJ4" s="31"/>
-      <c r="MK4" s="31"/>
-      <c r="ML4" s="31"/>
-      <c r="MM4" s="31"/>
-      <c r="MN4" s="32"/>
-      <c r="MO4" s="32"/>
-      <c r="MP4" s="31"/>
-      <c r="MQ4" s="31"/>
-      <c r="MR4" s="31"/>
-      <c r="MS4" s="31"/>
-      <c r="MT4" s="31"/>
-      <c r="MU4" s="31"/>
-      <c r="MV4" s="31"/>
-      <c r="MW4" s="31"/>
-      <c r="MX4" s="31"/>
-      <c r="MY4" s="31"/>
-      <c r="MZ4" s="31"/>
-      <c r="NA4" s="31"/>
-      <c r="NB4" s="31"/>
-      <c r="NC4" s="31"/>
-      <c r="ND4" s="31"/>
-      <c r="NE4" s="32"/>
-      <c r="NF4" s="31"/>
-      <c r="NG4" s="31"/>
-      <c r="NH4" s="32"/>
-      <c r="NI4" s="32"/>
-      <c r="NJ4" s="31"/>
-      <c r="NK4" s="31"/>
-      <c r="NL4" s="31"/>
-      <c r="NM4" s="31"/>
-      <c r="NN4" s="31"/>
-      <c r="NO4" s="31"/>
-      <c r="NP4" s="31"/>
-      <c r="NQ4" s="31"/>
-      <c r="NR4" s="31"/>
-      <c r="NS4" s="31"/>
-      <c r="NT4" s="31"/>
-      <c r="NU4" s="31"/>
-      <c r="NV4" s="31"/>
-      <c r="NW4" s="31"/>
-      <c r="NX4" s="31"/>
-      <c r="NY4" s="31"/>
-      <c r="NZ4" s="31"/>
-      <c r="OA4" s="31"/>
-      <c r="OB4" s="31"/>
-      <c r="OC4" s="31"/>
-      <c r="OD4" s="31"/>
-      <c r="OE4" s="31"/>
-      <c r="OF4" s="31"/>
-      <c r="OG4" s="32"/>
-      <c r="OH4" s="32"/>
-      <c r="OI4" s="31"/>
-      <c r="OJ4" s="31"/>
-      <c r="OK4" s="31"/>
-      <c r="OL4" s="31"/>
-      <c r="OM4" s="31"/>
-      <c r="ON4" s="31"/>
-      <c r="OO4" s="31"/>
-      <c r="OP4" s="31"/>
-      <c r="OQ4" s="31"/>
-      <c r="OR4" s="31"/>
-      <c r="OS4" s="31"/>
-      <c r="OT4" s="31"/>
-      <c r="OU4" s="31"/>
-      <c r="OV4" s="31"/>
-      <c r="OW4" s="31"/>
-      <c r="OX4" s="31"/>
-      <c r="OY4" s="32"/>
-      <c r="OZ4" s="32"/>
-      <c r="PA4" s="31"/>
-      <c r="PB4" s="31"/>
-      <c r="PC4" s="31"/>
-      <c r="PD4" s="31"/>
-      <c r="PE4" s="31"/>
-      <c r="PF4" s="31"/>
-      <c r="PG4" s="31"/>
-      <c r="PH4" s="31"/>
-      <c r="PI4" s="31"/>
-      <c r="PJ4" s="31"/>
-      <c r="PK4" s="31"/>
-      <c r="PL4" s="31"/>
-      <c r="PM4" s="31"/>
-      <c r="PN4" s="31"/>
-      <c r="PO4" s="31"/>
-      <c r="PP4" s="31"/>
-      <c r="PQ4" s="31"/>
-      <c r="PR4" s="31"/>
-      <c r="PS4" s="31"/>
-      <c r="PT4" s="31"/>
-      <c r="PU4" s="31"/>
-      <c r="PV4" s="31"/>
-      <c r="PW4" s="31"/>
-      <c r="PX4" s="31"/>
-      <c r="PY4" s="31"/>
-      <c r="PZ4" s="31"/>
-      <c r="QA4" s="32"/>
-      <c r="QB4" s="32"/>
-      <c r="QC4" s="31"/>
-      <c r="QD4" s="31"/>
-      <c r="QE4" s="31"/>
-      <c r="QF4" s="31"/>
-      <c r="QG4" s="31"/>
-      <c r="QH4" s="31"/>
-      <c r="QI4" s="31"/>
-      <c r="QJ4" s="31"/>
-      <c r="QK4" s="31"/>
-      <c r="QL4" s="31"/>
-      <c r="QM4" s="31"/>
-      <c r="QN4" s="31"/>
-      <c r="QO4" s="32"/>
-      <c r="QP4" s="32"/>
-      <c r="QQ4" s="32"/>
-      <c r="QR4" s="32"/>
-      <c r="QS4" s="32"/>
-      <c r="QT4" s="32"/>
-      <c r="QU4" s="32"/>
-      <c r="QV4" s="32"/>
-      <c r="QW4" s="32"/>
-      <c r="QX4" s="32"/>
-      <c r="QY4" s="32"/>
-      <c r="QZ4" s="32"/>
-      <c r="RA4" s="32"/>
-      <c r="RB4" s="32"/>
-      <c r="RC4" s="32"/>
-      <c r="RD4" s="32"/>
-      <c r="RE4" s="32"/>
-      <c r="RF4" s="32"/>
-      <c r="RG4" s="32"/>
-      <c r="RH4" s="32"/>
-      <c r="RI4" s="32"/>
-      <c r="RJ4" s="32"/>
-      <c r="RK4" s="32"/>
-      <c r="RL4" s="32"/>
-      <c r="RM4" s="32"/>
-      <c r="RN4" s="32"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="32"/>
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32"/>
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="32"/>
+      <c r="CK4" s="32"/>
+      <c r="CL4" s="32"/>
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
+      <c r="CZ4" s="32"/>
+      <c r="DA4" s="32"/>
+      <c r="DB4" s="32"/>
+      <c r="DC4" s="32"/>
+      <c r="DD4" s="32"/>
+      <c r="DE4" s="32"/>
+      <c r="DF4" s="32"/>
+      <c r="DG4" s="32"/>
+      <c r="DH4" s="32"/>
+      <c r="DI4" s="32"/>
+      <c r="DJ4" s="32"/>
+      <c r="DK4" s="32"/>
+      <c r="DL4" s="32"/>
+      <c r="DM4" s="32"/>
+      <c r="DN4" s="32"/>
+      <c r="DO4" s="32"/>
+      <c r="DP4" s="32"/>
+      <c r="DQ4" s="32"/>
+      <c r="DR4" s="32"/>
+      <c r="DS4" s="32"/>
+      <c r="DT4" s="32"/>
+      <c r="DU4" s="32"/>
+      <c r="DV4" s="32"/>
+      <c r="DW4" s="32"/>
+      <c r="DX4" s="32"/>
+      <c r="DY4" s="32"/>
+      <c r="DZ4" s="32"/>
+      <c r="EA4" s="32"/>
+      <c r="EB4" s="32"/>
+      <c r="EC4" s="32"/>
+      <c r="ED4" s="32"/>
+      <c r="EE4" s="32"/>
+      <c r="EF4" s="32"/>
+      <c r="EG4" s="32"/>
+      <c r="EH4" s="32"/>
+      <c r="EI4" s="32"/>
+      <c r="EJ4" s="32"/>
+      <c r="EK4" s="32"/>
+      <c r="EL4" s="32"/>
+      <c r="EM4" s="32"/>
+      <c r="EN4" s="32"/>
+      <c r="EO4" s="32"/>
+      <c r="EP4" s="32"/>
+      <c r="EQ4" s="32"/>
+      <c r="ER4" s="32"/>
+      <c r="ES4" s="32"/>
+      <c r="ET4" s="32"/>
+      <c r="EU4" s="32"/>
+      <c r="EV4" s="32"/>
+      <c r="EW4" s="32"/>
+      <c r="EX4" s="32"/>
+      <c r="EY4" s="32"/>
+      <c r="EZ4" s="32"/>
+      <c r="FA4" s="32"/>
+      <c r="FB4" s="32"/>
+      <c r="FC4" s="32"/>
+      <c r="FD4" s="32"/>
+      <c r="FE4" s="32"/>
+      <c r="FF4" s="32"/>
+      <c r="FG4" s="32"/>
+      <c r="FH4" s="32"/>
+      <c r="FI4" s="32"/>
+      <c r="FJ4" s="32"/>
+      <c r="FK4" s="32"/>
+      <c r="FL4" s="32"/>
+      <c r="FM4" s="32"/>
+      <c r="FN4" s="32"/>
+      <c r="FO4" s="32"/>
+      <c r="FP4" s="32"/>
+      <c r="FQ4" s="34"/>
+      <c r="FR4" s="34"/>
+      <c r="FS4" s="32"/>
+      <c r="FT4" s="32"/>
+      <c r="FU4" s="32"/>
+      <c r="FV4" s="32"/>
+      <c r="FW4" s="32"/>
+      <c r="FX4" s="32"/>
+      <c r="FY4" s="32"/>
+      <c r="FZ4" s="33"/>
+      <c r="GA4" s="33"/>
+      <c r="GB4" s="32"/>
+      <c r="GC4" s="32"/>
+      <c r="GD4" s="32"/>
+      <c r="GE4" s="32"/>
+      <c r="GF4" s="32"/>
+      <c r="GG4" s="32"/>
+      <c r="GH4" s="32"/>
+      <c r="GI4" s="32"/>
+      <c r="GJ4" s="32"/>
+      <c r="GK4" s="32"/>
+      <c r="GL4" s="32"/>
+      <c r="GM4" s="32"/>
+      <c r="GN4" s="35"/>
+      <c r="GO4" s="35"/>
+      <c r="GP4" s="32"/>
+      <c r="GQ4" s="32"/>
+      <c r="GR4" s="32"/>
+      <c r="GS4" s="32"/>
+      <c r="GT4" s="32"/>
+      <c r="GU4" s="32"/>
+      <c r="GV4" s="32"/>
+      <c r="GW4" s="32"/>
+      <c r="GX4" s="32"/>
+      <c r="GY4" s="32"/>
+      <c r="GZ4" s="32"/>
+      <c r="HA4" s="32"/>
+      <c r="HB4" s="32"/>
+      <c r="HC4" s="32"/>
+      <c r="HD4" s="32"/>
+      <c r="HE4" s="32"/>
+      <c r="HF4" s="32"/>
+      <c r="HG4" s="32"/>
+      <c r="HH4" s="32"/>
+      <c r="HI4" s="32"/>
+      <c r="HJ4" s="32"/>
+      <c r="HK4" s="32"/>
+      <c r="HL4" s="32"/>
+      <c r="HM4" s="32"/>
+      <c r="HN4" s="32"/>
+      <c r="HO4" s="32"/>
+      <c r="HP4" s="32"/>
+      <c r="HQ4" s="32"/>
+      <c r="HR4" s="32"/>
+      <c r="HS4" s="32"/>
+      <c r="HT4" s="32"/>
+      <c r="HU4" s="32"/>
+      <c r="HV4" s="32"/>
+      <c r="HW4" s="32"/>
+      <c r="HX4" s="32"/>
+      <c r="HY4" s="32"/>
+      <c r="HZ4" s="32"/>
+      <c r="IA4" s="32"/>
+      <c r="IB4" s="32"/>
+      <c r="IC4" s="32"/>
+      <c r="ID4" s="32"/>
+      <c r="IE4" s="32"/>
+      <c r="IF4" s="32"/>
+      <c r="IG4" s="32"/>
+      <c r="IH4" s="32"/>
+      <c r="II4" s="32"/>
+      <c r="IJ4" s="32"/>
+      <c r="IK4" s="32"/>
+      <c r="IL4" s="32"/>
+      <c r="IM4" s="32"/>
+      <c r="IN4" s="33"/>
+      <c r="IO4" s="33"/>
+      <c r="IP4" s="32"/>
+      <c r="IQ4" s="32"/>
+      <c r="IR4" s="32"/>
+      <c r="IS4" s="32"/>
+      <c r="IT4" s="32"/>
+      <c r="IU4" s="32"/>
+      <c r="IV4" s="32"/>
+      <c r="IW4" s="32"/>
+      <c r="IX4" s="32"/>
+      <c r="IY4" s="32"/>
+      <c r="IZ4" s="32"/>
+      <c r="JA4" s="32"/>
+      <c r="JB4" s="32"/>
+      <c r="JC4" s="32"/>
+      <c r="JD4" s="32"/>
+      <c r="JE4" s="32"/>
+      <c r="JF4" s="32"/>
+      <c r="JG4" s="32"/>
+      <c r="JH4" s="32"/>
+      <c r="JI4" s="32"/>
+      <c r="JJ4" s="32"/>
+      <c r="JK4" s="32"/>
+      <c r="JL4" s="34"/>
+      <c r="JM4" s="34"/>
+      <c r="JN4" s="32"/>
+      <c r="JO4" s="32"/>
+      <c r="JP4" s="32"/>
+      <c r="JQ4" s="32"/>
+      <c r="JR4" s="32"/>
+      <c r="JS4" s="32"/>
+      <c r="JT4" s="32"/>
+      <c r="JU4" s="32"/>
+      <c r="JV4" s="32"/>
+      <c r="JW4" s="32"/>
+      <c r="JX4" s="32"/>
+      <c r="JY4" s="32"/>
+      <c r="JZ4" s="32"/>
+      <c r="KA4" s="32"/>
+      <c r="KB4" s="32"/>
+      <c r="KC4" s="32"/>
+      <c r="KD4" s="32"/>
+      <c r="KE4" s="32"/>
+      <c r="KF4" s="32"/>
+      <c r="KG4" s="32"/>
+      <c r="KH4" s="32"/>
+      <c r="KI4" s="32"/>
+      <c r="KJ4" s="32"/>
+      <c r="KK4" s="32"/>
+      <c r="KL4" s="32"/>
+      <c r="KM4" s="32"/>
+      <c r="KN4" s="32"/>
+      <c r="KO4" s="32"/>
+      <c r="KP4" s="32"/>
+      <c r="KQ4" s="32"/>
+      <c r="KR4" s="32"/>
+      <c r="KS4" s="32"/>
+      <c r="KT4" s="32"/>
+      <c r="KU4" s="32"/>
+      <c r="KV4" s="32"/>
+      <c r="KW4" s="32"/>
+      <c r="KX4" s="32"/>
+      <c r="KY4" s="33"/>
+      <c r="KZ4" s="33"/>
+      <c r="LA4" s="32"/>
+      <c r="LB4" s="32"/>
+      <c r="LC4" s="32"/>
+      <c r="LD4" s="32"/>
+      <c r="LE4" s="32"/>
+      <c r="LF4" s="32"/>
+      <c r="LG4" s="32"/>
+      <c r="LH4" s="32"/>
+      <c r="LI4" s="32"/>
+      <c r="LJ4" s="32"/>
+      <c r="LK4" s="32"/>
+      <c r="LL4" s="32"/>
+      <c r="LM4" s="32"/>
+      <c r="LN4" s="32"/>
+      <c r="LO4" s="32"/>
+      <c r="LP4" s="32"/>
+      <c r="LQ4" s="32"/>
+      <c r="LR4" s="32"/>
+      <c r="LS4" s="32"/>
+      <c r="LT4" s="32"/>
+      <c r="LU4" s="32"/>
+      <c r="LV4" s="32"/>
+      <c r="LW4" s="32"/>
+      <c r="LX4" s="32"/>
+      <c r="LY4" s="32"/>
+      <c r="LZ4" s="32"/>
+      <c r="MA4" s="32"/>
+      <c r="MB4" s="32"/>
+      <c r="MC4" s="32"/>
+      <c r="MD4" s="32"/>
+      <c r="ME4" s="32"/>
+      <c r="MF4" s="32"/>
+      <c r="MG4" s="32"/>
+      <c r="MH4" s="32"/>
+      <c r="MI4" s="32"/>
+      <c r="MJ4" s="32"/>
+      <c r="MK4" s="32"/>
+      <c r="ML4" s="32"/>
+      <c r="MM4" s="32"/>
+      <c r="MN4" s="33"/>
+      <c r="MO4" s="33"/>
+      <c r="MP4" s="32"/>
+      <c r="MQ4" s="32"/>
+      <c r="MR4" s="32"/>
+      <c r="MS4" s="32"/>
+      <c r="MT4" s="32"/>
+      <c r="MU4" s="32"/>
+      <c r="MV4" s="32"/>
+      <c r="MW4" s="32"/>
+      <c r="MX4" s="32"/>
+      <c r="MY4" s="32"/>
+      <c r="MZ4" s="32"/>
+      <c r="NA4" s="32"/>
+      <c r="NB4" s="32"/>
+      <c r="NC4" s="32"/>
+      <c r="ND4" s="32"/>
+      <c r="NE4" s="33"/>
+      <c r="NF4" s="32"/>
+      <c r="NG4" s="32"/>
+      <c r="NH4" s="33"/>
+      <c r="NI4" s="33"/>
+      <c r="NJ4" s="32"/>
+      <c r="NK4" s="32"/>
+      <c r="NL4" s="32"/>
+      <c r="NM4" s="32"/>
+      <c r="NN4" s="32"/>
+      <c r="NO4" s="32"/>
+      <c r="NP4" s="32"/>
+      <c r="NQ4" s="32"/>
+      <c r="NR4" s="32"/>
+      <c r="NS4" s="32"/>
+      <c r="NT4" s="32"/>
+      <c r="NU4" s="32"/>
+      <c r="NV4" s="32"/>
+      <c r="NW4" s="32"/>
+      <c r="NX4" s="32"/>
+      <c r="NY4" s="32"/>
+      <c r="NZ4" s="32"/>
+      <c r="OA4" s="32"/>
+      <c r="OB4" s="32"/>
+      <c r="OC4" s="32"/>
+      <c r="OD4" s="32"/>
+      <c r="OE4" s="32"/>
+      <c r="OF4" s="32"/>
+      <c r="OG4" s="33"/>
+      <c r="OH4" s="33"/>
+      <c r="OI4" s="32"/>
+      <c r="OJ4" s="32"/>
+      <c r="OK4" s="32"/>
+      <c r="OL4" s="32"/>
+      <c r="OM4" s="32"/>
+      <c r="ON4" s="32"/>
+      <c r="OO4" s="32"/>
+      <c r="OP4" s="32"/>
+      <c r="OQ4" s="32"/>
+      <c r="OR4" s="32"/>
+      <c r="OS4" s="32"/>
+      <c r="OT4" s="32"/>
+      <c r="OU4" s="32"/>
+      <c r="OV4" s="32"/>
+      <c r="OW4" s="32"/>
+      <c r="OX4" s="32"/>
+      <c r="OY4" s="33"/>
+      <c r="OZ4" s="33"/>
+      <c r="PA4" s="32"/>
+      <c r="PB4" s="32"/>
+      <c r="PC4" s="32"/>
+      <c r="PD4" s="32"/>
+      <c r="PE4" s="32"/>
+      <c r="PF4" s="32"/>
+      <c r="PG4" s="32"/>
+      <c r="PH4" s="32"/>
+      <c r="PI4" s="32"/>
+      <c r="PJ4" s="32"/>
+      <c r="PK4" s="32"/>
+      <c r="PL4" s="32"/>
+      <c r="PM4" s="32"/>
+      <c r="PN4" s="32"/>
+      <c r="PO4" s="32"/>
+      <c r="PP4" s="32"/>
+      <c r="PQ4" s="32"/>
+      <c r="PR4" s="32"/>
+      <c r="PS4" s="32"/>
+      <c r="PT4" s="32"/>
+      <c r="PU4" s="32"/>
+      <c r="PV4" s="32"/>
+      <c r="PW4" s="32"/>
+      <c r="PX4" s="32"/>
+      <c r="PY4" s="32"/>
+      <c r="PZ4" s="32"/>
+      <c r="QA4" s="33"/>
+      <c r="QB4" s="33"/>
+      <c r="QC4" s="32"/>
+      <c r="QD4" s="32"/>
+      <c r="QE4" s="32"/>
+      <c r="QF4" s="32"/>
+      <c r="QG4" s="32"/>
+      <c r="QH4" s="32"/>
+      <c r="QI4" s="32"/>
+      <c r="QJ4" s="32"/>
+      <c r="QK4" s="32"/>
+      <c r="QL4" s="32"/>
+      <c r="QM4" s="32"/>
+      <c r="QN4" s="32"/>
+      <c r="QO4" s="33"/>
+      <c r="QP4" s="33"/>
+      <c r="QQ4" s="33"/>
+      <c r="QR4" s="33"/>
+      <c r="QS4" s="33"/>
+      <c r="QT4" s="33"/>
+      <c r="QU4" s="33"/>
+      <c r="QV4" s="33"/>
+      <c r="QW4" s="33"/>
+      <c r="QX4" s="33"/>
+      <c r="QY4" s="33"/>
+      <c r="QZ4" s="33"/>
+      <c r="RA4" s="33"/>
+      <c r="RB4" s="33"/>
+      <c r="RC4" s="33"/>
+      <c r="RD4" s="33"/>
+      <c r="RE4" s="33"/>
+      <c r="RF4" s="33"/>
+      <c r="RG4" s="33"/>
+      <c r="RH4" s="33"/>
+      <c r="RI4" s="33"/>
+      <c r="RJ4" s="33"/>
+      <c r="RK4" s="33"/>
+      <c r="RL4" s="33"/>
+      <c r="RM4" s="33"/>
+      <c r="RN4" s="33"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="31"/>
-      <c r="AY5" s="31"/>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="31"/>
-      <c r="BB5" s="31"/>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="31"/>
-      <c r="BE5" s="31"/>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="31"/>
-      <c r="BH5" s="31"/>
-      <c r="BI5" s="31"/>
-      <c r="BJ5" s="31"/>
-      <c r="BK5" s="31"/>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="31"/>
-      <c r="BN5" s="31"/>
-      <c r="BO5" s="31"/>
-      <c r="BP5" s="31"/>
-      <c r="BQ5" s="31"/>
-      <c r="BR5" s="31"/>
-      <c r="BS5" s="31"/>
-      <c r="BT5" s="31"/>
-      <c r="BU5" s="31"/>
-      <c r="BV5" s="31"/>
-      <c r="BW5" s="32"/>
-      <c r="BX5" s="32"/>
-      <c r="BY5" s="31"/>
-      <c r="BZ5" s="31"/>
-      <c r="CA5" s="31"/>
-      <c r="CB5" s="31"/>
-      <c r="CC5" s="31"/>
-      <c r="CD5" s="31"/>
-      <c r="CE5" s="31"/>
-      <c r="CF5" s="31"/>
-      <c r="CG5" s="31"/>
-      <c r="CH5" s="31"/>
-      <c r="CI5" s="31"/>
-      <c r="CJ5" s="31"/>
-      <c r="CK5" s="31"/>
-      <c r="CL5" s="31"/>
-      <c r="CM5" s="31"/>
-      <c r="CN5" s="31"/>
-      <c r="CO5" s="31"/>
-      <c r="CP5" s="31"/>
-      <c r="CQ5" s="31"/>
-      <c r="CR5" s="31"/>
-      <c r="CS5" s="31"/>
-      <c r="CT5" s="31"/>
-      <c r="CU5" s="31"/>
-      <c r="CV5" s="31"/>
-      <c r="CW5" s="31"/>
-      <c r="CX5" s="31"/>
-      <c r="CY5" s="31"/>
-      <c r="CZ5" s="31"/>
-      <c r="DA5" s="31"/>
-      <c r="DB5" s="31"/>
-      <c r="DC5" s="31"/>
-      <c r="DD5" s="31"/>
-      <c r="DE5" s="31"/>
-      <c r="DF5" s="31"/>
-      <c r="DG5" s="31"/>
-      <c r="DH5" s="31"/>
-      <c r="DI5" s="31"/>
-      <c r="DJ5" s="31"/>
-      <c r="DK5" s="31"/>
-      <c r="DL5" s="31"/>
-      <c r="DM5" s="31"/>
-      <c r="DN5" s="31"/>
-      <c r="DO5" s="31"/>
-      <c r="DP5" s="31"/>
-      <c r="DQ5" s="31"/>
-      <c r="DR5" s="31"/>
-      <c r="DS5" s="31"/>
-      <c r="DT5" s="31"/>
-      <c r="DU5" s="31"/>
-      <c r="DV5" s="31"/>
-      <c r="DW5" s="31"/>
-      <c r="DX5" s="31"/>
-      <c r="DY5" s="31"/>
-      <c r="DZ5" s="31"/>
-      <c r="EA5" s="31"/>
-      <c r="EB5" s="31"/>
-      <c r="EC5" s="31"/>
-      <c r="ED5" s="31"/>
-      <c r="EE5" s="31"/>
-      <c r="EF5" s="31"/>
-      <c r="EG5" s="31"/>
-      <c r="EH5" s="31"/>
-      <c r="EI5" s="31"/>
-      <c r="EJ5" s="31"/>
-      <c r="EK5" s="31"/>
-      <c r="EL5" s="31"/>
-      <c r="EM5" s="31"/>
-      <c r="EN5" s="31"/>
-      <c r="EO5" s="31"/>
-      <c r="EP5" s="31"/>
-      <c r="EQ5" s="31"/>
-      <c r="ER5" s="31"/>
-      <c r="ES5" s="31"/>
-      <c r="ET5" s="31"/>
-      <c r="EU5" s="31"/>
-      <c r="EV5" s="31"/>
-      <c r="EW5" s="31"/>
-      <c r="EX5" s="31"/>
-      <c r="EY5" s="31"/>
-      <c r="EZ5" s="31"/>
-      <c r="FA5" s="31"/>
-      <c r="FB5" s="31"/>
-      <c r="FC5" s="31"/>
-      <c r="FD5" s="31"/>
-      <c r="FE5" s="31"/>
-      <c r="FF5" s="31"/>
-      <c r="FG5" s="31"/>
-      <c r="FH5" s="31"/>
-      <c r="FI5" s="31"/>
-      <c r="FJ5" s="31"/>
-      <c r="FK5" s="31"/>
-      <c r="FL5" s="31"/>
-      <c r="FM5" s="31"/>
-      <c r="FN5" s="31"/>
-      <c r="FO5" s="31"/>
-      <c r="FP5" s="31"/>
-      <c r="FQ5" s="33"/>
-      <c r="FR5" s="33"/>
-      <c r="FS5" s="31"/>
-      <c r="FT5" s="31"/>
-      <c r="FU5" s="31"/>
-      <c r="FV5" s="31"/>
-      <c r="FW5" s="31"/>
-      <c r="FX5" s="31"/>
-      <c r="FY5" s="31"/>
-      <c r="FZ5" s="33"/>
-      <c r="GA5" s="33"/>
-      <c r="GB5" s="31"/>
-      <c r="GC5" s="31"/>
-      <c r="GD5" s="31"/>
-      <c r="GE5" s="31"/>
-      <c r="GF5" s="31"/>
-      <c r="GG5" s="31"/>
-      <c r="GH5" s="31"/>
-      <c r="GI5" s="31"/>
-      <c r="GJ5" s="31"/>
-      <c r="GK5" s="31"/>
-      <c r="GL5" s="31"/>
-      <c r="GM5" s="31"/>
-      <c r="GN5" s="34"/>
-      <c r="GO5" s="34"/>
-      <c r="GP5" s="31"/>
-      <c r="GQ5" s="31"/>
-      <c r="GR5" s="31"/>
-      <c r="GS5" s="31"/>
-      <c r="GT5" s="31"/>
-      <c r="GU5" s="31"/>
-      <c r="GV5" s="31"/>
-      <c r="GW5" s="31"/>
-      <c r="GX5" s="31"/>
-      <c r="GY5" s="31"/>
-      <c r="GZ5" s="31"/>
-      <c r="HA5" s="31"/>
-      <c r="HB5" s="31"/>
-      <c r="HC5" s="31"/>
-      <c r="HD5" s="31"/>
-      <c r="HE5" s="31"/>
-      <c r="HF5" s="31"/>
-      <c r="HG5" s="31"/>
-      <c r="HH5" s="31"/>
-      <c r="HI5" s="31"/>
-      <c r="HJ5" s="31"/>
-      <c r="HK5" s="31"/>
-      <c r="HL5" s="31"/>
-      <c r="HM5" s="31"/>
-      <c r="HN5" s="31"/>
-      <c r="HO5" s="31"/>
-      <c r="HP5" s="31"/>
-      <c r="HQ5" s="31"/>
-      <c r="HR5" s="31"/>
-      <c r="HS5" s="31"/>
-      <c r="HT5" s="31"/>
-      <c r="HU5" s="31"/>
-      <c r="HV5" s="31"/>
-      <c r="HW5" s="31"/>
-      <c r="HX5" s="31"/>
-      <c r="HY5" s="31"/>
-      <c r="HZ5" s="31"/>
-      <c r="IA5" s="31"/>
-      <c r="IB5" s="31"/>
-      <c r="IC5" s="31"/>
-      <c r="ID5" s="31"/>
-      <c r="IE5" s="31"/>
-      <c r="IF5" s="31"/>
-      <c r="IG5" s="31"/>
-      <c r="IH5" s="31"/>
-      <c r="II5" s="31"/>
-      <c r="IJ5" s="31"/>
-      <c r="IK5" s="31"/>
-      <c r="IL5" s="31"/>
-      <c r="IM5" s="31"/>
-      <c r="IN5" s="32"/>
-      <c r="IO5" s="32"/>
-      <c r="IP5" s="31"/>
-      <c r="IQ5" s="31"/>
-      <c r="IR5" s="31"/>
-      <c r="IS5" s="31"/>
-      <c r="IT5" s="31"/>
-      <c r="IU5" s="31"/>
-      <c r="IV5" s="31"/>
-      <c r="IW5" s="31"/>
-      <c r="IX5" s="31"/>
-      <c r="IY5" s="31"/>
-      <c r="IZ5" s="31"/>
-      <c r="JA5" s="31"/>
-      <c r="JB5" s="31"/>
-      <c r="JC5" s="31"/>
-      <c r="JD5" s="31"/>
-      <c r="JE5" s="31"/>
-      <c r="JF5" s="31"/>
-      <c r="JG5" s="31"/>
-      <c r="JH5" s="31"/>
-      <c r="JI5" s="31"/>
-      <c r="JJ5" s="31"/>
-      <c r="JK5" s="31"/>
-      <c r="JL5" s="32"/>
-      <c r="JM5" s="32"/>
-      <c r="JN5" s="31"/>
-      <c r="JO5" s="31"/>
-      <c r="JP5" s="31"/>
-      <c r="JQ5" s="31"/>
-      <c r="JR5" s="31"/>
-      <c r="JS5" s="31"/>
-      <c r="JT5" s="31"/>
-      <c r="JU5" s="31"/>
-      <c r="JV5" s="31"/>
-      <c r="JW5" s="31"/>
-      <c r="JX5" s="31"/>
-      <c r="JY5" s="31"/>
-      <c r="JZ5" s="31"/>
-      <c r="KA5" s="31"/>
-      <c r="KB5" s="31"/>
-      <c r="KC5" s="31"/>
-      <c r="KD5" s="31"/>
-      <c r="KE5" s="31"/>
-      <c r="KF5" s="31"/>
-      <c r="KG5" s="31"/>
-      <c r="KH5" s="31"/>
-      <c r="KI5" s="31"/>
-      <c r="KJ5" s="31"/>
-      <c r="KK5" s="31"/>
-      <c r="KL5" s="31"/>
-      <c r="KM5" s="31"/>
-      <c r="KN5" s="31"/>
-      <c r="KO5" s="31"/>
-      <c r="KP5" s="31"/>
-      <c r="KQ5" s="31"/>
-      <c r="KR5" s="31"/>
-      <c r="KS5" s="31"/>
-      <c r="KT5" s="31"/>
-      <c r="KU5" s="31"/>
-      <c r="KV5" s="31"/>
-      <c r="KW5" s="31"/>
-      <c r="KX5" s="31"/>
-      <c r="KY5" s="32"/>
-      <c r="KZ5" s="32"/>
-      <c r="LA5" s="31"/>
-      <c r="LB5" s="31"/>
-      <c r="LC5" s="31"/>
-      <c r="LD5" s="31"/>
-      <c r="LE5" s="31"/>
-      <c r="LF5" s="31"/>
-      <c r="LG5" s="31"/>
-      <c r="LH5" s="31"/>
-      <c r="LI5" s="31"/>
-      <c r="LJ5" s="31"/>
-      <c r="LK5" s="31"/>
-      <c r="LL5" s="31"/>
-      <c r="LM5" s="31"/>
-      <c r="LN5" s="31"/>
-      <c r="LO5" s="31"/>
-      <c r="LP5" s="31"/>
-      <c r="LQ5" s="31"/>
-      <c r="LR5" s="31"/>
-      <c r="LS5" s="31"/>
-      <c r="LT5" s="31"/>
-      <c r="LU5" s="31"/>
-      <c r="LV5" s="31"/>
-      <c r="LW5" s="31"/>
-      <c r="LX5" s="31"/>
-      <c r="LY5" s="31"/>
-      <c r="LZ5" s="31"/>
-      <c r="MA5" s="31"/>
-      <c r="MB5" s="31"/>
-      <c r="MC5" s="31"/>
-      <c r="MD5" s="31"/>
-      <c r="ME5" s="31"/>
-      <c r="MF5" s="31"/>
-      <c r="MG5" s="31"/>
-      <c r="MH5" s="31"/>
-      <c r="MI5" s="31"/>
-      <c r="MJ5" s="31"/>
-      <c r="MK5" s="31"/>
-      <c r="ML5" s="31"/>
-      <c r="MM5" s="31"/>
-      <c r="MN5" s="33"/>
-      <c r="MO5" s="33"/>
-      <c r="MP5" s="31"/>
-      <c r="MQ5" s="31"/>
-      <c r="MR5" s="31"/>
-      <c r="MS5" s="31"/>
-      <c r="MT5" s="31"/>
-      <c r="MU5" s="31"/>
-      <c r="MV5" s="31"/>
-      <c r="MW5" s="31"/>
-      <c r="MX5" s="31"/>
-      <c r="MY5" s="31"/>
-      <c r="MZ5" s="31"/>
-      <c r="NA5" s="31"/>
-      <c r="NB5" s="31"/>
-      <c r="NC5" s="31"/>
-      <c r="ND5" s="31"/>
-      <c r="NE5" s="32"/>
-      <c r="NF5" s="31"/>
-      <c r="NG5" s="31"/>
-      <c r="NH5" s="32"/>
-      <c r="NI5" s="32"/>
-      <c r="NJ5" s="31"/>
-      <c r="NK5" s="31"/>
-      <c r="NL5" s="31"/>
-      <c r="NM5" s="31"/>
-      <c r="NN5" s="31"/>
-      <c r="NO5" s="31"/>
-      <c r="NP5" s="31"/>
-      <c r="NQ5" s="31"/>
-      <c r="NR5" s="31"/>
-      <c r="NS5" s="31"/>
-      <c r="NT5" s="31"/>
-      <c r="NU5" s="31"/>
-      <c r="NV5" s="31"/>
-      <c r="NW5" s="31"/>
-      <c r="NX5" s="31"/>
-      <c r="NY5" s="31"/>
-      <c r="NZ5" s="31"/>
-      <c r="OA5" s="31"/>
-      <c r="OB5" s="31"/>
-      <c r="OC5" s="31"/>
-      <c r="OD5" s="31"/>
-      <c r="OE5" s="31"/>
-      <c r="OF5" s="31"/>
-      <c r="OG5" s="32"/>
-      <c r="OH5" s="32"/>
-      <c r="OI5" s="31"/>
-      <c r="OJ5" s="31"/>
-      <c r="OK5" s="31"/>
-      <c r="OL5" s="31"/>
-      <c r="OM5" s="31"/>
-      <c r="ON5" s="31"/>
-      <c r="OO5" s="31"/>
-      <c r="OP5" s="31"/>
-      <c r="OQ5" s="31"/>
-      <c r="OR5" s="31"/>
-      <c r="OS5" s="31"/>
-      <c r="OT5" s="31"/>
-      <c r="OU5" s="31"/>
-      <c r="OV5" s="31"/>
-      <c r="OW5" s="31"/>
-      <c r="OX5" s="31"/>
-      <c r="OY5" s="32"/>
-      <c r="OZ5" s="32"/>
-      <c r="PA5" s="31"/>
-      <c r="PB5" s="31"/>
-      <c r="PC5" s="31"/>
-      <c r="PD5" s="31"/>
-      <c r="PE5" s="31"/>
-      <c r="PF5" s="31"/>
-      <c r="PG5" s="31"/>
-      <c r="PH5" s="31"/>
-      <c r="PI5" s="31"/>
-      <c r="PJ5" s="31"/>
-      <c r="PK5" s="31"/>
-      <c r="PL5" s="31"/>
-      <c r="PM5" s="31"/>
-      <c r="PN5" s="31"/>
-      <c r="PO5" s="31"/>
-      <c r="PP5" s="31"/>
-      <c r="PQ5" s="31"/>
-      <c r="PR5" s="31"/>
-      <c r="PS5" s="31"/>
-      <c r="PT5" s="31"/>
-      <c r="PU5" s="31"/>
-      <c r="PV5" s="31"/>
-      <c r="PW5" s="31"/>
-      <c r="PX5" s="31"/>
-      <c r="PY5" s="31"/>
-      <c r="PZ5" s="31"/>
-      <c r="QA5" s="32"/>
-      <c r="QB5" s="32"/>
-      <c r="QC5" s="31"/>
-      <c r="QD5" s="31"/>
-      <c r="QE5" s="31"/>
-      <c r="QF5" s="31"/>
-      <c r="QG5" s="31"/>
-      <c r="QH5" s="31"/>
-      <c r="QI5" s="31"/>
-      <c r="QJ5" s="31"/>
-      <c r="QK5" s="31"/>
-      <c r="QL5" s="31"/>
-      <c r="QM5" s="31"/>
-      <c r="QN5" s="31"/>
-      <c r="QO5" s="32"/>
-      <c r="QP5" s="32"/>
-      <c r="QQ5" s="32"/>
-      <c r="QR5" s="32"/>
-      <c r="QS5" s="32"/>
-      <c r="QT5" s="32"/>
-      <c r="QU5" s="32"/>
-      <c r="QV5" s="32"/>
-      <c r="QW5" s="32"/>
-      <c r="QX5" s="32"/>
-      <c r="QY5" s="32"/>
-      <c r="QZ5" s="32"/>
-      <c r="RA5" s="32"/>
-      <c r="RB5" s="32"/>
-      <c r="RC5" s="32"/>
-      <c r="RD5" s="32"/>
-      <c r="RE5" s="32"/>
-      <c r="RF5" s="32"/>
-      <c r="RG5" s="32"/>
-      <c r="RH5" s="32"/>
-      <c r="RI5" s="32"/>
-      <c r="RJ5" s="32"/>
-      <c r="RK5" s="32"/>
-      <c r="RL5" s="32"/>
-      <c r="RM5" s="32"/>
-      <c r="RN5" s="32"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="32"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="32"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="32"/>
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="32"/>
+      <c r="BW5" s="33"/>
+      <c r="BX5" s="33"/>
+      <c r="BY5" s="32"/>
+      <c r="BZ5" s="32"/>
+      <c r="CA5" s="32"/>
+      <c r="CB5" s="32"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="32"/>
+      <c r="CE5" s="32"/>
+      <c r="CF5" s="32"/>
+      <c r="CG5" s="32"/>
+      <c r="CH5" s="32"/>
+      <c r="CI5" s="32"/>
+      <c r="CJ5" s="32"/>
+      <c r="CK5" s="32"/>
+      <c r="CL5" s="32"/>
+      <c r="CM5" s="32"/>
+      <c r="CN5" s="32"/>
+      <c r="CO5" s="32"/>
+      <c r="CP5" s="32"/>
+      <c r="CQ5" s="32"/>
+      <c r="CR5" s="32"/>
+      <c r="CS5" s="32"/>
+      <c r="CT5" s="32"/>
+      <c r="CU5" s="32"/>
+      <c r="CV5" s="32"/>
+      <c r="CW5" s="32"/>
+      <c r="CX5" s="32"/>
+      <c r="CY5" s="32"/>
+      <c r="CZ5" s="32"/>
+      <c r="DA5" s="32"/>
+      <c r="DB5" s="32"/>
+      <c r="DC5" s="32"/>
+      <c r="DD5" s="32"/>
+      <c r="DE5" s="32"/>
+      <c r="DF5" s="32"/>
+      <c r="DG5" s="32"/>
+      <c r="DH5" s="32"/>
+      <c r="DI5" s="32"/>
+      <c r="DJ5" s="32"/>
+      <c r="DK5" s="32"/>
+      <c r="DL5" s="32"/>
+      <c r="DM5" s="32"/>
+      <c r="DN5" s="32"/>
+      <c r="DO5" s="32"/>
+      <c r="DP5" s="32"/>
+      <c r="DQ5" s="32"/>
+      <c r="DR5" s="32"/>
+      <c r="DS5" s="32"/>
+      <c r="DT5" s="32"/>
+      <c r="DU5" s="32"/>
+      <c r="DV5" s="32"/>
+      <c r="DW5" s="32"/>
+      <c r="DX5" s="32"/>
+      <c r="DY5" s="32"/>
+      <c r="DZ5" s="32"/>
+      <c r="EA5" s="32"/>
+      <c r="EB5" s="32"/>
+      <c r="EC5" s="32"/>
+      <c r="ED5" s="32"/>
+      <c r="EE5" s="32"/>
+      <c r="EF5" s="32"/>
+      <c r="EG5" s="32"/>
+      <c r="EH5" s="32"/>
+      <c r="EI5" s="32"/>
+      <c r="EJ5" s="32"/>
+      <c r="EK5" s="32"/>
+      <c r="EL5" s="32"/>
+      <c r="EM5" s="32"/>
+      <c r="EN5" s="32"/>
+      <c r="EO5" s="32"/>
+      <c r="EP5" s="32"/>
+      <c r="EQ5" s="32"/>
+      <c r="ER5" s="32"/>
+      <c r="ES5" s="32"/>
+      <c r="ET5" s="32"/>
+      <c r="EU5" s="32"/>
+      <c r="EV5" s="32"/>
+      <c r="EW5" s="32"/>
+      <c r="EX5" s="32"/>
+      <c r="EY5" s="32"/>
+      <c r="EZ5" s="32"/>
+      <c r="FA5" s="32"/>
+      <c r="FB5" s="32"/>
+      <c r="FC5" s="32"/>
+      <c r="FD5" s="32"/>
+      <c r="FE5" s="32"/>
+      <c r="FF5" s="32"/>
+      <c r="FG5" s="32"/>
+      <c r="FH5" s="32"/>
+      <c r="FI5" s="32"/>
+      <c r="FJ5" s="32"/>
+      <c r="FK5" s="32"/>
+      <c r="FL5" s="32"/>
+      <c r="FM5" s="32"/>
+      <c r="FN5" s="32"/>
+      <c r="FO5" s="32"/>
+      <c r="FP5" s="32"/>
+      <c r="FQ5" s="34"/>
+      <c r="FR5" s="34"/>
+      <c r="FS5" s="32"/>
+      <c r="FT5" s="32"/>
+      <c r="FU5" s="32"/>
+      <c r="FV5" s="32"/>
+      <c r="FW5" s="32"/>
+      <c r="FX5" s="32"/>
+      <c r="FY5" s="32"/>
+      <c r="FZ5" s="34"/>
+      <c r="GA5" s="34"/>
+      <c r="GB5" s="32"/>
+      <c r="GC5" s="32"/>
+      <c r="GD5" s="32"/>
+      <c r="GE5" s="32"/>
+      <c r="GF5" s="32"/>
+      <c r="GG5" s="32"/>
+      <c r="GH5" s="32"/>
+      <c r="GI5" s="32"/>
+      <c r="GJ5" s="32"/>
+      <c r="GK5" s="32"/>
+      <c r="GL5" s="32"/>
+      <c r="GM5" s="32"/>
+      <c r="GN5" s="35"/>
+      <c r="GO5" s="35"/>
+      <c r="GP5" s="32"/>
+      <c r="GQ5" s="32"/>
+      <c r="GR5" s="32"/>
+      <c r="GS5" s="32"/>
+      <c r="GT5" s="32"/>
+      <c r="GU5" s="32"/>
+      <c r="GV5" s="32"/>
+      <c r="GW5" s="32"/>
+      <c r="GX5" s="32"/>
+      <c r="GY5" s="32"/>
+      <c r="GZ5" s="32"/>
+      <c r="HA5" s="32"/>
+      <c r="HB5" s="32"/>
+      <c r="HC5" s="32"/>
+      <c r="HD5" s="32"/>
+      <c r="HE5" s="32"/>
+      <c r="HF5" s="32"/>
+      <c r="HG5" s="32"/>
+      <c r="HH5" s="32"/>
+      <c r="HI5" s="32"/>
+      <c r="HJ5" s="32"/>
+      <c r="HK5" s="32"/>
+      <c r="HL5" s="32"/>
+      <c r="HM5" s="32"/>
+      <c r="HN5" s="32"/>
+      <c r="HO5" s="32"/>
+      <c r="HP5" s="32"/>
+      <c r="HQ5" s="32"/>
+      <c r="HR5" s="32"/>
+      <c r="HS5" s="32"/>
+      <c r="HT5" s="32"/>
+      <c r="HU5" s="32"/>
+      <c r="HV5" s="32"/>
+      <c r="HW5" s="32"/>
+      <c r="HX5" s="32"/>
+      <c r="HY5" s="32"/>
+      <c r="HZ5" s="32"/>
+      <c r="IA5" s="32"/>
+      <c r="IB5" s="32"/>
+      <c r="IC5" s="32"/>
+      <c r="ID5" s="32"/>
+      <c r="IE5" s="32"/>
+      <c r="IF5" s="32"/>
+      <c r="IG5" s="32"/>
+      <c r="IH5" s="32"/>
+      <c r="II5" s="32"/>
+      <c r="IJ5" s="32"/>
+      <c r="IK5" s="32"/>
+      <c r="IL5" s="32"/>
+      <c r="IM5" s="32"/>
+      <c r="IN5" s="33"/>
+      <c r="IO5" s="33"/>
+      <c r="IP5" s="32"/>
+      <c r="IQ5" s="32"/>
+      <c r="IR5" s="32"/>
+      <c r="IS5" s="32"/>
+      <c r="IT5" s="32"/>
+      <c r="IU5" s="32"/>
+      <c r="IV5" s="32"/>
+      <c r="IW5" s="32"/>
+      <c r="IX5" s="32"/>
+      <c r="IY5" s="32"/>
+      <c r="IZ5" s="32"/>
+      <c r="JA5" s="32"/>
+      <c r="JB5" s="32"/>
+      <c r="JC5" s="32"/>
+      <c r="JD5" s="32"/>
+      <c r="JE5" s="32"/>
+      <c r="JF5" s="32"/>
+      <c r="JG5" s="32"/>
+      <c r="JH5" s="32"/>
+      <c r="JI5" s="32"/>
+      <c r="JJ5" s="32"/>
+      <c r="JK5" s="32"/>
+      <c r="JL5" s="33"/>
+      <c r="JM5" s="33"/>
+      <c r="JN5" s="32"/>
+      <c r="JO5" s="32"/>
+      <c r="JP5" s="32"/>
+      <c r="JQ5" s="32"/>
+      <c r="JR5" s="32"/>
+      <c r="JS5" s="32"/>
+      <c r="JT5" s="32"/>
+      <c r="JU5" s="32"/>
+      <c r="JV5" s="32"/>
+      <c r="JW5" s="32"/>
+      <c r="JX5" s="32"/>
+      <c r="JY5" s="32"/>
+      <c r="JZ5" s="32"/>
+      <c r="KA5" s="32"/>
+      <c r="KB5" s="32"/>
+      <c r="KC5" s="32"/>
+      <c r="KD5" s="32"/>
+      <c r="KE5" s="32"/>
+      <c r="KF5" s="32"/>
+      <c r="KG5" s="32"/>
+      <c r="KH5" s="32"/>
+      <c r="KI5" s="32"/>
+      <c r="KJ5" s="32"/>
+      <c r="KK5" s="32"/>
+      <c r="KL5" s="32"/>
+      <c r="KM5" s="32"/>
+      <c r="KN5" s="32"/>
+      <c r="KO5" s="32"/>
+      <c r="KP5" s="32"/>
+      <c r="KQ5" s="32"/>
+      <c r="KR5" s="32"/>
+      <c r="KS5" s="32"/>
+      <c r="KT5" s="32"/>
+      <c r="KU5" s="32"/>
+      <c r="KV5" s="32"/>
+      <c r="KW5" s="32"/>
+      <c r="KX5" s="32"/>
+      <c r="KY5" s="33"/>
+      <c r="KZ5" s="33"/>
+      <c r="LA5" s="32"/>
+      <c r="LB5" s="32"/>
+      <c r="LC5" s="32"/>
+      <c r="LD5" s="32"/>
+      <c r="LE5" s="32"/>
+      <c r="LF5" s="32"/>
+      <c r="LG5" s="32"/>
+      <c r="LH5" s="32"/>
+      <c r="LI5" s="32"/>
+      <c r="LJ5" s="32"/>
+      <c r="LK5" s="32"/>
+      <c r="LL5" s="32"/>
+      <c r="LM5" s="32"/>
+      <c r="LN5" s="32"/>
+      <c r="LO5" s="32"/>
+      <c r="LP5" s="32"/>
+      <c r="LQ5" s="32"/>
+      <c r="LR5" s="32"/>
+      <c r="LS5" s="32"/>
+      <c r="LT5" s="32"/>
+      <c r="LU5" s="32"/>
+      <c r="LV5" s="32"/>
+      <c r="LW5" s="32"/>
+      <c r="LX5" s="32"/>
+      <c r="LY5" s="32"/>
+      <c r="LZ5" s="32"/>
+      <c r="MA5" s="32"/>
+      <c r="MB5" s="32"/>
+      <c r="MC5" s="32"/>
+      <c r="MD5" s="32"/>
+      <c r="ME5" s="32"/>
+      <c r="MF5" s="32"/>
+      <c r="MG5" s="32"/>
+      <c r="MH5" s="32"/>
+      <c r="MI5" s="32"/>
+      <c r="MJ5" s="32"/>
+      <c r="MK5" s="32"/>
+      <c r="ML5" s="32"/>
+      <c r="MM5" s="32"/>
+      <c r="MN5" s="34"/>
+      <c r="MO5" s="34"/>
+      <c r="MP5" s="32"/>
+      <c r="MQ5" s="32"/>
+      <c r="MR5" s="32"/>
+      <c r="MS5" s="32"/>
+      <c r="MT5" s="32"/>
+      <c r="MU5" s="32"/>
+      <c r="MV5" s="32"/>
+      <c r="MW5" s="32"/>
+      <c r="MX5" s="32"/>
+      <c r="MY5" s="32"/>
+      <c r="MZ5" s="32"/>
+      <c r="NA5" s="32"/>
+      <c r="NB5" s="32"/>
+      <c r="NC5" s="32"/>
+      <c r="ND5" s="32"/>
+      <c r="NE5" s="33"/>
+      <c r="NF5" s="32"/>
+      <c r="NG5" s="32"/>
+      <c r="NH5" s="33"/>
+      <c r="NI5" s="33"/>
+      <c r="NJ5" s="32"/>
+      <c r="NK5" s="32"/>
+      <c r="NL5" s="32"/>
+      <c r="NM5" s="32"/>
+      <c r="NN5" s="32"/>
+      <c r="NO5" s="32"/>
+      <c r="NP5" s="32"/>
+      <c r="NQ5" s="32"/>
+      <c r="NR5" s="32"/>
+      <c r="NS5" s="32"/>
+      <c r="NT5" s="32"/>
+      <c r="NU5" s="32"/>
+      <c r="NV5" s="32"/>
+      <c r="NW5" s="32"/>
+      <c r="NX5" s="32"/>
+      <c r="NY5" s="32"/>
+      <c r="NZ5" s="32"/>
+      <c r="OA5" s="32"/>
+      <c r="OB5" s="32"/>
+      <c r="OC5" s="32"/>
+      <c r="OD5" s="32"/>
+      <c r="OE5" s="32"/>
+      <c r="OF5" s="32"/>
+      <c r="OG5" s="33"/>
+      <c r="OH5" s="33"/>
+      <c r="OI5" s="32"/>
+      <c r="OJ5" s="32"/>
+      <c r="OK5" s="32"/>
+      <c r="OL5" s="32"/>
+      <c r="OM5" s="32"/>
+      <c r="ON5" s="32"/>
+      <c r="OO5" s="32"/>
+      <c r="OP5" s="32"/>
+      <c r="OQ5" s="32"/>
+      <c r="OR5" s="32"/>
+      <c r="OS5" s="32"/>
+      <c r="OT5" s="32"/>
+      <c r="OU5" s="32"/>
+      <c r="OV5" s="32"/>
+      <c r="OW5" s="32"/>
+      <c r="OX5" s="32"/>
+      <c r="OY5" s="33"/>
+      <c r="OZ5" s="33"/>
+      <c r="PA5" s="32"/>
+      <c r="PB5" s="32"/>
+      <c r="PC5" s="32"/>
+      <c r="PD5" s="32"/>
+      <c r="PE5" s="32"/>
+      <c r="PF5" s="32"/>
+      <c r="PG5" s="32"/>
+      <c r="PH5" s="32"/>
+      <c r="PI5" s="32"/>
+      <c r="PJ5" s="32"/>
+      <c r="PK5" s="32"/>
+      <c r="PL5" s="32"/>
+      <c r="PM5" s="32"/>
+      <c r="PN5" s="32"/>
+      <c r="PO5" s="32"/>
+      <c r="PP5" s="32"/>
+      <c r="PQ5" s="32"/>
+      <c r="PR5" s="32"/>
+      <c r="PS5" s="32"/>
+      <c r="PT5" s="32"/>
+      <c r="PU5" s="32"/>
+      <c r="PV5" s="32"/>
+      <c r="PW5" s="32"/>
+      <c r="PX5" s="32"/>
+      <c r="PY5" s="32"/>
+      <c r="PZ5" s="32"/>
+      <c r="QA5" s="33"/>
+      <c r="QB5" s="33"/>
+      <c r="QC5" s="32"/>
+      <c r="QD5" s="32"/>
+      <c r="QE5" s="32"/>
+      <c r="QF5" s="32"/>
+      <c r="QG5" s="32"/>
+      <c r="QH5" s="32"/>
+      <c r="QI5" s="32"/>
+      <c r="QJ5" s="32"/>
+      <c r="QK5" s="32"/>
+      <c r="QL5" s="32"/>
+      <c r="QM5" s="32"/>
+      <c r="QN5" s="32"/>
+      <c r="QO5" s="33"/>
+      <c r="QP5" s="33"/>
+      <c r="QQ5" s="33"/>
+      <c r="QR5" s="33"/>
+      <c r="QS5" s="33"/>
+      <c r="QT5" s="33"/>
+      <c r="QU5" s="33"/>
+      <c r="QV5" s="33"/>
+      <c r="QW5" s="33"/>
+      <c r="QX5" s="33"/>
+      <c r="QY5" s="33"/>
+      <c r="QZ5" s="33"/>
+      <c r="RA5" s="33"/>
+      <c r="RB5" s="33"/>
+      <c r="RC5" s="33"/>
+      <c r="RD5" s="33"/>
+      <c r="RE5" s="33"/>
+      <c r="RF5" s="33"/>
+      <c r="RG5" s="33"/>
+      <c r="RH5" s="33"/>
+      <c r="RI5" s="33"/>
+      <c r="RJ5" s="33"/>
+      <c r="RK5" s="33"/>
+      <c r="RL5" s="33"/>
+      <c r="RM5" s="33"/>
+      <c r="RN5" s="33"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AM6" s="36"/>
-      <c r="AV6" s="36"/>
-      <c r="BV6" s="35"/>
-      <c r="BW6" s="35"/>
-      <c r="BX6" s="35"/>
-      <c r="FQ6" s="36"/>
-      <c r="FR6" s="36"/>
-      <c r="FZ6" s="35"/>
-      <c r="GA6" s="35"/>
-      <c r="GN6" s="37"/>
-      <c r="GO6" s="37"/>
-      <c r="IN6" s="35"/>
-      <c r="IO6" s="35"/>
-      <c r="JL6" s="35"/>
-      <c r="JM6" s="35"/>
-      <c r="KY6" s="35"/>
-      <c r="KZ6" s="35"/>
-      <c r="MN6" s="36"/>
-      <c r="MO6" s="36"/>
-      <c r="NE6" s="35"/>
-      <c r="NH6" s="35"/>
-      <c r="NI6" s="35"/>
-      <c r="OG6" s="35"/>
-      <c r="OH6" s="35"/>
-      <c r="OY6" s="38"/>
-      <c r="OZ6" s="38"/>
-      <c r="QA6" s="35"/>
-      <c r="QB6" s="35"/>
-      <c r="QO6" s="35"/>
-      <c r="QP6" s="35"/>
-      <c r="QQ6" s="35"/>
-      <c r="QR6" s="35"/>
-      <c r="QS6" s="35"/>
-      <c r="QT6" s="35"/>
-      <c r="QU6" s="35"/>
-      <c r="QV6" s="35"/>
-      <c r="QW6" s="35"/>
-      <c r="QX6" s="35"/>
-      <c r="QY6" s="35"/>
-      <c r="QZ6" s="35"/>
-      <c r="RA6" s="35"/>
-      <c r="RB6" s="35"/>
-      <c r="RC6" s="35"/>
-      <c r="RD6" s="35"/>
-      <c r="RE6" s="35"/>
-      <c r="RF6" s="35"/>
-      <c r="RG6" s="35"/>
-      <c r="RH6" s="35"/>
-      <c r="RI6" s="35"/>
-      <c r="RJ6" s="35"/>
-      <c r="RK6" s="35"/>
-      <c r="RL6" s="35"/>
-      <c r="RM6" s="35"/>
-      <c r="RN6" s="35"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AL6" s="37"/>
+      <c r="AV6" s="37"/>
+      <c r="BV6" s="36"/>
+      <c r="BW6" s="36"/>
+      <c r="BX6" s="36"/>
+      <c r="FQ6" s="37"/>
+      <c r="FR6" s="37"/>
+      <c r="FZ6" s="36"/>
+      <c r="GA6" s="36"/>
+      <c r="GN6" s="38"/>
+      <c r="GO6" s="38"/>
+      <c r="IN6" s="36"/>
+      <c r="IO6" s="36"/>
+      <c r="JL6" s="36"/>
+      <c r="JM6" s="36"/>
+      <c r="KY6" s="36"/>
+      <c r="KZ6" s="36"/>
+      <c r="MN6" s="37"/>
+      <c r="MO6" s="37"/>
+      <c r="NE6" s="36"/>
+      <c r="NH6" s="36"/>
+      <c r="NI6" s="36"/>
+      <c r="OG6" s="36"/>
+      <c r="OH6" s="36"/>
+      <c r="OY6" s="39"/>
+      <c r="OZ6" s="39"/>
+      <c r="QA6" s="36"/>
+      <c r="QB6" s="36"/>
+      <c r="QO6" s="36"/>
+      <c r="QP6" s="36"/>
+      <c r="QQ6" s="36"/>
+      <c r="QR6" s="36"/>
+      <c r="QS6" s="36"/>
+      <c r="QT6" s="36"/>
+      <c r="QU6" s="36"/>
+      <c r="QV6" s="36"/>
+      <c r="QW6" s="36"/>
+      <c r="QX6" s="36"/>
+      <c r="QY6" s="36"/>
+      <c r="QZ6" s="36"/>
+      <c r="RA6" s="36"/>
+      <c r="RB6" s="36"/>
+      <c r="RC6" s="36"/>
+      <c r="RD6" s="36"/>
+      <c r="RE6" s="36"/>
+      <c r="RF6" s="36"/>
+      <c r="RG6" s="36"/>
+      <c r="RH6" s="36"/>
+      <c r="RI6" s="36"/>
+      <c r="RJ6" s="36"/>
+      <c r="RK6" s="36"/>
+      <c r="RL6" s="36"/>
+      <c r="RM6" s="36"/>
+      <c r="RN6" s="36"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AI7" s="31"/>
-      <c r="AM7" s="36"/>
-      <c r="AV7" s="36"/>
-      <c r="BV7" s="35"/>
-      <c r="BW7" s="35"/>
-      <c r="BX7" s="35"/>
-      <c r="FQ7" s="36"/>
-      <c r="FR7" s="36"/>
-      <c r="FZ7" s="35"/>
-      <c r="GA7" s="35"/>
-      <c r="GN7" s="39"/>
-      <c r="GO7" s="39"/>
-      <c r="IN7" s="35"/>
-      <c r="IO7" s="35"/>
-      <c r="JL7" s="38"/>
-      <c r="JM7" s="38"/>
-      <c r="KY7" s="35"/>
-      <c r="KZ7" s="35"/>
-      <c r="MN7" s="36"/>
-      <c r="MO7" s="36"/>
-      <c r="NE7" s="35"/>
-      <c r="NH7" s="35"/>
-      <c r="NI7" s="35"/>
-      <c r="OG7" s="35"/>
-      <c r="OH7" s="35"/>
-      <c r="OY7" s="35"/>
-      <c r="OZ7" s="35"/>
-      <c r="QA7" s="35"/>
-      <c r="QB7" s="35"/>
-      <c r="QO7" s="35"/>
-      <c r="QP7" s="35"/>
-      <c r="QQ7" s="35"/>
-      <c r="QR7" s="35"/>
-      <c r="QS7" s="35"/>
-      <c r="QT7" s="35"/>
-      <c r="QU7" s="35"/>
-      <c r="QV7" s="35"/>
-      <c r="QW7" s="35"/>
-      <c r="QX7" s="35"/>
-      <c r="QY7" s="35"/>
-      <c r="QZ7" s="35"/>
-      <c r="RA7" s="35"/>
-      <c r="RB7" s="35"/>
-      <c r="RC7" s="35"/>
-      <c r="RD7" s="35"/>
-      <c r="RE7" s="35"/>
-      <c r="RF7" s="35"/>
-      <c r="RG7" s="35"/>
-      <c r="RH7" s="35"/>
-      <c r="RI7" s="35"/>
-      <c r="RJ7" s="35"/>
-      <c r="RK7" s="35"/>
-      <c r="RL7" s="35"/>
-      <c r="RM7" s="35"/>
-      <c r="RN7" s="35"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AI7" s="32"/>
+      <c r="AL7" s="37"/>
+      <c r="AV7" s="37"/>
+      <c r="BV7" s="36"/>
+      <c r="BW7" s="36"/>
+      <c r="BX7" s="36"/>
+      <c r="FQ7" s="37"/>
+      <c r="FR7" s="37"/>
+      <c r="FZ7" s="36"/>
+      <c r="GA7" s="36"/>
+      <c r="GN7" s="40"/>
+      <c r="GO7" s="40"/>
+      <c r="IN7" s="36"/>
+      <c r="IO7" s="36"/>
+      <c r="JL7" s="39"/>
+      <c r="JM7" s="39"/>
+      <c r="KY7" s="36"/>
+      <c r="KZ7" s="36"/>
+      <c r="MN7" s="37"/>
+      <c r="MO7" s="37"/>
+      <c r="NE7" s="36"/>
+      <c r="NH7" s="36"/>
+      <c r="NI7" s="36"/>
+      <c r="OG7" s="36"/>
+      <c r="OH7" s="36"/>
+      <c r="OY7" s="36"/>
+      <c r="OZ7" s="36"/>
+      <c r="QA7" s="36"/>
+      <c r="QB7" s="36"/>
+      <c r="QO7" s="36"/>
+      <c r="QP7" s="36"/>
+      <c r="QQ7" s="36"/>
+      <c r="QR7" s="36"/>
+      <c r="QS7" s="36"/>
+      <c r="QT7" s="36"/>
+      <c r="QU7" s="36"/>
+      <c r="QV7" s="36"/>
+      <c r="QW7" s="36"/>
+      <c r="QX7" s="36"/>
+      <c r="QY7" s="36"/>
+      <c r="QZ7" s="36"/>
+      <c r="RA7" s="36"/>
+      <c r="RB7" s="36"/>
+      <c r="RC7" s="36"/>
+      <c r="RD7" s="36"/>
+      <c r="RE7" s="36"/>
+      <c r="RF7" s="36"/>
+      <c r="RG7" s="36"/>
+      <c r="RH7" s="36"/>
+      <c r="RI7" s="36"/>
+      <c r="RJ7" s="36"/>
+      <c r="RK7" s="36"/>
+      <c r="RL7" s="36"/>
+      <c r="RM7" s="36"/>
+      <c r="RN7" s="36"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AM8" s="36"/>
-      <c r="AV8" s="35"/>
-      <c r="BV8" s="35"/>
-      <c r="BW8" s="35"/>
-      <c r="BX8" s="35"/>
-      <c r="FQ8" s="36"/>
-      <c r="FR8" s="36"/>
-      <c r="FZ8" s="35"/>
-      <c r="GA8" s="35"/>
-      <c r="GN8" s="39"/>
-      <c r="GO8" s="39"/>
-      <c r="IN8" s="35"/>
-      <c r="IO8" s="35"/>
-      <c r="JL8" s="38"/>
-      <c r="JM8" s="38"/>
-      <c r="KY8" s="35"/>
-      <c r="KZ8" s="35"/>
-      <c r="MN8" s="36"/>
-      <c r="MO8" s="36"/>
-      <c r="NE8" s="35"/>
-      <c r="NH8" s="35"/>
-      <c r="NI8" s="35"/>
-      <c r="OG8" s="35"/>
-      <c r="OH8" s="35"/>
-      <c r="OY8" s="35"/>
-      <c r="OZ8" s="35"/>
-      <c r="QA8" s="35"/>
-      <c r="QB8" s="35"/>
-      <c r="QO8" s="35"/>
-      <c r="QP8" s="35"/>
-      <c r="QQ8" s="35"/>
-      <c r="QR8" s="35"/>
-      <c r="QS8" s="35"/>
-      <c r="QT8" s="35"/>
-      <c r="QU8" s="35"/>
-      <c r="QV8" s="35"/>
-      <c r="QW8" s="35"/>
-      <c r="QX8" s="35"/>
-      <c r="QY8" s="35"/>
-      <c r="QZ8" s="35"/>
-      <c r="RA8" s="35"/>
-      <c r="RB8" s="35"/>
-      <c r="RC8" s="35"/>
-      <c r="RD8" s="35"/>
-      <c r="RE8" s="35"/>
-      <c r="RF8" s="35"/>
-      <c r="RG8" s="35"/>
-      <c r="RH8" s="35"/>
-      <c r="RI8" s="35"/>
-      <c r="RJ8" s="35"/>
-      <c r="RK8" s="35"/>
-      <c r="RL8" s="35"/>
-      <c r="RM8" s="35"/>
-      <c r="RN8" s="35"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AL8" s="37"/>
+      <c r="AV8" s="36"/>
+      <c r="BV8" s="36"/>
+      <c r="BW8" s="36"/>
+      <c r="BX8" s="36"/>
+      <c r="FQ8" s="37"/>
+      <c r="FR8" s="37"/>
+      <c r="FZ8" s="36"/>
+      <c r="GA8" s="36"/>
+      <c r="GN8" s="40"/>
+      <c r="GO8" s="40"/>
+      <c r="IN8" s="36"/>
+      <c r="IO8" s="36"/>
+      <c r="JL8" s="39"/>
+      <c r="JM8" s="39"/>
+      <c r="KY8" s="36"/>
+      <c r="KZ8" s="36"/>
+      <c r="MN8" s="37"/>
+      <c r="MO8" s="37"/>
+      <c r="NE8" s="36"/>
+      <c r="NH8" s="36"/>
+      <c r="NI8" s="36"/>
+      <c r="OG8" s="36"/>
+      <c r="OH8" s="36"/>
+      <c r="OY8" s="36"/>
+      <c r="OZ8" s="36"/>
+      <c r="QA8" s="36"/>
+      <c r="QB8" s="36"/>
+      <c r="QO8" s="36"/>
+      <c r="QP8" s="36"/>
+      <c r="QQ8" s="36"/>
+      <c r="QR8" s="36"/>
+      <c r="QS8" s="36"/>
+      <c r="QT8" s="36"/>
+      <c r="QU8" s="36"/>
+      <c r="QV8" s="36"/>
+      <c r="QW8" s="36"/>
+      <c r="QX8" s="36"/>
+      <c r="QY8" s="36"/>
+      <c r="QZ8" s="36"/>
+      <c r="RA8" s="36"/>
+      <c r="RB8" s="36"/>
+      <c r="RC8" s="36"/>
+      <c r="RD8" s="36"/>
+      <c r="RE8" s="36"/>
+      <c r="RF8" s="36"/>
+      <c r="RG8" s="36"/>
+      <c r="RH8" s="36"/>
+      <c r="RI8" s="36"/>
+      <c r="RJ8" s="36"/>
+      <c r="RK8" s="36"/>
+      <c r="RL8" s="36"/>
+      <c r="RM8" s="36"/>
+      <c r="RN8" s="36"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AM9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="BV9" s="35"/>
-      <c r="BW9" s="35"/>
-      <c r="BX9" s="35"/>
-      <c r="FQ9" s="36"/>
-      <c r="FR9" s="36"/>
-      <c r="FZ9" s="35"/>
-      <c r="GA9" s="35"/>
-      <c r="GN9" s="39"/>
-      <c r="GO9" s="39"/>
-      <c r="IN9" s="35"/>
-      <c r="IO9" s="35"/>
-      <c r="JL9" s="38"/>
-      <c r="JM9" s="38"/>
-      <c r="KY9" s="35"/>
-      <c r="KZ9" s="35"/>
-      <c r="MN9" s="36"/>
-      <c r="MO9" s="36"/>
-      <c r="NE9" s="35"/>
-      <c r="NH9" s="35"/>
-      <c r="NI9" s="35"/>
-      <c r="OG9" s="35"/>
-      <c r="OH9" s="35"/>
-      <c r="OY9" s="35"/>
-      <c r="OZ9" s="35"/>
-      <c r="QA9" s="35"/>
-      <c r="QB9" s="35"/>
-      <c r="QO9" s="36"/>
-      <c r="QP9" s="36"/>
-      <c r="QQ9" s="36"/>
-      <c r="QR9" s="36"/>
-      <c r="QS9" s="36"/>
-      <c r="QT9" s="36"/>
-      <c r="QU9" s="36"/>
-      <c r="QV9" s="36"/>
-      <c r="QW9" s="36"/>
-      <c r="QX9" s="36"/>
-      <c r="QY9" s="36"/>
-      <c r="QZ9" s="36"/>
-      <c r="RA9" s="36"/>
-      <c r="RB9" s="36"/>
-      <c r="RC9" s="36"/>
-      <c r="RD9" s="36"/>
-      <c r="RE9" s="36"/>
-      <c r="RF9" s="36"/>
-      <c r="RG9" s="35"/>
-      <c r="RH9" s="35"/>
-      <c r="RI9" s="35"/>
-      <c r="RJ9" s="35"/>
-      <c r="RK9" s="35"/>
-      <c r="RL9" s="35"/>
-      <c r="RM9" s="35"/>
-      <c r="RN9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AL9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="BV9" s="36"/>
+      <c r="BW9" s="36"/>
+      <c r="BX9" s="36"/>
+      <c r="FQ9" s="37"/>
+      <c r="FR9" s="37"/>
+      <c r="FZ9" s="36"/>
+      <c r="GA9" s="36"/>
+      <c r="GN9" s="40"/>
+      <c r="GO9" s="40"/>
+      <c r="IN9" s="36"/>
+      <c r="IO9" s="36"/>
+      <c r="JL9" s="39"/>
+      <c r="JM9" s="39"/>
+      <c r="KY9" s="36"/>
+      <c r="KZ9" s="36"/>
+      <c r="MN9" s="37"/>
+      <c r="MO9" s="37"/>
+      <c r="NE9" s="36"/>
+      <c r="NH9" s="36"/>
+      <c r="NI9" s="36"/>
+      <c r="OG9" s="36"/>
+      <c r="OH9" s="36"/>
+      <c r="OY9" s="36"/>
+      <c r="OZ9" s="36"/>
+      <c r="QA9" s="36"/>
+      <c r="QB9" s="36"/>
+      <c r="QO9" s="37"/>
+      <c r="QP9" s="37"/>
+      <c r="QQ9" s="37"/>
+      <c r="QR9" s="37"/>
+      <c r="QS9" s="37"/>
+      <c r="QT9" s="37"/>
+      <c r="QU9" s="37"/>
+      <c r="QV9" s="37"/>
+      <c r="QW9" s="37"/>
+      <c r="QX9" s="37"/>
+      <c r="QY9" s="37"/>
+      <c r="QZ9" s="37"/>
+      <c r="RA9" s="37"/>
+      <c r="RB9" s="37"/>
+      <c r="RC9" s="37"/>
+      <c r="RD9" s="37"/>
+      <c r="RE9" s="37"/>
+      <c r="RF9" s="37"/>
+      <c r="RG9" s="36"/>
+      <c r="RH9" s="36"/>
+      <c r="RI9" s="36"/>
+      <c r="RJ9" s="36"/>
+      <c r="RK9" s="36"/>
+      <c r="RL9" s="36"/>
+      <c r="RM9" s="36"/>
+      <c r="RN9" s="36"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AM10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="BV10" s="35"/>
-      <c r="BW10" s="35"/>
-      <c r="BX10" s="35"/>
-      <c r="ET10" s="35"/>
-      <c r="EU10" s="35"/>
-      <c r="FQ10" s="36"/>
-      <c r="FR10" s="36"/>
-      <c r="FZ10" s="35"/>
-      <c r="GA10" s="35"/>
-      <c r="GN10" s="37"/>
-      <c r="GO10" s="37"/>
-      <c r="IN10" s="36"/>
-      <c r="IO10" s="36"/>
-      <c r="JL10" s="38"/>
-      <c r="JM10" s="38"/>
-      <c r="KY10" s="35"/>
-      <c r="KZ10" s="35"/>
-      <c r="MN10" s="36"/>
-      <c r="MO10" s="36"/>
-      <c r="NE10" s="35"/>
-      <c r="NH10" s="35"/>
-      <c r="NI10" s="35"/>
-      <c r="OG10" s="35"/>
-      <c r="OH10" s="35"/>
-      <c r="OY10" s="35"/>
-      <c r="OZ10" s="35"/>
-      <c r="QA10" s="35"/>
-      <c r="QB10" s="35"/>
-      <c r="QO10" s="36"/>
-      <c r="QP10" s="36"/>
-      <c r="QQ10" s="36"/>
-      <c r="QR10" s="36"/>
-      <c r="QS10" s="36"/>
-      <c r="QT10" s="36"/>
-      <c r="QU10" s="36"/>
-      <c r="QV10" s="36"/>
-      <c r="QW10" s="36"/>
-      <c r="QX10" s="36"/>
-      <c r="QY10" s="36"/>
-      <c r="QZ10" s="36"/>
-      <c r="RA10" s="36"/>
-      <c r="RB10" s="36"/>
-      <c r="RC10" s="36"/>
-      <c r="RD10" s="36"/>
-      <c r="RE10" s="36"/>
-      <c r="RF10" s="36"/>
-      <c r="RG10" s="36"/>
-      <c r="RH10" s="36"/>
-      <c r="RI10" s="36"/>
-      <c r="RJ10" s="36"/>
-      <c r="RK10" s="36"/>
-      <c r="RL10" s="36"/>
-      <c r="RM10" s="36"/>
-      <c r="RN10" s="36"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AL10" s="37"/>
+      <c r="AV10" s="37"/>
+      <c r="BV10" s="36"/>
+      <c r="BW10" s="36"/>
+      <c r="BX10" s="36"/>
+      <c r="ET10" s="36"/>
+      <c r="EU10" s="36"/>
+      <c r="FQ10" s="37"/>
+      <c r="FR10" s="37"/>
+      <c r="FZ10" s="36"/>
+      <c r="GA10" s="36"/>
+      <c r="GN10" s="38"/>
+      <c r="GO10" s="38"/>
+      <c r="IN10" s="37"/>
+      <c r="IO10" s="37"/>
+      <c r="JL10" s="39"/>
+      <c r="JM10" s="39"/>
+      <c r="KY10" s="36"/>
+      <c r="KZ10" s="36"/>
+      <c r="MN10" s="37"/>
+      <c r="MO10" s="37"/>
+      <c r="NE10" s="36"/>
+      <c r="NH10" s="36"/>
+      <c r="NI10" s="36"/>
+      <c r="OG10" s="36"/>
+      <c r="OH10" s="36"/>
+      <c r="OY10" s="36"/>
+      <c r="OZ10" s="36"/>
+      <c r="QA10" s="36"/>
+      <c r="QB10" s="36"/>
+      <c r="QO10" s="37"/>
+      <c r="QP10" s="37"/>
+      <c r="QQ10" s="37"/>
+      <c r="QR10" s="37"/>
+      <c r="QS10" s="37"/>
+      <c r="QT10" s="37"/>
+      <c r="QU10" s="37"/>
+      <c r="QV10" s="37"/>
+      <c r="QW10" s="37"/>
+      <c r="QX10" s="37"/>
+      <c r="QY10" s="37"/>
+      <c r="QZ10" s="37"/>
+      <c r="RA10" s="37"/>
+      <c r="RB10" s="37"/>
+      <c r="RC10" s="37"/>
+      <c r="RD10" s="37"/>
+      <c r="RE10" s="37"/>
+      <c r="RF10" s="37"/>
+      <c r="RG10" s="37"/>
+      <c r="RH10" s="37"/>
+      <c r="RI10" s="37"/>
+      <c r="RJ10" s="37"/>
+      <c r="RK10" s="37"/>
+      <c r="RL10" s="37"/>
+      <c r="RM10" s="37"/>
+      <c r="RN10" s="37"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AM11" s="36"/>
-      <c r="AV11" s="35"/>
-      <c r="BV11" s="35"/>
-      <c r="BW11" s="35"/>
-      <c r="BX11" s="35"/>
-      <c r="ET11" s="35"/>
-      <c r="EU11" s="35"/>
-      <c r="FQ11" s="36"/>
-      <c r="FR11" s="36"/>
-      <c r="FZ11" s="35"/>
-      <c r="GA11" s="35"/>
-      <c r="GN11" s="39"/>
-      <c r="GO11" s="39"/>
-      <c r="IN11" s="35"/>
-      <c r="IO11" s="35"/>
-      <c r="JL11" s="35"/>
-      <c r="JM11" s="35"/>
-      <c r="KY11" s="35"/>
-      <c r="KZ11" s="35"/>
-      <c r="MN11" s="36"/>
-      <c r="MO11" s="36"/>
-      <c r="NE11" s="35"/>
-      <c r="NH11" s="35"/>
-      <c r="NI11" s="35"/>
-      <c r="OG11" s="35"/>
-      <c r="OH11" s="35"/>
-      <c r="OY11" s="35"/>
-      <c r="OZ11" s="35"/>
-      <c r="QA11" s="35"/>
-      <c r="QB11" s="35"/>
-      <c r="QO11" s="36"/>
-      <c r="QP11" s="36"/>
-      <c r="QQ11" s="36"/>
-      <c r="QR11" s="36"/>
-      <c r="QS11" s="36"/>
-      <c r="QT11" s="36"/>
-      <c r="QU11" s="36"/>
-      <c r="QV11" s="36"/>
-      <c r="QW11" s="36"/>
-      <c r="QX11" s="36"/>
-      <c r="QY11" s="36"/>
-      <c r="QZ11" s="36"/>
-      <c r="RA11" s="36"/>
-      <c r="RB11" s="36"/>
-      <c r="RC11" s="36"/>
-      <c r="RD11" s="36"/>
-      <c r="RE11" s="36"/>
-      <c r="RF11" s="36"/>
-      <c r="RG11" s="36"/>
-      <c r="RH11" s="36"/>
-      <c r="RI11" s="36"/>
-      <c r="RJ11" s="36"/>
-      <c r="RK11" s="36"/>
-      <c r="RL11" s="36"/>
-      <c r="RM11" s="36"/>
-      <c r="RN11" s="36"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AL11" s="37"/>
+      <c r="AV11" s="36"/>
+      <c r="BV11" s="36"/>
+      <c r="BW11" s="36"/>
+      <c r="BX11" s="36"/>
+      <c r="ET11" s="36"/>
+      <c r="EU11" s="36"/>
+      <c r="FQ11" s="37"/>
+      <c r="FR11" s="37"/>
+      <c r="FZ11" s="36"/>
+      <c r="GA11" s="36"/>
+      <c r="GN11" s="40"/>
+      <c r="GO11" s="40"/>
+      <c r="IN11" s="36"/>
+      <c r="IO11" s="36"/>
+      <c r="JL11" s="36"/>
+      <c r="JM11" s="36"/>
+      <c r="KY11" s="36"/>
+      <c r="KZ11" s="36"/>
+      <c r="MN11" s="37"/>
+      <c r="MO11" s="37"/>
+      <c r="NE11" s="36"/>
+      <c r="NH11" s="36"/>
+      <c r="NI11" s="36"/>
+      <c r="OG11" s="36"/>
+      <c r="OH11" s="36"/>
+      <c r="OY11" s="36"/>
+      <c r="OZ11" s="36"/>
+      <c r="QA11" s="36"/>
+      <c r="QB11" s="36"/>
+      <c r="QO11" s="37"/>
+      <c r="QP11" s="37"/>
+      <c r="QQ11" s="37"/>
+      <c r="QR11" s="37"/>
+      <c r="QS11" s="37"/>
+      <c r="QT11" s="37"/>
+      <c r="QU11" s="37"/>
+      <c r="QV11" s="37"/>
+      <c r="QW11" s="37"/>
+      <c r="QX11" s="37"/>
+      <c r="QY11" s="37"/>
+      <c r="QZ11" s="37"/>
+      <c r="RA11" s="37"/>
+      <c r="RB11" s="37"/>
+      <c r="RC11" s="37"/>
+      <c r="RD11" s="37"/>
+      <c r="RE11" s="37"/>
+      <c r="RF11" s="37"/>
+      <c r="RG11" s="37"/>
+      <c r="RH11" s="37"/>
+      <c r="RI11" s="37"/>
+      <c r="RJ11" s="37"/>
+      <c r="RK11" s="37"/>
+      <c r="RL11" s="37"/>
+      <c r="RM11" s="37"/>
+      <c r="RN11" s="37"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AV12" s="35"/>
-      <c r="BV12" s="35"/>
-      <c r="BW12" s="35"/>
-      <c r="BX12" s="35"/>
-      <c r="ET12" s="35"/>
-      <c r="EU12" s="35"/>
-      <c r="FZ12" s="35"/>
-      <c r="GA12" s="35"/>
-      <c r="GN12" s="39"/>
-      <c r="GO12" s="39"/>
-      <c r="IN12" s="35"/>
-      <c r="IO12" s="35"/>
-      <c r="JL12" s="35"/>
-      <c r="JM12" s="35"/>
-      <c r="KY12" s="35"/>
-      <c r="KZ12" s="35"/>
-      <c r="MN12" s="36"/>
-      <c r="MO12" s="36"/>
-      <c r="NE12" s="35"/>
-      <c r="NH12" s="35"/>
-      <c r="NI12" s="35"/>
-      <c r="OG12" s="35"/>
-      <c r="OH12" s="35"/>
-      <c r="OY12" s="35"/>
-      <c r="OZ12" s="35"/>
-      <c r="QA12" s="35"/>
-      <c r="QB12" s="35"/>
-      <c r="QO12" s="36"/>
-      <c r="QP12" s="36"/>
-      <c r="QQ12" s="36"/>
-      <c r="QR12" s="36"/>
-      <c r="QS12" s="36"/>
-      <c r="QT12" s="36"/>
-      <c r="QU12" s="36"/>
-      <c r="QV12" s="36"/>
-      <c r="QW12" s="36"/>
-      <c r="QX12" s="36"/>
-      <c r="QY12" s="36"/>
-      <c r="QZ12" s="36"/>
-      <c r="RA12" s="36"/>
-      <c r="RB12" s="36"/>
-      <c r="RC12" s="36"/>
-      <c r="RD12" s="36"/>
-      <c r="RE12" s="36"/>
-      <c r="RF12" s="36"/>
-      <c r="RG12" s="36"/>
-      <c r="RH12" s="36"/>
-      <c r="RI12" s="36"/>
-      <c r="RJ12" s="36"/>
-      <c r="RK12" s="36"/>
-      <c r="RL12" s="36"/>
-      <c r="RM12" s="36"/>
-      <c r="RN12" s="36"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="BV12" s="36"/>
+      <c r="BW12" s="36"/>
+      <c r="BX12" s="36"/>
+      <c r="ET12" s="36"/>
+      <c r="EU12" s="36"/>
+      <c r="FZ12" s="36"/>
+      <c r="GA12" s="36"/>
+      <c r="GN12" s="40"/>
+      <c r="GO12" s="40"/>
+      <c r="IN12" s="36"/>
+      <c r="IO12" s="36"/>
+      <c r="JL12" s="36"/>
+      <c r="JM12" s="36"/>
+      <c r="KY12" s="36"/>
+      <c r="KZ12" s="36"/>
+      <c r="MN12" s="37"/>
+      <c r="MO12" s="37"/>
+      <c r="NE12" s="36"/>
+      <c r="NH12" s="36"/>
+      <c r="NI12" s="36"/>
+      <c r="OG12" s="36"/>
+      <c r="OH12" s="36"/>
+      <c r="OY12" s="36"/>
+      <c r="OZ12" s="36"/>
+      <c r="QA12" s="36"/>
+      <c r="QB12" s="36"/>
+      <c r="QO12" s="37"/>
+      <c r="QP12" s="37"/>
+      <c r="QQ12" s="37"/>
+      <c r="QR12" s="37"/>
+      <c r="QS12" s="37"/>
+      <c r="QT12" s="37"/>
+      <c r="QU12" s="37"/>
+      <c r="QV12" s="37"/>
+      <c r="QW12" s="37"/>
+      <c r="QX12" s="37"/>
+      <c r="QY12" s="37"/>
+      <c r="QZ12" s="37"/>
+      <c r="RA12" s="37"/>
+      <c r="RB12" s="37"/>
+      <c r="RC12" s="37"/>
+      <c r="RD12" s="37"/>
+      <c r="RE12" s="37"/>
+      <c r="RF12" s="37"/>
+      <c r="RG12" s="37"/>
+      <c r="RH12" s="37"/>
+      <c r="RI12" s="37"/>
+      <c r="RJ12" s="37"/>
+      <c r="RK12" s="37"/>
+      <c r="RL12" s="37"/>
+      <c r="RM12" s="37"/>
+      <c r="RN12" s="37"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="C13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AV13" s="35"/>
-      <c r="BV13" s="35"/>
-      <c r="BW13" s="35"/>
-      <c r="BX13" s="35"/>
-      <c r="ET13" s="35"/>
-      <c r="EU13" s="35"/>
-      <c r="FZ13" s="35"/>
-      <c r="GA13" s="35"/>
-      <c r="GN13" s="39"/>
-      <c r="GO13" s="39"/>
-      <c r="IN13" s="35"/>
-      <c r="IO13" s="35"/>
-      <c r="JL13" s="35"/>
-      <c r="JM13" s="35"/>
-      <c r="KY13" s="35"/>
-      <c r="KZ13" s="35"/>
-      <c r="MN13" s="36"/>
-      <c r="MO13" s="36"/>
-      <c r="NE13" s="35"/>
-      <c r="NH13" s="35"/>
-      <c r="NI13" s="35"/>
-      <c r="OG13" s="35"/>
-      <c r="OH13" s="35"/>
-      <c r="OY13" s="35"/>
-      <c r="OZ13" s="35"/>
-      <c r="QA13" s="35"/>
-      <c r="QB13" s="35"/>
-      <c r="QO13" s="36"/>
-      <c r="QP13" s="36"/>
-      <c r="QQ13" s="36"/>
-      <c r="QR13" s="36"/>
-      <c r="QS13" s="36"/>
-      <c r="QT13" s="36"/>
-      <c r="QU13" s="36"/>
-      <c r="QV13" s="36"/>
-      <c r="QW13" s="36"/>
-      <c r="QX13" s="36"/>
-      <c r="QY13" s="36"/>
-      <c r="QZ13" s="36"/>
-      <c r="RA13" s="36"/>
-      <c r="RB13" s="36"/>
-      <c r="RC13" s="36"/>
-      <c r="RD13" s="36"/>
-      <c r="RE13" s="36"/>
-      <c r="RF13" s="36"/>
-      <c r="RG13" s="36"/>
-      <c r="RH13" s="36"/>
-      <c r="RI13" s="36"/>
-      <c r="RJ13" s="36"/>
-      <c r="RK13" s="36"/>
-      <c r="RL13" s="36"/>
-      <c r="RM13" s="36"/>
-      <c r="RN13" s="36"/>
+      <c r="A13" s="41"/>
+      <c r="C13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="BV13" s="36"/>
+      <c r="BW13" s="36"/>
+      <c r="BX13" s="36"/>
+      <c r="ET13" s="36"/>
+      <c r="EU13" s="36"/>
+      <c r="FZ13" s="36"/>
+      <c r="GA13" s="36"/>
+      <c r="GN13" s="40"/>
+      <c r="GO13" s="40"/>
+      <c r="IN13" s="36"/>
+      <c r="IO13" s="36"/>
+      <c r="JL13" s="36"/>
+      <c r="JM13" s="36"/>
+      <c r="KY13" s="36"/>
+      <c r="KZ13" s="36"/>
+      <c r="MN13" s="37"/>
+      <c r="MO13" s="37"/>
+      <c r="NE13" s="36"/>
+      <c r="NH13" s="36"/>
+      <c r="NI13" s="36"/>
+      <c r="OG13" s="36"/>
+      <c r="OH13" s="36"/>
+      <c r="OY13" s="36"/>
+      <c r="OZ13" s="36"/>
+      <c r="QA13" s="36"/>
+      <c r="QB13" s="36"/>
+      <c r="QO13" s="37"/>
+      <c r="QP13" s="37"/>
+      <c r="QQ13" s="37"/>
+      <c r="QR13" s="37"/>
+      <c r="QS13" s="37"/>
+      <c r="QT13" s="37"/>
+      <c r="QU13" s="37"/>
+      <c r="QV13" s="37"/>
+      <c r="QW13" s="37"/>
+      <c r="QX13" s="37"/>
+      <c r="QY13" s="37"/>
+      <c r="QZ13" s="37"/>
+      <c r="RA13" s="37"/>
+      <c r="RB13" s="37"/>
+      <c r="RC13" s="37"/>
+      <c r="RD13" s="37"/>
+      <c r="RE13" s="37"/>
+      <c r="RF13" s="37"/>
+      <c r="RG13" s="37"/>
+      <c r="RH13" s="37"/>
+      <c r="RI13" s="37"/>
+      <c r="RJ13" s="37"/>
+      <c r="RK13" s="37"/>
+      <c r="RL13" s="37"/>
+      <c r="RM13" s="37"/>
+      <c r="RN13" s="37"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AV14" s="35"/>
-      <c r="BV14" s="35"/>
-      <c r="BW14" s="35"/>
-      <c r="BX14" s="35"/>
-      <c r="ET14" s="35"/>
-      <c r="EU14" s="35"/>
-      <c r="FZ14" s="35"/>
-      <c r="GA14" s="35"/>
-      <c r="GN14" s="39"/>
-      <c r="GO14" s="39"/>
-      <c r="IN14" s="35"/>
-      <c r="IO14" s="35"/>
-      <c r="JL14" s="35"/>
-      <c r="JM14" s="35"/>
-      <c r="KY14" s="35"/>
-      <c r="KZ14" s="35"/>
-      <c r="MN14" s="36"/>
-      <c r="MO14" s="36"/>
-      <c r="NE14" s="35"/>
-      <c r="NH14" s="35"/>
-      <c r="NI14" s="35"/>
-      <c r="OG14" s="35"/>
-      <c r="OH14" s="35"/>
-      <c r="OY14" s="35"/>
-      <c r="OZ14" s="35"/>
-      <c r="QA14" s="35"/>
-      <c r="QB14" s="35"/>
-      <c r="QO14" s="36"/>
-      <c r="QP14" s="36"/>
-      <c r="QQ14" s="36"/>
-      <c r="QR14" s="36"/>
-      <c r="QS14" s="36"/>
-      <c r="QT14" s="36"/>
-      <c r="QU14" s="36"/>
-      <c r="QV14" s="36"/>
-      <c r="QW14" s="36"/>
-      <c r="QX14" s="36"/>
-      <c r="QY14" s="36"/>
-      <c r="QZ14" s="36"/>
-      <c r="RA14" s="36"/>
-      <c r="RB14" s="36"/>
-      <c r="RC14" s="36"/>
-      <c r="RD14" s="36"/>
-      <c r="RE14" s="36"/>
-      <c r="RF14" s="36"/>
-      <c r="RG14" s="36"/>
-      <c r="RH14" s="36"/>
-      <c r="RI14" s="36"/>
-      <c r="RJ14" s="36"/>
-      <c r="RK14" s="36"/>
-      <c r="RL14" s="36"/>
-      <c r="RM14" s="36"/>
-      <c r="RN14" s="36"/>
+      <c r="A14" s="37"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AV14" s="36"/>
+      <c r="BV14" s="36"/>
+      <c r="BW14" s="36"/>
+      <c r="BX14" s="36"/>
+      <c r="ET14" s="36"/>
+      <c r="EU14" s="36"/>
+      <c r="FZ14" s="36"/>
+      <c r="GA14" s="36"/>
+      <c r="GN14" s="40"/>
+      <c r="GO14" s="40"/>
+      <c r="IN14" s="36"/>
+      <c r="IO14" s="36"/>
+      <c r="JL14" s="36"/>
+      <c r="JM14" s="36"/>
+      <c r="KY14" s="36"/>
+      <c r="KZ14" s="36"/>
+      <c r="MN14" s="37"/>
+      <c r="MO14" s="37"/>
+      <c r="NE14" s="36"/>
+      <c r="NH14" s="36"/>
+      <c r="NI14" s="36"/>
+      <c r="OG14" s="36"/>
+      <c r="OH14" s="36"/>
+      <c r="OY14" s="36"/>
+      <c r="OZ14" s="36"/>
+      <c r="QA14" s="36"/>
+      <c r="QB14" s="36"/>
+      <c r="QO14" s="37"/>
+      <c r="QP14" s="37"/>
+      <c r="QQ14" s="37"/>
+      <c r="QR14" s="37"/>
+      <c r="QS14" s="37"/>
+      <c r="QT14" s="37"/>
+      <c r="QU14" s="37"/>
+      <c r="QV14" s="37"/>
+      <c r="QW14" s="37"/>
+      <c r="QX14" s="37"/>
+      <c r="QY14" s="37"/>
+      <c r="QZ14" s="37"/>
+      <c r="RA14" s="37"/>
+      <c r="RB14" s="37"/>
+      <c r="RC14" s="37"/>
+      <c r="RD14" s="37"/>
+      <c r="RE14" s="37"/>
+      <c r="RF14" s="37"/>
+      <c r="RG14" s="37"/>
+      <c r="RH14" s="37"/>
+      <c r="RI14" s="37"/>
+      <c r="RJ14" s="37"/>
+      <c r="RK14" s="37"/>
+      <c r="RL14" s="37"/>
+      <c r="RM14" s="37"/>
+      <c r="RN14" s="37"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="AV15" s="36"/>
-      <c r="BV15" s="35"/>
-      <c r="BW15" s="35"/>
-      <c r="BX15" s="35"/>
-      <c r="ET15" s="35"/>
-      <c r="EU15" s="35"/>
-      <c r="FZ15" s="35"/>
-      <c r="GA15" s="35"/>
-      <c r="GN15" s="37"/>
-      <c r="GO15" s="37"/>
-      <c r="IN15" s="35"/>
-      <c r="IO15" s="35"/>
-      <c r="JL15" s="35"/>
-      <c r="JM15" s="35"/>
-      <c r="KY15" s="35"/>
-      <c r="KZ15" s="35"/>
-      <c r="MN15" s="36"/>
-      <c r="MO15" s="36"/>
-      <c r="NE15" s="35"/>
-      <c r="NH15" s="35"/>
-      <c r="NI15" s="35"/>
-      <c r="OG15" s="35"/>
-      <c r="OH15" s="35"/>
-      <c r="OY15" s="35"/>
-      <c r="OZ15" s="35"/>
-      <c r="QA15" s="35"/>
-      <c r="QB15" s="35"/>
-      <c r="QO15" s="36"/>
-      <c r="QP15" s="36"/>
-      <c r="QQ15" s="36"/>
-      <c r="QR15" s="36"/>
-      <c r="QS15" s="36"/>
-      <c r="QT15" s="36"/>
-      <c r="QU15" s="36"/>
-      <c r="QV15" s="36"/>
-      <c r="QW15" s="36"/>
-      <c r="QX15" s="36"/>
-      <c r="QY15" s="36"/>
-      <c r="QZ15" s="36"/>
-      <c r="RA15" s="36"/>
-      <c r="RB15" s="36"/>
-      <c r="RC15" s="36"/>
-      <c r="RD15" s="36"/>
-      <c r="RE15" s="36"/>
-      <c r="RF15" s="36"/>
-      <c r="RG15" s="36"/>
-      <c r="RH15" s="36"/>
-      <c r="RI15" s="36"/>
-      <c r="RJ15" s="36"/>
-      <c r="RK15" s="36"/>
-      <c r="RL15" s="36"/>
-      <c r="RM15" s="36"/>
-      <c r="RN15" s="36"/>
+      <c r="A15" s="37"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="AV15" s="37"/>
+      <c r="BV15" s="36"/>
+      <c r="BW15" s="36"/>
+      <c r="BX15" s="36"/>
+      <c r="ET15" s="36"/>
+      <c r="EU15" s="36"/>
+      <c r="FZ15" s="36"/>
+      <c r="GA15" s="36"/>
+      <c r="GN15" s="38"/>
+      <c r="GO15" s="38"/>
+      <c r="IN15" s="36"/>
+      <c r="IO15" s="36"/>
+      <c r="JL15" s="36"/>
+      <c r="JM15" s="36"/>
+      <c r="KY15" s="36"/>
+      <c r="KZ15" s="36"/>
+      <c r="MN15" s="37"/>
+      <c r="MO15" s="37"/>
+      <c r="NE15" s="36"/>
+      <c r="NH15" s="36"/>
+      <c r="NI15" s="36"/>
+      <c r="OG15" s="36"/>
+      <c r="OH15" s="36"/>
+      <c r="OY15" s="36"/>
+      <c r="OZ15" s="36"/>
+      <c r="QA15" s="36"/>
+      <c r="QB15" s="36"/>
+      <c r="QO15" s="37"/>
+      <c r="QP15" s="37"/>
+      <c r="QQ15" s="37"/>
+      <c r="QR15" s="37"/>
+      <c r="QS15" s="37"/>
+      <c r="QT15" s="37"/>
+      <c r="QU15" s="37"/>
+      <c r="QV15" s="37"/>
+      <c r="QW15" s="37"/>
+      <c r="QX15" s="37"/>
+      <c r="QY15" s="37"/>
+      <c r="QZ15" s="37"/>
+      <c r="RA15" s="37"/>
+      <c r="RB15" s="37"/>
+      <c r="RC15" s="37"/>
+      <c r="RD15" s="37"/>
+      <c r="RE15" s="37"/>
+      <c r="RF15" s="37"/>
+      <c r="RG15" s="37"/>
+      <c r="RH15" s="37"/>
+      <c r="RI15" s="37"/>
+      <c r="RJ15" s="37"/>
+      <c r="RK15" s="37"/>
+      <c r="RL15" s="37"/>
+      <c r="RM15" s="37"/>
+      <c r="RN15" s="37"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="AV16" s="36"/>
-      <c r="BV16" s="35"/>
-      <c r="BW16" s="35"/>
-      <c r="BX16" s="35"/>
-      <c r="ET16" s="35"/>
-      <c r="EU16" s="35"/>
-      <c r="FZ16" s="35"/>
-      <c r="GA16" s="35"/>
-      <c r="GN16" s="37"/>
-      <c r="GO16" s="37"/>
-      <c r="IN16" s="35"/>
-      <c r="IO16" s="35"/>
-      <c r="JL16" s="35"/>
-      <c r="JM16" s="35"/>
-      <c r="KY16" s="35"/>
-      <c r="KZ16" s="35"/>
-      <c r="MN16" s="36"/>
-      <c r="MO16" s="36"/>
-      <c r="NE16" s="35"/>
-      <c r="NH16" s="35"/>
-      <c r="NI16" s="35"/>
-      <c r="OG16" s="35"/>
-      <c r="OH16" s="35"/>
-      <c r="OY16" s="35"/>
-      <c r="OZ16" s="35"/>
-      <c r="QO16" s="35"/>
-      <c r="QP16" s="35"/>
-      <c r="QQ16" s="35"/>
-      <c r="QR16" s="35"/>
-      <c r="QS16" s="35"/>
-      <c r="QT16" s="35"/>
-      <c r="QU16" s="35"/>
-      <c r="QV16" s="35"/>
-      <c r="QW16" s="35"/>
-      <c r="QX16" s="35"/>
-      <c r="QY16" s="35"/>
-      <c r="QZ16" s="35"/>
-      <c r="RA16" s="35"/>
-      <c r="RB16" s="35"/>
-      <c r="RC16" s="35"/>
-      <c r="RD16" s="35"/>
-      <c r="RE16" s="35"/>
-      <c r="RF16" s="35"/>
-      <c r="RG16" s="35"/>
-      <c r="RH16" s="35"/>
-      <c r="RI16" s="35"/>
-      <c r="RJ16" s="35"/>
-      <c r="RK16" s="35"/>
-      <c r="RL16" s="35"/>
-      <c r="RM16" s="35"/>
-      <c r="RN16" s="35"/>
+      <c r="A16" s="37"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="AV16" s="37"/>
+      <c r="BV16" s="36"/>
+      <c r="BW16" s="36"/>
+      <c r="BX16" s="36"/>
+      <c r="ET16" s="36"/>
+      <c r="EU16" s="36"/>
+      <c r="FZ16" s="36"/>
+      <c r="GA16" s="36"/>
+      <c r="GN16" s="38"/>
+      <c r="GO16" s="38"/>
+      <c r="IN16" s="36"/>
+      <c r="IO16" s="36"/>
+      <c r="JL16" s="36"/>
+      <c r="JM16" s="36"/>
+      <c r="KY16" s="36"/>
+      <c r="KZ16" s="36"/>
+      <c r="MN16" s="37"/>
+      <c r="MO16" s="37"/>
+      <c r="NE16" s="36"/>
+      <c r="NH16" s="36"/>
+      <c r="NI16" s="36"/>
+      <c r="OG16" s="36"/>
+      <c r="OH16" s="36"/>
+      <c r="OY16" s="36"/>
+      <c r="OZ16" s="36"/>
+      <c r="QO16" s="36"/>
+      <c r="QP16" s="36"/>
+      <c r="QQ16" s="36"/>
+      <c r="QR16" s="36"/>
+      <c r="QS16" s="36"/>
+      <c r="QT16" s="36"/>
+      <c r="QU16" s="36"/>
+      <c r="QV16" s="36"/>
+      <c r="QW16" s="36"/>
+      <c r="QX16" s="36"/>
+      <c r="QY16" s="36"/>
+      <c r="QZ16" s="36"/>
+      <c r="RA16" s="36"/>
+      <c r="RB16" s="36"/>
+      <c r="RC16" s="36"/>
+      <c r="RD16" s="36"/>
+      <c r="RE16" s="36"/>
+      <c r="RF16" s="36"/>
+      <c r="RG16" s="36"/>
+      <c r="RH16" s="36"/>
+      <c r="RI16" s="36"/>
+      <c r="RJ16" s="36"/>
+      <c r="RK16" s="36"/>
+      <c r="RL16" s="36"/>
+      <c r="RM16" s="36"/>
+      <c r="RN16" s="36"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="BV17" s="35"/>
-      <c r="BW17" s="35"/>
-      <c r="BX17" s="35"/>
-      <c r="ET17" s="35"/>
-      <c r="EU17" s="35"/>
-      <c r="GN17" s="37"/>
-      <c r="GO17" s="37"/>
-      <c r="IN17" s="35"/>
-      <c r="IO17" s="35"/>
-      <c r="JL17" s="35"/>
-      <c r="JM17" s="35"/>
-      <c r="KY17" s="36"/>
-      <c r="KZ17" s="36"/>
-      <c r="MN17" s="35"/>
-      <c r="MO17" s="35"/>
-      <c r="NE17" s="35"/>
-      <c r="NH17" s="35"/>
-      <c r="NI17" s="35"/>
-      <c r="OG17" s="35"/>
-      <c r="OH17" s="35"/>
-      <c r="OY17" s="35"/>
-      <c r="OZ17" s="35"/>
-      <c r="QO17" s="35"/>
-      <c r="QP17" s="35"/>
-      <c r="QQ17" s="35"/>
-      <c r="QR17" s="35"/>
-      <c r="QS17" s="35"/>
-      <c r="QT17" s="35"/>
-      <c r="QU17" s="35"/>
-      <c r="QV17" s="35"/>
-      <c r="QW17" s="35"/>
-      <c r="QX17" s="35"/>
-      <c r="QY17" s="35"/>
-      <c r="QZ17" s="35"/>
-      <c r="RA17" s="35"/>
-      <c r="RB17" s="35"/>
-      <c r="RC17" s="35"/>
-      <c r="RD17" s="35"/>
-      <c r="RE17" s="35"/>
-      <c r="RF17" s="35"/>
-      <c r="RG17" s="35"/>
-      <c r="RH17" s="35"/>
-      <c r="RI17" s="35"/>
-      <c r="RJ17" s="35"/>
-      <c r="RK17" s="35"/>
-      <c r="RL17" s="35"/>
-      <c r="RM17" s="35"/>
-      <c r="RN17" s="35"/>
+      <c r="A17" s="37"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="BV17" s="36"/>
+      <c r="BW17" s="36"/>
+      <c r="BX17" s="36"/>
+      <c r="ET17" s="36"/>
+      <c r="EU17" s="36"/>
+      <c r="GN17" s="38"/>
+      <c r="GO17" s="38"/>
+      <c r="IN17" s="36"/>
+      <c r="IO17" s="36"/>
+      <c r="JL17" s="36"/>
+      <c r="JM17" s="36"/>
+      <c r="KY17" s="37"/>
+      <c r="KZ17" s="37"/>
+      <c r="MN17" s="36"/>
+      <c r="MO17" s="36"/>
+      <c r="NE17" s="36"/>
+      <c r="NH17" s="36"/>
+      <c r="NI17" s="36"/>
+      <c r="OG17" s="36"/>
+      <c r="OH17" s="36"/>
+      <c r="OY17" s="36"/>
+      <c r="OZ17" s="36"/>
+      <c r="QO17" s="36"/>
+      <c r="QP17" s="36"/>
+      <c r="QQ17" s="36"/>
+      <c r="QR17" s="36"/>
+      <c r="QS17" s="36"/>
+      <c r="QT17" s="36"/>
+      <c r="QU17" s="36"/>
+      <c r="QV17" s="36"/>
+      <c r="QW17" s="36"/>
+      <c r="QX17" s="36"/>
+      <c r="QY17" s="36"/>
+      <c r="QZ17" s="36"/>
+      <c r="RA17" s="36"/>
+      <c r="RB17" s="36"/>
+      <c r="RC17" s="36"/>
+      <c r="RD17" s="36"/>
+      <c r="RE17" s="36"/>
+      <c r="RF17" s="36"/>
+      <c r="RG17" s="36"/>
+      <c r="RH17" s="36"/>
+      <c r="RI17" s="36"/>
+      <c r="RJ17" s="36"/>
+      <c r="RK17" s="36"/>
+      <c r="RL17" s="36"/>
+      <c r="RM17" s="36"/>
+      <c r="RN17" s="36"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="BV18" s="35"/>
-      <c r="BW18" s="36"/>
-      <c r="BX18" s="36"/>
-      <c r="ET18" s="35"/>
-      <c r="EU18" s="35"/>
-      <c r="GN18" s="37"/>
-      <c r="GO18" s="37"/>
-      <c r="IN18" s="35"/>
-      <c r="IO18" s="35"/>
-      <c r="JL18" s="35"/>
-      <c r="JM18" s="35"/>
-      <c r="KY18" s="35"/>
-      <c r="KZ18" s="35"/>
-      <c r="MN18" s="35"/>
-      <c r="MO18" s="35"/>
-      <c r="NE18" s="35"/>
-      <c r="NH18" s="35"/>
-      <c r="NI18" s="35"/>
-      <c r="OG18" s="35"/>
-      <c r="OH18" s="35"/>
-      <c r="OY18" s="35"/>
-      <c r="OZ18" s="35"/>
-      <c r="QO18" s="35"/>
-      <c r="QP18" s="35"/>
-      <c r="QQ18" s="35"/>
-      <c r="QR18" s="35"/>
-      <c r="QS18" s="35"/>
-      <c r="QT18" s="35"/>
-      <c r="QU18" s="35"/>
-      <c r="QV18" s="35"/>
-      <c r="QW18" s="35"/>
-      <c r="QX18" s="35"/>
-      <c r="QY18" s="35"/>
-      <c r="QZ18" s="35"/>
-      <c r="RA18" s="35"/>
-      <c r="RB18" s="35"/>
-      <c r="RC18" s="35"/>
-      <c r="RD18" s="35"/>
-      <c r="RE18" s="35"/>
-      <c r="RF18" s="35"/>
-      <c r="RG18" s="35"/>
-      <c r="RH18" s="35"/>
-      <c r="RI18" s="35"/>
-      <c r="RJ18" s="35"/>
-      <c r="RK18" s="35"/>
-      <c r="RL18" s="35"/>
-      <c r="RM18" s="35"/>
-      <c r="RN18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="BV18" s="36"/>
+      <c r="BW18" s="37"/>
+      <c r="BX18" s="37"/>
+      <c r="ET18" s="36"/>
+      <c r="EU18" s="36"/>
+      <c r="GN18" s="38"/>
+      <c r="GO18" s="38"/>
+      <c r="IN18" s="36"/>
+      <c r="IO18" s="36"/>
+      <c r="JL18" s="36"/>
+      <c r="JM18" s="36"/>
+      <c r="KY18" s="36"/>
+      <c r="KZ18" s="36"/>
+      <c r="MN18" s="36"/>
+      <c r="MO18" s="36"/>
+      <c r="NE18" s="36"/>
+      <c r="NH18" s="36"/>
+      <c r="NI18" s="36"/>
+      <c r="OG18" s="36"/>
+      <c r="OH18" s="36"/>
+      <c r="OY18" s="36"/>
+      <c r="OZ18" s="36"/>
+      <c r="QO18" s="36"/>
+      <c r="QP18" s="36"/>
+      <c r="QQ18" s="36"/>
+      <c r="QR18" s="36"/>
+      <c r="QS18" s="36"/>
+      <c r="QT18" s="36"/>
+      <c r="QU18" s="36"/>
+      <c r="QV18" s="36"/>
+      <c r="QW18" s="36"/>
+      <c r="QX18" s="36"/>
+      <c r="QY18" s="36"/>
+      <c r="QZ18" s="36"/>
+      <c r="RA18" s="36"/>
+      <c r="RB18" s="36"/>
+      <c r="RC18" s="36"/>
+      <c r="RD18" s="36"/>
+      <c r="RE18" s="36"/>
+      <c r="RF18" s="36"/>
+      <c r="RG18" s="36"/>
+      <c r="RH18" s="36"/>
+      <c r="RI18" s="36"/>
+      <c r="RJ18" s="36"/>
+      <c r="RK18" s="36"/>
+      <c r="RL18" s="36"/>
+      <c r="RM18" s="36"/>
+      <c r="RN18" s="36"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="BV19" s="35"/>
-      <c r="BW19" s="35"/>
-      <c r="BX19" s="35"/>
-      <c r="ET19" s="35"/>
-      <c r="EU19" s="35"/>
-      <c r="GN19" s="35"/>
-      <c r="GO19" s="35"/>
-      <c r="IN19" s="35"/>
-      <c r="IO19" s="35"/>
-      <c r="JL19" s="35"/>
-      <c r="JM19" s="35"/>
-      <c r="KY19" s="36"/>
-      <c r="KZ19" s="36"/>
-      <c r="MN19" s="36"/>
-      <c r="MO19" s="36"/>
-      <c r="NE19" s="35"/>
-      <c r="NH19" s="35"/>
-      <c r="NI19" s="35"/>
-      <c r="OG19" s="35"/>
-      <c r="OH19" s="35"/>
-      <c r="OY19" s="35"/>
-      <c r="OZ19" s="35"/>
-      <c r="QO19" s="35"/>
-      <c r="QP19" s="35"/>
-      <c r="QQ19" s="35"/>
-      <c r="QR19" s="35"/>
-      <c r="QS19" s="35"/>
-      <c r="QT19" s="35"/>
-      <c r="QU19" s="35"/>
-      <c r="QV19" s="35"/>
-      <c r="QW19" s="35"/>
-      <c r="QX19" s="35"/>
-      <c r="QY19" s="35"/>
-      <c r="QZ19" s="35"/>
-      <c r="RA19" s="35"/>
-      <c r="RB19" s="35"/>
-      <c r="RC19" s="35"/>
-      <c r="RD19" s="35"/>
-      <c r="RE19" s="35"/>
-      <c r="RF19" s="35"/>
-      <c r="RG19" s="35"/>
-      <c r="RH19" s="35"/>
-      <c r="RI19" s="35"/>
-      <c r="RJ19" s="35"/>
-      <c r="RK19" s="35"/>
-      <c r="RL19" s="35"/>
-      <c r="RM19" s="35"/>
-      <c r="RN19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="BV19" s="36"/>
+      <c r="BW19" s="36"/>
+      <c r="BX19" s="36"/>
+      <c r="ET19" s="36"/>
+      <c r="EU19" s="36"/>
+      <c r="GN19" s="36"/>
+      <c r="GO19" s="36"/>
+      <c r="IN19" s="36"/>
+      <c r="IO19" s="36"/>
+      <c r="JL19" s="36"/>
+      <c r="JM19" s="36"/>
+      <c r="KY19" s="37"/>
+      <c r="KZ19" s="37"/>
+      <c r="MN19" s="37"/>
+      <c r="MO19" s="37"/>
+      <c r="NE19" s="36"/>
+      <c r="NH19" s="36"/>
+      <c r="NI19" s="36"/>
+      <c r="OG19" s="36"/>
+      <c r="OH19" s="36"/>
+      <c r="OY19" s="36"/>
+      <c r="OZ19" s="36"/>
+      <c r="QO19" s="36"/>
+      <c r="QP19" s="36"/>
+      <c r="QQ19" s="36"/>
+      <c r="QR19" s="36"/>
+      <c r="QS19" s="36"/>
+      <c r="QT19" s="36"/>
+      <c r="QU19" s="36"/>
+      <c r="QV19" s="36"/>
+      <c r="QW19" s="36"/>
+      <c r="QX19" s="36"/>
+      <c r="QY19" s="36"/>
+      <c r="QZ19" s="36"/>
+      <c r="RA19" s="36"/>
+      <c r="RB19" s="36"/>
+      <c r="RC19" s="36"/>
+      <c r="RD19" s="36"/>
+      <c r="RE19" s="36"/>
+      <c r="RF19" s="36"/>
+      <c r="RG19" s="36"/>
+      <c r="RH19" s="36"/>
+      <c r="RI19" s="36"/>
+      <c r="RJ19" s="36"/>
+      <c r="RK19" s="36"/>
+      <c r="RL19" s="36"/>
+      <c r="RM19" s="36"/>
+      <c r="RN19" s="36"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="BV20" s="35"/>
-      <c r="BW20" s="35"/>
-      <c r="BX20" s="35"/>
-      <c r="ET20" s="35"/>
-      <c r="EU20" s="35"/>
-      <c r="GN20" s="35"/>
-      <c r="GO20" s="35"/>
-      <c r="IN20" s="35"/>
-      <c r="IO20" s="35"/>
-      <c r="JL20" s="35"/>
-      <c r="JM20" s="35"/>
-      <c r="KY20" s="35"/>
-      <c r="KZ20" s="35"/>
-      <c r="NE20" s="35"/>
-      <c r="NH20" s="35"/>
-      <c r="NI20" s="35"/>
-      <c r="OG20" s="35"/>
-      <c r="OH20" s="35"/>
-      <c r="OY20" s="35"/>
-      <c r="OZ20" s="35"/>
-      <c r="QO20" s="35"/>
-      <c r="QP20" s="35"/>
-      <c r="QQ20" s="35"/>
-      <c r="QR20" s="35"/>
-      <c r="QS20" s="35"/>
-      <c r="QT20" s="35"/>
-      <c r="QU20" s="35"/>
-      <c r="QV20" s="35"/>
-      <c r="QW20" s="35"/>
-      <c r="QX20" s="35"/>
-      <c r="QY20" s="35"/>
-      <c r="QZ20" s="35"/>
-      <c r="RA20" s="35"/>
-      <c r="RB20" s="35"/>
-      <c r="RC20" s="35"/>
-      <c r="RD20" s="35"/>
-      <c r="RE20" s="35"/>
-      <c r="RF20" s="35"/>
-      <c r="RG20" s="35"/>
-      <c r="RH20" s="35"/>
-      <c r="RI20" s="35"/>
-      <c r="RJ20" s="35"/>
-      <c r="RK20" s="35"/>
-      <c r="RL20" s="35"/>
-      <c r="RM20" s="35"/>
-      <c r="RN20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="BV20" s="36"/>
+      <c r="BW20" s="36"/>
+      <c r="BX20" s="36"/>
+      <c r="ET20" s="36"/>
+      <c r="EU20" s="36"/>
+      <c r="GN20" s="36"/>
+      <c r="GO20" s="36"/>
+      <c r="IN20" s="36"/>
+      <c r="IO20" s="36"/>
+      <c r="JL20" s="36"/>
+      <c r="JM20" s="36"/>
+      <c r="KY20" s="36"/>
+      <c r="KZ20" s="36"/>
+      <c r="NE20" s="36"/>
+      <c r="NH20" s="36"/>
+      <c r="NI20" s="36"/>
+      <c r="OG20" s="36"/>
+      <c r="OH20" s="36"/>
+      <c r="OY20" s="36"/>
+      <c r="OZ20" s="36"/>
+      <c r="QO20" s="36"/>
+      <c r="QP20" s="36"/>
+      <c r="QQ20" s="36"/>
+      <c r="QR20" s="36"/>
+      <c r="QS20" s="36"/>
+      <c r="QT20" s="36"/>
+      <c r="QU20" s="36"/>
+      <c r="QV20" s="36"/>
+      <c r="QW20" s="36"/>
+      <c r="QX20" s="36"/>
+      <c r="QY20" s="36"/>
+      <c r="QZ20" s="36"/>
+      <c r="RA20" s="36"/>
+      <c r="RB20" s="36"/>
+      <c r="RC20" s="36"/>
+      <c r="RD20" s="36"/>
+      <c r="RE20" s="36"/>
+      <c r="RF20" s="36"/>
+      <c r="RG20" s="36"/>
+      <c r="RH20" s="36"/>
+      <c r="RI20" s="36"/>
+      <c r="RJ20" s="36"/>
+      <c r="RK20" s="36"/>
+      <c r="RL20" s="36"/>
+      <c r="RM20" s="36"/>
+      <c r="RN20" s="36"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="BV21" s="35"/>
-      <c r="BW21" s="35"/>
-      <c r="BX21" s="35"/>
-      <c r="ET21" s="35"/>
-      <c r="EU21" s="35"/>
-      <c r="GN21" s="35"/>
-      <c r="GO21" s="35"/>
-      <c r="IN21" s="35"/>
-      <c r="IO21" s="35"/>
-      <c r="JL21" s="35"/>
-      <c r="JM21" s="35"/>
-      <c r="KY21" s="35"/>
-      <c r="KZ21" s="35"/>
-      <c r="NE21" s="35"/>
-      <c r="NH21" s="35"/>
-      <c r="NI21" s="35"/>
-      <c r="OY21" s="35"/>
-      <c r="OZ21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="BV21" s="36"/>
+      <c r="BW21" s="36"/>
+      <c r="BX21" s="36"/>
+      <c r="ET21" s="36"/>
+      <c r="EU21" s="36"/>
+      <c r="GN21" s="36"/>
+      <c r="GO21" s="36"/>
+      <c r="IN21" s="36"/>
+      <c r="IO21" s="36"/>
+      <c r="JL21" s="36"/>
+      <c r="JM21" s="36"/>
+      <c r="KY21" s="36"/>
+      <c r="KZ21" s="36"/>
+      <c r="NE21" s="36"/>
+      <c r="NH21" s="36"/>
+      <c r="NI21" s="36"/>
+      <c r="OY21" s="36"/>
+      <c r="OZ21" s="36"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="BV22" s="35"/>
-      <c r="BW22" s="35"/>
-      <c r="BX22" s="35"/>
-      <c r="ET22" s="35"/>
-      <c r="EU22" s="35"/>
-      <c r="GN22" s="35"/>
-      <c r="GO22" s="35"/>
-      <c r="IN22" s="35"/>
-      <c r="IO22" s="35"/>
-      <c r="JL22" s="35"/>
-      <c r="JM22" s="35"/>
-      <c r="KY22" s="35"/>
-      <c r="KZ22" s="35"/>
-      <c r="NE22" s="35"/>
-      <c r="NH22" s="35"/>
-      <c r="NI22" s="35"/>
-      <c r="OY22" s="35"/>
-      <c r="OZ22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="BV22" s="36"/>
+      <c r="BW22" s="36"/>
+      <c r="BX22" s="36"/>
+      <c r="ET22" s="36"/>
+      <c r="EU22" s="36"/>
+      <c r="GN22" s="36"/>
+      <c r="GO22" s="36"/>
+      <c r="IN22" s="36"/>
+      <c r="IO22" s="36"/>
+      <c r="JL22" s="36"/>
+      <c r="JM22" s="36"/>
+      <c r="KY22" s="36"/>
+      <c r="KZ22" s="36"/>
+      <c r="NE22" s="36"/>
+      <c r="NH22" s="36"/>
+      <c r="NI22" s="36"/>
+      <c r="OY22" s="36"/>
+      <c r="OZ22" s="36"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="BV23" s="35"/>
-      <c r="BW23" s="35"/>
-      <c r="BX23" s="35"/>
-      <c r="ET23" s="35"/>
-      <c r="EU23" s="35"/>
-      <c r="GN23" s="35"/>
-      <c r="GO23" s="35"/>
-      <c r="IN23" s="35"/>
-      <c r="IO23" s="35"/>
-      <c r="JL23" s="35"/>
-      <c r="JM23" s="35"/>
-      <c r="KY23" s="35"/>
-      <c r="KZ23" s="35"/>
-      <c r="NE23" s="35"/>
-      <c r="NH23" s="35"/>
-      <c r="NI23" s="35"/>
-      <c r="OY23" s="35"/>
-      <c r="OZ23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="BV23" s="36"/>
+      <c r="BW23" s="36"/>
+      <c r="BX23" s="36"/>
+      <c r="ET23" s="36"/>
+      <c r="EU23" s="36"/>
+      <c r="GN23" s="36"/>
+      <c r="GO23" s="36"/>
+      <c r="IN23" s="36"/>
+      <c r="IO23" s="36"/>
+      <c r="JL23" s="36"/>
+      <c r="JM23" s="36"/>
+      <c r="KY23" s="36"/>
+      <c r="KZ23" s="36"/>
+      <c r="NE23" s="36"/>
+      <c r="NH23" s="36"/>
+      <c r="NI23" s="36"/>
+      <c r="OY23" s="36"/>
+      <c r="OZ23" s="36"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="BV24" s="35"/>
-      <c r="BW24" s="35"/>
-      <c r="BX24" s="35"/>
-      <c r="ET24" s="35"/>
-      <c r="EU24" s="35"/>
-      <c r="GN24" s="35"/>
-      <c r="GO24" s="35"/>
-      <c r="IN24" s="35"/>
-      <c r="IO24" s="35"/>
-      <c r="JL24" s="38"/>
-      <c r="JM24" s="38"/>
-      <c r="KY24" s="35"/>
-      <c r="KZ24" s="35"/>
-      <c r="NE24" s="35"/>
-      <c r="NH24" s="35"/>
-      <c r="NI24" s="35"/>
-      <c r="OY24" s="35"/>
-      <c r="OZ24" s="35"/>
+      <c r="BV24" s="36"/>
+      <c r="BW24" s="36"/>
+      <c r="BX24" s="36"/>
+      <c r="ET24" s="36"/>
+      <c r="EU24" s="36"/>
+      <c r="GN24" s="36"/>
+      <c r="GO24" s="36"/>
+      <c r="IN24" s="36"/>
+      <c r="IO24" s="36"/>
+      <c r="JL24" s="39"/>
+      <c r="JM24" s="39"/>
+      <c r="KY24" s="36"/>
+      <c r="KZ24" s="36"/>
+      <c r="NE24" s="36"/>
+      <c r="NH24" s="36"/>
+      <c r="NI24" s="36"/>
+      <c r="OY24" s="36"/>
+      <c r="OZ24" s="36"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="BV25" s="35"/>
-      <c r="BW25" s="35"/>
-      <c r="BX25" s="35"/>
-      <c r="ET25" s="35"/>
-      <c r="EU25" s="35"/>
-      <c r="GN25" s="35"/>
-      <c r="GO25" s="35"/>
-      <c r="IN25" s="35"/>
-      <c r="IO25" s="35"/>
-      <c r="JL25" s="38"/>
-      <c r="JM25" s="38"/>
-      <c r="KY25" s="35"/>
-      <c r="KZ25" s="35"/>
-      <c r="NE25" s="35"/>
-      <c r="NH25" s="35"/>
-      <c r="NI25" s="35"/>
-      <c r="OY25" s="35"/>
-      <c r="OZ25" s="35"/>
+      <c r="BV25" s="36"/>
+      <c r="BW25" s="36"/>
+      <c r="BX25" s="36"/>
+      <c r="ET25" s="36"/>
+      <c r="EU25" s="36"/>
+      <c r="GN25" s="36"/>
+      <c r="GO25" s="36"/>
+      <c r="IN25" s="36"/>
+      <c r="IO25" s="36"/>
+      <c r="JL25" s="39"/>
+      <c r="JM25" s="39"/>
+      <c r="KY25" s="36"/>
+      <c r="KZ25" s="36"/>
+      <c r="NE25" s="36"/>
+      <c r="NH25" s="36"/>
+      <c r="NI25" s="36"/>
+      <c r="OY25" s="36"/>
+      <c r="OZ25" s="36"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="BV26" s="35"/>
-      <c r="BW26" s="35"/>
-      <c r="BX26" s="35"/>
-      <c r="ET26" s="35"/>
-      <c r="EU26" s="35"/>
-      <c r="GN26" s="35"/>
-      <c r="GO26" s="35"/>
-      <c r="IN26" s="35"/>
-      <c r="IO26" s="35"/>
-      <c r="JL26" s="35"/>
-      <c r="JM26" s="35"/>
-      <c r="KY26" s="35"/>
-      <c r="KZ26" s="35"/>
-      <c r="NH26" s="35"/>
-      <c r="NI26" s="35"/>
-      <c r="OY26" s="35"/>
-      <c r="OZ26" s="35"/>
+      <c r="BV26" s="36"/>
+      <c r="BW26" s="36"/>
+      <c r="BX26" s="36"/>
+      <c r="ET26" s="36"/>
+      <c r="EU26" s="36"/>
+      <c r="GN26" s="36"/>
+      <c r="GO26" s="36"/>
+      <c r="IN26" s="36"/>
+      <c r="IO26" s="36"/>
+      <c r="JL26" s="36"/>
+      <c r="JM26" s="36"/>
+      <c r="KY26" s="36"/>
+      <c r="KZ26" s="36"/>
+      <c r="NH26" s="36"/>
+      <c r="NI26" s="36"/>
+      <c r="OY26" s="36"/>
+      <c r="OZ26" s="36"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="BV27" s="35"/>
-      <c r="BW27" s="35"/>
-      <c r="BX27" s="35"/>
-      <c r="ET27" s="35"/>
-      <c r="EU27" s="35"/>
-      <c r="GN27" s="35"/>
-      <c r="GO27" s="35"/>
-      <c r="JL27" s="38"/>
-      <c r="JM27" s="38"/>
-      <c r="KY27" s="35"/>
-      <c r="KZ27" s="35"/>
-      <c r="OY27" s="35"/>
-      <c r="OZ27" s="35"/>
+      <c r="BV27" s="36"/>
+      <c r="BW27" s="36"/>
+      <c r="BX27" s="36"/>
+      <c r="ET27" s="36"/>
+      <c r="EU27" s="36"/>
+      <c r="GN27" s="36"/>
+      <c r="GO27" s="36"/>
+      <c r="JL27" s="39"/>
+      <c r="JM27" s="39"/>
+      <c r="KY27" s="36"/>
+      <c r="KZ27" s="36"/>
+      <c r="OY27" s="36"/>
+      <c r="OZ27" s="36"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="BV28" s="35"/>
-      <c r="BW28" s="35"/>
-      <c r="BX28" s="35"/>
-      <c r="ET28" s="35"/>
-      <c r="EU28" s="35"/>
-      <c r="GN28" s="35"/>
-      <c r="GO28" s="35"/>
-      <c r="JL28" s="38"/>
-      <c r="JM28" s="38"/>
-      <c r="KY28" s="35"/>
-      <c r="KZ28" s="35"/>
-      <c r="OY28" s="35"/>
-      <c r="OZ28" s="35"/>
+      <c r="BV28" s="36"/>
+      <c r="BW28" s="36"/>
+      <c r="BX28" s="36"/>
+      <c r="ET28" s="36"/>
+      <c r="EU28" s="36"/>
+      <c r="GN28" s="36"/>
+      <c r="GO28" s="36"/>
+      <c r="JL28" s="39"/>
+      <c r="JM28" s="39"/>
+      <c r="KY28" s="36"/>
+      <c r="KZ28" s="36"/>
+      <c r="OY28" s="36"/>
+      <c r="OZ28" s="36"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="BV29" s="35"/>
-      <c r="BW29" s="35"/>
-      <c r="BX29" s="35"/>
-      <c r="ET29" s="35"/>
-      <c r="EU29" s="35"/>
-      <c r="GN29" s="35"/>
-      <c r="GO29" s="35"/>
-      <c r="JL29" s="38"/>
-      <c r="JM29" s="38"/>
-      <c r="KY29" s="35"/>
-      <c r="KZ29" s="35"/>
-      <c r="OY29" s="35"/>
-      <c r="OZ29" s="35"/>
+      <c r="BV29" s="36"/>
+      <c r="BW29" s="36"/>
+      <c r="BX29" s="36"/>
+      <c r="ET29" s="36"/>
+      <c r="EU29" s="36"/>
+      <c r="GN29" s="36"/>
+      <c r="GO29" s="36"/>
+      <c r="JL29" s="39"/>
+      <c r="JM29" s="39"/>
+      <c r="KY29" s="36"/>
+      <c r="KZ29" s="36"/>
+      <c r="OY29" s="36"/>
+      <c r="OZ29" s="36"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="BV30" s="35"/>
-      <c r="BW30" s="35"/>
-      <c r="BX30" s="35"/>
-      <c r="ET30" s="35"/>
-      <c r="EU30" s="35"/>
-      <c r="GN30" s="35"/>
-      <c r="GO30" s="35"/>
-      <c r="JL30" s="35"/>
-      <c r="JM30" s="35"/>
-      <c r="KY30" s="35"/>
-      <c r="KZ30" s="35"/>
+      <c r="BV30" s="36"/>
+      <c r="BW30" s="36"/>
+      <c r="BX30" s="36"/>
+      <c r="ET30" s="36"/>
+      <c r="EU30" s="36"/>
+      <c r="GN30" s="36"/>
+      <c r="GO30" s="36"/>
+      <c r="JL30" s="36"/>
+      <c r="JM30" s="36"/>
+      <c r="KY30" s="36"/>
+      <c r="KZ30" s="36"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="BV31" s="35"/>
-      <c r="BW31" s="36"/>
-      <c r="BX31" s="36"/>
-      <c r="ET31" s="35"/>
-      <c r="EU31" s="35"/>
-      <c r="GN31" s="35"/>
-      <c r="GO31" s="35"/>
-      <c r="JL31" s="35"/>
-      <c r="JM31" s="35"/>
-      <c r="KY31" s="35"/>
-      <c r="KZ31" s="35"/>
+      <c r="BV31" s="36"/>
+      <c r="BW31" s="37"/>
+      <c r="BX31" s="37"/>
+      <c r="ET31" s="36"/>
+      <c r="EU31" s="36"/>
+      <c r="GN31" s="36"/>
+      <c r="GO31" s="36"/>
+      <c r="JL31" s="36"/>
+      <c r="JM31" s="36"/>
+      <c r="KY31" s="36"/>
+      <c r="KZ31" s="36"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="BV32" s="35"/>
-      <c r="BW32" s="35"/>
-      <c r="BX32" s="35"/>
-      <c r="GN32" s="35"/>
-      <c r="GO32" s="35"/>
-      <c r="JL32" s="35"/>
-      <c r="JM32" s="35"/>
-      <c r="KY32" s="35"/>
-      <c r="KZ32" s="35"/>
+      <c r="BV32" s="36"/>
+      <c r="BW32" s="36"/>
+      <c r="BX32" s="36"/>
+      <c r="GN32" s="36"/>
+      <c r="GO32" s="36"/>
+      <c r="JL32" s="36"/>
+      <c r="JM32" s="36"/>
+      <c r="KY32" s="36"/>
+      <c r="KZ32" s="36"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="BV33" s="35"/>
-      <c r="BW33" s="35"/>
-      <c r="BX33" s="35"/>
-      <c r="GN33" s="35"/>
-      <c r="GO33" s="35"/>
-      <c r="JL33" s="35"/>
-      <c r="JM33" s="35"/>
-      <c r="KY33" s="35"/>
-      <c r="KZ33" s="35"/>
+      <c r="BV33" s="36"/>
+      <c r="BW33" s="36"/>
+      <c r="BX33" s="36"/>
+      <c r="GN33" s="36"/>
+      <c r="GO33" s="36"/>
+      <c r="JL33" s="36"/>
+      <c r="JM33" s="36"/>
+      <c r="KY33" s="36"/>
+      <c r="KZ33" s="36"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="BV34" s="35"/>
-      <c r="BW34" s="35"/>
-      <c r="BX34" s="35"/>
-      <c r="GN34" s="35"/>
-      <c r="GO34" s="35"/>
-      <c r="JL34" s="35"/>
-      <c r="JM34" s="35"/>
-      <c r="KY34" s="35"/>
-      <c r="KZ34" s="35"/>
+      <c r="BV34" s="36"/>
+      <c r="BW34" s="36"/>
+      <c r="BX34" s="36"/>
+      <c r="GN34" s="36"/>
+      <c r="GO34" s="36"/>
+      <c r="JL34" s="36"/>
+      <c r="JM34" s="36"/>
+      <c r="KY34" s="36"/>
+      <c r="KZ34" s="36"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="BV35" s="35"/>
-      <c r="BW35" s="35"/>
-      <c r="BX35" s="35"/>
-      <c r="GN35" s="35"/>
-      <c r="GO35" s="35"/>
-      <c r="JL35" s="35"/>
-      <c r="JM35" s="35"/>
-      <c r="KY35" s="35"/>
-      <c r="KZ35" s="35"/>
+      <c r="BV35" s="36"/>
+      <c r="BW35" s="36"/>
+      <c r="BX35" s="36"/>
+      <c r="GN35" s="36"/>
+      <c r="GO35" s="36"/>
+      <c r="JL35" s="36"/>
+      <c r="JM35" s="36"/>
+      <c r="KY35" s="36"/>
+      <c r="KZ35" s="36"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="BV36" s="35"/>
-      <c r="BW36" s="35"/>
-      <c r="BX36" s="35"/>
-      <c r="GN36" s="35"/>
-      <c r="GO36" s="35"/>
-      <c r="JL36" s="35"/>
-      <c r="JM36" s="35"/>
-      <c r="KY36" s="35"/>
-      <c r="KZ36" s="35"/>
+      <c r="BV36" s="36"/>
+      <c r="BW36" s="36"/>
+      <c r="BX36" s="36"/>
+      <c r="GN36" s="36"/>
+      <c r="GO36" s="36"/>
+      <c r="JL36" s="36"/>
+      <c r="JM36" s="36"/>
+      <c r="KY36" s="36"/>
+      <c r="KZ36" s="36"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="BV37" s="35"/>
-      <c r="BW37" s="35"/>
-      <c r="BX37" s="35"/>
-      <c r="GN37" s="35"/>
-      <c r="GO37" s="35"/>
-      <c r="JL37" s="35"/>
-      <c r="JM37" s="35"/>
-      <c r="KY37" s="35"/>
-      <c r="KZ37" s="35"/>
+      <c r="BV37" s="36"/>
+      <c r="BW37" s="36"/>
+      <c r="BX37" s="36"/>
+      <c r="GN37" s="36"/>
+      <c r="GO37" s="36"/>
+      <c r="JL37" s="36"/>
+      <c r="JM37" s="36"/>
+      <c r="KY37" s="36"/>
+      <c r="KZ37" s="36"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="BV38" s="35"/>
-      <c r="BW38" s="35"/>
-      <c r="BX38" s="35"/>
-      <c r="GN38" s="35"/>
-      <c r="GO38" s="35"/>
-      <c r="JL38" s="35"/>
-      <c r="JM38" s="35"/>
-      <c r="KY38" s="35"/>
-      <c r="KZ38" s="35"/>
+      <c r="BV38" s="36"/>
+      <c r="BW38" s="36"/>
+      <c r="BX38" s="36"/>
+      <c r="GN38" s="36"/>
+      <c r="GO38" s="36"/>
+      <c r="JL38" s="36"/>
+      <c r="JM38" s="36"/>
+      <c r="KY38" s="36"/>
+      <c r="KZ38" s="36"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="BV39" s="35"/>
-      <c r="BW39" s="35"/>
-      <c r="BX39" s="35"/>
-      <c r="GN39" s="35"/>
-      <c r="GO39" s="35"/>
-      <c r="JL39" s="35"/>
-      <c r="JM39" s="35"/>
-      <c r="KY39" s="35"/>
-      <c r="KZ39" s="35"/>
+      <c r="BV39" s="36"/>
+      <c r="BW39" s="36"/>
+      <c r="BX39" s="36"/>
+      <c r="GN39" s="36"/>
+      <c r="GO39" s="36"/>
+      <c r="JL39" s="36"/>
+      <c r="JM39" s="36"/>
+      <c r="KY39" s="36"/>
+      <c r="KZ39" s="36"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="BV40" s="35"/>
-      <c r="BW40" s="36"/>
-      <c r="BX40" s="36"/>
-      <c r="GN40" s="35"/>
-      <c r="GO40" s="35"/>
-      <c r="JL40" s="35"/>
-      <c r="JM40" s="35"/>
-      <c r="KY40" s="35"/>
-      <c r="KZ40" s="35"/>
+      <c r="BV40" s="36"/>
+      <c r="BW40" s="37"/>
+      <c r="BX40" s="37"/>
+      <c r="GN40" s="36"/>
+      <c r="GO40" s="36"/>
+      <c r="JL40" s="36"/>
+      <c r="JM40" s="36"/>
+      <c r="KY40" s="36"/>
+      <c r="KZ40" s="36"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="BV41" s="41"/>
-      <c r="BW41" s="35"/>
-      <c r="BX41" s="35"/>
-      <c r="GN41" s="35"/>
-      <c r="GO41" s="35"/>
-      <c r="KY41" s="35"/>
-      <c r="KZ41" s="35"/>
+      <c r="BV41" s="42"/>
+      <c r="BW41" s="36"/>
+      <c r="BX41" s="36"/>
+      <c r="GN41" s="36"/>
+      <c r="GO41" s="36"/>
+      <c r="KY41" s="36"/>
+      <c r="KZ41" s="36"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="BV42" s="35"/>
-      <c r="BW42" s="36"/>
-      <c r="BX42" s="36"/>
-      <c r="GN42" s="35"/>
-      <c r="GO42" s="35"/>
-      <c r="KY42" s="35"/>
-      <c r="KZ42" s="35"/>
+      <c r="BV42" s="36"/>
+      <c r="BW42" s="37"/>
+      <c r="BX42" s="37"/>
+      <c r="GN42" s="36"/>
+      <c r="GO42" s="36"/>
+      <c r="KY42" s="36"/>
+      <c r="KZ42" s="36"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="BV43" s="35"/>
-      <c r="BW43" s="35"/>
-      <c r="BX43" s="35"/>
-      <c r="GN43" s="35"/>
-      <c r="GO43" s="35"/>
+      <c r="BV43" s="36"/>
+      <c r="BW43" s="36"/>
+      <c r="BX43" s="36"/>
+      <c r="GN43" s="36"/>
+      <c r="GO43" s="36"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="BV44" s="35"/>
-      <c r="BW44" s="35"/>
-      <c r="BX44" s="35"/>
-      <c r="GN44" s="35"/>
-      <c r="GO44" s="35"/>
+      <c r="BV44" s="36"/>
+      <c r="BW44" s="36"/>
+      <c r="BX44" s="36"/>
+      <c r="GN44" s="36"/>
+      <c r="GO44" s="36"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="BV45" s="35"/>
-      <c r="BW45" s="35"/>
-      <c r="BX45" s="35"/>
-      <c r="GN45" s="35"/>
-      <c r="GO45" s="35"/>
+      <c r="BV45" s="36"/>
+      <c r="BW45" s="36"/>
+      <c r="BX45" s="36"/>
+      <c r="GN45" s="36"/>
+      <c r="GO45" s="36"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="BV46" s="35"/>
-      <c r="BW46" s="35"/>
-      <c r="BX46" s="35"/>
-      <c r="GN46" s="35"/>
-      <c r="GO46" s="35"/>
+      <c r="BV46" s="36"/>
+      <c r="BW46" s="36"/>
+      <c r="BX46" s="36"/>
+      <c r="GN46" s="36"/>
+      <c r="GO46" s="36"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="BV47" s="35"/>
-      <c r="BW47" s="35"/>
-      <c r="BX47" s="35"/>
-      <c r="GN47" s="35"/>
-      <c r="GO47" s="35"/>
+      <c r="BV47" s="36"/>
+      <c r="BW47" s="36"/>
+      <c r="BX47" s="36"/>
+      <c r="GN47" s="36"/>
+      <c r="GO47" s="36"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="BV48" s="35"/>
-      <c r="BW48" s="35"/>
-      <c r="BX48" s="35"/>
-      <c r="GN48" s="35"/>
-      <c r="GO48" s="35"/>
+      <c r="BV48" s="36"/>
+      <c r="BW48" s="36"/>
+      <c r="BX48" s="36"/>
+      <c r="GN48" s="36"/>
+      <c r="GO48" s="36"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="BV49" s="35"/>
-      <c r="BW49" s="35"/>
-      <c r="BX49" s="35"/>
-      <c r="GN49" s="35"/>
-      <c r="GO49" s="35"/>
+      <c r="BV49" s="36"/>
+      <c r="BW49" s="36"/>
+      <c r="BX49" s="36"/>
+      <c r="GN49" s="36"/>
+      <c r="GO49" s="36"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="BV50" s="35"/>
-      <c r="BW50" s="35"/>
-      <c r="BX50" s="35"/>
-      <c r="GN50" s="35"/>
-      <c r="GO50" s="35"/>
+      <c r="BV50" s="36"/>
+      <c r="BW50" s="36"/>
+      <c r="BX50" s="36"/>
+      <c r="GN50" s="36"/>
+      <c r="GO50" s="36"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="BV51" s="35"/>
-      <c r="BW51" s="35"/>
-      <c r="BX51" s="35"/>
-      <c r="GN51" s="35"/>
-      <c r="GO51" s="35"/>
+      <c r="BV51" s="36"/>
+      <c r="BW51" s="36"/>
+      <c r="BX51" s="36"/>
+      <c r="GN51" s="36"/>
+      <c r="GO51" s="36"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="BV52" s="35"/>
-      <c r="BW52" s="35"/>
-      <c r="BX52" s="35"/>
-      <c r="GN52" s="35"/>
-      <c r="GO52" s="35"/>
+      <c r="BV52" s="36"/>
+      <c r="BW52" s="36"/>
+      <c r="BX52" s="36"/>
+      <c r="GN52" s="36"/>
+      <c r="GO52" s="36"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="BV53" s="35"/>
-      <c r="BW53" s="35"/>
-      <c r="BX53" s="35"/>
-      <c r="GN53" s="35"/>
-      <c r="GO53" s="35"/>
+      <c r="BV53" s="36"/>
+      <c r="BW53" s="36"/>
+      <c r="BX53" s="36"/>
+      <c r="GN53" s="36"/>
+      <c r="GO53" s="36"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="BV54" s="35"/>
-      <c r="BW54" s="35"/>
-      <c r="BX54" s="35"/>
-      <c r="GN54" s="38"/>
-      <c r="GO54" s="38"/>
+      <c r="BV54" s="36"/>
+      <c r="BW54" s="36"/>
+      <c r="BX54" s="36"/>
+      <c r="GN54" s="39"/>
+      <c r="GO54" s="39"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="BV55" s="35"/>
-      <c r="BW55" s="35"/>
-      <c r="BX55" s="35"/>
+      <c r="BV55" s="36"/>
+      <c r="BW55" s="36"/>
+      <c r="BX55" s="36"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="BV56" s="35"/>
-      <c r="BW56" s="35"/>
-      <c r="BX56" s="35"/>
+      <c r="BV56" s="36"/>
+      <c r="BW56" s="36"/>
+      <c r="BX56" s="36"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="BV57" s="35"/>
-      <c r="BW57" s="35"/>
-      <c r="BX57" s="35"/>
+      <c r="BV57" s="36"/>
+      <c r="BW57" s="36"/>
+      <c r="BX57" s="36"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="BV58" s="35"/>
-      <c r="BW58" s="35"/>
-      <c r="BX58" s="35"/>
+      <c r="BV58" s="36"/>
+      <c r="BW58" s="36"/>
+      <c r="BX58" s="36"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="BV59" s="35"/>
-      <c r="BW59" s="35"/>
-      <c r="BX59" s="35"/>
+      <c r="BV59" s="36"/>
+      <c r="BW59" s="36"/>
+      <c r="BX59" s="36"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="BV60" s="35"/>
-      <c r="BW60" s="35"/>
-      <c r="BX60" s="35"/>
+      <c r="BV60" s="36"/>
+      <c r="BW60" s="36"/>
+      <c r="BX60" s="36"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="BV61" s="35"/>
-      <c r="BW61" s="35"/>
-      <c r="BX61" s="35"/>
+      <c r="BV61" s="36"/>
+      <c r="BW61" s="36"/>
+      <c r="BX61" s="36"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="BV62" s="35"/>
-      <c r="BW62" s="35"/>
-      <c r="BX62" s="35"/>
+      <c r="BV62" s="36"/>
+      <c r="BW62" s="36"/>
+      <c r="BX62" s="36"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="BV63" s="35"/>
-      <c r="BW63" s="35"/>
-      <c r="BX63" s="35"/>
+      <c r="BV63" s="36"/>
+      <c r="BW63" s="36"/>
+      <c r="BX63" s="36"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="BV64" s="35"/>
-      <c r="BW64" s="35"/>
-      <c r="BX64" s="35"/>
+      <c r="BV64" s="36"/>
+      <c r="BW64" s="36"/>
+      <c r="BX64" s="36"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="BV65" s="35"/>
-      <c r="BW65" s="35"/>
-      <c r="BX65" s="35"/>
+      <c r="BV65" s="36"/>
+      <c r="BW65" s="36"/>
+      <c r="BX65" s="36"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="BV66" s="35"/>
-      <c r="BW66" s="35"/>
-      <c r="BX66" s="35"/>
+      <c r="BV66" s="36"/>
+      <c r="BW66" s="36"/>
+      <c r="BX66" s="36"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="BV67" s="35"/>
-      <c r="BW67" s="35"/>
-      <c r="BX67" s="35"/>
+      <c r="BV67" s="36"/>
+      <c r="BW67" s="36"/>
+      <c r="BX67" s="36"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="BV68" s="35"/>
-      <c r="BW68" s="35"/>
-      <c r="BX68" s="35"/>
+      <c r="BV68" s="36"/>
+      <c r="BW68" s="36"/>
+      <c r="BX68" s="36"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="BV69" s="35"/>
-      <c r="BW69" s="35"/>
-      <c r="BX69" s="35"/>
+      <c r="BV69" s="36"/>
+      <c r="BW69" s="36"/>
+      <c r="BX69" s="36"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="BV70" s="35"/>
-      <c r="BW70" s="35"/>
-      <c r="BX70" s="35"/>
+      <c r="BV70" s="36"/>
+      <c r="BW70" s="36"/>
+      <c r="BX70" s="36"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="BV71" s="35"/>
-      <c r="BW71" s="35"/>
-      <c r="BX71" s="35"/>
+      <c r="BV71" s="36"/>
+      <c r="BW71" s="36"/>
+      <c r="BX71" s="36"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="BV72" s="35"/>
-      <c r="BW72" s="35"/>
-      <c r="BX72" s="35"/>
+      <c r="BV72" s="36"/>
+      <c r="BW72" s="36"/>
+      <c r="BX72" s="36"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="BV73" s="35"/>
-      <c r="BW73" s="35"/>
-      <c r="BX73" s="35"/>
+      <c r="BV73" s="36"/>
+      <c r="BW73" s="36"/>
+      <c r="BX73" s="36"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="BV74" s="35"/>
-      <c r="BW74" s="36"/>
-      <c r="BX74" s="36"/>
+      <c r="BV74" s="36"/>
+      <c r="BW74" s="37"/>
+      <c r="BX74" s="37"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="BV75" s="35"/>
-      <c r="BW75" s="35"/>
-      <c r="BX75" s="35"/>
+      <c r="BV75" s="36"/>
+      <c r="BW75" s="36"/>
+      <c r="BX75" s="36"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="BV76" s="35"/>
-      <c r="BW76" s="35"/>
-      <c r="BX76" s="35"/>
+      <c r="BV76" s="36"/>
+      <c r="BW76" s="36"/>
+      <c r="BX76" s="36"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="BV77" s="35"/>
-      <c r="BW77" s="35"/>
-      <c r="BX77" s="35"/>
+      <c r="BV77" s="36"/>
+      <c r="BW77" s="36"/>
+      <c r="BX77" s="36"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="BV78" s="35"/>
+      <c r="BV78" s="36"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="BV79" s="35"/>
+      <c r="BV79" s="36"/>
     </row>
     <row r="80" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
